--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,231 +484,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5684.5</v>
+        <v>801.85</v>
       </c>
       <c r="C2" t="n">
-        <v>5712.5</v>
+        <v>810</v>
       </c>
       <c r="D2" t="n">
-        <v>5651</v>
+        <v>789.1</v>
       </c>
       <c r="E2" t="n">
-        <v>5665.5</v>
+        <v>808.6</v>
       </c>
       <c r="F2" t="n">
-        <v>202535</v>
+        <v>2553303</v>
       </c>
       <c r="G2" t="n">
-        <v>458305</v>
+        <v>5249912</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5580781357393002</v>
+        <v>-0.5136484192496941</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>INDIGO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2800</v>
+        <v>5893.5</v>
       </c>
       <c r="C3" t="n">
-        <v>2800</v>
+        <v>5907</v>
       </c>
       <c r="D3" t="n">
-        <v>2758</v>
+        <v>5793.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2764</v>
+        <v>5884</v>
       </c>
       <c r="F3" t="n">
-        <v>393906</v>
+        <v>483125</v>
       </c>
       <c r="G3" t="n">
-        <v>782631</v>
+        <v>980678</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4966900110013531</v>
+        <v>-0.507356135245208</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>INDIGO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3100</v>
+        <v>2370</v>
       </c>
       <c r="C4" t="n">
-        <v>3114</v>
+        <v>2454</v>
       </c>
       <c r="D4" t="n">
-        <v>3057</v>
+        <v>2359.3</v>
       </c>
       <c r="E4" t="n">
-        <v>3083</v>
+        <v>2452</v>
       </c>
       <c r="F4" t="n">
-        <v>392854</v>
+        <v>4564283</v>
       </c>
       <c r="G4" t="n">
-        <v>772626</v>
+        <v>9401319</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4915340669353607</v>
+        <v>-0.5145061028138711</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.7</v>
+        <v>6790</v>
       </c>
       <c r="C5" t="n">
-        <v>1345</v>
+        <v>6903.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1311.5</v>
+        <v>6746</v>
       </c>
       <c r="E5" t="n">
-        <v>1321</v>
+        <v>6896</v>
       </c>
       <c r="F5" t="n">
-        <v>1704636</v>
+        <v>193378</v>
       </c>
       <c r="G5" t="n">
-        <v>3593587</v>
+        <v>444662</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5256449892544691</v>
+        <v>-0.565112377491218</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>POLYCAB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>524.15</v>
+        <v>787.3</v>
       </c>
       <c r="C6" t="n">
-        <v>524.15</v>
+        <v>799</v>
       </c>
       <c r="D6" t="n">
-        <v>512</v>
+        <v>784</v>
       </c>
       <c r="E6" t="n">
-        <v>514</v>
+        <v>799</v>
       </c>
       <c r="F6" t="n">
-        <v>931299</v>
+        <v>526708</v>
       </c>
       <c r="G6" t="n">
-        <v>2027038</v>
+        <v>1239184</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5405616470929504</v>
+        <v>-0.5749557773502563</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1430</v>
+        <v>712.15</v>
       </c>
       <c r="C7" t="n">
-        <v>1430.6</v>
+        <v>719.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1403</v>
+        <v>707.25</v>
       </c>
       <c r="E7" t="n">
-        <v>1418</v>
+        <v>718.1</v>
       </c>
       <c r="F7" t="n">
-        <v>211740</v>
+        <v>977299</v>
       </c>
       <c r="G7" t="n">
-        <v>451543</v>
+        <v>2396780</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5310745598979499</v>
+        <v>-0.5922450120578443</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>MARICO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>AMBER</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7000</v>
+        <v>7595</v>
       </c>
       <c r="C8" t="n">
-        <v>7025</v>
+        <v>7785</v>
       </c>
       <c r="D8" t="n">
-        <v>6850</v>
+        <v>7595</v>
       </c>
       <c r="E8" t="n">
-        <v>6992</v>
+        <v>7765</v>
       </c>
       <c r="F8" t="n">
-        <v>100383</v>
+        <v>185434</v>
       </c>
       <c r="G8" t="n">
-        <v>200401</v>
+        <v>397729</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4990893259015673</v>
+        <v>-0.5337679676362549</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>AMBER</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2576</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2653</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2576</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2645.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>543383</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1180598</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5397391830241962</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>452</v>
+      </c>
+      <c r="C10" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>441.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>453.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1488749</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3539104</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5793429636427752</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>IIFL</t>
         </is>
       </c>
     </row>
@@ -723,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,66 +847,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.6</v>
+        <v>1455</v>
       </c>
       <c r="C2" t="n">
-        <v>335.4</v>
+        <v>1492</v>
       </c>
       <c r="D2" t="n">
-        <v>331.6</v>
+        <v>1450</v>
       </c>
       <c r="E2" t="n">
-        <v>332.55</v>
+        <v>1488.1</v>
       </c>
       <c r="F2" t="n">
-        <v>13872826</v>
+        <v>1587489</v>
       </c>
       <c r="G2" t="n">
-        <v>9855535</v>
+        <v>1039973</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4076177498228153</v>
+        <v>0.526471360314162</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>302</v>
+        <v>871</v>
       </c>
       <c r="C3" t="n">
-        <v>302.5</v>
+        <v>882</v>
       </c>
       <c r="D3" t="n">
-        <v>295.45</v>
+        <v>867.25</v>
       </c>
       <c r="E3" t="n">
-        <v>300.05</v>
+        <v>881.9</v>
       </c>
       <c r="F3" t="n">
-        <v>22012280</v>
+        <v>5998002</v>
       </c>
       <c r="G3" t="n">
-        <v>14820256</v>
+        <v>4212648</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4852833851183138</v>
+        <v>0.4238080181396594</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
@@ -851,25 +917,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1629.7</v>
+        <v>1581</v>
       </c>
       <c r="C4" t="n">
-        <v>1629.7</v>
+        <v>1605.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="E4" t="n">
-        <v>1593.5</v>
+        <v>1599.5</v>
       </c>
       <c r="F4" t="n">
+        <v>3435674</v>
+      </c>
+      <c r="G4" t="n">
         <v>2376257</v>
       </c>
-      <c r="G4" t="n">
-        <v>1622897</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.4642069090028511</v>
+        <v>0.4458343520923873</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -880,330 +946,396 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>JIOFIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3026</v>
+        <v>323</v>
       </c>
       <c r="C5" t="n">
-        <v>3058</v>
+        <v>328</v>
       </c>
       <c r="D5" t="n">
-        <v>2973.1</v>
+        <v>316.8</v>
       </c>
       <c r="E5" t="n">
-        <v>3042</v>
+        <v>327.4</v>
       </c>
       <c r="F5" t="n">
-        <v>819116</v>
+        <v>16461908</v>
       </c>
       <c r="G5" t="n">
-        <v>577583</v>
+        <v>11615135</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4181788591423224</v>
+        <v>0.4172808150744696</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>JIOFIN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>890</v>
+        <v>2764</v>
       </c>
       <c r="C6" t="n">
-        <v>902</v>
+        <v>2772.7</v>
       </c>
       <c r="D6" t="n">
-        <v>888</v>
+        <v>2718.8</v>
       </c>
       <c r="E6" t="n">
-        <v>895</v>
+        <v>2741.9</v>
       </c>
       <c r="F6" t="n">
-        <v>691080</v>
+        <v>591589</v>
       </c>
       <c r="G6" t="n">
-        <v>454682</v>
+        <v>393906</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5199194162073713</v>
+        <v>0.5018532340202992</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>751.05</v>
+        <v>3490.2</v>
       </c>
       <c r="C7" t="n">
-        <v>755.45</v>
+        <v>3637</v>
       </c>
       <c r="D7" t="n">
-        <v>739.5</v>
+        <v>3490.2</v>
       </c>
       <c r="E7" t="n">
-        <v>743.05</v>
+        <v>3595</v>
       </c>
       <c r="F7" t="n">
-        <v>2431229</v>
+        <v>402653</v>
       </c>
       <c r="G7" t="n">
-        <v>1553257</v>
+        <v>257376</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5652458028516852</v>
+        <v>0.564454339176924</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506</v>
+        <v>3057</v>
       </c>
       <c r="C8" t="n">
-        <v>507.95</v>
+        <v>3117.9</v>
       </c>
       <c r="D8" t="n">
-        <v>497.25</v>
+        <v>3022.8</v>
       </c>
       <c r="E8" t="n">
-        <v>498.05</v>
+        <v>3051</v>
       </c>
       <c r="F8" t="n">
-        <v>3191536</v>
+        <v>1176910</v>
       </c>
       <c r="G8" t="n">
-        <v>2223010</v>
+        <v>819116</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4356822506421474</v>
+        <v>0.4368050434859043</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>IRFC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3638</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
-        <v>3672.6</v>
+        <v>127.95</v>
       </c>
       <c r="D9" t="n">
-        <v>3599.8</v>
+        <v>124.1</v>
       </c>
       <c r="E9" t="n">
-        <v>3629.8</v>
+        <v>127.9</v>
       </c>
       <c r="F9" t="n">
-        <v>899245</v>
+        <v>9602587</v>
       </c>
       <c r="G9" t="n">
-        <v>634486</v>
+        <v>6331289</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4172810747597268</v>
+        <v>0.5166875181341429</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>IRFC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.7</v>
+        <v>1855.9</v>
       </c>
       <c r="C10" t="n">
-        <v>423.9</v>
+        <v>1952.7</v>
       </c>
       <c r="D10" t="n">
-        <v>416.85</v>
+        <v>1855</v>
       </c>
       <c r="E10" t="n">
-        <v>419.8</v>
+        <v>1937.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1418372</v>
+        <v>4166570</v>
       </c>
       <c r="G10" t="n">
-        <v>990246</v>
+        <v>2735877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4323430743471824</v>
+        <v>0.5229376174440591</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>LUPIN</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1204.3</v>
+        <v>1730</v>
       </c>
       <c r="C11" t="n">
-        <v>1214.1</v>
+        <v>1790</v>
       </c>
       <c r="D11" t="n">
-        <v>1195.1</v>
+        <v>1725</v>
       </c>
       <c r="E11" t="n">
-        <v>1205</v>
+        <v>1786.3</v>
       </c>
       <c r="F11" t="n">
-        <v>486218</v>
+        <v>1072869</v>
       </c>
       <c r="G11" t="n">
-        <v>336953</v>
+        <v>710140</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4429846299038738</v>
+        <v>0.5107851972850423</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>IREDA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.75</v>
+        <v>143.8</v>
       </c>
       <c r="C12" t="n">
-        <v>166.8</v>
+        <v>145.45</v>
       </c>
       <c r="D12" t="n">
-        <v>163.91</v>
+        <v>140.26</v>
       </c>
       <c r="E12" t="n">
-        <v>164.45</v>
+        <v>145.45</v>
       </c>
       <c r="F12" t="n">
-        <v>4382033</v>
+        <v>6734089</v>
       </c>
       <c r="G12" t="n">
-        <v>3028618</v>
+        <v>4802241</v>
       </c>
       <c r="H12" t="n">
-        <v>0.44687543955692</v>
+        <v>0.4022805186162044</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>IREDA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.39</v>
+        <v>589</v>
       </c>
       <c r="C13" t="n">
-        <v>212.54</v>
+        <v>594.75</v>
       </c>
       <c r="D13" t="n">
-        <v>207.15</v>
+        <v>577.1</v>
       </c>
       <c r="E13" t="n">
-        <v>207.9</v>
+        <v>591</v>
       </c>
       <c r="F13" t="n">
-        <v>2875309</v>
+        <v>631605</v>
       </c>
       <c r="G13" t="n">
-        <v>1895822</v>
+        <v>404411</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5166555720948486</v>
+        <v>0.5617898622935578</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>ATGL</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>SUZLON</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>643.9</v>
+        <v>64.81</v>
       </c>
       <c r="C14" t="n">
-        <v>643.9</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>625.35</v>
+        <v>62.21</v>
       </c>
       <c r="E14" t="n">
-        <v>629.95</v>
+        <v>64.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1035230</v>
+        <v>75542321</v>
       </c>
       <c r="G14" t="n">
-        <v>707823</v>
+        <v>47280146</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4625549042627888</v>
+        <v>0.597759892704223</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>SUZLON</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2965</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2965</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2875</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2913</v>
+      </c>
+      <c r="F15" t="n">
+        <v>479056</v>
+      </c>
+      <c r="G15" t="n">
+        <v>321329</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4908582792091595</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>263.15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2066794</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1423890</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4515124061549698</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,297 +484,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>801.85</v>
+        <v>1483</v>
       </c>
       <c r="C2" t="n">
-        <v>810</v>
+        <v>1493.8</v>
       </c>
       <c r="D2" t="n">
-        <v>789.1</v>
+        <v>1478.3</v>
       </c>
       <c r="E2" t="n">
-        <v>808.6</v>
+        <v>1487.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2553303</v>
+        <v>920270</v>
       </c>
       <c r="G2" t="n">
-        <v>5249912</v>
+        <v>1882304</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5136484192496941</v>
+        <v>-0.5110938509401245</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5893.5</v>
+        <v>1590</v>
       </c>
       <c r="C3" t="n">
-        <v>5907</v>
+        <v>1602</v>
       </c>
       <c r="D3" t="n">
-        <v>5793.5</v>
+        <v>1580.9</v>
       </c>
       <c r="E3" t="n">
-        <v>5884</v>
+        <v>1587.8</v>
       </c>
       <c r="F3" t="n">
-        <v>483125</v>
+        <v>1654424</v>
       </c>
       <c r="G3" t="n">
-        <v>980678</v>
+        <v>3435674</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.507356135245208</v>
+        <v>-0.5184572226584944</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2370</v>
+        <v>4660</v>
       </c>
       <c r="C4" t="n">
-        <v>2454</v>
+        <v>4712</v>
       </c>
       <c r="D4" t="n">
-        <v>2359.3</v>
+        <v>4588.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2452</v>
+        <v>4600</v>
       </c>
       <c r="F4" t="n">
-        <v>4564283</v>
+        <v>972461</v>
       </c>
       <c r="G4" t="n">
-        <v>9401319</v>
+        <v>2121194</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5145061028138711</v>
+        <v>-0.5415501835287108</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6790</v>
+        <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>6903.5</v>
+        <v>3619.2</v>
       </c>
       <c r="D5" t="n">
-        <v>6746</v>
+        <v>3562.8</v>
       </c>
       <c r="E5" t="n">
-        <v>6896</v>
+        <v>3578.9</v>
       </c>
       <c r="F5" t="n">
-        <v>193378</v>
+        <v>178509</v>
       </c>
       <c r="G5" t="n">
-        <v>444662</v>
+        <v>402653</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.565112377491218</v>
+        <v>-0.5566679001522402</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.3</v>
+        <v>386.5</v>
       </c>
       <c r="C6" t="n">
-        <v>799</v>
+        <v>387</v>
       </c>
       <c r="D6" t="n">
-        <v>784</v>
+        <v>380.1</v>
       </c>
       <c r="E6" t="n">
-        <v>799</v>
+        <v>381.4</v>
       </c>
       <c r="F6" t="n">
-        <v>526708</v>
+        <v>3841685</v>
       </c>
       <c r="G6" t="n">
-        <v>1239184</v>
+        <v>8126214</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5749557773502563</v>
+        <v>-0.5272478672109792</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>RECLTD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>712.15</v>
+        <v>3014.9</v>
       </c>
       <c r="C7" t="n">
-        <v>719.9</v>
+        <v>3024.2</v>
       </c>
       <c r="D7" t="n">
-        <v>707.25</v>
+        <v>2960</v>
       </c>
       <c r="E7" t="n">
-        <v>718.1</v>
+        <v>2978.8</v>
       </c>
       <c r="F7" t="n">
-        <v>977299</v>
+        <v>387198</v>
       </c>
       <c r="G7" t="n">
-        <v>2396780</v>
+        <v>830216</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5922450120578443</v>
+        <v>-0.5336177573065323</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7595</v>
+        <v>759.2</v>
       </c>
       <c r="C8" t="n">
-        <v>7785</v>
+        <v>768.6</v>
       </c>
       <c r="D8" t="n">
-        <v>7595</v>
+        <v>743.15</v>
       </c>
       <c r="E8" t="n">
-        <v>7765</v>
+        <v>745.2</v>
       </c>
       <c r="F8" t="n">
-        <v>185434</v>
+        <v>1923910</v>
       </c>
       <c r="G8" t="n">
-        <v>397729</v>
+        <v>3898418</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5337679676362549</v>
+        <v>-0.5064895555068748</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2576</v>
+        <v>94.12</v>
       </c>
       <c r="C9" t="n">
-        <v>2653</v>
+        <v>94.54000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>2576</v>
+        <v>91</v>
       </c>
       <c r="E9" t="n">
-        <v>2645.8</v>
+        <v>91.56</v>
       </c>
       <c r="F9" t="n">
-        <v>543383</v>
+        <v>9884650</v>
       </c>
       <c r="G9" t="n">
-        <v>1180598</v>
+        <v>24236301</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5397391830241962</v>
+        <v>-0.592155172524058</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452</v>
+        <v>1598</v>
       </c>
       <c r="C10" t="n">
-        <v>455.4</v>
+        <v>1607.5</v>
       </c>
       <c r="D10" t="n">
-        <v>441.1</v>
+        <v>1575</v>
       </c>
       <c r="E10" t="n">
-        <v>453.35</v>
+        <v>1577.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1488749</v>
+        <v>257517</v>
       </c>
       <c r="G10" t="n">
-        <v>3539104</v>
+        <v>630943</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5793429636427752</v>
+        <v>-0.5918537807694197</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>727.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>730.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>717</v>
+      </c>
+      <c r="E11" t="n">
+        <v>717.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>359497</v>
+      </c>
+      <c r="G11" t="n">
+        <v>804696</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5532511656575899</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>112</v>
+      </c>
+      <c r="C12" t="n">
+        <v>112.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>110.18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3578107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8568226</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5823981533633683</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1830.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1763</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1802.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>631672</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1574061</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5986991609600899</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>206.26</v>
+      </c>
+      <c r="D14" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>995233</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2428635</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5902089033551768</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HUDCO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>211</v>
+      </c>
+      <c r="C15" t="n">
+        <v>211.93</v>
+      </c>
+      <c r="D15" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>207.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4258867</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10067801</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5769814083532243</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>HUDCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91.09</v>
+      </c>
+      <c r="D16" t="n">
+        <v>89</v>
+      </c>
+      <c r="E16" t="n">
+        <v>89</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5554641</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11333128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5098757377486604</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>672.15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>674.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>651.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>653.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>428019</v>
+      </c>
+      <c r="G17" t="n">
+        <v>953034</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5508880060942212</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>959</v>
+      </c>
+      <c r="C18" t="n">
+        <v>963.85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>941.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>944.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>244860</v>
+      </c>
+      <c r="G18" t="n">
+        <v>586894</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5827866701653109</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
         </is>
       </c>
     </row>
@@ -847,495 +1111,495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1455</v>
+        <v>756</v>
       </c>
       <c r="C2" t="n">
-        <v>1492</v>
+        <v>764.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1450</v>
+        <v>756</v>
       </c>
       <c r="E2" t="n">
-        <v>1488.1</v>
+        <v>759.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1587489</v>
+        <v>2210684</v>
       </c>
       <c r="G2" t="n">
-        <v>1039973</v>
+        <v>1423219</v>
       </c>
       <c r="H2" t="n">
-        <v>0.526471360314162</v>
+        <v>0.5532985436535066</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871</v>
+        <v>5681.5</v>
       </c>
       <c r="C3" t="n">
-        <v>882</v>
+        <v>5711.5</v>
       </c>
       <c r="D3" t="n">
-        <v>867.25</v>
+        <v>5655.5</v>
       </c>
       <c r="E3" t="n">
-        <v>881.9</v>
+        <v>5670.5</v>
       </c>
       <c r="F3" t="n">
-        <v>5998002</v>
+        <v>373874</v>
       </c>
       <c r="G3" t="n">
-        <v>4212648</v>
+        <v>266900</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4238080181396594</v>
+        <v>0.4008017984263769</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1581</v>
+        <v>1052</v>
       </c>
       <c r="C4" t="n">
-        <v>1605.4</v>
+        <v>1062</v>
       </c>
       <c r="D4" t="n">
-        <v>1571</v>
+        <v>1043</v>
       </c>
       <c r="E4" t="n">
-        <v>1599.5</v>
+        <v>1047.9</v>
       </c>
       <c r="F4" t="n">
-        <v>3435674</v>
+        <v>843741</v>
       </c>
       <c r="G4" t="n">
-        <v>2376257</v>
+        <v>600790</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4458343520923873</v>
+        <v>0.4043858919089865</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323</v>
+        <v>12630</v>
       </c>
       <c r="C5" t="n">
-        <v>328</v>
+        <v>12725</v>
       </c>
       <c r="D5" t="n">
-        <v>316.8</v>
+        <v>12564</v>
       </c>
       <c r="E5" t="n">
-        <v>327.4</v>
+        <v>12567</v>
       </c>
       <c r="F5" t="n">
-        <v>16461908</v>
+        <v>247048</v>
       </c>
       <c r="G5" t="n">
-        <v>11615135</v>
+        <v>173393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4172808150744696</v>
+        <v>0.424786467735145</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2764</v>
+        <v>242.4</v>
       </c>
       <c r="C6" t="n">
-        <v>2772.7</v>
+        <v>243.25</v>
       </c>
       <c r="D6" t="n">
-        <v>2718.8</v>
+        <v>238.4</v>
       </c>
       <c r="E6" t="n">
-        <v>2741.9</v>
+        <v>239.33</v>
       </c>
       <c r="F6" t="n">
-        <v>591589</v>
+        <v>8922847</v>
       </c>
       <c r="G6" t="n">
-        <v>393906</v>
+        <v>6190830</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5018532340202992</v>
+        <v>0.441300601050263</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3490.2</v>
+        <v>623.3</v>
       </c>
       <c r="C7" t="n">
-        <v>3637</v>
+        <v>626.85</v>
       </c>
       <c r="D7" t="n">
-        <v>3490.2</v>
+        <v>607.95</v>
       </c>
       <c r="E7" t="n">
-        <v>3595</v>
+        <v>609</v>
       </c>
       <c r="F7" t="n">
-        <v>402653</v>
+        <v>5493423</v>
       </c>
       <c r="G7" t="n">
-        <v>257376</v>
+        <v>3482599</v>
       </c>
       <c r="H7" t="n">
-        <v>0.564454339176924</v>
+        <v>0.5773917697673491</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3057</v>
+        <v>1361</v>
       </c>
       <c r="C8" t="n">
-        <v>3117.9</v>
+        <v>1369.5</v>
       </c>
       <c r="D8" t="n">
-        <v>3022.8</v>
+        <v>1322.3</v>
       </c>
       <c r="E8" t="n">
-        <v>3051</v>
+        <v>1340</v>
       </c>
       <c r="F8" t="n">
-        <v>1176910</v>
+        <v>1636607</v>
       </c>
       <c r="G8" t="n">
-        <v>819116</v>
+        <v>1124107</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4368050434859043</v>
+        <v>0.4559174526980083</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127</v>
+        <v>2699</v>
       </c>
       <c r="C9" t="n">
-        <v>127.95</v>
+        <v>2704</v>
       </c>
       <c r="D9" t="n">
-        <v>124.1</v>
+        <v>2653.1</v>
       </c>
       <c r="E9" t="n">
-        <v>127.9</v>
+        <v>2690.9</v>
       </c>
       <c r="F9" t="n">
-        <v>9602587</v>
+        <v>302616</v>
       </c>
       <c r="G9" t="n">
-        <v>6331289</v>
+        <v>200594</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5166875181341429</v>
+        <v>0.5085994596049732</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>PAYTM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1855.9</v>
+        <v>1065</v>
       </c>
       <c r="C10" t="n">
-        <v>1952.7</v>
+        <v>1079.9</v>
       </c>
       <c r="D10" t="n">
-        <v>1855</v>
+        <v>1057.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1937.3</v>
+        <v>1059.9</v>
       </c>
       <c r="F10" t="n">
-        <v>4166570</v>
+        <v>7710469</v>
       </c>
       <c r="G10" t="n">
-        <v>2735877</v>
+        <v>5323456</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5229376174440591</v>
+        <v>0.4483953657173085</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>PAYTM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1730</v>
+        <v>2270.7</v>
       </c>
       <c r="C11" t="n">
-        <v>1790</v>
+        <v>2276.8</v>
       </c>
       <c r="D11" t="n">
-        <v>1725</v>
+        <v>2238.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1786.3</v>
+        <v>2245</v>
       </c>
       <c r="F11" t="n">
-        <v>1072869</v>
+        <v>349347</v>
       </c>
       <c r="G11" t="n">
-        <v>710140</v>
+        <v>249358</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5107851972850423</v>
+        <v>0.4009857313581277</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IREDA</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143.8</v>
+        <v>2500</v>
       </c>
       <c r="C12" t="n">
-        <v>145.45</v>
+        <v>2503.6</v>
       </c>
       <c r="D12" t="n">
-        <v>140.26</v>
+        <v>2382.3</v>
       </c>
       <c r="E12" t="n">
-        <v>145.45</v>
+        <v>2389.1</v>
       </c>
       <c r="F12" t="n">
-        <v>6734089</v>
+        <v>6685163</v>
       </c>
       <c r="G12" t="n">
-        <v>4802241</v>
+        <v>4564283</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4022805186162044</v>
+        <v>0.4646688209298153</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>IREDA</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>589</v>
+        <v>209</v>
       </c>
       <c r="C13" t="n">
-        <v>594.75</v>
+        <v>209</v>
       </c>
       <c r="D13" t="n">
-        <v>577.1</v>
+        <v>200.71</v>
       </c>
       <c r="E13" t="n">
-        <v>591</v>
+        <v>202.5</v>
       </c>
       <c r="F13" t="n">
-        <v>631605</v>
+        <v>3609865</v>
       </c>
       <c r="G13" t="n">
-        <v>404411</v>
+        <v>2278210</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5617898622935578</v>
+        <v>0.5845181085150184</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.81</v>
+        <v>1562</v>
       </c>
       <c r="C14" t="n">
-        <v>65.26000000000001</v>
+        <v>1567.2</v>
       </c>
       <c r="D14" t="n">
-        <v>62.21</v>
+        <v>1491.1</v>
       </c>
       <c r="E14" t="n">
-        <v>64.2</v>
+        <v>1493</v>
       </c>
       <c r="F14" t="n">
-        <v>75542321</v>
+        <v>1482093</v>
       </c>
       <c r="G14" t="n">
-        <v>47280146</v>
+        <v>993222</v>
       </c>
       <c r="H14" t="n">
-        <v>0.597759892704223</v>
+        <v>0.4922071802678555</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>BDL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2965</v>
+        <v>16690</v>
       </c>
       <c r="C15" t="n">
-        <v>2965</v>
+        <v>16700</v>
       </c>
       <c r="D15" t="n">
-        <v>2875</v>
+        <v>15810</v>
       </c>
       <c r="E15" t="n">
-        <v>2913</v>
+        <v>15816</v>
       </c>
       <c r="F15" t="n">
-        <v>479056</v>
+        <v>328403</v>
       </c>
       <c r="G15" t="n">
-        <v>321329</v>
+        <v>232821</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4908582792091595</v>
+        <v>0.4105385682562999</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>DIXON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>255.6</v>
+        <v>6090</v>
       </c>
       <c r="C16" t="n">
-        <v>263.15</v>
+        <v>6110</v>
       </c>
       <c r="D16" t="n">
-        <v>253.7</v>
+        <v>5792.5</v>
       </c>
       <c r="E16" t="n">
-        <v>261.9</v>
+        <v>5800.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2066794</v>
+        <v>535725</v>
       </c>
       <c r="G16" t="n">
-        <v>1423890</v>
+        <v>355653</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4515124061549698</v>
+        <v>0.5063137383910722</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>KAYNES</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,561 +484,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483</v>
+        <v>4603</v>
       </c>
       <c r="C2" t="n">
-        <v>1493.8</v>
+        <v>4624.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1478.3</v>
+        <v>4539</v>
       </c>
       <c r="E2" t="n">
-        <v>1487.3</v>
+        <v>4565</v>
       </c>
       <c r="F2" t="n">
-        <v>920270</v>
+        <v>455558</v>
       </c>
       <c r="G2" t="n">
-        <v>1882304</v>
+        <v>972461</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5110938509401245</v>
+        <v>-0.5315411106460824</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1590</v>
+        <v>1187.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1602</v>
+        <v>1203.1</v>
       </c>
       <c r="D3" t="n">
-        <v>1580.9</v>
+        <v>1159.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1587.8</v>
+        <v>1200</v>
       </c>
       <c r="F3" t="n">
-        <v>1654424</v>
+        <v>940924</v>
       </c>
       <c r="G3" t="n">
-        <v>3435674</v>
+        <v>2018271</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5184572226584944</v>
+        <v>-0.5337969975290732</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4660</v>
+        <v>3099</v>
       </c>
       <c r="C4" t="n">
-        <v>4712</v>
+        <v>3101</v>
       </c>
       <c r="D4" t="n">
-        <v>4588.1</v>
+        <v>3065</v>
       </c>
       <c r="E4" t="n">
-        <v>4600</v>
+        <v>3095.9</v>
       </c>
       <c r="F4" t="n">
-        <v>972461</v>
+        <v>324415</v>
       </c>
       <c r="G4" t="n">
-        <v>2121194</v>
+        <v>637714</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5415501835287108</v>
+        <v>-0.4912844943030888</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3600</v>
+        <v>1894.9</v>
       </c>
       <c r="C5" t="n">
-        <v>3619.2</v>
+        <v>1918</v>
       </c>
       <c r="D5" t="n">
-        <v>3562.8</v>
+        <v>1882</v>
       </c>
       <c r="E5" t="n">
-        <v>3578.9</v>
+        <v>1900</v>
       </c>
       <c r="F5" t="n">
-        <v>178509</v>
+        <v>187046</v>
       </c>
       <c r="G5" t="n">
-        <v>402653</v>
+        <v>426758</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5566679001522402</v>
+        <v>-0.5617047600747965</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>386.5</v>
+        <v>1567.4</v>
       </c>
       <c r="C6" t="n">
-        <v>387</v>
+        <v>1612.5</v>
       </c>
       <c r="D6" t="n">
-        <v>380.1</v>
+        <v>1564.3</v>
       </c>
       <c r="E6" t="n">
-        <v>381.4</v>
+        <v>1611</v>
       </c>
       <c r="F6" t="n">
-        <v>3841685</v>
+        <v>312265</v>
       </c>
       <c r="G6" t="n">
-        <v>8126214</v>
+        <v>616455</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5272478672109792</v>
+        <v>-0.4934504546155032</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>INDUSTOWER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3014.9</v>
+        <v>335</v>
       </c>
       <c r="C7" t="n">
-        <v>3024.2</v>
+        <v>338</v>
       </c>
       <c r="D7" t="n">
-        <v>2960</v>
+        <v>330.05</v>
       </c>
       <c r="E7" t="n">
-        <v>2978.8</v>
+        <v>337</v>
       </c>
       <c r="F7" t="n">
-        <v>387198</v>
+        <v>6020830</v>
       </c>
       <c r="G7" t="n">
-        <v>830216</v>
+        <v>13407199</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5336177573065323</v>
+        <v>-0.5509255885588034</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>INDUSTOWER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>759.2</v>
+        <v>1190.8</v>
       </c>
       <c r="C8" t="n">
-        <v>768.6</v>
+        <v>1208.8</v>
       </c>
       <c r="D8" t="n">
-        <v>743.15</v>
+        <v>1185.8</v>
       </c>
       <c r="E8" t="n">
-        <v>745.2</v>
+        <v>1198.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1923910</v>
+        <v>628290</v>
       </c>
       <c r="G8" t="n">
-        <v>3898418</v>
+        <v>1236355</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5064895555068748</v>
+        <v>-0.4918207149241116</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.12</v>
+        <v>2400</v>
       </c>
       <c r="C9" t="n">
-        <v>94.54000000000001</v>
+        <v>2421</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>2370</v>
       </c>
       <c r="E9" t="n">
-        <v>91.56</v>
+        <v>2399</v>
       </c>
       <c r="F9" t="n">
-        <v>9884650</v>
+        <v>3272568</v>
       </c>
       <c r="G9" t="n">
-        <v>24236301</v>
+        <v>6685163</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.592155172524058</v>
+        <v>-0.5104729682731745</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1598</v>
+        <v>188.4</v>
       </c>
       <c r="C10" t="n">
-        <v>1607.5</v>
+        <v>189.65</v>
       </c>
       <c r="D10" t="n">
-        <v>1575</v>
+        <v>185.73</v>
       </c>
       <c r="E10" t="n">
-        <v>1577.7</v>
+        <v>186.69</v>
       </c>
       <c r="F10" t="n">
-        <v>257517</v>
+        <v>4836690</v>
       </c>
       <c r="G10" t="n">
-        <v>630943</v>
+        <v>9906271</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5918537807694197</v>
+        <v>-0.511754725870108</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IRCTC</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>727.4</v>
+        <v>677</v>
       </c>
       <c r="C11" t="n">
-        <v>730.9</v>
+        <v>693.2</v>
       </c>
       <c r="D11" t="n">
-        <v>717</v>
+        <v>674.2</v>
       </c>
       <c r="E11" t="n">
-        <v>717.8</v>
+        <v>677.45</v>
       </c>
       <c r="F11" t="n">
-        <v>359497</v>
+        <v>771011</v>
       </c>
       <c r="G11" t="n">
-        <v>804696</v>
+        <v>1863449</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5532511656575899</v>
+        <v>-0.5862451829913241</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>IRCTC</t>
+          <t>JSL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>KFINTECH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112</v>
+        <v>1073.1</v>
       </c>
       <c r="C12" t="n">
-        <v>112.05</v>
+        <v>1097</v>
       </c>
       <c r="D12" t="n">
-        <v>110.18</v>
+        <v>1068.4</v>
       </c>
       <c r="E12" t="n">
-        <v>110.4</v>
+        <v>1093.8</v>
       </c>
       <c r="F12" t="n">
-        <v>3578107</v>
+        <v>883832</v>
       </c>
       <c r="G12" t="n">
-        <v>8568226</v>
+        <v>1959646</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5823981533633683</v>
+        <v>-0.5489838470825853</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLUESTARCO</t>
+          <t>NCC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1830</v>
+        <v>221.95</v>
       </c>
       <c r="C13" t="n">
-        <v>1830.3</v>
+        <v>225.4</v>
       </c>
       <c r="D13" t="n">
-        <v>1763</v>
+        <v>220.33</v>
       </c>
       <c r="E13" t="n">
-        <v>1802.7</v>
+        <v>223.61</v>
       </c>
       <c r="F13" t="n">
-        <v>631672</v>
+        <v>2065238</v>
       </c>
       <c r="G13" t="n">
-        <v>1574061</v>
+        <v>4371016</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5986991609600899</v>
+        <v>-0.5275153419708369</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BLUESTARCO</t>
+          <t>NCC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.9</v>
+        <v>774.65</v>
       </c>
       <c r="C14" t="n">
-        <v>206.26</v>
+        <v>780</v>
       </c>
       <c r="D14" t="n">
-        <v>201.8</v>
+        <v>766.25</v>
       </c>
       <c r="E14" t="n">
-        <v>202.5</v>
+        <v>774</v>
       </c>
       <c r="F14" t="n">
-        <v>995233</v>
+        <v>1790243</v>
       </c>
       <c r="G14" t="n">
-        <v>2428635</v>
+        <v>3559039</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5902089033551768</v>
+        <v>-0.4969869675493862</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HUDCO</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>211</v>
+        <v>190.07</v>
       </c>
       <c r="C15" t="n">
-        <v>211.93</v>
+        <v>191.11</v>
       </c>
       <c r="D15" t="n">
-        <v>206.8</v>
+        <v>188</v>
       </c>
       <c r="E15" t="n">
-        <v>207.25</v>
+        <v>189.89</v>
       </c>
       <c r="F15" t="n">
-        <v>4258867</v>
+        <v>1608219</v>
       </c>
       <c r="G15" t="n">
-        <v>10067801</v>
+        <v>3557025</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5769814083532243</v>
+        <v>-0.5478752609273199</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>HUDCO</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>CDSL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.59999999999999</v>
+        <v>1572</v>
       </c>
       <c r="C16" t="n">
-        <v>91.09</v>
+        <v>1584</v>
       </c>
       <c r="D16" t="n">
-        <v>89</v>
+        <v>1546.1</v>
       </c>
       <c r="E16" t="n">
-        <v>89</v>
+        <v>1565</v>
       </c>
       <c r="F16" t="n">
-        <v>5554641</v>
+        <v>2750081</v>
       </c>
       <c r="G16" t="n">
-        <v>11333128</v>
+        <v>6086096</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5098757377486604</v>
+        <v>-0.5481370980674639</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>CDSL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>CROMPTON</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>672.15</v>
+        <v>318.1</v>
       </c>
       <c r="C17" t="n">
-        <v>674.7</v>
+        <v>320.3</v>
       </c>
       <c r="D17" t="n">
-        <v>651.9</v>
+        <v>314</v>
       </c>
       <c r="E17" t="n">
-        <v>653.8</v>
+        <v>317.5</v>
       </c>
       <c r="F17" t="n">
-        <v>428019</v>
+        <v>1767812</v>
       </c>
       <c r="G17" t="n">
-        <v>953034</v>
+        <v>3901406</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5508880060942212</v>
+        <v>-0.5468782280029302</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>959</v>
-      </c>
-      <c r="C18" t="n">
-        <v>963.85</v>
-      </c>
-      <c r="D18" t="n">
-        <v>941.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>944.75</v>
-      </c>
-      <c r="F18" t="n">
-        <v>244860</v>
-      </c>
-      <c r="G18" t="n">
-        <v>586894</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5827866701653109</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
+          <t>CROMPTON</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,495 +1078,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>756</v>
+        <v>300.9</v>
       </c>
       <c r="C2" t="n">
-        <v>764.5</v>
+        <v>310.4</v>
       </c>
       <c r="D2" t="n">
-        <v>756</v>
+        <v>299.5</v>
       </c>
       <c r="E2" t="n">
-        <v>759.8</v>
+        <v>309</v>
       </c>
       <c r="F2" t="n">
-        <v>2210684</v>
+        <v>44948318</v>
       </c>
       <c r="G2" t="n">
-        <v>1423219</v>
+        <v>28458176</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5532985436535066</v>
+        <v>0.5794518243193099</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>ETERNAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5681.5</v>
+        <v>7101</v>
       </c>
       <c r="C3" t="n">
-        <v>5711.5</v>
+        <v>7320</v>
       </c>
       <c r="D3" t="n">
-        <v>5655.5</v>
+        <v>7020.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5670.5</v>
+        <v>7248</v>
       </c>
       <c r="F3" t="n">
-        <v>373874</v>
+        <v>498598</v>
       </c>
       <c r="G3" t="n">
-        <v>266900</v>
+        <v>327102</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4008017984263769</v>
+        <v>0.5242890596816895</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052</v>
+        <v>284.85</v>
       </c>
       <c r="C4" t="n">
-        <v>1062</v>
+        <v>286.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1043</v>
+        <v>283.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1047.9</v>
+        <v>285.4</v>
       </c>
       <c r="F4" t="n">
-        <v>843741</v>
+        <v>8755499</v>
       </c>
       <c r="G4" t="n">
-        <v>600790</v>
+        <v>6172968</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4043858919089865</v>
+        <v>0.4183613133909004</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>POWERGRID</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12630</v>
+        <v>1427.9</v>
       </c>
       <c r="C5" t="n">
-        <v>12725</v>
+        <v>1438.4</v>
       </c>
       <c r="D5" t="n">
-        <v>12564</v>
+        <v>1420.4</v>
       </c>
       <c r="E5" t="n">
-        <v>12567</v>
+        <v>1437.3</v>
       </c>
       <c r="F5" t="n">
-        <v>247048</v>
+        <v>8492484</v>
       </c>
       <c r="G5" t="n">
-        <v>173393</v>
+        <v>5415511</v>
       </c>
       <c r="H5" t="n">
-        <v>0.424786467735145</v>
+        <v>0.5681777767601247</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242.4</v>
+        <v>877.15</v>
       </c>
       <c r="C6" t="n">
-        <v>243.25</v>
+        <v>888.3</v>
       </c>
       <c r="D6" t="n">
-        <v>238.4</v>
+        <v>872.75</v>
       </c>
       <c r="E6" t="n">
-        <v>239.33</v>
+        <v>876.45</v>
       </c>
       <c r="F6" t="n">
-        <v>8922847</v>
+        <v>5367926</v>
       </c>
       <c r="G6" t="n">
-        <v>6190830</v>
+        <v>3736916</v>
       </c>
       <c r="H6" t="n">
-        <v>0.441300601050263</v>
+        <v>0.4364588339689733</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.3</v>
+        <v>405.9</v>
       </c>
       <c r="C7" t="n">
-        <v>626.85</v>
+        <v>419.9</v>
       </c>
       <c r="D7" t="n">
-        <v>607.95</v>
+        <v>405.45</v>
       </c>
       <c r="E7" t="n">
-        <v>609</v>
+        <v>419</v>
       </c>
       <c r="F7" t="n">
-        <v>5493423</v>
+        <v>9713008</v>
       </c>
       <c r="G7" t="n">
-        <v>3482599</v>
+        <v>6103086</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5773917697673491</v>
+        <v>0.5914912554075102</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1361</v>
+        <v>521.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.5</v>
+        <v>537</v>
       </c>
       <c r="D8" t="n">
-        <v>1322.3</v>
+        <v>518.3</v>
       </c>
       <c r="E8" t="n">
-        <v>1340</v>
+        <v>534.65</v>
       </c>
       <c r="F8" t="n">
-        <v>1636607</v>
+        <v>2511889</v>
       </c>
       <c r="G8" t="n">
-        <v>1124107</v>
+        <v>1688157</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4559174526980083</v>
+        <v>0.4879475072519914</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2699</v>
+        <v>2985</v>
       </c>
       <c r="C9" t="n">
-        <v>2704</v>
+        <v>2999</v>
       </c>
       <c r="D9" t="n">
-        <v>2653.1</v>
+        <v>2957.3</v>
       </c>
       <c r="E9" t="n">
-        <v>2690.9</v>
+        <v>2981.9</v>
       </c>
       <c r="F9" t="n">
-        <v>302616</v>
+        <v>569270</v>
       </c>
       <c r="G9" t="n">
-        <v>200594</v>
+        <v>387198</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5085994596049732</v>
+        <v>0.4702297015996983</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1065</v>
+        <v>4460</v>
       </c>
       <c r="C10" t="n">
-        <v>1079.9</v>
+        <v>4545</v>
       </c>
       <c r="D10" t="n">
-        <v>1057.6</v>
+        <v>4439</v>
       </c>
       <c r="E10" t="n">
-        <v>1059.9</v>
+        <v>4444</v>
       </c>
       <c r="F10" t="n">
-        <v>7710469</v>
+        <v>1022011</v>
       </c>
       <c r="G10" t="n">
-        <v>5323456</v>
+        <v>659530</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4483953657173085</v>
+        <v>0.5496050217579185</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2270.7</v>
+        <v>650.85</v>
       </c>
       <c r="C11" t="n">
-        <v>2276.8</v>
+        <v>677</v>
       </c>
       <c r="D11" t="n">
-        <v>2238.2</v>
+        <v>650</v>
       </c>
       <c r="E11" t="n">
-        <v>2245</v>
+        <v>676.55</v>
       </c>
       <c r="F11" t="n">
-        <v>349347</v>
+        <v>2887066</v>
       </c>
       <c r="G11" t="n">
-        <v>249358</v>
+        <v>1934270</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4009857313581277</v>
+        <v>0.4925868673970025</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>INDIANB</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2500</v>
+        <v>82.45</v>
       </c>
       <c r="C12" t="n">
-        <v>2503.6</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>2382.3</v>
+        <v>81.77</v>
       </c>
       <c r="E12" t="n">
-        <v>2389.1</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>6685163</v>
+        <v>10068007</v>
       </c>
       <c r="G12" t="n">
-        <v>4564283</v>
+        <v>6613741</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4646688209298153</v>
+        <v>0.5222862522133842</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209</v>
+        <v>1245.3</v>
       </c>
       <c r="C13" t="n">
-        <v>209</v>
+        <v>1270.6</v>
       </c>
       <c r="D13" t="n">
-        <v>200.71</v>
+        <v>1243.3</v>
       </c>
       <c r="E13" t="n">
-        <v>202.5</v>
+        <v>1261</v>
       </c>
       <c r="F13" t="n">
-        <v>3609865</v>
+        <v>807096</v>
       </c>
       <c r="G13" t="n">
-        <v>2278210</v>
+        <v>548971</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5845181085150184</v>
+        <v>0.4701978793050999</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1562</v>
+        <v>121.07</v>
       </c>
       <c r="C14" t="n">
-        <v>1567.2</v>
+        <v>121.93</v>
       </c>
       <c r="D14" t="n">
-        <v>1491.1</v>
+        <v>119.9</v>
       </c>
       <c r="E14" t="n">
-        <v>1493</v>
+        <v>121.51</v>
       </c>
       <c r="F14" t="n">
-        <v>1482093</v>
+        <v>9091136</v>
       </c>
       <c r="G14" t="n">
-        <v>993222</v>
+        <v>6142679</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4922071802678555</v>
+        <v>0.47999529195649</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>IGL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16690</v>
+        <v>202.17</v>
       </c>
       <c r="C15" t="n">
-        <v>16700</v>
+        <v>203.59</v>
       </c>
       <c r="D15" t="n">
-        <v>15810</v>
+        <v>200.28</v>
       </c>
       <c r="E15" t="n">
-        <v>15816</v>
+        <v>202.5</v>
       </c>
       <c r="F15" t="n">
-        <v>328403</v>
+        <v>1404201</v>
       </c>
       <c r="G15" t="n">
-        <v>232821</v>
+        <v>995233</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4105385682562999</v>
+        <v>0.4109268884773716</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>IGL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6090</v>
+        <v>420.7</v>
       </c>
       <c r="C16" t="n">
-        <v>6110</v>
+        <v>422.9</v>
       </c>
       <c r="D16" t="n">
-        <v>5792.5</v>
+        <v>414.55</v>
       </c>
       <c r="E16" t="n">
-        <v>5800.5</v>
+        <v>416.85</v>
       </c>
       <c r="F16" t="n">
-        <v>535725</v>
+        <v>1862022</v>
       </c>
       <c r="G16" t="n">
-        <v>355653</v>
+        <v>1210138</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5063137383910722</v>
+        <v>0.5386856705598866</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>HINDZINC</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TATAELXSI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5759.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5769.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5665</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5670</v>
+      </c>
+      <c r="F17" t="n">
+        <v>101170</v>
+      </c>
+      <c r="G17" t="n">
+        <v>66575</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5196395043184379</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TATAELXSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NBCC</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>105.69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>109.95</v>
+      </c>
+      <c r="D18" t="n">
+        <v>104.61</v>
+      </c>
+      <c r="E18" t="n">
+        <v>109.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12682149</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8350031</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5188146008080688</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NBCC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,528 +484,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4603</v>
+        <v>2280.1</v>
       </c>
       <c r="C2" t="n">
-        <v>4624.7</v>
+        <v>2314.7</v>
       </c>
       <c r="D2" t="n">
-        <v>4539</v>
+        <v>2267</v>
       </c>
       <c r="E2" t="n">
-        <v>4565</v>
+        <v>2294.5</v>
       </c>
       <c r="F2" t="n">
-        <v>455558</v>
+        <v>1075526</v>
       </c>
       <c r="G2" t="n">
-        <v>972461</v>
+        <v>2376286</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5315411106460824</v>
+        <v>-0.5473920226774049</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1187.1</v>
+        <v>2757</v>
       </c>
       <c r="C3" t="n">
-        <v>1203.1</v>
+        <v>2761.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1159.6</v>
+        <v>2705.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1200</v>
+        <v>2737.6</v>
       </c>
       <c r="F3" t="n">
-        <v>940924</v>
+        <v>553341</v>
       </c>
       <c r="G3" t="n">
-        <v>2018271</v>
+        <v>1236332</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5337969975290732</v>
+        <v>-0.5524333269704255</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3099</v>
+        <v>309.4</v>
       </c>
       <c r="C4" t="n">
-        <v>3101</v>
+        <v>310</v>
       </c>
       <c r="D4" t="n">
-        <v>3065</v>
+        <v>304.55</v>
       </c>
       <c r="E4" t="n">
-        <v>3095.9</v>
+        <v>305.3</v>
       </c>
       <c r="F4" t="n">
-        <v>324415</v>
+        <v>20834370</v>
       </c>
       <c r="G4" t="n">
-        <v>637714</v>
+        <v>44948318</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4912844943030888</v>
+        <v>-0.5364816543302021</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>ETERNAL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1894.9</v>
+        <v>1332</v>
       </c>
       <c r="C5" t="n">
-        <v>1918</v>
+        <v>1352.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1882</v>
+        <v>1311.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1900</v>
+        <v>1321.4</v>
       </c>
       <c r="F5" t="n">
-        <v>187046</v>
+        <v>2051386</v>
       </c>
       <c r="G5" t="n">
-        <v>426758</v>
+        <v>4245522</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5617047600747965</v>
+        <v>-0.5168118313837498</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1567.4</v>
+        <v>113.29</v>
       </c>
       <c r="C6" t="n">
-        <v>1612.5</v>
+        <v>113.91</v>
       </c>
       <c r="D6" t="n">
-        <v>1564.3</v>
+        <v>112.93</v>
       </c>
       <c r="E6" t="n">
-        <v>1611</v>
+        <v>113.3</v>
       </c>
       <c r="F6" t="n">
-        <v>312265</v>
+        <v>3083473</v>
       </c>
       <c r="G6" t="n">
-        <v>616455</v>
+        <v>7458908</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4934504546155032</v>
+        <v>-0.5866053046907135</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>NBCC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335</v>
+        <v>109</v>
       </c>
       <c r="C7" t="n">
-        <v>338</v>
+        <v>109.32</v>
       </c>
       <c r="D7" t="n">
-        <v>330.05</v>
+        <v>106.53</v>
       </c>
       <c r="E7" t="n">
-        <v>337</v>
+        <v>106.91</v>
       </c>
       <c r="F7" t="n">
-        <v>6020830</v>
+        <v>5294133</v>
       </c>
       <c r="G7" t="n">
-        <v>13407199</v>
+        <v>12682149</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5509255885588034</v>
+        <v>-0.5825523734187321</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KPITTECH</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1190.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1208.8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1185.8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1198.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>628290</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1236355</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.4918207149241116</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>KPITTECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2421</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2370</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2399</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3272568</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6685163</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5104729682731745</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NATIONALUM</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>188.4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>189.65</v>
-      </c>
-      <c r="D10" t="n">
-        <v>185.73</v>
-      </c>
-      <c r="E10" t="n">
-        <v>186.69</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4836690</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9906271</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.511754725870108</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>NATIONALUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>JSL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>677</v>
-      </c>
-      <c r="C11" t="n">
-        <v>693.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>674.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>677.45</v>
-      </c>
-      <c r="F11" t="n">
-        <v>771011</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1863449</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5862451829913241</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>JSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KFINTECH</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1073.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1097</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1068.4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1093.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>883832</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1959646</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5489838470825853</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>KFINTECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>221.95</v>
-      </c>
-      <c r="C13" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>220.33</v>
-      </c>
-      <c r="E13" t="n">
-        <v>223.61</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2065238</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4371016</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5275153419708369</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>774.65</v>
-      </c>
-      <c r="C14" t="n">
-        <v>780</v>
-      </c>
-      <c r="D14" t="n">
-        <v>766.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>774</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1790243</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3559039</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.4969869675493862</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>190.07</v>
-      </c>
-      <c r="C15" t="n">
-        <v>191.11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>188</v>
-      </c>
-      <c r="E15" t="n">
-        <v>189.89</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1608219</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3557025</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5478752609273199</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1572</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1584</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1546.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1565</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2750081</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6086096</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5481370980674639</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>318.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>320.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>314</v>
-      </c>
-      <c r="E17" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1767812</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3901406</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5468782280029302</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
+          <t>NBCC</t>
         </is>
       </c>
     </row>
@@ -1020,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,561 +748,594 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300.9</v>
+        <v>4589</v>
       </c>
       <c r="C2" t="n">
-        <v>310.4</v>
+        <v>4669.6</v>
       </c>
       <c r="D2" t="n">
-        <v>299.5</v>
+        <v>4571</v>
       </c>
       <c r="E2" t="n">
-        <v>309</v>
+        <v>4644</v>
       </c>
       <c r="F2" t="n">
-        <v>44948318</v>
+        <v>723767</v>
       </c>
       <c r="G2" t="n">
-        <v>28458176</v>
+        <v>455558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5794518243193099</v>
+        <v>0.5887483042773917</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7101</v>
+        <v>1611.7</v>
       </c>
       <c r="C3" t="n">
-        <v>7320</v>
+        <v>1636.7</v>
       </c>
       <c r="D3" t="n">
-        <v>7020.5</v>
+        <v>1610.1</v>
       </c>
       <c r="E3" t="n">
-        <v>7248</v>
+        <v>1626.5</v>
       </c>
       <c r="F3" t="n">
-        <v>498598</v>
+        <v>1679088</v>
       </c>
       <c r="G3" t="n">
-        <v>327102</v>
+        <v>1140902</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5242890596816895</v>
+        <v>0.471719744552994</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284.85</v>
+        <v>158.52</v>
       </c>
       <c r="C4" t="n">
-        <v>286.4</v>
+        <v>161.65</v>
       </c>
       <c r="D4" t="n">
-        <v>283.3</v>
+        <v>158.5</v>
       </c>
       <c r="E4" t="n">
-        <v>285.4</v>
+        <v>160.13</v>
       </c>
       <c r="F4" t="n">
-        <v>8755499</v>
+        <v>20056598</v>
       </c>
       <c r="G4" t="n">
-        <v>6172968</v>
+        <v>14325736</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4183613133909004</v>
+        <v>0.4000396210009733</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1427.9</v>
+        <v>233.8</v>
       </c>
       <c r="C5" t="n">
-        <v>1438.4</v>
+        <v>236.36</v>
       </c>
       <c r="D5" t="n">
-        <v>1420.4</v>
+        <v>233.61</v>
       </c>
       <c r="E5" t="n">
-        <v>1437.3</v>
+        <v>235.37</v>
       </c>
       <c r="F5" t="n">
-        <v>8492484</v>
+        <v>7036778</v>
       </c>
       <c r="G5" t="n">
-        <v>5415511</v>
+        <v>4699743</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5681777767601247</v>
+        <v>0.4972686804363557</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877.15</v>
+        <v>1490</v>
       </c>
       <c r="C6" t="n">
-        <v>888.3</v>
+        <v>1509.9</v>
       </c>
       <c r="D6" t="n">
-        <v>872.75</v>
+        <v>1489</v>
       </c>
       <c r="E6" t="n">
-        <v>876.45</v>
+        <v>1498</v>
       </c>
       <c r="F6" t="n">
-        <v>5367926</v>
+        <v>3422656</v>
       </c>
       <c r="G6" t="n">
-        <v>3736916</v>
+        <v>2374556</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4364588339689733</v>
+        <v>0.4413877794417146</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>HCLTECH</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405.9</v>
+        <v>12447</v>
       </c>
       <c r="C7" t="n">
-        <v>419.9</v>
+        <v>12530</v>
       </c>
       <c r="D7" t="n">
-        <v>405.45</v>
+        <v>12397</v>
       </c>
       <c r="E7" t="n">
-        <v>419</v>
+        <v>12440</v>
       </c>
       <c r="F7" t="n">
-        <v>9713008</v>
+        <v>334100</v>
       </c>
       <c r="G7" t="n">
-        <v>6103086</v>
+        <v>218605</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5914912554075102</v>
+        <v>0.5283273484138057</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>521.5</v>
+        <v>284.4</v>
       </c>
       <c r="C8" t="n">
-        <v>537</v>
+        <v>287.55</v>
       </c>
       <c r="D8" t="n">
-        <v>518.3</v>
+        <v>284</v>
       </c>
       <c r="E8" t="n">
-        <v>534.65</v>
+        <v>284.45</v>
       </c>
       <c r="F8" t="n">
-        <v>2511889</v>
+        <v>13184438</v>
       </c>
       <c r="G8" t="n">
-        <v>1688157</v>
+        <v>8755499</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4879475072519914</v>
+        <v>0.5058465542626411</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>POWERGRID</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2985</v>
+        <v>1428.2</v>
       </c>
       <c r="C9" t="n">
-        <v>2999</v>
+        <v>1441</v>
       </c>
       <c r="D9" t="n">
-        <v>2957.3</v>
+        <v>1421</v>
       </c>
       <c r="E9" t="n">
-        <v>2981.9</v>
+        <v>1425.8</v>
       </c>
       <c r="F9" t="n">
-        <v>569270</v>
+        <v>9899184</v>
       </c>
       <c r="G9" t="n">
-        <v>387198</v>
+        <v>6625368</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4702297015996983</v>
+        <v>0.4941334579452794</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4460</v>
+        <v>1991.9</v>
       </c>
       <c r="C10" t="n">
-        <v>4545</v>
+        <v>1996</v>
       </c>
       <c r="D10" t="n">
-        <v>4439</v>
+        <v>1967.5</v>
       </c>
       <c r="E10" t="n">
-        <v>4444</v>
+        <v>1969.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1022011</v>
+        <v>6468901</v>
       </c>
       <c r="G10" t="n">
-        <v>659530</v>
+        <v>4552927</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5496050217579185</v>
+        <v>0.4208224731035661</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>650.85</v>
+        <v>2518</v>
       </c>
       <c r="C11" t="n">
-        <v>677</v>
+        <v>2536.6</v>
       </c>
       <c r="D11" t="n">
-        <v>650</v>
+        <v>2480.1</v>
       </c>
       <c r="E11" t="n">
-        <v>676.55</v>
+        <v>2484</v>
       </c>
       <c r="F11" t="n">
-        <v>2887066</v>
+        <v>1406211</v>
       </c>
       <c r="G11" t="n">
-        <v>1934270</v>
+        <v>992436</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4925868673970025</v>
+        <v>0.4169286482957087</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.45</v>
+        <v>877.2</v>
       </c>
       <c r="C12" t="n">
-        <v>83.90000000000001</v>
+        <v>884.9</v>
       </c>
       <c r="D12" t="n">
-        <v>81.77</v>
+        <v>851.5</v>
       </c>
       <c r="E12" t="n">
-        <v>83.54000000000001</v>
+        <v>853</v>
       </c>
       <c r="F12" t="n">
-        <v>10068007</v>
+        <v>8257312</v>
       </c>
       <c r="G12" t="n">
-        <v>6613741</v>
+        <v>5367926</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5222862522133842</v>
+        <v>0.5382685975924407</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1245.3</v>
+        <v>2674.9</v>
       </c>
       <c r="C13" t="n">
-        <v>1270.6</v>
+        <v>2732.8</v>
       </c>
       <c r="D13" t="n">
-        <v>1243.3</v>
+        <v>2674.9</v>
       </c>
       <c r="E13" t="n">
-        <v>1261</v>
+        <v>2720</v>
       </c>
       <c r="F13" t="n">
-        <v>807096</v>
+        <v>438682</v>
       </c>
       <c r="G13" t="n">
-        <v>548971</v>
+        <v>297006</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4701978793050999</v>
+        <v>0.4770139323784705</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.07</v>
+        <v>2985</v>
       </c>
       <c r="C14" t="n">
-        <v>121.93</v>
+        <v>3050</v>
       </c>
       <c r="D14" t="n">
-        <v>119.9</v>
+        <v>2980</v>
       </c>
       <c r="E14" t="n">
-        <v>121.51</v>
+        <v>3020.1</v>
       </c>
       <c r="F14" t="n">
-        <v>9091136</v>
+        <v>469315</v>
       </c>
       <c r="G14" t="n">
-        <v>6142679</v>
+        <v>315016</v>
       </c>
       <c r="H14" t="n">
-        <v>0.47999529195649</v>
+        <v>0.4898132158366559</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>202.17</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>203.59</v>
+        <v>71.52</v>
       </c>
       <c r="D15" t="n">
-        <v>200.28</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>202.5</v>
+        <v>70.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1404201</v>
+        <v>10403379</v>
       </c>
       <c r="G15" t="n">
-        <v>995233</v>
+        <v>7423594</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4109268884773716</v>
+        <v>0.4013938531660002</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.7</v>
+        <v>1589.4</v>
       </c>
       <c r="C16" t="n">
-        <v>422.9</v>
+        <v>1596.1</v>
       </c>
       <c r="D16" t="n">
-        <v>414.55</v>
+        <v>1565.5</v>
       </c>
       <c r="E16" t="n">
-        <v>416.85</v>
+        <v>1582</v>
       </c>
       <c r="F16" t="n">
-        <v>1862022</v>
+        <v>291430</v>
       </c>
       <c r="G16" t="n">
-        <v>1210138</v>
+        <v>203971</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5386856705598866</v>
+        <v>0.4287815424741753</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TATAELXSI</t>
+          <t>RVNL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5759.5</v>
+        <v>342.75</v>
       </c>
       <c r="C17" t="n">
-        <v>5769.5</v>
+        <v>346.5</v>
       </c>
       <c r="D17" t="n">
-        <v>5665</v>
+        <v>320.3</v>
       </c>
       <c r="E17" t="n">
-        <v>5670</v>
+        <v>323.15</v>
       </c>
       <c r="F17" t="n">
-        <v>101170</v>
+        <v>5392512</v>
       </c>
       <c r="G17" t="n">
-        <v>66575</v>
+        <v>3610633</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5196395043184379</v>
+        <v>0.4935087559439024</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TATAELXSI</t>
+          <t>RVNL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>105.69</v>
+        <v>442.75</v>
       </c>
       <c r="C18" t="n">
-        <v>109.95</v>
+        <v>450.9</v>
       </c>
       <c r="D18" t="n">
-        <v>104.61</v>
+        <v>440.65</v>
       </c>
       <c r="E18" t="n">
-        <v>109.25</v>
+        <v>445.85</v>
       </c>
       <c r="F18" t="n">
-        <v>12682149</v>
+        <v>841062</v>
       </c>
       <c r="G18" t="n">
-        <v>8350031</v>
+        <v>570685</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5188146008080688</v>
+        <v>0.4737762513470654</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>POONAWALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>190.24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>191.24</v>
+      </c>
+      <c r="D19" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2451853</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1608219</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5245765657537935</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2280.1</v>
+        <v>12840</v>
       </c>
       <c r="C2" t="n">
-        <v>2314.7</v>
+        <v>12925</v>
       </c>
       <c r="D2" t="n">
-        <v>2267</v>
+        <v>12752</v>
       </c>
       <c r="E2" t="n">
-        <v>2294.5</v>
+        <v>12839</v>
       </c>
       <c r="F2" t="n">
-        <v>1075526</v>
+        <v>252065</v>
       </c>
       <c r="G2" t="n">
-        <v>2376286</v>
+        <v>504476</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5473920226774049</v>
+        <v>-0.5003429300898358</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2757</v>
+        <v>3136.9</v>
       </c>
       <c r="C3" t="n">
-        <v>2761.9</v>
+        <v>3192</v>
       </c>
       <c r="D3" t="n">
-        <v>2705.1</v>
+        <v>3102.2</v>
       </c>
       <c r="E3" t="n">
-        <v>2737.6</v>
+        <v>3150</v>
       </c>
       <c r="F3" t="n">
-        <v>553341</v>
+        <v>305836</v>
       </c>
       <c r="G3" t="n">
-        <v>1236332</v>
+        <v>697711</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5524333269704255</v>
+        <v>-0.5616580503962242</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>SIEMENS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.4</v>
+        <v>758.5</v>
       </c>
       <c r="C4" t="n">
-        <v>310</v>
+        <v>767.2</v>
       </c>
       <c r="D4" t="n">
-        <v>304.55</v>
+        <v>753.55</v>
       </c>
       <c r="E4" t="n">
-        <v>305.3</v>
+        <v>757.7</v>
       </c>
       <c r="F4" t="n">
-        <v>20834370</v>
+        <v>1366582</v>
       </c>
       <c r="G4" t="n">
-        <v>44948318</v>
+        <v>2771092</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5364816543302021</v>
+        <v>-0.5068435115109856</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1332</v>
+        <v>730</v>
       </c>
       <c r="C5" t="n">
-        <v>1352.5</v>
+        <v>742.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1311.2</v>
+        <v>728.95</v>
       </c>
       <c r="E5" t="n">
-        <v>1321.4</v>
+        <v>740</v>
       </c>
       <c r="F5" t="n">
-        <v>2051386</v>
+        <v>1328439</v>
       </c>
       <c r="G5" t="n">
-        <v>4245522</v>
+        <v>2828419</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5168118313837498</v>
+        <v>-0.5303245381960735</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113.29</v>
+        <v>6827</v>
       </c>
       <c r="C6" t="n">
-        <v>113.91</v>
+        <v>6980.5</v>
       </c>
       <c r="D6" t="n">
-        <v>112.93</v>
+        <v>6820</v>
       </c>
       <c r="E6" t="n">
-        <v>113.3</v>
+        <v>6942</v>
       </c>
       <c r="F6" t="n">
-        <v>3083473</v>
+        <v>255672</v>
       </c>
       <c r="G6" t="n">
-        <v>7458908</v>
+        <v>522463</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5866053046907135</v>
+        <v>-0.5106409449090175</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>POLYCAB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>TIINDIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109</v>
+        <v>3021.8</v>
       </c>
       <c r="C7" t="n">
-        <v>109.32</v>
+        <v>3071.9</v>
       </c>
       <c r="D7" t="n">
-        <v>106.53</v>
+        <v>3021.8</v>
       </c>
       <c r="E7" t="n">
-        <v>106.91</v>
+        <v>3052</v>
       </c>
       <c r="F7" t="n">
-        <v>5294133</v>
+        <v>187828</v>
       </c>
       <c r="G7" t="n">
-        <v>12682149</v>
+        <v>469315</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5825523734187321</v>
+        <v>-0.5997826619647785</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PERSISTENT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5277.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5202</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F8" t="n">
+        <v>242009</v>
+      </c>
+      <c r="G8" t="n">
+        <v>553305</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5626119409728811</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PERSISTENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>141.45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>142.08</v>
+      </c>
+      <c r="D9" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4652786</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9769604</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5237487619764322</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
         </is>
       </c>
     </row>
@@ -690,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,594 +814,627 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4589</v>
+        <v>1853</v>
       </c>
       <c r="C2" t="n">
-        <v>4669.6</v>
+        <v>1872.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4571</v>
+        <v>1851.8</v>
       </c>
       <c r="E2" t="n">
-        <v>4644</v>
+        <v>1870.9</v>
       </c>
       <c r="F2" t="n">
-        <v>723767</v>
+        <v>6697206</v>
       </c>
       <c r="G2" t="n">
-        <v>455558</v>
+        <v>4645011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5887483042773917</v>
+        <v>0.441806273440472</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1611.7</v>
+        <v>1424.6</v>
       </c>
       <c r="C3" t="n">
-        <v>1636.7</v>
+        <v>1427.7</v>
       </c>
       <c r="D3" t="n">
-        <v>1610.1</v>
+        <v>1415.2</v>
       </c>
       <c r="E3" t="n">
-        <v>1626.5</v>
+        <v>1421.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1679088</v>
+        <v>9009465</v>
       </c>
       <c r="G3" t="n">
-        <v>1140902</v>
+        <v>5913947</v>
       </c>
       <c r="H3" t="n">
-        <v>0.471719744552994</v>
+        <v>0.5234267402125856</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.52</v>
+        <v>751.1</v>
       </c>
       <c r="C4" t="n">
-        <v>161.65</v>
+        <v>771.3</v>
       </c>
       <c r="D4" t="n">
-        <v>158.5</v>
+        <v>750</v>
       </c>
       <c r="E4" t="n">
-        <v>160.13</v>
+        <v>770.25</v>
       </c>
       <c r="F4" t="n">
-        <v>20056598</v>
+        <v>2637612</v>
       </c>
       <c r="G4" t="n">
-        <v>14325736</v>
+        <v>1747197</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4000396210009733</v>
+        <v>0.5096248448228792</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.8</v>
+        <v>1214.2</v>
       </c>
       <c r="C5" t="n">
-        <v>236.36</v>
+        <v>1230.7</v>
       </c>
       <c r="D5" t="n">
-        <v>233.61</v>
+        <v>1214.2</v>
       </c>
       <c r="E5" t="n">
-        <v>235.37</v>
+        <v>1229.5</v>
       </c>
       <c r="F5" t="n">
-        <v>7036778</v>
+        <v>964805</v>
       </c>
       <c r="G5" t="n">
-        <v>4699743</v>
+        <v>673722</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4972686804363557</v>
+        <v>0.4320520927029249</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1490</v>
+        <v>385.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1509.9</v>
+        <v>388.95</v>
       </c>
       <c r="D6" t="n">
-        <v>1489</v>
+        <v>384.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1498</v>
+        <v>387.1</v>
       </c>
       <c r="F6" t="n">
-        <v>3422656</v>
+        <v>3757839</v>
       </c>
       <c r="G6" t="n">
-        <v>2374556</v>
+        <v>2575426</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4413877794417146</v>
+        <v>0.4591135602420726</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12447</v>
+        <v>1902.9</v>
       </c>
       <c r="C7" t="n">
-        <v>12530</v>
+        <v>1924.3</v>
       </c>
       <c r="D7" t="n">
-        <v>12397</v>
+        <v>1901</v>
       </c>
       <c r="E7" t="n">
-        <v>12440</v>
+        <v>1913.5</v>
       </c>
       <c r="F7" t="n">
-        <v>334100</v>
+        <v>335318</v>
       </c>
       <c r="G7" t="n">
-        <v>218605</v>
+        <v>233350</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5283273484138057</v>
+        <v>0.4369745018212985</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>284.4</v>
+        <v>5130</v>
       </c>
       <c r="C8" t="n">
-        <v>287.55</v>
+        <v>5132</v>
       </c>
       <c r="D8" t="n">
-        <v>284</v>
+        <v>5055.5</v>
       </c>
       <c r="E8" t="n">
-        <v>284.45</v>
+        <v>5099.5</v>
       </c>
       <c r="F8" t="n">
-        <v>13184438</v>
+        <v>237765</v>
       </c>
       <c r="G8" t="n">
-        <v>8755499</v>
+        <v>156885</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5058465542626411</v>
+        <v>0.5155368582082417</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>VOLTAS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1428.2</v>
+        <v>1249.9</v>
       </c>
       <c r="C9" t="n">
-        <v>1441</v>
+        <v>1284</v>
       </c>
       <c r="D9" t="n">
-        <v>1421</v>
+        <v>1243.7</v>
       </c>
       <c r="E9" t="n">
-        <v>1425.8</v>
+        <v>1275.7</v>
       </c>
       <c r="F9" t="n">
-        <v>9899184</v>
+        <v>1199406</v>
       </c>
       <c r="G9" t="n">
-        <v>6625368</v>
+        <v>839568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4941334579452794</v>
+        <v>0.4285989937682236</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>VOLTAS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>SONACOMS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1991.9</v>
+        <v>442.55</v>
       </c>
       <c r="C10" t="n">
-        <v>1996</v>
+        <v>450.55</v>
       </c>
       <c r="D10" t="n">
-        <v>1967.5</v>
+        <v>442.05</v>
       </c>
       <c r="E10" t="n">
-        <v>1969.7</v>
+        <v>449.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6468901</v>
+        <v>1320587</v>
       </c>
       <c r="G10" t="n">
-        <v>4552927</v>
+        <v>921533</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4208224731035661</v>
+        <v>0.4330327834163291</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>SONACOMS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2518</v>
+        <v>1835.1</v>
       </c>
       <c r="C11" t="n">
-        <v>2536.6</v>
+        <v>1889.5</v>
       </c>
       <c r="D11" t="n">
-        <v>2480.1</v>
+        <v>1825.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2484</v>
+        <v>1852.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1406211</v>
+        <v>1329799</v>
       </c>
       <c r="G11" t="n">
-        <v>992436</v>
+        <v>875077</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4169286482957087</v>
+        <v>0.5196365576972084</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>877.2</v>
+        <v>15900</v>
       </c>
       <c r="C12" t="n">
-        <v>884.9</v>
+        <v>16070</v>
       </c>
       <c r="D12" t="n">
-        <v>851.5</v>
+        <v>15593</v>
       </c>
       <c r="E12" t="n">
-        <v>853</v>
+        <v>15980</v>
       </c>
       <c r="F12" t="n">
-        <v>8257312</v>
+        <v>235815</v>
       </c>
       <c r="G12" t="n">
-        <v>5367926</v>
+        <v>164396</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5382685975924407</v>
+        <v>0.4344327112581814</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>DIXON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2674.9</v>
+        <v>705.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2732.8</v>
+        <v>711</v>
       </c>
       <c r="D13" t="n">
-        <v>2674.9</v>
+        <v>699.25</v>
       </c>
       <c r="E13" t="n">
-        <v>2720</v>
+        <v>710.25</v>
       </c>
       <c r="F13" t="n">
-        <v>438682</v>
+        <v>1291837</v>
       </c>
       <c r="G13" t="n">
-        <v>297006</v>
+        <v>867153</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4770139323784705</v>
+        <v>0.4897451776099489</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>MARICO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2985</v>
+        <v>576.1</v>
       </c>
       <c r="C14" t="n">
-        <v>3050</v>
+        <v>577</v>
       </c>
       <c r="D14" t="n">
-        <v>2980</v>
+        <v>571.35</v>
       </c>
       <c r="E14" t="n">
-        <v>3020.1</v>
+        <v>574.8</v>
       </c>
       <c r="F14" t="n">
-        <v>469315</v>
+        <v>939214</v>
       </c>
       <c r="G14" t="n">
-        <v>315016</v>
+        <v>616119</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4898132158366559</v>
+        <v>0.5244035648957426</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PAGEIND</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.73999999999999</v>
+        <v>44010</v>
       </c>
       <c r="C15" t="n">
-        <v>71.52</v>
+        <v>44280</v>
       </c>
       <c r="D15" t="n">
-        <v>70.18000000000001</v>
+        <v>43405</v>
       </c>
       <c r="E15" t="n">
-        <v>70.8</v>
+        <v>43600</v>
       </c>
       <c r="F15" t="n">
-        <v>10403379</v>
+        <v>36102</v>
       </c>
       <c r="G15" t="n">
-        <v>7423594</v>
+        <v>24274</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4013938531660002</v>
+        <v>0.4872703303946609</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PAGEIND</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1589.4</v>
+        <v>6.53</v>
       </c>
       <c r="C16" t="n">
-        <v>1596.1</v>
+        <v>6.54</v>
       </c>
       <c r="D16" t="n">
-        <v>1565.5</v>
+        <v>6.35</v>
       </c>
       <c r="E16" t="n">
-        <v>1582</v>
+        <v>6.38</v>
       </c>
       <c r="F16" t="n">
-        <v>291430</v>
+        <v>470360407</v>
       </c>
       <c r="G16" t="n">
-        <v>203971</v>
+        <v>317847247</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4287815424741753</v>
+        <v>0.4798316217601218</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>342.75</v>
+        <v>836.6</v>
       </c>
       <c r="C17" t="n">
-        <v>346.5</v>
+        <v>866</v>
       </c>
       <c r="D17" t="n">
-        <v>320.3</v>
+        <v>833.05</v>
       </c>
       <c r="E17" t="n">
-        <v>323.15</v>
+        <v>866</v>
       </c>
       <c r="F17" t="n">
-        <v>5392512</v>
+        <v>2817582</v>
       </c>
       <c r="G17" t="n">
-        <v>3610633</v>
+        <v>1863616</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4935087559439024</v>
+        <v>0.5118897884542738</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>442.75</v>
+        <v>138</v>
       </c>
       <c r="C18" t="n">
-        <v>450.9</v>
+        <v>142.29</v>
       </c>
       <c r="D18" t="n">
-        <v>440.65</v>
+        <v>137.81</v>
       </c>
       <c r="E18" t="n">
-        <v>445.85</v>
+        <v>141.1</v>
       </c>
       <c r="F18" t="n">
-        <v>841062</v>
+        <v>16615911</v>
       </c>
       <c r="G18" t="n">
-        <v>570685</v>
+        <v>10917993</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4737762513470654</v>
+        <v>0.5218832801962778</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>IEX</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PPLPHARMA</t>
+          <t>NUVAMA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>190.24</v>
+        <v>6929</v>
       </c>
       <c r="C19" t="n">
-        <v>191.24</v>
+        <v>7000</v>
       </c>
       <c r="D19" t="n">
-        <v>188.6</v>
+        <v>6720</v>
       </c>
       <c r="E19" t="n">
-        <v>189.6</v>
+        <v>6955</v>
       </c>
       <c r="F19" t="n">
-        <v>2451853</v>
+        <v>133141</v>
       </c>
       <c r="G19" t="n">
-        <v>1608219</v>
+        <v>85228</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5245765657537935</v>
+        <v>0.5621744027784297</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PPLPHARMA</t>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>225.09</v>
+      </c>
+      <c r="D20" t="n">
+        <v>221.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>222.27</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2001471</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1278810</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5651042766321814</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>NCC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,264 +484,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12840</v>
+        <v>773.45</v>
       </c>
       <c r="C2" t="n">
-        <v>12925</v>
+        <v>779.8</v>
       </c>
       <c r="D2" t="n">
-        <v>12752</v>
+        <v>765.7</v>
       </c>
       <c r="E2" t="n">
-        <v>12839</v>
+        <v>769.75</v>
       </c>
       <c r="F2" t="n">
-        <v>252065</v>
+        <v>1859573</v>
       </c>
       <c r="G2" t="n">
-        <v>504476</v>
+        <v>4114205</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5003429300898358</v>
+        <v>-0.5480115842550384</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3136.9</v>
+        <v>4537</v>
       </c>
       <c r="C3" t="n">
-        <v>3192</v>
+        <v>4568.5</v>
       </c>
       <c r="D3" t="n">
-        <v>3102.2</v>
+        <v>4472.4</v>
       </c>
       <c r="E3" t="n">
-        <v>3150</v>
+        <v>4543.9</v>
       </c>
       <c r="F3" t="n">
-        <v>305836</v>
+        <v>1265929</v>
       </c>
       <c r="G3" t="n">
-        <v>697711</v>
+        <v>2711914</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5616580503962242</v>
+        <v>-0.5331972179058776</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>758.5</v>
+        <v>890</v>
       </c>
       <c r="C4" t="n">
-        <v>767.2</v>
+        <v>894.6</v>
       </c>
       <c r="D4" t="n">
-        <v>753.55</v>
+        <v>885</v>
       </c>
       <c r="E4" t="n">
-        <v>757.7</v>
+        <v>887</v>
       </c>
       <c r="F4" t="n">
-        <v>1366582</v>
+        <v>761942</v>
       </c>
       <c r="G4" t="n">
-        <v>2771092</v>
+        <v>1526696</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5068435115109856</v>
+        <v>-0.5009209430037153</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730</v>
+        <v>718.1</v>
       </c>
       <c r="C5" t="n">
-        <v>742.5</v>
+        <v>731</v>
       </c>
       <c r="D5" t="n">
-        <v>728.95</v>
+        <v>716.1</v>
       </c>
       <c r="E5" t="n">
-        <v>740</v>
+        <v>729.35</v>
       </c>
       <c r="F5" t="n">
-        <v>1328439</v>
+        <v>465289</v>
       </c>
       <c r="G5" t="n">
-        <v>2828419</v>
+        <v>945121</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5303245381960735</v>
+        <v>-0.5076937238723931</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>JSL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>VOLTAS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6827</v>
+        <v>1270</v>
       </c>
       <c r="C6" t="n">
-        <v>6980.5</v>
+        <v>1279.6</v>
       </c>
       <c r="D6" t="n">
-        <v>6820</v>
+        <v>1258</v>
       </c>
       <c r="E6" t="n">
-        <v>6942</v>
+        <v>1270</v>
       </c>
       <c r="F6" t="n">
-        <v>255672</v>
+        <v>569544</v>
       </c>
       <c r="G6" t="n">
-        <v>522463</v>
+        <v>1199406</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5106409449090175</v>
+        <v>-0.5251449467486405</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>VOLTAS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3021.8</v>
+        <v>2500</v>
       </c>
       <c r="C7" t="n">
-        <v>3071.9</v>
+        <v>2514.4</v>
       </c>
       <c r="D7" t="n">
-        <v>3021.8</v>
+        <v>2456</v>
       </c>
       <c r="E7" t="n">
-        <v>3052</v>
+        <v>2479.8</v>
       </c>
       <c r="F7" t="n">
-        <v>187828</v>
+        <v>2747105</v>
       </c>
       <c r="G7" t="n">
-        <v>469315</v>
+        <v>5393999</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5997826619647785</v>
+        <v>-0.4907108807398741</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5275</v>
+        <v>1852</v>
       </c>
       <c r="C8" t="n">
-        <v>5277.5</v>
+        <v>1858.4</v>
       </c>
       <c r="D8" t="n">
-        <v>5202</v>
+        <v>1825.1</v>
       </c>
       <c r="E8" t="n">
-        <v>5240</v>
+        <v>1837</v>
       </c>
       <c r="F8" t="n">
-        <v>242009</v>
+        <v>661217</v>
       </c>
       <c r="G8" t="n">
-        <v>553305</v>
+        <v>1329799</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5626119409728811</v>
+        <v>-0.5027692154979813</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INOXWIND</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.45</v>
+        <v>1591</v>
       </c>
       <c r="C9" t="n">
-        <v>142.08</v>
+        <v>1613.9</v>
       </c>
       <c r="D9" t="n">
-        <v>137.7</v>
+        <v>1572.1</v>
       </c>
       <c r="E9" t="n">
-        <v>138.3</v>
+        <v>1576</v>
       </c>
       <c r="F9" t="n">
-        <v>4652786</v>
+        <v>2039786</v>
       </c>
       <c r="G9" t="n">
-        <v>9769604</v>
+        <v>5047289</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5237487619764322</v>
+        <v>-0.5958650277406347</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>INOXWIND</t>
+          <t>BDL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>206.31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>207.33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203.35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>204.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>858541</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1747587</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5087277486042183</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>94</v>
+      </c>
+      <c r="D11" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5003409</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10371223</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5175680823756272</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PRESTIGE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1639.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F12" t="n">
+        <v>309115</v>
+      </c>
+      <c r="G12" t="n">
+        <v>668089</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.53731463921723</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
@@ -756,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,627 +913,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1853</v>
+        <v>822</v>
       </c>
       <c r="C2" t="n">
-        <v>1872.5</v>
+        <v>828</v>
       </c>
       <c r="D2" t="n">
-        <v>1851.8</v>
+        <v>819.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1870.9</v>
+        <v>825.5</v>
       </c>
       <c r="F2" t="n">
-        <v>6697206</v>
+        <v>7087573</v>
       </c>
       <c r="G2" t="n">
-        <v>4645011</v>
+        <v>4447508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.441806273440472</v>
+        <v>0.5936054527614115</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>SBIN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1424.6</v>
+        <v>3034</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.7</v>
+        <v>3055.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1415.2</v>
+        <v>3019.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1421.8</v>
+        <v>3022.5</v>
       </c>
       <c r="F3" t="n">
-        <v>9009465</v>
+        <v>3342174</v>
       </c>
       <c r="G3" t="n">
-        <v>5913947</v>
+        <v>2148166</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5234267402125856</v>
+        <v>0.555826691233359</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>751.1</v>
+        <v>3700</v>
       </c>
       <c r="C4" t="n">
-        <v>771.3</v>
+        <v>3708.5</v>
       </c>
       <c r="D4" t="n">
-        <v>750</v>
+        <v>3641.7</v>
       </c>
       <c r="E4" t="n">
-        <v>770.25</v>
+        <v>3672.1</v>
       </c>
       <c r="F4" t="n">
-        <v>2637612</v>
+        <v>1769702</v>
       </c>
       <c r="G4" t="n">
-        <v>1747197</v>
+        <v>1227196</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5096248448228792</v>
+        <v>0.4420695634601156</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1214.2</v>
+        <v>1501</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.7</v>
+        <v>1516.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1214.2</v>
+        <v>1485.8</v>
       </c>
       <c r="E5" t="n">
-        <v>1229.5</v>
+        <v>1489</v>
       </c>
       <c r="F5" t="n">
-        <v>964805</v>
+        <v>4227538</v>
       </c>
       <c r="G5" t="n">
-        <v>673722</v>
+        <v>2916128</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4320520927029249</v>
+        <v>0.4497093406050763</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>HCLTECH</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>385.5</v>
+        <v>1057.2</v>
       </c>
       <c r="C6" t="n">
-        <v>388.95</v>
+        <v>1059.4</v>
       </c>
       <c r="D6" t="n">
-        <v>384.4</v>
+        <v>1045.4</v>
       </c>
       <c r="E6" t="n">
-        <v>387.1</v>
+        <v>1045.4</v>
       </c>
       <c r="F6" t="n">
-        <v>3757839</v>
+        <v>767620</v>
       </c>
       <c r="G6" t="n">
-        <v>2575426</v>
+        <v>501792</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4591135602420726</v>
+        <v>0.5297573496588228</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1902.9</v>
+        <v>3061.1</v>
       </c>
       <c r="C7" t="n">
-        <v>1924.3</v>
+        <v>3093.3</v>
       </c>
       <c r="D7" t="n">
-        <v>1901</v>
+        <v>3055.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1913.5</v>
+        <v>3085.4</v>
       </c>
       <c r="F7" t="n">
-        <v>335318</v>
+        <v>386023</v>
       </c>
       <c r="G7" t="n">
-        <v>233350</v>
+        <v>255940</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4369745018212985</v>
+        <v>0.5082558412127842</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5130</v>
+        <v>1467.4</v>
       </c>
       <c r="C8" t="n">
-        <v>5132</v>
+        <v>1494.9</v>
       </c>
       <c r="D8" t="n">
-        <v>5055.5</v>
+        <v>1463.1</v>
       </c>
       <c r="E8" t="n">
-        <v>5099.5</v>
+        <v>1476</v>
       </c>
       <c r="F8" t="n">
-        <v>237765</v>
+        <v>861774</v>
       </c>
       <c r="G8" t="n">
-        <v>156885</v>
+        <v>557221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5155368582082417</v>
+        <v>0.5465569316303586</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>HAVELLS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1249.9</v>
+        <v>1229.9</v>
       </c>
       <c r="C9" t="n">
-        <v>1284</v>
+        <v>1239.9</v>
       </c>
       <c r="D9" t="n">
-        <v>1243.7</v>
+        <v>1228.2</v>
       </c>
       <c r="E9" t="n">
-        <v>1275.7</v>
+        <v>1233</v>
       </c>
       <c r="F9" t="n">
-        <v>1199406</v>
+        <v>1514599</v>
       </c>
       <c r="G9" t="n">
-        <v>839568</v>
+        <v>964805</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4285989937682236</v>
+        <v>0.5698498660351056</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SONACOMS</t>
+          <t>INDIGO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>442.55</v>
+        <v>5978</v>
       </c>
       <c r="C10" t="n">
-        <v>450.55</v>
+        <v>6055</v>
       </c>
       <c r="D10" t="n">
-        <v>442.05</v>
+        <v>5955.5</v>
       </c>
       <c r="E10" t="n">
-        <v>449.1</v>
+        <v>5991.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1320587</v>
+        <v>767646</v>
       </c>
       <c r="G10" t="n">
-        <v>921533</v>
+        <v>510227</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4330327834163291</v>
+        <v>0.5045185770255201</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SONACOMS</t>
+          <t>INDIGO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1835.1</v>
+        <v>173.06</v>
       </c>
       <c r="C11" t="n">
-        <v>1889.5</v>
+        <v>174.84</v>
       </c>
       <c r="D11" t="n">
-        <v>1825.5</v>
+        <v>172.87</v>
       </c>
       <c r="E11" t="n">
-        <v>1852.5</v>
+        <v>173.52</v>
       </c>
       <c r="F11" t="n">
-        <v>1329799</v>
+        <v>8864011</v>
       </c>
       <c r="G11" t="n">
-        <v>875077</v>
+        <v>6019021</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5196365576972084</v>
+        <v>0.4726665682010414</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>COFORGE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15900</v>
+        <v>1626</v>
       </c>
       <c r="C12" t="n">
-        <v>16070</v>
+        <v>1649.9</v>
       </c>
       <c r="D12" t="n">
-        <v>15593</v>
+        <v>1621.6</v>
       </c>
       <c r="E12" t="n">
-        <v>15980</v>
+        <v>1642</v>
       </c>
       <c r="F12" t="n">
-        <v>235815</v>
+        <v>1241786</v>
       </c>
       <c r="G12" t="n">
-        <v>164396</v>
+        <v>873679</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4344327112581814</v>
+        <v>0.4213298019066499</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>COFORGE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.05</v>
+        <v>1182.4</v>
       </c>
       <c r="C13" t="n">
-        <v>711</v>
+        <v>1186</v>
       </c>
       <c r="D13" t="n">
-        <v>699.25</v>
+        <v>1167.1</v>
       </c>
       <c r="E13" t="n">
-        <v>710.25</v>
+        <v>1183.2</v>
       </c>
       <c r="F13" t="n">
-        <v>1291837</v>
+        <v>638001</v>
       </c>
       <c r="G13" t="n">
-        <v>867153</v>
+        <v>425145</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4897451776099489</v>
+        <v>0.5006668313163745</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>576.1</v>
+        <v>1215.9</v>
       </c>
       <c r="C14" t="n">
-        <v>577</v>
+        <v>1230</v>
       </c>
       <c r="D14" t="n">
-        <v>571.35</v>
+        <v>1206</v>
       </c>
       <c r="E14" t="n">
-        <v>574.8</v>
+        <v>1206.5</v>
       </c>
       <c r="F14" t="n">
-        <v>939214</v>
+        <v>704643</v>
       </c>
       <c r="G14" t="n">
-        <v>616119</v>
+        <v>455057</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5244035648957426</v>
+        <v>0.5484719496678438</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>CONCOR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44010</v>
+        <v>541.55</v>
       </c>
       <c r="C15" t="n">
-        <v>44280</v>
+        <v>542</v>
       </c>
       <c r="D15" t="n">
-        <v>43405</v>
+        <v>531.1</v>
       </c>
       <c r="E15" t="n">
-        <v>43600</v>
+        <v>532.5</v>
       </c>
       <c r="F15" t="n">
-        <v>36102</v>
+        <v>1253153</v>
       </c>
       <c r="G15" t="n">
-        <v>24274</v>
+        <v>894246</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4872703303946609</v>
+        <v>0.40135152966857</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>CONCOR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>HFCL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.53</v>
+        <v>71.95</v>
       </c>
       <c r="C16" t="n">
-        <v>6.54</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>6.35</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>6.38</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>470360407</v>
+        <v>7160882</v>
       </c>
       <c r="G16" t="n">
-        <v>317847247</v>
+        <v>5095065</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4798316217601218</v>
+        <v>0.4054544937110714</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>HFCL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>NBCC</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>836.6</v>
+        <v>105.75</v>
       </c>
       <c r="C17" t="n">
-        <v>866</v>
+        <v>106.29</v>
       </c>
       <c r="D17" t="n">
-        <v>833.05</v>
+        <v>103</v>
       </c>
       <c r="E17" t="n">
-        <v>866</v>
+        <v>103.6</v>
       </c>
       <c r="F17" t="n">
-        <v>2817582</v>
+        <v>5824140</v>
       </c>
       <c r="G17" t="n">
-        <v>1863616</v>
+        <v>3763179</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5118897884542738</v>
+        <v>0.5476648865228042</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>138</v>
-      </c>
-      <c r="C18" t="n">
-        <v>142.29</v>
-      </c>
-      <c r="D18" t="n">
-        <v>137.81</v>
-      </c>
-      <c r="E18" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16615911</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10917993</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5218832801962778</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6929</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6720</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6955</v>
-      </c>
-      <c r="F19" t="n">
-        <v>133141</v>
-      </c>
-      <c r="G19" t="n">
-        <v>85228</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5621744027784297</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>222.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>225.09</v>
-      </c>
-      <c r="D20" t="n">
-        <v>221.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>222.27</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2001471</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1278810</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5651042766321814</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>NCC</t>
+          <t>NBCC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,204 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filterdata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>248.64</v>
+      </c>
+      <c r="C2" t="n">
+        <v>249.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>244.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5789317</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12857225</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.5497226656607471</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>535.15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>541</v>
+      </c>
+      <c r="D3" t="n">
+        <v>534.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>539</v>
+      </c>
+      <c r="F3" t="n">
+        <v>612703</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1253153</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.5110708748253405</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OFSS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8660</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8665.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8517</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8584.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39039</v>
+      </c>
+      <c r="G4" t="n">
+        <v>83210</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.530837639706766</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>OFSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1608.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1628.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1600.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1606.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>328227</v>
+      </c>
+      <c r="G5" t="n">
+        <v>769027</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.5731918385180235</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MAXHEALTH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1216.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1206.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2557331</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5657114</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5479442344630142</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MAXHEALTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1340.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1344</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1295.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1303</v>
+      </c>
+      <c r="F7" t="n">
+        <v>373981</v>
+      </c>
+      <c r="G7" t="n">
+        <v>772075</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5156157109089143</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
@@ -492,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +745,468 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TATACONSUM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1073</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1099268</v>
+      </c>
+      <c r="G2" t="n">
+        <v>767620</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4320471066413069</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TATACONSUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>388</v>
+      </c>
+      <c r="C3" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>381.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>382.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11778056</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8046552</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4637394998503707</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>INDIGO</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6009</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6232.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6009</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1148778</v>
+      </c>
+      <c r="G4" t="n">
+        <v>767646</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4964944779234178</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>INDIGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1269.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1238</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1251.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2175568</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1514599</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4363986771416065</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PNB</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>107.57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>106.59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>106.87</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9504227</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6165564</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5415016371576064</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>110</v>
+      </c>
+      <c r="C7" t="n">
+        <v>110.42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>109.34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15704185</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10879799</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4434260228520766</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UNOMINDA</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1230.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1217.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2817223</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1860177</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5144919005019415</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>UNOMINDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48199185</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31042904</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5526635330251319</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>336</v>
+      </c>
+      <c r="C10" t="n">
+        <v>340.95</v>
+      </c>
+      <c r="D10" t="n">
+        <v>328</v>
+      </c>
+      <c r="E10" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12633896</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8393964</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.505116772004264</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MAZDOCK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2771.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2785.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2715.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2742</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1045907</v>
+      </c>
+      <c r="G11" t="n">
+        <v>666934</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5682316391127158</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>MAZDOCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KAYNES</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6248</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6340</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6168</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6275</v>
+      </c>
+      <c r="F12" t="n">
+        <v>500720</v>
+      </c>
+      <c r="G12" t="n">
+        <v>348121</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4383504586049103</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>KAYNES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CESC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>165.14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>163.41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>164.96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1220860</v>
+      </c>
+      <c r="G13" t="n">
+        <v>796444</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5328886902280637</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1583</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1596.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1562.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1578.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1982597</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1289206</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5378434478275776</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>140.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>138.66</v>
+      </c>
+      <c r="E15" t="n">
+        <v>141.02</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8400424</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5839144</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4386396362206515</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,693 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>248.64</v>
+        <v>4984</v>
       </c>
       <c r="C2" t="n">
-        <v>249.01</v>
+        <v>5139</v>
       </c>
       <c r="D2" t="n">
-        <v>244.76</v>
+        <v>4984</v>
       </c>
       <c r="E2" t="n">
-        <v>245.6</v>
+        <v>5116.8</v>
       </c>
       <c r="F2" t="n">
-        <v>5789317</v>
+        <v>1509894</v>
       </c>
       <c r="G2" t="n">
-        <v>12857225</v>
+        <v>3698091</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5497226656607471</v>
+        <v>-0.5917098849108905</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>535.15</v>
+        <v>2572.2</v>
       </c>
       <c r="C3" t="n">
-        <v>541</v>
+        <v>2615</v>
       </c>
       <c r="D3" t="n">
-        <v>534.1</v>
+        <v>2558.4</v>
       </c>
       <c r="E3" t="n">
-        <v>539</v>
+        <v>2604</v>
       </c>
       <c r="F3" t="n">
-        <v>612703</v>
+        <v>1400717</v>
       </c>
       <c r="G3" t="n">
-        <v>1253153</v>
+        <v>3089136</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5110708748253405</v>
+        <v>-0.5465667422865164</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OFSS</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8660</v>
+        <v>14070</v>
       </c>
       <c r="C4" t="n">
-        <v>8665.5</v>
+        <v>14270</v>
       </c>
       <c r="D4" t="n">
-        <v>8517</v>
+        <v>13979</v>
       </c>
       <c r="E4" t="n">
-        <v>8584.5</v>
+        <v>14235</v>
       </c>
       <c r="F4" t="n">
-        <v>39039</v>
+        <v>906623</v>
       </c>
       <c r="G4" t="n">
-        <v>83210</v>
+        <v>2154781</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.530837639706766</v>
+        <v>-0.5792505131611982</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>OFSS</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1608.5</v>
+        <v>12787</v>
       </c>
       <c r="C5" t="n">
-        <v>1628.5</v>
+        <v>12880</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.5</v>
+        <v>12629</v>
       </c>
       <c r="E5" t="n">
-        <v>1606.9</v>
+        <v>12850</v>
       </c>
       <c r="F5" t="n">
-        <v>328227</v>
+        <v>351252</v>
       </c>
       <c r="G5" t="n">
-        <v>769027</v>
+        <v>808480</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5731918385180235</v>
+        <v>-0.565540273105086</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1216.1</v>
+        <v>3555</v>
       </c>
       <c r="C6" t="n">
-        <v>1233</v>
+        <v>3577.3</v>
       </c>
       <c r="D6" t="n">
-        <v>1206.6</v>
+        <v>3545</v>
       </c>
       <c r="E6" t="n">
-        <v>1218</v>
+        <v>3564</v>
       </c>
       <c r="F6" t="n">
-        <v>2557331</v>
+        <v>537433</v>
       </c>
       <c r="G6" t="n">
-        <v>5657114</v>
+        <v>1253006</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5479442344630142</v>
+        <v>-0.5710850546605523</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1340.2</v>
+        <v>3400</v>
       </c>
       <c r="C7" t="n">
-        <v>1344</v>
+        <v>3403.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1295.2</v>
+        <v>3338.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1303</v>
+        <v>3357</v>
       </c>
       <c r="F7" t="n">
-        <v>373981</v>
+        <v>2596242</v>
       </c>
       <c r="G7" t="n">
-        <v>772075</v>
+        <v>5787481</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5156157109089143</v>
+        <v>-0.551403797265166</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1565.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1568.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1546.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1547.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>898746</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1783835</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.4961720114248235</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1552.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1573</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1542.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1568.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>604629</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1496208</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.595892416027718</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1254.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1226.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1256</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1106601</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2175568</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.491350764490009</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AMBUJACEM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>595.55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>587.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>593.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1898159</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4190190</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5469993007476988</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>AMBUJACEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>INDIGO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6129</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6021</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6055</v>
+      </c>
+      <c r="F12" t="n">
+        <v>499624</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1148778</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5650822003903279</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>INDIGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>131.76</v>
+      </c>
+      <c r="C13" t="n">
+        <v>133.55</v>
+      </c>
+      <c r="D13" t="n">
+        <v>127.11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>133.36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>40387936</v>
+      </c>
+      <c r="G13" t="n">
+        <v>80821577</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5002827524634913</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7094</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7135</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7024</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7130</v>
+      </c>
+      <c r="F14" t="n">
+        <v>187122</v>
+      </c>
+      <c r="G14" t="n">
+        <v>459379</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5926631387155268</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2015.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1975.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F15" t="n">
+        <v>679045</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1464481</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5363237897931076</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>720.55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>730</v>
+      </c>
+      <c r="D16" t="n">
+        <v>712.05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>723</v>
+      </c>
+      <c r="F16" t="n">
+        <v>955973</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1946107</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5087767527684758</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1655.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1628</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1650.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>129527</v>
+      </c>
+      <c r="G17" t="n">
+        <v>283877</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5437214004656946</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>205</v>
+      </c>
+      <c r="C18" t="n">
+        <v>205.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>204.65</v>
+      </c>
+      <c r="F18" t="n">
+        <v>882419</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1772831</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5022543039917511</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1024689</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2143775</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5220165362503061</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>760</v>
+      </c>
+      <c r="C20" t="n">
+        <v>765</v>
+      </c>
+      <c r="D20" t="n">
+        <v>754.15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>757.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>826929</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1873223</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5585528257981031</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2775</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2794.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2731.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2746</v>
+      </c>
+      <c r="F21" t="n">
+        <v>381133</v>
+      </c>
+      <c r="G21" t="n">
+        <v>760570</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4988850467412598</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>POONAWALLA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>469</v>
+      </c>
+      <c r="C22" t="n">
+        <v>470.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>461.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>469.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>727061</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1666630</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5637538025836568</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>
@@ -690,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,462 +1243,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1061</v>
+        <v>1472</v>
       </c>
       <c r="C2" t="n">
-        <v>1090</v>
+        <v>1499.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1059</v>
+        <v>1464.4</v>
       </c>
       <c r="E2" t="n">
-        <v>1073</v>
+        <v>1499.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1099268</v>
+        <v>1807647</v>
       </c>
       <c r="G2" t="n">
-        <v>767620</v>
+        <v>1249405</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4320471066413069</v>
+        <v>0.4468062797891796</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388</v>
+        <v>338.9</v>
       </c>
       <c r="C3" t="n">
-        <v>389.75</v>
+        <v>340.65</v>
       </c>
       <c r="D3" t="n">
-        <v>381.1</v>
+        <v>334.15</v>
       </c>
       <c r="E3" t="n">
-        <v>382.7</v>
+        <v>335.3</v>
       </c>
       <c r="F3" t="n">
-        <v>11778056</v>
+        <v>10316115</v>
       </c>
       <c r="G3" t="n">
-        <v>8046552</v>
+        <v>6511340</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4637394998503707</v>
+        <v>0.5843305679015379</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6009</v>
+        <v>388.5</v>
       </c>
       <c r="C4" t="n">
-        <v>6232.5</v>
+        <v>388.5</v>
       </c>
       <c r="D4" t="n">
-        <v>6009</v>
+        <v>384.25</v>
       </c>
       <c r="E4" t="n">
-        <v>6120</v>
+        <v>385.9</v>
       </c>
       <c r="F4" t="n">
-        <v>1148778</v>
+        <v>5219052</v>
       </c>
       <c r="G4" t="n">
-        <v>767646</v>
+        <v>3520271</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4964944779234178</v>
+        <v>0.4825710861464927</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>COALINDIA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248</v>
+        <v>219.17</v>
       </c>
       <c r="C5" t="n">
-        <v>1269.9</v>
+        <v>227.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1238</v>
+        <v>215.59</v>
       </c>
       <c r="E5" t="n">
-        <v>1251.6</v>
+        <v>226.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2175568</v>
+        <v>8440492</v>
       </c>
       <c r="G5" t="n">
-        <v>1514599</v>
+        <v>5714072</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4363986771416065</v>
+        <v>0.4771413450863062</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>PETRONET</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="C6" t="n">
-        <v>107.57</v>
+        <v>283.35</v>
       </c>
       <c r="D6" t="n">
-        <v>106.59</v>
+        <v>273.1</v>
       </c>
       <c r="E6" t="n">
-        <v>106.87</v>
+        <v>282.95</v>
       </c>
       <c r="F6" t="n">
-        <v>9504227</v>
+        <v>2480560</v>
       </c>
       <c r="G6" t="n">
-        <v>6165564</v>
+        <v>1560274</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5415016371576064</v>
+        <v>0.5898233259030145</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>PETRONET</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>697.5</v>
       </c>
       <c r="C7" t="n">
-        <v>110.42</v>
+        <v>709.45</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9</v>
+        <v>693</v>
       </c>
       <c r="E7" t="n">
-        <v>109.34</v>
+        <v>705</v>
       </c>
       <c r="F7" t="n">
-        <v>15704185</v>
+        <v>2030825</v>
       </c>
       <c r="G7" t="n">
-        <v>10879799</v>
+        <v>1319724</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4434260228520766</v>
+        <v>0.5388255423103618</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>UPL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1185</v>
+        <v>69.75</v>
       </c>
       <c r="C8" t="n">
-        <v>1230.9</v>
+        <v>70.8</v>
       </c>
       <c r="D8" t="n">
-        <v>1180</v>
+        <v>69.48</v>
       </c>
       <c r="E8" t="n">
-        <v>1217.5</v>
+        <v>70.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2817223</v>
+        <v>20465260</v>
       </c>
       <c r="G8" t="n">
-        <v>1860177</v>
+        <v>13221295</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5144919005019415</v>
+        <v>0.5479013213153477</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.91</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>19.18</v>
+        <v>82.97</v>
       </c>
       <c r="D9" t="n">
-        <v>18.88</v>
+        <v>81.8</v>
       </c>
       <c r="E9" t="n">
-        <v>19.12</v>
+        <v>82.17</v>
       </c>
       <c r="F9" t="n">
-        <v>48199185</v>
+        <v>12456960</v>
       </c>
       <c r="G9" t="n">
-        <v>31042904</v>
+        <v>7945165</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5526635330251319</v>
+        <v>0.5678667466314419</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>HFCL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336</v>
+        <v>73.03</v>
       </c>
       <c r="C10" t="n">
-        <v>340.95</v>
+        <v>74.95</v>
       </c>
       <c r="D10" t="n">
-        <v>328</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>337.5</v>
+        <v>74.61</v>
       </c>
       <c r="F10" t="n">
-        <v>12633896</v>
+        <v>7859206</v>
       </c>
       <c r="G10" t="n">
-        <v>8393964</v>
+        <v>5410484</v>
       </c>
       <c r="H10" t="n">
-        <v>0.505116772004264</v>
+        <v>0.4525883451462013</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>HFCL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>CESC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2771.4</v>
+        <v>164.39</v>
       </c>
       <c r="C11" t="n">
-        <v>2785.9</v>
+        <v>165.79</v>
       </c>
       <c r="D11" t="n">
-        <v>2715.3</v>
+        <v>163.83</v>
       </c>
       <c r="E11" t="n">
-        <v>2742</v>
+        <v>164.75</v>
       </c>
       <c r="F11" t="n">
-        <v>1045907</v>
+        <v>1866207</v>
       </c>
       <c r="G11" t="n">
-        <v>666934</v>
+        <v>1220860</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5682316391127158</v>
+        <v>0.5286003309142735</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6248</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6340</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6168</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6275</v>
-      </c>
-      <c r="F12" t="n">
-        <v>500720</v>
-      </c>
-      <c r="G12" t="n">
-        <v>348121</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4383504586049103</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
           <t>CESC</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>165.14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>163.41</v>
-      </c>
-      <c r="E13" t="n">
-        <v>164.96</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1220860</v>
-      </c>
-      <c r="G13" t="n">
-        <v>796444</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5328886902280637</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>CESC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1583</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1596.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1562.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1578.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1982597</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1289206</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5378434478275776</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>140.25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>138.66</v>
-      </c>
-      <c r="E15" t="n">
-        <v>141.02</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8400424</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5839144</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4386396362206515</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>IEX</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,693 +484,495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4984</v>
+        <v>8794.5</v>
       </c>
       <c r="C2" t="n">
-        <v>5139</v>
+        <v>8872.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4984</v>
+        <v>8763.5</v>
       </c>
       <c r="E2" t="n">
-        <v>5116.8</v>
+        <v>8821</v>
       </c>
       <c r="F2" t="n">
-        <v>1509894</v>
+        <v>490202</v>
       </c>
       <c r="G2" t="n">
-        <v>3698091</v>
+        <v>1052384</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5917098849108905</v>
+        <v>-0.5341985434974306</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2572.2</v>
+        <v>1369.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2615</v>
+        <v>1374.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2558.4</v>
+        <v>1358</v>
       </c>
       <c r="E3" t="n">
-        <v>2604</v>
+        <v>1372</v>
       </c>
       <c r="F3" t="n">
-        <v>1400717</v>
+        <v>1594619</v>
       </c>
       <c r="G3" t="n">
-        <v>3089136</v>
+        <v>3150673</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5465667422865164</v>
+        <v>-0.4938798789972809</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14070</v>
+        <v>288.2</v>
       </c>
       <c r="C4" t="n">
-        <v>14270</v>
+        <v>289</v>
       </c>
       <c r="D4" t="n">
-        <v>13979</v>
+        <v>286.95</v>
       </c>
       <c r="E4" t="n">
-        <v>14235</v>
+        <v>288.25</v>
       </c>
       <c r="F4" t="n">
-        <v>906623</v>
+        <v>3106073</v>
       </c>
       <c r="G4" t="n">
-        <v>2154781</v>
+        <v>7196772</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5792505131611982</v>
+        <v>-0.5684074749068054</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>POWERGRID</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12787</v>
+        <v>14362</v>
       </c>
       <c r="C5" t="n">
-        <v>12880</v>
+        <v>14362</v>
       </c>
       <c r="D5" t="n">
-        <v>12629</v>
+        <v>14200</v>
       </c>
       <c r="E5" t="n">
-        <v>12850</v>
+        <v>14220</v>
       </c>
       <c r="F5" t="n">
-        <v>351252</v>
+        <v>391425</v>
       </c>
       <c r="G5" t="n">
-        <v>808480</v>
+        <v>906623</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.565540273105086</v>
+        <v>-0.5682604566616996</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3555</v>
+        <v>2578</v>
       </c>
       <c r="C6" t="n">
-        <v>3577.3</v>
+        <v>2579.3</v>
       </c>
       <c r="D6" t="n">
-        <v>3545</v>
+        <v>2563.4</v>
       </c>
       <c r="E6" t="n">
-        <v>3564</v>
+        <v>2570.5</v>
       </c>
       <c r="F6" t="n">
-        <v>537433</v>
+        <v>308028</v>
       </c>
       <c r="G6" t="n">
-        <v>1253006</v>
+        <v>698587</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5710850546605523</v>
+        <v>-0.5590699512014967</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3400</v>
+        <v>99.69</v>
       </c>
       <c r="C7" t="n">
-        <v>3403.9</v>
+        <v>99.69</v>
       </c>
       <c r="D7" t="n">
-        <v>3338.1</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>3357</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>2596242</v>
+        <v>14042238</v>
       </c>
       <c r="G7" t="n">
-        <v>5787481</v>
+        <v>30083383</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.551403797265166</v>
+        <v>-0.5332227761751396</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1565.2</v>
+        <v>1230</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.7</v>
+        <v>1240</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.1</v>
+        <v>1215.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1547.2</v>
+        <v>1234.4</v>
       </c>
       <c r="F8" t="n">
-        <v>898746</v>
+        <v>873373</v>
       </c>
       <c r="G8" t="n">
-        <v>1783835</v>
+        <v>1743821</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4961720114248235</v>
+        <v>-0.4991613244708029</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1552.4</v>
+        <v>3770</v>
       </c>
       <c r="C9" t="n">
-        <v>1573</v>
+        <v>3821.9</v>
       </c>
       <c r="D9" t="n">
-        <v>1542.2</v>
+        <v>3742.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1568.1</v>
+        <v>3807.9</v>
       </c>
       <c r="F9" t="n">
-        <v>604629</v>
+        <v>65999</v>
       </c>
       <c r="G9" t="n">
-        <v>1496208</v>
+        <v>143908</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.595892416027718</v>
+        <v>-0.5413806042749535</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>PIIND</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1254.9</v>
+        <v>116.49</v>
       </c>
       <c r="C10" t="n">
-        <v>1260</v>
+        <v>117.31</v>
       </c>
       <c r="D10" t="n">
-        <v>1226.1</v>
+        <v>115.9</v>
       </c>
       <c r="E10" t="n">
-        <v>1256</v>
+        <v>116.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1106601</v>
+        <v>2600256</v>
       </c>
       <c r="G10" t="n">
-        <v>2175568</v>
+        <v>5680882</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.491350764490009</v>
+        <v>-0.5422795263129916</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593</v>
+        <v>70.91</v>
       </c>
       <c r="C11" t="n">
-        <v>595.55</v>
+        <v>71.7</v>
       </c>
       <c r="D11" t="n">
-        <v>587.3</v>
+        <v>70.91</v>
       </c>
       <c r="E11" t="n">
-        <v>593.15</v>
+        <v>71.2</v>
       </c>
       <c r="F11" t="n">
-        <v>1898159</v>
+        <v>8584487</v>
       </c>
       <c r="G11" t="n">
-        <v>4190190</v>
+        <v>19496992</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5469993007476988</v>
+        <v>-0.55970197864368</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6060</v>
+        <v>134.3</v>
       </c>
       <c r="C12" t="n">
-        <v>6129</v>
+        <v>134.31</v>
       </c>
       <c r="D12" t="n">
-        <v>6021</v>
+        <v>132.2</v>
       </c>
       <c r="E12" t="n">
-        <v>6055</v>
+        <v>133.1</v>
       </c>
       <c r="F12" t="n">
-        <v>499624</v>
+        <v>20564141</v>
       </c>
       <c r="G12" t="n">
-        <v>1148778</v>
+        <v>40387936</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5650822003903279</v>
+        <v>-0.4908345650542776</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.76</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>133.55</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>127.11</v>
+        <v>76.08</v>
       </c>
       <c r="E13" t="n">
-        <v>133.36</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>40387936</v>
+        <v>3973336</v>
       </c>
       <c r="G13" t="n">
-        <v>80821577</v>
+        <v>9508660</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5002827524634913</v>
+        <v>-0.5821350221797814</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7094</v>
+        <v>4564.6</v>
       </c>
       <c r="C14" t="n">
-        <v>7135</v>
+        <v>4615.8</v>
       </c>
       <c r="D14" t="n">
-        <v>7024</v>
+        <v>4533.1</v>
       </c>
       <c r="E14" t="n">
-        <v>7130</v>
+        <v>4545.9</v>
       </c>
       <c r="F14" t="n">
-        <v>187122</v>
+        <v>139786</v>
       </c>
       <c r="G14" t="n">
-        <v>459379</v>
+        <v>289685</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5926631387155268</v>
+        <v>-0.5174551668191312</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2011</v>
+        <v>287.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2015.1</v>
+        <v>288</v>
       </c>
       <c r="D15" t="n">
-        <v>1975.7</v>
+        <v>283</v>
       </c>
       <c r="E15" t="n">
-        <v>2010</v>
+        <v>283</v>
       </c>
       <c r="F15" t="n">
-        <v>679045</v>
+        <v>2223764</v>
       </c>
       <c r="G15" t="n">
-        <v>1464481</v>
+        <v>5366409</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5363237897931076</v>
+        <v>-0.585614141598227</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.55</v>
+        <v>473.85</v>
       </c>
       <c r="C16" t="n">
-        <v>730</v>
+        <v>475.5</v>
       </c>
       <c r="D16" t="n">
-        <v>712.05</v>
+        <v>468.05</v>
       </c>
       <c r="E16" t="n">
-        <v>723</v>
+        <v>471.45</v>
       </c>
       <c r="F16" t="n">
-        <v>955973</v>
+        <v>982479</v>
       </c>
       <c r="G16" t="n">
-        <v>1946107</v>
+        <v>2263754</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5087767527684758</v>
+        <v>-0.5659956868104926</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1647</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1655.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1628</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1650.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>129527</v>
-      </c>
-      <c r="G17" t="n">
-        <v>283877</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5437214004656946</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IGL</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>205</v>
-      </c>
-      <c r="C18" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>203.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>204.65</v>
-      </c>
-      <c r="F18" t="n">
-        <v>882419</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1772831</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5022543039917511</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>IGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>366.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>366.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>361.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>363.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1024689</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2143775</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5220165362503061</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AUBANK</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>760</v>
-      </c>
-      <c r="C20" t="n">
-        <v>765</v>
-      </c>
-      <c r="D20" t="n">
-        <v>754.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>757.25</v>
-      </c>
-      <c r="F20" t="n">
-        <v>826929</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1873223</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5585528257981031</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>AUBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2775</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2794.9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2731.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2746</v>
-      </c>
-      <c r="F21" t="n">
-        <v>381133</v>
-      </c>
-      <c r="G21" t="n">
-        <v>760570</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.4988850467412598</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>469</v>
-      </c>
-      <c r="C22" t="n">
-        <v>470.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>461.7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>469.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>727061</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1666630</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.5637538025836568</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
+          <t>IIFL</t>
         </is>
       </c>
     </row>
@@ -1185,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,330 +1045,594 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1472</v>
+        <v>322.4</v>
       </c>
       <c r="C2" t="n">
-        <v>1499.6</v>
+        <v>331.35</v>
       </c>
       <c r="D2" t="n">
-        <v>1464.4</v>
+        <v>320.35</v>
       </c>
       <c r="E2" t="n">
-        <v>1499.6</v>
+        <v>325.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1807647</v>
+        <v>55734714</v>
       </c>
       <c r="G2" t="n">
-        <v>1249405</v>
+        <v>36592945</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4468062797891796</v>
+        <v>0.5230999855299977</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ETERNAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.9</v>
+        <v>175.16</v>
       </c>
       <c r="C3" t="n">
-        <v>340.65</v>
+        <v>179.39</v>
       </c>
       <c r="D3" t="n">
-        <v>334.15</v>
+        <v>174.89</v>
       </c>
       <c r="E3" t="n">
-        <v>335.3</v>
+        <v>178</v>
       </c>
       <c r="F3" t="n">
-        <v>10316115</v>
+        <v>10610680</v>
       </c>
       <c r="G3" t="n">
-        <v>6511340</v>
+        <v>6732317</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5843305679015379</v>
+        <v>0.5760814590281473</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>DMART</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.5</v>
+        <v>4651.5</v>
       </c>
       <c r="C4" t="n">
-        <v>388.5</v>
+        <v>4759.9</v>
       </c>
       <c r="D4" t="n">
-        <v>384.25</v>
+        <v>4630.1</v>
       </c>
       <c r="E4" t="n">
-        <v>385.9</v>
+        <v>4727.9</v>
       </c>
       <c r="F4" t="n">
-        <v>5219052</v>
+        <v>1269103</v>
       </c>
       <c r="G4" t="n">
-        <v>3520271</v>
+        <v>856309</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4825710861464927</v>
+        <v>0.4820619659492076</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>DMART</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.17</v>
+        <v>1365</v>
       </c>
       <c r="C5" t="n">
-        <v>227.5</v>
+        <v>1398.9</v>
       </c>
       <c r="D5" t="n">
-        <v>215.59</v>
+        <v>1365</v>
       </c>
       <c r="E5" t="n">
-        <v>226.7</v>
+        <v>1396</v>
       </c>
       <c r="F5" t="n">
-        <v>8440492</v>
+        <v>1593082</v>
       </c>
       <c r="G5" t="n">
-        <v>5714072</v>
+        <v>1022673</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4771413450863062</v>
+        <v>0.5577628430593161</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275</v>
+        <v>5084</v>
       </c>
       <c r="C6" t="n">
-        <v>283.35</v>
+        <v>5140.5</v>
       </c>
       <c r="D6" t="n">
-        <v>273.1</v>
+        <v>5070</v>
       </c>
       <c r="E6" t="n">
-        <v>282.95</v>
+        <v>5120</v>
       </c>
       <c r="F6" t="n">
-        <v>2480560</v>
+        <v>312054</v>
       </c>
       <c r="G6" t="n">
-        <v>1560274</v>
+        <v>204663</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5898233259030145</v>
+        <v>0.5247211269257267</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>ABB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.5</v>
+        <v>388.95</v>
       </c>
       <c r="C7" t="n">
-        <v>709.45</v>
+        <v>392.45</v>
       </c>
       <c r="D7" t="n">
-        <v>693</v>
+        <v>388.05</v>
       </c>
       <c r="E7" t="n">
-        <v>705</v>
+        <v>390.05</v>
       </c>
       <c r="F7" t="n">
-        <v>2030825</v>
+        <v>3045301</v>
       </c>
       <c r="G7" t="n">
-        <v>1319724</v>
+        <v>2047149</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5388255423103618</v>
+        <v>0.4875815096995871</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.75</v>
+        <v>409.95</v>
       </c>
       <c r="C8" t="n">
-        <v>70.8</v>
+        <v>411.3</v>
       </c>
       <c r="D8" t="n">
-        <v>69.48</v>
+        <v>403</v>
       </c>
       <c r="E8" t="n">
-        <v>70.7</v>
+        <v>403.85</v>
       </c>
       <c r="F8" t="n">
-        <v>20465260</v>
+        <v>7517853</v>
       </c>
       <c r="G8" t="n">
-        <v>13221295</v>
+        <v>5315976</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5479013213153477</v>
+        <v>0.4141999512413149</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.90000000000001</v>
+        <v>6.61</v>
       </c>
       <c r="C9" t="n">
-        <v>82.97</v>
+        <v>6.94</v>
       </c>
       <c r="D9" t="n">
-        <v>81.8</v>
+        <v>6.57</v>
       </c>
       <c r="E9" t="n">
-        <v>82.17</v>
+        <v>6.8</v>
       </c>
       <c r="F9" t="n">
-        <v>12456960</v>
+        <v>546082602</v>
       </c>
       <c r="G9" t="n">
-        <v>7945165</v>
+        <v>353099427</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5678667466314419</v>
+        <v>0.5465406065357337</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HFCL</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.03</v>
+        <v>2748</v>
       </c>
       <c r="C10" t="n">
-        <v>74.95</v>
+        <v>2796</v>
       </c>
       <c r="D10" t="n">
-        <v>72.93000000000001</v>
+        <v>2722</v>
       </c>
       <c r="E10" t="n">
-        <v>74.61</v>
+        <v>2795</v>
       </c>
       <c r="F10" t="n">
-        <v>7859206</v>
+        <v>1220000</v>
       </c>
       <c r="G10" t="n">
-        <v>5410484</v>
+        <v>762684</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4525883451462013</v>
+        <v>0.5996139947868317</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HFCL</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CESC</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.39</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>165.79</v>
+        <v>72.38</v>
       </c>
       <c r="D11" t="n">
-        <v>163.83</v>
+        <v>70.5</v>
       </c>
       <c r="E11" t="n">
-        <v>164.75</v>
+        <v>71.77</v>
       </c>
       <c r="F11" t="n">
-        <v>1866207</v>
+        <v>29770419</v>
       </c>
       <c r="G11" t="n">
-        <v>1220860</v>
+        <v>20465260</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5286003309142735</v>
+        <v>0.4546807125831775</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CESC</t>
+          <t>NMDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>730.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>702</v>
+      </c>
+      <c r="E12" t="n">
+        <v>713.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3114706</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2030825</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5337146233673508</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TATAELXSI</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5744.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5824.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5690.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5745</v>
+      </c>
+      <c r="F13" t="n">
+        <v>136215</v>
+      </c>
+      <c r="G13" t="n">
+        <v>90475</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5055540204476374</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TATAELXSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>758.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>761</v>
+      </c>
+      <c r="D14" t="n">
+        <v>745.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>759.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1188698</v>
+      </c>
+      <c r="G14" t="n">
+        <v>826929</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4374849594100582</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45.15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="E15" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9225074</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6493036</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4207643389009394</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CYIENT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1213.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1234.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1206.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F16" t="n">
+        <v>384273</v>
+      </c>
+      <c r="G16" t="n">
+        <v>270368</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4212961593087939</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CYIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2681.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2727.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2647.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2714.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>658250</v>
+      </c>
+      <c r="G17" t="n">
+        <v>454427</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4485274862629201</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>458</v>
+      </c>
+      <c r="C18" t="n">
+        <v>463.45</v>
+      </c>
+      <c r="D18" t="n">
+        <v>452.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>461.35</v>
+      </c>
+      <c r="F18" t="n">
+        <v>757670</v>
+      </c>
+      <c r="G18" t="n">
+        <v>483094</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5683697168666968</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NBCC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>106.31</v>
+      </c>
+      <c r="C19" t="n">
+        <v>107.84</v>
+      </c>
+      <c r="D19" t="n">
+        <v>104.82</v>
+      </c>
+      <c r="E19" t="n">
+        <v>105.48</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5607655</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3562682</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5739981845138017</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NBCC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,495 +484,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8794.5</v>
+        <v>1930</v>
       </c>
       <c r="C2" t="n">
-        <v>8872.5</v>
+        <v>1940.9</v>
       </c>
       <c r="D2" t="n">
-        <v>8763.5</v>
+        <v>1927.7</v>
       </c>
       <c r="E2" t="n">
-        <v>8821</v>
+        <v>1930.1</v>
       </c>
       <c r="F2" t="n">
-        <v>490202</v>
+        <v>3376913</v>
       </c>
       <c r="G2" t="n">
-        <v>1052384</v>
+        <v>6962619</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5341985434974306</v>
+        <v>-0.5149938550421903</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1369.4</v>
+        <v>6005</v>
       </c>
       <c r="C3" t="n">
-        <v>1374.6</v>
+        <v>6060</v>
       </c>
       <c r="D3" t="n">
-        <v>1358</v>
+        <v>5988</v>
       </c>
       <c r="E3" t="n">
-        <v>1372</v>
+        <v>6030</v>
       </c>
       <c r="F3" t="n">
-        <v>1594619</v>
+        <v>219909</v>
       </c>
       <c r="G3" t="n">
-        <v>3150673</v>
+        <v>544008</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4938798789972809</v>
+        <v>-0.5957614593903031</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.2</v>
+        <v>445.65</v>
       </c>
       <c r="C4" t="n">
-        <v>289</v>
+        <v>449</v>
       </c>
       <c r="D4" t="n">
-        <v>286.95</v>
+        <v>443.15</v>
       </c>
       <c r="E4" t="n">
-        <v>288.25</v>
+        <v>447.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3106073</v>
+        <v>8103807</v>
       </c>
       <c r="G4" t="n">
-        <v>7196772</v>
+        <v>19775631</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5684074749068054</v>
+        <v>-0.5902124690736796</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>VEDL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14362</v>
+        <v>30790</v>
       </c>
       <c r="C5" t="n">
-        <v>14362</v>
+        <v>30950</v>
       </c>
       <c r="D5" t="n">
-        <v>14200</v>
+        <v>30400</v>
       </c>
       <c r="E5" t="n">
-        <v>14220</v>
+        <v>30600</v>
       </c>
       <c r="F5" t="n">
-        <v>391425</v>
+        <v>12148</v>
       </c>
       <c r="G5" t="n">
-        <v>906623</v>
+        <v>29464</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5682604566616996</v>
+        <v>-0.587700244366006</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>DABUR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2578</v>
+        <v>535.95</v>
       </c>
       <c r="C6" t="n">
-        <v>2579.3</v>
+        <v>536.45</v>
       </c>
       <c r="D6" t="n">
-        <v>2563.4</v>
+        <v>514.75</v>
       </c>
       <c r="E6" t="n">
-        <v>2570.5</v>
+        <v>516.95</v>
       </c>
       <c r="F6" t="n">
-        <v>308028</v>
+        <v>6041694</v>
       </c>
       <c r="G6" t="n">
-        <v>698587</v>
+        <v>12345218</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5590699512014967</v>
+        <v>-0.5106045109936496</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>DABUR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.69</v>
+        <v>513.15</v>
       </c>
       <c r="C7" t="n">
-        <v>99.69</v>
+        <v>515.75</v>
       </c>
       <c r="D7" t="n">
-        <v>97.68000000000001</v>
+        <v>509.4</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>510.35</v>
       </c>
       <c r="F7" t="n">
-        <v>14042238</v>
+        <v>3642857</v>
       </c>
       <c r="G7" t="n">
-        <v>30083383</v>
+        <v>8707575</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5332227761751396</v>
+        <v>-0.5816450619144825</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1230</v>
+        <v>5360</v>
       </c>
       <c r="C8" t="n">
-        <v>1240</v>
+        <v>5373</v>
       </c>
       <c r="D8" t="n">
-        <v>1215.2</v>
+        <v>5275</v>
       </c>
       <c r="E8" t="n">
-        <v>1234.4</v>
+        <v>5337</v>
       </c>
       <c r="F8" t="n">
-        <v>873373</v>
+        <v>307013</v>
       </c>
       <c r="G8" t="n">
-        <v>1743821</v>
+        <v>628849</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4991613244708029</v>
+        <v>-0.5117858182170919</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3770</v>
+        <v>1214.6</v>
       </c>
       <c r="C9" t="n">
-        <v>3821.9</v>
+        <v>1225</v>
       </c>
       <c r="D9" t="n">
-        <v>3742.5</v>
+        <v>1208.2</v>
       </c>
       <c r="E9" t="n">
-        <v>3807.9</v>
+        <v>1210.9</v>
       </c>
       <c r="F9" t="n">
-        <v>65999</v>
+        <v>560998</v>
       </c>
       <c r="G9" t="n">
-        <v>143908</v>
+        <v>1116352</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5413806042749535</v>
+        <v>-0.4974721234879321</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>SRF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>116.49</v>
+        <v>2938</v>
       </c>
       <c r="C10" t="n">
-        <v>117.31</v>
+        <v>2938</v>
       </c>
       <c r="D10" t="n">
-        <v>115.9</v>
+        <v>2902.1</v>
       </c>
       <c r="E10" t="n">
-        <v>116.4</v>
+        <v>2913</v>
       </c>
       <c r="F10" t="n">
-        <v>2600256</v>
+        <v>306140</v>
       </c>
       <c r="G10" t="n">
-        <v>5680882</v>
+        <v>733614</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5422795263129916</v>
+        <v>-0.5826960772286243</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>SRF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.91</v>
+        <v>584</v>
       </c>
       <c r="C11" t="n">
-        <v>71.7</v>
+        <v>584</v>
       </c>
       <c r="D11" t="n">
-        <v>70.91</v>
+        <v>577.2</v>
       </c>
       <c r="E11" t="n">
-        <v>71.2</v>
+        <v>577.5</v>
       </c>
       <c r="F11" t="n">
-        <v>8584487</v>
+        <v>724860</v>
       </c>
       <c r="G11" t="n">
-        <v>19496992</v>
+        <v>1561218</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.55970197864368</v>
+        <v>-0.5357086582399126</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.3</v>
+        <v>759.6</v>
       </c>
       <c r="C12" t="n">
-        <v>134.31</v>
+        <v>760.65</v>
       </c>
       <c r="D12" t="n">
-        <v>132.2</v>
+        <v>751.15</v>
       </c>
       <c r="E12" t="n">
-        <v>133.1</v>
+        <v>753.7</v>
       </c>
       <c r="F12" t="n">
-        <v>20564141</v>
+        <v>542497</v>
       </c>
       <c r="G12" t="n">
-        <v>40387936</v>
+        <v>1188698</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4908345650542776</v>
+        <v>-0.5436208355696737</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.48999999999999</v>
+        <v>72.39</v>
       </c>
       <c r="C13" t="n">
-        <v>77.48999999999999</v>
+        <v>72.72</v>
       </c>
       <c r="D13" t="n">
-        <v>76.08</v>
+        <v>71.19</v>
       </c>
       <c r="E13" t="n">
-        <v>76.40000000000001</v>
+        <v>71.28</v>
       </c>
       <c r="F13" t="n">
-        <v>3973336</v>
+        <v>14855972</v>
       </c>
       <c r="G13" t="n">
-        <v>9508660</v>
+        <v>29770419</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5821350221797814</v>
+        <v>-0.5009820990426772</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SUPREMEIND</t>
+          <t>KEI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4564.6</v>
+        <v>3995</v>
       </c>
       <c r="C14" t="n">
-        <v>4615.8</v>
+        <v>3999</v>
       </c>
       <c r="D14" t="n">
-        <v>4533.1</v>
+        <v>3906.3</v>
       </c>
       <c r="E14" t="n">
-        <v>4545.9</v>
+        <v>3952</v>
       </c>
       <c r="F14" t="n">
-        <v>139786</v>
+        <v>162082</v>
       </c>
       <c r="G14" t="n">
-        <v>289685</v>
+        <v>382428</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5174551668191312</v>
+        <v>-0.576176430596086</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SUPREMEIND</t>
+          <t>KEI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>287.6</v>
+        <v>1820</v>
       </c>
       <c r="C15" t="n">
-        <v>288</v>
+        <v>1832.3</v>
       </c>
       <c r="D15" t="n">
-        <v>283</v>
+        <v>1791</v>
       </c>
       <c r="E15" t="n">
-        <v>283</v>
+        <v>1796</v>
       </c>
       <c r="F15" t="n">
-        <v>2223764</v>
+        <v>460952</v>
       </c>
       <c r="G15" t="n">
-        <v>5366409</v>
+        <v>1102754</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.585614141598227</v>
+        <v>-0.5819992491525762</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>473.85</v>
+        <v>1104.9</v>
       </c>
       <c r="C16" t="n">
-        <v>475.5</v>
+        <v>1104.9</v>
       </c>
       <c r="D16" t="n">
-        <v>468.05</v>
+        <v>1073.4</v>
       </c>
       <c r="E16" t="n">
-        <v>471.45</v>
+        <v>1077.9</v>
       </c>
       <c r="F16" t="n">
-        <v>982479</v>
+        <v>532904</v>
       </c>
       <c r="G16" t="n">
-        <v>2263754</v>
+        <v>1046821</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5659956868104926</v>
+        <v>-0.4909311142974778</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>360ONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>540</v>
+      </c>
+      <c r="C17" t="n">
+        <v>561</v>
+      </c>
+      <c r="D17" t="n">
+        <v>535.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>560</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7773150</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16723043</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5351832797416116</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PGEL</t>
         </is>
       </c>
     </row>
@@ -987,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,594 +1078,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4</v>
+        <v>1080.6</v>
       </c>
       <c r="C2" t="n">
-        <v>331.35</v>
+        <v>1086.1</v>
       </c>
       <c r="D2" t="n">
-        <v>320.35</v>
+        <v>1069.3</v>
       </c>
       <c r="E2" t="n">
-        <v>325.25</v>
+        <v>1069.3</v>
       </c>
       <c r="F2" t="n">
-        <v>55734714</v>
+        <v>2069244</v>
       </c>
       <c r="G2" t="n">
-        <v>36592945</v>
+        <v>1321114</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5230999855299977</v>
+        <v>0.5662872394055321</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175.16</v>
+        <v>781</v>
       </c>
       <c r="C3" t="n">
-        <v>179.39</v>
+        <v>781.85</v>
       </c>
       <c r="D3" t="n">
-        <v>174.89</v>
+        <v>766.5</v>
       </c>
       <c r="E3" t="n">
-        <v>178</v>
+        <v>767.6</v>
       </c>
       <c r="F3" t="n">
-        <v>10610680</v>
+        <v>3324022</v>
       </c>
       <c r="G3" t="n">
-        <v>6732317</v>
+        <v>2332155</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5760814590281473</v>
+        <v>0.4253006339630085</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4651.5</v>
+        <v>1400</v>
       </c>
       <c r="C4" t="n">
-        <v>4759.9</v>
+        <v>1437.8</v>
       </c>
       <c r="D4" t="n">
-        <v>4630.1</v>
+        <v>1387.1</v>
       </c>
       <c r="E4" t="n">
-        <v>4727.9</v>
+        <v>1419.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1269103</v>
+        <v>2432234</v>
       </c>
       <c r="G4" t="n">
-        <v>856309</v>
+        <v>1593082</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4820619659492076</v>
+        <v>0.5267475246095304</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1365</v>
+        <v>141.65</v>
       </c>
       <c r="C5" t="n">
-        <v>1398.9</v>
+        <v>142.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1365</v>
+        <v>141.28</v>
       </c>
       <c r="E5" t="n">
-        <v>1396</v>
+        <v>141.69</v>
       </c>
       <c r="F5" t="n">
-        <v>1593082</v>
+        <v>8746473</v>
       </c>
       <c r="G5" t="n">
-        <v>1022673</v>
+        <v>5531826</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5577628430593161</v>
+        <v>0.5811186035135595</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>IOC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5084</v>
+        <v>3087</v>
       </c>
       <c r="C6" t="n">
-        <v>5140.5</v>
+        <v>3104.8</v>
       </c>
       <c r="D6" t="n">
-        <v>5070</v>
+        <v>3073.2</v>
       </c>
       <c r="E6" t="n">
-        <v>5120</v>
+        <v>3078</v>
       </c>
       <c r="F6" t="n">
-        <v>312054</v>
+        <v>118413</v>
       </c>
       <c r="G6" t="n">
-        <v>204663</v>
+        <v>76877</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5247211269257267</v>
+        <v>0.5402916346891788</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>388.95</v>
+        <v>593.25</v>
       </c>
       <c r="C7" t="n">
-        <v>392.45</v>
+        <v>593.3</v>
       </c>
       <c r="D7" t="n">
-        <v>388.05</v>
+        <v>585.05</v>
       </c>
       <c r="E7" t="n">
-        <v>390.05</v>
+        <v>588.35</v>
       </c>
       <c r="F7" t="n">
-        <v>3045301</v>
+        <v>1540533</v>
       </c>
       <c r="G7" t="n">
-        <v>2047149</v>
+        <v>1086467</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4875815096995871</v>
+        <v>0.4179289384767324</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>409.95</v>
+        <v>825</v>
       </c>
       <c r="C8" t="n">
-        <v>411.3</v>
+        <v>829.2</v>
       </c>
       <c r="D8" t="n">
-        <v>403</v>
+        <v>812</v>
       </c>
       <c r="E8" t="n">
-        <v>403.85</v>
+        <v>813.4</v>
       </c>
       <c r="F8" t="n">
-        <v>7517853</v>
+        <v>558969</v>
       </c>
       <c r="G8" t="n">
-        <v>5315976</v>
+        <v>381123</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4141999512413149</v>
+        <v>0.466636755063326</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.61</v>
+        <v>216.4</v>
       </c>
       <c r="C9" t="n">
-        <v>6.94</v>
+        <v>223.5</v>
       </c>
       <c r="D9" t="n">
-        <v>6.57</v>
+        <v>216.02</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8</v>
+        <v>221.7</v>
       </c>
       <c r="F9" t="n">
-        <v>546082602</v>
+        <v>10194494</v>
       </c>
       <c r="G9" t="n">
-        <v>353099427</v>
+        <v>6493172</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5465406065357337</v>
+        <v>0.5700329515373996</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2748</v>
+        <v>1419</v>
       </c>
       <c r="C10" t="n">
-        <v>2796</v>
+        <v>1448</v>
       </c>
       <c r="D10" t="n">
-        <v>2722</v>
+        <v>1388.8</v>
       </c>
       <c r="E10" t="n">
-        <v>2795</v>
+        <v>1420.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1220000</v>
+        <v>2230880</v>
       </c>
       <c r="G10" t="n">
-        <v>762684</v>
+        <v>1512987</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5996139947868317</v>
+        <v>0.4744872229569719</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.70999999999999</v>
+        <v>815</v>
       </c>
       <c r="C11" t="n">
-        <v>72.38</v>
+        <v>828</v>
       </c>
       <c r="D11" t="n">
-        <v>70.5</v>
+        <v>815</v>
       </c>
       <c r="E11" t="n">
-        <v>71.77</v>
+        <v>825.1</v>
       </c>
       <c r="F11" t="n">
-        <v>29770419</v>
+        <v>601959</v>
       </c>
       <c r="G11" t="n">
-        <v>20465260</v>
+        <v>386641</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4546807125831775</v>
+        <v>0.5568938627822709</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>708.5</v>
+        <v>461.35</v>
       </c>
       <c r="C12" t="n">
-        <v>730.3</v>
+        <v>465</v>
       </c>
       <c r="D12" t="n">
-        <v>702</v>
+        <v>454.75</v>
       </c>
       <c r="E12" t="n">
-        <v>713.6</v>
+        <v>461.8</v>
       </c>
       <c r="F12" t="n">
-        <v>3114706</v>
+        <v>1066845</v>
       </c>
       <c r="G12" t="n">
-        <v>2030825</v>
+        <v>757670</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5337146233673508</v>
+        <v>0.4080602373064791</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>UPL</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TATAELXSI</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5744.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5824.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5690.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5745</v>
-      </c>
-      <c r="F13" t="n">
-        <v>136215</v>
-      </c>
-      <c r="G13" t="n">
-        <v>90475</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5055540204476374</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>TATAELXSI</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AUBANK</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>758.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>761</v>
-      </c>
-      <c r="D14" t="n">
-        <v>745.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>759.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1188698</v>
-      </c>
-      <c r="G14" t="n">
-        <v>826929</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4374849594100582</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>AUBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>45.13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.51</v>
-      </c>
-      <c r="E15" t="n">
-        <v>44.65</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9225074</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6493036</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4207643389009394</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CYIENT</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1213.1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1234.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1206.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1233</v>
-      </c>
-      <c r="F16" t="n">
-        <v>384273</v>
-      </c>
-      <c r="G16" t="n">
-        <v>270368</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4212961593087939</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>CYIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2681.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2727.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2647.1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2714.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>658250</v>
-      </c>
-      <c r="G17" t="n">
-        <v>454427</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4485274862629201</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
           <t>GRANULES</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>458</v>
-      </c>
-      <c r="C18" t="n">
-        <v>463.45</v>
-      </c>
-      <c r="D18" t="n">
-        <v>452.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>461.35</v>
-      </c>
-      <c r="F18" t="n">
-        <v>757670</v>
-      </c>
-      <c r="G18" t="n">
-        <v>483094</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5683697168666968</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NBCC</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>106.31</v>
-      </c>
-      <c r="C19" t="n">
-        <v>107.84</v>
-      </c>
-      <c r="D19" t="n">
-        <v>104.82</v>
-      </c>
-      <c r="E19" t="n">
-        <v>105.48</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5607655</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3562682</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5739981845138017</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>NBCC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,528 +484,924 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1930</v>
+        <v>1860.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1940.9</v>
+        <v>1870</v>
       </c>
       <c r="D2" t="n">
-        <v>1927.7</v>
+        <v>1849.4</v>
       </c>
       <c r="E2" t="n">
-        <v>1930.1</v>
+        <v>1857</v>
       </c>
       <c r="F2" t="n">
-        <v>3376913</v>
+        <v>605948</v>
       </c>
       <c r="G2" t="n">
-        <v>6962619</v>
+        <v>1316202</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5149938550421903</v>
+        <v>-0.5396238571283132</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>SBILIFE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6005</v>
+        <v>3086</v>
       </c>
       <c r="C3" t="n">
-        <v>6060</v>
+        <v>3095.7</v>
       </c>
       <c r="D3" t="n">
-        <v>5988</v>
+        <v>3050</v>
       </c>
       <c r="E3" t="n">
-        <v>6030</v>
+        <v>3054.7</v>
       </c>
       <c r="F3" t="n">
-        <v>219909</v>
+        <v>1593791</v>
       </c>
       <c r="G3" t="n">
-        <v>544008</v>
+        <v>3230726</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5957614593903031</v>
+        <v>-0.5066771369654994</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445.65</v>
+        <v>992</v>
       </c>
       <c r="C4" t="n">
-        <v>449</v>
+        <v>999.9</v>
       </c>
       <c r="D4" t="n">
-        <v>443.15</v>
+        <v>986.45</v>
       </c>
       <c r="E4" t="n">
-        <v>447.1</v>
+        <v>989.75</v>
       </c>
       <c r="F4" t="n">
-        <v>8103807</v>
+        <v>307423</v>
       </c>
       <c r="G4" t="n">
-        <v>19775631</v>
+        <v>716876</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5902124690736796</v>
+        <v>-0.5711629347334825</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>IRFC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30790</v>
+        <v>125.44</v>
       </c>
       <c r="C5" t="n">
-        <v>30950</v>
+        <v>126.2</v>
       </c>
       <c r="D5" t="n">
-        <v>30400</v>
+        <v>124.85</v>
       </c>
       <c r="E5" t="n">
-        <v>30600</v>
+        <v>125.05</v>
       </c>
       <c r="F5" t="n">
-        <v>12148</v>
+        <v>4942149</v>
       </c>
       <c r="G5" t="n">
-        <v>29464</v>
+        <v>10920060</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.587700244366006</v>
+        <v>-0.5474247394245086</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>IRFC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>535.95</v>
+        <v>5235</v>
       </c>
       <c r="C6" t="n">
-        <v>536.45</v>
+        <v>5257.5</v>
       </c>
       <c r="D6" t="n">
-        <v>514.75</v>
+        <v>5203</v>
       </c>
       <c r="E6" t="n">
-        <v>516.95</v>
+        <v>5218.5</v>
       </c>
       <c r="F6" t="n">
-        <v>6041694</v>
+        <v>94919</v>
       </c>
       <c r="G6" t="n">
-        <v>12345218</v>
+        <v>192476</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5106045109936496</v>
+        <v>-0.5068528024273156</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.15</v>
+        <v>1333.2</v>
       </c>
       <c r="C7" t="n">
-        <v>515.75</v>
+        <v>1338.1</v>
       </c>
       <c r="D7" t="n">
-        <v>509.4</v>
+        <v>1327.1</v>
       </c>
       <c r="E7" t="n">
-        <v>510.35</v>
+        <v>1331</v>
       </c>
       <c r="F7" t="n">
-        <v>3642857</v>
+        <v>545032</v>
       </c>
       <c r="G7" t="n">
-        <v>8707575</v>
+        <v>1071331</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5816450619144825</v>
+        <v>-0.4912571371499564</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5360</v>
+        <v>895.6</v>
       </c>
       <c r="C8" t="n">
-        <v>5373</v>
+        <v>900.8</v>
       </c>
       <c r="D8" t="n">
-        <v>5275</v>
+        <v>886.05</v>
       </c>
       <c r="E8" t="n">
-        <v>5337</v>
+        <v>890</v>
       </c>
       <c r="F8" t="n">
-        <v>307013</v>
+        <v>755980</v>
       </c>
       <c r="G8" t="n">
-        <v>628849</v>
+        <v>1844457</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5117858182170919</v>
+        <v>-0.5901341153521064</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1214.6</v>
+        <v>3210</v>
       </c>
       <c r="C9" t="n">
-        <v>1225</v>
+        <v>3234.3</v>
       </c>
       <c r="D9" t="n">
-        <v>1208.2</v>
+        <v>3158</v>
       </c>
       <c r="E9" t="n">
-        <v>1210.9</v>
+        <v>3169</v>
       </c>
       <c r="F9" t="n">
-        <v>560998</v>
+        <v>290166</v>
       </c>
       <c r="G9" t="n">
-        <v>1116352</v>
+        <v>708572</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4974721234879321</v>
+        <v>-0.5904918625065625</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>SIEMENS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2938</v>
+        <v>1418</v>
       </c>
       <c r="C10" t="n">
-        <v>2938</v>
+        <v>1418</v>
       </c>
       <c r="D10" t="n">
-        <v>2902.1</v>
+        <v>1375.2</v>
       </c>
       <c r="E10" t="n">
-        <v>2913</v>
+        <v>1382</v>
       </c>
       <c r="F10" t="n">
-        <v>306140</v>
+        <v>1083516</v>
       </c>
       <c r="G10" t="n">
-        <v>733614</v>
+        <v>2432234</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5826960772286243</v>
+        <v>-0.5545181919173895</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>584</v>
+        <v>774.3</v>
       </c>
       <c r="C11" t="n">
-        <v>584</v>
+        <v>784.25</v>
       </c>
       <c r="D11" t="n">
-        <v>577.2</v>
+        <v>769</v>
       </c>
       <c r="E11" t="n">
-        <v>577.5</v>
+        <v>779.5</v>
       </c>
       <c r="F11" t="n">
-        <v>724860</v>
+        <v>883978</v>
       </c>
       <c r="G11" t="n">
-        <v>1561218</v>
+        <v>2062329</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5357086582399126</v>
+        <v>-0.5713690686597531</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>JSL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>759.6</v>
+        <v>4550.1</v>
       </c>
       <c r="C12" t="n">
-        <v>760.65</v>
+        <v>4658.8</v>
       </c>
       <c r="D12" t="n">
-        <v>751.15</v>
+        <v>4550.1</v>
       </c>
       <c r="E12" t="n">
-        <v>753.7</v>
+        <v>4616</v>
       </c>
       <c r="F12" t="n">
-        <v>542497</v>
+        <v>136020</v>
       </c>
       <c r="G12" t="n">
-        <v>1188698</v>
+        <v>301906</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5436208355696737</v>
+        <v>-0.5494624154538168</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.39</v>
+        <v>356.35</v>
       </c>
       <c r="C13" t="n">
-        <v>72.72</v>
+        <v>361.5</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19</v>
+        <v>356.35</v>
       </c>
       <c r="E13" t="n">
-        <v>71.28</v>
+        <v>358.65</v>
       </c>
       <c r="F13" t="n">
-        <v>14855972</v>
+        <v>1023391</v>
       </c>
       <c r="G13" t="n">
-        <v>29770419</v>
+        <v>2257658</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5009820990426772</v>
+        <v>-0.5467023791911795</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>BIOCON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3995</v>
+        <v>2331.3</v>
       </c>
       <c r="C14" t="n">
-        <v>3999</v>
+        <v>2353.5</v>
       </c>
       <c r="D14" t="n">
-        <v>3906.3</v>
+        <v>2292.2</v>
       </c>
       <c r="E14" t="n">
-        <v>3952</v>
+        <v>2334.9</v>
       </c>
       <c r="F14" t="n">
-        <v>162082</v>
+        <v>5910342</v>
       </c>
       <c r="G14" t="n">
-        <v>382428</v>
+        <v>12151255</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.576176430596086</v>
+        <v>-0.5136023398406173</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>IREDA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1820</v>
+        <v>147.1</v>
       </c>
       <c r="C15" t="n">
-        <v>1832.3</v>
+        <v>149.2</v>
       </c>
       <c r="D15" t="n">
-        <v>1791</v>
+        <v>146.6</v>
       </c>
       <c r="E15" t="n">
-        <v>1796</v>
+        <v>147.4</v>
       </c>
       <c r="F15" t="n">
-        <v>460952</v>
+        <v>3658082</v>
       </c>
       <c r="G15" t="n">
-        <v>1102754</v>
+        <v>8194223</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5819992491525762</v>
+        <v>-0.5535779292313622</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>IREDA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1104.9</v>
+        <v>1805</v>
       </c>
       <c r="C16" t="n">
-        <v>1104.9</v>
+        <v>1816.6</v>
       </c>
       <c r="D16" t="n">
-        <v>1073.4</v>
+        <v>1794</v>
       </c>
       <c r="E16" t="n">
-        <v>1077.9</v>
+        <v>1803</v>
       </c>
       <c r="F16" t="n">
-        <v>532904</v>
+        <v>190320</v>
       </c>
       <c r="G16" t="n">
-        <v>1046821</v>
+        <v>460952</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4909311142974778</v>
+        <v>-0.5871153612523646</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PGEL</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>540</v>
+        <v>825.2</v>
       </c>
       <c r="C17" t="n">
-        <v>561</v>
+        <v>829.8</v>
       </c>
       <c r="D17" t="n">
-        <v>535.25</v>
+        <v>818</v>
       </c>
       <c r="E17" t="n">
-        <v>560</v>
+        <v>820.1</v>
       </c>
       <c r="F17" t="n">
-        <v>7773150</v>
+        <v>303061</v>
       </c>
       <c r="G17" t="n">
-        <v>16723043</v>
+        <v>601959</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5351832797416116</v>
+        <v>-0.4965421233007564</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PGEL</t>
+          <t>SBICARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1386.2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1354.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>616349</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1270171</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5147511634260269</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C19" t="n">
+        <v>46125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>45380</v>
+      </c>
+      <c r="E19" t="n">
+        <v>45580</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12049</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23855</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.494906728149235</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>198.99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>199.42</v>
+      </c>
+      <c r="D20" t="n">
+        <v>196</v>
+      </c>
+      <c r="E20" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2466153</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6033820</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5912783278254903</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>741.65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>742.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>724.65</v>
+      </c>
+      <c r="E21" t="n">
+        <v>731.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1579250</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3103085</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4910709825866839</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1651</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1659.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1633.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F22" t="n">
+        <v>401276</v>
+      </c>
+      <c r="G22" t="n">
+        <v>833570</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5186055160334465</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>400.45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400.45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>394</v>
+      </c>
+      <c r="E23" t="n">
+        <v>395</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1862967</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4104887</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.5461587614957488</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>175.89</v>
+      </c>
+      <c r="C24" t="n">
+        <v>176.69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>172.85</v>
+      </c>
+      <c r="E24" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2286737</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5021944</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.544651035535243</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1589.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1565</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1575</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1575909</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3472849</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.5462201207135697</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CAMS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3898</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3882</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3906</v>
+      </c>
+      <c r="F26" t="n">
+        <v>250655</v>
+      </c>
+      <c r="G26" t="n">
+        <v>527787</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.5250830353911711</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CAMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CYIENT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1237.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1224.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1231.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>154561</v>
+      </c>
+      <c r="G27" t="n">
+        <v>334676</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.5381772221491831</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CYIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>940.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>945</v>
+      </c>
+      <c r="D28" t="n">
+        <v>935.45</v>
+      </c>
+      <c r="E28" t="n">
+        <v>937</v>
+      </c>
+      <c r="F28" t="n">
+        <v>200904</v>
+      </c>
+      <c r="G28" t="n">
+        <v>463994</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.5670116423919275</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2568</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2508.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2522</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1200174</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2567524</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.5325558787376476</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,363 +1474,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1080.6</v>
+        <v>1989.9</v>
       </c>
       <c r="C2" t="n">
-        <v>1086.1</v>
+        <v>1996</v>
       </c>
       <c r="D2" t="n">
-        <v>1069.3</v>
+        <v>1957.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1069.3</v>
+        <v>1965.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2069244</v>
+        <v>9916751</v>
       </c>
       <c r="G2" t="n">
-        <v>1321114</v>
+        <v>6219925</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5662872394055321</v>
+        <v>0.5943521827031677</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>781</v>
+        <v>12864</v>
       </c>
       <c r="C3" t="n">
-        <v>781.85</v>
+        <v>12864</v>
       </c>
       <c r="D3" t="n">
-        <v>766.5</v>
+        <v>12563</v>
       </c>
       <c r="E3" t="n">
-        <v>767.6</v>
+        <v>12605</v>
       </c>
       <c r="F3" t="n">
-        <v>3324022</v>
+        <v>226948</v>
       </c>
       <c r="G3" t="n">
-        <v>2332155</v>
+        <v>155457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4253006339630085</v>
+        <v>0.4598763645252385</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>PAYTM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1400</v>
+        <v>1247</v>
       </c>
       <c r="C4" t="n">
-        <v>1437.8</v>
+        <v>1277.8</v>
       </c>
       <c r="D4" t="n">
-        <v>1387.1</v>
+        <v>1242.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1419.1</v>
+        <v>1263.2</v>
       </c>
       <c r="F4" t="n">
-        <v>2432234</v>
+        <v>6068853</v>
       </c>
       <c r="G4" t="n">
-        <v>1593082</v>
+        <v>3957141</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5267475246095304</v>
+        <v>0.533645882216479</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>PAYTM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.65</v>
+        <v>5370</v>
       </c>
       <c r="C5" t="n">
-        <v>142.9</v>
+        <v>5420</v>
       </c>
       <c r="D5" t="n">
-        <v>141.28</v>
+        <v>5330.5</v>
       </c>
       <c r="E5" t="n">
-        <v>141.69</v>
+        <v>5350</v>
       </c>
       <c r="F5" t="n">
-        <v>8746473</v>
+        <v>477641</v>
       </c>
       <c r="G5" t="n">
-        <v>5531826</v>
+        <v>307013</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5811186035135595</v>
+        <v>0.5557679967949239</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3087</v>
+        <v>669.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3104.8</v>
+        <v>674.4</v>
       </c>
       <c r="D6" t="n">
-        <v>3073.2</v>
+        <v>666.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3078</v>
+        <v>668</v>
       </c>
       <c r="F6" t="n">
-        <v>118413</v>
+        <v>805749</v>
       </c>
       <c r="G6" t="n">
-        <v>76877</v>
+        <v>558989</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5402916346891788</v>
+        <v>0.4414398136635962</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>INDIANB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.25</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>593.3</v>
+        <v>70.45</v>
       </c>
       <c r="D7" t="n">
-        <v>585.05</v>
+        <v>69.47</v>
       </c>
       <c r="E7" t="n">
-        <v>588.35</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1540533</v>
+        <v>15433275</v>
       </c>
       <c r="G7" t="n">
-        <v>1086467</v>
+        <v>10786733</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4179289384767324</v>
+        <v>0.4307645326902965</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>825</v>
+        <v>1212.5</v>
       </c>
       <c r="C8" t="n">
-        <v>829.2</v>
+        <v>1218.6</v>
       </c>
       <c r="D8" t="n">
-        <v>812</v>
+        <v>1192.5</v>
       </c>
       <c r="E8" t="n">
-        <v>813.4</v>
+        <v>1197.1</v>
       </c>
       <c r="F8" t="n">
-        <v>558969</v>
+        <v>858810</v>
       </c>
       <c r="G8" t="n">
-        <v>381123</v>
+        <v>560998</v>
       </c>
       <c r="H8" t="n">
-        <v>0.466636755063326</v>
+        <v>0.5308610725884941</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>216.4</v>
+        <v>6160</v>
       </c>
       <c r="C9" t="n">
-        <v>223.5</v>
+        <v>6246.5</v>
       </c>
       <c r="D9" t="n">
-        <v>216.02</v>
+        <v>6090</v>
       </c>
       <c r="E9" t="n">
-        <v>221.7</v>
+        <v>6212</v>
       </c>
       <c r="F9" t="n">
-        <v>10194494</v>
+        <v>280060</v>
       </c>
       <c r="G9" t="n">
-        <v>6493172</v>
+        <v>197399</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5700329515373996</v>
+        <v>0.4187508548675525</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>KAYNES</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>INOXWIND</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1419</v>
+        <v>143</v>
       </c>
       <c r="C10" t="n">
-        <v>1448</v>
+        <v>146.45</v>
       </c>
       <c r="D10" t="n">
-        <v>1388.8</v>
+        <v>142.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1420.5</v>
+        <v>144.06</v>
       </c>
       <c r="F10" t="n">
-        <v>2230880</v>
+        <v>7337916</v>
       </c>
       <c r="G10" t="n">
-        <v>1512987</v>
+        <v>5173232</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4744872229569719</v>
+        <v>0.418439381802324</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>815</v>
-      </c>
-      <c r="C11" t="n">
-        <v>828</v>
-      </c>
-      <c r="D11" t="n">
-        <v>815</v>
-      </c>
-      <c r="E11" t="n">
-        <v>825.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>601959</v>
-      </c>
-      <c r="G11" t="n">
-        <v>386641</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5568938627822709</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>461.35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>465</v>
-      </c>
-      <c r="D12" t="n">
-        <v>454.75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>461.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1066845</v>
-      </c>
-      <c r="G12" t="n">
-        <v>757670</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4080602373064791</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
+          <t>INOXWIND</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,924 +484,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.1</v>
+        <v>7926</v>
       </c>
       <c r="C2" t="n">
-        <v>1870</v>
+        <v>7950</v>
       </c>
       <c r="D2" t="n">
-        <v>1849.4</v>
+        <v>7838.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1857</v>
+        <v>7848.5</v>
       </c>
       <c r="F2" t="n">
-        <v>605948</v>
+        <v>402979</v>
       </c>
       <c r="G2" t="n">
-        <v>1316202</v>
+        <v>843648</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5396238571283132</v>
+        <v>-0.5223375151722045</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3086</v>
+        <v>1055.5</v>
       </c>
       <c r="C3" t="n">
-        <v>3095.7</v>
+        <v>1075.9</v>
       </c>
       <c r="D3" t="n">
-        <v>3050</v>
+        <v>1052.4</v>
       </c>
       <c r="E3" t="n">
-        <v>3054.7</v>
+        <v>1067</v>
       </c>
       <c r="F3" t="n">
-        <v>1593791</v>
+        <v>763968</v>
       </c>
       <c r="G3" t="n">
-        <v>3230726</v>
+        <v>1872943</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5066771369654994</v>
+        <v>-0.5921029096988002</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>992</v>
+        <v>390.5</v>
       </c>
       <c r="C4" t="n">
-        <v>999.9</v>
+        <v>391.5</v>
       </c>
       <c r="D4" t="n">
-        <v>986.45</v>
+        <v>387.6</v>
       </c>
       <c r="E4" t="n">
-        <v>989.75</v>
+        <v>390</v>
       </c>
       <c r="F4" t="n">
-        <v>307423</v>
+        <v>1235196</v>
       </c>
       <c r="G4" t="n">
-        <v>716876</v>
+        <v>2627075</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5711629347334825</v>
+        <v>-0.5298208083134285</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125.44</v>
+        <v>564.6</v>
       </c>
       <c r="C5" t="n">
-        <v>126.2</v>
+        <v>566.9</v>
       </c>
       <c r="D5" t="n">
-        <v>124.85</v>
+        <v>560.05</v>
       </c>
       <c r="E5" t="n">
-        <v>125.05</v>
+        <v>561.2</v>
       </c>
       <c r="F5" t="n">
-        <v>4942149</v>
+        <v>845716</v>
       </c>
       <c r="G5" t="n">
-        <v>10920060</v>
+        <v>1778532</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5474247394245086</v>
+        <v>-0.5244864866080565</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>SJVN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5235</v>
+        <v>99.94</v>
       </c>
       <c r="C6" t="n">
-        <v>5257.5</v>
+        <v>100.33</v>
       </c>
       <c r="D6" t="n">
-        <v>5203</v>
+        <v>99.02</v>
       </c>
       <c r="E6" t="n">
-        <v>5218.5</v>
+        <v>99.11</v>
       </c>
       <c r="F6" t="n">
-        <v>94919</v>
+        <v>5623889</v>
       </c>
       <c r="G6" t="n">
-        <v>192476</v>
+        <v>13565811</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5068528024273156</v>
+        <v>-0.5854365802383654</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>SJVN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1333.2</v>
+        <v>131.41</v>
       </c>
       <c r="C7" t="n">
-        <v>1338.1</v>
+        <v>131.87</v>
       </c>
       <c r="D7" t="n">
-        <v>1327.1</v>
+        <v>130.37</v>
       </c>
       <c r="E7" t="n">
-        <v>1331</v>
+        <v>130.62</v>
       </c>
       <c r="F7" t="n">
-        <v>545032</v>
+        <v>5255625</v>
       </c>
       <c r="G7" t="n">
-        <v>1071331</v>
+        <v>11093419</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4912571371499564</v>
+        <v>-0.5262393857114745</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>895.6</v>
+        <v>14932</v>
       </c>
       <c r="C8" t="n">
-        <v>900.8</v>
+        <v>14940</v>
       </c>
       <c r="D8" t="n">
-        <v>886.05</v>
+        <v>14640</v>
       </c>
       <c r="E8" t="n">
-        <v>890</v>
+        <v>14641</v>
       </c>
       <c r="F8" t="n">
-        <v>755980</v>
+        <v>58873</v>
       </c>
       <c r="G8" t="n">
-        <v>1844457</v>
+        <v>140765</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5901341153521064</v>
+        <v>-0.5817639327957944</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>CESC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3210</v>
+        <v>167.6</v>
       </c>
       <c r="C9" t="n">
-        <v>3234.3</v>
+        <v>168.35</v>
       </c>
       <c r="D9" t="n">
-        <v>3158</v>
+        <v>163.9</v>
       </c>
       <c r="E9" t="n">
-        <v>3169</v>
+        <v>163.99</v>
       </c>
       <c r="F9" t="n">
-        <v>290166</v>
+        <v>1746429</v>
       </c>
       <c r="G9" t="n">
-        <v>708572</v>
+        <v>3529704</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5904918625065625</v>
+        <v>-0.5052194178322035</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1418</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1418</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1375.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1382</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1083516</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2432234</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.5545181919173895</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>JSL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>774.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>784.25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>769</v>
-      </c>
-      <c r="E11" t="n">
-        <v>779.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>883978</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2062329</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5713690686597531</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>JSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SUPREMEIND</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4550.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4658.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4550.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4616</v>
-      </c>
-      <c r="F12" t="n">
-        <v>136020</v>
-      </c>
-      <c r="G12" t="n">
-        <v>301906</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5494624154538168</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SUPREMEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>356.35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>361.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>356.35</v>
-      </c>
-      <c r="E13" t="n">
-        <v>358.65</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1023391</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2257658</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5467023791911795</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2331.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2353.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2292.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2334.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5910342</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12151255</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5136023398406173</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IREDA</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>149.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>147.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3658082</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8194223</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5535779292313622</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>IREDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PATANJALI</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1805</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1816.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1794</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1803</v>
-      </c>
-      <c r="F16" t="n">
-        <v>190320</v>
-      </c>
-      <c r="G16" t="n">
-        <v>460952</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5871153612523646</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>PATANJALI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>825.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>829.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>818</v>
-      </c>
-      <c r="E17" t="n">
-        <v>820.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>303061</v>
-      </c>
-      <c r="G17" t="n">
-        <v>601959</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.4965421233007564</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>VOLTAS</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1360</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1386.2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1350</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1354.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>616349</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1270171</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5147511634260269</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>VOLTAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PAGEIND</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>45715</v>
-      </c>
-      <c r="C19" t="n">
-        <v>46125</v>
-      </c>
-      <c r="D19" t="n">
-        <v>45380</v>
-      </c>
-      <c r="E19" t="n">
-        <v>45580</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12049</v>
-      </c>
-      <c r="G19" t="n">
-        <v>23855</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.494906728149235</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>PAGEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>FEDERALBNK</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>198.99</v>
-      </c>
-      <c r="C20" t="n">
-        <v>199.42</v>
-      </c>
-      <c r="D20" t="n">
-        <v>196</v>
-      </c>
-      <c r="E20" t="n">
-        <v>196.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2466153</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6033820</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5912783278254903</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>FEDERALBNK</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>741.65</v>
-      </c>
-      <c r="C21" t="n">
-        <v>742.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>724.65</v>
-      </c>
-      <c r="E21" t="n">
-        <v>731.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1579250</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3103085</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.4910709825866839</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1651</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1659.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1633.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1638</v>
-      </c>
-      <c r="F22" t="n">
-        <v>401276</v>
-      </c>
-      <c r="G22" t="n">
-        <v>833570</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.5186055160334465</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>EXIDEIND</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>400.45</v>
-      </c>
-      <c r="C23" t="n">
-        <v>400.45</v>
-      </c>
-      <c r="D23" t="n">
-        <v>394</v>
-      </c>
-      <c r="E23" t="n">
-        <v>395</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1862967</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4104887</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.5461587614957488</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>EXIDEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BANDHANBNK</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>175.89</v>
-      </c>
-      <c r="C24" t="n">
-        <v>176.69</v>
-      </c>
-      <c r="D24" t="n">
-        <v>172.85</v>
-      </c>
-      <c r="E24" t="n">
-        <v>173.2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2286737</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5021944</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.544651035535243</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>BANDHANBNK</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1565</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1589.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1565</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1575</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1575909</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3472849</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.5462201207135697</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CAMS</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3898</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3917</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3882</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3906</v>
-      </c>
-      <c r="F26" t="n">
-        <v>250655</v>
-      </c>
-      <c r="G26" t="n">
-        <v>527787</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-0.5250830353911711</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>CAMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CYIENT</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1234</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1237.4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1224.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1231.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>154561</v>
-      </c>
-      <c r="G27" t="n">
-        <v>334676</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.5381772221491831</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>CYIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>940.2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>945</v>
-      </c>
-      <c r="D28" t="n">
-        <v>935.45</v>
-      </c>
-      <c r="E28" t="n">
-        <v>937</v>
-      </c>
-      <c r="F28" t="n">
-        <v>200904</v>
-      </c>
-      <c r="G28" t="n">
-        <v>463994</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-0.5670116423919275</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2545</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2568</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2508.2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2522</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1200174</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2567524</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.5325558787376476</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
+          <t>CESC</t>
         </is>
       </c>
     </row>
@@ -1416,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,297 +814,594 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1989.9</v>
+        <v>1516</v>
       </c>
       <c r="C2" t="n">
-        <v>1996</v>
+        <v>1539.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1957.1</v>
+        <v>1505</v>
       </c>
       <c r="E2" t="n">
-        <v>1965.5</v>
+        <v>1526.8</v>
       </c>
       <c r="F2" t="n">
-        <v>9916751</v>
+        <v>1386218</v>
       </c>
       <c r="G2" t="n">
-        <v>6219925</v>
+        <v>969599</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5943521827031677</v>
+        <v>0.4296817550348134</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12864</v>
+        <v>5460</v>
       </c>
       <c r="C3" t="n">
-        <v>12864</v>
+        <v>5485.5</v>
       </c>
       <c r="D3" t="n">
-        <v>12563</v>
+        <v>5404</v>
       </c>
       <c r="E3" t="n">
-        <v>12605</v>
+        <v>5426</v>
       </c>
       <c r="F3" t="n">
-        <v>226948</v>
+        <v>656081</v>
       </c>
       <c r="G3" t="n">
-        <v>155457</v>
+        <v>443698</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4598763645252385</v>
+        <v>0.4786656689910705</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1247</v>
+        <v>2516</v>
       </c>
       <c r="C4" t="n">
-        <v>1277.8</v>
+        <v>2522.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1242.6</v>
+        <v>2476</v>
       </c>
       <c r="E4" t="n">
-        <v>1263.2</v>
+        <v>2494</v>
       </c>
       <c r="F4" t="n">
-        <v>6068853</v>
+        <v>766497</v>
       </c>
       <c r="G4" t="n">
-        <v>3957141</v>
+        <v>523774</v>
       </c>
       <c r="H4" t="n">
-        <v>0.533645882216479</v>
+        <v>0.4634117004662316</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5370</v>
+        <v>1387.5</v>
       </c>
       <c r="C5" t="n">
-        <v>5420</v>
+        <v>1420.3</v>
       </c>
       <c r="D5" t="n">
-        <v>5330.5</v>
+        <v>1385.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5350</v>
+        <v>1404.3</v>
       </c>
       <c r="F5" t="n">
-        <v>477641</v>
+        <v>1646990</v>
       </c>
       <c r="G5" t="n">
-        <v>307013</v>
+        <v>1083516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5557679967949239</v>
+        <v>0.5200421590451826</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>669.05</v>
+        <v>518.9</v>
       </c>
       <c r="C6" t="n">
-        <v>674.4</v>
+        <v>525.8</v>
       </c>
       <c r="D6" t="n">
-        <v>666.2</v>
+        <v>515.8</v>
       </c>
       <c r="E6" t="n">
-        <v>668</v>
+        <v>521</v>
       </c>
       <c r="F6" t="n">
-        <v>805749</v>
+        <v>3246470</v>
       </c>
       <c r="G6" t="n">
-        <v>558989</v>
+        <v>2099250</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4414398136635962</v>
+        <v>0.5464904132428248</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.59999999999999</v>
+        <v>139.95</v>
       </c>
       <c r="C7" t="n">
-        <v>70.45</v>
+        <v>140.37</v>
       </c>
       <c r="D7" t="n">
-        <v>69.47</v>
+        <v>139.19</v>
       </c>
       <c r="E7" t="n">
-        <v>69.59999999999999</v>
+        <v>140.03</v>
       </c>
       <c r="F7" t="n">
-        <v>15433275</v>
+        <v>8282860</v>
       </c>
       <c r="G7" t="n">
-        <v>10786733</v>
+        <v>5874783</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4307645326902965</v>
+        <v>0.4099005869663611</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>IOC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1212.5</v>
+        <v>30150</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.6</v>
+        <v>30380</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.5</v>
+        <v>29940</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.1</v>
+        <v>30000</v>
       </c>
       <c r="F8" t="n">
-        <v>858810</v>
+        <v>36110</v>
       </c>
       <c r="G8" t="n">
-        <v>560998</v>
+        <v>23082</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5308610725884941</v>
+        <v>0.5644224937180486</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>IRB</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6160</v>
+        <v>43.9</v>
       </c>
       <c r="C9" t="n">
-        <v>6246.5</v>
+        <v>45.45</v>
       </c>
       <c r="D9" t="n">
-        <v>6090</v>
+        <v>43.65</v>
       </c>
       <c r="E9" t="n">
-        <v>6212</v>
+        <v>44.97</v>
       </c>
       <c r="F9" t="n">
-        <v>280060</v>
+        <v>18170815</v>
       </c>
       <c r="G9" t="n">
-        <v>197399</v>
+        <v>11363551</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4187508548675525</v>
+        <v>0.599043732016515</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>IRB</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INOXWIND</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143</v>
+        <v>16950</v>
       </c>
       <c r="C10" t="n">
-        <v>146.45</v>
+        <v>17287</v>
       </c>
       <c r="D10" t="n">
-        <v>142.6</v>
+        <v>16851</v>
       </c>
       <c r="E10" t="n">
-        <v>144.06</v>
+        <v>17044</v>
       </c>
       <c r="F10" t="n">
-        <v>7337916</v>
+        <v>457362</v>
       </c>
       <c r="G10" t="n">
-        <v>5173232</v>
+        <v>304647</v>
       </c>
       <c r="H10" t="n">
-        <v>0.418439381802324</v>
+        <v>0.5012850938955579</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>INOXWIND</t>
+          <t>DIXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1645</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1671.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1631.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1645.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>562788</v>
+      </c>
+      <c r="G11" t="n">
+        <v>401276</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4024960376399286</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1812.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1817.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1801.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1805</v>
+      </c>
+      <c r="F12" t="n">
+        <v>294102</v>
+      </c>
+      <c r="G12" t="n">
+        <v>190320</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5453026481715006</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>817.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>827</v>
+      </c>
+      <c r="D13" t="n">
+        <v>816.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>821.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>473611</v>
+      </c>
+      <c r="G13" t="n">
+        <v>303061</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5627579926153481</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1659.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1631.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F14" t="n">
+        <v>318091</v>
+      </c>
+      <c r="G14" t="n">
+        <v>221056</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4389611682107701</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALKEM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5430</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5474</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5397.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5411</v>
+      </c>
+      <c r="F15" t="n">
+        <v>142332</v>
+      </c>
+      <c r="G15" t="n">
+        <v>99592</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.429150935818138</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ALKEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NHPC</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>80.84</v>
+      </c>
+      <c r="C16" t="n">
+        <v>81.09</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79.48</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79.64</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12469431</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8671203</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.43802780306262</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NHPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>455.75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>465</v>
+      </c>
+      <c r="D17" t="n">
+        <v>453</v>
+      </c>
+      <c r="E17" t="n">
+        <v>456.85</v>
+      </c>
+      <c r="F17" t="n">
+        <v>979736</v>
+      </c>
+      <c r="G17" t="n">
+        <v>662832</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4781060660921621</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>217.65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>220.98</v>
+      </c>
+      <c r="D18" t="n">
+        <v>215.98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2419062</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1619596</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4936206313179336</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>143.86</v>
+      </c>
+      <c r="C19" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>142.64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>143.83</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10187666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6706865</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5189907654321356</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>IEX</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,264 +484,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7926</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
-        <v>7950</v>
+        <v>83.36</v>
       </c>
       <c r="D2" t="n">
-        <v>7838.5</v>
+        <v>81.81</v>
       </c>
       <c r="E2" t="n">
-        <v>7848.5</v>
+        <v>82.36</v>
       </c>
       <c r="F2" t="n">
-        <v>402979</v>
+        <v>13144220</v>
       </c>
       <c r="G2" t="n">
-        <v>843648</v>
+        <v>30724283</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5223375151722045</v>
+        <v>-0.5721879010162744</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1055.5</v>
+        <v>1200</v>
       </c>
       <c r="C3" t="n">
-        <v>1075.9</v>
+        <v>1217.8</v>
       </c>
       <c r="D3" t="n">
-        <v>1052.4</v>
+        <v>1191.2</v>
       </c>
       <c r="E3" t="n">
-        <v>1067</v>
+        <v>1198.2</v>
       </c>
       <c r="F3" t="n">
-        <v>763968</v>
+        <v>921540</v>
       </c>
       <c r="G3" t="n">
-        <v>1872943</v>
+        <v>1881697</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5921029096988002</v>
+        <v>-0.5102612163382308</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.5</v>
+        <v>1287</v>
       </c>
       <c r="C4" t="n">
-        <v>391.5</v>
+        <v>1295.2</v>
       </c>
       <c r="D4" t="n">
-        <v>387.6</v>
+        <v>1273.8</v>
       </c>
       <c r="E4" t="n">
-        <v>390</v>
+        <v>1275.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1235196</v>
+        <v>724924</v>
       </c>
       <c r="G4" t="n">
-        <v>2627075</v>
+        <v>1458153</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5298208083134285</v>
+        <v>-0.5028477807198559</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>IGL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>564.6</v>
+        <v>211</v>
       </c>
       <c r="C5" t="n">
-        <v>566.9</v>
+        <v>211.95</v>
       </c>
       <c r="D5" t="n">
-        <v>560.05</v>
+        <v>207</v>
       </c>
       <c r="E5" t="n">
-        <v>561.2</v>
+        <v>208</v>
       </c>
       <c r="F5" t="n">
-        <v>845716</v>
+        <v>1623306</v>
       </c>
       <c r="G5" t="n">
-        <v>1778532</v>
+        <v>3712727</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5244864866080565</v>
+        <v>-0.5627725927599848</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SJVN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>99.94</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>99.02</v>
-      </c>
-      <c r="E6" t="n">
-        <v>99.11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5623889</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13565811</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.5854365802383654</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SJVN</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>131.41</v>
-      </c>
-      <c r="C7" t="n">
-        <v>131.87</v>
-      </c>
-      <c r="D7" t="n">
-        <v>130.37</v>
-      </c>
-      <c r="E7" t="n">
-        <v>130.62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5255625</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11093419</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.5262393857114745</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SOLARINDS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14932</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14940</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14640</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14641</v>
-      </c>
-      <c r="F8" t="n">
-        <v>58873</v>
-      </c>
-      <c r="G8" t="n">
-        <v>140765</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.5817639327957944</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SOLARINDS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CESC</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>167.6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>168.35</v>
-      </c>
-      <c r="D9" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>163.99</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1746429</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3529704</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5052194178322035</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CESC</t>
+          <t>IGL</t>
         </is>
       </c>
     </row>
@@ -756,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,594 +682,693 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1516</v>
+        <v>12581</v>
       </c>
       <c r="C2" t="n">
-        <v>1539.7</v>
+        <v>12770</v>
       </c>
       <c r="D2" t="n">
-        <v>1505</v>
+        <v>12480</v>
       </c>
       <c r="E2" t="n">
-        <v>1526.8</v>
+        <v>12604</v>
       </c>
       <c r="F2" t="n">
-        <v>1386218</v>
+        <v>290322</v>
       </c>
       <c r="G2" t="n">
-        <v>969599</v>
+        <v>199190</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4296817550348134</v>
+        <v>0.457512927355791</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5460</v>
+        <v>1523</v>
       </c>
       <c r="C3" t="n">
-        <v>5485.5</v>
+        <v>1538.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5404</v>
+        <v>1518.6</v>
       </c>
       <c r="E3" t="n">
-        <v>5426</v>
+        <v>1525.8</v>
       </c>
       <c r="F3" t="n">
-        <v>656081</v>
+        <v>15994798</v>
       </c>
       <c r="G3" t="n">
-        <v>443698</v>
+        <v>10694531</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4786656689910705</v>
+        <v>0.4956053706328964</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2516</v>
+        <v>1978</v>
       </c>
       <c r="C4" t="n">
-        <v>2522.5</v>
+        <v>1983.9</v>
       </c>
       <c r="D4" t="n">
-        <v>2476</v>
+        <v>1961.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2494</v>
+        <v>1966</v>
       </c>
       <c r="F4" t="n">
-        <v>766497</v>
+        <v>3710138</v>
       </c>
       <c r="G4" t="n">
-        <v>523774</v>
+        <v>2369815</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4634117004662316</v>
+        <v>0.5655812795513574</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.5</v>
+        <v>1501.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1420.3</v>
+        <v>1506.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.6</v>
+        <v>1485</v>
       </c>
       <c r="E5" t="n">
-        <v>1404.3</v>
+        <v>1489.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1646990</v>
+        <v>4092265</v>
       </c>
       <c r="G5" t="n">
-        <v>1083516</v>
+        <v>2764914</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5200421590451826</v>
+        <v>0.4800695428501573</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>HCLTECH</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518.9</v>
+        <v>379</v>
       </c>
       <c r="C6" t="n">
-        <v>525.8</v>
+        <v>379.85</v>
       </c>
       <c r="D6" t="n">
-        <v>515.8</v>
+        <v>371.4</v>
       </c>
       <c r="E6" t="n">
-        <v>521</v>
+        <v>372.15</v>
       </c>
       <c r="F6" t="n">
-        <v>3246470</v>
+        <v>6381642</v>
       </c>
       <c r="G6" t="n">
-        <v>2099250</v>
+        <v>4349832</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5464904132428248</v>
+        <v>0.4671007983756614</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>COALINDIA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.95</v>
+        <v>5420</v>
       </c>
       <c r="C7" t="n">
-        <v>140.37</v>
+        <v>5447</v>
       </c>
       <c r="D7" t="n">
-        <v>139.19</v>
+        <v>5272</v>
       </c>
       <c r="E7" t="n">
-        <v>140.03</v>
+        <v>5290</v>
       </c>
       <c r="F7" t="n">
-        <v>8282860</v>
+        <v>949915</v>
       </c>
       <c r="G7" t="n">
-        <v>5874783</v>
+        <v>656081</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4099005869663611</v>
+        <v>0.4478623828460205</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30150</v>
+        <v>3274.1</v>
       </c>
       <c r="C8" t="n">
-        <v>30380</v>
+        <v>3297.3</v>
       </c>
       <c r="D8" t="n">
-        <v>29940</v>
+        <v>3253.2</v>
       </c>
       <c r="E8" t="n">
-        <v>30000</v>
+        <v>3266.3</v>
       </c>
       <c r="F8" t="n">
-        <v>36110</v>
+        <v>1060760</v>
       </c>
       <c r="G8" t="n">
-        <v>23082</v>
+        <v>733843</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5644224937180486</v>
+        <v>0.4454862961151091</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.9</v>
+        <v>512</v>
       </c>
       <c r="C9" t="n">
-        <v>45.45</v>
+        <v>516.2</v>
       </c>
       <c r="D9" t="n">
-        <v>43.65</v>
+        <v>507.35</v>
       </c>
       <c r="E9" t="n">
-        <v>44.97</v>
+        <v>507.5</v>
       </c>
       <c r="F9" t="n">
-        <v>18170815</v>
+        <v>4566054</v>
       </c>
       <c r="G9" t="n">
-        <v>11363551</v>
+        <v>2932412</v>
       </c>
       <c r="H9" t="n">
-        <v>0.599043732016515</v>
+        <v>0.5570983886302471</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>VBL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16950</v>
+        <v>626</v>
       </c>
       <c r="C10" t="n">
-        <v>17287</v>
+        <v>627.9</v>
       </c>
       <c r="D10" t="n">
-        <v>16851</v>
+        <v>613.9</v>
       </c>
       <c r="E10" t="n">
-        <v>17044</v>
+        <v>617</v>
       </c>
       <c r="F10" t="n">
-        <v>457362</v>
+        <v>1412371</v>
       </c>
       <c r="G10" t="n">
-        <v>304647</v>
+        <v>950429</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5012850938955579</v>
+        <v>0.4860352535539215</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1645</v>
+        <v>768</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.8</v>
+        <v>769.6</v>
       </c>
       <c r="D11" t="n">
-        <v>1631.4</v>
+        <v>753</v>
       </c>
       <c r="E11" t="n">
-        <v>1645.1</v>
+        <v>754.9</v>
       </c>
       <c r="F11" t="n">
-        <v>562788</v>
+        <v>2452380</v>
       </c>
       <c r="G11" t="n">
-        <v>401276</v>
+        <v>1718841</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4024960376399286</v>
+        <v>0.4267637320729492</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1812.1</v>
+        <v>240.01</v>
       </c>
       <c r="C12" t="n">
-        <v>1817.4</v>
+        <v>241.08</v>
       </c>
       <c r="D12" t="n">
-        <v>1801.2</v>
+        <v>234.42</v>
       </c>
       <c r="E12" t="n">
-        <v>1805</v>
+        <v>235.51</v>
       </c>
       <c r="F12" t="n">
-        <v>294102</v>
+        <v>9059590</v>
       </c>
       <c r="G12" t="n">
-        <v>190320</v>
+        <v>6139415</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5453026481715006</v>
+        <v>0.4756438520608234</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>817.2</v>
+        <v>964.15</v>
       </c>
       <c r="C13" t="n">
-        <v>827</v>
+        <v>965.75</v>
       </c>
       <c r="D13" t="n">
-        <v>816.25</v>
+        <v>926</v>
       </c>
       <c r="E13" t="n">
-        <v>821.7</v>
+        <v>931</v>
       </c>
       <c r="F13" t="n">
-        <v>473611</v>
+        <v>1462770</v>
       </c>
       <c r="G13" t="n">
-        <v>303061</v>
+        <v>943859</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5627579926153481</v>
+        <v>0.5497759728942565</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>IRCTC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1655</v>
+        <v>720</v>
       </c>
       <c r="C14" t="n">
-        <v>1659.1</v>
+        <v>724.5</v>
       </c>
       <c r="D14" t="n">
-        <v>1631.1</v>
+        <v>715</v>
       </c>
       <c r="E14" t="n">
-        <v>1650</v>
+        <v>716</v>
       </c>
       <c r="F14" t="n">
-        <v>318091</v>
+        <v>1384604</v>
       </c>
       <c r="G14" t="n">
-        <v>221056</v>
+        <v>881565</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4389611682107701</v>
+        <v>0.5706204307112919</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>IRCTC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5430</v>
+        <v>750</v>
       </c>
       <c r="C15" t="n">
-        <v>5474</v>
+        <v>750.9</v>
       </c>
       <c r="D15" t="n">
-        <v>5397.5</v>
+        <v>740.25</v>
       </c>
       <c r="E15" t="n">
-        <v>5411</v>
+        <v>743</v>
       </c>
       <c r="F15" t="n">
-        <v>142332</v>
+        <v>2429502</v>
       </c>
       <c r="G15" t="n">
-        <v>99592</v>
+        <v>1711315</v>
       </c>
       <c r="H15" t="n">
-        <v>0.429150935818138</v>
+        <v>0.4196696692309715</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.84</v>
+        <v>4631</v>
       </c>
       <c r="C16" t="n">
-        <v>81.09</v>
+        <v>4659.6</v>
       </c>
       <c r="D16" t="n">
-        <v>79.48</v>
+        <v>4555.2</v>
       </c>
       <c r="E16" t="n">
-        <v>79.64</v>
+        <v>4584.9</v>
       </c>
       <c r="F16" t="n">
-        <v>12469431</v>
+        <v>168139</v>
       </c>
       <c r="G16" t="n">
-        <v>8671203</v>
+        <v>107201</v>
       </c>
       <c r="H16" t="n">
-        <v>0.43802780306262</v>
+        <v>0.5684461898676318</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.75</v>
+        <v>3880</v>
       </c>
       <c r="C17" t="n">
-        <v>465</v>
+        <v>3881.1</v>
       </c>
       <c r="D17" t="n">
-        <v>453</v>
+        <v>3815</v>
       </c>
       <c r="E17" t="n">
-        <v>456.85</v>
+        <v>3826.1</v>
       </c>
       <c r="F17" t="n">
-        <v>979736</v>
+        <v>464841</v>
       </c>
       <c r="G17" t="n">
-        <v>662832</v>
+        <v>307872</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4781060660921621</v>
+        <v>0.509851496725912</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NCC</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.65</v>
+        <v>665</v>
       </c>
       <c r="C18" t="n">
-        <v>220.98</v>
+        <v>668.55</v>
       </c>
       <c r="D18" t="n">
-        <v>215.98</v>
+        <v>648</v>
       </c>
       <c r="E18" t="n">
-        <v>218.4</v>
+        <v>649.75</v>
       </c>
       <c r="F18" t="n">
-        <v>2419062</v>
+        <v>390653</v>
       </c>
       <c r="G18" t="n">
-        <v>1619596</v>
+        <v>260684</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4936206313179336</v>
+        <v>0.4985691488545519</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NCC</t>
+          <t>SYNGENE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.86</v>
+        <v>2282</v>
       </c>
       <c r="C19" t="n">
-        <v>148.8</v>
+        <v>2290</v>
       </c>
       <c r="D19" t="n">
-        <v>142.64</v>
+        <v>2212</v>
       </c>
       <c r="E19" t="n">
-        <v>143.83</v>
+        <v>2219.9</v>
       </c>
       <c r="F19" t="n">
-        <v>10187666</v>
+        <v>5678257</v>
       </c>
       <c r="G19" t="n">
-        <v>6706865</v>
+        <v>3982572</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5189907654321356</v>
+        <v>0.4257763575900197</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>BSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>252.05</v>
+      </c>
+      <c r="E20" t="n">
+        <v>254.9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8085816</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5064696</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5965056935302731</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1535.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1539.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1488.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2013894</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1269755</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5860492772227713</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>583.85</v>
+      </c>
+      <c r="C22" t="n">
+        <v>583.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>548.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>561.95</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8117925</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5784148</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4034780921926617</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PGEL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,303 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filterdata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8798</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8798</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8661</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8694</v>
+      </c>
+      <c r="F2" t="n">
+        <v>394657</v>
+      </c>
+      <c r="G2" t="n">
+        <v>778390</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.4929829519906473</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EICHERMOT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6269.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6269.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6121</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6140</v>
+      </c>
+      <c r="F3" t="n">
+        <v>719052</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1474805</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.5124426619112358</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EICHERMOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1957.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1960.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1932</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1936.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>481992</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1148175</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.5802103337905807</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2270</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2285.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2245.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2262.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>698267</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1429053</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.511377814538719</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2504.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2523.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2476.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>233219</v>
+      </c>
+      <c r="G6" t="n">
+        <v>533860</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5631457685535534</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68889791</v>
+      </c>
+      <c r="G7" t="n">
+        <v>148661489</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5365996165960641</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>YESBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>630935008</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1381513115</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5433014705763398</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1560.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1567.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1503.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1507</v>
+      </c>
+      <c r="F9" t="n">
+        <v>430652</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1025138</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5799082660090642</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>446</v>
+      </c>
+      <c r="C10" t="n">
+        <v>449.95</v>
+      </c>
+      <c r="D10" t="n">
+        <v>431.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>435</v>
+      </c>
+      <c r="F10" t="n">
+        <v>650392</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1309754</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5034243071599706</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>IIFL</t>
         </is>
       </c>
     </row>
@@ -492,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +844,402 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SBILIFE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1815.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1841.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1806.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1812.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>948055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>669578</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4158992678970934</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SBILIFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>967</v>
+      </c>
+      <c r="C3" t="n">
+        <v>972.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>955</v>
+      </c>
+      <c r="E3" t="n">
+        <v>961.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25438255</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16917731</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5036446081333248</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1411.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1396.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1397.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12990789</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8720155</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4897429002122095</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JIOFIN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>311.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15243091</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10076775</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5126953812107544</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>JIOFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7099</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7170</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6985</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7105.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>275286</v>
+      </c>
+      <c r="G6" t="n">
+        <v>187129</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4711028221173629</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3836.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3857</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3777.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3836.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>678197</v>
+      </c>
+      <c r="G7" t="n">
+        <v>464841</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4589870514864222</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NATIONALUM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>187.84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5377292</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3791406</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4182844042553079</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NATIONALUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3874.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3935.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3814.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3850</v>
+      </c>
+      <c r="F9" t="n">
+        <v>240799</v>
+      </c>
+      <c r="G9" t="n">
+        <v>165170</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4578858146152449</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>316</v>
+      </c>
+      <c r="C10" t="n">
+        <v>318.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>307</v>
+      </c>
+      <c r="E10" t="n">
+        <v>308.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7594499</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5319362</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4277086237033689</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>560.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>560.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>546.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>548.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2560978</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1629147</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5719747818950653</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>785</v>
+      </c>
+      <c r="C12" t="n">
+        <v>785</v>
+      </c>
+      <c r="D12" t="n">
+        <v>765.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>766.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2816692</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1906485</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4774267827966126</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>864.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>865</v>
+      </c>
+      <c r="D13" t="n">
+        <v>836.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>841</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2248859</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1489952</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5093499656364768</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,297 +484,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8798</v>
+        <v>5099.5</v>
       </c>
       <c r="C2" t="n">
-        <v>8798</v>
+        <v>5148.3</v>
       </c>
       <c r="D2" t="n">
-        <v>8661</v>
+        <v>5061.4</v>
       </c>
       <c r="E2" t="n">
-        <v>8694</v>
+        <v>5109.5</v>
       </c>
       <c r="F2" t="n">
-        <v>394657</v>
+        <v>783364</v>
       </c>
       <c r="G2" t="n">
-        <v>778390</v>
+        <v>1584393</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4929829519906473</v>
+        <v>-0.505574690117919</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6269.5</v>
+        <v>310.7</v>
       </c>
       <c r="C3" t="n">
-        <v>6269.5</v>
+        <v>312.3</v>
       </c>
       <c r="D3" t="n">
-        <v>6121</v>
+        <v>307</v>
       </c>
       <c r="E3" t="n">
-        <v>6140</v>
+        <v>308.55</v>
       </c>
       <c r="F3" t="n">
-        <v>719052</v>
+        <v>4334416</v>
       </c>
       <c r="G3" t="n">
-        <v>1474805</v>
+        <v>8888325</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5124426619112358</v>
+        <v>-0.5123472645295936</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1957.9</v>
+        <v>1852</v>
       </c>
       <c r="C4" t="n">
-        <v>1960.2</v>
+        <v>1868.3</v>
       </c>
       <c r="D4" t="n">
-        <v>1932</v>
+        <v>1832.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1936.2</v>
+        <v>1843</v>
       </c>
       <c r="F4" t="n">
-        <v>481992</v>
+        <v>441249</v>
       </c>
       <c r="G4" t="n">
-        <v>1148175</v>
+        <v>870926</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5802103337905807</v>
+        <v>-0.4933564964187543</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2270</v>
+        <v>1780</v>
       </c>
       <c r="C5" t="n">
-        <v>2285.9</v>
+        <v>1796.4</v>
       </c>
       <c r="D5" t="n">
-        <v>2245.6</v>
+        <v>1771.3</v>
       </c>
       <c r="E5" t="n">
-        <v>2262.7</v>
+        <v>1777.6</v>
       </c>
       <c r="F5" t="n">
-        <v>698267</v>
+        <v>230722</v>
       </c>
       <c r="G5" t="n">
-        <v>1429053</v>
+        <v>571455</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.511377814538719</v>
+        <v>-0.5962551731982396</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>FORTIS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504.5</v>
+        <v>911.4</v>
       </c>
       <c r="C6" t="n">
-        <v>2523.1</v>
+        <v>920.85</v>
       </c>
       <c r="D6" t="n">
-        <v>2470</v>
+        <v>904.4</v>
       </c>
       <c r="E6" t="n">
-        <v>2476.3</v>
+        <v>915</v>
       </c>
       <c r="F6" t="n">
-        <v>233219</v>
+        <v>963721</v>
       </c>
       <c r="G6" t="n">
-        <v>533860</v>
+        <v>1982246</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5631457685535534</v>
+        <v>-0.5138237131011993</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>FORTIS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>PAGEIND</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>44275</v>
       </c>
       <c r="C7" t="n">
-        <v>19.03</v>
+        <v>44575</v>
       </c>
       <c r="D7" t="n">
-        <v>18.65</v>
+        <v>43650</v>
       </c>
       <c r="E7" t="n">
-        <v>18.71</v>
+        <v>44120</v>
       </c>
       <c r="F7" t="n">
-        <v>68889791</v>
+        <v>21171</v>
       </c>
       <c r="G7" t="n">
-        <v>148661489</v>
+        <v>47648</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5365996165960641</v>
+        <v>-0.5556791470785762</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>PAGEIND</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>CONCOR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.75</v>
+        <v>531.25</v>
       </c>
       <c r="C8" t="n">
-        <v>6.75</v>
+        <v>533.9</v>
       </c>
       <c r="D8" t="n">
-        <v>6.54</v>
+        <v>526.25</v>
       </c>
       <c r="E8" t="n">
-        <v>6.56</v>
+        <v>526.9</v>
       </c>
       <c r="F8" t="n">
-        <v>630935008</v>
+        <v>826127</v>
       </c>
       <c r="G8" t="n">
-        <v>1381513115</v>
+        <v>2055711</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5433014705763398</v>
+        <v>-0.5981307683813533</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>CONCOR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1560.1</v>
+        <v>1151</v>
       </c>
       <c r="C9" t="n">
-        <v>1567.1</v>
+        <v>1173.9</v>
       </c>
       <c r="D9" t="n">
-        <v>1503.6</v>
+        <v>1147.6</v>
       </c>
       <c r="E9" t="n">
-        <v>1507</v>
+        <v>1150</v>
       </c>
       <c r="F9" t="n">
-        <v>430652</v>
+        <v>1977662</v>
       </c>
       <c r="G9" t="n">
-        <v>1025138</v>
+        <v>4412704</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5799082660090642</v>
+        <v>-0.551825366034069</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>446</v>
+        <v>1936</v>
       </c>
       <c r="C10" t="n">
-        <v>449.95</v>
+        <v>1947.8</v>
       </c>
       <c r="D10" t="n">
-        <v>431.55</v>
+        <v>1910.7</v>
       </c>
       <c r="E10" t="n">
-        <v>435</v>
+        <v>1919.7</v>
       </c>
       <c r="F10" t="n">
-        <v>650392</v>
+        <v>239914</v>
       </c>
       <c r="G10" t="n">
-        <v>1309754</v>
+        <v>481992</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5034243071599706</v>
+        <v>-0.5022448505369383</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KALYANKJIL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>508</v>
+      </c>
+      <c r="C11" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>503</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3445371</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7354852</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5315512807055804</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>KALYANKJIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>864</v>
+      </c>
+      <c r="C12" t="n">
+        <v>872.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>854.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>855</v>
+      </c>
+      <c r="F12" t="n">
+        <v>646790</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1373559</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5291137839728763</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>770.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>774.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>750.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>753.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1227892</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2816692</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.564065932661434</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
         </is>
       </c>
     </row>
@@ -789,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,396 +946,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1815.7</v>
+        <v>315.55</v>
       </c>
       <c r="C2" t="n">
-        <v>1841.3</v>
+        <v>316.75</v>
       </c>
       <c r="D2" t="n">
-        <v>1806.2</v>
+        <v>307.75</v>
       </c>
       <c r="E2" t="n">
-        <v>1812.9</v>
+        <v>315.6</v>
       </c>
       <c r="F2" t="n">
-        <v>948055</v>
+        <v>62441100</v>
       </c>
       <c r="G2" t="n">
-        <v>669578</v>
+        <v>44020764</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4158992678970934</v>
+        <v>0.4184465312778306</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>ETERNAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>967</v>
+        <v>1160.3</v>
       </c>
       <c r="C3" t="n">
-        <v>972.2</v>
+        <v>1184.4</v>
       </c>
       <c r="D3" t="n">
-        <v>955</v>
+        <v>1150</v>
       </c>
       <c r="E3" t="n">
-        <v>961.8</v>
+        <v>1154.2</v>
       </c>
       <c r="F3" t="n">
-        <v>25438255</v>
+        <v>1593255</v>
       </c>
       <c r="G3" t="n">
-        <v>16917731</v>
+        <v>1065888</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5036446081333248</v>
+        <v>0.4947677429523552</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1408</v>
+        <v>1501.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1411.8</v>
+        <v>1501.9</v>
       </c>
       <c r="D4" t="n">
-        <v>1396.3</v>
+        <v>1467.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1397.6</v>
+        <v>1469</v>
       </c>
       <c r="F4" t="n">
-        <v>12990789</v>
+        <v>8169075</v>
       </c>
       <c r="G4" t="n">
-        <v>8720155</v>
+        <v>5443364</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4897429002122095</v>
+        <v>0.5007401672936074</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.75</v>
+        <v>1381.1</v>
       </c>
       <c r="C5" t="n">
-        <v>316.9</v>
+        <v>1403.5</v>
       </c>
       <c r="D5" t="n">
-        <v>309.5</v>
+        <v>1350</v>
       </c>
       <c r="E5" t="n">
-        <v>311.25</v>
+        <v>1356</v>
       </c>
       <c r="F5" t="n">
-        <v>15243091</v>
+        <v>18758842</v>
       </c>
       <c r="G5" t="n">
-        <v>10076775</v>
+        <v>13161813</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5126953812107544</v>
+        <v>0.4252475703765127</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7099</v>
+        <v>775.4</v>
       </c>
       <c r="C6" t="n">
-        <v>7170</v>
+        <v>776.4</v>
       </c>
       <c r="D6" t="n">
-        <v>6985</v>
+        <v>759.25</v>
       </c>
       <c r="E6" t="n">
-        <v>7105.5</v>
+        <v>764</v>
       </c>
       <c r="F6" t="n">
-        <v>275286</v>
+        <v>1341814</v>
       </c>
       <c r="G6" t="n">
-        <v>187129</v>
+        <v>891046</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4711028221173629</v>
+        <v>0.5058863403236197</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3836.6</v>
+        <v>970.4</v>
       </c>
       <c r="C7" t="n">
-        <v>3857</v>
+        <v>974.4</v>
       </c>
       <c r="D7" t="n">
-        <v>3777.3</v>
+        <v>943.55</v>
       </c>
       <c r="E7" t="n">
-        <v>3836.7</v>
+        <v>949.1</v>
       </c>
       <c r="F7" t="n">
-        <v>678197</v>
+        <v>968556</v>
       </c>
       <c r="G7" t="n">
-        <v>464841</v>
+        <v>673705</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4589870514864222</v>
+        <v>0.4376559473360002</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>185.8</v>
+        <v>1390</v>
       </c>
       <c r="C8" t="n">
-        <v>187.84</v>
+        <v>1395</v>
       </c>
       <c r="D8" t="n">
-        <v>184.1</v>
+        <v>1354.5</v>
       </c>
       <c r="E8" t="n">
-        <v>185.2</v>
+        <v>1356.5</v>
       </c>
       <c r="F8" t="n">
-        <v>5377292</v>
+        <v>1215734</v>
       </c>
       <c r="G8" t="n">
-        <v>3791406</v>
+        <v>830602</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4182844042553079</v>
+        <v>0.4636781515093872</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3874.8</v>
+        <v>5308.5</v>
       </c>
       <c r="C9" t="n">
-        <v>3935.6</v>
+        <v>5329.5</v>
       </c>
       <c r="D9" t="n">
-        <v>3814.2</v>
+        <v>5228</v>
       </c>
       <c r="E9" t="n">
-        <v>3850</v>
+        <v>5320</v>
       </c>
       <c r="F9" t="n">
-        <v>240799</v>
+        <v>487634</v>
       </c>
       <c r="G9" t="n">
-        <v>165170</v>
+        <v>316243</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4578858146152449</v>
+        <v>0.5419598220355866</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>SRF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>316</v>
+        <v>2832</v>
       </c>
       <c r="C10" t="n">
-        <v>318.15</v>
+        <v>2869.9</v>
       </c>
       <c r="D10" t="n">
-        <v>307</v>
+        <v>2828.6</v>
       </c>
       <c r="E10" t="n">
-        <v>308.05</v>
+        <v>2852</v>
       </c>
       <c r="F10" t="n">
-        <v>7594499</v>
+        <v>537875</v>
       </c>
       <c r="G10" t="n">
-        <v>5319362</v>
+        <v>363957</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4277086237033689</v>
+        <v>0.4778531529823578</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>SRF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>MANKIND</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>560.3</v>
+        <v>2488</v>
       </c>
       <c r="C11" t="n">
-        <v>560.3</v>
+        <v>2511.3</v>
       </c>
       <c r="D11" t="n">
-        <v>546.2</v>
+        <v>2455.1</v>
       </c>
       <c r="E11" t="n">
-        <v>548.5</v>
+        <v>2474.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2560978</v>
+        <v>330123</v>
       </c>
       <c r="G11" t="n">
-        <v>1629147</v>
+        <v>233219</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5719747818950653</v>
+        <v>0.415506455305957</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>MANKIND</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>785</v>
+        <v>1599.1</v>
       </c>
       <c r="C12" t="n">
-        <v>785</v>
+        <v>1633.6</v>
       </c>
       <c r="D12" t="n">
-        <v>765.2</v>
+        <v>1578</v>
       </c>
       <c r="E12" t="n">
-        <v>766.3</v>
+        <v>1600</v>
       </c>
       <c r="F12" t="n">
-        <v>2816692</v>
+        <v>720090</v>
       </c>
       <c r="G12" t="n">
-        <v>1906485</v>
+        <v>509123</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4774267827966126</v>
+        <v>0.4143733439659965</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TITAGARH</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>864.5</v>
+        <v>7387</v>
       </c>
       <c r="C13" t="n">
-        <v>865</v>
+        <v>7463</v>
       </c>
       <c r="D13" t="n">
-        <v>836.25</v>
+        <v>7304</v>
       </c>
       <c r="E13" t="n">
-        <v>841</v>
+        <v>7380</v>
       </c>
       <c r="F13" t="n">
-        <v>2248859</v>
+        <v>644963</v>
       </c>
       <c r="G13" t="n">
-        <v>1489952</v>
+        <v>455408</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5093499656364768</v>
+        <v>0.416231159751256</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TITAGARH</t>
+          <t>MCX</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>436</v>
+      </c>
+      <c r="C14" t="n">
+        <v>440.45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>425.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>427.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1027543</v>
+      </c>
+      <c r="G14" t="n">
+        <v>650392</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5798825938818436</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>IIFL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,396 +484,759 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5099.5</v>
+        <v>234</v>
       </c>
       <c r="C2" t="n">
-        <v>5148.3</v>
+        <v>239.19</v>
       </c>
       <c r="D2" t="n">
-        <v>5061.4</v>
+        <v>233.07</v>
       </c>
       <c r="E2" t="n">
-        <v>5109.5</v>
+        <v>238.99</v>
       </c>
       <c r="F2" t="n">
-        <v>783364</v>
+        <v>4366396</v>
       </c>
       <c r="G2" t="n">
-        <v>1584393</v>
+        <v>9928988</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.505574690117919</v>
+        <v>-0.5602375589536416</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.7</v>
+        <v>1157.9</v>
       </c>
       <c r="C3" t="n">
-        <v>312.3</v>
+        <v>1176</v>
       </c>
       <c r="D3" t="n">
-        <v>307</v>
+        <v>1156.2</v>
       </c>
       <c r="E3" t="n">
-        <v>308.55</v>
+        <v>1175</v>
       </c>
       <c r="F3" t="n">
-        <v>4334416</v>
+        <v>643866</v>
       </c>
       <c r="G3" t="n">
-        <v>8888325</v>
+        <v>1593255</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5123472645295936</v>
+        <v>-0.5958801321822307</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1852</v>
+        <v>3631</v>
       </c>
       <c r="C4" t="n">
-        <v>1868.3</v>
+        <v>3653.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1832.1</v>
+        <v>3610.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1843</v>
+        <v>3618</v>
       </c>
       <c r="F4" t="n">
-        <v>441249</v>
+        <v>297533</v>
       </c>
       <c r="G4" t="n">
-        <v>870926</v>
+        <v>660956</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4933564964187543</v>
+        <v>-0.5498444677104074</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780</v>
+        <v>409.75</v>
       </c>
       <c r="C5" t="n">
-        <v>1796.4</v>
+        <v>410.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1771.3</v>
+        <v>405</v>
       </c>
       <c r="E5" t="n">
-        <v>1777.6</v>
+        <v>405.55</v>
       </c>
       <c r="F5" t="n">
-        <v>230722</v>
+        <v>12268090</v>
       </c>
       <c r="G5" t="n">
-        <v>571455</v>
+        <v>25255050</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5962551731982396</v>
+        <v>-0.5142322030643376</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>911.4</v>
+        <v>351.75</v>
       </c>
       <c r="C6" t="n">
-        <v>920.85</v>
+        <v>361.8</v>
       </c>
       <c r="D6" t="n">
-        <v>904.4</v>
+        <v>351</v>
       </c>
       <c r="E6" t="n">
-        <v>915</v>
+        <v>361.75</v>
       </c>
       <c r="F6" t="n">
-        <v>963721</v>
+        <v>3343204</v>
       </c>
       <c r="G6" t="n">
-        <v>1982246</v>
+        <v>7976387</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5138237131011993</v>
+        <v>-0.5808623628718115</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>RECLTD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44275</v>
+        <v>380</v>
       </c>
       <c r="C7" t="n">
-        <v>44575</v>
+        <v>391</v>
       </c>
       <c r="D7" t="n">
-        <v>43650</v>
+        <v>379.75</v>
       </c>
       <c r="E7" t="n">
-        <v>44120</v>
+        <v>390.3</v>
       </c>
       <c r="F7" t="n">
-        <v>21171</v>
+        <v>3520775</v>
       </c>
       <c r="G7" t="n">
-        <v>47648</v>
+        <v>7398515</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5556791470785762</v>
+        <v>-0.5241240978763981</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.25</v>
+        <v>739.55</v>
       </c>
       <c r="C8" t="n">
-        <v>533.9</v>
+        <v>750</v>
       </c>
       <c r="D8" t="n">
-        <v>526.25</v>
+        <v>737</v>
       </c>
       <c r="E8" t="n">
-        <v>526.9</v>
+        <v>749.3</v>
       </c>
       <c r="F8" t="n">
-        <v>826127</v>
+        <v>1427328</v>
       </c>
       <c r="G8" t="n">
-        <v>2055711</v>
+        <v>3054170</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5981307683813533</v>
+        <v>-0.532662556439229</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1151</v>
+        <v>759</v>
       </c>
       <c r="C9" t="n">
-        <v>1173.9</v>
+        <v>765.4</v>
       </c>
       <c r="D9" t="n">
-        <v>1147.6</v>
+        <v>755.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1150</v>
+        <v>758.75</v>
       </c>
       <c r="F9" t="n">
-        <v>1977662</v>
+        <v>1589703</v>
       </c>
       <c r="G9" t="n">
-        <v>4412704</v>
+        <v>3485485</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.551825366034069</v>
+        <v>-0.5439076627786377</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1936</v>
+        <v>125.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1947.8</v>
+        <v>128.4</v>
       </c>
       <c r="D10" t="n">
-        <v>1910.7</v>
+        <v>125.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1919.7</v>
+        <v>128.2</v>
       </c>
       <c r="F10" t="n">
-        <v>239914</v>
+        <v>5838935</v>
       </c>
       <c r="G10" t="n">
-        <v>481992</v>
+        <v>13165024</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5022448505369383</v>
+        <v>-0.5564812491036857</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>508</v>
+        <v>390.3</v>
       </c>
       <c r="C11" t="n">
-        <v>510.5</v>
+        <v>401</v>
       </c>
       <c r="D11" t="n">
-        <v>501.5</v>
+        <v>388.8</v>
       </c>
       <c r="E11" t="n">
-        <v>503</v>
+        <v>400.5</v>
       </c>
       <c r="F11" t="n">
-        <v>3445371</v>
+        <v>1422828</v>
       </c>
       <c r="G11" t="n">
-        <v>7354852</v>
+        <v>3349257</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5315512807055804</v>
+        <v>-0.5751810028313742</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>OIL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>YESBANK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>864</v>
+        <v>19.2</v>
       </c>
       <c r="C12" t="n">
-        <v>872.6</v>
+        <v>19.64</v>
       </c>
       <c r="D12" t="n">
-        <v>854.75</v>
+        <v>19.07</v>
       </c>
       <c r="E12" t="n">
-        <v>855</v>
+        <v>19.55</v>
       </c>
       <c r="F12" t="n">
-        <v>646790</v>
+        <v>78438721</v>
       </c>
       <c r="G12" t="n">
-        <v>1373559</v>
+        <v>191492999</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5291137839728763</v>
+        <v>-0.5903833486883768</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>YESBANK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>SRF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>770.1</v>
+        <v>2849</v>
       </c>
       <c r="C13" t="n">
-        <v>774.5</v>
+        <v>2902.8</v>
       </c>
       <c r="D13" t="n">
-        <v>750.3</v>
+        <v>2817.1</v>
       </c>
       <c r="E13" t="n">
-        <v>753.9</v>
+        <v>2900</v>
       </c>
       <c r="F13" t="n">
-        <v>1227892</v>
+        <v>220055</v>
       </c>
       <c r="G13" t="n">
-        <v>2816692</v>
+        <v>537875</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.564065932661434</v>
+        <v>-0.5908807808505694</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>SRF</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>211.21</v>
+      </c>
+      <c r="D14" t="n">
+        <v>206.07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>211</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1127626</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2478859</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.545102807380331</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>IGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NYKAA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>230.79</v>
+      </c>
+      <c r="C15" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>230.75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3672436</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8204962</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5524127960617002</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NYKAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>360ONE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1018.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1013.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1032.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>263961</v>
+      </c>
+      <c r="G16" t="n">
+        <v>644147</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.590216208412055</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>360ONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1106.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1131.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1104.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1120.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>588447</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1414573</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5840108640557964</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2327</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2375.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2320</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2358</v>
+      </c>
+      <c r="F18" t="n">
+        <v>746148</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1598897</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5333357933625493</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>726.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>732.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>725.45</v>
+      </c>
+      <c r="E19" t="n">
+        <v>731.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1044767</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2136019</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5108812234348102</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ALKEM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5310</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5348.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5273</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5327.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>56377</v>
+      </c>
+      <c r="G20" t="n">
+        <v>115288</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5109898688501839</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ALKEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>597.75</v>
+      </c>
+      <c r="D21" t="n">
+        <v>592.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>593.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>397205</v>
+      </c>
+      <c r="G21" t="n">
+        <v>839227</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5267013573204866</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>494</v>
+      </c>
+      <c r="C22" t="n">
+        <v>524.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>492.45</v>
+      </c>
+      <c r="E22" t="n">
+        <v>513.05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7165474</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16943450</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5770947475278058</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>431.85</v>
+      </c>
+      <c r="C23" t="n">
+        <v>440.65</v>
+      </c>
+      <c r="D23" t="n">
+        <v>431.4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>439</v>
+      </c>
+      <c r="F23" t="n">
+        <v>487491</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1027543</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.5255760586174982</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>921.45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>920.35</v>
+      </c>
+      <c r="E24" t="n">
+        <v>940</v>
+      </c>
+      <c r="F24" t="n">
+        <v>194469</v>
+      </c>
+      <c r="G24" t="n">
+        <v>429660</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.5473886328725038</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
         </is>
       </c>
     </row>
@@ -888,7 +1251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,429 +1309,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.55</v>
+        <v>6085</v>
       </c>
       <c r="C2" t="n">
-        <v>316.75</v>
+        <v>6292</v>
       </c>
       <c r="D2" t="n">
-        <v>307.75</v>
+        <v>6085</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6</v>
+        <v>6292</v>
       </c>
       <c r="F2" t="n">
-        <v>62441100</v>
+        <v>698178</v>
       </c>
       <c r="G2" t="n">
-        <v>44020764</v>
+        <v>496302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4184465312778306</v>
+        <v>0.406760399917792</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1160.3</v>
+        <v>127.35</v>
       </c>
       <c r="C3" t="n">
-        <v>1184.4</v>
+        <v>128.51</v>
       </c>
       <c r="D3" t="n">
-        <v>1150</v>
+        <v>125.85</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.2</v>
+        <v>128</v>
       </c>
       <c r="F3" t="n">
-        <v>1593255</v>
+        <v>15300044</v>
       </c>
       <c r="G3" t="n">
-        <v>1065888</v>
+        <v>10674470</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4947677429523552</v>
+        <v>0.4333305541165041</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1501.9</v>
+        <v>262.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1501.9</v>
+        <v>275.85</v>
       </c>
       <c r="D4" t="n">
-        <v>1467.7</v>
+        <v>262.25</v>
       </c>
       <c r="E4" t="n">
-        <v>1469</v>
+        <v>275.3</v>
       </c>
       <c r="F4" t="n">
-        <v>8169075</v>
+        <v>5587800</v>
       </c>
       <c r="G4" t="n">
-        <v>5443364</v>
+        <v>3541918</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5007401672936074</v>
+        <v>0.5776198093801155</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.1</v>
+        <v>856.75</v>
       </c>
       <c r="C5" t="n">
-        <v>1403.5</v>
+        <v>869.75</v>
       </c>
       <c r="D5" t="n">
-        <v>1350</v>
+        <v>854.05</v>
       </c>
       <c r="E5" t="n">
-        <v>1356</v>
+        <v>860.5</v>
       </c>
       <c r="F5" t="n">
-        <v>18758842</v>
+        <v>997411</v>
       </c>
       <c r="G5" t="n">
-        <v>13161813</v>
+        <v>646790</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4252475703765127</v>
+        <v>0.5420940336121461</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ADANIENSOL</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>775.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>776.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>759.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>764</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1341814</v>
-      </c>
-      <c r="G6" t="n">
-        <v>891046</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5058863403236197</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ADANIENSOL</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JINDALSTEL</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>970.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>974.4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>943.55</v>
-      </c>
-      <c r="E7" t="n">
-        <v>949.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>968556</v>
-      </c>
-      <c r="G7" t="n">
-        <v>673705</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.4376559473360002</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>JINDALSTEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1390</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1395</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1354.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1356.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1215734</v>
-      </c>
-      <c r="G8" t="n">
-        <v>830602</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.4636781515093872</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PERSISTENT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5308.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5329.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5228</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5320</v>
-      </c>
-      <c r="F9" t="n">
-        <v>487634</v>
-      </c>
-      <c r="G9" t="n">
-        <v>316243</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5419598220355866</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PERSISTENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2869.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2828.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2852</v>
-      </c>
-      <c r="F10" t="n">
-        <v>537875</v>
-      </c>
-      <c r="G10" t="n">
-        <v>363957</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4778531529823578</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2488</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2511.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2455.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2474.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>330123</v>
-      </c>
-      <c r="G11" t="n">
-        <v>233219</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.415506455305957</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1599.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1633.6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1578</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1600</v>
-      </c>
-      <c r="F12" t="n">
-        <v>720090</v>
-      </c>
-      <c r="G12" t="n">
-        <v>509123</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4143733439659965</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MCX</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7387</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7463</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7304</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7380</v>
-      </c>
-      <c r="F13" t="n">
-        <v>644963</v>
-      </c>
-      <c r="G13" t="n">
-        <v>455408</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.416231159751256</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>MCX</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IIFL</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>436</v>
-      </c>
-      <c r="C14" t="n">
-        <v>440.45</v>
-      </c>
-      <c r="D14" t="n">
-        <v>425.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>427.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1027543</v>
-      </c>
-      <c r="G14" t="n">
-        <v>650392</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5798825938818436</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>IIFL</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,759 +484,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>239.19</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>233.07</v>
+        <v>95.22</v>
       </c>
       <c r="E2" t="n">
-        <v>238.99</v>
+        <v>96.3</v>
       </c>
       <c r="F2" t="n">
-        <v>4366396</v>
+        <v>12452715</v>
       </c>
       <c r="G2" t="n">
-        <v>9928988</v>
+        <v>30257885</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5602375589536416</v>
+        <v>-0.5884472758092643</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>OFSS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1157.9</v>
+        <v>8480</v>
       </c>
       <c r="C3" t="n">
-        <v>1176</v>
+        <v>8542</v>
       </c>
       <c r="D3" t="n">
-        <v>1156.2</v>
+        <v>8390</v>
       </c>
       <c r="E3" t="n">
-        <v>1175</v>
+        <v>8487.5</v>
       </c>
       <c r="F3" t="n">
-        <v>643866</v>
+        <v>65922</v>
       </c>
       <c r="G3" t="n">
-        <v>1593255</v>
+        <v>138605</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5958801321822307</v>
+        <v>-0.5243894520399697</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>OFSS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3631</v>
+        <v>87.39</v>
       </c>
       <c r="C4" t="n">
-        <v>3653.4</v>
+        <v>88.06</v>
       </c>
       <c r="D4" t="n">
-        <v>3610.4</v>
+        <v>86.81</v>
       </c>
       <c r="E4" t="n">
-        <v>3618</v>
+        <v>87.14</v>
       </c>
       <c r="F4" t="n">
-        <v>297533</v>
+        <v>4217959</v>
       </c>
       <c r="G4" t="n">
-        <v>660956</v>
+        <v>9371787</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5498444677104074</v>
+        <v>-0.5499301253859056</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>409.75</v>
+        <v>1630</v>
       </c>
       <c r="C5" t="n">
-        <v>410.2</v>
+        <v>1642</v>
       </c>
       <c r="D5" t="n">
-        <v>405</v>
+        <v>1617.1</v>
       </c>
       <c r="E5" t="n">
-        <v>405.55</v>
+        <v>1622.2</v>
       </c>
       <c r="F5" t="n">
-        <v>12268090</v>
+        <v>427322</v>
       </c>
       <c r="G5" t="n">
-        <v>25255050</v>
+        <v>850091</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5142322030643376</v>
+        <v>-0.4973220514039085</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351.75</v>
+        <v>83.61</v>
       </c>
       <c r="C6" t="n">
-        <v>361.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>351</v>
+        <v>82.75</v>
       </c>
       <c r="E6" t="n">
-        <v>361.75</v>
+        <v>82.95</v>
       </c>
       <c r="F6" t="n">
-        <v>3343204</v>
+        <v>15431034</v>
       </c>
       <c r="G6" t="n">
-        <v>7976387</v>
+        <v>38422386</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5808623628718115</v>
+        <v>-0.5983842856609686</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380</v>
+        <v>667</v>
       </c>
       <c r="C7" t="n">
-        <v>391</v>
+        <v>674</v>
       </c>
       <c r="D7" t="n">
-        <v>379.75</v>
+        <v>661.5</v>
       </c>
       <c r="E7" t="n">
-        <v>390.3</v>
+        <v>664.05</v>
       </c>
       <c r="F7" t="n">
-        <v>3520775</v>
+        <v>486775</v>
       </c>
       <c r="G7" t="n">
-        <v>7398515</v>
+        <v>1059709</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5241240978763981</v>
+        <v>-0.5406521979147105</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>INDIANB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>739.55</v>
+        <v>2910</v>
       </c>
       <c r="C8" t="n">
-        <v>750</v>
+        <v>2947.5</v>
       </c>
       <c r="D8" t="n">
-        <v>737</v>
+        <v>2886.9</v>
       </c>
       <c r="E8" t="n">
-        <v>749.3</v>
+        <v>2900</v>
       </c>
       <c r="F8" t="n">
-        <v>1427328</v>
+        <v>309527</v>
       </c>
       <c r="G8" t="n">
-        <v>3054170</v>
+        <v>682684</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.532662556439229</v>
+        <v>-0.5466028206315074</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759</v>
+        <v>5596</v>
       </c>
       <c r="C9" t="n">
-        <v>765.4</v>
+        <v>5599</v>
       </c>
       <c r="D9" t="n">
-        <v>755.5</v>
+        <v>5512.5</v>
       </c>
       <c r="E9" t="n">
-        <v>758.75</v>
+        <v>5530</v>
       </c>
       <c r="F9" t="n">
-        <v>1589703</v>
+        <v>150339</v>
       </c>
       <c r="G9" t="n">
-        <v>3485485</v>
+        <v>295070</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5439076627786377</v>
+        <v>-0.4904971701630121</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.5</v>
+        <v>266.05</v>
       </c>
       <c r="C10" t="n">
-        <v>128.4</v>
+        <v>271</v>
       </c>
       <c r="D10" t="n">
-        <v>125.5</v>
+        <v>263.75</v>
       </c>
       <c r="E10" t="n">
-        <v>128.2</v>
+        <v>270.15</v>
       </c>
       <c r="F10" t="n">
-        <v>5838935</v>
+        <v>11539140</v>
       </c>
       <c r="G10" t="n">
-        <v>13165024</v>
+        <v>22893999</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5564812491036857</v>
+        <v>-0.4959753427088033</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>RBLBANK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.3</v>
+        <v>6650</v>
       </c>
       <c r="C11" t="n">
-        <v>401</v>
+        <v>6730</v>
       </c>
       <c r="D11" t="n">
-        <v>388.8</v>
+        <v>6508</v>
       </c>
       <c r="E11" t="n">
-        <v>400.5</v>
+        <v>6567.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1422828</v>
+        <v>745510</v>
       </c>
       <c r="G11" t="n">
-        <v>3349257</v>
+        <v>1581296</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5751810028313742</v>
+        <v>-0.5285449403527234</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>OIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F12" t="n">
-        <v>78438721</v>
-      </c>
-      <c r="G12" t="n">
-        <v>191492999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5903833486883768</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2849</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2902.8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2817.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2900</v>
-      </c>
-      <c r="F13" t="n">
-        <v>220055</v>
-      </c>
-      <c r="G13" t="n">
-        <v>537875</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5908807808505694</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IGL</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>211.21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>206.07</v>
-      </c>
-      <c r="E14" t="n">
-        <v>211</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1127626</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2478859</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.545102807380331</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>IGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>230.79</v>
-      </c>
-      <c r="C15" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>230.75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3672436</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8204962</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5524127960617002</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>360ONE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1018.1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1013.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1032.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>263961</v>
-      </c>
-      <c r="G16" t="n">
-        <v>644147</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.590216208412055</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>360ONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BHARATFORG</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1106.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1131.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1104.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1120.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>588447</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1414573</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5840108640557964</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>BHARATFORG</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>COLPAL</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2327</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2375.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2320</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2358</v>
-      </c>
-      <c r="F18" t="n">
-        <v>746148</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1598897</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5333357933625493</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>COLPAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>726.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>732.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>725.45</v>
-      </c>
-      <c r="E19" t="n">
-        <v>731.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1044767</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2136019</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5108812234348102</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ALKEM</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5310</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5348.5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5273</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5327.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>56377</v>
-      </c>
-      <c r="G20" t="n">
-        <v>115288</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5109898688501839</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ALKEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>593.9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>597.75</v>
-      </c>
-      <c r="D21" t="n">
-        <v>592.4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>593.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>397205</v>
-      </c>
-      <c r="G21" t="n">
-        <v>839227</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.5267013573204866</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>494</v>
-      </c>
-      <c r="C22" t="n">
-        <v>524.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>492.45</v>
-      </c>
-      <c r="E22" t="n">
-        <v>513.05</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7165474</v>
-      </c>
-      <c r="G22" t="n">
-        <v>16943450</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.5770947475278058</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>IIFL</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>431.85</v>
-      </c>
-      <c r="C23" t="n">
-        <v>440.65</v>
-      </c>
-      <c r="D23" t="n">
-        <v>431.4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>439</v>
-      </c>
-      <c r="F23" t="n">
-        <v>487491</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1027543</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.5255760586174982</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>IIFL</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>921.45</v>
-      </c>
-      <c r="C24" t="n">
-        <v>941.9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>920.35</v>
-      </c>
-      <c r="E24" t="n">
-        <v>940</v>
-      </c>
-      <c r="F24" t="n">
-        <v>194469</v>
-      </c>
-      <c r="G24" t="n">
-        <v>429660</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.5473886328725038</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
+          <t>KAYNES</t>
         </is>
       </c>
     </row>
@@ -1251,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,132 +880,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6085</v>
+        <v>280.2</v>
       </c>
       <c r="C2" t="n">
-        <v>6292</v>
+        <v>287.9</v>
       </c>
       <c r="D2" t="n">
-        <v>6085</v>
+        <v>279.85</v>
       </c>
       <c r="E2" t="n">
-        <v>6292</v>
+        <v>286</v>
       </c>
       <c r="F2" t="n">
-        <v>698178</v>
+        <v>16983677</v>
       </c>
       <c r="G2" t="n">
-        <v>496302</v>
+        <v>10820878</v>
       </c>
       <c r="H2" t="n">
-        <v>0.406760399917792</v>
+        <v>0.569528553967617</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>POWERGRID</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.35</v>
+        <v>5290</v>
       </c>
       <c r="C3" t="n">
-        <v>128.51</v>
+        <v>5348</v>
       </c>
       <c r="D3" t="n">
-        <v>125.85</v>
+        <v>5208</v>
       </c>
       <c r="E3" t="n">
-        <v>128</v>
+        <v>5320</v>
       </c>
       <c r="F3" t="n">
-        <v>15300044</v>
+        <v>962257</v>
       </c>
       <c r="G3" t="n">
-        <v>10674470</v>
+        <v>659443</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4333305541165041</v>
+        <v>0.4591966250305182</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.25</v>
+        <v>1945</v>
       </c>
       <c r="C4" t="n">
-        <v>275.85</v>
+        <v>1958.7</v>
       </c>
       <c r="D4" t="n">
-        <v>262.25</v>
+        <v>1938.6</v>
       </c>
       <c r="E4" t="n">
-        <v>275.3</v>
+        <v>1957</v>
       </c>
       <c r="F4" t="n">
-        <v>5587800</v>
+        <v>907972</v>
       </c>
       <c r="G4" t="n">
-        <v>3541918</v>
+        <v>590079</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5776198093801155</v>
+        <v>0.5387295599402792</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>856.75</v>
+        <v>250.36</v>
       </c>
       <c r="C5" t="n">
-        <v>869.75</v>
+        <v>253.15</v>
       </c>
       <c r="D5" t="n">
-        <v>854.05</v>
+        <v>249.6</v>
       </c>
       <c r="E5" t="n">
-        <v>860.5</v>
+        <v>250.85</v>
       </c>
       <c r="F5" t="n">
-        <v>997411</v>
+        <v>5046939</v>
       </c>
       <c r="G5" t="n">
-        <v>646790</v>
+        <v>3198345</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5420940336121461</v>
+        <v>0.5779845513851695</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>WIPRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ADANIPORTS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1340.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1348.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1328.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1337</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1495993</v>
+      </c>
+      <c r="G6" t="n">
+        <v>983914</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5204509743737765</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ADANIPORTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BAJFINANCE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>895</v>
+      </c>
+      <c r="C7" t="n">
+        <v>899.55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>886.15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>890</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6103185</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4101526</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4880278706023075</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>BAJFINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AXISBANK</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1061.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1064.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1055.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4933541</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3190426</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5463580725583355</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AXISBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1587</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1593</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1563.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1568</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1161872</v>
+      </c>
+      <c r="G9" t="n">
+        <v>783524</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4828799117831745</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1413.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1413.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1391</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7163073</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4927348</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4537379945560979</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3139</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3198</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3120</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3192.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>326742</v>
+      </c>
+      <c r="G11" t="n">
+        <v>231094</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4138921824019663</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TATAPOWER</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>380.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>388.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>380</v>
+      </c>
+      <c r="E12" t="n">
+        <v>385.95</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3362410</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2169911</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.549561249286261</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TATAPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RECLTD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>362</v>
+      </c>
+      <c r="C13" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4912033</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3343204</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4692591298646448</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>RECLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DIVISLAB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6148.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6059.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6119</v>
+      </c>
+      <c r="F14" t="n">
+        <v>307162</v>
+      </c>
+      <c r="G14" t="n">
+        <v>192062</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5992856473430455</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DIVISLAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>703.95</v>
+      </c>
+      <c r="C15" t="n">
+        <v>713.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>701.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>711.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>885201</v>
+      </c>
+      <c r="G15" t="n">
+        <v>631745</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4011998512057872</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>635</v>
+      </c>
+      <c r="C16" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>626.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>634.95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>916379</v>
+      </c>
+      <c r="G16" t="n">
+        <v>639421</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4331387301949733</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SUPREMEIND</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4574.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4627.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4545</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4604</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84896</v>
+      </c>
+      <c r="G17" t="n">
+        <v>54770</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5500456454263283</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SUPREMEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1792.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1804</v>
+      </c>
+      <c r="F18" t="n">
+        <v>313790</v>
+      </c>
+      <c r="G18" t="n">
+        <v>219101</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4321705514808239</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>564</v>
+      </c>
+      <c r="C19" t="n">
+        <v>566</v>
+      </c>
+      <c r="D19" t="n">
+        <v>555.25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>556</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1063167</v>
+      </c>
+      <c r="G19" t="n">
+        <v>678306</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5673855162714173</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>847.95</v>
+      </c>
+      <c r="C20" t="n">
+        <v>863.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>839</v>
+      </c>
+      <c r="E20" t="n">
+        <v>851</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1010546</v>
+      </c>
+      <c r="G20" t="n">
+        <v>688841</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4670235947047287</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>71.41</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70</v>
+      </c>
+      <c r="E21" t="n">
+        <v>70.41</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11083136</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7052642</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.571487110787702</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>HFCL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.73999999999999</v>
+        <v>5235</v>
       </c>
       <c r="C2" t="n">
-        <v>97.40000000000001</v>
+        <v>5236</v>
       </c>
       <c r="D2" t="n">
-        <v>95.22</v>
+        <v>5171.5</v>
       </c>
       <c r="E2" t="n">
-        <v>96.3</v>
+        <v>5197.5</v>
       </c>
       <c r="F2" t="n">
-        <v>12452715</v>
+        <v>107889</v>
       </c>
       <c r="G2" t="n">
-        <v>30257885</v>
+        <v>251752</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5884472758092643</v>
+        <v>-0.5714472973402396</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OFSS</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8480</v>
+        <v>397</v>
       </c>
       <c r="C3" t="n">
-        <v>8542</v>
+        <v>397.95</v>
       </c>
       <c r="D3" t="n">
-        <v>8390</v>
+        <v>389.25</v>
       </c>
       <c r="E3" t="n">
-        <v>8487.5</v>
+        <v>390.5</v>
       </c>
       <c r="F3" t="n">
-        <v>65922</v>
+        <v>2108026</v>
       </c>
       <c r="G3" t="n">
-        <v>138605</v>
+        <v>4362539</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5243894520399697</v>
+        <v>-0.5167891908817319</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>OFSS</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.39</v>
+        <v>1221</v>
       </c>
       <c r="C4" t="n">
-        <v>88.06</v>
+        <v>1227</v>
       </c>
       <c r="D4" t="n">
-        <v>86.81</v>
+        <v>1215.9</v>
       </c>
       <c r="E4" t="n">
-        <v>87.14</v>
+        <v>1223</v>
       </c>
       <c r="F4" t="n">
-        <v>4217959</v>
+        <v>504560</v>
       </c>
       <c r="G4" t="n">
-        <v>9371787</v>
+        <v>1018542</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5499301253859056</v>
+        <v>-0.5046252388217668</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1630</v>
+        <v>1055</v>
       </c>
       <c r="C5" t="n">
-        <v>1642</v>
+        <v>1055</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.1</v>
+        <v>1033.1</v>
       </c>
       <c r="E5" t="n">
-        <v>1622.2</v>
+        <v>1036.8</v>
       </c>
       <c r="F5" t="n">
-        <v>427322</v>
+        <v>422479</v>
       </c>
       <c r="G5" t="n">
-        <v>850091</v>
+        <v>947610</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4973220514039085</v>
+        <v>-0.5541636327181013</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.61</v>
+        <v>2740</v>
       </c>
       <c r="C6" t="n">
-        <v>85.40000000000001</v>
+        <v>2748.7</v>
       </c>
       <c r="D6" t="n">
-        <v>82.75</v>
+        <v>2675.1</v>
       </c>
       <c r="E6" t="n">
-        <v>82.95</v>
+        <v>2685.3</v>
       </c>
       <c r="F6" t="n">
-        <v>15431034</v>
+        <v>922825</v>
       </c>
       <c r="G6" t="n">
-        <v>38422386</v>
+        <v>1849519</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5983842856609686</v>
+        <v>-0.5010459476220575</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667</v>
+        <v>289.5</v>
       </c>
       <c r="C7" t="n">
-        <v>674</v>
+        <v>290.55</v>
       </c>
       <c r="D7" t="n">
-        <v>661.5</v>
+        <v>283.1</v>
       </c>
       <c r="E7" t="n">
-        <v>664.05</v>
+        <v>285.2</v>
       </c>
       <c r="F7" t="n">
-        <v>486775</v>
+        <v>2774294</v>
       </c>
       <c r="G7" t="n">
-        <v>1059709</v>
+        <v>6743439</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5406521979147105</v>
+        <v>-0.588593594455292</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2910</v>
+        <v>271.7</v>
       </c>
       <c r="C8" t="n">
-        <v>2947.5</v>
+        <v>271.7</v>
       </c>
       <c r="D8" t="n">
-        <v>2886.9</v>
+        <v>265.2</v>
       </c>
       <c r="E8" t="n">
-        <v>2900</v>
+        <v>265.45</v>
       </c>
       <c r="F8" t="n">
-        <v>309527</v>
+        <v>4988447</v>
       </c>
       <c r="G8" t="n">
-        <v>682684</v>
+        <v>11539140</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5466028206315074</v>
+        <v>-0.5676933462979044</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HDFCAMC</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5596</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5599</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5512.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5530</v>
-      </c>
-      <c r="F9" t="n">
-        <v>150339</v>
-      </c>
-      <c r="G9" t="n">
-        <v>295070</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.4904971701630121</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>HDFCAMC</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
           <t>RBLBANK</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>266.05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>271</v>
-      </c>
-      <c r="D10" t="n">
-        <v>263.75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>270.15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11539140</v>
-      </c>
-      <c r="G10" t="n">
-        <v>22893999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.4959753427088033</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>RBLBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6650</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6730</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6508</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6567.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>745510</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1581296</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5285449403527234</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
         </is>
       </c>
     </row>
@@ -822,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,660 +781,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280.2</v>
+        <v>1409.9</v>
       </c>
       <c r="C2" t="n">
-        <v>287.9</v>
+        <v>1415.1</v>
       </c>
       <c r="D2" t="n">
-        <v>279.85</v>
+        <v>1401.9</v>
       </c>
       <c r="E2" t="n">
-        <v>286</v>
+        <v>1408</v>
       </c>
       <c r="F2" t="n">
-        <v>16983677</v>
+        <v>10564859</v>
       </c>
       <c r="G2" t="n">
-        <v>10820878</v>
+        <v>7163073</v>
       </c>
       <c r="H2" t="n">
-        <v>0.569528553967617</v>
+        <v>0.4749059516774435</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5290</v>
+        <v>13000</v>
       </c>
       <c r="C3" t="n">
-        <v>5348</v>
+        <v>13097</v>
       </c>
       <c r="D3" t="n">
-        <v>5208</v>
+        <v>12634</v>
       </c>
       <c r="E3" t="n">
-        <v>5320</v>
+        <v>12646</v>
       </c>
       <c r="F3" t="n">
-        <v>962257</v>
+        <v>305040</v>
       </c>
       <c r="G3" t="n">
-        <v>659443</v>
+        <v>214101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4591966250305182</v>
+        <v>0.4247481328905516</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1945</v>
+        <v>239.07</v>
       </c>
       <c r="C4" t="n">
-        <v>1958.7</v>
+        <v>239.35</v>
       </c>
       <c r="D4" t="n">
-        <v>1938.6</v>
+        <v>235.43</v>
       </c>
       <c r="E4" t="n">
-        <v>1957</v>
+        <v>236.01</v>
       </c>
       <c r="F4" t="n">
-        <v>907972</v>
+        <v>8778730</v>
       </c>
       <c r="G4" t="n">
-        <v>590079</v>
+        <v>5921193</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5387295599402792</v>
+        <v>0.4825948081746364</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.36</v>
+        <v>1126</v>
       </c>
       <c r="C5" t="n">
-        <v>253.15</v>
+        <v>1126</v>
       </c>
       <c r="D5" t="n">
-        <v>249.6</v>
+        <v>1067.2</v>
       </c>
       <c r="E5" t="n">
-        <v>250.85</v>
+        <v>1074</v>
       </c>
       <c r="F5" t="n">
-        <v>5046939</v>
+        <v>2407789</v>
       </c>
       <c r="G5" t="n">
-        <v>3198345</v>
+        <v>1649975</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5779845513851695</v>
+        <v>0.4592881710328944</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1340.9</v>
+        <v>1475</v>
       </c>
       <c r="C6" t="n">
-        <v>1348.8</v>
+        <v>1486.7</v>
       </c>
       <c r="D6" t="n">
-        <v>1328.2</v>
+        <v>1447.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1337</v>
+        <v>1463</v>
       </c>
       <c r="F6" t="n">
-        <v>1495993</v>
+        <v>1738436</v>
       </c>
       <c r="G6" t="n">
-        <v>983914</v>
+        <v>1087452</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5204509743737765</v>
+        <v>0.5986323994070543</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>895</v>
+        <v>778</v>
       </c>
       <c r="C7" t="n">
-        <v>899.55</v>
+        <v>789.75</v>
       </c>
       <c r="D7" t="n">
-        <v>886.15</v>
+        <v>772.5</v>
       </c>
       <c r="E7" t="n">
-        <v>890</v>
+        <v>776.9</v>
       </c>
       <c r="F7" t="n">
-        <v>6103185</v>
+        <v>1973939</v>
       </c>
       <c r="G7" t="n">
-        <v>4101526</v>
+        <v>1347348</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4880278706023075</v>
+        <v>0.4650550563031971</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.5</v>
+        <v>319.85</v>
       </c>
       <c r="C8" t="n">
-        <v>1064.9</v>
+        <v>319.85</v>
       </c>
       <c r="D8" t="n">
-        <v>1049</v>
+        <v>312.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1055.3</v>
+        <v>313</v>
       </c>
       <c r="F8" t="n">
-        <v>4933541</v>
+        <v>5225640</v>
       </c>
       <c r="G8" t="n">
-        <v>3190426</v>
+        <v>3405312</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5463580725583355</v>
+        <v>0.5345554239963916</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1587</v>
+        <v>108.9</v>
       </c>
       <c r="C9" t="n">
-        <v>1593</v>
+        <v>109.2</v>
       </c>
       <c r="D9" t="n">
-        <v>1563.3</v>
+        <v>105.94</v>
       </c>
       <c r="E9" t="n">
-        <v>1568</v>
+        <v>106.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1161872</v>
+        <v>12953562</v>
       </c>
       <c r="G9" t="n">
-        <v>783524</v>
+        <v>9179806</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4828799117831745</v>
+        <v>0.4110932191813204</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>MANKIND</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1413.9</v>
+        <v>2610.1</v>
       </c>
       <c r="C10" t="n">
-        <v>1413.9</v>
+        <v>2610.1</v>
       </c>
       <c r="D10" t="n">
-        <v>1390</v>
+        <v>2563.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1391</v>
+        <v>2575</v>
       </c>
       <c r="F10" t="n">
-        <v>7163073</v>
+        <v>421469</v>
       </c>
       <c r="G10" t="n">
-        <v>4927348</v>
+        <v>284743</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4537379945560979</v>
+        <v>0.4801733493009486</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>MANKIND</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3139</v>
+        <v>7250</v>
       </c>
       <c r="C11" t="n">
-        <v>3198</v>
+        <v>7325</v>
       </c>
       <c r="D11" t="n">
-        <v>3120</v>
+        <v>7236</v>
       </c>
       <c r="E11" t="n">
-        <v>3192.2</v>
+        <v>7250</v>
       </c>
       <c r="F11" t="n">
-        <v>326742</v>
+        <v>197453</v>
       </c>
       <c r="G11" t="n">
-        <v>231094</v>
+        <v>130949</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4138921824019663</v>
+        <v>0.5078618393420339</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>POLYCAB</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>380.9</v>
+        <v>14370</v>
       </c>
       <c r="C12" t="n">
-        <v>388.4</v>
+        <v>14378</v>
       </c>
       <c r="D12" t="n">
-        <v>380</v>
+        <v>13810</v>
       </c>
       <c r="E12" t="n">
-        <v>385.95</v>
+        <v>14050</v>
       </c>
       <c r="F12" t="n">
-        <v>3362410</v>
+        <v>113228</v>
       </c>
       <c r="G12" t="n">
-        <v>2169911</v>
+        <v>74883</v>
       </c>
       <c r="H12" t="n">
-        <v>0.549561249286261</v>
+        <v>0.5120654888292403</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362</v>
+        <v>516.35</v>
       </c>
       <c r="C13" t="n">
-        <v>369.9</v>
+        <v>518.1</v>
       </c>
       <c r="D13" t="n">
-        <v>360.15</v>
+        <v>500.45</v>
       </c>
       <c r="E13" t="n">
-        <v>365.3</v>
+        <v>502.5</v>
       </c>
       <c r="F13" t="n">
-        <v>4912033</v>
+        <v>6322679</v>
       </c>
       <c r="G13" t="n">
-        <v>3343204</v>
+        <v>4309669</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4692591298646448</v>
+        <v>0.4670915562192827</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>RECLTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>DIVISLAB</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6093</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6148.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6059.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6119</v>
-      </c>
-      <c r="F14" t="n">
-        <v>307162</v>
-      </c>
-      <c r="G14" t="n">
-        <v>192062</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5992856473430455</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>DIVISLAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IRCTC</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>703.95</v>
-      </c>
-      <c r="C15" t="n">
-        <v>713.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>701.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>711.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>885201</v>
-      </c>
-      <c r="G15" t="n">
-        <v>631745</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4011998512057872</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>IRCTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>635</v>
-      </c>
-      <c r="C16" t="n">
-        <v>638.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>626.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>634.95</v>
-      </c>
-      <c r="F16" t="n">
-        <v>916379</v>
-      </c>
-      <c r="G16" t="n">
-        <v>639421</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4331387301949733</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SUPREMEIND</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4574.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4627.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4545</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4604</v>
-      </c>
-      <c r="F17" t="n">
-        <v>84896</v>
-      </c>
-      <c r="G17" t="n">
-        <v>54770</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5500456454263283</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SUPREMEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PATANJALI</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1804</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1815</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1792.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1804</v>
-      </c>
-      <c r="F18" t="n">
-        <v>313790</v>
-      </c>
-      <c r="G18" t="n">
-        <v>219101</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4321705514808239</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>PATANJALI</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>564</v>
-      </c>
-      <c r="C19" t="n">
-        <v>566</v>
-      </c>
-      <c r="D19" t="n">
-        <v>555.25</v>
-      </c>
-      <c r="E19" t="n">
-        <v>556</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1063167</v>
-      </c>
-      <c r="G19" t="n">
-        <v>678306</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5673855162714173</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>847.95</v>
-      </c>
-      <c r="C20" t="n">
-        <v>863.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>839</v>
-      </c>
-      <c r="E20" t="n">
-        <v>851</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1010546</v>
-      </c>
-      <c r="G20" t="n">
-        <v>688841</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4670235947047287</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>71.41</v>
-      </c>
-      <c r="C21" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="D21" t="n">
-        <v>70</v>
-      </c>
-      <c r="E21" t="n">
-        <v>70.41</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11083136</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7052642</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.571487110787702</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>HFCL</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,231 +484,924 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5235</v>
+        <v>3511</v>
       </c>
       <c r="C2" t="n">
-        <v>5236</v>
+        <v>3577.8</v>
       </c>
       <c r="D2" t="n">
-        <v>5171.5</v>
+        <v>3481.5</v>
       </c>
       <c r="E2" t="n">
-        <v>5197.5</v>
+        <v>3562.9</v>
       </c>
       <c r="F2" t="n">
-        <v>107889</v>
+        <v>3700943</v>
       </c>
       <c r="G2" t="n">
-        <v>251752</v>
+        <v>7600320</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5714472973402396</v>
+        <v>-0.5130543187655257</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>M&amp;M</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>397</v>
+        <v>1363</v>
       </c>
       <c r="C3" t="n">
-        <v>397.95</v>
+        <v>1381</v>
       </c>
       <c r="D3" t="n">
-        <v>389.25</v>
+        <v>1359.3</v>
       </c>
       <c r="E3" t="n">
-        <v>390.5</v>
+        <v>1375.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2108026</v>
+        <v>5777575</v>
       </c>
       <c r="G3" t="n">
-        <v>4362539</v>
+        <v>13223177</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5167891908817319</v>
+        <v>-0.5630720968190928</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1221</v>
+        <v>690.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1227</v>
+        <v>697.35</v>
       </c>
       <c r="D4" t="n">
-        <v>1215.9</v>
+        <v>683.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1223</v>
+        <v>693.5</v>
       </c>
       <c r="F4" t="n">
-        <v>504560</v>
+        <v>6692975</v>
       </c>
       <c r="G4" t="n">
-        <v>1018542</v>
+        <v>13439418</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5046252388217668</v>
+        <v>-0.5019892230452241</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1055</v>
+        <v>1887</v>
       </c>
       <c r="C5" t="n">
-        <v>1055</v>
+        <v>1910.7</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.1</v>
+        <v>1875.7</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.8</v>
+        <v>1894</v>
       </c>
       <c r="F5" t="n">
-        <v>422479</v>
+        <v>2620140</v>
       </c>
       <c r="G5" t="n">
-        <v>947610</v>
+        <v>5205333</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5541636327181013</v>
+        <v>-0.4966431542420053</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2740</v>
+        <v>2013.9</v>
       </c>
       <c r="C6" t="n">
-        <v>2748.7</v>
+        <v>2023.8</v>
       </c>
       <c r="D6" t="n">
-        <v>2675.1</v>
+        <v>2002.1</v>
       </c>
       <c r="E6" t="n">
-        <v>2685.3</v>
+        <v>2015</v>
       </c>
       <c r="F6" t="n">
-        <v>922825</v>
+        <v>1077230</v>
       </c>
       <c r="G6" t="n">
-        <v>1849519</v>
+        <v>2459026</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5010459476220575</v>
+        <v>-0.561928178067251</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.5</v>
+        <v>5360</v>
       </c>
       <c r="C7" t="n">
-        <v>290.55</v>
+        <v>5419.5</v>
       </c>
       <c r="D7" t="n">
-        <v>283.1</v>
+        <v>5348.5</v>
       </c>
       <c r="E7" t="n">
-        <v>285.2</v>
+        <v>5370</v>
       </c>
       <c r="F7" t="n">
-        <v>2774294</v>
+        <v>517415</v>
       </c>
       <c r="G7" t="n">
-        <v>6743439</v>
+        <v>1187848</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.588593594455292</v>
+        <v>-0.564409756130414</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>271.7</v>
+        <v>1074</v>
       </c>
       <c r="C8" t="n">
-        <v>271.7</v>
+        <v>1077.5</v>
       </c>
       <c r="D8" t="n">
-        <v>265.2</v>
+        <v>1061.2</v>
       </c>
       <c r="E8" t="n">
-        <v>265.45</v>
+        <v>1075</v>
       </c>
       <c r="F8" t="n">
-        <v>4988447</v>
+        <v>1130356</v>
       </c>
       <c r="G8" t="n">
-        <v>11539140</v>
+        <v>2407789</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5676933462979044</v>
+        <v>-0.5305419204091388</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>TATACONSUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GRASIM</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2810</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2837.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2786.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2807.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>495200</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1177036</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5792821969761333</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>GRASIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TRENT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5557</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5617</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5494</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5515.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>622758</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1412461</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5590972069317313</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TRENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12680</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12738</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12530</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12592</v>
+      </c>
+      <c r="F11" t="n">
+        <v>153774</v>
+      </c>
+      <c r="G11" t="n">
+        <v>305040</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.495889063729347</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1216.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1191</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1206.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1434458</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3346196</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5713168027216576</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGPOWER</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>744.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>749</v>
+      </c>
+      <c r="D13" t="n">
+        <v>735.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>738</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2558134</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5488085</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.533874930872973</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CGPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1584.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1589.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1564.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1578</v>
+      </c>
+      <c r="F14" t="n">
+        <v>463270</v>
+      </c>
+      <c r="G14" t="n">
+        <v>937677</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5059386121233644</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ICICIGI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1880.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1842</v>
+      </c>
+      <c r="F15" t="n">
+        <v>524534</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1112492</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5285053735217872</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ICICIGI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1513.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1521.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1521</v>
+      </c>
+      <c r="F16" t="n">
+        <v>896999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1802584</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5023815811080093</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1247.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1268.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1247.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1254.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2000299</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4765192</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5802269877058469</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1580.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1608.2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1574.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1576.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>561180</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1321358</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5753005619975813</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>654.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>661.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>650.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>657.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1227777</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2541357</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5168813354440167</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KALYANKJIL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>505</v>
+      </c>
+      <c r="C20" t="n">
+        <v>507.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>498.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>502.45</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3099877</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6322679</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5097209584734572</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>KALYANKJIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17852</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17960</v>
+      </c>
+      <c r="D21" t="n">
+        <v>17814</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17841</v>
+      </c>
+      <c r="F21" t="n">
+        <v>123212</v>
+      </c>
+      <c r="G21" t="n">
+        <v>283060</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5647141948703455</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1957.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1942.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>270112</v>
+      </c>
+      <c r="G22" t="n">
+        <v>664247</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5933560859138243</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3949</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3974.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3902.1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3922</v>
+      </c>
+      <c r="F23" t="n">
+        <v>273518</v>
+      </c>
+      <c r="G23" t="n">
+        <v>554427</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.5066654401751719</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SOLARINDS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14079</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14189</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13840</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13946</v>
+      </c>
+      <c r="F24" t="n">
+        <v>46037</v>
+      </c>
+      <c r="G24" t="n">
+        <v>113228</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.5934132899989402</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SOLARINDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>740</v>
+      </c>
+      <c r="C25" t="n">
+        <v>740.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>726</v>
+      </c>
+      <c r="E25" t="n">
+        <v>731.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1035892</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2251956</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.540003445893259</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2568</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2590.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2543.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2545</v>
+      </c>
+      <c r="F26" t="n">
+        <v>176380</v>
+      </c>
+      <c r="G26" t="n">
+        <v>421469</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.5815113329805988</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>697.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>700.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>684.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>688.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1054221</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2075117</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.4919703322752404</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>655.05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>662.95</v>
+      </c>
+      <c r="D28" t="n">
+        <v>644.25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>647.15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>413652</v>
+      </c>
+      <c r="G28" t="n">
+        <v>865487</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.5220586791020547</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1875.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1878.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1816</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1828.4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>898138</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2173363</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.5867519599809143</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
@@ -723,7 +1416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,396 +1474,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1409.9</v>
+        <v>1430</v>
       </c>
       <c r="C2" t="n">
-        <v>1415.1</v>
+        <v>1453</v>
       </c>
       <c r="D2" t="n">
-        <v>1401.9</v>
+        <v>1425.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1408</v>
+        <v>1450.4</v>
       </c>
       <c r="F2" t="n">
-        <v>10564859</v>
+        <v>1072097</v>
       </c>
       <c r="G2" t="n">
-        <v>7163073</v>
+        <v>749436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4749059516774435</v>
+        <v>0.4305384315672052</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>BDL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13000</v>
+        <v>276</v>
       </c>
       <c r="C3" t="n">
-        <v>13097</v>
+        <v>285.3</v>
       </c>
       <c r="D3" t="n">
-        <v>12634</v>
+        <v>275.9</v>
       </c>
       <c r="E3" t="n">
-        <v>12646</v>
+        <v>281.05</v>
       </c>
       <c r="F3" t="n">
-        <v>305040</v>
+        <v>5029052</v>
       </c>
       <c r="G3" t="n">
-        <v>214101</v>
+        <v>3582121</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4247481328905516</v>
+        <v>0.403931357985953</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>TATATECH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.07</v>
+        <v>676.2</v>
       </c>
       <c r="C4" t="n">
-        <v>239.35</v>
+        <v>680.6</v>
       </c>
       <c r="D4" t="n">
-        <v>235.43</v>
+        <v>666.4</v>
       </c>
       <c r="E4" t="n">
-        <v>236.01</v>
+        <v>674.9</v>
       </c>
       <c r="F4" t="n">
-        <v>8778730</v>
+        <v>582676</v>
       </c>
       <c r="G4" t="n">
-        <v>5921193</v>
+        <v>376569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4825948081746364</v>
+        <v>0.5473286436217533</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>TATATECH</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>1126</v>
+        <v>87.12</v>
       </c>
       <c r="D5" t="n">
-        <v>1067.2</v>
+        <v>84.93000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1074</v>
+        <v>86.14</v>
       </c>
       <c r="F5" t="n">
-        <v>2407789</v>
+        <v>6483794</v>
       </c>
       <c r="G5" t="n">
-        <v>1649975</v>
+        <v>4469534</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4592881710328944</v>
+        <v>0.450664431683482</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1475</v>
+        <v>1296.7</v>
       </c>
       <c r="C6" t="n">
-        <v>1486.7</v>
+        <v>1298.9</v>
       </c>
       <c r="D6" t="n">
-        <v>1447.5</v>
+        <v>1258</v>
       </c>
       <c r="E6" t="n">
-        <v>1463</v>
+        <v>1265</v>
       </c>
       <c r="F6" t="n">
-        <v>1738436</v>
+        <v>309076</v>
       </c>
       <c r="G6" t="n">
-        <v>1087452</v>
+        <v>200798</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5986323994070543</v>
+        <v>0.5392384386298669</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>778</v>
+        <v>1560.7</v>
       </c>
       <c r="C7" t="n">
-        <v>789.75</v>
+        <v>1570</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5</v>
+        <v>1494.6</v>
       </c>
       <c r="E7" t="n">
-        <v>776.9</v>
+        <v>1512</v>
       </c>
       <c r="F7" t="n">
-        <v>1973939</v>
+        <v>1200337</v>
       </c>
       <c r="G7" t="n">
-        <v>1347348</v>
+        <v>854818</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4650550563031971</v>
+        <v>0.4042018300971669</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.85</v>
+        <v>783.95</v>
       </c>
       <c r="C8" t="n">
-        <v>319.85</v>
+        <v>794</v>
       </c>
       <c r="D8" t="n">
-        <v>312.5</v>
+        <v>776.95</v>
       </c>
       <c r="E8" t="n">
-        <v>313</v>
+        <v>792.5</v>
       </c>
       <c r="F8" t="n">
-        <v>5225640</v>
+        <v>1512725</v>
       </c>
       <c r="G8" t="n">
-        <v>3405312</v>
+        <v>970724</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5345554239963916</v>
+        <v>0.5583471718016656</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BPCL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CANBK</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>109.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>105.94</v>
-      </c>
-      <c r="E9" t="n">
-        <v>106.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12953562</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9179806</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4110932191813204</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CANBK</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2610.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2610.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2563.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2575</v>
-      </c>
-      <c r="F10" t="n">
-        <v>421469</v>
-      </c>
-      <c r="G10" t="n">
-        <v>284743</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4801733493009486</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7250</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7325</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7236</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7250</v>
-      </c>
-      <c r="F11" t="n">
-        <v>197453</v>
-      </c>
-      <c r="G11" t="n">
-        <v>130949</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5078618393420339</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SOLARINDS</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14370</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14378</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13810</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14050</v>
-      </c>
-      <c r="F12" t="n">
-        <v>113228</v>
-      </c>
-      <c r="G12" t="n">
-        <v>74883</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5120654888292403</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SOLARINDS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>516.35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>518.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>500.45</v>
-      </c>
-      <c r="E13" t="n">
-        <v>502.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6322679</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4309669</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4670915562192827</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,924 +484,594 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3511</v>
+        <v>407.45</v>
       </c>
       <c r="C2" t="n">
-        <v>3577.8</v>
+        <v>410.55</v>
       </c>
       <c r="D2" t="n">
-        <v>3481.5</v>
+        <v>406.8</v>
       </c>
       <c r="E2" t="n">
-        <v>3562.9</v>
+        <v>408.4</v>
       </c>
       <c r="F2" t="n">
-        <v>3700943</v>
+        <v>7419022</v>
       </c>
       <c r="G2" t="n">
-        <v>7600320</v>
+        <v>16000675</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5130543187655257</v>
+        <v>-0.5363306860491823</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1363</v>
+        <v>2795.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1381</v>
+        <v>2823.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1359.3</v>
+        <v>2795.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1375.7</v>
+        <v>2800</v>
       </c>
       <c r="F3" t="n">
-        <v>5777575</v>
+        <v>229922</v>
       </c>
       <c r="G3" t="n">
-        <v>13223177</v>
+        <v>495200</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5630720968190928</v>
+        <v>-0.5356987075928917</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>690.9</v>
+        <v>469.7</v>
       </c>
       <c r="C4" t="n">
-        <v>697.35</v>
+        <v>477.9</v>
       </c>
       <c r="D4" t="n">
-        <v>683.1</v>
+        <v>469.25</v>
       </c>
       <c r="E4" t="n">
-        <v>693.5</v>
+        <v>475</v>
       </c>
       <c r="F4" t="n">
-        <v>6692975</v>
+        <v>6635305</v>
       </c>
       <c r="G4" t="n">
-        <v>13439418</v>
+        <v>13613187</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5019892230452241</v>
+        <v>-0.5125825422070526</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>VBL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887</v>
+        <v>1187.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1910.7</v>
+        <v>1192</v>
       </c>
       <c r="D5" t="n">
-        <v>1875.7</v>
+        <v>1177.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1894</v>
+        <v>1181.1</v>
       </c>
       <c r="F5" t="n">
-        <v>2620140</v>
+        <v>308691</v>
       </c>
       <c r="G5" t="n">
-        <v>5205333</v>
+        <v>638996</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4966431542420053</v>
+        <v>-0.5169124689356428</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2013.9</v>
+        <v>878.9</v>
       </c>
       <c r="C6" t="n">
-        <v>2023.8</v>
+        <v>882.2</v>
       </c>
       <c r="D6" t="n">
-        <v>2002.1</v>
+        <v>871.6</v>
       </c>
       <c r="E6" t="n">
-        <v>2015</v>
+        <v>877</v>
       </c>
       <c r="F6" t="n">
-        <v>1077230</v>
+        <v>484893</v>
       </c>
       <c r="G6" t="n">
-        <v>2459026</v>
+        <v>990252</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.561928178067251</v>
+        <v>-0.5103337332315411</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5360</v>
+        <v>1014.05</v>
       </c>
       <c r="C7" t="n">
-        <v>5419.5</v>
+        <v>1022.9</v>
       </c>
       <c r="D7" t="n">
-        <v>5348.5</v>
+        <v>1006.05</v>
       </c>
       <c r="E7" t="n">
-        <v>5370</v>
+        <v>1010</v>
       </c>
       <c r="F7" t="n">
-        <v>517415</v>
+        <v>777187</v>
       </c>
       <c r="G7" t="n">
-        <v>1187848</v>
+        <v>1860389</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.564409756130414</v>
+        <v>-0.5822448960943114</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1074</v>
+        <v>1524.6</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.5</v>
+        <v>1549.1</v>
       </c>
       <c r="D8" t="n">
-        <v>1061.2</v>
+        <v>1520</v>
       </c>
       <c r="E8" t="n">
-        <v>1075</v>
+        <v>1537.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1130356</v>
+        <v>513985</v>
       </c>
       <c r="G8" t="n">
-        <v>2407789</v>
+        <v>1200337</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5305419204091388</v>
+        <v>-0.571799419662978</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2810</v>
+        <v>7.45</v>
       </c>
       <c r="C9" t="n">
-        <v>2837.5</v>
+        <v>7.45</v>
       </c>
       <c r="D9" t="n">
-        <v>2786.1</v>
+        <v>7.17</v>
       </c>
       <c r="E9" t="n">
-        <v>2807.9</v>
+        <v>7.35</v>
       </c>
       <c r="F9" t="n">
-        <v>495200</v>
+        <v>793222822</v>
       </c>
       <c r="G9" t="n">
-        <v>1177036</v>
+        <v>1719413311</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5792821969761333</v>
+        <v>-0.5386665806729933</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5557</v>
+        <v>2329</v>
       </c>
       <c r="C10" t="n">
-        <v>5617</v>
+        <v>2388.9</v>
       </c>
       <c r="D10" t="n">
-        <v>5494</v>
+        <v>2323.2</v>
       </c>
       <c r="E10" t="n">
-        <v>5515.5</v>
+        <v>2350.2</v>
       </c>
       <c r="F10" t="n">
-        <v>622758</v>
+        <v>3680062</v>
       </c>
       <c r="G10" t="n">
-        <v>1412461</v>
+        <v>7981732</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5590972069317313</v>
+        <v>-0.5389394181613715</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12680</v>
+        <v>500</v>
       </c>
       <c r="C11" t="n">
-        <v>12738</v>
+        <v>509.95</v>
       </c>
       <c r="D11" t="n">
-        <v>12530</v>
+        <v>500</v>
       </c>
       <c r="E11" t="n">
-        <v>12592</v>
+        <v>507.5</v>
       </c>
       <c r="F11" t="n">
-        <v>153774</v>
+        <v>1576902</v>
       </c>
       <c r="G11" t="n">
-        <v>305040</v>
+        <v>3099877</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.495889063729347</v>
+        <v>-0.4913017516501461</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1212</v>
+        <v>1794.9</v>
       </c>
       <c r="C12" t="n">
-        <v>1216.4</v>
+        <v>1802.9</v>
       </c>
       <c r="D12" t="n">
-        <v>1191</v>
+        <v>1790</v>
       </c>
       <c r="E12" t="n">
-        <v>1206.9</v>
+        <v>1797</v>
       </c>
       <c r="F12" t="n">
-        <v>1434458</v>
+        <v>137418</v>
       </c>
       <c r="G12" t="n">
-        <v>3346196</v>
+        <v>327517</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5713168027216576</v>
+        <v>-0.5804248329094368</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.8</v>
+        <v>1470.1</v>
       </c>
       <c r="C13" t="n">
-        <v>749</v>
+        <v>1474.7</v>
       </c>
       <c r="D13" t="n">
-        <v>735.4</v>
+        <v>1453.6</v>
       </c>
       <c r="E13" t="n">
-        <v>738</v>
+        <v>1459.5</v>
       </c>
       <c r="F13" t="n">
-        <v>2558134</v>
+        <v>455948</v>
       </c>
       <c r="G13" t="n">
-        <v>5488085</v>
+        <v>989366</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.533874930872973</v>
+        <v>-0.5391513352995757</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.7</v>
+        <v>1451</v>
       </c>
       <c r="C14" t="n">
-        <v>1589.8</v>
+        <v>1457.4</v>
       </c>
       <c r="D14" t="n">
-        <v>1564.2</v>
+        <v>1438.1</v>
       </c>
       <c r="E14" t="n">
-        <v>1578</v>
+        <v>1442</v>
       </c>
       <c r="F14" t="n">
-        <v>463270</v>
+        <v>504473</v>
       </c>
       <c r="G14" t="n">
-        <v>937677</v>
+        <v>1072097</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5059386121233644</v>
+        <v>-0.5294520924878999</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>BDL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1875</v>
+        <v>730.8</v>
       </c>
       <c r="C15" t="n">
-        <v>1880.7</v>
+        <v>736</v>
       </c>
       <c r="D15" t="n">
-        <v>1830</v>
+        <v>728.7</v>
       </c>
       <c r="E15" t="n">
-        <v>1842</v>
+        <v>730</v>
       </c>
       <c r="F15" t="n">
-        <v>524534</v>
+        <v>455182</v>
       </c>
       <c r="G15" t="n">
-        <v>1112492</v>
+        <v>1035892</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5285053735217872</v>
+        <v>-0.5605893278449877</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>MARICO</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1513.4</v>
+        <v>1233</v>
       </c>
       <c r="C16" t="n">
-        <v>1521.8</v>
+        <v>1238.2</v>
       </c>
       <c r="D16" t="n">
-        <v>1485</v>
+        <v>1217.9</v>
       </c>
       <c r="E16" t="n">
-        <v>1521</v>
+        <v>1227.4</v>
       </c>
       <c r="F16" t="n">
-        <v>896999</v>
+        <v>462820</v>
       </c>
       <c r="G16" t="n">
-        <v>1802584</v>
+        <v>1009918</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5023815811080093</v>
+        <v>-0.5417251697662583</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1247.1</v>
+        <v>399.75</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.7</v>
+        <v>399.75</v>
       </c>
       <c r="D17" t="n">
-        <v>1247.1</v>
+        <v>390.95</v>
       </c>
       <c r="E17" t="n">
-        <v>1254.6</v>
+        <v>393.9</v>
       </c>
       <c r="F17" t="n">
-        <v>2000299</v>
+        <v>685485</v>
       </c>
       <c r="G17" t="n">
-        <v>4765192</v>
+        <v>1501955</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5802269877058469</v>
+        <v>-0.5436048350316753</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>OIL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>CAMS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1580.9</v>
+        <v>3850</v>
       </c>
       <c r="C18" t="n">
-        <v>1608.2</v>
+        <v>3877.1</v>
       </c>
       <c r="D18" t="n">
-        <v>1574.3</v>
+        <v>3830.2</v>
       </c>
       <c r="E18" t="n">
-        <v>1576.6</v>
+        <v>3849</v>
       </c>
       <c r="F18" t="n">
-        <v>561180</v>
+        <v>108605</v>
       </c>
       <c r="G18" t="n">
-        <v>1321358</v>
+        <v>235542</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.5753005619975813</v>
+        <v>-0.5389145035704885</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>CAMS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>NUVAMA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.9</v>
+        <v>6525</v>
       </c>
       <c r="C19" t="n">
-        <v>661.2</v>
+        <v>6542</v>
       </c>
       <c r="D19" t="n">
-        <v>650.7</v>
+        <v>6420</v>
       </c>
       <c r="E19" t="n">
-        <v>657.25</v>
+        <v>6450</v>
       </c>
       <c r="F19" t="n">
-        <v>1227777</v>
+        <v>58511</v>
       </c>
       <c r="G19" t="n">
-        <v>2541357</v>
+        <v>117664</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5168813354440167</v>
+        <v>-0.50272810715257</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>505</v>
-      </c>
-      <c r="C20" t="n">
-        <v>507.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>498.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>502.45</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3099877</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6322679</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5097209584734572</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>17852</v>
-      </c>
-      <c r="C21" t="n">
-        <v>17960</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17814</v>
-      </c>
-      <c r="E21" t="n">
-        <v>17841</v>
-      </c>
-      <c r="F21" t="n">
-        <v>123212</v>
-      </c>
-      <c r="G21" t="n">
-        <v>283060</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.5647141948703455</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>BLUESTARCO</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1944</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1957.3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1921</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1942.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>270112</v>
-      </c>
-      <c r="G22" t="n">
-        <v>664247</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.5933560859138243</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>BLUESTARCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>3949</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3974.4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3902.1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3922</v>
-      </c>
-      <c r="F23" t="n">
-        <v>273518</v>
-      </c>
-      <c r="G23" t="n">
-        <v>554427</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.5066654401751719</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SOLARINDS</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>14079</v>
-      </c>
-      <c r="C24" t="n">
-        <v>14189</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13840</v>
-      </c>
-      <c r="E24" t="n">
-        <v>13946</v>
-      </c>
-      <c r="F24" t="n">
-        <v>46037</v>
-      </c>
-      <c r="G24" t="n">
-        <v>113228</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.5934132899989402</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>SOLARINDS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>740</v>
-      </c>
-      <c r="C25" t="n">
-        <v>740.45</v>
-      </c>
-      <c r="D25" t="n">
-        <v>726</v>
-      </c>
-      <c r="E25" t="n">
-        <v>731.75</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1035892</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2251956</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.540003445893259</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2568</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2590.9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2543.8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2545</v>
-      </c>
-      <c r="F26" t="n">
-        <v>176380</v>
-      </c>
-      <c r="G26" t="n">
-        <v>421469</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-0.5815113329805988</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>697.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>700.9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>684.2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>688.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1054221</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2075117</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.4919703322752404</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>655.05</v>
-      </c>
-      <c r="C28" t="n">
-        <v>662.95</v>
-      </c>
-      <c r="D28" t="n">
-        <v>644.25</v>
-      </c>
-      <c r="E28" t="n">
-        <v>647.15</v>
-      </c>
-      <c r="F28" t="n">
-        <v>413652</v>
-      </c>
-      <c r="G28" t="n">
-        <v>865487</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-0.5220586791020547</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1875.6</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1878.7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1816</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1828.4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>898138</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2173363</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.5867519599809143</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,231 +1144,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1430</v>
+        <v>6570.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1453</v>
+        <v>6848</v>
       </c>
       <c r="D2" t="n">
-        <v>1425.8</v>
+        <v>6569</v>
       </c>
       <c r="E2" t="n">
-        <v>1450.4</v>
+        <v>6798</v>
       </c>
       <c r="F2" t="n">
-        <v>1072097</v>
+        <v>968116</v>
       </c>
       <c r="G2" t="n">
-        <v>749436</v>
+        <v>610721</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4305384315672052</v>
+        <v>0.5852017533374487</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276</v>
+        <v>14921</v>
       </c>
       <c r="C3" t="n">
-        <v>285.3</v>
+        <v>15319</v>
       </c>
       <c r="D3" t="n">
-        <v>275.9</v>
+        <v>14850</v>
       </c>
       <c r="E3" t="n">
-        <v>281.05</v>
+        <v>15256</v>
       </c>
       <c r="F3" t="n">
-        <v>5029052</v>
+        <v>691077</v>
       </c>
       <c r="G3" t="n">
-        <v>3582121</v>
+        <v>473806</v>
       </c>
       <c r="H3" t="n">
-        <v>0.403931357985953</v>
+        <v>0.4585653199832843</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.2</v>
+        <v>5370</v>
       </c>
       <c r="C4" t="n">
-        <v>680.6</v>
+        <v>5524.5</v>
       </c>
       <c r="D4" t="n">
-        <v>666.4</v>
+        <v>5335</v>
       </c>
       <c r="E4" t="n">
-        <v>674.9</v>
+        <v>5439.5</v>
       </c>
       <c r="F4" t="n">
-        <v>582676</v>
+        <v>726543</v>
       </c>
       <c r="G4" t="n">
-        <v>376569</v>
+        <v>517415</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5473286436217533</v>
+        <v>0.4041784640955519</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.09999999999999</v>
+        <v>5540</v>
       </c>
       <c r="C5" t="n">
-        <v>87.12</v>
+        <v>5555.5</v>
       </c>
       <c r="D5" t="n">
-        <v>84.93000000000001</v>
+        <v>5300</v>
       </c>
       <c r="E5" t="n">
-        <v>86.14</v>
+        <v>5308</v>
       </c>
       <c r="F5" t="n">
-        <v>6483794</v>
+        <v>876255</v>
       </c>
       <c r="G5" t="n">
-        <v>4469534</v>
+        <v>622758</v>
       </c>
       <c r="H5" t="n">
-        <v>0.450664431683482</v>
+        <v>0.4070553890917499</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1296.7</v>
+        <v>505.2</v>
       </c>
       <c r="C6" t="n">
-        <v>1298.9</v>
+        <v>520</v>
       </c>
       <c r="D6" t="n">
-        <v>1258</v>
+        <v>505.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1265</v>
+        <v>510.2</v>
       </c>
       <c r="F6" t="n">
-        <v>309076</v>
+        <v>1649154</v>
       </c>
       <c r="G6" t="n">
-        <v>200798</v>
+        <v>1075403</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5392384386298669</v>
+        <v>0.5335218518081128</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1560.7</v>
+        <v>1314.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1570</v>
+        <v>1317</v>
       </c>
       <c r="D7" t="n">
-        <v>1494.6</v>
+        <v>1294.3</v>
       </c>
       <c r="E7" t="n">
-        <v>1512</v>
+        <v>1295</v>
       </c>
       <c r="F7" t="n">
-        <v>1200337</v>
+        <v>822646</v>
       </c>
       <c r="G7" t="n">
-        <v>854818</v>
+        <v>551551</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4042018300971669</v>
+        <v>0.4915139307153826</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>783.95</v>
+        <v>441</v>
       </c>
       <c r="C8" t="n">
-        <v>794</v>
+        <v>441.95</v>
       </c>
       <c r="D8" t="n">
-        <v>776.95</v>
+        <v>433.35</v>
       </c>
       <c r="E8" t="n">
-        <v>792.5</v>
+        <v>434.35</v>
       </c>
       <c r="F8" t="n">
-        <v>1512725</v>
+        <v>11885826</v>
       </c>
       <c r="G8" t="n">
-        <v>970724</v>
+        <v>8277809</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5583471718016656</v>
+        <v>0.4358661814980268</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>VEDL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>384.15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>395.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>384.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>394</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2956578</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2017875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4651938301430961</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>691</v>
+      </c>
+      <c r="C10" t="n">
+        <v>708</v>
+      </c>
+      <c r="D10" t="n">
+        <v>691</v>
+      </c>
+      <c r="E10" t="n">
+        <v>707</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1677209</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1054221</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5909463006333586</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>294.95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5034951</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3249849</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5492876745965736</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>883.85</v>
+      </c>
+      <c r="C12" t="n">
+        <v>905.65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>877.85</v>
+      </c>
+      <c r="E12" t="n">
+        <v>895.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1630387</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1035333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.574746482532673</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,594 +484,462 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.45</v>
+        <v>721.15</v>
       </c>
       <c r="C2" t="n">
-        <v>410.55</v>
+        <v>722.25</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8</v>
+        <v>713.5</v>
       </c>
       <c r="E2" t="n">
-        <v>408.4</v>
+        <v>715.2</v>
       </c>
       <c r="F2" t="n">
-        <v>7419022</v>
+        <v>9409853</v>
       </c>
       <c r="G2" t="n">
-        <v>16000675</v>
+        <v>20531027</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5363306860491823</v>
+        <v>-0.5416764587567879</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2795.1</v>
+        <v>1300</v>
       </c>
       <c r="C3" t="n">
-        <v>2823.9</v>
+        <v>1307.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2795.1</v>
+        <v>1291.7</v>
       </c>
       <c r="E3" t="n">
-        <v>2800</v>
+        <v>1305</v>
       </c>
       <c r="F3" t="n">
-        <v>229922</v>
+        <v>411404</v>
       </c>
       <c r="G3" t="n">
-        <v>495200</v>
+        <v>822646</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5356987075928917</v>
+        <v>-0.499901537234728</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>477.9</v>
+        <v>99.5</v>
       </c>
       <c r="D4" t="n">
-        <v>469.25</v>
+        <v>97.25</v>
       </c>
       <c r="E4" t="n">
-        <v>475</v>
+        <v>98.8</v>
       </c>
       <c r="F4" t="n">
-        <v>6635305</v>
+        <v>22643077</v>
       </c>
       <c r="G4" t="n">
-        <v>13613187</v>
+        <v>56299081</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5125825422070526</v>
+        <v>-0.5978073425390372</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.9</v>
+        <v>6025</v>
       </c>
       <c r="C5" t="n">
-        <v>1192</v>
+        <v>6050</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.2</v>
+        <v>5997.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.1</v>
+        <v>6005</v>
       </c>
       <c r="F5" t="n">
-        <v>308691</v>
+        <v>254569</v>
       </c>
       <c r="G5" t="n">
-        <v>638996</v>
+        <v>519368</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5169124689356428</v>
+        <v>-0.5098485081868733</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878.9</v>
+        <v>3591.3</v>
       </c>
       <c r="C6" t="n">
-        <v>882.2</v>
+        <v>3597.3</v>
       </c>
       <c r="D6" t="n">
-        <v>871.6</v>
+        <v>3544.4</v>
       </c>
       <c r="E6" t="n">
-        <v>877</v>
+        <v>3574</v>
       </c>
       <c r="F6" t="n">
-        <v>484893</v>
+        <v>675896</v>
       </c>
       <c r="G6" t="n">
-        <v>990252</v>
+        <v>1406946</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5103337332315411</v>
+        <v>-0.5196006101158112</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1014.05</v>
+        <v>1043</v>
       </c>
       <c r="C7" t="n">
-        <v>1022.9</v>
+        <v>1044.45</v>
       </c>
       <c r="D7" t="n">
-        <v>1006.05</v>
+        <v>1023.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1010</v>
+        <v>1033</v>
       </c>
       <c r="F7" t="n">
-        <v>777187</v>
+        <v>766328</v>
       </c>
       <c r="G7" t="n">
-        <v>1860389</v>
+        <v>1823229</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5822448960943114</v>
+        <v>-0.5796863696222472</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1524.6</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>1549.1</v>
+        <v>92.48</v>
       </c>
       <c r="D8" t="n">
-        <v>1520</v>
+        <v>89.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1537.2</v>
+        <v>91.05</v>
       </c>
       <c r="F8" t="n">
-        <v>513985</v>
+        <v>18714097</v>
       </c>
       <c r="G8" t="n">
-        <v>1200337</v>
+        <v>40149600</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.571799419662978</v>
+        <v>-0.5338908233207803</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.45</v>
+        <v>1539.9</v>
       </c>
       <c r="C9" t="n">
-        <v>7.45</v>
+        <v>1550.9</v>
       </c>
       <c r="D9" t="n">
-        <v>7.17</v>
+        <v>1530</v>
       </c>
       <c r="E9" t="n">
-        <v>7.35</v>
+        <v>1545</v>
       </c>
       <c r="F9" t="n">
-        <v>793222822</v>
+        <v>206951</v>
       </c>
       <c r="G9" t="n">
-        <v>1719413311</v>
+        <v>513985</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5386665806729933</v>
+        <v>-0.5973598451316673</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2329</v>
+        <v>595</v>
       </c>
       <c r="C10" t="n">
-        <v>2388.9</v>
+        <v>598.2</v>
       </c>
       <c r="D10" t="n">
-        <v>2323.2</v>
+        <v>592.05</v>
       </c>
       <c r="E10" t="n">
-        <v>2350.2</v>
+        <v>594.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3680062</v>
+        <v>217589</v>
       </c>
       <c r="G10" t="n">
-        <v>7981732</v>
+        <v>431824</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5389394181613715</v>
+        <v>-0.4961164733780429</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>ATGL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>500</v>
+        <v>2421.8</v>
       </c>
       <c r="C11" t="n">
-        <v>509.95</v>
+        <v>2421.8</v>
       </c>
       <c r="D11" t="n">
-        <v>500</v>
+        <v>2403.1</v>
       </c>
       <c r="E11" t="n">
-        <v>507.5</v>
+        <v>2410.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1576902</v>
+        <v>142687</v>
       </c>
       <c r="G11" t="n">
-        <v>3099877</v>
+        <v>315525</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4913017516501461</v>
+        <v>-0.5477790983281832</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1794.9</v>
+        <v>698</v>
       </c>
       <c r="C12" t="n">
-        <v>1802.9</v>
+        <v>699.75</v>
       </c>
       <c r="D12" t="n">
-        <v>1790</v>
+        <v>694.85</v>
       </c>
       <c r="E12" t="n">
-        <v>1797</v>
+        <v>696.55</v>
       </c>
       <c r="F12" t="n">
-        <v>137418</v>
+        <v>898505</v>
       </c>
       <c r="G12" t="n">
-        <v>327517</v>
+        <v>1949781</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5804248329094368</v>
+        <v>-0.539176451098867</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1470.1</v>
+        <v>137.54</v>
       </c>
       <c r="C13" t="n">
-        <v>1474.7</v>
+        <v>137.7</v>
       </c>
       <c r="D13" t="n">
-        <v>1453.6</v>
+        <v>134.82</v>
       </c>
       <c r="E13" t="n">
-        <v>1459.5</v>
+        <v>135.06</v>
       </c>
       <c r="F13" t="n">
-        <v>455948</v>
+        <v>15017284</v>
       </c>
       <c r="G13" t="n">
-        <v>989366</v>
+        <v>33590663</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5391513352995757</v>
+        <v>-0.5529327896862292</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1451</v>
+        <v>803</v>
       </c>
       <c r="C14" t="n">
-        <v>1457.4</v>
+        <v>810</v>
       </c>
       <c r="D14" t="n">
-        <v>1438.1</v>
+        <v>799.2</v>
       </c>
       <c r="E14" t="n">
-        <v>1442</v>
+        <v>800.6</v>
       </c>
       <c r="F14" t="n">
-        <v>504473</v>
+        <v>1103494</v>
       </c>
       <c r="G14" t="n">
-        <v>1072097</v>
+        <v>2561729</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5294520924878999</v>
+        <v>-0.5692385884689598</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>ANGELONE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>730.8</v>
+        <v>2350</v>
       </c>
       <c r="C15" t="n">
-        <v>736</v>
+        <v>2356</v>
       </c>
       <c r="D15" t="n">
-        <v>728.7</v>
+        <v>2323.1</v>
       </c>
       <c r="E15" t="n">
-        <v>730</v>
+        <v>2336.6</v>
       </c>
       <c r="F15" t="n">
-        <v>455182</v>
+        <v>338579</v>
       </c>
       <c r="G15" t="n">
-        <v>1035892</v>
+        <v>786620</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5605893278449877</v>
+        <v>-0.5695774325595586</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MARICO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>KPITTECH</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1233</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1238.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1217.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1227.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>462820</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1009918</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5417251697662583</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>KPITTECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>399.75</v>
-      </c>
-      <c r="C17" t="n">
-        <v>399.75</v>
-      </c>
-      <c r="D17" t="n">
-        <v>390.95</v>
-      </c>
-      <c r="E17" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>685485</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1501955</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5436048350316753</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CAMS</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3850</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3877.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3830.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3849</v>
-      </c>
-      <c r="F18" t="n">
-        <v>108605</v>
-      </c>
-      <c r="G18" t="n">
-        <v>235542</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5389145035704885</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>CAMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6525</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6542</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6420</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6450</v>
-      </c>
-      <c r="F19" t="n">
-        <v>58511</v>
-      </c>
-      <c r="G19" t="n">
-        <v>117664</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.50272810715257</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
@@ -1086,7 +954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,363 +1012,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6570.5</v>
+        <v>371.9</v>
       </c>
       <c r="C2" t="n">
-        <v>6848</v>
+        <v>374</v>
       </c>
       <c r="D2" t="n">
-        <v>6569</v>
+        <v>369.9</v>
       </c>
       <c r="E2" t="n">
-        <v>6798</v>
+        <v>373</v>
       </c>
       <c r="F2" t="n">
-        <v>968116</v>
+        <v>10598912</v>
       </c>
       <c r="G2" t="n">
-        <v>610721</v>
+        <v>6897641</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5852017533374487</v>
+        <v>0.5365995417853727</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14921</v>
+        <v>3547.2</v>
       </c>
       <c r="C3" t="n">
-        <v>15319</v>
+        <v>3550</v>
       </c>
       <c r="D3" t="n">
-        <v>14850</v>
+        <v>3516.4</v>
       </c>
       <c r="E3" t="n">
-        <v>15256</v>
+        <v>3527.5</v>
       </c>
       <c r="F3" t="n">
-        <v>691077</v>
+        <v>1522116</v>
       </c>
       <c r="G3" t="n">
-        <v>473806</v>
+        <v>1039999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4585653199832843</v>
+        <v>0.4635744842062348</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5370</v>
+        <v>1010</v>
       </c>
       <c r="C4" t="n">
-        <v>5524.5</v>
+        <v>1038.7</v>
       </c>
       <c r="D4" t="n">
-        <v>5335</v>
+        <v>1009.2</v>
       </c>
       <c r="E4" t="n">
-        <v>5439.5</v>
+        <v>1038.5</v>
       </c>
       <c r="F4" t="n">
-        <v>726543</v>
+        <v>1228793</v>
       </c>
       <c r="G4" t="n">
-        <v>517415</v>
+        <v>777187</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4041784640955519</v>
+        <v>0.5810776556993362</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5540</v>
+        <v>5111</v>
       </c>
       <c r="C5" t="n">
-        <v>5555.5</v>
+        <v>5150</v>
       </c>
       <c r="D5" t="n">
-        <v>5300</v>
+        <v>5091</v>
       </c>
       <c r="E5" t="n">
-        <v>5308</v>
+        <v>5139.9</v>
       </c>
       <c r="F5" t="n">
-        <v>876255</v>
+        <v>150868</v>
       </c>
       <c r="G5" t="n">
-        <v>622758</v>
+        <v>101582</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4070553890917499</v>
+        <v>0.485184383059991</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>ABB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505.2</v>
+        <v>172.39</v>
       </c>
       <c r="C6" t="n">
-        <v>520</v>
+        <v>173.64</v>
       </c>
       <c r="D6" t="n">
-        <v>505.2</v>
+        <v>171.7</v>
       </c>
       <c r="E6" t="n">
-        <v>510.2</v>
+        <v>173.4</v>
       </c>
       <c r="F6" t="n">
-        <v>1649154</v>
+        <v>8186535</v>
       </c>
       <c r="G6" t="n">
-        <v>1075403</v>
+        <v>5686270</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5335218518081128</v>
+        <v>0.4397021245913402</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1314.9</v>
+        <v>4450</v>
       </c>
       <c r="C7" t="n">
-        <v>1317</v>
+        <v>4474</v>
       </c>
       <c r="D7" t="n">
-        <v>1294.3</v>
+        <v>4427.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1295</v>
+        <v>4454</v>
       </c>
       <c r="F7" t="n">
-        <v>822646</v>
+        <v>888000</v>
       </c>
       <c r="G7" t="n">
-        <v>551551</v>
+        <v>599045</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4915139307153826</v>
+        <v>0.4823594220801442</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>441</v>
+        <v>2073</v>
       </c>
       <c r="C8" t="n">
-        <v>441.95</v>
+        <v>2119.9</v>
       </c>
       <c r="D8" t="n">
-        <v>433.35</v>
+        <v>2062</v>
       </c>
       <c r="E8" t="n">
-        <v>434.35</v>
+        <v>2115.7</v>
       </c>
       <c r="F8" t="n">
-        <v>11885826</v>
+        <v>1269358</v>
       </c>
       <c r="G8" t="n">
-        <v>8277809</v>
+        <v>842874</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4358661814980268</v>
+        <v>0.505987846344768</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.15</v>
+        <v>1937.1</v>
       </c>
       <c r="C9" t="n">
-        <v>395.3</v>
+        <v>1964.5</v>
       </c>
       <c r="D9" t="n">
-        <v>384.15</v>
+        <v>1934.7</v>
       </c>
       <c r="E9" t="n">
-        <v>394</v>
+        <v>1961.9</v>
       </c>
       <c r="F9" t="n">
-        <v>2956578</v>
+        <v>486792</v>
       </c>
       <c r="G9" t="n">
-        <v>2017875</v>
+        <v>329889</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4651938301430961</v>
+        <v>0.4756236188536144</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>LUPIN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>691</v>
+        <v>430</v>
       </c>
       <c r="C10" t="n">
-        <v>708</v>
+        <v>435</v>
       </c>
       <c r="D10" t="n">
-        <v>691</v>
+        <v>426.6</v>
       </c>
       <c r="E10" t="n">
-        <v>707</v>
+        <v>430</v>
       </c>
       <c r="F10" t="n">
-        <v>1677209</v>
+        <v>424106</v>
       </c>
       <c r="G10" t="n">
-        <v>1054221</v>
+        <v>269428</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5909463006333586</v>
+        <v>0.5740977181287765</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>NUVAMA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.6</v>
+        <v>6451.5</v>
       </c>
       <c r="C11" t="n">
-        <v>294.95</v>
+        <v>6481</v>
       </c>
       <c r="D11" t="n">
-        <v>285.25</v>
+        <v>6346</v>
       </c>
       <c r="E11" t="n">
-        <v>292.4</v>
+        <v>6377.5</v>
       </c>
       <c r="F11" t="n">
-        <v>5034951</v>
+        <v>83920</v>
       </c>
       <c r="G11" t="n">
-        <v>3249849</v>
+        <v>58511</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5492876745965736</v>
+        <v>0.4342602245731572</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>883.85</v>
-      </c>
-      <c r="C12" t="n">
-        <v>905.65</v>
-      </c>
-      <c r="D12" t="n">
-        <v>877.85</v>
-      </c>
-      <c r="E12" t="n">
-        <v>895.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1630387</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1035333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.574746482532673</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,462 +484,627 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>DABUR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721.15</v>
+        <v>546.9</v>
       </c>
       <c r="C2" t="n">
-        <v>722.25</v>
+        <v>548.95</v>
       </c>
       <c r="D2" t="n">
-        <v>713.5</v>
+        <v>543.7</v>
       </c>
       <c r="E2" t="n">
-        <v>715.2</v>
+        <v>547.4</v>
       </c>
       <c r="F2" t="n">
-        <v>9409853</v>
+        <v>874876</v>
       </c>
       <c r="G2" t="n">
-        <v>20531027</v>
+        <v>1937685</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5416764587567879</v>
+        <v>-0.5484942082949499</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>DABUR</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1300</v>
+        <v>1604</v>
       </c>
       <c r="C3" t="n">
-        <v>1307.2</v>
+        <v>1615</v>
       </c>
       <c r="D3" t="n">
-        <v>1291.7</v>
+        <v>1595</v>
       </c>
       <c r="E3" t="n">
-        <v>1305</v>
+        <v>1612</v>
       </c>
       <c r="F3" t="n">
-        <v>411404</v>
+        <v>342178</v>
       </c>
       <c r="G3" t="n">
-        <v>822646</v>
+        <v>797797</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.499901537234728</v>
+        <v>-0.5710964067300328</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.09999999999999</v>
+        <v>75.25</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5</v>
+        <v>75.45</v>
       </c>
       <c r="D4" t="n">
-        <v>97.25</v>
+        <v>74.31</v>
       </c>
       <c r="E4" t="n">
-        <v>98.8</v>
+        <v>75.28</v>
       </c>
       <c r="F4" t="n">
-        <v>22643077</v>
+        <v>19325344</v>
       </c>
       <c r="G4" t="n">
-        <v>56299081</v>
+        <v>39250424</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5978073425390372</v>
+        <v>-0.5076398665145631</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6025</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>6050</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>5997.5</v>
+        <v>86.89</v>
       </c>
       <c r="E5" t="n">
-        <v>6005</v>
+        <v>87.25</v>
       </c>
       <c r="F5" t="n">
-        <v>254569</v>
+        <v>5847930</v>
       </c>
       <c r="G5" t="n">
-        <v>519368</v>
+        <v>14512873</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5098485081868733</v>
+        <v>-0.5970522170213989</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>IRB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3591.3</v>
+        <v>42.6</v>
       </c>
       <c r="C6" t="n">
-        <v>3597.3</v>
+        <v>42.82</v>
       </c>
       <c r="D6" t="n">
-        <v>3544.4</v>
+        <v>42.25</v>
       </c>
       <c r="E6" t="n">
-        <v>3574</v>
+        <v>42.43</v>
       </c>
       <c r="F6" t="n">
-        <v>675896</v>
+        <v>7852067</v>
       </c>
       <c r="G6" t="n">
-        <v>1406946</v>
+        <v>16457834</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5196006101158112</v>
+        <v>-0.5228979098950688</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>IRB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043</v>
+        <v>73.53</v>
       </c>
       <c r="C7" t="n">
-        <v>1044.45</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>1023.2</v>
+        <v>72.56</v>
       </c>
       <c r="E7" t="n">
-        <v>1033</v>
+        <v>72.69</v>
       </c>
       <c r="F7" t="n">
-        <v>766328</v>
+        <v>15934886</v>
       </c>
       <c r="G7" t="n">
-        <v>1823229</v>
+        <v>33394868</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5796863696222472</v>
+        <v>-0.5228342869928397</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.90000000000001</v>
+        <v>241.5</v>
       </c>
       <c r="C8" t="n">
-        <v>92.48</v>
+        <v>243.26</v>
       </c>
       <c r="D8" t="n">
-        <v>89.5</v>
+        <v>237</v>
       </c>
       <c r="E8" t="n">
-        <v>91.05</v>
+        <v>238.01</v>
       </c>
       <c r="F8" t="n">
-        <v>18714097</v>
+        <v>4495231</v>
       </c>
       <c r="G8" t="n">
-        <v>40149600</v>
+        <v>9459534</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5338908233207803</v>
+        <v>-0.5247936103406362</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1539.9</v>
+        <v>91.2</v>
       </c>
       <c r="C9" t="n">
-        <v>1550.9</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>1530</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1545</v>
+        <v>88.95</v>
       </c>
       <c r="F9" t="n">
-        <v>206951</v>
+        <v>8684810</v>
       </c>
       <c r="G9" t="n">
-        <v>513985</v>
+        <v>18714097</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5973598451316673</v>
+        <v>-0.5359215034527181</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>595</v>
+        <v>3177</v>
       </c>
       <c r="C10" t="n">
-        <v>598.2</v>
+        <v>3255</v>
       </c>
       <c r="D10" t="n">
-        <v>592.05</v>
+        <v>3166.1</v>
       </c>
       <c r="E10" t="n">
-        <v>594.5</v>
+        <v>3237.7</v>
       </c>
       <c r="F10" t="n">
-        <v>217589</v>
+        <v>457778</v>
       </c>
       <c r="G10" t="n">
-        <v>431824</v>
+        <v>951765</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4961164733780429</v>
+        <v>-0.5190220274962832</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2421.8</v>
+        <v>1510.1</v>
       </c>
       <c r="C11" t="n">
-        <v>2421.8</v>
+        <v>1534.9</v>
       </c>
       <c r="D11" t="n">
-        <v>2403.1</v>
+        <v>1509.3</v>
       </c>
       <c r="E11" t="n">
-        <v>2410.5</v>
+        <v>1531.6</v>
       </c>
       <c r="F11" t="n">
-        <v>142687</v>
+        <v>5795092</v>
       </c>
       <c r="G11" t="n">
-        <v>315525</v>
+        <v>13072640</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5477790983281832</v>
+        <v>-0.5567007123274258</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>698</v>
+        <v>1813.2</v>
       </c>
       <c r="C12" t="n">
-        <v>699.75</v>
+        <v>1834</v>
       </c>
       <c r="D12" t="n">
-        <v>694.85</v>
+        <v>1805</v>
       </c>
       <c r="E12" t="n">
-        <v>696.55</v>
+        <v>1825.4</v>
       </c>
       <c r="F12" t="n">
-        <v>898505</v>
+        <v>584940</v>
       </c>
       <c r="G12" t="n">
-        <v>1949781</v>
+        <v>1169126</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.539176451098867</v>
+        <v>-0.4996775368950823</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>AMBER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>137.54</v>
+        <v>7800</v>
       </c>
       <c r="C13" t="n">
-        <v>137.7</v>
+        <v>7882</v>
       </c>
       <c r="D13" t="n">
-        <v>134.82</v>
+        <v>7741</v>
       </c>
       <c r="E13" t="n">
-        <v>135.06</v>
+        <v>7870.5</v>
       </c>
       <c r="F13" t="n">
-        <v>15017284</v>
+        <v>247094</v>
       </c>
       <c r="G13" t="n">
-        <v>33590663</v>
+        <v>501584</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5529327896862292</v>
+        <v>-0.5073726434655013</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>AMBER</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>803</v>
+        <v>325.5</v>
       </c>
       <c r="C14" t="n">
-        <v>810</v>
+        <v>328.05</v>
       </c>
       <c r="D14" t="n">
-        <v>799.2</v>
+        <v>325.15</v>
       </c>
       <c r="E14" t="n">
-        <v>800.6</v>
+        <v>325.75</v>
       </c>
       <c r="F14" t="n">
-        <v>1103494</v>
+        <v>4810544</v>
       </c>
       <c r="G14" t="n">
-        <v>2561729</v>
+        <v>9735495</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5692385884689598</v>
+        <v>-0.5058757669743552</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>HUDCO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2350</v>
+        <v>217</v>
       </c>
       <c r="C15" t="n">
-        <v>2356</v>
+        <v>218.65</v>
       </c>
       <c r="D15" t="n">
-        <v>2323.1</v>
+        <v>216</v>
       </c>
       <c r="E15" t="n">
-        <v>2336.6</v>
+        <v>216.49</v>
       </c>
       <c r="F15" t="n">
-        <v>338579</v>
+        <v>2120146</v>
       </c>
       <c r="G15" t="n">
-        <v>786620</v>
+        <v>4562982</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5695774325595586</v>
+        <v>-0.5353595521525178</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>HUDCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1894.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1911.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1877</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1891.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>154261</v>
+      </c>
+      <c r="G16" t="n">
+        <v>319720</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5175121981734018</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2642</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2652.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2619</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2638.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>759748</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1610956</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5283868709015019</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>525</v>
+      </c>
+      <c r="C18" t="n">
+        <v>527.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>517.85</v>
+      </c>
+      <c r="E18" t="n">
+        <v>521</v>
+      </c>
+      <c r="F18" t="n">
+        <v>581458</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1145622</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.4924521351719852</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PIDILITIND</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3114.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3062.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3066.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>124194</v>
+      </c>
+      <c r="G19" t="n">
+        <v>307829</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5965487332252647</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PIDILITIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TORNTPHARM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3644.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3676.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3567.2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3590.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>98182</v>
+      </c>
+      <c r="G20" t="n">
+        <v>221678</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5570963289094993</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
@@ -954,7 +1119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,330 +1177,1155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.9</v>
+        <v>1083.5</v>
       </c>
       <c r="C2" t="n">
-        <v>374</v>
+        <v>1103</v>
       </c>
       <c r="D2" t="n">
-        <v>369.9</v>
+        <v>1081.7</v>
       </c>
       <c r="E2" t="n">
-        <v>373</v>
+        <v>1099</v>
       </c>
       <c r="F2" t="n">
-        <v>10598912</v>
+        <v>1200319</v>
       </c>
       <c r="G2" t="n">
-        <v>6897641</v>
+        <v>779147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5365995417853727</v>
+        <v>0.5405552482394208</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3547.2</v>
+        <v>812</v>
       </c>
       <c r="C3" t="n">
-        <v>3550</v>
+        <v>824.6</v>
       </c>
       <c r="D3" t="n">
-        <v>3516.4</v>
+        <v>810.4</v>
       </c>
       <c r="E3" t="n">
-        <v>3527.5</v>
+        <v>818.45</v>
       </c>
       <c r="F3" t="n">
-        <v>1522116</v>
+        <v>7285722</v>
       </c>
       <c r="G3" t="n">
-        <v>1039999</v>
+        <v>4567272</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4635744842062348</v>
+        <v>0.5952021250321855</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>SBIN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1010</v>
+        <v>1592.1</v>
       </c>
       <c r="C4" t="n">
-        <v>1038.7</v>
+        <v>1601.6</v>
       </c>
       <c r="D4" t="n">
-        <v>1009.2</v>
+        <v>1582.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1038.5</v>
+        <v>1594.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1228793</v>
+        <v>2408360</v>
       </c>
       <c r="G4" t="n">
-        <v>777187</v>
+        <v>1709406</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5810776556993362</v>
+        <v>0.4088870636934701</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5111</v>
+        <v>235.7</v>
       </c>
       <c r="C5" t="n">
-        <v>5150</v>
+        <v>240.25</v>
       </c>
       <c r="D5" t="n">
-        <v>5091</v>
+        <v>235.35</v>
       </c>
       <c r="E5" t="n">
-        <v>5139.9</v>
+        <v>237.65</v>
       </c>
       <c r="F5" t="n">
-        <v>150868</v>
+        <v>12351202</v>
       </c>
       <c r="G5" t="n">
-        <v>101582</v>
+        <v>8815989</v>
       </c>
       <c r="H5" t="n">
-        <v>0.485184383059991</v>
+        <v>0.401000160050109</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172.39</v>
+        <v>570</v>
       </c>
       <c r="C6" t="n">
-        <v>173.64</v>
+        <v>572.6</v>
       </c>
       <c r="D6" t="n">
-        <v>171.7</v>
+        <v>566.4</v>
       </c>
       <c r="E6" t="n">
-        <v>173.4</v>
+        <v>567</v>
       </c>
       <c r="F6" t="n">
-        <v>8186535</v>
+        <v>1629194</v>
       </c>
       <c r="G6" t="n">
-        <v>5686270</v>
+        <v>1107979</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4397021245913402</v>
+        <v>0.4704195657137906</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4450</v>
+        <v>754</v>
       </c>
       <c r="C7" t="n">
-        <v>4474</v>
+        <v>762.45</v>
       </c>
       <c r="D7" t="n">
-        <v>4427.7</v>
+        <v>750</v>
       </c>
       <c r="E7" t="n">
-        <v>4454</v>
+        <v>750.1</v>
       </c>
       <c r="F7" t="n">
-        <v>888000</v>
+        <v>2342055</v>
       </c>
       <c r="G7" t="n">
-        <v>599045</v>
+        <v>1667910</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4823594220801442</v>
+        <v>0.4041854776336853</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2073</v>
+        <v>30300</v>
       </c>
       <c r="C8" t="n">
-        <v>2119.9</v>
+        <v>30520</v>
       </c>
       <c r="D8" t="n">
-        <v>2062</v>
+        <v>29750</v>
       </c>
       <c r="E8" t="n">
-        <v>2115.7</v>
+        <v>29860</v>
       </c>
       <c r="F8" t="n">
-        <v>1269358</v>
+        <v>34160</v>
       </c>
       <c r="G8" t="n">
-        <v>842874</v>
+        <v>22879</v>
       </c>
       <c r="H8" t="n">
-        <v>0.505987846344768</v>
+        <v>0.4930722496612614</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>TATAELXSI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1937.1</v>
+        <v>5590</v>
       </c>
       <c r="C9" t="n">
-        <v>1964.5</v>
+        <v>5860</v>
       </c>
       <c r="D9" t="n">
-        <v>1934.7</v>
+        <v>5590</v>
       </c>
       <c r="E9" t="n">
-        <v>1961.9</v>
+        <v>5856</v>
       </c>
       <c r="F9" t="n">
-        <v>486792</v>
+        <v>595997</v>
       </c>
       <c r="G9" t="n">
-        <v>329889</v>
+        <v>401718</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4756236188536144</v>
+        <v>0.4836203505941979</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>TATAELXSI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>430</v>
+        <v>1043.9</v>
       </c>
       <c r="C10" t="n">
-        <v>435</v>
+        <v>1082.4</v>
       </c>
       <c r="D10" t="n">
-        <v>426.6</v>
+        <v>1043.6</v>
       </c>
       <c r="E10" t="n">
-        <v>430</v>
+        <v>1076.2</v>
       </c>
       <c r="F10" t="n">
-        <v>424106</v>
+        <v>1184347</v>
       </c>
       <c r="G10" t="n">
-        <v>269428</v>
+        <v>819360</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5740977181287765</v>
+        <v>0.4454537687951572</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6451.5</v>
+        <v>192</v>
       </c>
       <c r="C11" t="n">
-        <v>6481</v>
+        <v>196.9</v>
       </c>
       <c r="D11" t="n">
-        <v>6346</v>
+        <v>191.72</v>
       </c>
       <c r="E11" t="n">
-        <v>6377.5</v>
+        <v>196.1</v>
       </c>
       <c r="F11" t="n">
-        <v>83920</v>
+        <v>5427108</v>
       </c>
       <c r="G11" t="n">
-        <v>58511</v>
+        <v>3712535</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4342602245731572</v>
+        <v>0.4618334911320701</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>276</v>
+      </c>
+      <c r="D12" t="n">
+        <v>273.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>275.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1241102</v>
+      </c>
+      <c r="G12" t="n">
+        <v>883995</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4039694794653816</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>355</v>
+      </c>
+      <c r="C13" t="n">
+        <v>355</v>
+      </c>
+      <c r="D13" t="n">
+        <v>347.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12142988</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8589184</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4137533903104183</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>333.35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>339.55</v>
+      </c>
+      <c r="D14" t="n">
+        <v>332.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>333.45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5814804</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3863086</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5052225086368773</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>44450</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44610</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>44410</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11198</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7704</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4535306334371755</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1625.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1642.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1608</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F16" t="n">
+        <v>680319</v>
+      </c>
+      <c r="G16" t="n">
+        <v>432224</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5739963537425039</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1703.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1710.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1691.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>440988</v>
+      </c>
+      <c r="G17" t="n">
+        <v>294773</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4960257554117914</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>235.71</v>
+      </c>
+      <c r="D18" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>232.88</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3161097</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1980326</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.596250819309548</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1489</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1493.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1433.1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1188590</v>
+      </c>
+      <c r="G19" t="n">
+        <v>828879</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.433972871794315</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PERSISTENT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5150.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5150.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5415</v>
+      </c>
+      <c r="F20" t="n">
+        <v>742211</v>
+      </c>
+      <c r="G20" t="n">
+        <v>479409</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5481791121985612</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PERSISTENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COFORGE</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1778.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1769.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2709309</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1705824</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5882699504755473</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>COFORGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1982.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1954.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1976.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>714149</v>
+      </c>
+      <c r="G22" t="n">
+        <v>486792</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4670516360170258</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1051.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1552052</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1036358</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4976021799416804</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>544.05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>547.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>540.9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>544.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>980932</v>
+      </c>
+      <c r="G24" t="n">
+        <v>673622</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4562054089682344</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>734</v>
+      </c>
+      <c r="C25" t="n">
+        <v>734.95</v>
+      </c>
+      <c r="D25" t="n">
+        <v>728.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>734.55</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2276411</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1455793</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5636914039289926</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1291.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1240.4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1289.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1431813</v>
+      </c>
+      <c r="G26" t="n">
+        <v>963684</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4857702317357142</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2624.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2566.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2611.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>287207</v>
+      </c>
+      <c r="G27" t="n">
+        <v>188448</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5240649940567159</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>559.05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>563.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>558.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>560.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>661928</v>
+      </c>
+      <c r="G28" t="n">
+        <v>436744</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5155972377411023</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>824</v>
+      </c>
+      <c r="C29" t="n">
+        <v>848.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>823</v>
+      </c>
+      <c r="E29" t="n">
+        <v>844.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1179729</v>
+      </c>
+      <c r="G29" t="n">
+        <v>813502</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.4501857401702762</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5670.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5833</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5670.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5801</v>
+      </c>
+      <c r="F30" t="n">
+        <v>391150</v>
+      </c>
+      <c r="G30" t="n">
+        <v>249296</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.569018355689622</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>956.6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>967.45</v>
+      </c>
+      <c r="D31" t="n">
+        <v>948.05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>966.55</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1382094</v>
+      </c>
+      <c r="G31" t="n">
+        <v>911020</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5170841474391341</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>99</v>
+      </c>
+      <c r="C32" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>98.91</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100.14</v>
+      </c>
+      <c r="F32" t="n">
+        <v>35519785</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22643077</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5686818977827086</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RECLTD</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>369.85</v>
+      </c>
+      <c r="C33" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>369.85</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3238554</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2283407</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4182990592566284</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>RECLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UNITDSPR</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1309.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1317.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1301.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1302.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>641631</v>
+      </c>
+      <c r="G34" t="n">
+        <v>411404</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5596129352169643</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>UNITDSPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>317.15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2954679</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1939329</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5235573747414699</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DMART</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4778</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4789.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4613</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4624.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>274232</v>
+      </c>
+      <c r="G36" t="n">
+        <v>184352</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4875455650060753</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>DMART</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,627 +484,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.9</v>
+        <v>9076.5</v>
       </c>
       <c r="C2" t="n">
-        <v>548.95</v>
+        <v>9136</v>
       </c>
       <c r="D2" t="n">
-        <v>543.7</v>
+        <v>9070</v>
       </c>
       <c r="E2" t="n">
-        <v>547.4</v>
+        <v>9085</v>
       </c>
       <c r="F2" t="n">
-        <v>874876</v>
+        <v>172732</v>
       </c>
       <c r="G2" t="n">
-        <v>1937685</v>
+        <v>364800</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5484942082949499</v>
+        <v>-0.5265021929824562</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1604</v>
+        <v>253.3</v>
       </c>
       <c r="C3" t="n">
-        <v>1615</v>
+        <v>255.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1595</v>
+        <v>252.85</v>
       </c>
       <c r="E3" t="n">
-        <v>1612</v>
+        <v>254.17</v>
       </c>
       <c r="F3" t="n">
-        <v>342178</v>
+        <v>7339871</v>
       </c>
       <c r="G3" t="n">
-        <v>797797</v>
+        <v>15261092</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5710964067300328</v>
+        <v>-0.5190468021554421</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.25</v>
+        <v>1410</v>
       </c>
       <c r="C4" t="n">
-        <v>75.45</v>
+        <v>1413.1</v>
       </c>
       <c r="D4" t="n">
-        <v>74.31</v>
+        <v>1396.2</v>
       </c>
       <c r="E4" t="n">
-        <v>75.28</v>
+        <v>1406.3</v>
       </c>
       <c r="F4" t="n">
-        <v>19325344</v>
+        <v>1062568</v>
       </c>
       <c r="G4" t="n">
-        <v>39250424</v>
+        <v>2553543</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5076398665145631</v>
+        <v>-0.5838848219904658</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.31999999999999</v>
+        <v>6921</v>
       </c>
       <c r="C5" t="n">
-        <v>87.68000000000001</v>
+        <v>6938</v>
       </c>
       <c r="D5" t="n">
-        <v>86.89</v>
+        <v>6879.5</v>
       </c>
       <c r="E5" t="n">
-        <v>87.25</v>
+        <v>6900</v>
       </c>
       <c r="F5" t="n">
-        <v>5847930</v>
+        <v>310534</v>
       </c>
       <c r="G5" t="n">
-        <v>14512873</v>
+        <v>740601</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5970522170213989</v>
+        <v>-0.5806999990548217</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.6</v>
+        <v>5375.5</v>
       </c>
       <c r="C6" t="n">
-        <v>42.82</v>
+        <v>5444</v>
       </c>
       <c r="D6" t="n">
-        <v>42.25</v>
+        <v>5373.5</v>
       </c>
       <c r="E6" t="n">
-        <v>42.43</v>
+        <v>5420</v>
       </c>
       <c r="F6" t="n">
-        <v>7852067</v>
+        <v>233186</v>
       </c>
       <c r="G6" t="n">
-        <v>16457834</v>
+        <v>527530</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5228979098950688</v>
+        <v>-0.5579663715807632</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.53</v>
+        <v>3504.9</v>
       </c>
       <c r="C7" t="n">
-        <v>73.98999999999999</v>
+        <v>3524.6</v>
       </c>
       <c r="D7" t="n">
-        <v>72.56</v>
+        <v>3491.1</v>
       </c>
       <c r="E7" t="n">
-        <v>72.69</v>
+        <v>3497.9</v>
       </c>
       <c r="F7" t="n">
-        <v>15934886</v>
+        <v>335818</v>
       </c>
       <c r="G7" t="n">
-        <v>33394868</v>
+        <v>745321</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5228342869928397</v>
+        <v>-0.5494317213656934</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.5</v>
+        <v>992</v>
       </c>
       <c r="C8" t="n">
-        <v>243.26</v>
+        <v>993.45</v>
       </c>
       <c r="D8" t="n">
-        <v>237</v>
+        <v>977.3</v>
       </c>
       <c r="E8" t="n">
-        <v>238.01</v>
+        <v>980</v>
       </c>
       <c r="F8" t="n">
-        <v>4495231</v>
+        <v>846865</v>
       </c>
       <c r="G8" t="n">
-        <v>9459534</v>
+        <v>1995226</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5247936103406362</v>
+        <v>-0.5755543482292231</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.2</v>
+        <v>840</v>
       </c>
       <c r="C9" t="n">
-        <v>91.34999999999999</v>
+        <v>840.05</v>
       </c>
       <c r="D9" t="n">
-        <v>87.90000000000001</v>
+        <v>825.25</v>
       </c>
       <c r="E9" t="n">
-        <v>88.95</v>
+        <v>827</v>
       </c>
       <c r="F9" t="n">
-        <v>8684810</v>
+        <v>489102</v>
       </c>
       <c r="G9" t="n">
-        <v>18714097</v>
+        <v>1040716</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5359215034527181</v>
+        <v>-0.5300331694717867</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3177</v>
+        <v>2071</v>
       </c>
       <c r="C10" t="n">
-        <v>3255</v>
+        <v>2087</v>
       </c>
       <c r="D10" t="n">
-        <v>3166.1</v>
+        <v>2060.1</v>
       </c>
       <c r="E10" t="n">
-        <v>3237.7</v>
+        <v>2085</v>
       </c>
       <c r="F10" t="n">
-        <v>457778</v>
+        <v>426132</v>
       </c>
       <c r="G10" t="n">
-        <v>951765</v>
+        <v>917697</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5190220274962832</v>
+        <v>-0.5356506559354558</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1510.1</v>
+        <v>1090.7</v>
       </c>
       <c r="C11" t="n">
-        <v>1534.9</v>
+        <v>1107.6</v>
       </c>
       <c r="D11" t="n">
-        <v>1509.3</v>
+        <v>1089.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1531.6</v>
+        <v>1102.7</v>
       </c>
       <c r="F11" t="n">
-        <v>5795092</v>
+        <v>414858</v>
       </c>
       <c r="G11" t="n">
-        <v>13072640</v>
+        <v>1009099</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5567007123274258</v>
+        <v>-0.5888827558049309</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1813.2</v>
+        <v>1647</v>
       </c>
       <c r="C12" t="n">
-        <v>1834</v>
+        <v>1662.3</v>
       </c>
       <c r="D12" t="n">
-        <v>1805</v>
+        <v>1637.1</v>
       </c>
       <c r="E12" t="n">
-        <v>1825.4</v>
+        <v>1658</v>
       </c>
       <c r="F12" t="n">
-        <v>584940</v>
+        <v>323540</v>
       </c>
       <c r="G12" t="n">
-        <v>1169126</v>
+        <v>680319</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4996775368950823</v>
+        <v>-0.5244289811103321</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>COFORGE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7800</v>
+        <v>1787</v>
       </c>
       <c r="C13" t="n">
-        <v>7882</v>
+        <v>1817.6</v>
       </c>
       <c r="D13" t="n">
-        <v>7741</v>
+        <v>1778.8</v>
       </c>
       <c r="E13" t="n">
-        <v>7870.5</v>
+        <v>1793</v>
       </c>
       <c r="F13" t="n">
-        <v>247094</v>
+        <v>1223772</v>
       </c>
       <c r="G13" t="n">
-        <v>501584</v>
+        <v>2946781</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5073726434655013</v>
+        <v>-0.584708873852519</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>COFORGE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.5</v>
+        <v>754.1</v>
       </c>
       <c r="C14" t="n">
-        <v>328.05</v>
+        <v>762.5</v>
       </c>
       <c r="D14" t="n">
-        <v>325.15</v>
+        <v>748.5</v>
       </c>
       <c r="E14" t="n">
-        <v>325.75</v>
+        <v>759</v>
       </c>
       <c r="F14" t="n">
-        <v>4810544</v>
+        <v>366553</v>
       </c>
       <c r="G14" t="n">
-        <v>9735495</v>
+        <v>742367</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5058757669743552</v>
+        <v>-0.5062374809225086</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>JSL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HUDCO</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>217</v>
+        <v>2209.3</v>
       </c>
       <c r="C15" t="n">
-        <v>218.65</v>
+        <v>2230</v>
       </c>
       <c r="D15" t="n">
-        <v>216</v>
+        <v>2201</v>
       </c>
       <c r="E15" t="n">
-        <v>216.49</v>
+        <v>2210.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2120146</v>
+        <v>2575857</v>
       </c>
       <c r="G15" t="n">
-        <v>4562982</v>
+        <v>5225583</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5353595521525178</v>
+        <v>-0.5070680151860567</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>HUDCO</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLUESTARCO</t>
+          <t>SONACOMS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1894.5</v>
+        <v>434.4</v>
       </c>
       <c r="C16" t="n">
-        <v>1911.2</v>
+        <v>436.9</v>
       </c>
       <c r="D16" t="n">
-        <v>1877</v>
+        <v>432.7</v>
       </c>
       <c r="E16" t="n">
-        <v>1891.1</v>
+        <v>434.35</v>
       </c>
       <c r="F16" t="n">
-        <v>154261</v>
+        <v>1508205</v>
       </c>
       <c r="G16" t="n">
-        <v>319720</v>
+        <v>3378996</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5175121981734018</v>
+        <v>-0.5536529193878892</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BLUESTARCO</t>
+          <t>SONACOMS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2642</v>
+        <v>1096</v>
       </c>
       <c r="C17" t="n">
-        <v>2652.9</v>
+        <v>1103.8</v>
       </c>
       <c r="D17" t="n">
-        <v>2619</v>
+        <v>1087.5</v>
       </c>
       <c r="E17" t="n">
-        <v>2638.5</v>
+        <v>1095.3</v>
       </c>
       <c r="F17" t="n">
-        <v>759748</v>
+        <v>796923</v>
       </c>
       <c r="G17" t="n">
-        <v>1610956</v>
+        <v>1684128</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5283868709015019</v>
+        <v>-0.5268037821353246</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>525</v>
+        <v>419.05</v>
       </c>
       <c r="C18" t="n">
-        <v>527.7</v>
+        <v>421</v>
       </c>
       <c r="D18" t="n">
-        <v>517.85</v>
+        <v>417.1</v>
       </c>
       <c r="E18" t="n">
-        <v>521</v>
+        <v>419.1</v>
       </c>
       <c r="F18" t="n">
-        <v>581458</v>
+        <v>1067243</v>
       </c>
       <c r="G18" t="n">
-        <v>1145622</v>
+        <v>2555100</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4924521351719852</v>
+        <v>-0.5823087159015303</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>TIINDIA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3114.9</v>
+        <v>3400</v>
       </c>
       <c r="C19" t="n">
-        <v>3125</v>
+        <v>3414.3</v>
       </c>
       <c r="D19" t="n">
-        <v>3062.5</v>
+        <v>3363</v>
       </c>
       <c r="E19" t="n">
-        <v>3066.5</v>
+        <v>3379.1</v>
       </c>
       <c r="F19" t="n">
-        <v>124194</v>
+        <v>196881</v>
       </c>
       <c r="G19" t="n">
-        <v>307829</v>
+        <v>457778</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5965487332252647</v>
+        <v>-0.5699203544075949</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>TIINDIA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>ALKEM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3644.9</v>
+        <v>5507</v>
       </c>
       <c r="C20" t="n">
-        <v>3676.8</v>
+        <v>5529</v>
       </c>
       <c r="D20" t="n">
-        <v>3567.2</v>
+        <v>5454.5</v>
       </c>
       <c r="E20" t="n">
-        <v>3590.6</v>
+        <v>5459.5</v>
       </c>
       <c r="F20" t="n">
-        <v>98182</v>
+        <v>95963</v>
       </c>
       <c r="G20" t="n">
-        <v>221678</v>
+        <v>190853</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5570963289094993</v>
+        <v>-0.497188935987383</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>ALKEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4205</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4205</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4130</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4138.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>117939</v>
+      </c>
+      <c r="G21" t="n">
+        <v>259998</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5463849721920938</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>KEI</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,1155 +1210,1089 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1083.5</v>
+        <v>12678</v>
       </c>
       <c r="C2" t="n">
-        <v>1103</v>
+        <v>12800</v>
       </c>
       <c r="D2" t="n">
-        <v>1081.7</v>
+        <v>12614</v>
       </c>
       <c r="E2" t="n">
-        <v>1099</v>
+        <v>12730</v>
       </c>
       <c r="F2" t="n">
-        <v>1200319</v>
+        <v>264319</v>
       </c>
       <c r="G2" t="n">
-        <v>779147</v>
+        <v>175574</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5405552482394208</v>
+        <v>0.5054563887591557</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>812</v>
+        <v>3672</v>
       </c>
       <c r="C3" t="n">
-        <v>824.6</v>
+        <v>3704</v>
       </c>
       <c r="D3" t="n">
-        <v>810.4</v>
+        <v>3662.7</v>
       </c>
       <c r="E3" t="n">
-        <v>818.45</v>
+        <v>3684.6</v>
       </c>
       <c r="F3" t="n">
-        <v>7285722</v>
+        <v>1610471</v>
       </c>
       <c r="G3" t="n">
-        <v>4567272</v>
+        <v>1136713</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5952021250321855</v>
+        <v>0.4167789054932952</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1592.1</v>
+        <v>2417</v>
       </c>
       <c r="C4" t="n">
-        <v>1601.6</v>
+        <v>2417</v>
       </c>
       <c r="D4" t="n">
-        <v>1582.4</v>
+        <v>2391</v>
       </c>
       <c r="E4" t="n">
-        <v>1594.6</v>
+        <v>2408</v>
       </c>
       <c r="F4" t="n">
-        <v>2408360</v>
+        <v>514354</v>
       </c>
       <c r="G4" t="n">
-        <v>1709406</v>
+        <v>321954</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4088870636934701</v>
+        <v>0.597600899507383</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.7</v>
+        <v>1556</v>
       </c>
       <c r="C5" t="n">
-        <v>240.25</v>
+        <v>1562.5</v>
       </c>
       <c r="D5" t="n">
-        <v>235.35</v>
+        <v>1549.1</v>
       </c>
       <c r="E5" t="n">
-        <v>237.65</v>
+        <v>1560</v>
       </c>
       <c r="F5" t="n">
-        <v>12351202</v>
+        <v>785651</v>
       </c>
       <c r="G5" t="n">
-        <v>8815989</v>
+        <v>542069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.401000160050109</v>
+        <v>0.4493560782852368</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570</v>
+        <v>1938.1</v>
       </c>
       <c r="C6" t="n">
-        <v>572.6</v>
+        <v>1950.1</v>
       </c>
       <c r="D6" t="n">
-        <v>566.4</v>
+        <v>1932.6</v>
       </c>
       <c r="E6" t="n">
-        <v>567</v>
+        <v>1940.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1629194</v>
+        <v>4234637</v>
       </c>
       <c r="G6" t="n">
-        <v>1107979</v>
+        <v>2935794</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4704195657137906</v>
+        <v>0.4424162594514465</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754</v>
+        <v>413.95</v>
       </c>
       <c r="C7" t="n">
-        <v>762.45</v>
+        <v>414.6</v>
       </c>
       <c r="D7" t="n">
-        <v>750</v>
+        <v>408.05</v>
       </c>
       <c r="E7" t="n">
-        <v>750.1</v>
+        <v>410.05</v>
       </c>
       <c r="F7" t="n">
-        <v>2342055</v>
+        <v>14113882</v>
       </c>
       <c r="G7" t="n">
-        <v>1667910</v>
+        <v>9251137</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4041854776336853</v>
+        <v>0.5256375513626055</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30300</v>
+        <v>756</v>
       </c>
       <c r="C8" t="n">
-        <v>30520</v>
+        <v>759.7</v>
       </c>
       <c r="D8" t="n">
-        <v>29750</v>
+        <v>744.4</v>
       </c>
       <c r="E8" t="n">
-        <v>29860</v>
+        <v>749.5</v>
       </c>
       <c r="F8" t="n">
-        <v>34160</v>
+        <v>4182521</v>
       </c>
       <c r="G8" t="n">
-        <v>22879</v>
+        <v>2842711</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4930722496612614</v>
+        <v>0.4713141786133026</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TATAELXSI</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5590</v>
+        <v>3543.9</v>
       </c>
       <c r="C9" t="n">
-        <v>5860</v>
+        <v>3555.8</v>
       </c>
       <c r="D9" t="n">
-        <v>5590</v>
+        <v>3514.1</v>
       </c>
       <c r="E9" t="n">
-        <v>5856</v>
+        <v>3550.5</v>
       </c>
       <c r="F9" t="n">
-        <v>595997</v>
+        <v>197736</v>
       </c>
       <c r="G9" t="n">
-        <v>401718</v>
+        <v>136372</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4836203505941979</v>
+        <v>0.4499750681958173</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TATAELXSI</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.9</v>
+        <v>1206</v>
       </c>
       <c r="C10" t="n">
-        <v>1082.4</v>
+        <v>1210.3</v>
       </c>
       <c r="D10" t="n">
-        <v>1043.6</v>
+        <v>1194.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1076.2</v>
+        <v>1205.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1184347</v>
+        <v>1316331</v>
       </c>
       <c r="G10" t="n">
-        <v>819360</v>
+        <v>881354</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4454537687951572</v>
+        <v>0.4935326781293328</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>192</v>
+        <v>782.9</v>
       </c>
       <c r="C11" t="n">
-        <v>196.9</v>
+        <v>787.9</v>
       </c>
       <c r="D11" t="n">
-        <v>191.72</v>
+        <v>778</v>
       </c>
       <c r="E11" t="n">
-        <v>196.1</v>
+        <v>780.2</v>
       </c>
       <c r="F11" t="n">
-        <v>5427108</v>
+        <v>1788721</v>
       </c>
       <c r="G11" t="n">
-        <v>3712535</v>
+        <v>1174800</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4618334911320701</v>
+        <v>0.5225749063670412</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>273.5</v>
+        <v>3090</v>
       </c>
       <c r="C12" t="n">
-        <v>276</v>
+        <v>3090</v>
       </c>
       <c r="D12" t="n">
-        <v>273.4</v>
+        <v>3052.8</v>
       </c>
       <c r="E12" t="n">
-        <v>275.9</v>
+        <v>3062</v>
       </c>
       <c r="F12" t="n">
-        <v>1241102</v>
+        <v>245587</v>
       </c>
       <c r="G12" t="n">
-        <v>883995</v>
+        <v>169054</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4039694794653816</v>
+        <v>0.4527133342009062</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355</v>
+        <v>1620</v>
       </c>
       <c r="C13" t="n">
-        <v>355</v>
+        <v>1621.1</v>
       </c>
       <c r="D13" t="n">
-        <v>347.6</v>
+        <v>1592</v>
       </c>
       <c r="E13" t="n">
-        <v>349.5</v>
+        <v>1593.8</v>
       </c>
       <c r="F13" t="n">
-        <v>12142988</v>
+        <v>719829</v>
       </c>
       <c r="G13" t="n">
-        <v>8589184</v>
+        <v>458241</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4137533903104183</v>
+        <v>0.5708524553673722</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>HAVELLS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>333.35</v>
+        <v>135</v>
       </c>
       <c r="C14" t="n">
-        <v>339.55</v>
+        <v>137.77</v>
       </c>
       <c r="D14" t="n">
-        <v>332.7</v>
+        <v>135</v>
       </c>
       <c r="E14" t="n">
-        <v>333.45</v>
+        <v>136.7</v>
       </c>
       <c r="F14" t="n">
-        <v>5814804</v>
+        <v>21279686</v>
       </c>
       <c r="G14" t="n">
-        <v>3863086</v>
+        <v>13661285</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5052225086368773</v>
+        <v>0.5576635726434226</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44450</v>
+        <v>1607.1</v>
       </c>
       <c r="C15" t="n">
-        <v>44610</v>
+        <v>1636.6</v>
       </c>
       <c r="D15" t="n">
-        <v>44200</v>
+        <v>1607.1</v>
       </c>
       <c r="E15" t="n">
-        <v>44410</v>
+        <v>1624</v>
       </c>
       <c r="F15" t="n">
-        <v>11198</v>
+        <v>2588895</v>
       </c>
       <c r="G15" t="n">
-        <v>7704</v>
+        <v>1719914</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4535306334371755</v>
+        <v>0.5052467739666053</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>BDL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1625.3</v>
+        <v>163.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1642.3</v>
+        <v>164.54</v>
       </c>
       <c r="D16" t="n">
-        <v>1608</v>
+        <v>162.55</v>
       </c>
       <c r="E16" t="n">
-        <v>1615</v>
+        <v>164.32</v>
       </c>
       <c r="F16" t="n">
-        <v>680319</v>
+        <v>4619945</v>
       </c>
       <c r="G16" t="n">
-        <v>432224</v>
+        <v>3209812</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5739963537425039</v>
+        <v>0.4393194990859278</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1703.9</v>
+        <v>404</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.5</v>
+        <v>408.5</v>
       </c>
       <c r="D17" t="n">
-        <v>1680</v>
+        <v>402.35</v>
       </c>
       <c r="E17" t="n">
-        <v>1691.6</v>
+        <v>405.5</v>
       </c>
       <c r="F17" t="n">
-        <v>440988</v>
+        <v>2545562</v>
       </c>
       <c r="G17" t="n">
-        <v>294773</v>
+        <v>1609752</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4960257554117914</v>
+        <v>0.5813379949209567</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>PETRONET</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>233.6</v>
+        <v>280.05</v>
       </c>
       <c r="C18" t="n">
-        <v>235.71</v>
+        <v>282.8</v>
       </c>
       <c r="D18" t="n">
-        <v>231.6</v>
+        <v>279.75</v>
       </c>
       <c r="E18" t="n">
-        <v>232.88</v>
+        <v>280.75</v>
       </c>
       <c r="F18" t="n">
-        <v>3161097</v>
+        <v>1519695</v>
       </c>
       <c r="G18" t="n">
-        <v>1980326</v>
+        <v>1047037</v>
       </c>
       <c r="H18" t="n">
-        <v>0.596250819309548</v>
+        <v>0.4514243527210595</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>PETRONET</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1489</v>
+        <v>706</v>
       </c>
       <c r="C19" t="n">
-        <v>1493.3</v>
+        <v>710</v>
       </c>
       <c r="D19" t="n">
-        <v>1433.1</v>
+        <v>698.15</v>
       </c>
       <c r="E19" t="n">
-        <v>1437</v>
+        <v>703.85</v>
       </c>
       <c r="F19" t="n">
-        <v>1188590</v>
+        <v>2209645</v>
       </c>
       <c r="G19" t="n">
-        <v>828879</v>
+        <v>1531307</v>
       </c>
       <c r="H19" t="n">
-        <v>0.433972871794315</v>
+        <v>0.4429797552025819</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>UPL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>SJVN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5150.5</v>
+        <v>94.97</v>
       </c>
       <c r="C20" t="n">
-        <v>5420</v>
+        <v>95.31</v>
       </c>
       <c r="D20" t="n">
-        <v>5150.5</v>
+        <v>94.2</v>
       </c>
       <c r="E20" t="n">
-        <v>5415</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>742211</v>
+        <v>2820696</v>
       </c>
       <c r="G20" t="n">
-        <v>479409</v>
+        <v>1973522</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5481791121985612</v>
+        <v>0.4292701069458562</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>SJVN</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>PAGEIND</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1712</v>
+        <v>45215</v>
       </c>
       <c r="C21" t="n">
-        <v>1778.8</v>
+        <v>45890</v>
       </c>
       <c r="D21" t="n">
-        <v>1710</v>
+        <v>45215</v>
       </c>
       <c r="E21" t="n">
-        <v>1769.2</v>
+        <v>45260</v>
       </c>
       <c r="F21" t="n">
-        <v>2709309</v>
+        <v>14185</v>
       </c>
       <c r="G21" t="n">
-        <v>1705824</v>
+        <v>9157</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5882699504755473</v>
+        <v>0.5490881292999891</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>PAGEIND</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>COLPAL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1969</v>
+        <v>2360.1</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.4</v>
+        <v>2365</v>
       </c>
       <c r="D22" t="n">
-        <v>1954.8</v>
+        <v>2338.3</v>
       </c>
       <c r="E22" t="n">
-        <v>1976.7</v>
+        <v>2348.8</v>
       </c>
       <c r="F22" t="n">
-        <v>714149</v>
+        <v>374522</v>
       </c>
       <c r="G22" t="n">
-        <v>486792</v>
+        <v>241535</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4670516360170258</v>
+        <v>0.5505910116546257</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>COLPAL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1053</v>
+        <v>1162.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1074</v>
+        <v>1166.5</v>
       </c>
       <c r="D23" t="n">
-        <v>1048</v>
+        <v>1141.3</v>
       </c>
       <c r="E23" t="n">
-        <v>1051.6</v>
+        <v>1154.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1552052</v>
+        <v>4160131</v>
       </c>
       <c r="G23" t="n">
-        <v>1036358</v>
+        <v>2918717</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4976021799416804</v>
+        <v>0.4253286632448435</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>SRF</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>544.05</v>
+        <v>2959</v>
       </c>
       <c r="C24" t="n">
-        <v>547.4</v>
+        <v>2985.5</v>
       </c>
       <c r="D24" t="n">
-        <v>540.9</v>
+        <v>2939.1</v>
       </c>
       <c r="E24" t="n">
-        <v>544.4</v>
+        <v>2941</v>
       </c>
       <c r="F24" t="n">
-        <v>980932</v>
+        <v>337545</v>
       </c>
       <c r="G24" t="n">
-        <v>673622</v>
+        <v>219458</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4562054089682344</v>
+        <v>0.5380847360314958</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>SRF</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734</v>
+        <v>133.05</v>
       </c>
       <c r="C25" t="n">
-        <v>734.95</v>
+        <v>134.3</v>
       </c>
       <c r="D25" t="n">
-        <v>728.9</v>
+        <v>131.5</v>
       </c>
       <c r="E25" t="n">
-        <v>734.55</v>
+        <v>132.36</v>
       </c>
       <c r="F25" t="n">
-        <v>2276411</v>
+        <v>5930567</v>
       </c>
       <c r="G25" t="n">
-        <v>1455793</v>
+        <v>4079542</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5636914039289926</v>
+        <v>0.4537335318523501</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1241</v>
+        <v>634</v>
       </c>
       <c r="C26" t="n">
-        <v>1291.9</v>
+        <v>636</v>
       </c>
       <c r="D26" t="n">
-        <v>1240.4</v>
+        <v>623.3</v>
       </c>
       <c r="E26" t="n">
-        <v>1289.9</v>
+        <v>628.1</v>
       </c>
       <c r="F26" t="n">
-        <v>1431813</v>
+        <v>1451523</v>
       </c>
       <c r="G26" t="n">
-        <v>963684</v>
+        <v>1022767</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4857702317357142</v>
+        <v>0.4192118048392254</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2600</v>
+        <v>93</v>
       </c>
       <c r="C27" t="n">
-        <v>2624.9</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>2566.8</v>
+        <v>91.53</v>
       </c>
       <c r="E27" t="n">
-        <v>2611.2</v>
+        <v>91.87</v>
       </c>
       <c r="F27" t="n">
-        <v>287207</v>
+        <v>9066947</v>
       </c>
       <c r="G27" t="n">
-        <v>188448</v>
+        <v>5847930</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5240649940567159</v>
+        <v>0.5504540923027464</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.05</v>
+        <v>216.51</v>
       </c>
       <c r="C28" t="n">
-        <v>563.5</v>
+        <v>217.92</v>
       </c>
       <c r="D28" t="n">
-        <v>558.9</v>
+        <v>211.66</v>
       </c>
       <c r="E28" t="n">
-        <v>560.8</v>
+        <v>213.15</v>
       </c>
       <c r="F28" t="n">
-        <v>661928</v>
+        <v>8013579</v>
       </c>
       <c r="G28" t="n">
-        <v>436744</v>
+        <v>5582131</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5155972377411023</v>
+        <v>0.4355770224668679</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>824</v>
+        <v>88.3</v>
       </c>
       <c r="C29" t="n">
-        <v>848.9</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>823</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>844.8</v>
+        <v>87.09</v>
       </c>
       <c r="F29" t="n">
-        <v>1179729</v>
+        <v>15170233</v>
       </c>
       <c r="G29" t="n">
-        <v>813502</v>
+        <v>9860803</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4501857401702762</v>
+        <v>0.5384378939524499</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>DELHIVERY</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5670.5</v>
+        <v>477</v>
       </c>
       <c r="C30" t="n">
-        <v>5833</v>
+        <v>483.95</v>
       </c>
       <c r="D30" t="n">
-        <v>5670.5</v>
+        <v>475.05</v>
       </c>
       <c r="E30" t="n">
-        <v>5801</v>
+        <v>482.05</v>
       </c>
       <c r="F30" t="n">
-        <v>391150</v>
+        <v>1918718</v>
       </c>
       <c r="G30" t="n">
-        <v>249296</v>
+        <v>1345035</v>
       </c>
       <c r="H30" t="n">
-        <v>0.569018355689622</v>
+        <v>0.4265190125164029</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>DELHIVERY</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.6</v>
+        <v>7210.5</v>
       </c>
       <c r="C31" t="n">
-        <v>967.45</v>
+        <v>7275</v>
       </c>
       <c r="D31" t="n">
-        <v>948.05</v>
+        <v>7157</v>
       </c>
       <c r="E31" t="n">
-        <v>966.55</v>
+        <v>7270</v>
       </c>
       <c r="F31" t="n">
-        <v>1382094</v>
+        <v>435071</v>
       </c>
       <c r="G31" t="n">
-        <v>911020</v>
+        <v>302576</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5170841474391341</v>
+        <v>0.4378899846650098</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>KAYNES</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99</v>
+        <v>296.15</v>
       </c>
       <c r="C32" t="n">
-        <v>102.2</v>
+        <v>298</v>
       </c>
       <c r="D32" t="n">
-        <v>98.91</v>
+        <v>291.1</v>
       </c>
       <c r="E32" t="n">
-        <v>100.14</v>
+        <v>293.4</v>
       </c>
       <c r="F32" t="n">
-        <v>35519785</v>
+        <v>3007330</v>
       </c>
       <c r="G32" t="n">
-        <v>22643077</v>
+        <v>1996665</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5686818977827086</v>
+        <v>0.506176549396118</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>369.85</v>
+        <v>206.39</v>
       </c>
       <c r="C33" t="n">
-        <v>372.6</v>
+        <v>207.14</v>
       </c>
       <c r="D33" t="n">
-        <v>369.1</v>
+        <v>201</v>
       </c>
       <c r="E33" t="n">
-        <v>369.85</v>
+        <v>203.34</v>
       </c>
       <c r="F33" t="n">
-        <v>3238554</v>
+        <v>4145507</v>
       </c>
       <c r="G33" t="n">
-        <v>2283407</v>
+        <v>2630754</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4182990592566284</v>
+        <v>0.5757866375951534</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>HFCL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1309.8</v>
+        <v>76.94</v>
       </c>
       <c r="C34" t="n">
-        <v>1317.3</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>1301.2</v>
+        <v>74.8</v>
       </c>
       <c r="E34" t="n">
-        <v>1302.4</v>
+        <v>75.3</v>
       </c>
       <c r="F34" t="n">
-        <v>641631</v>
+        <v>21695644</v>
       </c>
       <c r="G34" t="n">
-        <v>411404</v>
+        <v>13616734</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5596129352169643</v>
+        <v>0.5933074700585323</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>324.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>325.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>317.15</v>
-      </c>
-      <c r="E35" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2954679</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1939329</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.5235573747414699</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>DMART</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>4778</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4789.8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4613</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4624.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>274232</v>
-      </c>
-      <c r="G36" t="n">
-        <v>184352</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.4875455650060753</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>DMART</t>
+          <t>HFCL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,363 +484,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1380</v>
+        <v>1238</v>
       </c>
       <c r="C2" t="n">
-        <v>1391.3</v>
+        <v>1241.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1371.8</v>
+        <v>1228</v>
       </c>
       <c r="E2" t="n">
-        <v>1384.5</v>
+        <v>1239.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1051506</v>
+        <v>914559</v>
       </c>
       <c r="G2" t="n">
-        <v>2281760</v>
+        <v>1983386</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5391688871748124</v>
+        <v>-0.5388900597261451</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.5</v>
+        <v>167</v>
       </c>
       <c r="C3" t="n">
-        <v>113.21</v>
+        <v>168.25</v>
       </c>
       <c r="D3" t="n">
-        <v>111.13</v>
+        <v>165.05</v>
       </c>
       <c r="E3" t="n">
-        <v>111.8</v>
+        <v>167.25</v>
       </c>
       <c r="F3" t="n">
-        <v>15714147</v>
+        <v>4457698</v>
       </c>
       <c r="G3" t="n">
-        <v>33492032</v>
+        <v>9198376</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.530809387737358</v>
+        <v>-0.5153820630946159</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.85</v>
+        <v>198.43</v>
       </c>
       <c r="C4" t="n">
-        <v>364.7</v>
+        <v>199.5</v>
       </c>
       <c r="D4" t="n">
-        <v>356.35</v>
+        <v>197.62</v>
       </c>
       <c r="E4" t="n">
-        <v>361.8</v>
+        <v>197.99</v>
       </c>
       <c r="F4" t="n">
-        <v>7379618</v>
+        <v>2693450</v>
       </c>
       <c r="G4" t="n">
-        <v>17573057</v>
+        <v>6394641</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5800606576305989</v>
+        <v>-0.5787957447493925</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.38</v>
+        <v>3002.2</v>
       </c>
       <c r="C5" t="n">
-        <v>44.5</v>
+        <v>3012.8</v>
       </c>
       <c r="D5" t="n">
-        <v>43.82</v>
+        <v>2971</v>
       </c>
       <c r="E5" t="n">
-        <v>44.08</v>
+        <v>2993</v>
       </c>
       <c r="F5" t="n">
-        <v>6808414</v>
+        <v>229066</v>
       </c>
       <c r="G5" t="n">
-        <v>14630403</v>
+        <v>451516</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5346393397365746</v>
+        <v>-0.4926735708147663</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1103</v>
+        <v>546</v>
       </c>
       <c r="C6" t="n">
-        <v>1105</v>
+        <v>546.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1094.2</v>
+        <v>535.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1103.8</v>
+        <v>545</v>
       </c>
       <c r="F6" t="n">
-        <v>196378</v>
+        <v>591413</v>
       </c>
       <c r="G6" t="n">
-        <v>414858</v>
+        <v>1346859</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5266380303621963</v>
+        <v>-0.5608946445025055</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>GRANULES</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>AMBER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>703.5</v>
+        <v>8250</v>
       </c>
       <c r="C7" t="n">
-        <v>706.5</v>
+        <v>8334</v>
       </c>
       <c r="D7" t="n">
-        <v>698.5</v>
+        <v>8243.5</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7</v>
+        <v>8283.5</v>
       </c>
       <c r="F7" t="n">
-        <v>922099</v>
+        <v>186818</v>
       </c>
       <c r="G7" t="n">
-        <v>2175607</v>
+        <v>382165</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5761647209261599</v>
+        <v>-0.5111587926680884</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>AMBER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HUDCO</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.01</v>
+        <v>149</v>
       </c>
       <c r="C8" t="n">
-        <v>226.98</v>
+        <v>149.85</v>
       </c>
       <c r="D8" t="n">
-        <v>222</v>
+        <v>148.22</v>
       </c>
       <c r="E8" t="n">
-        <v>223.03</v>
+        <v>148.88</v>
       </c>
       <c r="F8" t="n">
-        <v>2098793</v>
+        <v>3282240</v>
       </c>
       <c r="G8" t="n">
-        <v>4878113</v>
+        <v>6998033</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.569753099200449</v>
+        <v>-0.5309767759026001</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HUDCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BDL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1627</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1636.4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1600.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1609</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1293234</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2588895</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5004687327991286</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>BDL</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
           <t>IEX</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>149.61</v>
-      </c>
-      <c r="C10" t="n">
-        <v>149.76</v>
-      </c>
-      <c r="D10" t="n">
-        <v>146.81</v>
-      </c>
-      <c r="E10" t="n">
-        <v>148.68</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6998033</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17256455</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.5944686785321782</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>204.07</v>
-      </c>
-      <c r="C11" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>201.65</v>
-      </c>
-      <c r="E11" t="n">
-        <v>203.37</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1747374</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4145507</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5784896756898493</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7275</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7294</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7211</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7238</v>
-      </c>
-      <c r="F12" t="n">
-        <v>190914</v>
-      </c>
-      <c r="G12" t="n">
-        <v>435071</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5611888634268889</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
         </is>
       </c>
     </row>
@@ -855,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,429 +781,759 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>257</v>
+        <v>852</v>
       </c>
       <c r="C2" t="n">
-        <v>259.8</v>
+        <v>864.45</v>
       </c>
       <c r="D2" t="n">
-        <v>256</v>
+        <v>849.3</v>
       </c>
       <c r="E2" t="n">
-        <v>257.1</v>
+        <v>862.55</v>
       </c>
       <c r="F2" t="n">
-        <v>10498239</v>
+        <v>15206426</v>
       </c>
       <c r="G2" t="n">
-        <v>7339871</v>
+        <v>10400847</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4303029303921009</v>
+        <v>0.4620372744642816</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>SBIN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2570.9</v>
+        <v>1133</v>
       </c>
       <c r="C3" t="n">
-        <v>2609.9</v>
+        <v>1144.1</v>
       </c>
       <c r="D3" t="n">
-        <v>2570.9</v>
+        <v>1126.6</v>
       </c>
       <c r="E3" t="n">
-        <v>2580.3</v>
+        <v>1140</v>
       </c>
       <c r="F3" t="n">
-        <v>1550153</v>
+        <v>8910732</v>
       </c>
       <c r="G3" t="n">
-        <v>970247</v>
+        <v>5713032</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5976890420686691</v>
+        <v>0.559720302634398</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4768</v>
+        <v>2876.1</v>
       </c>
       <c r="C4" t="n">
-        <v>4818</v>
+        <v>2891.3</v>
       </c>
       <c r="D4" t="n">
-        <v>4745.8</v>
+        <v>2848.3</v>
       </c>
       <c r="E4" t="n">
-        <v>4775</v>
+        <v>2884.4</v>
       </c>
       <c r="F4" t="n">
-        <v>420160</v>
+        <v>790137</v>
       </c>
       <c r="G4" t="n">
-        <v>299305</v>
+        <v>513800</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4037854362606705</v>
+        <v>0.5378298949007396</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.61</v>
+        <v>172.1</v>
       </c>
       <c r="C5" t="n">
-        <v>252.25</v>
+        <v>172.67</v>
       </c>
       <c r="D5" t="n">
-        <v>246.01</v>
+        <v>170.6</v>
       </c>
       <c r="E5" t="n">
-        <v>248.7</v>
+        <v>171.98</v>
       </c>
       <c r="F5" t="n">
-        <v>19663095</v>
+        <v>25406461</v>
       </c>
       <c r="G5" t="n">
-        <v>13825961</v>
+        <v>16413388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4221864939442546</v>
+        <v>0.5479108274294131</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5410.1</v>
+        <v>1414.9</v>
       </c>
       <c r="C6" t="n">
-        <v>5471.3</v>
+        <v>1417</v>
       </c>
       <c r="D6" t="n">
-        <v>5396</v>
+        <v>1403.6</v>
       </c>
       <c r="E6" t="n">
-        <v>5430.5</v>
+        <v>1407.6</v>
       </c>
       <c r="F6" t="n">
-        <v>293576</v>
+        <v>13461373</v>
       </c>
       <c r="G6" t="n">
-        <v>196332</v>
+        <v>9332642</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4953038730313958</v>
+        <v>0.4423968046776036</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1242.6</v>
+        <v>2600</v>
       </c>
       <c r="C7" t="n">
-        <v>1243.4</v>
+        <v>2604.7</v>
       </c>
       <c r="D7" t="n">
-        <v>1228.6</v>
+        <v>2554.8</v>
       </c>
       <c r="E7" t="n">
-        <v>1235.6</v>
+        <v>2564</v>
       </c>
       <c r="F7" t="n">
-        <v>1983386</v>
+        <v>2214708</v>
       </c>
       <c r="G7" t="n">
-        <v>1271749</v>
+        <v>1550153</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5595734692930759</v>
+        <v>0.4287028441708657</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.69</v>
+        <v>6187</v>
       </c>
       <c r="C8" t="n">
-        <v>77.09999999999999</v>
+        <v>6280</v>
       </c>
       <c r="D8" t="n">
-        <v>75.48</v>
+        <v>6156.5</v>
       </c>
       <c r="E8" t="n">
-        <v>77</v>
+        <v>6200</v>
       </c>
       <c r="F8" t="n">
-        <v>16353475</v>
+        <v>734989</v>
       </c>
       <c r="G8" t="n">
-        <v>11497372</v>
+        <v>480382</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4223663459788898</v>
+        <v>0.5300094508120621</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1411.1</v>
+        <v>1328</v>
       </c>
       <c r="C9" t="n">
-        <v>1430.4</v>
+        <v>1337.8</v>
       </c>
       <c r="D9" t="n">
-        <v>1402.5</v>
+        <v>1322.2</v>
       </c>
       <c r="E9" t="n">
-        <v>1425</v>
+        <v>1331.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1125138</v>
+        <v>1037085</v>
       </c>
       <c r="G9" t="n">
-        <v>744641</v>
+        <v>708672</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5109804590399938</v>
+        <v>0.463420312923327</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>39985</v>
       </c>
       <c r="C10" t="n">
-        <v>1645</v>
+        <v>40130</v>
       </c>
       <c r="D10" t="n">
-        <v>1608</v>
+        <v>39400</v>
       </c>
       <c r="E10" t="n">
-        <v>1625.5</v>
+        <v>39800</v>
       </c>
       <c r="F10" t="n">
-        <v>643406</v>
+        <v>31662</v>
       </c>
       <c r="G10" t="n">
-        <v>449175</v>
+        <v>19976</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4324172093282128</v>
+        <v>0.5850020024028835</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>IREDA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697</v>
+        <v>155.51</v>
       </c>
       <c r="C11" t="n">
-        <v>1705</v>
+        <v>161.2</v>
       </c>
       <c r="D11" t="n">
-        <v>1677</v>
+        <v>154.11</v>
       </c>
       <c r="E11" t="n">
-        <v>1694.4</v>
+        <v>160.6</v>
       </c>
       <c r="F11" t="n">
-        <v>460077</v>
+        <v>26176765</v>
       </c>
       <c r="G11" t="n">
-        <v>306351</v>
+        <v>17949103</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5017969583908654</v>
+        <v>0.4583884776860437</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>IREDA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>632</v>
+        <v>87.53</v>
       </c>
       <c r="C12" t="n">
-        <v>632.05</v>
+        <v>89.22</v>
       </c>
       <c r="D12" t="n">
-        <v>620.05</v>
+        <v>87.3</v>
       </c>
       <c r="E12" t="n">
-        <v>627.7</v>
+        <v>88</v>
       </c>
       <c r="F12" t="n">
-        <v>2197144</v>
+        <v>25192808</v>
       </c>
       <c r="G12" t="n">
-        <v>1451523</v>
+        <v>16436138</v>
       </c>
       <c r="H12" t="n">
-        <v>0.513681836250614</v>
+        <v>0.5327693160035527</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>YESBANK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>704.6</v>
+        <v>21.07</v>
       </c>
       <c r="C13" t="n">
-        <v>713.4</v>
+        <v>21.39</v>
       </c>
       <c r="D13" t="n">
-        <v>693.3</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>698.2</v>
+        <v>21.21</v>
       </c>
       <c r="F13" t="n">
-        <v>3106450</v>
+        <v>116051178</v>
       </c>
       <c r="G13" t="n">
-        <v>2209645</v>
+        <v>78623637</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4058593122424643</v>
+        <v>0.4760342109332846</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>YESBANK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>848</v>
+        <v>2052</v>
       </c>
       <c r="C14" t="n">
-        <v>866.95</v>
+        <v>2061</v>
       </c>
       <c r="D14" t="n">
-        <v>843.2</v>
+        <v>2041.5</v>
       </c>
       <c r="E14" t="n">
-        <v>860.7</v>
+        <v>2057</v>
       </c>
       <c r="F14" t="n">
-        <v>2039806</v>
+        <v>712388</v>
       </c>
       <c r="G14" t="n">
-        <v>1333162</v>
+        <v>453509</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5300511115678365</v>
+        <v>0.5708354189222264</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>LUPIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1558.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1571.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1552.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F15" t="n">
+        <v>572828</v>
+      </c>
+      <c r="G15" t="n">
+        <v>376290</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5223046054904462</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>735.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>739</v>
+      </c>
+      <c r="D16" t="n">
+        <v>733.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>736.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1021813</v>
+      </c>
+      <c r="G16" t="n">
+        <v>689466</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4820353723026226</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>373.85</v>
+      </c>
+      <c r="D17" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14210253</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9086347</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5639126482842886</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1699</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1668.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1694</v>
+      </c>
+      <c r="F18" t="n">
+        <v>694289</v>
+      </c>
+      <c r="G18" t="n">
+        <v>460077</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5090713076289404</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1469.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1447</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1454.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>716952</v>
+      </c>
+      <c r="G19" t="n">
+        <v>451590</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5876170862950907</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2975</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2918</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2945.9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>423706</v>
+      </c>
+      <c r="G20" t="n">
+        <v>295424</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4342301234835355</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SONACOMS</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>440</v>
+      </c>
+      <c r="C21" t="n">
+        <v>441.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>435.55</v>
+      </c>
+      <c r="E21" t="n">
+        <v>436</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2335111</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1638234</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4253830649345576</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SONACOMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>44300</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44485</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43490</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43690</v>
+      </c>
+      <c r="F22" t="n">
+        <v>43916</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30765</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4274662766130343</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>44.08</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="D23" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10683493</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6808414</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5691603066441024</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>947</v>
+      </c>
+      <c r="C24" t="n">
+        <v>958</v>
+      </c>
+      <c r="D24" t="n">
+        <v>942.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>955.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1130470</v>
+      </c>
+      <c r="G24" t="n">
+        <v>799023</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4148153432379293</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,231 +484,990 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238</v>
+        <v>743.3</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.9</v>
+        <v>752.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1228</v>
+        <v>741.55</v>
       </c>
       <c r="E2" t="n">
-        <v>1239.9</v>
+        <v>747.6</v>
       </c>
       <c r="F2" t="n">
-        <v>914559</v>
+        <v>2232330</v>
       </c>
       <c r="G2" t="n">
-        <v>1983386</v>
+        <v>5132517</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5388900597261451</v>
+        <v>-0.565061352938529</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167</v>
+        <v>1120</v>
       </c>
       <c r="C3" t="n">
-        <v>168.25</v>
+        <v>1136.8</v>
       </c>
       <c r="D3" t="n">
-        <v>165.05</v>
+        <v>1119.9</v>
       </c>
       <c r="E3" t="n">
-        <v>167.25</v>
+        <v>1131</v>
       </c>
       <c r="F3" t="n">
-        <v>4457698</v>
+        <v>701996</v>
       </c>
       <c r="G3" t="n">
-        <v>9198376</v>
+        <v>1438338</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5153820630946159</v>
+        <v>-0.5119394745880315</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.43</v>
+        <v>3600</v>
       </c>
       <c r="C4" t="n">
-        <v>199.5</v>
+        <v>3616.6</v>
       </c>
       <c r="D4" t="n">
-        <v>197.62</v>
+        <v>3569.3</v>
       </c>
       <c r="E4" t="n">
-        <v>197.99</v>
+        <v>3585</v>
       </c>
       <c r="F4" t="n">
-        <v>2693450</v>
+        <v>1664133</v>
       </c>
       <c r="G4" t="n">
-        <v>6394641</v>
+        <v>4018342</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5787957447493925</v>
+        <v>-0.585865762545846</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>M&amp;M</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3002.2</v>
+        <v>1198.9</v>
       </c>
       <c r="C5" t="n">
-        <v>3012.8</v>
+        <v>1201.2</v>
       </c>
       <c r="D5" t="n">
-        <v>2971</v>
+        <v>1184</v>
       </c>
       <c r="E5" t="n">
-        <v>2993</v>
+        <v>1189.2</v>
       </c>
       <c r="F5" t="n">
-        <v>229066</v>
+        <v>1107323</v>
       </c>
       <c r="G5" t="n">
-        <v>451516</v>
+        <v>2395784</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4926735708147663</v>
+        <v>-0.5378034914666765</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>546</v>
+        <v>15879</v>
       </c>
       <c r="C6" t="n">
-        <v>546.5</v>
+        <v>16000</v>
       </c>
       <c r="D6" t="n">
-        <v>535.5</v>
+        <v>15779</v>
       </c>
       <c r="E6" t="n">
-        <v>545</v>
+        <v>15779</v>
       </c>
       <c r="F6" t="n">
-        <v>591413</v>
+        <v>302234</v>
       </c>
       <c r="G6" t="n">
-        <v>1346859</v>
+        <v>652443</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5608946445025055</v>
+        <v>-0.536765663820441</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8250</v>
+        <v>638</v>
       </c>
       <c r="C7" t="n">
-        <v>8334</v>
+        <v>638</v>
       </c>
       <c r="D7" t="n">
-        <v>8243.5</v>
+        <v>625.45</v>
       </c>
       <c r="E7" t="n">
-        <v>8283.5</v>
+        <v>629.3</v>
       </c>
       <c r="F7" t="n">
-        <v>186818</v>
+        <v>2712596</v>
       </c>
       <c r="G7" t="n">
-        <v>382165</v>
+        <v>6415748</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5111587926680884</v>
+        <v>-0.577197234055951</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>862</v>
       </c>
       <c r="C8" t="n">
-        <v>149.85</v>
+        <v>868.2</v>
       </c>
       <c r="D8" t="n">
-        <v>148.22</v>
+        <v>854</v>
       </c>
       <c r="E8" t="n">
-        <v>148.88</v>
+        <v>854.7</v>
       </c>
       <c r="F8" t="n">
-        <v>3282240</v>
+        <v>6594034</v>
       </c>
       <c r="G8" t="n">
-        <v>6998033</v>
+        <v>15206426</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5309767759026001</v>
+        <v>-0.5663652984600063</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>SBIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ITC</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>410.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>411</v>
+      </c>
+      <c r="D9" t="n">
+        <v>406.05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>407</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8930779</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19505321</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5421362714307547</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ITC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JIOFIN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>317</v>
+      </c>
+      <c r="C10" t="n">
+        <v>319</v>
+      </c>
+      <c r="D10" t="n">
+        <v>312.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>313.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7711667</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17671561</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5636114432675189</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>JIOFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ICICIGI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1891.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1852</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1887.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>369477</v>
+      </c>
+      <c r="G11" t="n">
+        <v>878186</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5792725003586939</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ICICIGI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JSWENERGY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>547</v>
+      </c>
+      <c r="C12" t="n">
+        <v>549.45</v>
+      </c>
+      <c r="D12" t="n">
+        <v>539.35</v>
+      </c>
+      <c r="E12" t="n">
+        <v>544</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1883318</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4396075</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5715910215362567</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>JSWENERGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGPOWER</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>782.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>783.75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>769</v>
+      </c>
+      <c r="E13" t="n">
+        <v>772.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1532761</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3287106</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5337050280702843</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CGPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BPCL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>329</v>
+      </c>
+      <c r="C14" t="n">
+        <v>332.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>322.45</v>
+      </c>
+      <c r="E14" t="n">
+        <v>326.35</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4768219</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10022009</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5242252326853828</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>BPCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>237.09</v>
+      </c>
+      <c r="C15" t="n">
+        <v>242.43</v>
+      </c>
+      <c r="D15" t="n">
+        <v>236.41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>239.66</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7227055</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14496280</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.501454511088362</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JSL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>781.55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>791.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>770</v>
+      </c>
+      <c r="E16" t="n">
+        <v>786</v>
+      </c>
+      <c r="F16" t="n">
+        <v>557784</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1110327</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.497639884466468</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>JSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2338</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2357.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2330</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2345</v>
+      </c>
+      <c r="F17" t="n">
+        <v>350851</v>
+      </c>
+      <c r="G17" t="n">
+        <v>695716</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.4956979572124258</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1265.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1289.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1261</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1265.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>383051</v>
+      </c>
+      <c r="G18" t="n">
+        <v>868169</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5587829097790868</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NHPC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>87.14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10256621</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25192808</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5928750379870319</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NHPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="D20" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5165059</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10683493</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.516538364372027</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>43550</v>
+      </c>
+      <c r="C21" t="n">
+        <v>43825</v>
+      </c>
+      <c r="D21" t="n">
+        <v>43300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>43445</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18035</v>
+      </c>
+      <c r="G21" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5893296292922853</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5875</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5905</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5810</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5825</v>
+      </c>
+      <c r="F22" t="n">
+        <v>159068</v>
+      </c>
+      <c r="G22" t="n">
+        <v>354863</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5517481394228195</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>553.75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>560.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>549.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>550</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1119228</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2306017</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.5146488512443751</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>279.75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>275.05</v>
+      </c>
+      <c r="E24" t="n">
+        <v>276.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1377739</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2714497</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.492451456015608</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="C25" t="n">
+        <v>141.75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>139.01</v>
+      </c>
+      <c r="E25" t="n">
+        <v>139.44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12613982</v>
+      </c>
+      <c r="G25" t="n">
+        <v>29812677</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.5768920046998799</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>719.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>719.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>703.85</v>
+      </c>
+      <c r="E26" t="n">
+        <v>708.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1519343</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3207374</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.526296902076278</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4224.6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4224.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4115</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4120</v>
+      </c>
+      <c r="F27" t="n">
+        <v>182799</v>
+      </c>
+      <c r="G27" t="n">
+        <v>361152</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.493844696969697</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2146</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2154.4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2092.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2103</v>
+      </c>
+      <c r="F28" t="n">
+        <v>492664</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1017368</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.5157465145355467</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2674</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2586.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2595</v>
+      </c>
+      <c r="F29" t="n">
+        <v>369548</v>
+      </c>
+      <c r="G29" t="n">
+        <v>730701</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.4942555162782041</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8049</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8125.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7950.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7965</v>
+      </c>
+      <c r="F30" t="n">
+        <v>377442</v>
+      </c>
+      <c r="G30" t="n">
+        <v>876864</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.5695546857893584</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>208.34</v>
+      </c>
+      <c r="C31" t="n">
+        <v>208.67</v>
+      </c>
+      <c r="D31" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>202.85</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3253102</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7287332</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.5535949233546653</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>
@@ -723,7 +1482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,759 +1540,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>852</v>
+        <v>7611.5</v>
       </c>
       <c r="C2" t="n">
-        <v>864.45</v>
+        <v>7796.5</v>
       </c>
       <c r="D2" t="n">
-        <v>849.3</v>
+        <v>7611.5</v>
       </c>
       <c r="E2" t="n">
-        <v>862.55</v>
+        <v>7744</v>
       </c>
       <c r="F2" t="n">
-        <v>15206426</v>
+        <v>302818</v>
       </c>
       <c r="G2" t="n">
-        <v>10400847</v>
+        <v>207129</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4620372744642816</v>
+        <v>0.4619778012736024</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1133</v>
+        <v>248.55</v>
       </c>
       <c r="C3" t="n">
-        <v>1144.1</v>
+        <v>251.78</v>
       </c>
       <c r="D3" t="n">
-        <v>1126.6</v>
+        <v>247.21</v>
       </c>
       <c r="E3" t="n">
-        <v>1140</v>
+        <v>250.49</v>
       </c>
       <c r="F3" t="n">
-        <v>8910732</v>
+        <v>15784007</v>
       </c>
       <c r="G3" t="n">
-        <v>5713032</v>
+        <v>10741757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.559720302634398</v>
+        <v>0.4694064481257582</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2876.1</v>
+        <v>585</v>
       </c>
       <c r="C4" t="n">
-        <v>2891.3</v>
+        <v>600.8</v>
       </c>
       <c r="D4" t="n">
-        <v>2848.3</v>
+        <v>581.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2884.4</v>
+        <v>590</v>
       </c>
       <c r="F4" t="n">
-        <v>790137</v>
+        <v>4982920</v>
       </c>
       <c r="G4" t="n">
-        <v>513800</v>
+        <v>3482230</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5378298949007396</v>
+        <v>0.4309565996502241</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.1</v>
+        <v>3629.1</v>
       </c>
       <c r="C5" t="n">
-        <v>172.67</v>
+        <v>3675</v>
       </c>
       <c r="D5" t="n">
-        <v>170.6</v>
+        <v>3613.8</v>
       </c>
       <c r="E5" t="n">
-        <v>171.98</v>
+        <v>3650.8</v>
       </c>
       <c r="F5" t="n">
-        <v>25406461</v>
+        <v>440659</v>
       </c>
       <c r="G5" t="n">
-        <v>16413388</v>
+        <v>314125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5479108274294131</v>
+        <v>0.4028141663350577</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1414.9</v>
+        <v>246.7</v>
       </c>
       <c r="C6" t="n">
-        <v>1417</v>
+        <v>252.2</v>
       </c>
       <c r="D6" t="n">
-        <v>1403.6</v>
+        <v>246.7</v>
       </c>
       <c r="E6" t="n">
-        <v>1407.6</v>
+        <v>248.3</v>
       </c>
       <c r="F6" t="n">
-        <v>13461373</v>
+        <v>7646105</v>
       </c>
       <c r="G6" t="n">
-        <v>9332642</v>
+        <v>4800420</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4423968046776036</v>
+        <v>0.5927991717391395</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2600</v>
+        <v>1120.1</v>
       </c>
       <c r="C7" t="n">
-        <v>2604.7</v>
+        <v>1127</v>
       </c>
       <c r="D7" t="n">
-        <v>2554.8</v>
+        <v>1110</v>
       </c>
       <c r="E7" t="n">
-        <v>2564</v>
+        <v>1114.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2214708</v>
+        <v>1491052</v>
       </c>
       <c r="G7" t="n">
-        <v>1550153</v>
+        <v>958952</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4287028441708657</v>
+        <v>0.5548765735928388</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187</v>
+        <v>2410.7</v>
       </c>
       <c r="C8" t="n">
-        <v>6280</v>
+        <v>2439.3</v>
       </c>
       <c r="D8" t="n">
-        <v>6156.5</v>
+        <v>2366.1</v>
       </c>
       <c r="E8" t="n">
-        <v>6200</v>
+        <v>2379</v>
       </c>
       <c r="F8" t="n">
-        <v>734989</v>
+        <v>505654</v>
       </c>
       <c r="G8" t="n">
-        <v>480382</v>
+        <v>342690</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5300094508120621</v>
+        <v>0.4755434941200502</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1328</v>
+        <v>166.21</v>
       </c>
       <c r="C9" t="n">
-        <v>1337.8</v>
+        <v>167.9</v>
       </c>
       <c r="D9" t="n">
-        <v>1322.2</v>
+        <v>162.8</v>
       </c>
       <c r="E9" t="n">
-        <v>1331.8</v>
+        <v>162.95</v>
       </c>
       <c r="F9" t="n">
-        <v>1037085</v>
+        <v>6341146</v>
       </c>
       <c r="G9" t="n">
-        <v>708672</v>
+        <v>4457698</v>
       </c>
       <c r="H9" t="n">
-        <v>0.463420312923327</v>
+        <v>0.4225158366493199</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39985</v>
+        <v>149</v>
       </c>
       <c r="C10" t="n">
-        <v>40130</v>
+        <v>149.73</v>
       </c>
       <c r="D10" t="n">
-        <v>39400</v>
+        <v>145.85</v>
       </c>
       <c r="E10" t="n">
-        <v>39800</v>
+        <v>146.35</v>
       </c>
       <c r="F10" t="n">
-        <v>31662</v>
+        <v>4666556</v>
       </c>
       <c r="G10" t="n">
-        <v>19976</v>
+        <v>3282240</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5850020024028835</v>
+        <v>0.4217595300770206</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>IREDA</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>155.51</v>
-      </c>
-      <c r="C11" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>154.11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>160.6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>26176765</v>
-      </c>
-      <c r="G11" t="n">
-        <v>17949103</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.4583884776860437</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>IREDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>87.53</v>
-      </c>
-      <c r="C12" t="n">
-        <v>89.22</v>
-      </c>
-      <c r="D12" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>88</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25192808</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16436138</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5327693160035527</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="C13" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="D13" t="n">
-        <v>21</v>
-      </c>
-      <c r="E13" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="F13" t="n">
-        <v>116051178</v>
-      </c>
-      <c r="G13" t="n">
-        <v>78623637</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4760342109332846</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2052</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2061</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2041.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2057</v>
-      </c>
-      <c r="F14" t="n">
-        <v>712388</v>
-      </c>
-      <c r="G14" t="n">
-        <v>453509</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5708354189222264</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1558.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1571.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1552.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1561</v>
-      </c>
-      <c r="F15" t="n">
-        <v>572828</v>
-      </c>
-      <c r="G15" t="n">
-        <v>376290</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5223046054904462</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IRCTC</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>735.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>739</v>
-      </c>
-      <c r="D16" t="n">
-        <v>733.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>736.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1021813</v>
-      </c>
-      <c r="G16" t="n">
-        <v>689466</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4820353723026226</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>IRCTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>370.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>373.85</v>
-      </c>
-      <c r="D17" t="n">
-        <v>367.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>368.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14210253</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9086347</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5639126482842886</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1690</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1699</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1668.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1694</v>
-      </c>
-      <c r="F18" t="n">
-        <v>694289</v>
-      </c>
-      <c r="G18" t="n">
-        <v>460077</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5090713076289404</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1460</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1469.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1447</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1454.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>716952</v>
-      </c>
-      <c r="G19" t="n">
-        <v>451590</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5876170862950907</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2975</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2990</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2918</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2945.9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>423706</v>
-      </c>
-      <c r="G20" t="n">
-        <v>295424</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4342301234835355</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SONACOMS</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>440</v>
-      </c>
-      <c r="C21" t="n">
-        <v>441.2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>435.55</v>
-      </c>
-      <c r="E21" t="n">
-        <v>436</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2335111</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1638234</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.4253830649345576</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SONACOMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>PAGEIND</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>44300</v>
-      </c>
-      <c r="C22" t="n">
-        <v>44485</v>
-      </c>
-      <c r="D22" t="n">
-        <v>43490</v>
-      </c>
-      <c r="E22" t="n">
-        <v>43690</v>
-      </c>
-      <c r="F22" t="n">
-        <v>43916</v>
-      </c>
-      <c r="G22" t="n">
-        <v>30765</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4274662766130343</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>PAGEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>44.08</v>
-      </c>
-      <c r="C23" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="D23" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="E23" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10683493</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6808414</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5691603066441024</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>947</v>
-      </c>
-      <c r="C24" t="n">
-        <v>958</v>
-      </c>
-      <c r="D24" t="n">
-        <v>942.6</v>
-      </c>
-      <c r="E24" t="n">
-        <v>955.25</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1130470</v>
-      </c>
-      <c r="G24" t="n">
-        <v>799023</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.4148153432379293</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
+          <t>IEX</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1453</v>
+        <v>6950</v>
       </c>
       <c r="C2" t="n">
-        <v>1455</v>
+        <v>7060.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1423.1</v>
+        <v>6927.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1438.8</v>
+        <v>7025</v>
       </c>
       <c r="F2" t="n">
-        <v>2550337</v>
+        <v>323002</v>
       </c>
       <c r="G2" t="n">
-        <v>5490489</v>
+        <v>679055</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5354991149240077</v>
+        <v>-0.524336025800561</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>874.5</v>
+        <v>2446</v>
       </c>
       <c r="C3" t="n">
-        <v>874.85</v>
+        <v>2475</v>
       </c>
       <c r="D3" t="n">
-        <v>864</v>
+        <v>2443.2</v>
       </c>
       <c r="E3" t="n">
-        <v>870</v>
+        <v>2458.5</v>
       </c>
       <c r="F3" t="n">
-        <v>520336</v>
+        <v>637749</v>
       </c>
       <c r="G3" t="n">
-        <v>1042879</v>
+        <v>1332111</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5010581285077176</v>
+        <v>-0.521249355346514</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>702.25</v>
+        <v>2813.5</v>
       </c>
       <c r="C4" t="n">
-        <v>706.7</v>
+        <v>2838.7</v>
       </c>
       <c r="D4" t="n">
-        <v>695.8</v>
+        <v>2797.9</v>
       </c>
       <c r="E4" t="n">
-        <v>699</v>
+        <v>2811.7</v>
       </c>
       <c r="F4" t="n">
-        <v>743334</v>
+        <v>316532</v>
       </c>
       <c r="G4" t="n">
-        <v>1560556</v>
+        <v>702680</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5236736137632998</v>
+        <v>-0.5495360619343086</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>248.95</v>
+        <v>1487.2</v>
       </c>
       <c r="C5" t="n">
-        <v>249.73</v>
+        <v>1496.7</v>
       </c>
       <c r="D5" t="n">
-        <v>244.2</v>
+        <v>1482.7</v>
       </c>
       <c r="E5" t="n">
-        <v>246.6</v>
+        <v>1494.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3369508</v>
+        <v>4937004</v>
       </c>
       <c r="G5" t="n">
-        <v>7646105</v>
+        <v>9832164</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5593170640476426</v>
+        <v>-0.4978720859416096</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1196.2</v>
+        <v>7698</v>
       </c>
       <c r="C6" t="n">
-        <v>1203.9</v>
+        <v>7730</v>
       </c>
       <c r="D6" t="n">
-        <v>1177.6</v>
+        <v>7634.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1181</v>
+        <v>7662</v>
       </c>
       <c r="F6" t="n">
-        <v>1697633</v>
+        <v>201984</v>
       </c>
       <c r="G6" t="n">
-        <v>3921140</v>
+        <v>443181</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5670562642496825</v>
+        <v>-0.5442403893668727</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.20999999999999</v>
+        <v>1385.3</v>
       </c>
       <c r="C7" t="n">
-        <v>93.43000000000001</v>
+        <v>1396</v>
       </c>
       <c r="D7" t="n">
-        <v>90.84999999999999</v>
+        <v>1380.4</v>
       </c>
       <c r="E7" t="n">
-        <v>92.15000000000001</v>
+        <v>1381.1</v>
       </c>
       <c r="F7" t="n">
-        <v>6807741</v>
+        <v>5922759</v>
       </c>
       <c r="G7" t="n">
-        <v>16606924</v>
+        <v>14014702</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5900661073658192</v>
+        <v>-0.57738958702083</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HDFCLIFE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>771.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>775.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>768.05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>768.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1102305</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2220802</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5036455298581324</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>HDFCLIFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12427</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12448</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F9" t="n">
+        <v>166517</v>
+      </c>
+      <c r="G9" t="n">
+        <v>403638</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.587459555344145</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18189</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18030</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18161</v>
+      </c>
+      <c r="F10" t="n">
+        <v>63334</v>
+      </c>
+      <c r="G10" t="n">
+        <v>132042</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5203495857378713</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UNOMINDA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1324.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1326.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1301.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1309.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>468129</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1015364</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5389545030156673</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>UNOMINDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>162.09</v>
+      </c>
+      <c r="C12" t="n">
+        <v>163.67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>158</v>
+      </c>
+      <c r="E12" t="n">
+        <v>158.19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5184943</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10403417</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5016115378245436</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4165.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4170</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4063.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4063.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>229105</v>
+      </c>
+      <c r="G13" t="n">
+        <v>522204</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5612729891000452</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>724</v>
+      </c>
+      <c r="C14" t="n">
+        <v>724.75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>662.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>665.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6306234</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14832905</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5748483523625345</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3979056</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7932080</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.4983590684914928</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>149.98</v>
+      </c>
+      <c r="D16" t="n">
+        <v>144.02</v>
+      </c>
+      <c r="E16" t="n">
+        <v>144.48</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4208993</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8282682</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.491832114283755</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
         </is>
       </c>
     </row>
@@ -690,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,627 +1045,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339.45</v>
+        <v>1470</v>
       </c>
       <c r="C2" t="n">
-        <v>344.1</v>
+        <v>1470</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1</v>
+        <v>1439</v>
       </c>
       <c r="E2" t="n">
-        <v>343.05</v>
+        <v>1453.6</v>
       </c>
       <c r="F2" t="n">
-        <v>10738268</v>
+        <v>2122106</v>
       </c>
       <c r="G2" t="n">
-        <v>6966213</v>
+        <v>1380054</v>
       </c>
       <c r="H2" t="n">
-        <v>0.54147856231212</v>
+        <v>0.5376978002310054</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3610</v>
+        <v>178.7</v>
       </c>
       <c r="C3" t="n">
-        <v>3679.2</v>
+        <v>179</v>
       </c>
       <c r="D3" t="n">
-        <v>3606.8</v>
+        <v>175.66</v>
       </c>
       <c r="E3" t="n">
-        <v>3610</v>
+        <v>176</v>
       </c>
       <c r="F3" t="n">
-        <v>2523224</v>
+        <v>10054492</v>
       </c>
       <c r="G3" t="n">
-        <v>1664133</v>
+        <v>6368313</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5162393871162941</v>
+        <v>0.5788313168652357</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.65</v>
+        <v>3500</v>
       </c>
       <c r="C4" t="n">
-        <v>289</v>
+        <v>3515.4</v>
       </c>
       <c r="D4" t="n">
-        <v>285.4</v>
+        <v>3443.3</v>
       </c>
       <c r="E4" t="n">
-        <v>288.55</v>
+        <v>3445</v>
       </c>
       <c r="F4" t="n">
-        <v>13619147</v>
+        <v>693587</v>
       </c>
       <c r="G4" t="n">
-        <v>9456933</v>
+        <v>491046</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4401230293161641</v>
+        <v>0.4124684856408565</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3646.9</v>
+        <v>2959.7</v>
       </c>
       <c r="C5" t="n">
-        <v>3673.5</v>
+        <v>2995</v>
       </c>
       <c r="D5" t="n">
-        <v>3613.2</v>
+        <v>2924</v>
       </c>
       <c r="E5" t="n">
-        <v>3660</v>
+        <v>2945</v>
       </c>
       <c r="F5" t="n">
-        <v>1262120</v>
+        <v>1486145</v>
       </c>
       <c r="G5" t="n">
-        <v>839430</v>
+        <v>934666</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5035440715723765</v>
+        <v>0.5900278816176046</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1131</v>
+        <v>426</v>
       </c>
       <c r="C6" t="n">
-        <v>1134.6</v>
+        <v>431</v>
       </c>
       <c r="D6" t="n">
-        <v>1118.4</v>
+        <v>422.75</v>
       </c>
       <c r="E6" t="n">
-        <v>1128.4</v>
+        <v>425.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1082761</v>
+        <v>7158456</v>
       </c>
       <c r="G6" t="n">
-        <v>701996</v>
+        <v>4865287</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5424033755178093</v>
+        <v>0.47133272918946</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.85</v>
+        <v>2016.8</v>
       </c>
       <c r="C7" t="n">
-        <v>315</v>
+        <v>2050.2</v>
       </c>
       <c r="D7" t="n">
-        <v>310.75</v>
+        <v>2004.2</v>
       </c>
       <c r="E7" t="n">
-        <v>313.05</v>
+        <v>2020.1</v>
       </c>
       <c r="F7" t="n">
-        <v>11896537</v>
+        <v>651958</v>
       </c>
       <c r="G7" t="n">
-        <v>7711667</v>
+        <v>413502</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5426673636193057</v>
+        <v>0.5766743570768702</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391</v>
+        <v>246</v>
       </c>
       <c r="C8" t="n">
-        <v>1403.3</v>
+        <v>249.52</v>
       </c>
       <c r="D8" t="n">
-        <v>1391</v>
+        <v>245.17</v>
       </c>
       <c r="E8" t="n">
-        <v>1396.1</v>
+        <v>246.36</v>
       </c>
       <c r="F8" t="n">
-        <v>12827524</v>
+        <v>4991261</v>
       </c>
       <c r="G8" t="n">
-        <v>8847948</v>
+        <v>3369508</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4497738910762134</v>
+        <v>0.4813026115385391</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3465.2</v>
+        <v>1620</v>
       </c>
       <c r="C9" t="n">
-        <v>3465.3</v>
+        <v>1620</v>
       </c>
       <c r="D9" t="n">
-        <v>3405</v>
+        <v>1570.9</v>
       </c>
       <c r="E9" t="n">
-        <v>3439.3</v>
+        <v>1588</v>
       </c>
       <c r="F9" t="n">
-        <v>1144975</v>
+        <v>696192</v>
       </c>
       <c r="G9" t="n">
-        <v>817833</v>
+        <v>466468</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4000107601429632</v>
+        <v>0.4924753680852706</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>HFCL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7725</v>
+        <v>76.3</v>
       </c>
       <c r="C10" t="n">
-        <v>7749</v>
+        <v>76.56</v>
       </c>
       <c r="D10" t="n">
-        <v>7664.5</v>
+        <v>74.52</v>
       </c>
       <c r="E10" t="n">
-        <v>7685</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>443181</v>
+        <v>13673226</v>
       </c>
       <c r="G10" t="n">
-        <v>302818</v>
+        <v>9392547</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4635226439643614</v>
+        <v>0.4557527367177401</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ASIANPAINT</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2472.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2483.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2428</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2450</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1332111</v>
-      </c>
-      <c r="G11" t="n">
-        <v>872806</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5262395079777178</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ASIANPAINT</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CANBK</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>118.77</v>
-      </c>
-      <c r="C12" t="n">
-        <v>122.09</v>
-      </c>
-      <c r="D12" t="n">
-        <v>116.93</v>
-      </c>
-      <c r="E12" t="n">
-        <v>121.85</v>
-      </c>
-      <c r="F12" t="n">
-        <v>44544453</v>
-      </c>
-      <c r="G12" t="n">
-        <v>31509156</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4136987039576687</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>CANBK</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PFC</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>409.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>415</v>
-      </c>
-      <c r="D13" t="n">
-        <v>409.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>412.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4410834</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3096650</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4243889364313048</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>PFC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>INDIGO</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5765</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5812.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5716</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5735</v>
-      </c>
-      <c r="F14" t="n">
-        <v>662077</v>
-      </c>
-      <c r="G14" t="n">
-        <v>449815</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4718873314584885</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>INDIGO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>DMART</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4695.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4711.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4572.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4622.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>398679</v>
-      </c>
-      <c r="G15" t="n">
-        <v>253711</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5713902826444262</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>DMART</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1285968709</v>
-      </c>
-      <c r="G16" t="n">
-        <v>886795850</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4501293719405656</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NMDC</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>76.88</v>
-      </c>
-      <c r="C17" t="n">
-        <v>78.38</v>
-      </c>
-      <c r="D17" t="n">
-        <v>76.51000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>32011480</v>
-      </c>
-      <c r="G17" t="n">
-        <v>21600325</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4819906644923166</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>NMDC</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>INDIANB</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>703.95</v>
-      </c>
-      <c r="C18" t="n">
-        <v>703.95</v>
-      </c>
-      <c r="D18" t="n">
-        <v>693.95</v>
-      </c>
-      <c r="E18" t="n">
-        <v>694.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1352536</v>
-      </c>
-      <c r="G18" t="n">
-        <v>896675</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5083904424680068</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>INDIANB</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MAXHEALTH</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1174.7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1175</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1149</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1154.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4729220</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3370928</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.4029430471371682</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>MAXHEALTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>506.9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>506.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>494</v>
-      </c>
-      <c r="E20" t="n">
-        <v>496</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3515718</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2318111</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5166305668710428</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
+          <t>HFCL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,495 +484,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6950</v>
+        <v>340.5</v>
       </c>
       <c r="C2" t="n">
-        <v>7060.5</v>
+        <v>340.75</v>
       </c>
       <c r="D2" t="n">
-        <v>6927.5</v>
+        <v>336.45</v>
       </c>
       <c r="E2" t="n">
-        <v>7025</v>
+        <v>338.2</v>
       </c>
       <c r="F2" t="n">
-        <v>323002</v>
+        <v>6337702</v>
       </c>
       <c r="G2" t="n">
-        <v>679055</v>
+        <v>14653575</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.524336025800561</v>
+        <v>-0.5674978972708025</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2446</v>
+        <v>2535</v>
       </c>
       <c r="C3" t="n">
-        <v>2475</v>
+        <v>2545.4</v>
       </c>
       <c r="D3" t="n">
-        <v>2443.2</v>
+        <v>2499.4</v>
       </c>
       <c r="E3" t="n">
-        <v>2458.5</v>
+        <v>2512</v>
       </c>
       <c r="F3" t="n">
-        <v>637749</v>
+        <v>885612</v>
       </c>
       <c r="G3" t="n">
-        <v>1332111</v>
+        <v>1882881</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.521249355346514</v>
+        <v>-0.5296505727127737</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2813.5</v>
+        <v>1161.6</v>
       </c>
       <c r="C4" t="n">
-        <v>2838.7</v>
+        <v>1169.7</v>
       </c>
       <c r="D4" t="n">
-        <v>2797.9</v>
+        <v>1148</v>
       </c>
       <c r="E4" t="n">
-        <v>2811.7</v>
+        <v>1154</v>
       </c>
       <c r="F4" t="n">
-        <v>316532</v>
+        <v>5618932</v>
       </c>
       <c r="G4" t="n">
-        <v>702680</v>
+        <v>12812055</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5495360619343086</v>
+        <v>-0.5614339776093686</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.2</v>
+        <v>252.82</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.7</v>
+        <v>252.98</v>
       </c>
       <c r="D5" t="n">
-        <v>1482.7</v>
+        <v>247.17</v>
       </c>
       <c r="E5" t="n">
-        <v>1494.9</v>
+        <v>248.45</v>
       </c>
       <c r="F5" t="n">
-        <v>4937004</v>
+        <v>7652782</v>
       </c>
       <c r="G5" t="n">
-        <v>9832164</v>
+        <v>19015206</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4978720859416096</v>
+        <v>-0.5975440918178851</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7698</v>
+        <v>121.35</v>
       </c>
       <c r="C6" t="n">
-        <v>7730</v>
+        <v>121.55</v>
       </c>
       <c r="D6" t="n">
-        <v>7634.5</v>
+        <v>117.5</v>
       </c>
       <c r="E6" t="n">
-        <v>7662</v>
+        <v>118.25</v>
       </c>
       <c r="F6" t="n">
-        <v>201984</v>
+        <v>25531804</v>
       </c>
       <c r="G6" t="n">
-        <v>443181</v>
+        <v>55162500</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5442403893668727</v>
+        <v>-0.5371528846589622</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1385.3</v>
+        <v>1082.85</v>
       </c>
       <c r="C7" t="n">
-        <v>1396</v>
+        <v>1086.8</v>
       </c>
       <c r="D7" t="n">
-        <v>1380.4</v>
+        <v>1040.4</v>
       </c>
       <c r="E7" t="n">
-        <v>1381.1</v>
+        <v>1051</v>
       </c>
       <c r="F7" t="n">
-        <v>5922759</v>
+        <v>3774879</v>
       </c>
       <c r="G7" t="n">
-        <v>14014702</v>
+        <v>7615653</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.57738958702083</v>
+        <v>-0.5043262869251002</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>771.25</v>
+        <v>1535.9</v>
       </c>
       <c r="C8" t="n">
-        <v>775.6</v>
+        <v>1543.8</v>
       </c>
       <c r="D8" t="n">
-        <v>768.05</v>
+        <v>1503.2</v>
       </c>
       <c r="E8" t="n">
-        <v>768.45</v>
+        <v>1506</v>
       </c>
       <c r="F8" t="n">
-        <v>1102305</v>
+        <v>395032</v>
       </c>
       <c r="G8" t="n">
-        <v>2220802</v>
+        <v>848538</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5036455298581324</v>
+        <v>-0.5344557344514919</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12427</v>
+        <v>287.2</v>
       </c>
       <c r="C9" t="n">
-        <v>12448</v>
+        <v>287.95</v>
       </c>
       <c r="D9" t="n">
-        <v>12200</v>
+        <v>277.7</v>
       </c>
       <c r="E9" t="n">
-        <v>12210</v>
+        <v>280.25</v>
       </c>
       <c r="F9" t="n">
-        <v>166517</v>
+        <v>4655764</v>
       </c>
       <c r="G9" t="n">
-        <v>403638</v>
+        <v>9448934</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.587459555344145</v>
+        <v>-0.5072709789273584</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18100</v>
+        <v>674.5</v>
       </c>
       <c r="C10" t="n">
-        <v>18189</v>
+        <v>681.95</v>
       </c>
       <c r="D10" t="n">
-        <v>18030</v>
+        <v>646.5</v>
       </c>
       <c r="E10" t="n">
-        <v>18161</v>
+        <v>649.7</v>
       </c>
       <c r="F10" t="n">
-        <v>63334</v>
+        <v>3164703</v>
       </c>
       <c r="G10" t="n">
-        <v>132042</v>
+        <v>6306234</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5203495857378713</v>
+        <v>-0.4981627703634213</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>ATGL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1324.8</v>
+        <v>488.65</v>
       </c>
       <c r="C11" t="n">
-        <v>1326.4</v>
+        <v>492.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1301.4</v>
+        <v>481.55</v>
       </c>
       <c r="E11" t="n">
-        <v>1309.8</v>
+        <v>484.1</v>
       </c>
       <c r="F11" t="n">
-        <v>468129</v>
+        <v>870181</v>
       </c>
       <c r="G11" t="n">
-        <v>1015364</v>
+        <v>2014592</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5389545030156673</v>
+        <v>-0.5680609274731558</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BANDHANBNK</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>162.09</v>
-      </c>
-      <c r="C12" t="n">
-        <v>163.67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>158</v>
-      </c>
-      <c r="E12" t="n">
-        <v>158.19</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5184943</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10403417</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5016115378245436</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>BANDHANBNK</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KEI</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4165.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4170</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4063.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4063.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>229105</v>
-      </c>
-      <c r="G13" t="n">
-        <v>522204</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5612729891000452</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>KEI</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>724</v>
-      </c>
-      <c r="C14" t="n">
-        <v>724.75</v>
-      </c>
-      <c r="D14" t="n">
-        <v>662.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>665.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6306234</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14832905</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5748483523625345</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RBLBANK</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>270.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3979056</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7932080</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.4983590684914928</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>RBLBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>INOXWIND</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>149.98</v>
-      </c>
-      <c r="D16" t="n">
-        <v>144.02</v>
-      </c>
-      <c r="E16" t="n">
-        <v>144.48</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4208993</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8282682</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.491832114283755</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>INOXWIND</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>
@@ -987,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,295 +880,559 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470</v>
+        <v>745.9</v>
       </c>
       <c r="C2" t="n">
-        <v>1470</v>
+        <v>749.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1439</v>
+        <v>731.95</v>
       </c>
       <c r="E2" t="n">
-        <v>1453.6</v>
+        <v>742.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2122106</v>
+        <v>3636265</v>
       </c>
       <c r="G2" t="n">
-        <v>1380054</v>
+        <v>2415165</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5376978002310054</v>
+        <v>0.5055969260899359</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.7</v>
+        <v>1155</v>
       </c>
       <c r="C3" t="n">
-        <v>179</v>
+        <v>1167.9</v>
       </c>
       <c r="D3" t="n">
-        <v>175.66</v>
+        <v>1127.9</v>
       </c>
       <c r="E3" t="n">
-        <v>176</v>
+        <v>1128.5</v>
       </c>
       <c r="F3" t="n">
-        <v>10054492</v>
+        <v>2999892</v>
       </c>
       <c r="G3" t="n">
-        <v>6368313</v>
+        <v>2111388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5788313168652357</v>
+        <v>0.4208151225639248</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3500</v>
+        <v>1008.05</v>
       </c>
       <c r="C4" t="n">
-        <v>3515.4</v>
+        <v>1010.5</v>
       </c>
       <c r="D4" t="n">
-        <v>3443.3</v>
+        <v>981.05</v>
       </c>
       <c r="E4" t="n">
-        <v>3445</v>
+        <v>985</v>
       </c>
       <c r="F4" t="n">
-        <v>693587</v>
+        <v>9109737</v>
       </c>
       <c r="G4" t="n">
-        <v>491046</v>
+        <v>6433184</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4124684856408565</v>
+        <v>0.4160541654023886</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2959.7</v>
+        <v>1889.8</v>
       </c>
       <c r="C5" t="n">
-        <v>2995</v>
+        <v>1906.9</v>
       </c>
       <c r="D5" t="n">
-        <v>2924</v>
+        <v>1874.9</v>
       </c>
       <c r="E5" t="n">
-        <v>2945</v>
+        <v>1885.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1486145</v>
+        <v>1278304</v>
       </c>
       <c r="G5" t="n">
-        <v>934666</v>
+        <v>821515</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5900278816176046</v>
+        <v>0.5560324522376341</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="C6" t="n">
-        <v>431</v>
+        <v>375.05</v>
       </c>
       <c r="D6" t="n">
-        <v>422.75</v>
+        <v>365</v>
       </c>
       <c r="E6" t="n">
-        <v>425.1</v>
+        <v>367.1</v>
       </c>
       <c r="F6" t="n">
-        <v>7158456</v>
+        <v>4501242</v>
       </c>
       <c r="G6" t="n">
-        <v>4865287</v>
+        <v>3170894</v>
       </c>
       <c r="H6" t="n">
-        <v>0.47133272918946</v>
+        <v>0.4195498178116329</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>RECLTD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>CGPOWER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2016.8</v>
+        <v>758</v>
       </c>
       <c r="C7" t="n">
-        <v>2050.2</v>
+        <v>759.45</v>
       </c>
       <c r="D7" t="n">
-        <v>2004.2</v>
+        <v>737.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2020.1</v>
+        <v>742</v>
       </c>
       <c r="F7" t="n">
-        <v>651958</v>
+        <v>1925106</v>
       </c>
       <c r="G7" t="n">
-        <v>413502</v>
+        <v>1284403</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5766743570768702</v>
+        <v>0.4988333101059403</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>CGPOWER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>246</v>
+        <v>3981</v>
       </c>
       <c r="C8" t="n">
-        <v>249.52</v>
+        <v>4006</v>
       </c>
       <c r="D8" t="n">
-        <v>245.17</v>
+        <v>3926.7</v>
       </c>
       <c r="E8" t="n">
-        <v>246.36</v>
+        <v>3949.5</v>
       </c>
       <c r="F8" t="n">
-        <v>4991261</v>
+        <v>245108</v>
       </c>
       <c r="G8" t="n">
-        <v>3369508</v>
+        <v>160301</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4813026115385391</v>
+        <v>0.529048477551606</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1620</v>
+        <v>393.2</v>
       </c>
       <c r="C9" t="n">
-        <v>1620</v>
+        <v>400.05</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.9</v>
+        <v>387.65</v>
       </c>
       <c r="E9" t="n">
-        <v>1588</v>
+        <v>388.75</v>
       </c>
       <c r="F9" t="n">
-        <v>696192</v>
+        <v>2218255</v>
       </c>
       <c r="G9" t="n">
-        <v>466468</v>
+        <v>1558689</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4924753680852706</v>
+        <v>0.4231543303378673</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1552</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1578.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1541</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1544.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>532878</v>
+      </c>
+      <c r="G10" t="n">
+        <v>344824</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5453622717676264</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>414</v>
+      </c>
+      <c r="C11" t="n">
+        <v>417.65</v>
+      </c>
+      <c r="D11" t="n">
+        <v>407.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>409.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1503166</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1008571</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4903918514412967</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1698</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1653.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1656.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>836539</v>
+      </c>
+      <c r="G12" t="n">
+        <v>571798</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4629974221665693</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SUZLON</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>56.96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>55.49</v>
+      </c>
+      <c r="F13" t="n">
+        <v>54393034</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36883372</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4747305099978386</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SUZLON</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3195</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3210.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3110</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3136.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>200317</v>
+      </c>
+      <c r="G14" t="n">
+        <v>139434</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4366438601775751</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40.51</v>
+      </c>
+      <c r="E15" t="n">
+        <v>41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10819017</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7706276</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4039228545668492</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SOLARINDS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14190</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14190</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13741</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13755</v>
+      </c>
+      <c r="F16" t="n">
+        <v>120026</v>
+      </c>
+      <c r="G16" t="n">
+        <v>78632</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5264268999898261</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SOLARINDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1956.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1972</v>
+      </c>
+      <c r="F17" t="n">
+        <v>924467</v>
+      </c>
+      <c r="G17" t="n">
+        <v>651958</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4179855144043021</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>HFCL</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>76.56</v>
-      </c>
-      <c r="D10" t="n">
-        <v>74.52</v>
-      </c>
-      <c r="E10" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="B18" t="n">
+        <v>76.05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>76.28</v>
+      </c>
+      <c r="D18" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20761048</v>
+      </c>
+      <c r="G18" t="n">
         <v>13673226</v>
       </c>
-      <c r="G10" t="n">
-        <v>9392547</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4557527367177401</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="H18" t="n">
+        <v>0.5183723285199849</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>HFCL</t>
         </is>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340.5</v>
+        <v>3738</v>
       </c>
       <c r="C2" t="n">
-        <v>340.75</v>
+        <v>3740</v>
       </c>
       <c r="D2" t="n">
-        <v>336.45</v>
+        <v>3679.6</v>
       </c>
       <c r="E2" t="n">
-        <v>338.2</v>
+        <v>3704.3</v>
       </c>
       <c r="F2" t="n">
-        <v>6337702</v>
+        <v>2599630</v>
       </c>
       <c r="G2" t="n">
-        <v>14653575</v>
+        <v>5870301</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5674978972708025</v>
+        <v>-0.5571555870814802</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2535</v>
+        <v>1894</v>
       </c>
       <c r="C3" t="n">
-        <v>2545.4</v>
+        <v>1910</v>
       </c>
       <c r="D3" t="n">
-        <v>2499.4</v>
+        <v>1871.9</v>
       </c>
       <c r="E3" t="n">
-        <v>2512</v>
+        <v>1900</v>
       </c>
       <c r="F3" t="n">
-        <v>885612</v>
+        <v>560303</v>
       </c>
       <c r="G3" t="n">
-        <v>1882881</v>
+        <v>1278304</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5296505727127737</v>
+        <v>-0.5616825105765139</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1161.6</v>
+        <v>8.06</v>
       </c>
       <c r="C4" t="n">
-        <v>1169.7</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>1148</v>
+        <v>8.02</v>
       </c>
       <c r="E4" t="n">
-        <v>1154</v>
+        <v>8.25</v>
       </c>
       <c r="F4" t="n">
-        <v>5618932</v>
+        <v>739155377</v>
       </c>
       <c r="G4" t="n">
-        <v>12812055</v>
+        <v>1597372619</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5614339776093686</v>
+        <v>-0.5372680311355706</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252.82</v>
+        <v>340.2</v>
       </c>
       <c r="C5" t="n">
-        <v>252.98</v>
+        <v>343.5</v>
       </c>
       <c r="D5" t="n">
-        <v>247.17</v>
+        <v>338.2</v>
       </c>
       <c r="E5" t="n">
-        <v>248.45</v>
+        <v>341.2</v>
       </c>
       <c r="F5" t="n">
-        <v>7652782</v>
+        <v>1703064</v>
       </c>
       <c r="G5" t="n">
-        <v>19015206</v>
+        <v>3635613</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5975440918178851</v>
+        <v>-0.5315607024179967</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>BIOCON</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.35</v>
+        <v>833.4</v>
       </c>
       <c r="C6" t="n">
-        <v>121.55</v>
+        <v>849.8</v>
       </c>
       <c r="D6" t="n">
-        <v>117.5</v>
+        <v>826.2</v>
       </c>
       <c r="E6" t="n">
-        <v>118.25</v>
+        <v>840</v>
       </c>
       <c r="F6" t="n">
-        <v>25531804</v>
+        <v>2764351</v>
       </c>
       <c r="G6" t="n">
-        <v>55162500</v>
+        <v>5612259</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5371528846589622</v>
+        <v>-0.5074441503857894</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>CROMPTON</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1082.85</v>
+        <v>294.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1086.8</v>
+        <v>295.6</v>
       </c>
       <c r="D7" t="n">
-        <v>1040.4</v>
+        <v>292.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1051</v>
+        <v>293.95</v>
       </c>
       <c r="F7" t="n">
-        <v>3774879</v>
+        <v>2414846</v>
       </c>
       <c r="G7" t="n">
-        <v>7615653</v>
+        <v>5080459</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5043262869251002</v>
+        <v>-0.5246795614333272</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PRESTIGE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1535.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1543.8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1503.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1506</v>
-      </c>
-      <c r="F8" t="n">
-        <v>395032</v>
-      </c>
-      <c r="G8" t="n">
-        <v>848538</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.5344557344514919</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>PRESTIGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>287.95</v>
-      </c>
-      <c r="D9" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>280.25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4655764</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9448934</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5072709789273584</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>674.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>681.95</v>
-      </c>
-      <c r="D10" t="n">
-        <v>646.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>649.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3164703</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6306234</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.4981627703634213</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>488.65</v>
-      </c>
-      <c r="C11" t="n">
-        <v>492.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>481.55</v>
-      </c>
-      <c r="E11" t="n">
-        <v>484.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>870181</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2014592</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5680609274731558</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
+          <t>CROMPTON</t>
         </is>
       </c>
     </row>
@@ -822,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,528 +748,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>745.9</v>
+        <v>1415</v>
       </c>
       <c r="C2" t="n">
-        <v>749.5</v>
+        <v>1425</v>
       </c>
       <c r="D2" t="n">
-        <v>731.95</v>
+        <v>1391.9</v>
       </c>
       <c r="E2" t="n">
-        <v>742.5</v>
+        <v>1410</v>
       </c>
       <c r="F2" t="n">
-        <v>3636265</v>
+        <v>2708118</v>
       </c>
       <c r="G2" t="n">
-        <v>2415165</v>
+        <v>1851067</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5055969260899359</v>
+        <v>0.4630037702579107</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1155</v>
+        <v>1381.6</v>
       </c>
       <c r="C3" t="n">
-        <v>1167.9</v>
+        <v>1389</v>
       </c>
       <c r="D3" t="n">
-        <v>1127.9</v>
+        <v>1368</v>
       </c>
       <c r="E3" t="n">
-        <v>1128.5</v>
+        <v>1376</v>
       </c>
       <c r="F3" t="n">
-        <v>2999892</v>
+        <v>14231999</v>
       </c>
       <c r="G3" t="n">
-        <v>2111388</v>
+        <v>9879109</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4208151225639248</v>
+        <v>0.440615646613475</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1008.05</v>
+        <v>389.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1010.5</v>
+        <v>391.6</v>
       </c>
       <c r="D4" t="n">
-        <v>981.05</v>
+        <v>385.6</v>
       </c>
       <c r="E4" t="n">
-        <v>985</v>
+        <v>388.2</v>
       </c>
       <c r="F4" t="n">
-        <v>9109737</v>
+        <v>6606409</v>
       </c>
       <c r="G4" t="n">
-        <v>6433184</v>
+        <v>4698693</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4160541654023886</v>
+        <v>0.4060099265902241</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>COALINDIA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1889.8</v>
+        <v>1928</v>
       </c>
       <c r="C5" t="n">
-        <v>1906.9</v>
+        <v>1928</v>
       </c>
       <c r="D5" t="n">
-        <v>1874.9</v>
+        <v>1897.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1885.2</v>
+        <v>1906.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1278304</v>
+        <v>5072608</v>
       </c>
       <c r="G5" t="n">
-        <v>821515</v>
+        <v>3239306</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5560324522376341</v>
+        <v>0.5659551768187383</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374</v>
+        <v>145.04</v>
       </c>
       <c r="C6" t="n">
-        <v>375.05</v>
+        <v>149.95</v>
       </c>
       <c r="D6" t="n">
-        <v>365</v>
+        <v>145.04</v>
       </c>
       <c r="E6" t="n">
-        <v>367.1</v>
+        <v>149.27</v>
       </c>
       <c r="F6" t="n">
-        <v>4501242</v>
+        <v>16918652</v>
       </c>
       <c r="G6" t="n">
-        <v>3170894</v>
+        <v>11925305</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4195498178116329</v>
+        <v>0.4187185988115188</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>IOC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>758</v>
+        <v>172.78</v>
       </c>
       <c r="C7" t="n">
-        <v>759.45</v>
+        <v>177.1</v>
       </c>
       <c r="D7" t="n">
-        <v>737.5</v>
+        <v>171.9</v>
       </c>
       <c r="E7" t="n">
-        <v>742</v>
+        <v>176.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1925106</v>
+        <v>12460294</v>
       </c>
       <c r="G7" t="n">
-        <v>1284403</v>
+        <v>8760356</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4988333101059403</v>
+        <v>0.422350187595116</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3981</v>
+        <v>248.5</v>
       </c>
       <c r="C8" t="n">
-        <v>4006</v>
+        <v>255.39</v>
       </c>
       <c r="D8" t="n">
-        <v>3926.7</v>
+        <v>248.31</v>
       </c>
       <c r="E8" t="n">
-        <v>3949.5</v>
+        <v>254</v>
       </c>
       <c r="F8" t="n">
-        <v>245108</v>
+        <v>11711402</v>
       </c>
       <c r="G8" t="n">
-        <v>160301</v>
+        <v>7652782</v>
       </c>
       <c r="H8" t="n">
-        <v>0.529048477551606</v>
+        <v>0.5303456965061856</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>CGPOWER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>393.2</v>
+        <v>742.35</v>
       </c>
       <c r="C9" t="n">
-        <v>400.05</v>
+        <v>756.4</v>
       </c>
       <c r="D9" t="n">
-        <v>387.65</v>
+        <v>741.75</v>
       </c>
       <c r="E9" t="n">
-        <v>388.75</v>
+        <v>748</v>
       </c>
       <c r="F9" t="n">
-        <v>2218255</v>
+        <v>2929682</v>
       </c>
       <c r="G9" t="n">
-        <v>1558689</v>
+        <v>1925106</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4231543303378673</v>
+        <v>0.5218289278616346</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>CGPOWER</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1552</v>
+        <v>1035.1</v>
       </c>
       <c r="C10" t="n">
-        <v>1578.4</v>
+        <v>1052</v>
       </c>
       <c r="D10" t="n">
-        <v>1541</v>
+        <v>1035.1</v>
       </c>
       <c r="E10" t="n">
-        <v>1544.9</v>
+        <v>1040</v>
       </c>
       <c r="F10" t="n">
-        <v>532878</v>
+        <v>1278211</v>
       </c>
       <c r="G10" t="n">
-        <v>344824</v>
+        <v>858507</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5453622717676264</v>
+        <v>0.4888766195266899</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414</v>
+        <v>1974</v>
       </c>
       <c r="C11" t="n">
-        <v>417.65</v>
+        <v>2018</v>
       </c>
       <c r="D11" t="n">
-        <v>407.3</v>
+        <v>1971.8</v>
       </c>
       <c r="E11" t="n">
-        <v>409.2</v>
+        <v>2001.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1503166</v>
+        <v>586290</v>
       </c>
       <c r="G11" t="n">
-        <v>1008571</v>
+        <v>387913</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4903918514412967</v>
+        <v>0.5113955964352832</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1698</v>
+        <v>231.2</v>
       </c>
       <c r="C12" t="n">
-        <v>1708</v>
+        <v>235.6</v>
       </c>
       <c r="D12" t="n">
-        <v>1653.3</v>
+        <v>231.01</v>
       </c>
       <c r="E12" t="n">
-        <v>1656.2</v>
+        <v>233.5</v>
       </c>
       <c r="F12" t="n">
-        <v>836539</v>
+        <v>6844860</v>
       </c>
       <c r="G12" t="n">
-        <v>571798</v>
+        <v>4520518</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4629974221665693</v>
+        <v>0.5141760302690975</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>BHEL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.96</v>
+        <v>3947.6</v>
       </c>
       <c r="C13" t="n">
-        <v>57.23</v>
+        <v>4010.3</v>
       </c>
       <c r="D13" t="n">
-        <v>55.15</v>
+        <v>3930</v>
       </c>
       <c r="E13" t="n">
-        <v>55.49</v>
+        <v>3984.8</v>
       </c>
       <c r="F13" t="n">
-        <v>54393034</v>
+        <v>355702</v>
       </c>
       <c r="G13" t="n">
-        <v>36883372</v>
+        <v>245108</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4747305099978386</v>
+        <v>0.451205183021362</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3195</v>
+        <v>610</v>
       </c>
       <c r="C14" t="n">
-        <v>3210.9</v>
+        <v>618.65</v>
       </c>
       <c r="D14" t="n">
-        <v>3110</v>
+        <v>604.15</v>
       </c>
       <c r="E14" t="n">
-        <v>3136.8</v>
+        <v>610.2</v>
       </c>
       <c r="F14" t="n">
-        <v>200317</v>
+        <v>3154893</v>
       </c>
       <c r="G14" t="n">
-        <v>139434</v>
+        <v>2045929</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4366438601775751</v>
+        <v>0.5420344498758266</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.97</v>
+        <v>85.75</v>
       </c>
       <c r="C15" t="n">
-        <v>41.98</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>40.51</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>41</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>10819017</v>
+        <v>9055599</v>
       </c>
       <c r="G15" t="n">
-        <v>7706276</v>
+        <v>5928632</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4039228545668492</v>
+        <v>0.5274348281357318</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>SRF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14190</v>
+        <v>2798</v>
       </c>
       <c r="C16" t="n">
-        <v>14190</v>
+        <v>2850.8</v>
       </c>
       <c r="D16" t="n">
-        <v>13741</v>
+        <v>2789</v>
       </c>
       <c r="E16" t="n">
-        <v>13755</v>
+        <v>2814.7</v>
       </c>
       <c r="F16" t="n">
-        <v>120026</v>
+        <v>221510</v>
       </c>
       <c r="G16" t="n">
-        <v>78632</v>
+        <v>138769</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5264268999898261</v>
+        <v>0.5962498828989183</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>SRF</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2012</v>
+        <v>1373.9</v>
       </c>
       <c r="C17" t="n">
-        <v>2012</v>
+        <v>1388</v>
       </c>
       <c r="D17" t="n">
-        <v>1956.7</v>
+        <v>1364.3</v>
       </c>
       <c r="E17" t="n">
-        <v>1972</v>
+        <v>1364.9</v>
       </c>
       <c r="F17" t="n">
-        <v>924467</v>
+        <v>580505</v>
       </c>
       <c r="G17" t="n">
-        <v>651958</v>
+        <v>376171</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4179855144043021</v>
+        <v>0.5431944514595756</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
@@ -1412,29 +1280,62 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76.05</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>76.28</v>
+        <v>76.19</v>
       </c>
       <c r="D18" t="n">
-        <v>71.81999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E18" t="n">
-        <v>72.25</v>
+        <v>74.2</v>
       </c>
       <c r="F18" t="n">
+        <v>31113853</v>
+      </c>
+      <c r="G18" t="n">
         <v>20761048</v>
       </c>
-      <c r="G18" t="n">
-        <v>13673226</v>
-      </c>
       <c r="H18" t="n">
-        <v>0.5183723285199849</v>
+        <v>0.4986648554543104</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>HFCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1070.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1093.6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1056.1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F19" t="n">
+        <v>994466</v>
+      </c>
+      <c r="G19" t="n">
+        <v>704238</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4121163583902033</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,462 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3738</v>
+        <v>341.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3740</v>
+        <v>343.05</v>
       </c>
       <c r="D2" t="n">
-        <v>3679.6</v>
+        <v>339.15</v>
       </c>
       <c r="E2" t="n">
-        <v>3704.3</v>
+        <v>340.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2599630</v>
+        <v>8308029</v>
       </c>
       <c r="G2" t="n">
-        <v>5870301</v>
+        <v>16922231</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5571555870814802</v>
+        <v>-0.5090464726548172</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1894</v>
+        <v>2025</v>
       </c>
       <c r="C3" t="n">
-        <v>1910</v>
+        <v>2036.4</v>
       </c>
       <c r="D3" t="n">
-        <v>1871.9</v>
+        <v>2001</v>
       </c>
       <c r="E3" t="n">
-        <v>1900</v>
+        <v>2001</v>
       </c>
       <c r="F3" t="n">
-        <v>560303</v>
+        <v>924425</v>
       </c>
       <c r="G3" t="n">
-        <v>1278304</v>
+        <v>2005041</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5616825105765139</v>
+        <v>-0.5389495775896852</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.06</v>
+        <v>406.75</v>
       </c>
       <c r="C4" t="n">
-        <v>8.380000000000001</v>
+        <v>406.75</v>
       </c>
       <c r="D4" t="n">
-        <v>8.02</v>
+        <v>400.4</v>
       </c>
       <c r="E4" t="n">
-        <v>8.25</v>
+        <v>401.7</v>
       </c>
       <c r="F4" t="n">
-        <v>739155377</v>
+        <v>9465490</v>
       </c>
       <c r="G4" t="n">
-        <v>1597372619</v>
+        <v>19717660</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5372680311355706</v>
+        <v>-0.5199486145921981</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340.2</v>
+        <v>245.75</v>
       </c>
       <c r="C5" t="n">
-        <v>343.5</v>
+        <v>249.9</v>
       </c>
       <c r="D5" t="n">
-        <v>338.2</v>
+        <v>245.15</v>
       </c>
       <c r="E5" t="n">
-        <v>341.2</v>
+        <v>249.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1703064</v>
+        <v>5767268</v>
       </c>
       <c r="G5" t="n">
-        <v>3635613</v>
+        <v>14344044</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5315607024179967</v>
+        <v>-0.5979329120853226</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>833.4</v>
+        <v>1558.9</v>
       </c>
       <c r="C6" t="n">
-        <v>849.8</v>
+        <v>1588.2</v>
       </c>
       <c r="D6" t="n">
-        <v>826.2</v>
+        <v>1557</v>
       </c>
       <c r="E6" t="n">
-        <v>840</v>
+        <v>1580</v>
       </c>
       <c r="F6" t="n">
-        <v>2764351</v>
+        <v>341732</v>
       </c>
       <c r="G6" t="n">
-        <v>5612259</v>
+        <v>711014</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5074441503857894</v>
+        <v>-0.5193737394762973</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
+          <t>SJVN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.9</v>
+        <v>90.2</v>
       </c>
       <c r="C7" t="n">
-        <v>295.6</v>
+        <v>91.34</v>
       </c>
       <c r="D7" t="n">
-        <v>292.1</v>
+        <v>90</v>
       </c>
       <c r="E7" t="n">
-        <v>293.95</v>
+        <v>90.44</v>
       </c>
       <c r="F7" t="n">
-        <v>2414846</v>
+        <v>2027688</v>
       </c>
       <c r="G7" t="n">
-        <v>5080459</v>
+        <v>4180724</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5246795614333272</v>
+        <v>-0.514991183345277</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
+          <t>SJVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>341</v>
+      </c>
+      <c r="C8" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>337.05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>340.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>845656</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1703064</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5034502520163658</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>972</v>
+      </c>
+      <c r="C9" t="n">
+        <v>973.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>958.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>969.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2065028</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4072382</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.4929188862930835</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>360ONE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1011.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1025.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>507273</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1111488</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5436091077906374</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>360ONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1088</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1097.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1075.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F11" t="n">
+        <v>588018</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1318867</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5541491295179878</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2139</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2139</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2101</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2132.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>662023</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1341520</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5065127616435089</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KAYNES</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7120</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7120</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6990</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7062</v>
+      </c>
+      <c r="F13" t="n">
+        <v>310041</v>
+      </c>
+      <c r="G13" t="n">
+        <v>695466</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.554196754406398</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>KAYNES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>515.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>525.95</v>
+      </c>
+      <c r="D14" t="n">
+        <v>510.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>515</v>
+      </c>
+      <c r="F14" t="n">
+        <v>512033</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1235265</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5854873245821747</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1072.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1072.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1044</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F15" t="n">
+        <v>479562</v>
+      </c>
+      <c r="G15" t="n">
+        <v>994466</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5177693355026718</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>
@@ -690,7 +954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,594 +1012,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1415</v>
+        <v>611.8</v>
       </c>
       <c r="C2" t="n">
-        <v>1425</v>
+        <v>620.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1391.9</v>
+        <v>611.15</v>
       </c>
       <c r="E2" t="n">
-        <v>1410</v>
+        <v>617.85</v>
       </c>
       <c r="F2" t="n">
-        <v>2708118</v>
+        <v>5882401</v>
       </c>
       <c r="G2" t="n">
-        <v>1851067</v>
+        <v>4098133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4630037702579107</v>
+        <v>0.43538557679802</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1381.6</v>
+        <v>169.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1389</v>
+        <v>170.15</v>
       </c>
       <c r="D3" t="n">
-        <v>1368</v>
+        <v>168.41</v>
       </c>
       <c r="E3" t="n">
-        <v>1376</v>
+        <v>169.05</v>
       </c>
       <c r="F3" t="n">
-        <v>14231999</v>
+        <v>24553596</v>
       </c>
       <c r="G3" t="n">
-        <v>9879109</v>
+        <v>16832342</v>
       </c>
       <c r="H3" t="n">
-        <v>0.440615646613475</v>
+        <v>0.4587153706834141</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>389.8</v>
+        <v>457.4</v>
       </c>
       <c r="C4" t="n">
-        <v>391.6</v>
+        <v>468.2</v>
       </c>
       <c r="D4" t="n">
-        <v>385.6</v>
+        <v>454</v>
       </c>
       <c r="E4" t="n">
-        <v>388.2</v>
+        <v>465.6</v>
       </c>
       <c r="F4" t="n">
-        <v>6606409</v>
+        <v>16517105</v>
       </c>
       <c r="G4" t="n">
-        <v>4698693</v>
+        <v>11707970</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4060099265902241</v>
+        <v>0.4107573729690117</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>VEDL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1928</v>
+        <v>1043.35</v>
       </c>
       <c r="C5" t="n">
-        <v>1928</v>
+        <v>1069</v>
       </c>
       <c r="D5" t="n">
-        <v>1897.5</v>
+        <v>1043.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1906.5</v>
+        <v>1062.05</v>
       </c>
       <c r="F5" t="n">
-        <v>5072608</v>
+        <v>1992711</v>
       </c>
       <c r="G5" t="n">
-        <v>3239306</v>
+        <v>1278211</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5659551768187383</v>
+        <v>0.5589843930305717</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145.04</v>
+        <v>5125.5</v>
       </c>
       <c r="C6" t="n">
-        <v>149.95</v>
+        <v>5182</v>
       </c>
       <c r="D6" t="n">
-        <v>145.04</v>
+        <v>5084</v>
       </c>
       <c r="E6" t="n">
-        <v>149.27</v>
+        <v>5150</v>
       </c>
       <c r="F6" t="n">
-        <v>16918652</v>
+        <v>319322</v>
       </c>
       <c r="G6" t="n">
-        <v>11925305</v>
+        <v>212172</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4187185988115188</v>
+        <v>0.5050147993137643</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.78</v>
+        <v>1903.1</v>
       </c>
       <c r="C7" t="n">
-        <v>177.1</v>
+        <v>1912.1</v>
       </c>
       <c r="D7" t="n">
-        <v>171.9</v>
+        <v>1885.5</v>
       </c>
       <c r="E7" t="n">
-        <v>176.11</v>
+        <v>1888</v>
       </c>
       <c r="F7" t="n">
-        <v>12460294</v>
+        <v>856568</v>
       </c>
       <c r="G7" t="n">
-        <v>8760356</v>
+        <v>560303</v>
       </c>
       <c r="H7" t="n">
-        <v>0.422350187595116</v>
+        <v>0.5287585467149025</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>248.5</v>
+        <v>132.29</v>
       </c>
       <c r="C8" t="n">
-        <v>255.39</v>
+        <v>135.28</v>
       </c>
       <c r="D8" t="n">
-        <v>248.31</v>
+        <v>131.93</v>
       </c>
       <c r="E8" t="n">
-        <v>254</v>
+        <v>134.85</v>
       </c>
       <c r="F8" t="n">
-        <v>11711402</v>
+        <v>10087746</v>
       </c>
       <c r="G8" t="n">
-        <v>7652782</v>
+        <v>6598940</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5303456965061856</v>
+        <v>0.5286918808172222</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>742.35</v>
+        <v>455.3</v>
       </c>
       <c r="C9" t="n">
-        <v>756.4</v>
+        <v>472.1</v>
       </c>
       <c r="D9" t="n">
-        <v>741.75</v>
+        <v>447.4</v>
       </c>
       <c r="E9" t="n">
-        <v>748</v>
+        <v>455.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2929682</v>
+        <v>10172021</v>
       </c>
       <c r="G9" t="n">
-        <v>1925106</v>
+        <v>7231883</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5218289278616346</v>
+        <v>0.4065522077721667</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1035.1</v>
+        <v>231.8</v>
       </c>
       <c r="C10" t="n">
-        <v>1052</v>
+        <v>234.3</v>
       </c>
       <c r="D10" t="n">
-        <v>1035.1</v>
+        <v>227.9</v>
       </c>
       <c r="E10" t="n">
-        <v>1040</v>
+        <v>234.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1278211</v>
+        <v>4787843</v>
       </c>
       <c r="G10" t="n">
-        <v>858507</v>
+        <v>3074483</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4888766195266899</v>
+        <v>0.5572839400965951</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>IGL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1974</v>
+        <v>206.73</v>
       </c>
       <c r="C11" t="n">
-        <v>2018</v>
+        <v>210</v>
       </c>
       <c r="D11" t="n">
-        <v>1971.8</v>
+        <v>205.1</v>
       </c>
       <c r="E11" t="n">
-        <v>2001.7</v>
+        <v>208.17</v>
       </c>
       <c r="F11" t="n">
-        <v>586290</v>
+        <v>2248009</v>
       </c>
       <c r="G11" t="n">
-        <v>387913</v>
+        <v>1537132</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5113955964352832</v>
+        <v>0.4624697163288514</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>IGL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>231.2</v>
+        <v>86.92</v>
       </c>
       <c r="C12" t="n">
-        <v>235.6</v>
+        <v>87.95</v>
       </c>
       <c r="D12" t="n">
-        <v>231.01</v>
+        <v>86.08</v>
       </c>
       <c r="E12" t="n">
-        <v>233.5</v>
+        <v>87.11</v>
       </c>
       <c r="F12" t="n">
-        <v>6844860</v>
+        <v>13143816</v>
       </c>
       <c r="G12" t="n">
-        <v>4520518</v>
+        <v>8378717</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5141760302690975</v>
+        <v>0.5687146373364801</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3947.6</v>
+        <v>5605</v>
       </c>
       <c r="C13" t="n">
-        <v>4010.3</v>
+        <v>5629</v>
       </c>
       <c r="D13" t="n">
-        <v>3930</v>
+        <v>5438</v>
       </c>
       <c r="E13" t="n">
-        <v>3984.8</v>
+        <v>5524</v>
       </c>
       <c r="F13" t="n">
-        <v>355702</v>
+        <v>560439</v>
       </c>
       <c r="G13" t="n">
-        <v>245108</v>
+        <v>358318</v>
       </c>
       <c r="H13" t="n">
-        <v>0.451205183021362</v>
+        <v>0.5640827421452452</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>610</v>
-      </c>
-      <c r="C14" t="n">
-        <v>618.65</v>
-      </c>
-      <c r="D14" t="n">
-        <v>604.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>610.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3154893</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2045929</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5420344498758266</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="C15" t="n">
-        <v>85.76000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83.15000000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>85.15000000000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9055599</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5928632</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5274348281357318</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2798</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2850.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2789</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2814.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>221510</v>
-      </c>
-      <c r="G16" t="n">
-        <v>138769</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5962498828989183</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1373.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1388</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1364.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1364.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>580505</v>
-      </c>
-      <c r="G17" t="n">
-        <v>376171</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5431944514595756</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>72.45999999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>76.19</v>
-      </c>
-      <c r="D18" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>31113853</v>
-      </c>
-      <c r="G18" t="n">
-        <v>20761048</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4986648554543104</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>KFINTECH</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1070.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1093.6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1056.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1070</v>
-      </c>
-      <c r="F19" t="n">
-        <v>994466</v>
-      </c>
-      <c r="G19" t="n">
-        <v>704238</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.4121163583902033</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>KFINTECH</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,462 +484,627 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>341.1</v>
+        <v>3370</v>
       </c>
       <c r="C2" t="n">
-        <v>343.05</v>
+        <v>3414.9</v>
       </c>
       <c r="D2" t="n">
-        <v>339.15</v>
+        <v>3351</v>
       </c>
       <c r="E2" t="n">
-        <v>340.7</v>
+        <v>3404.8</v>
       </c>
       <c r="F2" t="n">
-        <v>8308029</v>
+        <v>798754</v>
       </c>
       <c r="G2" t="n">
-        <v>16922231</v>
+        <v>1733728</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5090464726548172</v>
+        <v>-0.5392852858118459</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2025</v>
+        <v>753.2</v>
       </c>
       <c r="C3" t="n">
-        <v>2036.4</v>
+        <v>766.75</v>
       </c>
       <c r="D3" t="n">
-        <v>2001</v>
+        <v>748.95</v>
       </c>
       <c r="E3" t="n">
-        <v>2001</v>
+        <v>762.75</v>
       </c>
       <c r="F3" t="n">
-        <v>924425</v>
+        <v>1540724</v>
       </c>
       <c r="G3" t="n">
-        <v>2005041</v>
+        <v>3435577</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5389495775896852</v>
+        <v>-0.5515385043036439</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>406.75</v>
+        <v>1783</v>
       </c>
       <c r="C4" t="n">
-        <v>406.75</v>
+        <v>1806.5</v>
       </c>
       <c r="D4" t="n">
-        <v>400.4</v>
+        <v>1769.1</v>
       </c>
       <c r="E4" t="n">
-        <v>401.7</v>
+        <v>1800.8</v>
       </c>
       <c r="F4" t="n">
-        <v>9465490</v>
+        <v>704858</v>
       </c>
       <c r="G4" t="n">
-        <v>19717660</v>
+        <v>1668918</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5199486145921981</v>
+        <v>-0.5776557026768242</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>SBILIFE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.75</v>
+        <v>1145</v>
       </c>
       <c r="C5" t="n">
-        <v>249.9</v>
+        <v>1148.6</v>
       </c>
       <c r="D5" t="n">
-        <v>245.15</v>
+        <v>1132.2</v>
       </c>
       <c r="E5" t="n">
-        <v>249.3</v>
+        <v>1145.5</v>
       </c>
       <c r="F5" t="n">
-        <v>5767268</v>
+        <v>1129506</v>
       </c>
       <c r="G5" t="n">
-        <v>14344044</v>
+        <v>2771126</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5979329120853226</v>
+        <v>-0.592401789020059</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1558.9</v>
+        <v>12274</v>
       </c>
       <c r="C6" t="n">
-        <v>1588.2</v>
+        <v>12274</v>
       </c>
       <c r="D6" t="n">
-        <v>1557</v>
+        <v>12071</v>
       </c>
       <c r="E6" t="n">
-        <v>1580</v>
+        <v>12125</v>
       </c>
       <c r="F6" t="n">
-        <v>341732</v>
+        <v>129528</v>
       </c>
       <c r="G6" t="n">
-        <v>711014</v>
+        <v>279155</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5193737394762973</v>
+        <v>-0.5359997134208594</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.2</v>
+        <v>718.65</v>
       </c>
       <c r="C7" t="n">
-        <v>91.34</v>
+        <v>724.5</v>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>711</v>
       </c>
       <c r="E7" t="n">
-        <v>90.44</v>
+        <v>724</v>
       </c>
       <c r="F7" t="n">
-        <v>2027688</v>
+        <v>1845296</v>
       </c>
       <c r="G7" t="n">
-        <v>4180724</v>
+        <v>3742770</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.514991183345277</v>
+        <v>-0.5069705058018527</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341</v>
+        <v>5185</v>
       </c>
       <c r="C8" t="n">
-        <v>342.8</v>
+        <v>5208</v>
       </c>
       <c r="D8" t="n">
-        <v>337.05</v>
+        <v>5143</v>
       </c>
       <c r="E8" t="n">
-        <v>340.7</v>
+        <v>5196.5</v>
       </c>
       <c r="F8" t="n">
-        <v>845656</v>
+        <v>94280</v>
       </c>
       <c r="G8" t="n">
-        <v>1703064</v>
+        <v>215173</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5034502520163658</v>
+        <v>-0.5618409372923183</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>ABB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>972</v>
+        <v>485.1</v>
       </c>
       <c r="C9" t="n">
-        <v>973.5</v>
+        <v>488.55</v>
       </c>
       <c r="D9" t="n">
-        <v>958.4</v>
+        <v>475.1</v>
       </c>
       <c r="E9" t="n">
-        <v>969.8</v>
+        <v>481.75</v>
       </c>
       <c r="F9" t="n">
-        <v>2065028</v>
+        <v>7265353</v>
       </c>
       <c r="G9" t="n">
-        <v>4072382</v>
+        <v>15167002</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4929188862930835</v>
+        <v>-0.520976327424497</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>HINDZINC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1038</v>
+        <v>468.55</v>
       </c>
       <c r="C10" t="n">
-        <v>1038</v>
+        <v>469.85</v>
       </c>
       <c r="D10" t="n">
-        <v>1011.9</v>
+        <v>458.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1025.8</v>
+        <v>464.3</v>
       </c>
       <c r="F10" t="n">
-        <v>507273</v>
+        <v>7779725</v>
       </c>
       <c r="G10" t="n">
-        <v>1111488</v>
+        <v>16517105</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5436091077906374</v>
+        <v>-0.5289897957299418</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>VEDL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1088</v>
+        <v>3603.1</v>
       </c>
       <c r="C11" t="n">
-        <v>1097.9</v>
+        <v>3637.6</v>
       </c>
       <c r="D11" t="n">
-        <v>1075.6</v>
+        <v>3556</v>
       </c>
       <c r="E11" t="n">
-        <v>1085</v>
+        <v>3565.4</v>
       </c>
       <c r="F11" t="n">
-        <v>588018</v>
+        <v>300599</v>
       </c>
       <c r="G11" t="n">
-        <v>1318867</v>
+        <v>627648</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5541491295179878</v>
+        <v>-0.5210707275415519</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2139</v>
+        <v>1110</v>
       </c>
       <c r="C12" t="n">
-        <v>2139</v>
+        <v>1163.3</v>
       </c>
       <c r="D12" t="n">
-        <v>2101</v>
+        <v>1105.6</v>
       </c>
       <c r="E12" t="n">
-        <v>2132.5</v>
+        <v>1151</v>
       </c>
       <c r="F12" t="n">
-        <v>662023</v>
+        <v>3024116</v>
       </c>
       <c r="G12" t="n">
-        <v>1341520</v>
+        <v>5978196</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5065127616435089</v>
+        <v>-0.4941423800758624</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7120</v>
+        <v>1514</v>
       </c>
       <c r="C13" t="n">
-        <v>7120</v>
+        <v>1545.5</v>
       </c>
       <c r="D13" t="n">
-        <v>6990</v>
+        <v>1505.5</v>
       </c>
       <c r="E13" t="n">
-        <v>7062</v>
+        <v>1542</v>
       </c>
       <c r="F13" t="n">
-        <v>310041</v>
+        <v>306384</v>
       </c>
       <c r="G13" t="n">
-        <v>695466</v>
+        <v>634738</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.554196754406398</v>
+        <v>-0.5173063531724901</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>515.6</v>
+        <v>623.3</v>
       </c>
       <c r="C14" t="n">
-        <v>525.95</v>
+        <v>636.45</v>
       </c>
       <c r="D14" t="n">
-        <v>510.9</v>
+        <v>623</v>
       </c>
       <c r="E14" t="n">
-        <v>515</v>
+        <v>631.7</v>
       </c>
       <c r="F14" t="n">
-        <v>512033</v>
+        <v>380909</v>
       </c>
       <c r="G14" t="n">
-        <v>1235265</v>
+        <v>786426</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5854873245821747</v>
+        <v>-0.515645464417504</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>SYNGENE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KFINTECH</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1072.2</v>
+        <v>16404</v>
       </c>
       <c r="C15" t="n">
-        <v>1072.2</v>
+        <v>16700</v>
       </c>
       <c r="D15" t="n">
-        <v>1044</v>
+        <v>16335</v>
       </c>
       <c r="E15" t="n">
-        <v>1058</v>
+        <v>16485</v>
       </c>
       <c r="F15" t="n">
-        <v>479562</v>
+        <v>260204</v>
       </c>
       <c r="G15" t="n">
-        <v>994466</v>
+        <v>529594</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5177693355026718</v>
+        <v>-0.5086726813370243</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>KFINTECH</t>
+          <t>DIXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>617.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>614.35</v>
+      </c>
+      <c r="E16" t="n">
+        <v>622</v>
+      </c>
+      <c r="F16" t="n">
+        <v>983213</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1991845</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5063807675798067</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5524</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5590</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5524</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5555</v>
+      </c>
+      <c r="F17" t="n">
+        <v>243162</v>
+      </c>
+      <c r="G17" t="n">
+        <v>560439</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5661222720046249</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NMDC</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>76.58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75.51000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16301242</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32158354</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.4930946403537942</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NMDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3926</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3936</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3845</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3848.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>331424</v>
+      </c>
+      <c r="G19" t="n">
+        <v>669486</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5049575345862348</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AMBER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8145</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8255</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8080</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8232</v>
+      </c>
+      <c r="F20" t="n">
+        <v>144387</v>
+      </c>
+      <c r="G20" t="n">
+        <v>321056</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5502747184291837</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>AMBER</t>
         </is>
       </c>
     </row>
@@ -1012,396 +1177,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>611.8</v>
+        <v>1227.9</v>
       </c>
       <c r="C2" t="n">
-        <v>620.7</v>
+        <v>1250.7</v>
       </c>
       <c r="D2" t="n">
-        <v>611.15</v>
+        <v>1226</v>
       </c>
       <c r="E2" t="n">
-        <v>617.85</v>
+        <v>1248.2</v>
       </c>
       <c r="F2" t="n">
-        <v>5882401</v>
+        <v>4083180</v>
       </c>
       <c r="G2" t="n">
-        <v>4098133</v>
+        <v>2635047</v>
       </c>
       <c r="H2" t="n">
-        <v>0.43538557679802</v>
+        <v>0.5495662885709439</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>DRREDDY</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.5</v>
+        <v>238.6</v>
       </c>
       <c r="C3" t="n">
-        <v>170.15</v>
+        <v>246.29</v>
       </c>
       <c r="D3" t="n">
-        <v>168.41</v>
+        <v>238.47</v>
       </c>
       <c r="E3" t="n">
-        <v>169.05</v>
+        <v>243.2</v>
       </c>
       <c r="F3" t="n">
-        <v>24553596</v>
+        <v>10375310</v>
       </c>
       <c r="G3" t="n">
-        <v>16832342</v>
+        <v>7167687</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4587153706834141</v>
+        <v>0.44751158916398</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457.4</v>
+        <v>341</v>
       </c>
       <c r="C4" t="n">
-        <v>468.2</v>
+        <v>347.7</v>
       </c>
       <c r="D4" t="n">
-        <v>454</v>
+        <v>338.6</v>
       </c>
       <c r="E4" t="n">
-        <v>465.6</v>
+        <v>339.4</v>
       </c>
       <c r="F4" t="n">
-        <v>16517105</v>
+        <v>9814406</v>
       </c>
       <c r="G4" t="n">
-        <v>11707970</v>
+        <v>6762730</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4107573729690117</v>
+        <v>0.4512491257228959</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>OFSS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1043.35</v>
+        <v>8400</v>
       </c>
       <c r="C5" t="n">
-        <v>1069</v>
+        <v>8755</v>
       </c>
       <c r="D5" t="n">
-        <v>1043.2</v>
+        <v>8377</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.05</v>
+        <v>8735</v>
       </c>
       <c r="F5" t="n">
-        <v>1992711</v>
+        <v>176760</v>
       </c>
       <c r="G5" t="n">
-        <v>1278211</v>
+        <v>111001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5589843930305717</v>
+        <v>0.5924180863235466</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>OFSS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5125.5</v>
+        <v>249.99</v>
       </c>
       <c r="C6" t="n">
-        <v>5182</v>
+        <v>259.31</v>
       </c>
       <c r="D6" t="n">
-        <v>5084</v>
+        <v>246.94</v>
       </c>
       <c r="E6" t="n">
-        <v>5150</v>
+        <v>258.55</v>
       </c>
       <c r="F6" t="n">
-        <v>319322</v>
+        <v>9166397</v>
       </c>
       <c r="G6" t="n">
-        <v>212172</v>
+        <v>5767268</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5050147993137643</v>
+        <v>0.5893828759128239</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1903.1</v>
+        <v>1493.2</v>
       </c>
       <c r="C7" t="n">
-        <v>1912.1</v>
+        <v>1545.2</v>
       </c>
       <c r="D7" t="n">
-        <v>1885.5</v>
+        <v>1486.1</v>
       </c>
       <c r="E7" t="n">
-        <v>1888</v>
+        <v>1544</v>
       </c>
       <c r="F7" t="n">
-        <v>856568</v>
+        <v>1424004</v>
       </c>
       <c r="G7" t="n">
-        <v>560303</v>
+        <v>1012477</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5287585467149025</v>
+        <v>0.4064556528197678</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BDL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>TATATECH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.29</v>
+        <v>670</v>
       </c>
       <c r="C8" t="n">
-        <v>135.28</v>
+        <v>692.35</v>
       </c>
       <c r="D8" t="n">
-        <v>131.93</v>
+        <v>667.5</v>
       </c>
       <c r="E8" t="n">
-        <v>134.85</v>
+        <v>691.75</v>
       </c>
       <c r="F8" t="n">
-        <v>10087746</v>
+        <v>980727</v>
       </c>
       <c r="G8" t="n">
-        <v>6598940</v>
+        <v>660364</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5286918808172222</v>
+        <v>0.4851309277913393</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>TATATECH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>455.3</v>
+        <v>292.5</v>
       </c>
       <c r="C9" t="n">
-        <v>472.1</v>
+        <v>301.6</v>
       </c>
       <c r="D9" t="n">
-        <v>447.4</v>
+        <v>286.5</v>
       </c>
       <c r="E9" t="n">
-        <v>455.3</v>
+        <v>301</v>
       </c>
       <c r="F9" t="n">
-        <v>10172021</v>
+        <v>7156717</v>
       </c>
       <c r="G9" t="n">
-        <v>7231883</v>
+        <v>4665517</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4065522077721667</v>
+        <v>0.5339601163172271</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231.8</v>
+        <v>630.05</v>
       </c>
       <c r="C10" t="n">
-        <v>234.3</v>
+        <v>651.9</v>
       </c>
       <c r="D10" t="n">
-        <v>227.9</v>
+        <v>626.15</v>
       </c>
       <c r="E10" t="n">
-        <v>234.3</v>
+        <v>641.3</v>
       </c>
       <c r="F10" t="n">
-        <v>4787843</v>
+        <v>2231579</v>
       </c>
       <c r="G10" t="n">
-        <v>3074483</v>
+        <v>1546854</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5572839400965951</v>
+        <v>0.4426565144480345</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>ATGL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.73</v>
+        <v>443.5</v>
       </c>
       <c r="C11" t="n">
-        <v>210</v>
+        <v>449.9</v>
       </c>
       <c r="D11" t="n">
-        <v>205.1</v>
+        <v>433.4</v>
       </c>
       <c r="E11" t="n">
-        <v>208.17</v>
+        <v>433.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2248009</v>
+        <v>6469324</v>
       </c>
       <c r="G11" t="n">
-        <v>1537132</v>
+        <v>4266200</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4624697163288514</v>
+        <v>0.516413670245183</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>CAMS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.92</v>
+        <v>3740</v>
       </c>
       <c r="C12" t="n">
-        <v>87.95</v>
+        <v>3835</v>
       </c>
       <c r="D12" t="n">
-        <v>86.08</v>
+        <v>3724.7</v>
       </c>
       <c r="E12" t="n">
-        <v>87.11</v>
+        <v>3831</v>
       </c>
       <c r="F12" t="n">
-        <v>13143816</v>
+        <v>340944</v>
       </c>
       <c r="G12" t="n">
-        <v>8378717</v>
+        <v>237625</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5687146373364801</v>
+        <v>0.4347985270910047</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>CAMS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5605</v>
+        <v>163</v>
       </c>
       <c r="C13" t="n">
-        <v>5629</v>
+        <v>165.15</v>
       </c>
       <c r="D13" t="n">
-        <v>5438</v>
+        <v>160.28</v>
       </c>
       <c r="E13" t="n">
-        <v>5524</v>
+        <v>163.3</v>
       </c>
       <c r="F13" t="n">
-        <v>560439</v>
+        <v>8546404</v>
       </c>
       <c r="G13" t="n">
-        <v>358318</v>
+        <v>6070683</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5640827421452452</v>
+        <v>0.407815891556189</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,270 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filterdata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>645</v>
+      </c>
+      <c r="C2" t="n">
+        <v>650</v>
+      </c>
+      <c r="D2" t="n">
+        <v>636</v>
+      </c>
+      <c r="E2" t="n">
+        <v>647.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7200543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15107673</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.5233850375236477</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PFC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>411</v>
+      </c>
+      <c r="C3" t="n">
+        <v>414.45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>406.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>413</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6422810</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13392846</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.52042978766425</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PFC</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>722.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>743.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>720.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>740.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1744199</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3802747</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.541331831962526</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IREDA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>152.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>154.31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10126517</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21170795</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.5216751661900273</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>IREDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1095</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1102.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1086.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1095</v>
+      </c>
+      <c r="F6" t="n">
+        <v>517528</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1043316</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5039585322184267</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2018.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2036.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>292903</v>
+      </c>
+      <c r="G7" t="n">
+        <v>599534</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5114488919727656</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>644.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>644.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>631.95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>636.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1117569</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2231579</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.4992025825659768</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>199.06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>201.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>196.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>198.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2576009</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5460929</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5282837407334906</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>
@@ -492,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +811,534 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NTPC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>340.25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8506827</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6022078</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.412606578659393</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NTPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1171.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1154.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1159975</v>
+      </c>
+      <c r="G3" t="n">
+        <v>727804</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.593801353111552</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2924</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2891.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2903</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2899519</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1952902</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4847232477615364</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>COALINDIA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>381.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>383.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7431240</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4976933</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4931364356321453</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>COALINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TECHM</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1423</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1423.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1397.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1398</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2568702</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1683484</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5258250152659604</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TECHM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TATAPOWER</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>392</v>
+      </c>
+      <c r="C7" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>390</v>
+      </c>
+      <c r="E7" t="n">
+        <v>395</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4157330</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2705427</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5366631589024579</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TATAPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1144.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1147</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1112.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1665979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1098688</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5163349376711132</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>875.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>899</v>
+      </c>
+      <c r="D9" t="n">
+        <v>866.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>899</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1154618</v>
+      </c>
+      <c r="G9" t="n">
+        <v>823355</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4023331369822252</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SONACOMS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>413.75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>421.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>410.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>421.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1842319</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1311404</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.404844731295619</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SONACOMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5837776</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3659042</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5954383688408059</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>279.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>273.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>277.85</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4581627</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3248017</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4105920627878487</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1376.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1387.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1360.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1385.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>509629</v>
+      </c>
+      <c r="G13" t="n">
+        <v>345411</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.475427823665141</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1210.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1219</v>
+      </c>
+      <c r="F14" t="n">
+        <v>492640</v>
+      </c>
+      <c r="G14" t="n">
+        <v>342856</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4368714562381875</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1553</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1576.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1541.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1558.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>585867</v>
+      </c>
+      <c r="G15" t="n">
+        <v>401175</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.460377640680501</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SUZLON</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="D16" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="E16" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="F16" t="n">
+        <v>69042422</v>
+      </c>
+      <c r="G16" t="n">
+        <v>46144026</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4962374977857372</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SUZLON</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>885</v>
+      </c>
+      <c r="C17" t="n">
+        <v>892</v>
+      </c>
+      <c r="D17" t="n">
+        <v>878.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>890.95</v>
+      </c>
+      <c r="F17" t="n">
+        <v>809860</v>
+      </c>
+      <c r="G17" t="n">
+        <v>536038</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5108257250418814</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,264 +484,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>645</v>
+        <v>1630</v>
       </c>
       <c r="C2" t="n">
-        <v>650</v>
+        <v>1659.7</v>
       </c>
       <c r="D2" t="n">
-        <v>636</v>
+        <v>1620</v>
       </c>
       <c r="E2" t="n">
-        <v>647.75</v>
+        <v>1653.3</v>
       </c>
       <c r="F2" t="n">
-        <v>7200543</v>
+        <v>1756916</v>
       </c>
       <c r="G2" t="n">
-        <v>15107673</v>
+        <v>4041865</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5233850375236477</v>
+        <v>-0.5653204646864752</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>411</v>
+        <v>12019</v>
       </c>
       <c r="C3" t="n">
-        <v>414.45</v>
+        <v>12100</v>
       </c>
       <c r="D3" t="n">
-        <v>406.4</v>
+        <v>11991</v>
       </c>
       <c r="E3" t="n">
-        <v>413</v>
+        <v>12073</v>
       </c>
       <c r="F3" t="n">
-        <v>6422810</v>
+        <v>106362</v>
       </c>
       <c r="G3" t="n">
-        <v>13392846</v>
+        <v>258411</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.52042978766425</v>
+        <v>-0.5883998746183405</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>722.05</v>
+        <v>3462</v>
       </c>
       <c r="C4" t="n">
-        <v>743.7</v>
+        <v>3480</v>
       </c>
       <c r="D4" t="n">
-        <v>720.7</v>
+        <v>3425.1</v>
       </c>
       <c r="E4" t="n">
-        <v>740.5</v>
+        <v>3476</v>
       </c>
       <c r="F4" t="n">
-        <v>1744199</v>
+        <v>1156082</v>
       </c>
       <c r="G4" t="n">
-        <v>3802747</v>
+        <v>2357702</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.541331831962526</v>
+        <v>-0.5096572849325317</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>M&amp;M</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IREDA</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.65</v>
+        <v>2765.1</v>
       </c>
       <c r="C5" t="n">
-        <v>156.4</v>
+        <v>2814.1</v>
       </c>
       <c r="D5" t="n">
-        <v>151.8</v>
+        <v>2765.1</v>
       </c>
       <c r="E5" t="n">
-        <v>154.31</v>
+        <v>2801.4</v>
       </c>
       <c r="F5" t="n">
-        <v>10126517</v>
+        <v>298274</v>
       </c>
       <c r="G5" t="n">
-        <v>21170795</v>
+        <v>708063</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5216751661900273</v>
+        <v>-0.5787465239675</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IREDA</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095</v>
+        <v>1892.6</v>
       </c>
       <c r="C6" t="n">
-        <v>1102.6</v>
+        <v>1907</v>
       </c>
       <c r="D6" t="n">
-        <v>1086.8</v>
+        <v>1887.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1095</v>
+        <v>1901.9</v>
       </c>
       <c r="F6" t="n">
-        <v>517528</v>
+        <v>2809218</v>
       </c>
       <c r="G6" t="n">
-        <v>1043316</v>
+        <v>5828332</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5039585322184267</v>
+        <v>-0.5180065239934856</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2040</v>
+        <v>1161.7</v>
       </c>
       <c r="C7" t="n">
-        <v>2048</v>
+        <v>1164.9</v>
       </c>
       <c r="D7" t="n">
-        <v>2018.5</v>
+        <v>1149.2</v>
       </c>
       <c r="E7" t="n">
-        <v>2036.9</v>
+        <v>1162.9</v>
       </c>
       <c r="F7" t="n">
-        <v>292903</v>
+        <v>1013304</v>
       </c>
       <c r="G7" t="n">
-        <v>599534</v>
+        <v>2179883</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5114488919727656</v>
+        <v>-0.5351567033643548</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>644.6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>644.6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>631.95</v>
-      </c>
-      <c r="E8" t="n">
-        <v>636.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1117569</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2231579</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.4992025825659768</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>199.06</v>
-      </c>
-      <c r="C9" t="n">
-        <v>201.59</v>
-      </c>
-      <c r="D9" t="n">
-        <v>196.15</v>
-      </c>
-      <c r="E9" t="n">
-        <v>198.23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2576009</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5460929</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5282837407334906</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>
@@ -756,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,528 +748,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340.25</v>
+        <v>1101</v>
       </c>
       <c r="C2" t="n">
-        <v>343.5</v>
+        <v>1144.7</v>
       </c>
       <c r="D2" t="n">
-        <v>338.75</v>
+        <v>1093.3</v>
       </c>
       <c r="E2" t="n">
-        <v>341.8</v>
+        <v>1137</v>
       </c>
       <c r="F2" t="n">
-        <v>8506827</v>
+        <v>8494611</v>
       </c>
       <c r="G2" t="n">
-        <v>6022078</v>
+        <v>5969792</v>
       </c>
       <c r="H2" t="n">
-        <v>0.412606578659393</v>
+        <v>0.4229324907802483</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1160</v>
+        <v>646.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1171.3</v>
+        <v>675.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1154.4</v>
+        <v>646.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1170</v>
+        <v>671</v>
       </c>
       <c r="F3" t="n">
-        <v>1159975</v>
+        <v>10343487</v>
       </c>
       <c r="G3" t="n">
-        <v>727804</v>
+        <v>7200543</v>
       </c>
       <c r="H3" t="n">
-        <v>0.593801353111552</v>
+        <v>0.4364870815992627</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TCS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2924</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2924</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2891.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2903</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2899519</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1952902</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4847232477615364</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TCS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>COALINDIA</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>388.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>389.1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>381.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>383.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7431240</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4976933</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4931364356321453</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>COALINDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TECHM</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1423</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1423.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1397.3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1398</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2568702</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1683484</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5258250152659604</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>TECHM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TATAPOWER</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>392</v>
-      </c>
-      <c r="C7" t="n">
-        <v>395.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>390</v>
-      </c>
-      <c r="E7" t="n">
-        <v>395</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4157330</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2705427</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5366631589024579</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>TATAPOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LODHA</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1144.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1147</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1108</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1112.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1665979</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1098688</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5163349376711132</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>LODHA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>875.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>899</v>
-      </c>
-      <c r="D9" t="n">
-        <v>866.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>899</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1154618</v>
-      </c>
-      <c r="G9" t="n">
-        <v>823355</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4023331369822252</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SONACOMS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>413.75</v>
-      </c>
-      <c r="C10" t="n">
-        <v>421.4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>410.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>421.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1842319</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1311404</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.404844731295619</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SONACOMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>42.15</v>
-      </c>
-      <c r="D11" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>42.14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5837776</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3659042</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5954383688408059</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>279.95</v>
-      </c>
-      <c r="D12" t="n">
-        <v>273.75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>277.85</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4581627</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3248017</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4105920627878487</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1376.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1387.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1360.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1385.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>509629</v>
-      </c>
-      <c r="G13" t="n">
-        <v>345411</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.475427823665141</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TORNTPOWER</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1216</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1227</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1210.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1219</v>
-      </c>
-      <c r="F14" t="n">
-        <v>492640</v>
-      </c>
-      <c r="G14" t="n">
-        <v>342856</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4368714562381875</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>TORNTPOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PHOENIXLTD</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1553</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1576.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1541.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1558.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>585867</v>
-      </c>
-      <c r="G15" t="n">
-        <v>401175</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.460377640680501</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>PHOENIXLTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SUZLON</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="C16" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="D16" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="E16" t="n">
-        <v>54.62</v>
-      </c>
-      <c r="F16" t="n">
-        <v>69042422</v>
-      </c>
-      <c r="G16" t="n">
-        <v>46144026</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4962374977857372</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SUZLON</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>885</v>
-      </c>
-      <c r="C17" t="n">
-        <v>892</v>
-      </c>
-      <c r="D17" t="n">
-        <v>878.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>890.95</v>
-      </c>
-      <c r="F17" t="n">
-        <v>809860</v>
-      </c>
-      <c r="G17" t="n">
-        <v>536038</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5108257250418814</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1630</v>
+        <v>7674.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1659.7</v>
+        <v>7706.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1620</v>
+        <v>7633.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1653.3</v>
+        <v>7700</v>
       </c>
       <c r="F2" t="n">
-        <v>1756916</v>
+        <v>210121</v>
       </c>
       <c r="G2" t="n">
-        <v>4041865</v>
+        <v>423558</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5653204646864752</v>
+        <v>-0.5039144579963075</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12019</v>
+        <v>2142</v>
       </c>
       <c r="C3" t="n">
-        <v>12100</v>
+        <v>2153.1</v>
       </c>
       <c r="D3" t="n">
-        <v>11991</v>
+        <v>2121.7</v>
       </c>
       <c r="E3" t="n">
-        <v>12073</v>
+        <v>2126</v>
       </c>
       <c r="F3" t="n">
-        <v>106362</v>
+        <v>2472939</v>
       </c>
       <c r="G3" t="n">
-        <v>258411</v>
+        <v>5152836</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5883998746183405</v>
+        <v>-0.5200819509877668</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3462</v>
+        <v>1134</v>
       </c>
       <c r="C4" t="n">
-        <v>3480</v>
+        <v>1140</v>
       </c>
       <c r="D4" t="n">
-        <v>3425.1</v>
+        <v>1115</v>
       </c>
       <c r="E4" t="n">
-        <v>3476</v>
+        <v>1128</v>
       </c>
       <c r="F4" t="n">
-        <v>1156082</v>
+        <v>3577437</v>
       </c>
       <c r="G4" t="n">
-        <v>2357702</v>
+        <v>8494611</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5096572849325317</v>
+        <v>-0.5788580548302918</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2765.1</v>
+        <v>1212</v>
       </c>
       <c r="C5" t="n">
-        <v>2814.1</v>
+        <v>1212</v>
       </c>
       <c r="D5" t="n">
-        <v>2765.1</v>
+        <v>1184</v>
       </c>
       <c r="E5" t="n">
-        <v>2801.4</v>
+        <v>1188</v>
       </c>
       <c r="F5" t="n">
-        <v>298274</v>
+        <v>8620156</v>
       </c>
       <c r="G5" t="n">
-        <v>708063</v>
+        <v>20128505</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5787465239675</v>
+        <v>-0.5717438528097343</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GRASIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BHARTIARTL</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1892.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1887.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1901.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2809218</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5828332</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.5180065239934856</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>BHARTIARTL</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JSWSTEEL</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1161.7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1164.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1149.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1162.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1013304</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2179883</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.5351567033643548</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>JSWSTEEL</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
@@ -690,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,66 +682,165 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101</v>
+        <v>335.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1144.7</v>
+        <v>341.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1093.3</v>
+        <v>333.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1137</v>
+        <v>337.85</v>
       </c>
       <c r="F2" t="n">
-        <v>8494611</v>
+        <v>19836347</v>
       </c>
       <c r="G2" t="n">
-        <v>5969792</v>
+        <v>13705095</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4229324907802483</v>
+        <v>0.4473702663133674</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>ETERNAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>646.5</v>
+        <v>2995</v>
       </c>
       <c r="C3" t="n">
-        <v>675.5</v>
+        <v>3004.5</v>
       </c>
       <c r="D3" t="n">
-        <v>646.5</v>
+        <v>2955.5</v>
       </c>
       <c r="E3" t="n">
-        <v>671</v>
+        <v>2975</v>
       </c>
       <c r="F3" t="n">
-        <v>10343487</v>
+        <v>3062943</v>
       </c>
       <c r="G3" t="n">
-        <v>7200543</v>
+        <v>2112774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4364870815992627</v>
+        <v>0.4497258107114154</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>TCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2540</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2559.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2508.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2530</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1291750</v>
+      </c>
+      <c r="G4" t="n">
+        <v>818923</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5773766275950242</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1181.7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1192.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1176</v>
+      </c>
+      <c r="F5" t="n">
+        <v>922441</v>
+      </c>
+      <c r="G5" t="n">
+        <v>639965</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4413928886735993</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JSWSTEEL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1159.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1154.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1154.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1565661</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1013304</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5451049240899078</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,132 +484,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7674.5</v>
+        <v>1372.3</v>
       </c>
       <c r="C2" t="n">
-        <v>7706.5</v>
+        <v>1381.6</v>
       </c>
       <c r="D2" t="n">
-        <v>7633.5</v>
+        <v>1364.3</v>
       </c>
       <c r="E2" t="n">
-        <v>7700</v>
+        <v>1367.8</v>
       </c>
       <c r="F2" t="n">
-        <v>210121</v>
+        <v>8100832</v>
       </c>
       <c r="G2" t="n">
-        <v>423558</v>
+        <v>16126464</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5039144579963075</v>
+        <v>-0.497668428739245</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2142</v>
+        <v>385.5</v>
       </c>
       <c r="C3" t="n">
-        <v>2153.1</v>
+        <v>386.4</v>
       </c>
       <c r="D3" t="n">
-        <v>2121.7</v>
+        <v>381.1</v>
       </c>
       <c r="E3" t="n">
-        <v>2126</v>
+        <v>382.05</v>
       </c>
       <c r="F3" t="n">
-        <v>2472939</v>
+        <v>3642904</v>
       </c>
       <c r="G3" t="n">
-        <v>5152836</v>
+        <v>7895734</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5200819509877668</v>
+        <v>-0.5386237682272478</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>COALINDIA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1134</v>
+        <v>1158</v>
       </c>
       <c r="C4" t="n">
-        <v>1140</v>
+        <v>1162.7</v>
       </c>
       <c r="D4" t="n">
-        <v>1115</v>
+        <v>1142.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1128</v>
+        <v>1146</v>
       </c>
       <c r="F4" t="n">
-        <v>3577437</v>
+        <v>737972</v>
       </c>
       <c r="G4" t="n">
-        <v>8494611</v>
+        <v>1565661</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5788580548302918</v>
+        <v>-0.5286514769161396</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1212</v>
+        <v>246.55</v>
       </c>
       <c r="C5" t="n">
-        <v>1212</v>
+        <v>246.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1184</v>
+        <v>241.14</v>
       </c>
       <c r="E5" t="n">
-        <v>1188</v>
+        <v>241.99</v>
       </c>
       <c r="F5" t="n">
-        <v>8620156</v>
+        <v>5073558</v>
       </c>
       <c r="G5" t="n">
-        <v>20128505</v>
+        <v>12498420</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5717438528097343</v>
+        <v>-0.5940640496958816</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>ONGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JIOFIN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>310.95</v>
+      </c>
+      <c r="D6" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7853613</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18717966</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5804238024580235</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>JIOFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ADANIENSOL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>923.45</v>
+      </c>
+      <c r="C7" t="n">
+        <v>926.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>908.15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>913.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>662712</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1341521</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5059995333654859</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ADANIENSOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>452</v>
+      </c>
+      <c r="C8" t="n">
+        <v>463</v>
+      </c>
+      <c r="D8" t="n">
+        <v>452</v>
+      </c>
+      <c r="E8" t="n">
+        <v>458</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4192443</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8444885</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.50355238703665</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>596.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>593.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>596</v>
+      </c>
+      <c r="F9" t="n">
+        <v>185683</v>
+      </c>
+      <c r="G9" t="n">
+        <v>413182</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5506023979747424</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>126.65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126.69</v>
+      </c>
+      <c r="D10" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>125</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7459860</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17946269</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5843225129412692</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>638</v>
+      </c>
+      <c r="C11" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>627.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>627.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>742143</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1784826</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5841930810062157</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1091.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1102.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1066.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F12" t="n">
+        <v>549749</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1177833</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5332538653612184</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>470.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>471.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>461.05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>468.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2249868</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4836942</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5348573540885957</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2242</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2259</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2210.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2213</v>
+      </c>
+      <c r="F14" t="n">
+        <v>555881</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1137247</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.511204689922242</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
@@ -682,165 +979,165 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.5</v>
+        <v>1784</v>
       </c>
       <c r="C2" t="n">
-        <v>341.6</v>
+        <v>1795.9</v>
       </c>
       <c r="D2" t="n">
-        <v>333.2</v>
+        <v>1757.7</v>
       </c>
       <c r="E2" t="n">
-        <v>337.85</v>
+        <v>1772</v>
       </c>
       <c r="F2" t="n">
-        <v>19836347</v>
+        <v>1323877</v>
       </c>
       <c r="G2" t="n">
-        <v>13705095</v>
+        <v>859968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4473702663133674</v>
+        <v>0.5394491422936667</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>SBILIFE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2995</v>
+        <v>2360</v>
       </c>
       <c r="C3" t="n">
-        <v>3004.5</v>
+        <v>2369.4</v>
       </c>
       <c r="D3" t="n">
-        <v>2955.5</v>
+        <v>2320</v>
       </c>
       <c r="E3" t="n">
-        <v>2975</v>
+        <v>2323</v>
       </c>
       <c r="F3" t="n">
-        <v>3062943</v>
+        <v>701799</v>
       </c>
       <c r="G3" t="n">
-        <v>2112774</v>
+        <v>498524</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4497258107114154</v>
+        <v>0.4077536888896021</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2540</v>
+        <v>1469</v>
       </c>
       <c r="C4" t="n">
-        <v>2559.4</v>
+        <v>1498.5</v>
       </c>
       <c r="D4" t="n">
-        <v>2508.3</v>
+        <v>1462</v>
       </c>
       <c r="E4" t="n">
-        <v>2530</v>
+        <v>1495</v>
       </c>
       <c r="F4" t="n">
-        <v>1291750</v>
+        <v>1023522</v>
       </c>
       <c r="G4" t="n">
-        <v>818923</v>
+        <v>725776</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5773766275950242</v>
+        <v>0.4102450342805494</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>COFORGE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1181.7</v>
+        <v>1682.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1192.2</v>
+        <v>1733.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1175</v>
+        <v>1673.3</v>
       </c>
       <c r="E5" t="n">
-        <v>1176</v>
+        <v>1709.5</v>
       </c>
       <c r="F5" t="n">
-        <v>922441</v>
+        <v>2733508</v>
       </c>
       <c r="G5" t="n">
-        <v>639965</v>
+        <v>1937983</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4413928886735993</v>
+        <v>0.4104912168992195</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>COFORGE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>KEI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159.9</v>
+        <v>4175</v>
       </c>
       <c r="C6" t="n">
-        <v>1173</v>
+        <v>4297</v>
       </c>
       <c r="D6" t="n">
-        <v>1154.2</v>
+        <v>4170.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1154.2</v>
+        <v>4250</v>
       </c>
       <c r="F6" t="n">
-        <v>1565661</v>
+        <v>225852</v>
       </c>
       <c r="G6" t="n">
-        <v>1013304</v>
+        <v>143928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5451049240899078</v>
+        <v>0.5692012673003168</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>KEI</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -484,429 +484,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1372.3</v>
+        <v>534</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.6</v>
+        <v>544</v>
       </c>
       <c r="D2" t="n">
-        <v>1364.3</v>
+        <v>532.55</v>
       </c>
       <c r="E2" t="n">
-        <v>1367.8</v>
+        <v>541.7</v>
       </c>
       <c r="F2" t="n">
-        <v>8100832</v>
+        <v>1425566</v>
       </c>
       <c r="G2" t="n">
-        <v>16126464</v>
+        <v>3256894</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.497668428739245</v>
+        <v>-0.5622927857031884</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385.5</v>
+        <v>733</v>
       </c>
       <c r="C3" t="n">
-        <v>386.4</v>
+        <v>735</v>
       </c>
       <c r="D3" t="n">
-        <v>381.1</v>
+        <v>728</v>
       </c>
       <c r="E3" t="n">
-        <v>382.05</v>
+        <v>734.9</v>
       </c>
       <c r="F3" t="n">
-        <v>3642904</v>
+        <v>1123403</v>
       </c>
       <c r="G3" t="n">
-        <v>7895734</v>
+        <v>2734309</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5386237682272478</v>
+        <v>-0.5891455574333405</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>IRFC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1158</v>
+        <v>124.91</v>
       </c>
       <c r="C4" t="n">
-        <v>1162.7</v>
+        <v>125.35</v>
       </c>
       <c r="D4" t="n">
-        <v>1142.7</v>
+        <v>123.81</v>
       </c>
       <c r="E4" t="n">
-        <v>1146</v>
+        <v>125.1</v>
       </c>
       <c r="F4" t="n">
-        <v>737972</v>
+        <v>5774638</v>
       </c>
       <c r="G4" t="n">
-        <v>1565661</v>
+        <v>12875915</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5286514769161396</v>
+        <v>-0.5515163000066403</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>IRFC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.55</v>
+        <v>126.49</v>
       </c>
       <c r="C5" t="n">
-        <v>246.8</v>
+        <v>126.99</v>
       </c>
       <c r="D5" t="n">
-        <v>241.14</v>
+        <v>125.51</v>
       </c>
       <c r="E5" t="n">
-        <v>241.99</v>
+        <v>126.24</v>
       </c>
       <c r="F5" t="n">
-        <v>5073558</v>
+        <v>16981691</v>
       </c>
       <c r="G5" t="n">
-        <v>12498420</v>
+        <v>38012061</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5940640496958816</v>
+        <v>-0.5532551891885052</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309.9</v>
+        <v>566.4</v>
       </c>
       <c r="C6" t="n">
-        <v>310.95</v>
+        <v>569.15</v>
       </c>
       <c r="D6" t="n">
-        <v>304.2</v>
+        <v>562.05</v>
       </c>
       <c r="E6" t="n">
-        <v>304.7</v>
+        <v>565.8</v>
       </c>
       <c r="F6" t="n">
-        <v>7853613</v>
+        <v>816362</v>
       </c>
       <c r="G6" t="n">
-        <v>18717966</v>
+        <v>1866324</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5804238024580235</v>
+        <v>-0.5625829170069077</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.45</v>
+        <v>296.9</v>
       </c>
       <c r="C7" t="n">
-        <v>926.9</v>
+        <v>299</v>
       </c>
       <c r="D7" t="n">
-        <v>908.15</v>
+        <v>294.95</v>
       </c>
       <c r="E7" t="n">
-        <v>913.3</v>
+        <v>298.1</v>
       </c>
       <c r="F7" t="n">
-        <v>662712</v>
+        <v>2420997</v>
       </c>
       <c r="G7" t="n">
-        <v>1341521</v>
+        <v>5342127</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5059995333654859</v>
+        <v>-0.5468102873630671</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MANKIND</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>452</v>
+        <v>2450</v>
       </c>
       <c r="C8" t="n">
-        <v>463</v>
+        <v>2484.2</v>
       </c>
       <c r="D8" t="n">
-        <v>452</v>
+        <v>2448.1</v>
       </c>
       <c r="E8" t="n">
-        <v>458</v>
+        <v>2476.8</v>
       </c>
       <c r="F8" t="n">
-        <v>4192443</v>
+        <v>135618</v>
       </c>
       <c r="G8" t="n">
-        <v>8444885</v>
+        <v>285681</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.50355238703665</v>
+        <v>-0.5252816953175045</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MANKIND</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>COFORGE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>596.95</v>
+        <v>1720</v>
       </c>
       <c r="C9" t="n">
-        <v>599.9</v>
+        <v>1728.5</v>
       </c>
       <c r="D9" t="n">
-        <v>593.1</v>
+        <v>1699</v>
       </c>
       <c r="E9" t="n">
-        <v>596</v>
+        <v>1723.1</v>
       </c>
       <c r="F9" t="n">
-        <v>185683</v>
+        <v>1167579</v>
       </c>
       <c r="G9" t="n">
-        <v>413182</v>
+        <v>2733508</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5506023979747424</v>
+        <v>-0.5728642462359722</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>COFORGE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.65</v>
+        <v>4186.7</v>
       </c>
       <c r="C10" t="n">
-        <v>126.69</v>
+        <v>4198.2</v>
       </c>
       <c r="D10" t="n">
-        <v>123.7</v>
+        <v>4112.6</v>
       </c>
       <c r="E10" t="n">
-        <v>125</v>
+        <v>4173</v>
       </c>
       <c r="F10" t="n">
-        <v>7459860</v>
+        <v>52464</v>
       </c>
       <c r="G10" t="n">
-        <v>17946269</v>
+        <v>116555</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5843225129412692</v>
+        <v>-0.5498777401226889</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>638</v>
+        <v>592.1</v>
       </c>
       <c r="C11" t="n">
-        <v>638.4</v>
+        <v>596.55</v>
       </c>
       <c r="D11" t="n">
-        <v>627.2</v>
+        <v>589.5</v>
       </c>
       <c r="E11" t="n">
-        <v>627.2</v>
+        <v>593.95</v>
       </c>
       <c r="F11" t="n">
-        <v>742143</v>
+        <v>461949</v>
       </c>
       <c r="G11" t="n">
-        <v>1784826</v>
+        <v>972845</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5841930810062157</v>
+        <v>-0.5251566282398532</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>RVNL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1091.5</v>
+        <v>344.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1102.8</v>
+        <v>347.3</v>
       </c>
       <c r="D12" t="n">
-        <v>1066.8</v>
+        <v>341.2</v>
       </c>
       <c r="E12" t="n">
-        <v>1068</v>
+        <v>344.5</v>
       </c>
       <c r="F12" t="n">
-        <v>549749</v>
+        <v>4026015</v>
       </c>
       <c r="G12" t="n">
-        <v>1177833</v>
+        <v>8765182</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5332538653612184</v>
+        <v>-0.5406809579082328</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>RVNL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>KFINTECH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.2</v>
+        <v>1040</v>
       </c>
       <c r="C13" t="n">
-        <v>471.5</v>
+        <v>1055.7</v>
       </c>
       <c r="D13" t="n">
-        <v>461.05</v>
+        <v>1030</v>
       </c>
       <c r="E13" t="n">
-        <v>468.3</v>
+        <v>1052.8</v>
       </c>
       <c r="F13" t="n">
-        <v>2249868</v>
+        <v>565327</v>
       </c>
       <c r="G13" t="n">
-        <v>4836942</v>
+        <v>1218429</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5348573540885957</v>
+        <v>-0.5360197434565329</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2242</v>
+        <v>526.55</v>
       </c>
       <c r="C14" t="n">
-        <v>2259</v>
+        <v>533.9</v>
       </c>
       <c r="D14" t="n">
-        <v>2210.2</v>
+        <v>524.2</v>
       </c>
       <c r="E14" t="n">
-        <v>2213</v>
+        <v>531</v>
       </c>
       <c r="F14" t="n">
-        <v>555881</v>
+        <v>1023794</v>
       </c>
       <c r="G14" t="n">
-        <v>1137247</v>
+        <v>2234852</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.511204689922242</v>
+        <v>-0.5418962866444847</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,165 +979,462 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1784</v>
+        <v>1453.2</v>
       </c>
       <c r="C2" t="n">
-        <v>1795.9</v>
+        <v>1491.1</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.7</v>
+        <v>1452.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1772</v>
+        <v>1484.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1323877</v>
+        <v>2681316</v>
       </c>
       <c r="G2" t="n">
-        <v>859968</v>
+        <v>1735807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5394491422936667</v>
+        <v>0.54470859951596</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>HCLTECH</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2360</v>
+        <v>1502</v>
       </c>
       <c r="C3" t="n">
-        <v>2369.4</v>
+        <v>1514</v>
       </c>
       <c r="D3" t="n">
-        <v>2320</v>
+        <v>1487</v>
       </c>
       <c r="E3" t="n">
-        <v>2323</v>
+        <v>1509.7</v>
       </c>
       <c r="F3" t="n">
-        <v>701799</v>
+        <v>7028753</v>
       </c>
       <c r="G3" t="n">
-        <v>498524</v>
+        <v>4657192</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4077536888896021</v>
+        <v>0.5092255161479278</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1469</v>
+        <v>7690</v>
       </c>
       <c r="C4" t="n">
-        <v>1498.5</v>
+        <v>7750</v>
       </c>
       <c r="D4" t="n">
-        <v>1462</v>
+        <v>7620</v>
       </c>
       <c r="E4" t="n">
-        <v>1495</v>
+        <v>7700</v>
       </c>
       <c r="F4" t="n">
-        <v>1023522</v>
+        <v>295802</v>
       </c>
       <c r="G4" t="n">
-        <v>725776</v>
+        <v>188810</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4102450342805494</v>
+        <v>0.5666649012234521</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1682.5</v>
+        <v>473</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.2</v>
+        <v>485</v>
       </c>
       <c r="D5" t="n">
-        <v>1673.3</v>
+        <v>467.35</v>
       </c>
       <c r="E5" t="n">
-        <v>1709.5</v>
+        <v>484.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2733508</v>
+        <v>16201074</v>
       </c>
       <c r="G5" t="n">
-        <v>1937983</v>
+        <v>10158945</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4104912168992195</v>
+        <v>0.5947594952034881</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>VEDL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>CGPOWER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4175</v>
+        <v>743.9</v>
       </c>
       <c r="C6" t="n">
-        <v>4297</v>
+        <v>763.45</v>
       </c>
       <c r="D6" t="n">
-        <v>4170.2</v>
+        <v>741.8</v>
       </c>
       <c r="E6" t="n">
-        <v>4250</v>
+        <v>761.8</v>
       </c>
       <c r="F6" t="n">
-        <v>225852</v>
+        <v>2262502</v>
       </c>
       <c r="G6" t="n">
-        <v>143928</v>
+        <v>1563241</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5692012673003168</v>
+        <v>0.4473149053792729</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>CGPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4792</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4863.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4744</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4857</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1003478</v>
+      </c>
+      <c r="G7" t="n">
+        <v>704075</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.425243049391045</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IOC</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>154.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>153.33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13999206</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9953844</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4064120353905486</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>IOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CHOLAFIN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1607.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1596.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1620.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1404177</v>
+      </c>
+      <c r="G9" t="n">
+        <v>885008</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5866263355811473</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CHOLAFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ICICIGI</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1880.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1894.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1854</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F10" t="n">
+        <v>636816</v>
+      </c>
+      <c r="G10" t="n">
+        <v>438884</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4509893274760529</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ICICIGI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NMDC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>79.23999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>78.81999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33869311</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21657726</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5638442835595944</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NMDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>255.95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>261</v>
+      </c>
+      <c r="D12" t="n">
+        <v>255.55</v>
+      </c>
+      <c r="E12" t="n">
+        <v>260.19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3597676</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2485985</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4471833096338071</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>42000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42085</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41365</v>
+      </c>
+      <c r="E13" t="n">
+        <v>41700</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20885</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13956</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4964889653195758</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>563.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>565.55</v>
+      </c>
+      <c r="D14" t="n">
+        <v>559</v>
+      </c>
+      <c r="E14" t="n">
+        <v>560</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2247538</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1591967</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4117993651878462</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>467.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>466</v>
+      </c>
+      <c r="E15" t="n">
+        <v>468.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3354443</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2249868</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4909510246823369</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,429 +484,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534</v>
+        <v>931.85</v>
       </c>
       <c r="C2" t="n">
-        <v>544</v>
+        <v>932.95</v>
       </c>
       <c r="D2" t="n">
-        <v>532.55</v>
+        <v>915</v>
       </c>
       <c r="E2" t="n">
-        <v>541.7</v>
+        <v>928.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1425566</v>
+        <v>974648</v>
       </c>
       <c r="G2" t="n">
-        <v>3256894</v>
+        <v>2119876</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5622927857031884</v>
+        <v>-0.5402334853548038</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>733</v>
+        <v>1891.8</v>
       </c>
       <c r="C3" t="n">
-        <v>735</v>
+        <v>1901.5</v>
       </c>
       <c r="D3" t="n">
-        <v>728</v>
+        <v>1855.5</v>
       </c>
       <c r="E3" t="n">
-        <v>734.9</v>
+        <v>1859</v>
       </c>
       <c r="F3" t="n">
-        <v>1123403</v>
+        <v>312123</v>
       </c>
       <c r="G3" t="n">
-        <v>2734309</v>
+        <v>636816</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5891455574333405</v>
+        <v>-0.5098694128288234</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.91</v>
+        <v>561.6</v>
       </c>
       <c r="C4" t="n">
-        <v>125.35</v>
+        <v>572.35</v>
       </c>
       <c r="D4" t="n">
-        <v>123.81</v>
+        <v>561.05</v>
       </c>
       <c r="E4" t="n">
-        <v>125.1</v>
+        <v>567.5</v>
       </c>
       <c r="F4" t="n">
-        <v>5774638</v>
+        <v>987991</v>
       </c>
       <c r="G4" t="n">
-        <v>12875915</v>
+        <v>2247538</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5515163000066403</v>
+        <v>-0.5604118818013311</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126.49</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>126.99</v>
+        <v>91.16</v>
       </c>
       <c r="D5" t="n">
-        <v>125.51</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>126.24</v>
+        <v>90.13</v>
       </c>
       <c r="F5" t="n">
-        <v>16981691</v>
+        <v>4874972</v>
       </c>
       <c r="G5" t="n">
-        <v>38012061</v>
+        <v>12062943</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5532551891885052</v>
+        <v>-0.5958720852780287</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>566.4</v>
+        <v>456.5</v>
       </c>
       <c r="C6" t="n">
-        <v>569.15</v>
+        <v>461.35</v>
       </c>
       <c r="D6" t="n">
-        <v>562.05</v>
+        <v>450.85</v>
       </c>
       <c r="E6" t="n">
-        <v>565.8</v>
+        <v>452.9</v>
       </c>
       <c r="F6" t="n">
-        <v>816362</v>
+        <v>1709268</v>
       </c>
       <c r="G6" t="n">
-        <v>1866324</v>
+        <v>3613774</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5625829170069077</v>
+        <v>-0.5270130340192829</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>IGL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.9</v>
+        <v>218.35</v>
       </c>
       <c r="C7" t="n">
-        <v>299</v>
+        <v>218.58</v>
       </c>
       <c r="D7" t="n">
-        <v>294.95</v>
+        <v>215.21</v>
       </c>
       <c r="E7" t="n">
-        <v>298.1</v>
+        <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>2420997</v>
+        <v>1204131</v>
       </c>
       <c r="G7" t="n">
-        <v>5342127</v>
+        <v>2695300</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5468102873630671</v>
+        <v>-0.5532478759321783</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>IGL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2450</v>
+        <v>230</v>
       </c>
       <c r="C8" t="n">
-        <v>2484.2</v>
+        <v>230.8</v>
       </c>
       <c r="D8" t="n">
-        <v>2448.1</v>
+        <v>223.4</v>
       </c>
       <c r="E8" t="n">
-        <v>2476.8</v>
+        <v>224.69</v>
       </c>
       <c r="F8" t="n">
-        <v>135618</v>
+        <v>9669882</v>
       </c>
       <c r="G8" t="n">
-        <v>285681</v>
+        <v>21222011</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5252816953175045</v>
+        <v>-0.5443465748839731</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>AMBER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1720</v>
+        <v>8250</v>
       </c>
       <c r="C9" t="n">
-        <v>1728.5</v>
+        <v>8382</v>
       </c>
       <c r="D9" t="n">
-        <v>1699</v>
+        <v>8206</v>
       </c>
       <c r="E9" t="n">
-        <v>1723.1</v>
+        <v>8278.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1167579</v>
+        <v>151471</v>
       </c>
       <c r="G9" t="n">
-        <v>2733508</v>
+        <v>311542</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5728642462359722</v>
+        <v>-0.5138023123687978</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>AMBER</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SUPREMEIND</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4186.7</v>
+        <v>569</v>
       </c>
       <c r="C10" t="n">
-        <v>4198.2</v>
+        <v>574.5</v>
       </c>
       <c r="D10" t="n">
-        <v>4112.6</v>
+        <v>560.25</v>
       </c>
       <c r="E10" t="n">
-        <v>4173</v>
+        <v>568</v>
       </c>
       <c r="F10" t="n">
-        <v>52464</v>
+        <v>1270829</v>
       </c>
       <c r="G10" t="n">
-        <v>116555</v>
+        <v>2945411</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5498777401226889</v>
+        <v>-0.5685393311833221</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SUPREMEIND</t>
+          <t>GRANULES</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ICICIPRULI</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>592.1</v>
+        <v>7110</v>
       </c>
       <c r="C11" t="n">
-        <v>596.55</v>
+        <v>7183</v>
       </c>
       <c r="D11" t="n">
-        <v>589.5</v>
+        <v>7053.5</v>
       </c>
       <c r="E11" t="n">
-        <v>593.95</v>
+        <v>7098</v>
       </c>
       <c r="F11" t="n">
-        <v>461949</v>
+        <v>344930</v>
       </c>
       <c r="G11" t="n">
-        <v>972845</v>
+        <v>691656</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5251566282398532</v>
+        <v>-0.5012983332755011</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ICICIPRULI</t>
+          <t>KAYNES</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>TITAGARH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>344.5</v>
+        <v>905</v>
       </c>
       <c r="C12" t="n">
-        <v>347.3</v>
+        <v>912.3</v>
       </c>
       <c r="D12" t="n">
-        <v>341.2</v>
+        <v>899</v>
       </c>
       <c r="E12" t="n">
-        <v>344.5</v>
+        <v>901</v>
       </c>
       <c r="F12" t="n">
-        <v>4026015</v>
+        <v>464518</v>
       </c>
       <c r="G12" t="n">
-        <v>8765182</v>
+        <v>1111859</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5406809579082328</v>
+        <v>-0.5822150110760447</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>RVNL</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KFINTECH</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1055.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1030</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1052.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>565327</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1218429</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5360197434565329</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>KFINTECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>526.55</v>
-      </c>
-      <c r="C14" t="n">
-        <v>533.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>524.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>531</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1023794</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2234852</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5418962866444847</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
+          <t>TITAGARH</t>
         </is>
       </c>
     </row>
@@ -921,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,462 +913,693 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1453.2</v>
+        <v>15980</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.1</v>
+        <v>16315</v>
       </c>
       <c r="D2" t="n">
-        <v>1452.5</v>
+        <v>15911</v>
       </c>
       <c r="E2" t="n">
-        <v>1484.5</v>
+        <v>16285</v>
       </c>
       <c r="F2" t="n">
-        <v>2681316</v>
+        <v>423031</v>
       </c>
       <c r="G2" t="n">
-        <v>1735807</v>
+        <v>300499</v>
       </c>
       <c r="H2" t="n">
-        <v>0.54470859951596</v>
+        <v>0.4077617562787231</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1502</v>
+        <v>248</v>
       </c>
       <c r="C3" t="n">
-        <v>1514</v>
+        <v>251.25</v>
       </c>
       <c r="D3" t="n">
-        <v>1487</v>
+        <v>246.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1509.7</v>
+        <v>248.98</v>
       </c>
       <c r="F3" t="n">
-        <v>7028753</v>
+        <v>7070200</v>
       </c>
       <c r="G3" t="n">
-        <v>4657192</v>
+        <v>4629760</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5092255161479278</v>
+        <v>0.5271201962952723</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7690</v>
+        <v>409</v>
       </c>
       <c r="C4" t="n">
-        <v>7750</v>
+        <v>415.5</v>
       </c>
       <c r="D4" t="n">
-        <v>7620</v>
+        <v>408.35</v>
       </c>
       <c r="E4" t="n">
-        <v>7700</v>
+        <v>412.15</v>
       </c>
       <c r="F4" t="n">
-        <v>295802</v>
+        <v>13813014</v>
       </c>
       <c r="G4" t="n">
-        <v>188810</v>
+        <v>9035150</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5666649012234521</v>
+        <v>0.5288084868541197</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>473</v>
+        <v>2810.6</v>
       </c>
       <c r="C5" t="n">
-        <v>485</v>
+        <v>2832.8</v>
       </c>
       <c r="D5" t="n">
-        <v>467.35</v>
+        <v>2788.3</v>
       </c>
       <c r="E5" t="n">
-        <v>484.8</v>
+        <v>2812</v>
       </c>
       <c r="F5" t="n">
-        <v>16201074</v>
+        <v>582587</v>
       </c>
       <c r="G5" t="n">
-        <v>10158945</v>
+        <v>404859</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5947594952034881</v>
+        <v>0.438987400551797</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743.9</v>
+        <v>1130.3</v>
       </c>
       <c r="C6" t="n">
-        <v>763.45</v>
+        <v>1161.3</v>
       </c>
       <c r="D6" t="n">
-        <v>741.8</v>
+        <v>1120.6</v>
       </c>
       <c r="E6" t="n">
-        <v>761.8</v>
+        <v>1153.6</v>
       </c>
       <c r="F6" t="n">
-        <v>2262502</v>
+        <v>1061874</v>
       </c>
       <c r="G6" t="n">
-        <v>1563241</v>
+        <v>682554</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4473149053792729</v>
+        <v>0.5557362494396048</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4792</v>
+        <v>1481.2</v>
       </c>
       <c r="C7" t="n">
-        <v>4863.2</v>
+        <v>1520</v>
       </c>
       <c r="D7" t="n">
-        <v>4744</v>
+        <v>1480.2</v>
       </c>
       <c r="E7" t="n">
-        <v>4857</v>
+        <v>1499.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1003478</v>
+        <v>817076</v>
       </c>
       <c r="G7" t="n">
-        <v>704075</v>
+        <v>561521</v>
       </c>
       <c r="H7" t="n">
-        <v>0.425243049391045</v>
+        <v>0.4551120973213825</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>HAVELLS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.02</v>
+        <v>126.5</v>
       </c>
       <c r="C8" t="n">
-        <v>157.2</v>
+        <v>128.6</v>
       </c>
       <c r="D8" t="n">
-        <v>153.33</v>
+        <v>126.35</v>
       </c>
       <c r="E8" t="n">
-        <v>155.1</v>
+        <v>127.36</v>
       </c>
       <c r="F8" t="n">
-        <v>13999206</v>
+        <v>23836453</v>
       </c>
       <c r="G8" t="n">
-        <v>9953844</v>
+        <v>16981691</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4064120353905486</v>
+        <v>0.4036560316637489</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1607.5</v>
+        <v>396</v>
       </c>
       <c r="C9" t="n">
-        <v>1625</v>
+        <v>396.8</v>
       </c>
       <c r="D9" t="n">
-        <v>1596.4</v>
+        <v>389.6</v>
       </c>
       <c r="E9" t="n">
-        <v>1620.2</v>
+        <v>390.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1404177</v>
+        <v>7725390</v>
       </c>
       <c r="G9" t="n">
-        <v>885008</v>
+        <v>5139999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5866263355811473</v>
+        <v>0.5029944558354973</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1880.2</v>
+        <v>749.6</v>
       </c>
       <c r="C10" t="n">
-        <v>1894.8</v>
+        <v>766.75</v>
       </c>
       <c r="D10" t="n">
-        <v>1854</v>
+        <v>747.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1890</v>
+        <v>763.5</v>
       </c>
       <c r="F10" t="n">
-        <v>636816</v>
+        <v>5386722</v>
       </c>
       <c r="G10" t="n">
-        <v>438884</v>
+        <v>3506978</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4509893274760529</v>
+        <v>0.5360010812728223</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.48999999999999</v>
+        <v>3528</v>
       </c>
       <c r="C11" t="n">
-        <v>79.23999999999999</v>
+        <v>3606.5</v>
       </c>
       <c r="D11" t="n">
-        <v>76.48999999999999</v>
+        <v>3524</v>
       </c>
       <c r="E11" t="n">
-        <v>78.81999999999999</v>
+        <v>3563.9</v>
       </c>
       <c r="F11" t="n">
-        <v>33869311</v>
+        <v>335525</v>
       </c>
       <c r="G11" t="n">
-        <v>21657726</v>
+        <v>211896</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5638442835595944</v>
+        <v>0.5834418771472798</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PIIND</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255.95</v>
+        <v>1935.9</v>
       </c>
       <c r="C12" t="n">
-        <v>261</v>
+        <v>1978.2</v>
       </c>
       <c r="D12" t="n">
-        <v>255.55</v>
+        <v>1925.1</v>
       </c>
       <c r="E12" t="n">
-        <v>260.19</v>
+        <v>1938.4</v>
       </c>
       <c r="F12" t="n">
-        <v>3597676</v>
+        <v>867422</v>
       </c>
       <c r="G12" t="n">
-        <v>2485985</v>
+        <v>596524</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4471833096338071</v>
+        <v>0.4541275791083008</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>ALKEM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42000</v>
+        <v>5480.5</v>
       </c>
       <c r="C13" t="n">
-        <v>42085</v>
+        <v>5500</v>
       </c>
       <c r="D13" t="n">
-        <v>41365</v>
+        <v>5412.5</v>
       </c>
       <c r="E13" t="n">
-        <v>41700</v>
+        <v>5460</v>
       </c>
       <c r="F13" t="n">
-        <v>20885</v>
+        <v>171470</v>
       </c>
       <c r="G13" t="n">
-        <v>13956</v>
+        <v>108874</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4964889653195758</v>
+        <v>0.5749398387126403</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>ALKEM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>PAYTM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>563.5</v>
+        <v>1252</v>
       </c>
       <c r="C14" t="n">
-        <v>565.55</v>
+        <v>1257.6</v>
       </c>
       <c r="D14" t="n">
-        <v>559</v>
+        <v>1230.5</v>
       </c>
       <c r="E14" t="n">
-        <v>560</v>
+        <v>1237</v>
       </c>
       <c r="F14" t="n">
-        <v>2247538</v>
+        <v>4322055</v>
       </c>
       <c r="G14" t="n">
-        <v>1591967</v>
+        <v>3067327</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4117993651878462</v>
+        <v>0.4090623529868188</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>PAYTM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>467.3</v>
+        <v>1601</v>
       </c>
       <c r="C15" t="n">
-        <v>475.5</v>
+        <v>1602.9</v>
       </c>
       <c r="D15" t="n">
-        <v>466</v>
+        <v>1579.2</v>
       </c>
       <c r="E15" t="n">
-        <v>468.9</v>
+        <v>1584</v>
       </c>
       <c r="F15" t="n">
-        <v>3354443</v>
+        <v>528833</v>
       </c>
       <c r="G15" t="n">
-        <v>2249868</v>
+        <v>342605</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4909510246823369</v>
+        <v>0.543564746574043</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3233</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3240</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3150.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3165</v>
+      </c>
+      <c r="F16" t="n">
+        <v>542445</v>
+      </c>
+      <c r="G16" t="n">
+        <v>366182</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4813535345811645</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.34999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74.34999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>76.01000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23042103</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14941670</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5421370569688663</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2264.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2319.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2253</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2303.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1026736</v>
+      </c>
+      <c r="G18" t="n">
+        <v>723562</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4190021034824936</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7143.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7314.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7117.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7243</v>
+      </c>
+      <c r="F19" t="n">
+        <v>144871</v>
+      </c>
+      <c r="G19" t="n">
+        <v>90905</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5936527143721467</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>873</v>
+      </c>
+      <c r="C20" t="n">
+        <v>891.15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>843</v>
+      </c>
+      <c r="E20" t="n">
+        <v>877.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3985430</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2609957</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5270098319627489</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ABFRL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>84.55</v>
+      </c>
+      <c r="C21" t="n">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>83</v>
+      </c>
+      <c r="E21" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3558376</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2239381</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5889998173602438</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ABFRL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>877</v>
+      </c>
+      <c r="C22" t="n">
+        <v>878</v>
+      </c>
+      <c r="D22" t="n">
+        <v>851</v>
+      </c>
+      <c r="E22" t="n">
+        <v>855</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1230300</v>
+      </c>
+      <c r="G22" t="n">
+        <v>822722</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4954018489842255</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,363 +484,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>931.85</v>
+        <v>1559</v>
       </c>
       <c r="C2" t="n">
-        <v>932.95</v>
+        <v>1566.9</v>
       </c>
       <c r="D2" t="n">
-        <v>915</v>
+        <v>1550.1</v>
       </c>
       <c r="E2" t="n">
-        <v>928.25</v>
+        <v>1562.9</v>
       </c>
       <c r="F2" t="n">
-        <v>974648</v>
+        <v>671620</v>
       </c>
       <c r="G2" t="n">
-        <v>2119876</v>
+        <v>1495524</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5402334853548038</v>
+        <v>-0.5509132584966875</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1891.8</v>
+        <v>2791.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1901.5</v>
+        <v>2812</v>
       </c>
       <c r="D3" t="n">
-        <v>1855.5</v>
+        <v>2778.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1859</v>
+        <v>2796</v>
       </c>
       <c r="F3" t="n">
-        <v>312123</v>
+        <v>280622</v>
       </c>
       <c r="G3" t="n">
-        <v>636816</v>
+        <v>582587</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5098694128288234</v>
+        <v>-0.5183174358507828</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.6</v>
+        <v>12225</v>
       </c>
       <c r="C4" t="n">
-        <v>572.35</v>
+        <v>12249</v>
       </c>
       <c r="D4" t="n">
-        <v>561.05</v>
+        <v>12150</v>
       </c>
       <c r="E4" t="n">
-        <v>567.5</v>
+        <v>12178</v>
       </c>
       <c r="F4" t="n">
-        <v>987991</v>
+        <v>87745</v>
       </c>
       <c r="G4" t="n">
-        <v>2247538</v>
+        <v>198464</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5604118818013311</v>
+        <v>-0.5578795146726863</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.70999999999999</v>
+        <v>990</v>
       </c>
       <c r="C5" t="n">
-        <v>91.16</v>
+        <v>998</v>
       </c>
       <c r="D5" t="n">
-        <v>89.84999999999999</v>
+        <v>985.3</v>
       </c>
       <c r="E5" t="n">
-        <v>90.13</v>
+        <v>994.45</v>
       </c>
       <c r="F5" t="n">
-        <v>4874972</v>
+        <v>727760</v>
       </c>
       <c r="G5" t="n">
-        <v>12062943</v>
+        <v>1559044</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5958720852780287</v>
+        <v>-0.5332011155554301</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456.5</v>
+        <v>3515</v>
       </c>
       <c r="C6" t="n">
-        <v>461.35</v>
+        <v>3553</v>
       </c>
       <c r="D6" t="n">
-        <v>450.85</v>
+        <v>3510.1</v>
       </c>
       <c r="E6" t="n">
-        <v>452.9</v>
+        <v>3521</v>
       </c>
       <c r="F6" t="n">
-        <v>1709268</v>
+        <v>90713</v>
       </c>
       <c r="G6" t="n">
-        <v>3613774</v>
+        <v>179322</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5270130340192829</v>
+        <v>-0.4941334582482908</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>ALKEM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.35</v>
+        <v>5458.5</v>
       </c>
       <c r="C7" t="n">
-        <v>218.58</v>
+        <v>5510</v>
       </c>
       <c r="D7" t="n">
-        <v>215.21</v>
+        <v>5436.5</v>
       </c>
       <c r="E7" t="n">
-        <v>216</v>
+        <v>5510</v>
       </c>
       <c r="F7" t="n">
-        <v>1204131</v>
+        <v>78208</v>
       </c>
       <c r="G7" t="n">
-        <v>2695300</v>
+        <v>171470</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5532478759321783</v>
+        <v>-0.5438968915845337</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IGL</t>
+          <t>ALKEM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230</v>
+        <v>5500</v>
       </c>
       <c r="C8" t="n">
-        <v>230.8</v>
+        <v>5581</v>
       </c>
       <c r="D8" t="n">
-        <v>223.4</v>
+        <v>5484.5</v>
       </c>
       <c r="E8" t="n">
-        <v>224.69</v>
+        <v>5553.5</v>
       </c>
       <c r="F8" t="n">
-        <v>9669882</v>
+        <v>417645</v>
       </c>
       <c r="G8" t="n">
-        <v>21222011</v>
+        <v>835407</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5443465748839731</v>
+        <v>-0.5000700257479288</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8250</v>
+        <v>4150.1</v>
       </c>
       <c r="C9" t="n">
-        <v>8382</v>
+        <v>4273.3</v>
       </c>
       <c r="D9" t="n">
-        <v>8206</v>
+        <v>4150.1</v>
       </c>
       <c r="E9" t="n">
-        <v>8278.5</v>
+        <v>4268</v>
       </c>
       <c r="F9" t="n">
-        <v>151471</v>
+        <v>51444</v>
       </c>
       <c r="G9" t="n">
-        <v>311542</v>
+        <v>115703</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5138023123687978</v>
+        <v>-0.5553788579379965</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>AMBER</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>YESBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>569</v>
+        <v>24.2</v>
       </c>
       <c r="C10" t="n">
-        <v>574.5</v>
+        <v>24.29</v>
       </c>
       <c r="D10" t="n">
-        <v>560.25</v>
+        <v>23.82</v>
       </c>
       <c r="E10" t="n">
-        <v>568</v>
+        <v>24.06</v>
       </c>
       <c r="F10" t="n">
-        <v>1270829</v>
+        <v>251979906</v>
       </c>
       <c r="G10" t="n">
-        <v>2945411</v>
+        <v>551294320</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5685393311833221</v>
+        <v>-0.542930342543707</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>YESBANK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7110</v>
+        <v>77</v>
       </c>
       <c r="C11" t="n">
-        <v>7183</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>7053.5</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>7098</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>344930</v>
+        <v>10600238</v>
       </c>
       <c r="G11" t="n">
-        <v>691656</v>
+        <v>24502958</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5012983332755011</v>
+        <v>-0.5673894555914433</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TITAGARH</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>905</v>
+        <v>597</v>
       </c>
       <c r="C12" t="n">
-        <v>912.3</v>
+        <v>601</v>
       </c>
       <c r="D12" t="n">
-        <v>899</v>
+        <v>592.75</v>
       </c>
       <c r="E12" t="n">
-        <v>901</v>
+        <v>596</v>
       </c>
       <c r="F12" t="n">
-        <v>464518</v>
+        <v>383497</v>
       </c>
       <c r="G12" t="n">
-        <v>1111859</v>
+        <v>844847</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5822150110760447</v>
+        <v>-0.546075206516683</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TITAGARH</t>
+          <t>ICICIPRULI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3948</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3970</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3917</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F13" t="n">
+        <v>217474</v>
+      </c>
+      <c r="G13" t="n">
+        <v>532967</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5919559747601634</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>353.45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>353.45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>346.95</v>
+      </c>
+      <c r="E14" t="n">
+        <v>348.45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>833741</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2001620</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5834668918176277</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>650</v>
+      </c>
+      <c r="C15" t="n">
+        <v>650</v>
+      </c>
+      <c r="D15" t="n">
+        <v>630.65</v>
+      </c>
+      <c r="E15" t="n">
+        <v>633.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>600007</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1247635</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5190845078889258</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>877.45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>890.15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>869.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>874.05</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1985637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3985430</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5017759689669622</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>149</v>
+      </c>
+      <c r="C17" t="n">
+        <v>151.29</v>
+      </c>
+      <c r="D17" t="n">
+        <v>148.18</v>
+      </c>
+      <c r="E17" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4862347</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10002574</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5138904246047068</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>570.15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>571.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>559.4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>564</v>
+      </c>
+      <c r="F18" t="n">
+        <v>542257</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1270829</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5733045122514516</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
         </is>
       </c>
     </row>
@@ -855,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,693 +1111,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15980</v>
+        <v>1937.9</v>
       </c>
       <c r="C2" t="n">
-        <v>16315</v>
+        <v>1965.9</v>
       </c>
       <c r="D2" t="n">
-        <v>15911</v>
+        <v>1936</v>
       </c>
       <c r="E2" t="n">
-        <v>16285</v>
+        <v>1955</v>
       </c>
       <c r="F2" t="n">
-        <v>423031</v>
+        <v>3672419</v>
       </c>
       <c r="G2" t="n">
-        <v>300499</v>
+        <v>2512581</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4077617562787231</v>
+        <v>0.4616121828510205</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>INDIGO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248</v>
+        <v>5758</v>
       </c>
       <c r="C3" t="n">
-        <v>251.25</v>
+        <v>5824</v>
       </c>
       <c r="D3" t="n">
-        <v>246.25</v>
+        <v>5712.5</v>
       </c>
       <c r="E3" t="n">
-        <v>248.98</v>
+        <v>5778</v>
       </c>
       <c r="F3" t="n">
-        <v>7070200</v>
+        <v>669754</v>
       </c>
       <c r="G3" t="n">
-        <v>4629760</v>
+        <v>426462</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5271201962952723</v>
+        <v>0.5704892815772565</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>INDIGO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409</v>
+        <v>1497</v>
       </c>
       <c r="C4" t="n">
-        <v>415.5</v>
+        <v>1504.7</v>
       </c>
       <c r="D4" t="n">
-        <v>408.35</v>
+        <v>1483.4</v>
       </c>
       <c r="E4" t="n">
-        <v>412.15</v>
+        <v>1492.4</v>
       </c>
       <c r="F4" t="n">
-        <v>13813014</v>
+        <v>5859355</v>
       </c>
       <c r="G4" t="n">
-        <v>9035150</v>
+        <v>3738353</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5288084868541197</v>
+        <v>0.567362686188276</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2810.6</v>
+        <v>153.71</v>
       </c>
       <c r="C5" t="n">
-        <v>2832.8</v>
+        <v>155.7</v>
       </c>
       <c r="D5" t="n">
-        <v>2788.3</v>
+        <v>152.12</v>
       </c>
       <c r="E5" t="n">
-        <v>2812</v>
+        <v>155.4</v>
       </c>
       <c r="F5" t="n">
-        <v>582587</v>
+        <v>11375913</v>
       </c>
       <c r="G5" t="n">
-        <v>404859</v>
+        <v>7992863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.438987400551797</v>
+        <v>0.4232588498013791</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>IOC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130.3</v>
+        <v>5160</v>
       </c>
       <c r="C6" t="n">
-        <v>1161.3</v>
+        <v>5175.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1120.6</v>
+        <v>5101</v>
       </c>
       <c r="E6" t="n">
-        <v>1153.6</v>
+        <v>5130</v>
       </c>
       <c r="F6" t="n">
-        <v>1061874</v>
+        <v>284296</v>
       </c>
       <c r="G6" t="n">
-        <v>682554</v>
+        <v>180079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5557362494396048</v>
+        <v>0.5787293354583266</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>ABB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1481.2</v>
+        <v>4810</v>
       </c>
       <c r="C7" t="n">
-        <v>1520</v>
+        <v>4819.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1480.2</v>
+        <v>4723</v>
       </c>
       <c r="E7" t="n">
-        <v>1499.9</v>
+        <v>4742</v>
       </c>
       <c r="F7" t="n">
-        <v>817076</v>
+        <v>1046492</v>
       </c>
       <c r="G7" t="n">
-        <v>561521</v>
+        <v>678453</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4551120973213825</v>
+        <v>0.5424679380885632</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.5</v>
+        <v>5551.5</v>
       </c>
       <c r="C8" t="n">
-        <v>128.6</v>
+        <v>5685</v>
       </c>
       <c r="D8" t="n">
-        <v>126.35</v>
+        <v>5549.5</v>
       </c>
       <c r="E8" t="n">
-        <v>127.36</v>
+        <v>5660.5</v>
       </c>
       <c r="F8" t="n">
-        <v>23836453</v>
+        <v>643571</v>
       </c>
       <c r="G8" t="n">
-        <v>16981691</v>
+        <v>441813</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4036560316637489</v>
+        <v>0.4566592653452932</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>396</v>
+        <v>1581.9</v>
       </c>
       <c r="C9" t="n">
-        <v>396.8</v>
+        <v>1612.5</v>
       </c>
       <c r="D9" t="n">
-        <v>389.6</v>
+        <v>1581.7</v>
       </c>
       <c r="E9" t="n">
-        <v>390.5</v>
+        <v>1608</v>
       </c>
       <c r="F9" t="n">
-        <v>7725390</v>
+        <v>811956</v>
       </c>
       <c r="G9" t="n">
-        <v>5139999</v>
+        <v>528833</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5029944558354973</v>
+        <v>0.5353731707363194</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>MANKIND</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>749.6</v>
+        <v>2466.8</v>
       </c>
       <c r="C10" t="n">
-        <v>766.75</v>
+        <v>2480</v>
       </c>
       <c r="D10" t="n">
-        <v>747.75</v>
+        <v>2426</v>
       </c>
       <c r="E10" t="n">
-        <v>763.5</v>
+        <v>2436.1</v>
       </c>
       <c r="F10" t="n">
-        <v>5386722</v>
+        <v>209314</v>
       </c>
       <c r="G10" t="n">
-        <v>3506978</v>
+        <v>133554</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5360010812728223</v>
+        <v>0.5672611827425611</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>MANKIND</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3528</v>
+        <v>9.02</v>
       </c>
       <c r="C11" t="n">
-        <v>3606.5</v>
+        <v>9.19</v>
       </c>
       <c r="D11" t="n">
-        <v>3524</v>
+        <v>8.67</v>
       </c>
       <c r="E11" t="n">
-        <v>3563.9</v>
+        <v>8.69</v>
       </c>
       <c r="F11" t="n">
-        <v>335525</v>
+        <v>1110972263</v>
       </c>
       <c r="G11" t="n">
-        <v>211896</v>
+        <v>701750547</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5834418771472798</v>
+        <v>0.5831441354045713</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>CAMS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1935.9</v>
+        <v>3875</v>
       </c>
       <c r="C12" t="n">
-        <v>1978.2</v>
+        <v>3888</v>
       </c>
       <c r="D12" t="n">
-        <v>1925.1</v>
+        <v>3825</v>
       </c>
       <c r="E12" t="n">
-        <v>1938.4</v>
+        <v>3879.5</v>
       </c>
       <c r="F12" t="n">
-        <v>867422</v>
+        <v>520894</v>
       </c>
       <c r="G12" t="n">
-        <v>596524</v>
+        <v>339052</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4541275791083008</v>
+        <v>0.5363248115333341</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>CAMS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5480.5</v>
+        <v>526.55</v>
       </c>
       <c r="C13" t="n">
-        <v>5500</v>
+        <v>532.7</v>
       </c>
       <c r="D13" t="n">
-        <v>5412.5</v>
+        <v>523.25</v>
       </c>
       <c r="E13" t="n">
-        <v>5460</v>
+        <v>530.65</v>
       </c>
       <c r="F13" t="n">
-        <v>171470</v>
+        <v>954531</v>
       </c>
       <c r="G13" t="n">
-        <v>108874</v>
+        <v>614025</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5749398387126403</v>
+        <v>0.5545474532795895</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ALKEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1252</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1257.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1230.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1237</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4322055</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3067327</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4090623529868188</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1601</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1602.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1579.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1584</v>
-      </c>
-      <c r="F15" t="n">
-        <v>528833</v>
-      </c>
-      <c r="G15" t="n">
-        <v>342605</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.543564746574043</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3233</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3240</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3150.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3165</v>
-      </c>
-      <c r="F16" t="n">
-        <v>542445</v>
-      </c>
-      <c r="G16" t="n">
-        <v>366182</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4813535345811645</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>74.34999999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="D17" t="n">
-        <v>74.34999999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>76.01000000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>23042103</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14941670</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5421370569688663</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2264.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2319.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2253</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2303.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1026736</v>
-      </c>
-      <c r="G18" t="n">
-        <v>723562</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4190021034824936</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7143.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7314.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7117.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7243</v>
-      </c>
-      <c r="F19" t="n">
-        <v>144871</v>
-      </c>
-      <c r="G19" t="n">
-        <v>90905</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5936527143721467</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>873</v>
-      </c>
-      <c r="C20" t="n">
-        <v>891.15</v>
-      </c>
-      <c r="D20" t="n">
-        <v>843</v>
-      </c>
-      <c r="E20" t="n">
-        <v>877.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3985430</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2609957</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5270098319627489</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>84.55</v>
-      </c>
-      <c r="C21" t="n">
-        <v>85.18000000000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>83</v>
-      </c>
-      <c r="E21" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3558376</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2239381</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.5889998173602438</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>877</v>
-      </c>
-      <c r="C22" t="n">
-        <v>878</v>
-      </c>
-      <c r="D22" t="n">
-        <v>851</v>
-      </c>
-      <c r="E22" t="n">
-        <v>855</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1230300</v>
-      </c>
-      <c r="G22" t="n">
-        <v>822722</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4954018489842255</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,561 +484,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1559</v>
+        <v>2775</v>
       </c>
       <c r="C2" t="n">
-        <v>1566.9</v>
+        <v>2791.3</v>
       </c>
       <c r="D2" t="n">
-        <v>1550.1</v>
+        <v>2732.6</v>
       </c>
       <c r="E2" t="n">
-        <v>1562.9</v>
+        <v>2747</v>
       </c>
       <c r="F2" t="n">
-        <v>671620</v>
+        <v>145319</v>
       </c>
       <c r="G2" t="n">
-        <v>1495524</v>
+        <v>290341</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5509132584966875</v>
+        <v>-0.4994885324497746</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2791.1</v>
+        <v>1928.1</v>
       </c>
       <c r="C3" t="n">
-        <v>2812</v>
+        <v>1928.1</v>
       </c>
       <c r="D3" t="n">
-        <v>2778.5</v>
+        <v>1870.6</v>
       </c>
       <c r="E3" t="n">
-        <v>2796</v>
+        <v>1886.3</v>
       </c>
       <c r="F3" t="n">
-        <v>280622</v>
+        <v>435764</v>
       </c>
       <c r="G3" t="n">
-        <v>582587</v>
+        <v>872789</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5183174358507828</v>
+        <v>-0.5007223968221415</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12225</v>
+        <v>5698</v>
       </c>
       <c r="C4" t="n">
-        <v>12249</v>
+        <v>5712.5</v>
       </c>
       <c r="D4" t="n">
-        <v>12150</v>
+        <v>5588</v>
       </c>
       <c r="E4" t="n">
-        <v>12178</v>
+        <v>5597.5</v>
       </c>
       <c r="F4" t="n">
-        <v>87745</v>
+        <v>310346</v>
       </c>
       <c r="G4" t="n">
-        <v>198464</v>
+        <v>643571</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5578795146726863</v>
+        <v>-0.5177750395838221</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990</v>
+        <v>268</v>
       </c>
       <c r="C5" t="n">
-        <v>998</v>
+        <v>268.6</v>
       </c>
       <c r="D5" t="n">
-        <v>985.3</v>
+        <v>261.4</v>
       </c>
       <c r="E5" t="n">
-        <v>994.45</v>
+        <v>262.89</v>
       </c>
       <c r="F5" t="n">
-        <v>727760</v>
+        <v>4871445</v>
       </c>
       <c r="G5" t="n">
-        <v>1559044</v>
+        <v>10792642</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5332011155554301</v>
+        <v>-0.5486327629509067</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3515</v>
+        <v>2100.1</v>
       </c>
       <c r="C6" t="n">
-        <v>3553</v>
+        <v>2105</v>
       </c>
       <c r="D6" t="n">
-        <v>3510.1</v>
+        <v>2052</v>
       </c>
       <c r="E6" t="n">
-        <v>3521</v>
+        <v>2064.2</v>
       </c>
       <c r="F6" t="n">
-        <v>90713</v>
+        <v>311350</v>
       </c>
       <c r="G6" t="n">
-        <v>179322</v>
+        <v>702685</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4941334582482908</v>
+        <v>-0.5569138376370636</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5458.5</v>
+        <v>6874</v>
       </c>
       <c r="C7" t="n">
-        <v>5510</v>
+        <v>7043</v>
       </c>
       <c r="D7" t="n">
-        <v>5436.5</v>
+        <v>6852</v>
       </c>
       <c r="E7" t="n">
-        <v>5510</v>
+        <v>6892</v>
       </c>
       <c r="F7" t="n">
-        <v>78208</v>
+        <v>556166</v>
       </c>
       <c r="G7" t="n">
-        <v>171470</v>
+        <v>1194945</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5438968915845337</v>
+        <v>-0.5345676997686086</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ALKEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HEROMOTOCO</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5500</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5581</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5484.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5553.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>417645</v>
-      </c>
-      <c r="G8" t="n">
-        <v>835407</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.5000700257479288</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>HEROMOTOCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SUPREMEIND</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4150.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4273.3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4150.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4268</v>
-      </c>
-      <c r="F9" t="n">
-        <v>51444</v>
-      </c>
-      <c r="G9" t="n">
-        <v>115703</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5553788579379965</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SUPREMEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="E10" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>251979906</v>
-      </c>
-      <c r="G10" t="n">
-        <v>551294320</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.542930342543707</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>YESBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NMDC</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>77</v>
-      </c>
-      <c r="C11" t="n">
-        <v>77.34999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>76.34999999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10600238</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24502958</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5673894555914433</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>NMDC</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ICICIPRULI</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>597</v>
-      </c>
-      <c r="C12" t="n">
-        <v>601</v>
-      </c>
-      <c r="D12" t="n">
-        <v>592.75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>596</v>
-      </c>
-      <c r="F12" t="n">
-        <v>383497</v>
-      </c>
-      <c r="G12" t="n">
-        <v>844847</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.546075206516683</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>ICICIPRULI</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3948</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3970</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3917</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3950</v>
-      </c>
-      <c r="F13" t="n">
-        <v>217474</v>
-      </c>
-      <c r="G13" t="n">
-        <v>532967</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5919559747601634</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>353.45</v>
-      </c>
-      <c r="C14" t="n">
-        <v>353.45</v>
-      </c>
-      <c r="D14" t="n">
-        <v>346.95</v>
-      </c>
-      <c r="E14" t="n">
-        <v>348.45</v>
-      </c>
-      <c r="F14" t="n">
-        <v>833741</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2001620</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5834668918176277</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>650</v>
-      </c>
-      <c r="C15" t="n">
-        <v>650</v>
-      </c>
-      <c r="D15" t="n">
-        <v>630.65</v>
-      </c>
-      <c r="E15" t="n">
-        <v>633.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>600007</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1247635</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5190845078889258</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>877.45</v>
-      </c>
-      <c r="C16" t="n">
-        <v>890.15</v>
-      </c>
-      <c r="D16" t="n">
-        <v>869.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>874.05</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1985637</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3985430</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5017759689669622</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>INOXWIND</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>149</v>
-      </c>
-      <c r="C17" t="n">
-        <v>151.29</v>
-      </c>
-      <c r="D17" t="n">
-        <v>148.18</v>
-      </c>
-      <c r="E17" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4862347</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10002574</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5138904246047068</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>INOXWIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>570.15</v>
-      </c>
-      <c r="C18" t="n">
-        <v>571.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>559.4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>564</v>
-      </c>
-      <c r="F18" t="n">
-        <v>542257</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1270829</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5733045122514516</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
+          <t>KAYNES</t>
         </is>
       </c>
     </row>
@@ -1053,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,396 +748,726 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.9</v>
+        <v>3533</v>
       </c>
       <c r="C2" t="n">
-        <v>1965.9</v>
+        <v>3549.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1936</v>
+        <v>3506.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1955</v>
+        <v>3528</v>
       </c>
       <c r="F2" t="n">
-        <v>3672419</v>
+        <v>925998</v>
       </c>
       <c r="G2" t="n">
-        <v>2512581</v>
+        <v>606122</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4616121828510205</v>
+        <v>0.5277419397415042</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5758</v>
+        <v>12172</v>
       </c>
       <c r="C3" t="n">
-        <v>5824</v>
+        <v>12251</v>
       </c>
       <c r="D3" t="n">
-        <v>5712.5</v>
+        <v>12026</v>
       </c>
       <c r="E3" t="n">
-        <v>5778</v>
+        <v>12074</v>
       </c>
       <c r="F3" t="n">
-        <v>669754</v>
+        <v>129196</v>
       </c>
       <c r="G3" t="n">
-        <v>426462</v>
+        <v>87745</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5704892815772565</v>
+        <v>0.4724029859251239</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1497</v>
+        <v>1667.6</v>
       </c>
       <c r="C4" t="n">
-        <v>1504.7</v>
+        <v>1669.9</v>
       </c>
       <c r="D4" t="n">
-        <v>1483.4</v>
+        <v>1646.2</v>
       </c>
       <c r="E4" t="n">
-        <v>1492.4</v>
+        <v>1652.1</v>
       </c>
       <c r="F4" t="n">
-        <v>5859355</v>
+        <v>2108287</v>
       </c>
       <c r="G4" t="n">
-        <v>3738353</v>
+        <v>1375179</v>
       </c>
       <c r="H4" t="n">
-        <v>0.567362686188276</v>
+        <v>0.5331000546110725</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.71</v>
+        <v>1563</v>
       </c>
       <c r="C5" t="n">
-        <v>155.7</v>
+        <v>1566.1</v>
       </c>
       <c r="D5" t="n">
-        <v>152.12</v>
+        <v>1537.1</v>
       </c>
       <c r="E5" t="n">
-        <v>155.4</v>
+        <v>1548.3</v>
       </c>
       <c r="F5" t="n">
-        <v>11375913</v>
+        <v>1056222</v>
       </c>
       <c r="G5" t="n">
-        <v>7992863</v>
+        <v>671620</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4232588498013791</v>
+        <v>0.5726482236979245</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5160</v>
+        <v>400</v>
       </c>
       <c r="C6" t="n">
-        <v>5175.5</v>
+        <v>421.55</v>
       </c>
       <c r="D6" t="n">
-        <v>5101</v>
+        <v>376.3</v>
       </c>
       <c r="E6" t="n">
-        <v>5130</v>
+        <v>395</v>
       </c>
       <c r="F6" t="n">
-        <v>284296</v>
+        <v>52267874</v>
       </c>
       <c r="G6" t="n">
-        <v>180079</v>
+        <v>33288645</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5787293354583266</v>
+        <v>0.5701412298397847</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4810</v>
+        <v>4690</v>
       </c>
       <c r="C7" t="n">
-        <v>4819.9</v>
+        <v>4700</v>
       </c>
       <c r="D7" t="n">
-        <v>4723</v>
+        <v>4598.6</v>
       </c>
       <c r="E7" t="n">
-        <v>4742</v>
+        <v>4604</v>
       </c>
       <c r="F7" t="n">
-        <v>1046492</v>
+        <v>913650</v>
       </c>
       <c r="G7" t="n">
-        <v>678453</v>
+        <v>602116</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5424679380885632</v>
+        <v>0.5173986407934684</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5551.5</v>
+        <v>1838</v>
       </c>
       <c r="C8" t="n">
-        <v>5685</v>
+        <v>1865</v>
       </c>
       <c r="D8" t="n">
-        <v>5549.5</v>
+        <v>1831.4</v>
       </c>
       <c r="E8" t="n">
-        <v>5660.5</v>
+        <v>1865</v>
       </c>
       <c r="F8" t="n">
-        <v>643571</v>
+        <v>569296</v>
       </c>
       <c r="G8" t="n">
-        <v>441813</v>
+        <v>394441</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4566592653452932</v>
+        <v>0.4432982372522126</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1581.9</v>
+        <v>104</v>
       </c>
       <c r="C9" t="n">
-        <v>1612.5</v>
+        <v>105.34</v>
       </c>
       <c r="D9" t="n">
-        <v>1581.7</v>
+        <v>102.8</v>
       </c>
       <c r="E9" t="n">
-        <v>1608</v>
+        <v>104.9</v>
       </c>
       <c r="F9" t="n">
-        <v>811956</v>
+        <v>24973101</v>
       </c>
       <c r="G9" t="n">
-        <v>528833</v>
+        <v>16216577</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5353731707363194</v>
+        <v>0.5399736331532851</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2466.8</v>
+        <v>743.1</v>
       </c>
       <c r="C10" t="n">
-        <v>2480</v>
+        <v>746.45</v>
       </c>
       <c r="D10" t="n">
-        <v>2426</v>
+        <v>736.4</v>
       </c>
       <c r="E10" t="n">
-        <v>2436.1</v>
+        <v>741.5</v>
       </c>
       <c r="F10" t="n">
-        <v>209314</v>
+        <v>1964076</v>
       </c>
       <c r="G10" t="n">
-        <v>133554</v>
+        <v>1376145</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5672611827425611</v>
+        <v>0.42723041539954</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.02</v>
+        <v>1345.5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.19</v>
+        <v>1345.5</v>
       </c>
       <c r="D11" t="n">
-        <v>8.67</v>
+        <v>1320</v>
       </c>
       <c r="E11" t="n">
-        <v>8.69</v>
+        <v>1321</v>
       </c>
       <c r="F11" t="n">
-        <v>1110972263</v>
+        <v>825533</v>
       </c>
       <c r="G11" t="n">
-        <v>701750547</v>
+        <v>529298</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5831441354045713</v>
+        <v>0.5596752679964784</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3875</v>
+        <v>1114.6</v>
       </c>
       <c r="C12" t="n">
-        <v>3888</v>
+        <v>1116.1</v>
       </c>
       <c r="D12" t="n">
-        <v>3825</v>
+        <v>1097.3</v>
       </c>
       <c r="E12" t="n">
-        <v>3879.5</v>
+        <v>1099</v>
       </c>
       <c r="F12" t="n">
-        <v>520894</v>
+        <v>1831340</v>
       </c>
       <c r="G12" t="n">
-        <v>339052</v>
+        <v>1256718</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5363248115333341</v>
+        <v>0.457240208224916</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>526.55</v>
+        <v>775.05</v>
       </c>
       <c r="C13" t="n">
-        <v>532.7</v>
+        <v>786.5</v>
       </c>
       <c r="D13" t="n">
-        <v>523.25</v>
+        <v>772.55</v>
       </c>
       <c r="E13" t="n">
-        <v>530.65</v>
+        <v>775</v>
       </c>
       <c r="F13" t="n">
-        <v>954531</v>
+        <v>369540</v>
       </c>
       <c r="G13" t="n">
-        <v>614025</v>
+        <v>252859</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5545474532795895</v>
+        <v>0.4614468933279021</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>JSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3061.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3066</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3026.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3045</v>
+      </c>
+      <c r="F14" t="n">
+        <v>328210</v>
+      </c>
+      <c r="G14" t="n">
+        <v>207693</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5802651028200276</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1159.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1142</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1153</v>
+      </c>
+      <c r="F15" t="n">
+        <v>599444</v>
+      </c>
+      <c r="G15" t="n">
+        <v>415973</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4410646844867335</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3106</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3116.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3087</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3098</v>
+      </c>
+      <c r="F16" t="n">
+        <v>164025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>109844</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4932540694075234</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>673.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>681.45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>666</v>
+      </c>
+      <c r="E17" t="n">
+        <v>669.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1458278</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1031190</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4141700365597029</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>73.73</v>
+      </c>
+      <c r="C18" t="n">
+        <v>74.31999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>72.58</v>
+      </c>
+      <c r="E18" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29228270</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19126198</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5281798295719828</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BDL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1531</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1480.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1487</v>
+      </c>
+      <c r="F19" t="n">
+        <v>884619</v>
+      </c>
+      <c r="G19" t="n">
+        <v>611610</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4463775935645264</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>BDL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1976.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1932</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1935.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>751565</v>
+      </c>
+      <c r="G20" t="n">
+        <v>530857</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.415757915973605</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HUDCO</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>230.44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>231</v>
+      </c>
+      <c r="D21" t="n">
+        <v>224.26</v>
+      </c>
+      <c r="E21" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2369411</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1674737</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4147958754120796</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>HUDCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CESC</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>171.68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>166.91</v>
+      </c>
+      <c r="E22" t="n">
+        <v>167.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1849983</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1299769</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4233167585932577</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>208.32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>208.99</v>
+      </c>
+      <c r="D23" t="n">
+        <v>203</v>
+      </c>
+      <c r="E23" t="n">
+        <v>203.91</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1530999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>997864</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5342762139930892</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>NCC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2775</v>
+        <v>509</v>
       </c>
       <c r="C2" t="n">
-        <v>2791.3</v>
+        <v>516.1</v>
       </c>
       <c r="D2" t="n">
-        <v>2732.6</v>
+        <v>506.35</v>
       </c>
       <c r="E2" t="n">
-        <v>2747</v>
+        <v>513</v>
       </c>
       <c r="F2" t="n">
-        <v>145319</v>
+        <v>6882125</v>
       </c>
       <c r="G2" t="n">
-        <v>290341</v>
+        <v>15420228</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4994885324497746</v>
+        <v>-0.5536949907614855</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>HINDZINC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1928.1</v>
+        <v>1106</v>
       </c>
       <c r="C3" t="n">
-        <v>1928.1</v>
+        <v>1118</v>
       </c>
       <c r="D3" t="n">
-        <v>1870.6</v>
+        <v>1100.7</v>
       </c>
       <c r="E3" t="n">
-        <v>1886.3</v>
+        <v>1111</v>
       </c>
       <c r="F3" t="n">
-        <v>435764</v>
+        <v>809694</v>
       </c>
       <c r="G3" t="n">
-        <v>872789</v>
+        <v>1831340</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5007223968221415</v>
+        <v>-0.5578680092172944</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>INDUSTOWER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5698</v>
+        <v>339.9</v>
       </c>
       <c r="C4" t="n">
-        <v>5712.5</v>
+        <v>346.05</v>
       </c>
       <c r="D4" t="n">
-        <v>5588</v>
+        <v>339.4</v>
       </c>
       <c r="E4" t="n">
-        <v>5597.5</v>
+        <v>345.15</v>
       </c>
       <c r="F4" t="n">
-        <v>310346</v>
+        <v>3966733</v>
       </c>
       <c r="G4" t="n">
-        <v>643571</v>
+        <v>9282025</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5177750395838221</v>
+        <v>-0.5726435772366483</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>INDUSTOWER</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>PETRONET</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C5" t="n">
-        <v>268.6</v>
+        <v>281.35</v>
       </c>
       <c r="D5" t="n">
-        <v>261.4</v>
+        <v>276</v>
       </c>
       <c r="E5" t="n">
-        <v>262.89</v>
+        <v>280</v>
       </c>
       <c r="F5" t="n">
-        <v>4871445</v>
+        <v>1678829</v>
       </c>
       <c r="G5" t="n">
-        <v>10792642</v>
+        <v>3379266</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5486327629509067</v>
+        <v>-0.5031971439951752</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>PETRONET</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2100.1</v>
+        <v>16610</v>
       </c>
       <c r="C6" t="n">
-        <v>2105</v>
+        <v>16875</v>
       </c>
       <c r="D6" t="n">
-        <v>2052</v>
+        <v>16604</v>
       </c>
       <c r="E6" t="n">
-        <v>2064.2</v>
+        <v>16770</v>
       </c>
       <c r="F6" t="n">
-        <v>311350</v>
+        <v>214714</v>
       </c>
       <c r="G6" t="n">
-        <v>702685</v>
+        <v>455160</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5569138376370636</v>
+        <v>-0.5282669830389314</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>DIXON</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3572.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3572.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3542.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3555</v>
+      </c>
+      <c r="F7" t="n">
+        <v>93641</v>
+      </c>
+      <c r="G7" t="n">
+        <v>195195</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.520269474115628</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2406.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2460.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2445</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1343403</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3116178</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5688940105475361</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9617</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9425</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9533</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1015096</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2000223</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.4925085852927399</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>KAYNES</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>6874</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7043</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6852</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6892</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B10" t="n">
+        <v>6945</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7012</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6889</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6965</v>
+      </c>
+      <c r="F10" t="n">
+        <v>258385</v>
+      </c>
+      <c r="G10" t="n">
         <v>556166</v>
       </c>
-      <c r="G7" t="n">
-        <v>1194945</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.5345676997686086</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H10" t="n">
+        <v>-0.5354174832693837</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>KAYNES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>163.42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5380906</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10676188</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.495989954466894</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>
@@ -690,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,726 +880,594 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3533</v>
+        <v>4617.2</v>
       </c>
       <c r="C2" t="n">
-        <v>3549.4</v>
+        <v>4752.1</v>
       </c>
       <c r="D2" t="n">
-        <v>3506.5</v>
+        <v>4610.1</v>
       </c>
       <c r="E2" t="n">
-        <v>3528</v>
+        <v>4739</v>
       </c>
       <c r="F2" t="n">
-        <v>925998</v>
+        <v>1298534</v>
       </c>
       <c r="G2" t="n">
-        <v>606122</v>
+        <v>913650</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5277419397415042</v>
+        <v>0.4212597821923056</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12172</v>
+        <v>2780</v>
       </c>
       <c r="C3" t="n">
-        <v>12251</v>
+        <v>2824.9</v>
       </c>
       <c r="D3" t="n">
-        <v>12026</v>
+        <v>2774.2</v>
       </c>
       <c r="E3" t="n">
-        <v>12074</v>
+        <v>2815</v>
       </c>
       <c r="F3" t="n">
-        <v>129196</v>
+        <v>459912</v>
       </c>
       <c r="G3" t="n">
-        <v>87745</v>
+        <v>316183</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4724029859251239</v>
+        <v>0.4545753566763551</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1667.6</v>
+        <v>381.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1669.9</v>
+        <v>385.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1646.2</v>
+        <v>381.25</v>
       </c>
       <c r="E4" t="n">
-        <v>1652.1</v>
+        <v>384.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2108287</v>
+        <v>6135157</v>
       </c>
       <c r="G4" t="n">
-        <v>1375179</v>
+        <v>4288494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5331000546110725</v>
+        <v>0.4306087405042423</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>COALINDIA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1563</v>
+        <v>398</v>
       </c>
       <c r="C5" t="n">
-        <v>1566.1</v>
+        <v>400.85</v>
       </c>
       <c r="D5" t="n">
-        <v>1537.1</v>
+        <v>397.25</v>
       </c>
       <c r="E5" t="n">
-        <v>1548.3</v>
+        <v>400.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1056222</v>
+        <v>16043867</v>
       </c>
       <c r="G5" t="n">
-        <v>671620</v>
+        <v>10291102</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5726482236979245</v>
+        <v>0.5590037879325266</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400</v>
+        <v>1550</v>
       </c>
       <c r="C6" t="n">
-        <v>421.55</v>
+        <v>1564.8</v>
       </c>
       <c r="D6" t="n">
-        <v>376.3</v>
+        <v>1546</v>
       </c>
       <c r="E6" t="n">
-        <v>395</v>
+        <v>1556.1</v>
       </c>
       <c r="F6" t="n">
-        <v>52267874</v>
+        <v>1638237</v>
       </c>
       <c r="G6" t="n">
-        <v>33288645</v>
+        <v>1056222</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5701412298397847</v>
+        <v>0.5510347256542658</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4690</v>
+        <v>2155</v>
       </c>
       <c r="C7" t="n">
-        <v>4700</v>
+        <v>2165.9</v>
       </c>
       <c r="D7" t="n">
-        <v>4598.6</v>
+        <v>2141.2</v>
       </c>
       <c r="E7" t="n">
-        <v>4604</v>
+        <v>2148.2</v>
       </c>
       <c r="F7" t="n">
-        <v>913650</v>
+        <v>2308107</v>
       </c>
       <c r="G7" t="n">
-        <v>602116</v>
+        <v>1604563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5173986407934684</v>
+        <v>0.4384645539003454</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838</v>
+        <v>2800</v>
       </c>
       <c r="C8" t="n">
-        <v>1865</v>
+        <v>2870</v>
       </c>
       <c r="D8" t="n">
-        <v>1831.4</v>
+        <v>2786.8</v>
       </c>
       <c r="E8" t="n">
-        <v>1865</v>
+        <v>2850.5</v>
       </c>
       <c r="F8" t="n">
-        <v>569296</v>
+        <v>789866</v>
       </c>
       <c r="G8" t="n">
-        <v>394441</v>
+        <v>533596</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4432982372522126</v>
+        <v>0.4802697171642966</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>MAZDOCK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>DMART</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104</v>
+        <v>4230</v>
       </c>
       <c r="C9" t="n">
-        <v>105.34</v>
+        <v>4275</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8</v>
+        <v>4215</v>
       </c>
       <c r="E9" t="n">
-        <v>104.9</v>
+        <v>4264.5</v>
       </c>
       <c r="F9" t="n">
-        <v>24973101</v>
+        <v>415827</v>
       </c>
       <c r="G9" t="n">
-        <v>16216577</v>
+        <v>276492</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5399736331532851</v>
+        <v>0.5039386311358014</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>DMART</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>743.1</v>
+        <v>563.35</v>
       </c>
       <c r="C10" t="n">
-        <v>746.45</v>
+        <v>569</v>
       </c>
       <c r="D10" t="n">
-        <v>736.4</v>
+        <v>563.35</v>
       </c>
       <c r="E10" t="n">
-        <v>741.5</v>
+        <v>567.75</v>
       </c>
       <c r="F10" t="n">
-        <v>1964076</v>
+        <v>1377329</v>
       </c>
       <c r="G10" t="n">
-        <v>1376145</v>
+        <v>975792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.42723041539954</v>
+        <v>0.4114985570695394</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1345.5</v>
+        <v>441.6</v>
       </c>
       <c r="C11" t="n">
-        <v>1345.5</v>
+        <v>446.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1320</v>
+        <v>440.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1321</v>
+        <v>444.4</v>
       </c>
       <c r="F11" t="n">
-        <v>825533</v>
+        <v>2061374</v>
       </c>
       <c r="G11" t="n">
-        <v>529298</v>
+        <v>1462957</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5596752679964784</v>
+        <v>0.4090461988971651</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>VBL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114.6</v>
+        <v>6580</v>
       </c>
       <c r="C12" t="n">
-        <v>1116.1</v>
+        <v>6608.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1097.3</v>
+        <v>6527</v>
       </c>
       <c r="E12" t="n">
-        <v>1099</v>
+        <v>6556</v>
       </c>
       <c r="F12" t="n">
-        <v>1831340</v>
+        <v>462127</v>
       </c>
       <c r="G12" t="n">
-        <v>1256718</v>
+        <v>321275</v>
       </c>
       <c r="H12" t="n">
-        <v>0.457240208224916</v>
+        <v>0.4384156874951365</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>775.05</v>
+        <v>1131</v>
       </c>
       <c r="C13" t="n">
-        <v>786.5</v>
+        <v>1172</v>
       </c>
       <c r="D13" t="n">
-        <v>772.55</v>
+        <v>1117.3</v>
       </c>
       <c r="E13" t="n">
-        <v>775</v>
+        <v>1161</v>
       </c>
       <c r="F13" t="n">
-        <v>369540</v>
+        <v>2005553</v>
       </c>
       <c r="G13" t="n">
-        <v>252859</v>
+        <v>1375997</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4614468933279021</v>
+        <v>0.4575271603063088</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3061.6</v>
+        <v>1626.2</v>
       </c>
       <c r="C14" t="n">
-        <v>3066</v>
+        <v>1681</v>
       </c>
       <c r="D14" t="n">
-        <v>3026.1</v>
+        <v>1616.1</v>
       </c>
       <c r="E14" t="n">
-        <v>3045</v>
+        <v>1675</v>
       </c>
       <c r="F14" t="n">
-        <v>328210</v>
+        <v>1339239</v>
       </c>
       <c r="G14" t="n">
-        <v>207693</v>
+        <v>877286</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5802651028200276</v>
+        <v>0.5265705824554364</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1159.8</v>
+        <v>1418.6</v>
       </c>
       <c r="C15" t="n">
-        <v>1190</v>
+        <v>1449</v>
       </c>
       <c r="D15" t="n">
-        <v>1142</v>
+        <v>1415</v>
       </c>
       <c r="E15" t="n">
-        <v>1153</v>
+        <v>1437.9</v>
       </c>
       <c r="F15" t="n">
-        <v>599444</v>
+        <v>558872</v>
       </c>
       <c r="G15" t="n">
-        <v>415973</v>
+        <v>388990</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4410646844867335</v>
+        <v>0.4367258798426695</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3106</v>
+        <v>223.8</v>
       </c>
       <c r="C16" t="n">
-        <v>3116.2</v>
+        <v>228</v>
       </c>
       <c r="D16" t="n">
-        <v>3087</v>
+        <v>223.8</v>
       </c>
       <c r="E16" t="n">
-        <v>3098</v>
+        <v>226.03</v>
       </c>
       <c r="F16" t="n">
-        <v>164025</v>
+        <v>12613195</v>
       </c>
       <c r="G16" t="n">
-        <v>109844</v>
+        <v>8629781</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4932540694075234</v>
+        <v>0.4615892338403489</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>673.8</v>
+        <v>583</v>
       </c>
       <c r="C17" t="n">
-        <v>681.45</v>
+        <v>589.35</v>
       </c>
       <c r="D17" t="n">
-        <v>666</v>
+        <v>580.1</v>
       </c>
       <c r="E17" t="n">
-        <v>669.6</v>
+        <v>584.6</v>
       </c>
       <c r="F17" t="n">
-        <v>1458278</v>
+        <v>556159</v>
       </c>
       <c r="G17" t="n">
-        <v>1031190</v>
+        <v>383700</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4141700365597029</v>
+        <v>0.4494631222309096</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.73</v>
+        <v>1892</v>
       </c>
       <c r="C18" t="n">
-        <v>74.31999999999999</v>
+        <v>1913.5</v>
       </c>
       <c r="D18" t="n">
-        <v>72.58</v>
+        <v>1876.2</v>
       </c>
       <c r="E18" t="n">
-        <v>72.90000000000001</v>
+        <v>1889</v>
       </c>
       <c r="F18" t="n">
-        <v>29228270</v>
+        <v>658841</v>
       </c>
       <c r="G18" t="n">
-        <v>19126198</v>
+        <v>435764</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5281798295719828</v>
+        <v>0.5119215905857298</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1515</v>
+        <v>80.67</v>
       </c>
       <c r="C19" t="n">
-        <v>1531</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>1480.7</v>
+        <v>80.22</v>
       </c>
       <c r="E19" t="n">
-        <v>1487</v>
+        <v>83.27</v>
       </c>
       <c r="F19" t="n">
-        <v>884619</v>
+        <v>4595235</v>
       </c>
       <c r="G19" t="n">
-        <v>611610</v>
+        <v>2901302</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4463775935645264</v>
+        <v>0.5838526978577204</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BDL</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1976.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1932</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1935.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>751565</v>
-      </c>
-      <c r="G20" t="n">
-        <v>530857</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.415757915973605</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HUDCO</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>230.44</v>
-      </c>
-      <c r="C21" t="n">
-        <v>231</v>
-      </c>
-      <c r="D21" t="n">
-        <v>224.26</v>
-      </c>
-      <c r="E21" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2369411</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1674737</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.4147958754120796</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>HUDCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CESC</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>170.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>171.68</v>
-      </c>
-      <c r="D22" t="n">
-        <v>166.91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>167.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1849983</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1299769</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4233167585932577</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>CESC</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>208.32</v>
-      </c>
-      <c r="C23" t="n">
-        <v>208.99</v>
-      </c>
-      <c r="D23" t="n">
-        <v>203</v>
-      </c>
-      <c r="E23" t="n">
-        <v>203.91</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1530999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>997864</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5342762139930892</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>NCC</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,25 +488,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509</v>
+        <v>516.5</v>
       </c>
       <c r="C2" t="n">
-        <v>516.1</v>
+        <v>516.75</v>
       </c>
       <c r="D2" t="n">
-        <v>506.35</v>
+        <v>506.05</v>
       </c>
       <c r="E2" t="n">
-        <v>513</v>
+        <v>506.25</v>
       </c>
       <c r="F2" t="n">
+        <v>3256458</v>
+      </c>
+      <c r="G2" t="n">
         <v>6882125</v>
       </c>
-      <c r="G2" t="n">
-        <v>15420228</v>
-      </c>
       <c r="H2" t="n">
-        <v>-0.5536949907614855</v>
+        <v>-0.5268237644622845</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -517,297 +517,330 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1106</v>
+        <v>710</v>
       </c>
       <c r="C3" t="n">
-        <v>1118</v>
+        <v>726.95</v>
       </c>
       <c r="D3" t="n">
-        <v>1100.7</v>
+        <v>708.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1111</v>
+        <v>726.75</v>
       </c>
       <c r="F3" t="n">
-        <v>809694</v>
+        <v>1205842</v>
       </c>
       <c r="G3" t="n">
-        <v>1831340</v>
+        <v>2960078</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5578680092172944</v>
+        <v>-0.5926316806516585</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>MARICO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.9</v>
+        <v>1677.2</v>
       </c>
       <c r="C4" t="n">
-        <v>346.05</v>
+        <v>1714.9</v>
       </c>
       <c r="D4" t="n">
-        <v>339.4</v>
+        <v>1677.2</v>
       </c>
       <c r="E4" t="n">
-        <v>345.15</v>
+        <v>1690</v>
       </c>
       <c r="F4" t="n">
-        <v>3966733</v>
+        <v>1021953</v>
       </c>
       <c r="G4" t="n">
-        <v>9282025</v>
+        <v>2176330</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5726435772366483</v>
+        <v>-0.5304236949359702</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>277</v>
+        <v>1174</v>
       </c>
       <c r="C5" t="n">
-        <v>281.35</v>
+        <v>1179.8</v>
       </c>
       <c r="D5" t="n">
-        <v>276</v>
+        <v>1158</v>
       </c>
       <c r="E5" t="n">
-        <v>280</v>
+        <v>1169.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1678829</v>
+        <v>915145</v>
       </c>
       <c r="G5" t="n">
-        <v>3379266</v>
+        <v>2005553</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5031971439951752</v>
+        <v>-0.5436944324084181</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16610</v>
+        <v>3265</v>
       </c>
       <c r="C6" t="n">
-        <v>16875</v>
+        <v>3279.8</v>
       </c>
       <c r="D6" t="n">
-        <v>16604</v>
+        <v>3252.1</v>
       </c>
       <c r="E6" t="n">
-        <v>16770</v>
+        <v>3267.6</v>
       </c>
       <c r="F6" t="n">
-        <v>214714</v>
+        <v>234148</v>
       </c>
       <c r="G6" t="n">
-        <v>455160</v>
+        <v>529423</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5282669830389314</v>
+        <v>-0.5577298304002659</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3572.6</v>
+        <v>227</v>
       </c>
       <c r="C7" t="n">
-        <v>3572.6</v>
+        <v>227.75</v>
       </c>
       <c r="D7" t="n">
-        <v>3542.7</v>
+        <v>223.92</v>
       </c>
       <c r="E7" t="n">
-        <v>3555</v>
+        <v>226.7</v>
       </c>
       <c r="F7" t="n">
-        <v>93641</v>
+        <v>6327250</v>
       </c>
       <c r="G7" t="n">
-        <v>195195</v>
+        <v>12613195</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.520269474115628</v>
+        <v>-0.4983626273913945</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2406.9</v>
+        <v>801.25</v>
       </c>
       <c r="C8" t="n">
-        <v>2460.7</v>
+        <v>814</v>
       </c>
       <c r="D8" t="n">
-        <v>2381</v>
+        <v>795</v>
       </c>
       <c r="E8" t="n">
-        <v>2445</v>
+        <v>795</v>
       </c>
       <c r="F8" t="n">
-        <v>1343403</v>
+        <v>1864887</v>
       </c>
       <c r="G8" t="n">
-        <v>3116178</v>
+        <v>3804314</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5688940105475361</v>
+        <v>-0.5097967728215915</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9560</v>
+        <v>76.81</v>
       </c>
       <c r="C9" t="n">
-        <v>9617</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>9425</v>
+        <v>75.66</v>
       </c>
       <c r="E9" t="n">
-        <v>9533</v>
+        <v>75.81</v>
       </c>
       <c r="F9" t="n">
-        <v>1015096</v>
+        <v>7993203</v>
       </c>
       <c r="G9" t="n">
-        <v>2000223</v>
+        <v>16267362</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4925085852927399</v>
+        <v>-0.5086355734875759</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6945</v>
+        <v>83.45</v>
       </c>
       <c r="C10" t="n">
-        <v>7012</v>
+        <v>84.19</v>
       </c>
       <c r="D10" t="n">
-        <v>6889</v>
+        <v>82.81</v>
       </c>
       <c r="E10" t="n">
-        <v>6965</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>258385</v>
+        <v>2193997</v>
       </c>
       <c r="G10" t="n">
-        <v>556166</v>
+        <v>4595235</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5354174832693837</v>
+        <v>-0.5225495540489224</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>NUVAMA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.5</v>
+        <v>7220</v>
       </c>
       <c r="C11" t="n">
-        <v>164.5</v>
+        <v>7300</v>
       </c>
       <c r="D11" t="n">
-        <v>162.6</v>
+        <v>7200</v>
       </c>
       <c r="E11" t="n">
-        <v>163.42</v>
+        <v>7230</v>
       </c>
       <c r="F11" t="n">
-        <v>5380906</v>
+        <v>51527</v>
       </c>
       <c r="G11" t="n">
-        <v>10676188</v>
+        <v>102908</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.495989954466894</v>
+        <v>-0.4992906285225638</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>508.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>509.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>498</v>
+      </c>
+      <c r="E12" t="n">
+        <v>499.55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1142761</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2376538</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5191488627575069</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>IIFL</t>
         </is>
       </c>
     </row>
@@ -822,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,594 +913,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4617.2</v>
+        <v>3549</v>
       </c>
       <c r="C2" t="n">
-        <v>4752.1</v>
+        <v>3652</v>
       </c>
       <c r="D2" t="n">
-        <v>4610.1</v>
+        <v>3540</v>
       </c>
       <c r="E2" t="n">
-        <v>4739</v>
+        <v>3636</v>
       </c>
       <c r="F2" t="n">
-        <v>1298534</v>
+        <v>1528118</v>
       </c>
       <c r="G2" t="n">
-        <v>913650</v>
+        <v>1005045</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4212597821923056</v>
+        <v>0.5204473431537892</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2780</v>
+        <v>401</v>
       </c>
       <c r="C3" t="n">
-        <v>2824.9</v>
+        <v>406</v>
       </c>
       <c r="D3" t="n">
-        <v>2774.2</v>
+        <v>399.55</v>
       </c>
       <c r="E3" t="n">
-        <v>2815</v>
+        <v>405.45</v>
       </c>
       <c r="F3" t="n">
-        <v>459912</v>
+        <v>22962049</v>
       </c>
       <c r="G3" t="n">
-        <v>316183</v>
+        <v>16043867</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4545753566763551</v>
+        <v>0.4312041479775418</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.25</v>
+        <v>1177</v>
       </c>
       <c r="C4" t="n">
-        <v>385.4</v>
+        <v>1197</v>
       </c>
       <c r="D4" t="n">
-        <v>381.25</v>
+        <v>1175</v>
       </c>
       <c r="E4" t="n">
-        <v>384.8</v>
+        <v>1194</v>
       </c>
       <c r="F4" t="n">
-        <v>6135157</v>
+        <v>2296704</v>
       </c>
       <c r="G4" t="n">
-        <v>4288494</v>
+        <v>1575396</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4306087405042423</v>
+        <v>0.4578582146964953</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>398</v>
+        <v>1055</v>
       </c>
       <c r="C5" t="n">
-        <v>400.85</v>
+        <v>1067</v>
       </c>
       <c r="D5" t="n">
-        <v>397.25</v>
+        <v>1052.5</v>
       </c>
       <c r="E5" t="n">
-        <v>400.3</v>
+        <v>1059</v>
       </c>
       <c r="F5" t="n">
-        <v>16043867</v>
+        <v>1742078</v>
       </c>
       <c r="G5" t="n">
-        <v>10291102</v>
+        <v>1161123</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5590037879325266</v>
+        <v>0.500338896051495</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1550</v>
+        <v>977.3</v>
       </c>
       <c r="C6" t="n">
-        <v>1564.8</v>
+        <v>989</v>
       </c>
       <c r="D6" t="n">
-        <v>1546</v>
+        <v>974.75</v>
       </c>
       <c r="E6" t="n">
-        <v>1556.1</v>
+        <v>983.95</v>
       </c>
       <c r="F6" t="n">
-        <v>1638237</v>
+        <v>832737</v>
       </c>
       <c r="G6" t="n">
-        <v>1056222</v>
+        <v>563166</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5510347256542658</v>
+        <v>0.4786705873579016</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2155</v>
+        <v>545.75</v>
       </c>
       <c r="C7" t="n">
-        <v>2165.9</v>
+        <v>551.5</v>
       </c>
       <c r="D7" t="n">
-        <v>2141.2</v>
+        <v>545</v>
       </c>
       <c r="E7" t="n">
-        <v>2148.2</v>
+        <v>548.2</v>
       </c>
       <c r="F7" t="n">
-        <v>2308107</v>
+        <v>2481559</v>
       </c>
       <c r="G7" t="n">
-        <v>1604563</v>
+        <v>1730184</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4384645539003454</v>
+        <v>0.4342746205027905</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2800</v>
+        <v>3535</v>
       </c>
       <c r="C8" t="n">
-        <v>2870</v>
+        <v>3549.1</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.8</v>
+        <v>3520.9</v>
       </c>
       <c r="E8" t="n">
-        <v>2850.5</v>
+        <v>3531</v>
       </c>
       <c r="F8" t="n">
-        <v>789866</v>
+        <v>207979</v>
       </c>
       <c r="G8" t="n">
-        <v>533596</v>
+        <v>131171</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4802697171642966</v>
+        <v>0.5855562586242385</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MAZDOCK</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4230</v>
+        <v>14052</v>
       </c>
       <c r="C9" t="n">
-        <v>4275</v>
+        <v>14134</v>
       </c>
       <c r="D9" t="n">
-        <v>4215</v>
+        <v>13960</v>
       </c>
       <c r="E9" t="n">
-        <v>4264.5</v>
+        <v>14040</v>
       </c>
       <c r="F9" t="n">
-        <v>415827</v>
+        <v>81585</v>
       </c>
       <c r="G9" t="n">
-        <v>276492</v>
+        <v>56766</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5039386311358014</v>
+        <v>0.4372159391184864</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.35</v>
+        <v>116.65</v>
       </c>
       <c r="C10" t="n">
-        <v>569</v>
+        <v>117.84</v>
       </c>
       <c r="D10" t="n">
-        <v>563.35</v>
+        <v>115.97</v>
       </c>
       <c r="E10" t="n">
-        <v>567.75</v>
+        <v>116.13</v>
       </c>
       <c r="F10" t="n">
-        <v>1377329</v>
+        <v>15188935</v>
       </c>
       <c r="G10" t="n">
-        <v>975792</v>
+        <v>10598247</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4114985570695394</v>
+        <v>0.433155407682044</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>PNB</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>441.6</v>
+        <v>1698</v>
       </c>
       <c r="C11" t="n">
-        <v>446.5</v>
+        <v>1700.1</v>
       </c>
       <c r="D11" t="n">
-        <v>440.2</v>
+        <v>1653.2</v>
       </c>
       <c r="E11" t="n">
-        <v>444.4</v>
+        <v>1664.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2061374</v>
+        <v>3202080</v>
       </c>
       <c r="G11" t="n">
-        <v>1462957</v>
+        <v>2004535</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4090461988971651</v>
+        <v>0.5974178550137563</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6580</v>
+        <v>785</v>
       </c>
       <c r="C12" t="n">
-        <v>6608.5</v>
+        <v>812</v>
       </c>
       <c r="D12" t="n">
-        <v>6527</v>
+        <v>779.65</v>
       </c>
       <c r="E12" t="n">
-        <v>6556</v>
+        <v>808.2</v>
       </c>
       <c r="F12" t="n">
-        <v>462127</v>
+        <v>696824</v>
       </c>
       <c r="G12" t="n">
-        <v>321275</v>
+        <v>471408</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4384156874951365</v>
+        <v>0.478176017377728</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>JSL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131</v>
+        <v>584.7</v>
       </c>
       <c r="C13" t="n">
-        <v>1172</v>
+        <v>597</v>
       </c>
       <c r="D13" t="n">
-        <v>1117.3</v>
+        <v>584.55</v>
       </c>
       <c r="E13" t="n">
-        <v>1161</v>
+        <v>593.4</v>
       </c>
       <c r="F13" t="n">
-        <v>2005553</v>
+        <v>1285374</v>
       </c>
       <c r="G13" t="n">
-        <v>1375997</v>
+        <v>879705</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4575271603063088</v>
+        <v>0.4611420874043003</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.2</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>1681</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>1616.1</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>1675</v>
+        <v>90.63</v>
       </c>
       <c r="F14" t="n">
-        <v>1339239</v>
+        <v>6688742</v>
       </c>
       <c r="G14" t="n">
-        <v>877286</v>
+        <v>4646050</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5265705824554364</v>
+        <v>0.4396620785398349</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1418.6</v>
+        <v>265</v>
       </c>
       <c r="C15" t="n">
-        <v>1449</v>
+        <v>273.57</v>
       </c>
       <c r="D15" t="n">
-        <v>1415</v>
+        <v>264.92</v>
       </c>
       <c r="E15" t="n">
-        <v>1437.9</v>
+        <v>269.2</v>
       </c>
       <c r="F15" t="n">
-        <v>558872</v>
+        <v>11133785</v>
       </c>
       <c r="G15" t="n">
-        <v>388990</v>
+        <v>7835400</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4367258798426695</v>
+        <v>0.4209593639124997</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>NBCC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>223.8</v>
+        <v>112</v>
       </c>
       <c r="C16" t="n">
-        <v>228</v>
+        <v>114.63</v>
       </c>
       <c r="D16" t="n">
-        <v>223.8</v>
+        <v>111.68</v>
       </c>
       <c r="E16" t="n">
-        <v>226.03</v>
+        <v>112.25</v>
       </c>
       <c r="F16" t="n">
-        <v>12613195</v>
+        <v>9669421</v>
       </c>
       <c r="G16" t="n">
-        <v>8629781</v>
+        <v>6608121</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4615892338403489</v>
+        <v>0.4632633088891683</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>NBCC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>583</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
-        <v>589.35</v>
+        <v>136.39</v>
       </c>
       <c r="D17" t="n">
-        <v>580.1</v>
+        <v>133.5</v>
       </c>
       <c r="E17" t="n">
-        <v>584.6</v>
+        <v>134.97</v>
       </c>
       <c r="F17" t="n">
-        <v>556159</v>
+        <v>6846625</v>
       </c>
       <c r="G17" t="n">
-        <v>383700</v>
+        <v>4802387</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4494631222309096</v>
+        <v>0.4256712339093038</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1892</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1913.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1876.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1889</v>
-      </c>
-      <c r="F18" t="n">
-        <v>658841</v>
-      </c>
-      <c r="G18" t="n">
-        <v>435764</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5119215905857298</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>80.67</v>
-      </c>
-      <c r="C19" t="n">
-        <v>83.65000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80.22</v>
-      </c>
-      <c r="E19" t="n">
-        <v>83.27</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4595235</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2901302</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5838526978577204</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
+          <t>IEX</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -484,363 +484,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>516.5</v>
+        <v>1263.9</v>
       </c>
       <c r="C2" t="n">
-        <v>516.75</v>
+        <v>1311.6</v>
       </c>
       <c r="D2" t="n">
-        <v>506.05</v>
+        <v>1261.3</v>
       </c>
       <c r="E2" t="n">
-        <v>506.25</v>
+        <v>1289</v>
       </c>
       <c r="F2" t="n">
-        <v>3256458</v>
+        <v>3171952</v>
       </c>
       <c r="G2" t="n">
-        <v>6882125</v>
+        <v>6927367</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5268237644622845</v>
+        <v>-0.5421128980173853</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710</v>
+        <v>740.75</v>
       </c>
       <c r="C3" t="n">
-        <v>726.95</v>
+        <v>749.5</v>
       </c>
       <c r="D3" t="n">
-        <v>708.4</v>
+        <v>736.05</v>
       </c>
       <c r="E3" t="n">
-        <v>726.75</v>
+        <v>745.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1205842</v>
+        <v>4205888</v>
       </c>
       <c r="G3" t="n">
-        <v>2960078</v>
+        <v>10209104</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5926316806516585</v>
+        <v>-0.5880257464318123</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1677.2</v>
+        <v>1479.5</v>
       </c>
       <c r="C4" t="n">
-        <v>1714.9</v>
+        <v>1489</v>
       </c>
       <c r="D4" t="n">
-        <v>1677.2</v>
+        <v>1462.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1690</v>
+        <v>1478</v>
       </c>
       <c r="F4" t="n">
-        <v>1021953</v>
+        <v>3290072</v>
       </c>
       <c r="G4" t="n">
-        <v>2176330</v>
+        <v>6512312</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5304236949359702</v>
+        <v>-0.4947920185642211</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1174</v>
+        <v>2203.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.8</v>
+        <v>2209.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1158</v>
+        <v>2190.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.7</v>
+        <v>2200</v>
       </c>
       <c r="F5" t="n">
-        <v>915145</v>
+        <v>3341302</v>
       </c>
       <c r="G5" t="n">
-        <v>2005553</v>
+        <v>6738420</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5436944324084181</v>
+        <v>-0.5041416237040731</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3265</v>
+        <v>2090</v>
       </c>
       <c r="C6" t="n">
-        <v>3279.8</v>
+        <v>2104</v>
       </c>
       <c r="D6" t="n">
-        <v>3252.1</v>
+        <v>2077</v>
       </c>
       <c r="E6" t="n">
-        <v>3267.6</v>
+        <v>2081.1</v>
       </c>
       <c r="F6" t="n">
-        <v>234148</v>
+        <v>609393</v>
       </c>
       <c r="G6" t="n">
-        <v>529423</v>
+        <v>1424932</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5577298304002659</v>
+        <v>-0.5723353816182105</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227</v>
+        <v>1996.5</v>
       </c>
       <c r="C7" t="n">
-        <v>227.75</v>
+        <v>2017.5</v>
       </c>
       <c r="D7" t="n">
-        <v>223.92</v>
+        <v>1991.6</v>
       </c>
       <c r="E7" t="n">
-        <v>226.7</v>
+        <v>2006</v>
       </c>
       <c r="F7" t="n">
-        <v>6327250</v>
+        <v>355745</v>
       </c>
       <c r="G7" t="n">
-        <v>12613195</v>
+        <v>860007</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4983626273913945</v>
+        <v>-0.5863463902038006</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.25</v>
+        <v>2512</v>
       </c>
       <c r="C8" t="n">
-        <v>814</v>
+        <v>2538</v>
       </c>
       <c r="D8" t="n">
-        <v>795</v>
+        <v>2461.8</v>
       </c>
       <c r="E8" t="n">
-        <v>795</v>
+        <v>2488.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1864887</v>
+        <v>3965773</v>
       </c>
       <c r="G8" t="n">
-        <v>3804314</v>
+        <v>9183672</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5097967728215915</v>
+        <v>-0.5681713153518549</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>BSE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.81</v>
+        <v>931.05</v>
       </c>
       <c r="C9" t="n">
-        <v>76.84999999999999</v>
+        <v>939.6</v>
       </c>
       <c r="D9" t="n">
-        <v>75.66</v>
+        <v>923.1</v>
       </c>
       <c r="E9" t="n">
-        <v>75.81</v>
+        <v>926.7</v>
       </c>
       <c r="F9" t="n">
-        <v>7993203</v>
+        <v>292090</v>
       </c>
       <c r="G9" t="n">
-        <v>16267362</v>
+        <v>677803</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5086355734875759</v>
+        <v>-0.5690635774701499</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.45</v>
+        <v>5800</v>
       </c>
       <c r="C10" t="n">
-        <v>84.19</v>
+        <v>5825</v>
       </c>
       <c r="D10" t="n">
-        <v>82.81</v>
+        <v>5725</v>
       </c>
       <c r="E10" t="n">
-        <v>83.76000000000001</v>
+        <v>5758.1</v>
       </c>
       <c r="F10" t="n">
-        <v>2193997</v>
+        <v>469353</v>
       </c>
       <c r="G10" t="n">
-        <v>4595235</v>
+        <v>940813</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5225495540489224</v>
+        <v>-0.5011197761935687</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ABFRL</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>ANGELONE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7220</v>
+        <v>2468.1</v>
       </c>
       <c r="C11" t="n">
-        <v>7300</v>
+        <v>2559</v>
       </c>
       <c r="D11" t="n">
-        <v>7200</v>
+        <v>2460.7</v>
       </c>
       <c r="E11" t="n">
-        <v>7230</v>
+        <v>2495</v>
       </c>
       <c r="F11" t="n">
-        <v>51527</v>
+        <v>1585685</v>
       </c>
       <c r="G11" t="n">
-        <v>102908</v>
+        <v>3242812</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4992906285225638</v>
+        <v>-0.5110154396862969</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>CESC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>508.2</v>
+        <v>174.76</v>
       </c>
       <c r="C12" t="n">
-        <v>509.8</v>
+        <v>174.76</v>
       </c>
       <c r="D12" t="n">
-        <v>498</v>
+        <v>170</v>
       </c>
       <c r="E12" t="n">
-        <v>499.55</v>
+        <v>170.4</v>
       </c>
       <c r="F12" t="n">
-        <v>1142761</v>
+        <v>1819909</v>
       </c>
       <c r="G12" t="n">
-        <v>2376538</v>
+        <v>3775700</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5191488627575069</v>
+        <v>-0.5179942792065048</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>CESC</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,528 +913,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3549</v>
+        <v>3561</v>
       </c>
       <c r="C2" t="n">
-        <v>3652</v>
+        <v>3656</v>
       </c>
       <c r="D2" t="n">
-        <v>3540</v>
+        <v>3560.1</v>
       </c>
       <c r="E2" t="n">
-        <v>3636</v>
+        <v>3656</v>
       </c>
       <c r="F2" t="n">
-        <v>1528118</v>
+        <v>3339579</v>
       </c>
       <c r="G2" t="n">
-        <v>1005045</v>
+        <v>2125552</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5204473431537892</v>
+        <v>0.5711584567208895</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>M&amp;M</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>401</v>
+        <v>2565.5</v>
       </c>
       <c r="C3" t="n">
-        <v>406</v>
+        <v>2615</v>
       </c>
       <c r="D3" t="n">
-        <v>399.55</v>
+        <v>2560</v>
       </c>
       <c r="E3" t="n">
-        <v>405.45</v>
+        <v>2603.4</v>
       </c>
       <c r="F3" t="n">
-        <v>22962049</v>
+        <v>2050690</v>
       </c>
       <c r="G3" t="n">
-        <v>16043867</v>
+        <v>1446646</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4312041479775418</v>
+        <v>0.4175479004538775</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1177</v>
+        <v>1401</v>
       </c>
       <c r="C4" t="n">
-        <v>1197</v>
+        <v>1423.3</v>
       </c>
       <c r="D4" t="n">
-        <v>1175</v>
+        <v>1399.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1194</v>
+        <v>1419.1</v>
       </c>
       <c r="F4" t="n">
-        <v>2296704</v>
+        <v>19335561</v>
       </c>
       <c r="G4" t="n">
-        <v>1575396</v>
+        <v>12315932</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4578582146964953</v>
+        <v>0.5699632800830664</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1055</v>
+        <v>16298</v>
       </c>
       <c r="C5" t="n">
-        <v>1067</v>
+        <v>16549</v>
       </c>
       <c r="D5" t="n">
-        <v>1052.5</v>
+        <v>16298</v>
       </c>
       <c r="E5" t="n">
-        <v>1059</v>
+        <v>16380</v>
       </c>
       <c r="F5" t="n">
-        <v>1742078</v>
+        <v>411608</v>
       </c>
       <c r="G5" t="n">
-        <v>1161123</v>
+        <v>265727</v>
       </c>
       <c r="H5" t="n">
-        <v>0.500338896051495</v>
+        <v>0.5489882473365522</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>977.3</v>
+        <v>12300</v>
       </c>
       <c r="C6" t="n">
-        <v>989</v>
+        <v>12390</v>
       </c>
       <c r="D6" t="n">
-        <v>974.75</v>
+        <v>12259</v>
       </c>
       <c r="E6" t="n">
-        <v>983.95</v>
+        <v>12313</v>
       </c>
       <c r="F6" t="n">
-        <v>832737</v>
+        <v>182242</v>
       </c>
       <c r="G6" t="n">
-        <v>563166</v>
+        <v>129372</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4786705873579016</v>
+        <v>0.4086664811551186</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.75</v>
+        <v>1499</v>
       </c>
       <c r="C7" t="n">
-        <v>551.5</v>
+        <v>1501.3</v>
       </c>
       <c r="D7" t="n">
-        <v>545</v>
+        <v>1479.2</v>
       </c>
       <c r="E7" t="n">
-        <v>548.2</v>
+        <v>1484.9</v>
       </c>
       <c r="F7" t="n">
-        <v>2481559</v>
+        <v>3210161</v>
       </c>
       <c r="G7" t="n">
-        <v>1730184</v>
+        <v>2021043</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4342746205027905</v>
+        <v>0.5883684810268758</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>HCLTECH</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3535</v>
+        <v>3576.5</v>
       </c>
       <c r="C8" t="n">
-        <v>3549.1</v>
+        <v>3658</v>
       </c>
       <c r="D8" t="n">
-        <v>3520.9</v>
+        <v>3575.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3531</v>
+        <v>3653.2</v>
       </c>
       <c r="F8" t="n">
-        <v>207979</v>
+        <v>1173044</v>
       </c>
       <c r="G8" t="n">
-        <v>131171</v>
+        <v>757797</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5855562586242385</v>
+        <v>0.5479660120058538</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14052</v>
+        <v>1345.2</v>
       </c>
       <c r="C9" t="n">
-        <v>14134</v>
+        <v>1347</v>
       </c>
       <c r="D9" t="n">
-        <v>13960</v>
+        <v>1323</v>
       </c>
       <c r="E9" t="n">
-        <v>14040</v>
+        <v>1330.1</v>
       </c>
       <c r="F9" t="n">
-        <v>81585</v>
+        <v>904220</v>
       </c>
       <c r="G9" t="n">
-        <v>56766</v>
+        <v>595870</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4372159391184864</v>
+        <v>0.5174786446708175</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>116.65</v>
+        <v>740</v>
       </c>
       <c r="C10" t="n">
-        <v>117.84</v>
+        <v>761</v>
       </c>
       <c r="D10" t="n">
-        <v>115.97</v>
+        <v>734.5</v>
       </c>
       <c r="E10" t="n">
-        <v>116.13</v>
+        <v>752.8</v>
       </c>
       <c r="F10" t="n">
-        <v>15188935</v>
+        <v>4770012</v>
       </c>
       <c r="G10" t="n">
-        <v>10598247</v>
+        <v>3056360</v>
       </c>
       <c r="H10" t="n">
-        <v>0.433155407682044</v>
+        <v>0.560683950843487</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1698</v>
+        <v>728.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1700.1</v>
+        <v>739.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1653.2</v>
+        <v>726.95</v>
       </c>
       <c r="E11" t="n">
-        <v>1664.7</v>
+        <v>736</v>
       </c>
       <c r="F11" t="n">
-        <v>3202080</v>
+        <v>1707666</v>
       </c>
       <c r="G11" t="n">
-        <v>2004535</v>
+        <v>1205842</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5974178550137563</v>
+        <v>0.4161606578639656</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>MARICO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>785</v>
+        <v>487.05</v>
       </c>
       <c r="C12" t="n">
-        <v>812</v>
+        <v>502.5</v>
       </c>
       <c r="D12" t="n">
-        <v>779.65</v>
+        <v>485.85</v>
       </c>
       <c r="E12" t="n">
-        <v>808.2</v>
+        <v>490.25</v>
       </c>
       <c r="F12" t="n">
-        <v>696824</v>
+        <v>6416427</v>
       </c>
       <c r="G12" t="n">
-        <v>471408</v>
+        <v>4326210</v>
       </c>
       <c r="H12" t="n">
-        <v>0.478176017377728</v>
+        <v>0.4831519967824031</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7</v>
+        <v>5582</v>
       </c>
       <c r="C13" t="n">
-        <v>597</v>
+        <v>5625</v>
       </c>
       <c r="D13" t="n">
-        <v>584.55</v>
+        <v>5550.5</v>
       </c>
       <c r="E13" t="n">
-        <v>593.4</v>
+        <v>5595</v>
       </c>
       <c r="F13" t="n">
-        <v>1285374</v>
+        <v>435204</v>
       </c>
       <c r="G13" t="n">
-        <v>879705</v>
+        <v>294066</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4611420874043003</v>
+        <v>0.4799534798310583</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>PAGEIND</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.95999999999999</v>
+        <v>41270</v>
       </c>
       <c r="C14" t="n">
-        <v>91.15000000000001</v>
+        <v>41270</v>
       </c>
       <c r="D14" t="n">
-        <v>89.79000000000001</v>
+        <v>40780</v>
       </c>
       <c r="E14" t="n">
-        <v>90.63</v>
+        <v>41050</v>
       </c>
       <c r="F14" t="n">
-        <v>6688742</v>
+        <v>21226</v>
       </c>
       <c r="G14" t="n">
-        <v>4646050</v>
+        <v>14326</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4396620785398349</v>
+        <v>0.4816417702080134</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>PAGEIND</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>265</v>
+        <v>4240.2</v>
       </c>
       <c r="C15" t="n">
-        <v>273.57</v>
+        <v>4266</v>
       </c>
       <c r="D15" t="n">
-        <v>264.92</v>
+        <v>4179</v>
       </c>
       <c r="E15" t="n">
-        <v>269.2</v>
+        <v>4220</v>
       </c>
       <c r="F15" t="n">
-        <v>11133785</v>
+        <v>43475</v>
       </c>
       <c r="G15" t="n">
-        <v>7835400</v>
+        <v>29283</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4209593639124997</v>
+        <v>0.4846497968104361</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>TATAELXSI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112</v>
+        <v>5403.5</v>
       </c>
       <c r="C16" t="n">
-        <v>114.63</v>
+        <v>5420</v>
       </c>
       <c r="D16" t="n">
-        <v>111.68</v>
+        <v>5335.5</v>
       </c>
       <c r="E16" t="n">
-        <v>112.25</v>
+        <v>5373.5</v>
       </c>
       <c r="F16" t="n">
-        <v>9669421</v>
+        <v>193891</v>
       </c>
       <c r="G16" t="n">
-        <v>6608121</v>
+        <v>122296</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4632633088891683</v>
+        <v>0.5854238895793812</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>TATAELXSI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>135</v>
+        <v>138.81</v>
       </c>
       <c r="C17" t="n">
-        <v>136.39</v>
+        <v>139.08</v>
       </c>
       <c r="D17" t="n">
-        <v>133.5</v>
+        <v>135.8</v>
       </c>
       <c r="E17" t="n">
-        <v>134.97</v>
+        <v>136.77</v>
       </c>
       <c r="F17" t="n">
-        <v>6846625</v>
+        <v>7584213</v>
       </c>
       <c r="G17" t="n">
-        <v>4802387</v>
+        <v>5116871</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4256712339093038</v>
+        <v>0.4821974210411011</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3179</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3189.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3108.9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3130</v>
+      </c>
+      <c r="F18" t="n">
+        <v>180720</v>
+      </c>
+      <c r="G18" t="n">
+        <v>127384</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4187025058092068</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>134.21</v>
+      </c>
+      <c r="E19" t="n">
+        <v>134.52</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15168999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9950107</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5245061183764155</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1689.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1689.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1637.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1647.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2926578</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1990102</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4705668352677401</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>570.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>574.7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>567.05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>567.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>727221</v>
+      </c>
+      <c r="G21" t="n">
+        <v>508720</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4295113225349898</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,138 +478,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filterdata</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>194980250</v>
-      </c>
-      <c r="G2" t="n">
-        <v>468590807</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.5839008211699723</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TATATECH</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>684.95</v>
-      </c>
-      <c r="C3" t="n">
-        <v>687.45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>680.85</v>
-      </c>
-      <c r="E3" t="n">
-        <v>685.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>251178</v>
-      </c>
-      <c r="G3" t="n">
-        <v>573478</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.5620093534538378</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TATATECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>16224</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16264</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16060</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>66310</v>
-      </c>
-      <c r="G4" t="n">
-        <v>146016</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.5458716852947623</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>IDFCFIRSTB</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>77.25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>77.34999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>76.66</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10454110</v>
-      </c>
-      <c r="G5" t="n">
-        <v>23591016</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.5568605438612733</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,39 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7265</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7339</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7181.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>127081</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90583</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4029232858262588</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,765 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filterdata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1368.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1381.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1368.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1378</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10570263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21124942</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.499631146916285</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASIANPAINT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2506.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2486.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2501.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>327596</v>
+      </c>
+      <c r="G3" t="n">
+        <v>811738</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.5964264331594678</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ASIANPAINT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3655.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3615.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3618.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1654500</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3724956</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.5558336796461488</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1539.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1543</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1518</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1523.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8652257</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20358624</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.5750077706626932</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3929.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3939.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3897.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3905</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1146636</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2815778</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.592781817316564</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3080</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3090</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3058.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3060.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2684318</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5564758</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5176217905612427</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MARUTI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16392</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16423</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16267</v>
+      </c>
+      <c r="F8" t="n">
+        <v>208520</v>
+      </c>
+      <c r="G8" t="n">
+        <v>481753</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5671640861603353</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>MARUTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2176.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2184</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2144.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2159</v>
+      </c>
+      <c r="F9" t="n">
+        <v>517200</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1291839</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5996405124787222</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1011.95</v>
+      </c>
+      <c r="D10" t="n">
+        <v>991.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>995.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17707768</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43526526</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5931729538902324</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>126.93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>124.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>125.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17014666</v>
+      </c>
+      <c r="G11" t="n">
+        <v>34824359</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.511414811683971</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CANBK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PFC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>397.45</v>
+      </c>
+      <c r="D12" t="n">
+        <v>392.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>393.95</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3294561</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7783176</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5767073749841967</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PFC</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ADANIENSOL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>956</v>
+      </c>
+      <c r="C13" t="n">
+        <v>956</v>
+      </c>
+      <c r="D13" t="n">
+        <v>937.55</v>
+      </c>
+      <c r="E13" t="n">
+        <v>944.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1131330</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2360876</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5208007536185721</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ADANIENSOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PNB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>118.22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>118.69</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.27</v>
+      </c>
+      <c r="E14" t="n">
+        <v>117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13120416</v>
+      </c>
+      <c r="G14" t="n">
+        <v>31320313</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5810892439037886</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1664</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1692.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1651.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1681</v>
+      </c>
+      <c r="F15" t="n">
+        <v>993483</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2400199</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5860830706120618</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1431.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1431.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1438.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>539503</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1121329</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5188718030123184</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KALYANKJIL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>495</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500.35</v>
+      </c>
+      <c r="D17" t="n">
+        <v>492.35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>495.75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1789782</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3922147</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5436728914036113</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>KALYANKJIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1284</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1297.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1280.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1285.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1542964</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3169295</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5131522941221943</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TATATECH</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>692.95</v>
+      </c>
+      <c r="C19" t="n">
+        <v>697.55</v>
+      </c>
+      <c r="D19" t="n">
+        <v>688</v>
+      </c>
+      <c r="E19" t="n">
+        <v>691</v>
+      </c>
+      <c r="F19" t="n">
+        <v>361319</v>
+      </c>
+      <c r="G19" t="n">
+        <v>802480</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5497470341939986</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TATATECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PERSISTENT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5843.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5929.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5822.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>383009</v>
+      </c>
+      <c r="G20" t="n">
+        <v>906223</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5773567874573918</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PERSISTENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1323.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1328.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1322.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>363827</v>
+      </c>
+      <c r="G21" t="n">
+        <v>874732</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5840703209668791</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>142.71</v>
+      </c>
+      <c r="C22" t="n">
+        <v>144</v>
+      </c>
+      <c r="D22" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>141.72</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5680097</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12272542</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5371702944671121</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>137.91</v>
+      </c>
+      <c r="C23" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="E23" t="n">
+        <v>136.59</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6291344</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12839861</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.510014633335984</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>559.75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>568.6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>554.85</v>
+      </c>
+      <c r="E24" t="n">
+        <v>561.95</v>
+      </c>
+      <c r="F24" t="n">
+        <v>550932</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1238739</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.5552477156204818</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
         </is>
       </c>
     </row>
@@ -492,7 +1251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,33 +1309,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7265</v>
+        <v>1685</v>
       </c>
       <c r="C2" t="n">
-        <v>7339</v>
+        <v>1752.7</v>
       </c>
       <c r="D2" t="n">
-        <v>7181.5</v>
+        <v>1678.1</v>
       </c>
       <c r="E2" t="n">
-        <v>7208</v>
+        <v>1747.4</v>
       </c>
       <c r="F2" t="n">
-        <v>127081</v>
+        <v>2128154</v>
       </c>
       <c r="G2" t="n">
-        <v>90583</v>
+        <v>1348437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4029232858262588</v>
+        <v>0.5782376188134856</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>CHOLAFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JINDALSTEL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1010.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1027.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1003.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1005.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1691676</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1065307</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5879704160396956</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>JINDALSTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4079.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4205.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4055.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4197.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>953394</v>
+      </c>
+      <c r="G4" t="n">
+        <v>656348</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4525739394345683</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3551</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3589</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3520</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3581</v>
+      </c>
+      <c r="F5" t="n">
+        <v>246229</v>
+      </c>
+      <c r="G5" t="n">
+        <v>174294</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4127221820601971</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1753.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1763.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1741.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1756.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>305810</v>
+      </c>
+      <c r="G6" t="n">
+        <v>197842</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.545728409538925</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>228</v>
+      </c>
+      <c r="C7" t="n">
+        <v>232.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>226.89</v>
+      </c>
+      <c r="E7" t="n">
+        <v>228.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25955732</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16833570</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5419029950271986</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>392</v>
+      </c>
+      <c r="C8" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>387.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>389.85</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2860401</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1844105</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5511052787124378</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2459.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2459.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2415</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2429.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>249600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>170162</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4668374842796864</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CAMS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3880</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3912.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3866.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3882</v>
+      </c>
+      <c r="F10" t="n">
+        <v>412374</v>
+      </c>
+      <c r="G10" t="n">
+        <v>294023</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4025229318794788</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CAMS</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,759 +484,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1368.1</v>
+        <v>834.9</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.6</v>
+        <v>845.1</v>
       </c>
       <c r="D2" t="n">
-        <v>1368.1</v>
+        <v>827</v>
       </c>
       <c r="E2" t="n">
-        <v>1378</v>
+        <v>840.85</v>
       </c>
       <c r="F2" t="n">
-        <v>10570263</v>
+        <v>7308067</v>
       </c>
       <c r="G2" t="n">
-        <v>21124942</v>
+        <v>16905398</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.499631146916285</v>
+        <v>-0.5677080776211243</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2495</v>
+        <v>1585</v>
       </c>
       <c r="C3" t="n">
-        <v>2506.7</v>
+        <v>1593.8</v>
       </c>
       <c r="D3" t="n">
-        <v>2486.3</v>
+        <v>1575.2</v>
       </c>
       <c r="E3" t="n">
-        <v>2501.8</v>
+        <v>1583</v>
       </c>
       <c r="F3" t="n">
-        <v>327596</v>
+        <v>1213749</v>
       </c>
       <c r="G3" t="n">
-        <v>811738</v>
+        <v>2941997</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5964264331594678</v>
+        <v>-0.5874404358672017</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3630</v>
+        <v>255.42</v>
       </c>
       <c r="C4" t="n">
-        <v>3655.3</v>
+        <v>256.09</v>
       </c>
       <c r="D4" t="n">
-        <v>3615.1</v>
+        <v>251.91</v>
       </c>
       <c r="E4" t="n">
-        <v>3618.2</v>
+        <v>253.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1654500</v>
+        <v>7889080</v>
       </c>
       <c r="G4" t="n">
-        <v>3724956</v>
+        <v>17882209</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5558336796461488</v>
+        <v>-0.5588307909833735</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1539.5</v>
+        <v>945.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1543</v>
+        <v>951.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1518</v>
+        <v>942</v>
       </c>
       <c r="E5" t="n">
-        <v>1523.9</v>
+        <v>945.05</v>
       </c>
       <c r="F5" t="n">
-        <v>8652257</v>
+        <v>562332</v>
       </c>
       <c r="G5" t="n">
-        <v>20358624</v>
+        <v>1131330</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5750077706626932</v>
+        <v>-0.5029460900002651</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3929.3</v>
+        <v>85.25</v>
       </c>
       <c r="C6" t="n">
-        <v>3939.9</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>3897.5</v>
+        <v>84.8</v>
       </c>
       <c r="E6" t="n">
-        <v>3905</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1146636</v>
+        <v>6939884</v>
       </c>
       <c r="G6" t="n">
-        <v>2815778</v>
+        <v>16912048</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.592781817316564</v>
+        <v>-0.5896485156617342</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3080</v>
+        <v>662</v>
       </c>
       <c r="C7" t="n">
-        <v>3090</v>
+        <v>666.8</v>
       </c>
       <c r="D7" t="n">
-        <v>3058.3</v>
+        <v>658.1</v>
       </c>
       <c r="E7" t="n">
-        <v>3060.6</v>
+        <v>660</v>
       </c>
       <c r="F7" t="n">
-        <v>2684318</v>
+        <v>308585</v>
       </c>
       <c r="G7" t="n">
-        <v>5564758</v>
+        <v>687780</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5176217905612427</v>
+        <v>-0.5513318212219024</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>SYNGENE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>PETRONET</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16392</v>
+        <v>282.2</v>
       </c>
       <c r="C8" t="n">
-        <v>16423</v>
+        <v>282.35</v>
       </c>
       <c r="D8" t="n">
-        <v>16200</v>
+        <v>279.1</v>
       </c>
       <c r="E8" t="n">
-        <v>16267</v>
+        <v>280</v>
       </c>
       <c r="F8" t="n">
-        <v>208520</v>
+        <v>1032427</v>
       </c>
       <c r="G8" t="n">
-        <v>481753</v>
+        <v>2531502</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5671640861603353</v>
+        <v>-0.5921682068590109</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>PETRONET</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2176.6</v>
+        <v>1328.9</v>
       </c>
       <c r="C9" t="n">
-        <v>2184</v>
+        <v>1334.6</v>
       </c>
       <c r="D9" t="n">
-        <v>2144.6</v>
+        <v>1318</v>
       </c>
       <c r="E9" t="n">
-        <v>2159</v>
+        <v>1319</v>
       </c>
       <c r="F9" t="n">
-        <v>517200</v>
+        <v>170609</v>
       </c>
       <c r="G9" t="n">
-        <v>1291839</v>
+        <v>363827</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5996405124787222</v>
+        <v>-0.5310710859831733</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>TIINDIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1011</v>
+        <v>3170</v>
       </c>
       <c r="C10" t="n">
-        <v>1011.95</v>
+        <v>3170</v>
       </c>
       <c r="D10" t="n">
-        <v>991.3</v>
+        <v>3123</v>
       </c>
       <c r="E10" t="n">
-        <v>995.9</v>
+        <v>3133</v>
       </c>
       <c r="F10" t="n">
-        <v>17707768</v>
+        <v>154424</v>
       </c>
       <c r="G10" t="n">
-        <v>43526526</v>
+        <v>318533</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5931729538902324</v>
+        <v>-0.5152025064906933</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>TIINDIA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>INOXWIND</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>126.5</v>
+        <v>154.47</v>
       </c>
       <c r="C11" t="n">
-        <v>126.93</v>
+        <v>155.69</v>
       </c>
       <c r="D11" t="n">
-        <v>124.73</v>
+        <v>152.6</v>
       </c>
       <c r="E11" t="n">
-        <v>125.75</v>
+        <v>153.09</v>
       </c>
       <c r="F11" t="n">
-        <v>17014666</v>
+        <v>4965779</v>
       </c>
       <c r="G11" t="n">
-        <v>34824359</v>
+        <v>10715355</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.511414811683971</v>
+        <v>-0.5365735432937127</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CANBK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PFC</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>396.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>397.45</v>
-      </c>
-      <c r="D12" t="n">
-        <v>392.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>393.95</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3294561</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7783176</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5767073749841967</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>PFC</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ADANIENSOL</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>956</v>
-      </c>
-      <c r="C13" t="n">
-        <v>956</v>
-      </c>
-      <c r="D13" t="n">
-        <v>937.55</v>
-      </c>
-      <c r="E13" t="n">
-        <v>944.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1131330</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2360876</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5208007536185721</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ADANIENSOL</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PNB</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>118.22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>118.69</v>
-      </c>
-      <c r="D14" t="n">
-        <v>116.27</v>
-      </c>
-      <c r="E14" t="n">
-        <v>117</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13120416</v>
-      </c>
-      <c r="G14" t="n">
-        <v>31320313</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5810892439037886</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>PNB</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1664</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1692.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1651.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1681</v>
-      </c>
-      <c r="F15" t="n">
-        <v>993483</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2400199</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5860830706120618</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>VOLTAS</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1431.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1431.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1438.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>539503</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1121329</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5188718030123184</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>VOLTAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>495</v>
-      </c>
-      <c r="C17" t="n">
-        <v>500.35</v>
-      </c>
-      <c r="D17" t="n">
-        <v>492.35</v>
-      </c>
-      <c r="E17" t="n">
-        <v>495.75</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1789782</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3922147</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5436728914036113</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1284</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1297.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1280.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1285.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1542964</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3169295</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5131522941221943</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TATATECH</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>692.95</v>
-      </c>
-      <c r="C19" t="n">
-        <v>697.55</v>
-      </c>
-      <c r="D19" t="n">
-        <v>688</v>
-      </c>
-      <c r="E19" t="n">
-        <v>691</v>
-      </c>
-      <c r="F19" t="n">
-        <v>361319</v>
-      </c>
-      <c r="G19" t="n">
-        <v>802480</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5497470341939986</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>TATATECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>PERSISTENT</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5843.9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5929.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5800</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5822.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>383009</v>
-      </c>
-      <c r="G20" t="n">
-        <v>906223</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5773567874573918</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>PERSISTENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>TORNTPOWER</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1323.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1328.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1305</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1322.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>363827</v>
-      </c>
-      <c r="G21" t="n">
-        <v>874732</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.5840703209668791</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>TORNTPOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>142.71</v>
-      </c>
-      <c r="C22" t="n">
-        <v>144</v>
-      </c>
-      <c r="D22" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>141.72</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5680097</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12272542</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.5371702944671121</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>137.91</v>
-      </c>
-      <c r="C23" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>135.82</v>
-      </c>
-      <c r="E23" t="n">
-        <v>136.59</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6291344</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12839861</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.510014633335984</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>559.75</v>
-      </c>
-      <c r="C24" t="n">
-        <v>568.6</v>
-      </c>
-      <c r="D24" t="n">
-        <v>554.85</v>
-      </c>
-      <c r="E24" t="n">
-        <v>561.95</v>
-      </c>
-      <c r="F24" t="n">
-        <v>550932</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1238739</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.5552477156204818</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
+          <t>INOXWIND</t>
         </is>
       </c>
     </row>
@@ -1251,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,297 +880,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685</v>
+        <v>1463</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.7</v>
+        <v>1485</v>
       </c>
       <c r="D2" t="n">
-        <v>1678.1</v>
+        <v>1458</v>
       </c>
       <c r="E2" t="n">
-        <v>1747.4</v>
+        <v>1483.2</v>
       </c>
       <c r="F2" t="n">
-        <v>2128154</v>
+        <v>14113867</v>
       </c>
       <c r="G2" t="n">
-        <v>1348437</v>
+        <v>9700837</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5782376188134856</v>
+        <v>0.4549122926196987</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1010.9</v>
+        <v>3714</v>
       </c>
       <c r="C3" t="n">
-        <v>1027.9</v>
+        <v>3753.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1003.4</v>
+        <v>3710</v>
       </c>
       <c r="E3" t="n">
-        <v>1005.2</v>
+        <v>3733</v>
       </c>
       <c r="F3" t="n">
-        <v>1691676</v>
+        <v>856124</v>
       </c>
       <c r="G3" t="n">
-        <v>1065307</v>
+        <v>563296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5879704160396956</v>
+        <v>0.5198474691813896</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4079.9</v>
+        <v>734.95</v>
       </c>
       <c r="C4" t="n">
-        <v>4205.6</v>
+        <v>743.55</v>
       </c>
       <c r="D4" t="n">
-        <v>4055.3</v>
+        <v>732.3</v>
       </c>
       <c r="E4" t="n">
-        <v>4197.9</v>
+        <v>738</v>
       </c>
       <c r="F4" t="n">
-        <v>953394</v>
+        <v>3739804</v>
       </c>
       <c r="G4" t="n">
-        <v>656348</v>
+        <v>2349228</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4525739394345683</v>
+        <v>0.591928923033439</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3551</v>
+        <v>243.29</v>
       </c>
       <c r="C5" t="n">
-        <v>3589</v>
+        <v>245.73</v>
       </c>
       <c r="D5" t="n">
-        <v>3520</v>
+        <v>243.06</v>
       </c>
       <c r="E5" t="n">
-        <v>3581</v>
+        <v>243.9</v>
       </c>
       <c r="F5" t="n">
-        <v>246229</v>
+        <v>9550336</v>
       </c>
       <c r="G5" t="n">
-        <v>174294</v>
+        <v>6803979</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4127221820601971</v>
+        <v>0.4036398407461281</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1753.6</v>
+        <v>332.7</v>
       </c>
       <c r="C6" t="n">
-        <v>1763.1</v>
+        <v>343.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1741.3</v>
+        <v>331.25</v>
       </c>
       <c r="E6" t="n">
-        <v>1756.7</v>
+        <v>343.15</v>
       </c>
       <c r="F6" t="n">
-        <v>305810</v>
+        <v>11767585</v>
       </c>
       <c r="G6" t="n">
-        <v>197842</v>
+        <v>8260920</v>
       </c>
       <c r="H6" t="n">
-        <v>0.545728409538925</v>
+        <v>0.4244884347021881</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228</v>
+        <v>887.25</v>
       </c>
       <c r="C7" t="n">
-        <v>232.2</v>
+        <v>900.8</v>
       </c>
       <c r="D7" t="n">
-        <v>226.89</v>
+        <v>885.55</v>
       </c>
       <c r="E7" t="n">
-        <v>228.15</v>
+        <v>898.2</v>
       </c>
       <c r="F7" t="n">
-        <v>25955732</v>
+        <v>871092</v>
       </c>
       <c r="G7" t="n">
-        <v>16833570</v>
+        <v>567658</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5419029950271986</v>
+        <v>0.5345366400191665</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>392</v>
+        <v>28845</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8</v>
+        <v>28930</v>
       </c>
       <c r="D8" t="n">
-        <v>387.8</v>
+        <v>28520</v>
       </c>
       <c r="E8" t="n">
-        <v>389.85</v>
+        <v>28635</v>
       </c>
       <c r="F8" t="n">
-        <v>2860401</v>
+        <v>36230</v>
       </c>
       <c r="G8" t="n">
-        <v>1844105</v>
+        <v>25030</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5511052787124378</v>
+        <v>0.4474630443467839</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2459.8</v>
+        <v>1747.2</v>
       </c>
       <c r="C9" t="n">
-        <v>2459.8</v>
+        <v>1782</v>
       </c>
       <c r="D9" t="n">
-        <v>2415</v>
+        <v>1722.6</v>
       </c>
       <c r="E9" t="n">
-        <v>2429.9</v>
+        <v>1726.7</v>
       </c>
       <c r="F9" t="n">
-        <v>249600</v>
+        <v>2981176</v>
       </c>
       <c r="G9" t="n">
-        <v>170162</v>
+        <v>2128154</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4668374842796864</v>
+        <v>0.4008271957762455</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3880</v>
+        <v>1025</v>
       </c>
       <c r="C10" t="n">
-        <v>3912.6</v>
+        <v>1027.6</v>
       </c>
       <c r="D10" t="n">
-        <v>3866.2</v>
+        <v>1015</v>
       </c>
       <c r="E10" t="n">
-        <v>3882</v>
+        <v>1017</v>
       </c>
       <c r="F10" t="n">
-        <v>412374</v>
+        <v>1762358</v>
       </c>
       <c r="G10" t="n">
-        <v>294023</v>
+        <v>1202737</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4025229318794788</v>
+        <v>0.4652895853374429</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>ADANIGREEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1188.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1214</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1181.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1207</v>
+      </c>
+      <c r="F11" t="n">
+        <v>708504</v>
+      </c>
+      <c r="G11" t="n">
+        <v>467315</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.516116538095289</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2843.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2897</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2881.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>377691</v>
+      </c>
+      <c r="G12" t="n">
+        <v>237956</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5872304123451394</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NYKAA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>252.7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>255.97</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251.31</v>
+      </c>
+      <c r="E13" t="n">
+        <v>255.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4262941</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2775015</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5361866512433267</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NYKAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TATATECH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>691</v>
+      </c>
+      <c r="C14" t="n">
+        <v>699.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>691</v>
+      </c>
+      <c r="E14" t="n">
+        <v>695.85</v>
+      </c>
+      <c r="F14" t="n">
+        <v>527137</v>
+      </c>
+      <c r="G14" t="n">
+        <v>361319</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4589241086131646</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TATATECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>389.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>390</v>
+      </c>
+      <c r="D15" t="n">
+        <v>378.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4173827</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2860401</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4591754792422461</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9004</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9335</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8983.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9319.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>635453</v>
+      </c>
+      <c r="G16" t="n">
+        <v>417480</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5221160295103957</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MCX</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>325.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>317.05</v>
+      </c>
+      <c r="E17" t="n">
+        <v>322.45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18611108</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11847488</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5708906394334394</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>834.9</v>
+        <v>2324</v>
       </c>
       <c r="C2" t="n">
-        <v>845.1</v>
+        <v>2330</v>
       </c>
       <c r="D2" t="n">
-        <v>827</v>
+        <v>2275.3</v>
       </c>
       <c r="E2" t="n">
-        <v>840.85</v>
+        <v>2295</v>
       </c>
       <c r="F2" t="n">
-        <v>7308067</v>
+        <v>394259</v>
       </c>
       <c r="G2" t="n">
-        <v>16905398</v>
+        <v>949508</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5677080776211243</v>
+        <v>-0.5847754837242024</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1585</v>
+        <v>1737</v>
       </c>
       <c r="C3" t="n">
-        <v>1593.8</v>
+        <v>1740</v>
       </c>
       <c r="D3" t="n">
-        <v>1575.2</v>
+        <v>1703.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1583</v>
+        <v>1706.2</v>
       </c>
       <c r="F3" t="n">
-        <v>1213749</v>
+        <v>428250</v>
       </c>
       <c r="G3" t="n">
-        <v>2941997</v>
+        <v>1003301</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5874404358672017</v>
+        <v>-0.5731590021339558</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.42</v>
+        <v>10.1</v>
       </c>
       <c r="C4" t="n">
-        <v>256.09</v>
+        <v>10.15</v>
       </c>
       <c r="D4" t="n">
-        <v>251.91</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>253.6</v>
+        <v>9.44</v>
       </c>
       <c r="F4" t="n">
-        <v>7889080</v>
+        <v>1456935645</v>
       </c>
       <c r="G4" t="n">
-        <v>17882209</v>
+        <v>3237582345</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5588307909833735</v>
+        <v>-0.5499927137760569</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>945.2</v>
+        <v>323</v>
       </c>
       <c r="C5" t="n">
-        <v>951.8</v>
+        <v>326.35</v>
       </c>
       <c r="D5" t="n">
-        <v>942</v>
+        <v>319.15</v>
       </c>
       <c r="E5" t="n">
-        <v>945.05</v>
+        <v>324.95</v>
       </c>
       <c r="F5" t="n">
-        <v>562332</v>
+        <v>8631329</v>
       </c>
       <c r="G5" t="n">
-        <v>1131330</v>
+        <v>18611108</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5029460900002651</v>
+        <v>-0.5362270209812333</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>85.25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>85.43000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>84.95999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6939884</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16912048</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.5896485156617342</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>662</v>
-      </c>
-      <c r="C7" t="n">
-        <v>666.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>658.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>660</v>
-      </c>
-      <c r="F7" t="n">
-        <v>308585</v>
-      </c>
-      <c r="G7" t="n">
-        <v>687780</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.5513318212219024</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>282.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>282.35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>279.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>280</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1032427</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2531502</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.5921682068590109</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TORNTPOWER</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1328.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1334.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1318</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1319</v>
-      </c>
-      <c r="F9" t="n">
-        <v>170609</v>
-      </c>
-      <c r="G9" t="n">
-        <v>363827</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5310710859831733</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>TORNTPOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TIINDIA</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3170</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3170</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3123</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3133</v>
-      </c>
-      <c r="F10" t="n">
-        <v>154424</v>
-      </c>
-      <c r="G10" t="n">
-        <v>318533</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.5152025064906933</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>TIINDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>INOXWIND</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>154.47</v>
-      </c>
-      <c r="C11" t="n">
-        <v>155.69</v>
-      </c>
-      <c r="D11" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>153.09</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4965779</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10715355</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5365735432937127</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>INOXWIND</t>
+          <t>RBLBANK</t>
         </is>
       </c>
     </row>
@@ -822,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,528 +682,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1463</v>
+        <v>9100</v>
       </c>
       <c r="C2" t="n">
-        <v>1485</v>
+        <v>9130</v>
       </c>
       <c r="D2" t="n">
-        <v>1458</v>
+        <v>9019</v>
       </c>
       <c r="E2" t="n">
-        <v>1483.2</v>
+        <v>9057</v>
       </c>
       <c r="F2" t="n">
-        <v>14113867</v>
+        <v>459991</v>
       </c>
       <c r="G2" t="n">
-        <v>9700837</v>
+        <v>310061</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4549122926196987</v>
+        <v>0.4835500111268428</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3714</v>
+        <v>420.5</v>
       </c>
       <c r="C3" t="n">
-        <v>3753.9</v>
+        <v>421.65</v>
       </c>
       <c r="D3" t="n">
-        <v>3710</v>
+        <v>415.9</v>
       </c>
       <c r="E3" t="n">
-        <v>3733</v>
+        <v>417.85</v>
       </c>
       <c r="F3" t="n">
-        <v>856124</v>
+        <v>17163147</v>
       </c>
       <c r="G3" t="n">
-        <v>563296</v>
+        <v>11603679</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5198474691813896</v>
+        <v>0.4791125297416449</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>734.95</v>
+        <v>396.95</v>
       </c>
       <c r="C4" t="n">
-        <v>743.55</v>
+        <v>398.2</v>
       </c>
       <c r="D4" t="n">
-        <v>732.3</v>
+        <v>389.35</v>
       </c>
       <c r="E4" t="n">
-        <v>738</v>
+        <v>391.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3739804</v>
+        <v>7672258</v>
       </c>
       <c r="G4" t="n">
-        <v>2349228</v>
+        <v>5438773</v>
       </c>
       <c r="H4" t="n">
-        <v>0.591928923033439</v>
+        <v>0.4106597204921036</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>COALINDIA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.29</v>
+        <v>4800.6</v>
       </c>
       <c r="C5" t="n">
-        <v>245.73</v>
+        <v>4828.4</v>
       </c>
       <c r="D5" t="n">
-        <v>243.06</v>
+        <v>4692.5</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9</v>
+        <v>4733</v>
       </c>
       <c r="F5" t="n">
-        <v>9550336</v>
+        <v>616890</v>
       </c>
       <c r="G5" t="n">
-        <v>6803979</v>
+        <v>414172</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4036398407461281</v>
+        <v>0.4894536569348</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>332.7</v>
+        <v>130.39</v>
       </c>
       <c r="C6" t="n">
-        <v>343.5</v>
+        <v>131.77</v>
       </c>
       <c r="D6" t="n">
-        <v>331.25</v>
+        <v>127.75</v>
       </c>
       <c r="E6" t="n">
-        <v>343.15</v>
+        <v>130.1</v>
       </c>
       <c r="F6" t="n">
-        <v>11767585</v>
+        <v>44849817</v>
       </c>
       <c r="G6" t="n">
-        <v>8260920</v>
+        <v>30460506</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4244884347021881</v>
+        <v>0.4723923824509021</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>887.25</v>
+        <v>400.25</v>
       </c>
       <c r="C7" t="n">
-        <v>900.8</v>
+        <v>401.85</v>
       </c>
       <c r="D7" t="n">
-        <v>885.55</v>
+        <v>396.1</v>
       </c>
       <c r="E7" t="n">
-        <v>898.2</v>
+        <v>399.05</v>
       </c>
       <c r="F7" t="n">
-        <v>871092</v>
+        <v>3949368</v>
       </c>
       <c r="G7" t="n">
-        <v>567658</v>
+        <v>2799280</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5345366400191665</v>
+        <v>0.4108513617787431</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>CGPOWER</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28845</v>
+        <v>730</v>
       </c>
       <c r="C8" t="n">
-        <v>28930</v>
+        <v>731.45</v>
       </c>
       <c r="D8" t="n">
-        <v>28520</v>
+        <v>717.4</v>
       </c>
       <c r="E8" t="n">
-        <v>28635</v>
+        <v>722</v>
       </c>
       <c r="F8" t="n">
-        <v>36230</v>
+        <v>2309934</v>
       </c>
       <c r="G8" t="n">
-        <v>25030</v>
+        <v>1573062</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4474630443467839</v>
+        <v>0.4684316320653604</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>CGPOWER</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1747.2</v>
+        <v>481.4</v>
       </c>
       <c r="C9" t="n">
-        <v>1782</v>
+        <v>481.4</v>
       </c>
       <c r="D9" t="n">
-        <v>1722.6</v>
+        <v>468.2</v>
       </c>
       <c r="E9" t="n">
-        <v>1726.7</v>
+        <v>471.5</v>
       </c>
       <c r="F9" t="n">
-        <v>2981176</v>
+        <v>5637647</v>
       </c>
       <c r="G9" t="n">
-        <v>2128154</v>
+        <v>3767112</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4008271957762455</v>
+        <v>0.4965435060067235</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>HINDZINC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1025</v>
+        <v>145.9</v>
       </c>
       <c r="C10" t="n">
-        <v>1027.6</v>
+        <v>147.73</v>
       </c>
       <c r="D10" t="n">
-        <v>1015</v>
+        <v>144.7</v>
       </c>
       <c r="E10" t="n">
-        <v>1017</v>
+        <v>147.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1762358</v>
+        <v>15194370</v>
       </c>
       <c r="G10" t="n">
-        <v>1202737</v>
+        <v>10145527</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4652895853374429</v>
+        <v>0.4976422614616274</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1188.9</v>
+        <v>256</v>
       </c>
       <c r="C11" t="n">
-        <v>1214</v>
+        <v>259.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1181.3</v>
+        <v>253.72</v>
       </c>
       <c r="E11" t="n">
-        <v>1207</v>
+        <v>258.77</v>
       </c>
       <c r="F11" t="n">
-        <v>708504</v>
+        <v>6379166</v>
       </c>
       <c r="G11" t="n">
-        <v>467315</v>
+        <v>4262941</v>
       </c>
       <c r="H11" t="n">
-        <v>0.516116538095289</v>
+        <v>0.496423713112614</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2843.2</v>
+        <v>595.7</v>
       </c>
       <c r="C12" t="n">
-        <v>2897</v>
+        <v>601.65</v>
       </c>
       <c r="D12" t="n">
-        <v>2835</v>
+        <v>592.1</v>
       </c>
       <c r="E12" t="n">
-        <v>2881.4</v>
+        <v>601.2</v>
       </c>
       <c r="F12" t="n">
-        <v>377691</v>
+        <v>1169233</v>
       </c>
       <c r="G12" t="n">
-        <v>237956</v>
+        <v>804991</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5872304123451394</v>
+        <v>0.4524795929395484</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>252.7</v>
+        <v>1766.8</v>
       </c>
       <c r="C13" t="n">
-        <v>255.97</v>
+        <v>1793.1</v>
       </c>
       <c r="D13" t="n">
-        <v>251.31</v>
+        <v>1753.1</v>
       </c>
       <c r="E13" t="n">
-        <v>255.2</v>
+        <v>1776</v>
       </c>
       <c r="F13" t="n">
-        <v>4262941</v>
+        <v>438596</v>
       </c>
       <c r="G13" t="n">
-        <v>2775015</v>
+        <v>280131</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5361866512433267</v>
+        <v>0.5656817703146028</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>IGL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>691</v>
+        <v>213.47</v>
       </c>
       <c r="C14" t="n">
-        <v>699.1</v>
+        <v>213.89</v>
       </c>
       <c r="D14" t="n">
-        <v>691</v>
+        <v>208.89</v>
       </c>
       <c r="E14" t="n">
-        <v>695.85</v>
+        <v>210.58</v>
       </c>
       <c r="F14" t="n">
-        <v>527137</v>
+        <v>2413492</v>
       </c>
       <c r="G14" t="n">
-        <v>361319</v>
+        <v>1557159</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4589241086131646</v>
+        <v>0.5499329227137369</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>IGL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>389.25</v>
+        <v>506</v>
       </c>
       <c r="C15" t="n">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="D15" t="n">
-        <v>378.9</v>
+        <v>505.85</v>
       </c>
       <c r="E15" t="n">
-        <v>380.5</v>
+        <v>513.3</v>
       </c>
       <c r="F15" t="n">
-        <v>4173827</v>
+        <v>2383613</v>
       </c>
       <c r="G15" t="n">
-        <v>2860401</v>
+        <v>1658725</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4591754792422461</v>
+        <v>0.4370151773199294</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>IIFL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>TATACHEM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9004</v>
+        <v>901</v>
       </c>
       <c r="C16" t="n">
-        <v>9335</v>
+        <v>912.1</v>
       </c>
       <c r="D16" t="n">
-        <v>8983.5</v>
+        <v>901</v>
       </c>
       <c r="E16" t="n">
-        <v>9319.5</v>
+        <v>903.85</v>
       </c>
       <c r="F16" t="n">
-        <v>635453</v>
+        <v>453366</v>
       </c>
       <c r="G16" t="n">
-        <v>417480</v>
+        <v>314412</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5221160295103957</v>
+        <v>0.4419487805808939</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>TATACHEM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.1</v>
+        <v>275.8</v>
       </c>
       <c r="C17" t="n">
-        <v>325.9</v>
+        <v>279.8</v>
       </c>
       <c r="D17" t="n">
-        <v>317.05</v>
+        <v>274</v>
       </c>
       <c r="E17" t="n">
-        <v>322.45</v>
+        <v>277.65</v>
       </c>
       <c r="F17" t="n">
-        <v>18611108</v>
+        <v>3653581</v>
       </c>
       <c r="G17" t="n">
-        <v>11847488</v>
+        <v>2290776</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5708906394334394</v>
+        <v>0.5949097598368414</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>293</v>
+      </c>
+      <c r="D18" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4533574</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3112928</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4563696943841939</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,132 +484,594 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2324</v>
+        <v>1690</v>
       </c>
       <c r="C2" t="n">
-        <v>2330</v>
+        <v>1722</v>
       </c>
       <c r="D2" t="n">
-        <v>2275.3</v>
+        <v>1687.3</v>
       </c>
       <c r="E2" t="n">
-        <v>2295</v>
+        <v>1710</v>
       </c>
       <c r="F2" t="n">
-        <v>394259</v>
+        <v>1016738</v>
       </c>
       <c r="G2" t="n">
-        <v>949508</v>
+        <v>2440939</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5847754837242024</v>
+        <v>-0.5834643962835614</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1737</v>
+        <v>4735</v>
       </c>
       <c r="C3" t="n">
-        <v>1740</v>
+        <v>4788</v>
       </c>
       <c r="D3" t="n">
-        <v>1703.1</v>
+        <v>4735</v>
       </c>
       <c r="E3" t="n">
-        <v>1706.2</v>
+        <v>4781.1</v>
       </c>
       <c r="F3" t="n">
-        <v>428250</v>
+        <v>305268</v>
       </c>
       <c r="G3" t="n">
-        <v>1003301</v>
+        <v>616890</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5731590021339558</v>
+        <v>-0.50515002674707</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.1</v>
+        <v>9090</v>
       </c>
       <c r="C4" t="n">
-        <v>10.15</v>
+        <v>9090</v>
       </c>
       <c r="D4" t="n">
-        <v>9.380000000000001</v>
+        <v>8960</v>
       </c>
       <c r="E4" t="n">
-        <v>9.44</v>
+        <v>9034.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1456935645</v>
+        <v>226605</v>
       </c>
       <c r="G4" t="n">
-        <v>3237582345</v>
+        <v>459991</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5499927137760569</v>
+        <v>-0.5073707963851467</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323</v>
+        <v>1072</v>
       </c>
       <c r="C5" t="n">
-        <v>326.35</v>
+        <v>1079.15</v>
       </c>
       <c r="D5" t="n">
-        <v>319.15</v>
+        <v>1061.25</v>
       </c>
       <c r="E5" t="n">
-        <v>324.95</v>
+        <v>1063.8</v>
       </c>
       <c r="F5" t="n">
-        <v>8631329</v>
+        <v>5386803</v>
       </c>
       <c r="G5" t="n">
-        <v>18611108</v>
+        <v>12324341</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5362270209812333</v>
+        <v>-0.5629135058823835</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>BAJFINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DMART</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4225</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4254</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4213.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4229</v>
+      </c>
+      <c r="F6" t="n">
+        <v>148520</v>
+      </c>
+      <c r="G6" t="n">
+        <v>310562</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5217702101351743</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>DMART</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PNB</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>122.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>121.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18350031</v>
+      </c>
+      <c r="G7" t="n">
+        <v>37123841</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5057076394654314</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1283.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1319</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1278</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1316.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>452019</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966046</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5320937098233417</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2413.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2447</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2405.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2445.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>125530</v>
+      </c>
+      <c r="G9" t="n">
+        <v>271050</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5368751152923815</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2424.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2454</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2410</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2449</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2308131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5690046</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5943563549398371</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1308.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1324.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1295.7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1323.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>643943</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1303001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5058000722946491</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>41150</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41415</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>41370</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9873</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23929</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5874044046972293</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>804</v>
+      </c>
+      <c r="C13" t="n">
+        <v>810.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>793.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>806.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4077629</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8948361</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.54431554560662</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1714.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1705</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F14" t="n">
+        <v>175253</v>
+      </c>
+      <c r="G14" t="n">
+        <v>428250</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5907694103911266</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>268.45</v>
+      </c>
+      <c r="C15" t="n">
+        <v>270.76</v>
+      </c>
+      <c r="D15" t="n">
+        <v>266.04</v>
+      </c>
+      <c r="E15" t="n">
+        <v>267.98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9391552</v>
+      </c>
+      <c r="G15" t="n">
+        <v>21647191</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5661537794903736</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>140.64</v>
+      </c>
+      <c r="D16" t="n">
+        <v>138.45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8637758</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21334243</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.595122357985704</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>236.42</v>
+      </c>
+      <c r="D17" t="n">
+        <v>233.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>234.61</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7589866</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15860246</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5214534503437084</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>148</v>
+      </c>
+      <c r="C18" t="n">
+        <v>148.23</v>
+      </c>
+      <c r="D18" t="n">
+        <v>145.37</v>
+      </c>
+      <c r="E18" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7276992</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15194370</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5210731343254114</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>385.95</v>
+      </c>
+      <c r="C19" t="n">
+        <v>389.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>379.35</v>
+      </c>
+      <c r="E19" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8329384</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20602382</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.595707719621935</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
         </is>
       </c>
     </row>
@@ -624,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,561 +1144,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9100</v>
+        <v>723.7</v>
       </c>
       <c r="C2" t="n">
-        <v>9130</v>
+        <v>741.9</v>
       </c>
       <c r="D2" t="n">
-        <v>9019</v>
+        <v>717.4</v>
       </c>
       <c r="E2" t="n">
-        <v>9057</v>
+        <v>739</v>
       </c>
       <c r="F2" t="n">
-        <v>459991</v>
+        <v>10246214</v>
       </c>
       <c r="G2" t="n">
-        <v>310061</v>
+        <v>7071903</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4835500111268428</v>
+        <v>0.4488623500633422</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420.5</v>
+        <v>1299</v>
       </c>
       <c r="C3" t="n">
-        <v>421.65</v>
+        <v>1301.5</v>
       </c>
       <c r="D3" t="n">
-        <v>415.9</v>
+        <v>1235</v>
       </c>
       <c r="E3" t="n">
-        <v>417.85</v>
+        <v>1258.4</v>
       </c>
       <c r="F3" t="n">
-        <v>17163147</v>
+        <v>2574921</v>
       </c>
       <c r="G3" t="n">
-        <v>11603679</v>
+        <v>1828290</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4791125297416449</v>
+        <v>0.4083766798483829</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>DRREDDY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.95</v>
+        <v>341.9</v>
       </c>
       <c r="C4" t="n">
-        <v>398.2</v>
+        <v>349</v>
       </c>
       <c r="D4" t="n">
-        <v>389.35</v>
+        <v>340.85</v>
       </c>
       <c r="E4" t="n">
-        <v>391.5</v>
+        <v>348.55</v>
       </c>
       <c r="F4" t="n">
-        <v>7672258</v>
+        <v>9756868</v>
       </c>
       <c r="G4" t="n">
-        <v>5438773</v>
+        <v>6156249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4106597204921036</v>
+        <v>0.5848722168320353</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4800.6</v>
+        <v>774.1</v>
       </c>
       <c r="C5" t="n">
-        <v>4828.4</v>
+        <v>786.5</v>
       </c>
       <c r="D5" t="n">
-        <v>4692.5</v>
+        <v>772.05</v>
       </c>
       <c r="E5" t="n">
-        <v>4733</v>
+        <v>782.6</v>
       </c>
       <c r="F5" t="n">
-        <v>616890</v>
+        <v>2757524</v>
       </c>
       <c r="G5" t="n">
-        <v>414172</v>
+        <v>1775002</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4894536569348</v>
+        <v>0.5535328974277212</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130.39</v>
+        <v>1120</v>
       </c>
       <c r="C6" t="n">
-        <v>131.77</v>
+        <v>1123.6</v>
       </c>
       <c r="D6" t="n">
-        <v>127.75</v>
+        <v>1105</v>
       </c>
       <c r="E6" t="n">
-        <v>130.1</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="n">
-        <v>44849817</v>
+        <v>2535908</v>
       </c>
       <c r="G6" t="n">
-        <v>30460506</v>
+        <v>1725668</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4723923824509021</v>
+        <v>0.4695225269287024</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400.25</v>
+        <v>238.44</v>
       </c>
       <c r="C7" t="n">
-        <v>401.85</v>
+        <v>246.7</v>
       </c>
       <c r="D7" t="n">
-        <v>396.1</v>
+        <v>237</v>
       </c>
       <c r="E7" t="n">
-        <v>399.05</v>
+        <v>246.13</v>
       </c>
       <c r="F7" t="n">
-        <v>3949368</v>
+        <v>14046107</v>
       </c>
       <c r="G7" t="n">
-        <v>2799280</v>
+        <v>9973722</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4108513617787431</v>
+        <v>0.4083114608568396</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>BHEL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730</v>
+        <v>1699.9</v>
       </c>
       <c r="C8" t="n">
-        <v>731.45</v>
+        <v>1715</v>
       </c>
       <c r="D8" t="n">
-        <v>717.4</v>
+        <v>1684.4</v>
       </c>
       <c r="E8" t="n">
-        <v>722</v>
+        <v>1714</v>
       </c>
       <c r="F8" t="n">
-        <v>2309934</v>
+        <v>453633</v>
       </c>
       <c r="G8" t="n">
-        <v>1573062</v>
+        <v>306784</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4684316320653604</v>
+        <v>0.4786722906018567</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>IRB</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>481.4</v>
+        <v>44.75</v>
       </c>
       <c r="C9" t="n">
-        <v>481.4</v>
+        <v>44.91</v>
       </c>
       <c r="D9" t="n">
-        <v>468.2</v>
+        <v>43.9</v>
       </c>
       <c r="E9" t="n">
-        <v>471.5</v>
+        <v>44.81</v>
       </c>
       <c r="F9" t="n">
-        <v>5637647</v>
+        <v>7641788</v>
       </c>
       <c r="G9" t="n">
-        <v>3767112</v>
+        <v>5397837</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4965435060067235</v>
+        <v>0.4157129976321997</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>IRB</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.9</v>
+        <v>1526</v>
       </c>
       <c r="C10" t="n">
-        <v>147.73</v>
+        <v>1545.4</v>
       </c>
       <c r="D10" t="n">
-        <v>144.7</v>
+        <v>1509.8</v>
       </c>
       <c r="E10" t="n">
-        <v>147.4</v>
+        <v>1519.6</v>
       </c>
       <c r="F10" t="n">
-        <v>15194370</v>
+        <v>1137033</v>
       </c>
       <c r="G10" t="n">
-        <v>10145527</v>
+        <v>738454</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4976422614616274</v>
+        <v>0.5397479057598713</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>256</v>
-      </c>
-      <c r="C11" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>253.72</v>
-      </c>
-      <c r="E11" t="n">
-        <v>258.77</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6379166</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4262941</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.496423713112614</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>595.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>601.65</v>
-      </c>
-      <c r="D12" t="n">
-        <v>592.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>601.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1169233</v>
-      </c>
-      <c r="G12" t="n">
-        <v>804991</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4524795929395484</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1766.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1793.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1753.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1776</v>
-      </c>
-      <c r="F13" t="n">
-        <v>438596</v>
-      </c>
-      <c r="G13" t="n">
-        <v>280131</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5656817703146028</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IGL</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>213.47</v>
-      </c>
-      <c r="C14" t="n">
-        <v>213.89</v>
-      </c>
-      <c r="D14" t="n">
-        <v>208.89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>210.58</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2413492</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1557159</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5499329227137369</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>IGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IIFL</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>506</v>
-      </c>
-      <c r="C15" t="n">
-        <v>520</v>
-      </c>
-      <c r="D15" t="n">
-        <v>505.85</v>
-      </c>
-      <c r="E15" t="n">
-        <v>513.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2383613</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1658725</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4370151773199294</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>IIFL</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>901</v>
-      </c>
-      <c r="C16" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>901</v>
-      </c>
-      <c r="E16" t="n">
-        <v>903.85</v>
-      </c>
-      <c r="F16" t="n">
-        <v>453366</v>
-      </c>
-      <c r="G16" t="n">
-        <v>314412</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4419487805808939</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MANAPPURAM</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>275.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>274</v>
-      </c>
-      <c r="E17" t="n">
-        <v>277.65</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3653581</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2290776</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5949097598368414</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>MANAPPURAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>292.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>293</v>
-      </c>
-      <c r="D18" t="n">
-        <v>287.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>289.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4533574</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3112928</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4563696943841939</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,594 +484,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1690</v>
+        <v>12040</v>
       </c>
       <c r="C2" t="n">
-        <v>1722</v>
+        <v>12084</v>
       </c>
       <c r="D2" t="n">
-        <v>1687.3</v>
+        <v>11950</v>
       </c>
       <c r="E2" t="n">
-        <v>1710</v>
+        <v>12040</v>
       </c>
       <c r="F2" t="n">
-        <v>1016738</v>
+        <v>159943</v>
       </c>
       <c r="G2" t="n">
-        <v>2440939</v>
+        <v>394272</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5834643962835614</v>
+        <v>-0.5943333536238942</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4735</v>
+        <v>184.4</v>
       </c>
       <c r="C3" t="n">
-        <v>4788</v>
+        <v>185.19</v>
       </c>
       <c r="D3" t="n">
-        <v>4735</v>
+        <v>182.64</v>
       </c>
       <c r="E3" t="n">
-        <v>4781.1</v>
+        <v>184.45</v>
       </c>
       <c r="F3" t="n">
-        <v>305268</v>
+        <v>24270977</v>
       </c>
       <c r="G3" t="n">
-        <v>616890</v>
+        <v>51610530</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.50515002674707</v>
+        <v>-0.5297281969396556</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9090</v>
+        <v>349</v>
       </c>
       <c r="C4" t="n">
-        <v>9090</v>
+        <v>349</v>
       </c>
       <c r="D4" t="n">
-        <v>8960</v>
+        <v>343.45</v>
       </c>
       <c r="E4" t="n">
-        <v>9034.5</v>
+        <v>345.3</v>
       </c>
       <c r="F4" t="n">
-        <v>226605</v>
+        <v>6721032</v>
       </c>
       <c r="G4" t="n">
-        <v>459991</v>
+        <v>15423201</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5073707963851467</v>
+        <v>-0.5642258698437503</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1072</v>
+        <v>37500</v>
       </c>
       <c r="C5" t="n">
-        <v>1079.15</v>
+        <v>37570</v>
       </c>
       <c r="D5" t="n">
-        <v>1061.25</v>
+        <v>36970</v>
       </c>
       <c r="E5" t="n">
-        <v>1063.8</v>
+        <v>37240</v>
       </c>
       <c r="F5" t="n">
-        <v>5386803</v>
+        <v>24286</v>
       </c>
       <c r="G5" t="n">
-        <v>12324341</v>
+        <v>49599</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5629135058823835</v>
+        <v>-0.5103530313111151</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4225</v>
+        <v>2029.9</v>
       </c>
       <c r="C6" t="n">
-        <v>4254</v>
+        <v>2032.8</v>
       </c>
       <c r="D6" t="n">
-        <v>4213.2</v>
+        <v>2005</v>
       </c>
       <c r="E6" t="n">
-        <v>4229</v>
+        <v>2015</v>
       </c>
       <c r="F6" t="n">
-        <v>148520</v>
+        <v>213019</v>
       </c>
       <c r="G6" t="n">
-        <v>310562</v>
+        <v>420554</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5217702101351743</v>
+        <v>-0.4934800287240164</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.9</v>
+        <v>910.85</v>
       </c>
       <c r="C7" t="n">
-        <v>122.35</v>
+        <v>910.85</v>
       </c>
       <c r="D7" t="n">
-        <v>120.7</v>
+        <v>897.1</v>
       </c>
       <c r="E7" t="n">
-        <v>121.12</v>
+        <v>900.5</v>
       </c>
       <c r="F7" t="n">
-        <v>18350031</v>
+        <v>756385</v>
       </c>
       <c r="G7" t="n">
-        <v>37123841</v>
+        <v>1649697</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5057076394654314</v>
+        <v>-0.5415006513317294</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1283.9</v>
+        <v>87.14</v>
       </c>
       <c r="C8" t="n">
-        <v>1319</v>
+        <v>87.23</v>
       </c>
       <c r="D8" t="n">
-        <v>1278</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1316.4</v>
+        <v>86.2</v>
       </c>
       <c r="F8" t="n">
-        <v>452019</v>
+        <v>7400279</v>
       </c>
       <c r="G8" t="n">
-        <v>966046</v>
+        <v>17056980</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5320937098233417</v>
+        <v>-0.5661436549729202</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>CAMS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2413.6</v>
+        <v>3874.3</v>
       </c>
       <c r="C9" t="n">
-        <v>2447</v>
+        <v>3980</v>
       </c>
       <c r="D9" t="n">
-        <v>2405.9</v>
+        <v>3860</v>
       </c>
       <c r="E9" t="n">
-        <v>2445.1</v>
+        <v>3951</v>
       </c>
       <c r="F9" t="n">
-        <v>125530</v>
+        <v>663840</v>
       </c>
       <c r="G9" t="n">
-        <v>271050</v>
+        <v>1373940</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5368751152923815</v>
+        <v>-0.5168347962793135</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>CAMS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>ANGELONE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2424.9</v>
+        <v>2513</v>
       </c>
       <c r="C10" t="n">
-        <v>2454</v>
+        <v>2532.9</v>
       </c>
       <c r="D10" t="n">
-        <v>2410</v>
+        <v>2495.1</v>
       </c>
       <c r="E10" t="n">
-        <v>2449</v>
+        <v>2513</v>
       </c>
       <c r="F10" t="n">
-        <v>2308131</v>
+        <v>324753</v>
       </c>
       <c r="G10" t="n">
-        <v>5690046</v>
+        <v>716950</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5943563549398371</v>
+        <v>-0.5470353581142339</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>CDSL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.1</v>
+        <v>1613.8</v>
       </c>
       <c r="C11" t="n">
-        <v>1324.5</v>
+        <v>1625</v>
       </c>
       <c r="D11" t="n">
-        <v>1295.7</v>
+        <v>1607</v>
       </c>
       <c r="E11" t="n">
-        <v>1323.1</v>
+        <v>1613.7</v>
       </c>
       <c r="F11" t="n">
-        <v>643943</v>
+        <v>809134</v>
       </c>
       <c r="G11" t="n">
-        <v>1303001</v>
+        <v>1844623</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5058000722946491</v>
+        <v>-0.561355355538774</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>CDSL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>PGEL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41150</v>
+        <v>573.2</v>
       </c>
       <c r="C12" t="n">
-        <v>41415</v>
+        <v>579.85</v>
       </c>
       <c r="D12" t="n">
-        <v>40875</v>
+        <v>571.5</v>
       </c>
       <c r="E12" t="n">
-        <v>41370</v>
+        <v>573.15</v>
       </c>
       <c r="F12" t="n">
-        <v>9873</v>
+        <v>575389</v>
       </c>
       <c r="G12" t="n">
-        <v>23929</v>
+        <v>1259123</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5874044046972293</v>
+        <v>-0.5430239936844931</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>PGEL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804</v>
+        <v>9150.5</v>
       </c>
       <c r="C13" t="n">
-        <v>810.05</v>
+        <v>9173.5</v>
       </c>
       <c r="D13" t="n">
-        <v>793.8</v>
+        <v>9061</v>
       </c>
       <c r="E13" t="n">
-        <v>806.1</v>
+        <v>9096.5</v>
       </c>
       <c r="F13" t="n">
-        <v>4077629</v>
+        <v>194394</v>
       </c>
       <c r="G13" t="n">
-        <v>8948361</v>
+        <v>419900</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.54431554560662</v>
+        <v>-0.5370469159323649</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>MCX</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.7</v>
+        <v>487.8</v>
       </c>
       <c r="C14" t="n">
-        <v>1722</v>
+        <v>488.35</v>
       </c>
       <c r="D14" t="n">
-        <v>1705</v>
+        <v>480.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1720</v>
+        <v>482.75</v>
       </c>
       <c r="F14" t="n">
-        <v>175253</v>
+        <v>681219</v>
       </c>
       <c r="G14" t="n">
-        <v>428250</v>
+        <v>1654852</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5907694103911266</v>
+        <v>-0.5883504990174347</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LTF</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>268.45</v>
-      </c>
-      <c r="C15" t="n">
-        <v>270.76</v>
-      </c>
-      <c r="D15" t="n">
-        <v>266.04</v>
-      </c>
-      <c r="E15" t="n">
-        <v>267.98</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9391552</v>
-      </c>
-      <c r="G15" t="n">
-        <v>21647191</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5661537794903736</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>LTF</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>140.48</v>
-      </c>
-      <c r="C16" t="n">
-        <v>140.64</v>
-      </c>
-      <c r="D16" t="n">
-        <v>138.45</v>
-      </c>
-      <c r="E16" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8637758</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21334243</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.595122357985704</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FEDERALBNK</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>236.42</v>
-      </c>
-      <c r="D17" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>234.61</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7589866</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15860246</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5214534503437084</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>FEDERALBNK</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>148</v>
-      </c>
-      <c r="C18" t="n">
-        <v>148.23</v>
-      </c>
-      <c r="D18" t="n">
-        <v>145.37</v>
-      </c>
-      <c r="E18" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7276992</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15194370</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5210731343254114</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>INDUSTOWER</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>385.95</v>
-      </c>
-      <c r="C19" t="n">
-        <v>389.2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>379.35</v>
-      </c>
-      <c r="E19" t="n">
-        <v>381.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8329384</v>
-      </c>
-      <c r="G19" t="n">
-        <v>20602382</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.595707719621935</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>INDUSTOWER</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>
@@ -1144,66 +979,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>723.7</v>
+        <v>2140</v>
       </c>
       <c r="C2" t="n">
-        <v>741.9</v>
+        <v>2146</v>
       </c>
       <c r="D2" t="n">
-        <v>717.4</v>
+        <v>2101.3</v>
       </c>
       <c r="E2" t="n">
-        <v>739</v>
+        <v>2118</v>
       </c>
       <c r="F2" t="n">
-        <v>10246214</v>
+        <v>488305</v>
       </c>
       <c r="G2" t="n">
-        <v>7071903</v>
+        <v>343434</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4488623500633422</v>
+        <v>0.4218306865365689</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1299</v>
+        <v>2070</v>
       </c>
       <c r="C3" t="n">
-        <v>1301.5</v>
+        <v>2088</v>
       </c>
       <c r="D3" t="n">
-        <v>1235</v>
+        <v>2058.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1258.4</v>
+        <v>2069</v>
       </c>
       <c r="F3" t="n">
-        <v>2574921</v>
+        <v>4222189</v>
       </c>
       <c r="G3" t="n">
-        <v>1828290</v>
+        <v>2742750</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4083766798483829</v>
+        <v>0.5393998723908486</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
@@ -1214,25 +1049,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341.9</v>
+        <v>350</v>
       </c>
       <c r="C4" t="n">
-        <v>349</v>
+        <v>359.8</v>
       </c>
       <c r="D4" t="n">
-        <v>340.85</v>
+        <v>345.3</v>
       </c>
       <c r="E4" t="n">
-        <v>348.55</v>
+        <v>358.1</v>
       </c>
       <c r="F4" t="n">
+        <v>14807100</v>
+      </c>
+      <c r="G4" t="n">
         <v>9756868</v>
       </c>
-      <c r="G4" t="n">
-        <v>6156249</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.5848722168320353</v>
+        <v>0.5176079045037814</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1243,198 +1078,198 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>TATAELXSI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>774.1</v>
+        <v>5555</v>
       </c>
       <c r="C5" t="n">
-        <v>786.5</v>
+        <v>5587</v>
       </c>
       <c r="D5" t="n">
-        <v>772.05</v>
+        <v>5502.5</v>
       </c>
       <c r="E5" t="n">
-        <v>782.6</v>
+        <v>5540</v>
       </c>
       <c r="F5" t="n">
-        <v>2757524</v>
+        <v>123485</v>
       </c>
       <c r="G5" t="n">
-        <v>1775002</v>
+        <v>81128</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5535328974277212</v>
+        <v>0.5221008776254807</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>TATAELXSI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120</v>
+        <v>235.01</v>
       </c>
       <c r="C6" t="n">
-        <v>1123.6</v>
+        <v>237.44</v>
       </c>
       <c r="D6" t="n">
-        <v>1105</v>
+        <v>234.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>234.65</v>
       </c>
       <c r="F6" t="n">
-        <v>2535908</v>
+        <v>11944357</v>
       </c>
       <c r="G6" t="n">
-        <v>1725668</v>
+        <v>7589866</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4695225269287024</v>
+        <v>0.5737243582429519</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>VOLTAS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238.44</v>
+        <v>1410</v>
       </c>
       <c r="C7" t="n">
-        <v>246.7</v>
+        <v>1425.2</v>
       </c>
       <c r="D7" t="n">
-        <v>237</v>
+        <v>1400</v>
       </c>
       <c r="E7" t="n">
-        <v>246.13</v>
+        <v>1415.3</v>
       </c>
       <c r="F7" t="n">
-        <v>14046107</v>
+        <v>941460</v>
       </c>
       <c r="G7" t="n">
-        <v>9973722</v>
+        <v>613025</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4083114608568396</v>
+        <v>0.5357611842910158</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>VOLTAS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.9</v>
+        <v>385.3</v>
       </c>
       <c r="C8" t="n">
-        <v>1715</v>
+        <v>385.85</v>
       </c>
       <c r="D8" t="n">
-        <v>1684.4</v>
+        <v>377.6</v>
       </c>
       <c r="E8" t="n">
-        <v>1714</v>
+        <v>383.2</v>
       </c>
       <c r="F8" t="n">
-        <v>453633</v>
+        <v>3586392</v>
       </c>
       <c r="G8" t="n">
-        <v>306784</v>
+        <v>2270512</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4786722906018567</v>
+        <v>0.57955210102391</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>YESBANK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.75</v>
+        <v>22.75</v>
       </c>
       <c r="C9" t="n">
-        <v>44.91</v>
+        <v>22.75</v>
       </c>
       <c r="D9" t="n">
-        <v>43.9</v>
+        <v>22.2</v>
       </c>
       <c r="E9" t="n">
-        <v>44.81</v>
+        <v>22.24</v>
       </c>
       <c r="F9" t="n">
-        <v>7641788</v>
+        <v>80860184</v>
       </c>
       <c r="G9" t="n">
-        <v>5397837</v>
+        <v>56148847</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4157129976321997</v>
+        <v>0.4401040861978875</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>YESBANK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1526</v>
+        <v>912</v>
       </c>
       <c r="C10" t="n">
-        <v>1545.4</v>
+        <v>915</v>
       </c>
       <c r="D10" t="n">
-        <v>1509.8</v>
+        <v>883.1</v>
       </c>
       <c r="E10" t="n">
-        <v>1519.6</v>
+        <v>886</v>
       </c>
       <c r="F10" t="n">
-        <v>1137033</v>
+        <v>1323903</v>
       </c>
       <c r="G10" t="n">
-        <v>738454</v>
+        <v>900250</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5397479057598713</v>
+        <v>0.47059483476812</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,429 +484,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12040</v>
+        <v>4001.1</v>
       </c>
       <c r="C2" t="n">
-        <v>12084</v>
+        <v>4045.9</v>
       </c>
       <c r="D2" t="n">
-        <v>11950</v>
+        <v>3980.2</v>
       </c>
       <c r="E2" t="n">
-        <v>12040</v>
+        <v>4028</v>
       </c>
       <c r="F2" t="n">
-        <v>159943</v>
+        <v>2328183</v>
       </c>
       <c r="G2" t="n">
-        <v>394272</v>
+        <v>4959400</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5943333536238942</v>
+        <v>-0.5305514780013711</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.4</v>
+        <v>1202.5</v>
       </c>
       <c r="C3" t="n">
-        <v>185.19</v>
+        <v>1205.5</v>
       </c>
       <c r="D3" t="n">
-        <v>182.64</v>
+        <v>1191</v>
       </c>
       <c r="E3" t="n">
-        <v>184.45</v>
+        <v>1198</v>
       </c>
       <c r="F3" t="n">
-        <v>24270977</v>
+        <v>4250157</v>
       </c>
       <c r="G3" t="n">
-        <v>51610530</v>
+        <v>8883497</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5297281969396556</v>
+        <v>-0.5215671260991026</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>DRREDDY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>CGPOWER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349</v>
+        <v>735</v>
       </c>
       <c r="C4" t="n">
-        <v>349</v>
+        <v>743.15</v>
       </c>
       <c r="D4" t="n">
-        <v>343.45</v>
+        <v>726.6</v>
       </c>
       <c r="E4" t="n">
-        <v>345.3</v>
+        <v>735.85</v>
       </c>
       <c r="F4" t="n">
-        <v>6721032</v>
+        <v>2560022</v>
       </c>
       <c r="G4" t="n">
-        <v>15423201</v>
+        <v>5090803</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5642258698437503</v>
+        <v>-0.4971280562221717</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>CGPOWER</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37500</v>
+        <v>1145</v>
       </c>
       <c r="C5" t="n">
-        <v>37570</v>
+        <v>1159.5</v>
       </c>
       <c r="D5" t="n">
-        <v>36970</v>
+        <v>1125.1</v>
       </c>
       <c r="E5" t="n">
-        <v>37240</v>
+        <v>1135.9</v>
       </c>
       <c r="F5" t="n">
-        <v>24286</v>
+        <v>5725034</v>
       </c>
       <c r="G5" t="n">
-        <v>49599</v>
+        <v>11727335</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5103530313111151</v>
+        <v>-0.5118213984677679</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2029.9</v>
+        <v>358</v>
       </c>
       <c r="C6" t="n">
-        <v>2032.8</v>
+        <v>360.55</v>
       </c>
       <c r="D6" t="n">
-        <v>2005</v>
+        <v>355.1</v>
       </c>
       <c r="E6" t="n">
-        <v>2015</v>
+        <v>356.2</v>
       </c>
       <c r="F6" t="n">
-        <v>213019</v>
+        <v>7532962</v>
       </c>
       <c r="G6" t="n">
-        <v>420554</v>
+        <v>14807100</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4934800287240164</v>
+        <v>-0.491260138717237</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>910.85</v>
+        <v>1883</v>
       </c>
       <c r="C7" t="n">
-        <v>910.85</v>
+        <v>1904.8</v>
       </c>
       <c r="D7" t="n">
-        <v>897.1</v>
+        <v>1876</v>
       </c>
       <c r="E7" t="n">
-        <v>900.5</v>
+        <v>1891.9</v>
       </c>
       <c r="F7" t="n">
-        <v>756385</v>
+        <v>398054</v>
       </c>
       <c r="G7" t="n">
-        <v>1649697</v>
+        <v>854083</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5415006513317294</v>
+        <v>-0.5339399098214108</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.14</v>
+        <v>381.3</v>
       </c>
       <c r="C8" t="n">
-        <v>87.23</v>
+        <v>386.8</v>
       </c>
       <c r="D8" t="n">
-        <v>85.70999999999999</v>
+        <v>380</v>
       </c>
       <c r="E8" t="n">
-        <v>86.2</v>
+        <v>382.2</v>
       </c>
       <c r="F8" t="n">
-        <v>7400279</v>
+        <v>1778451</v>
       </c>
       <c r="G8" t="n">
-        <v>17056980</v>
+        <v>3586392</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5661436549729202</v>
+        <v>-0.5041113743282943</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3874.3</v>
+        <v>878.25</v>
       </c>
       <c r="C9" t="n">
-        <v>3980</v>
+        <v>882.75</v>
       </c>
       <c r="D9" t="n">
-        <v>3860</v>
+        <v>872.7</v>
       </c>
       <c r="E9" t="n">
-        <v>3951</v>
+        <v>876</v>
       </c>
       <c r="F9" t="n">
-        <v>663840</v>
+        <v>710153</v>
       </c>
       <c r="G9" t="n">
-        <v>1373940</v>
+        <v>1730444</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5168347962793135</v>
+        <v>-0.5896122613618239</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2513</v>
+        <v>1170</v>
       </c>
       <c r="C10" t="n">
-        <v>2532.9</v>
+        <v>1181.1</v>
       </c>
       <c r="D10" t="n">
-        <v>2495.1</v>
+        <v>1161.4</v>
       </c>
       <c r="E10" t="n">
-        <v>2513</v>
+        <v>1168</v>
       </c>
       <c r="F10" t="n">
-        <v>324753</v>
+        <v>385752</v>
       </c>
       <c r="G10" t="n">
-        <v>716950</v>
+        <v>879409</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5470353581142339</v>
+        <v>-0.56135086177194</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1613.8</v>
+        <v>95.2</v>
       </c>
       <c r="C11" t="n">
-        <v>1625</v>
+        <v>95.94</v>
       </c>
       <c r="D11" t="n">
-        <v>1607</v>
+        <v>93.7</v>
       </c>
       <c r="E11" t="n">
-        <v>1613.7</v>
+        <v>93.83</v>
       </c>
       <c r="F11" t="n">
-        <v>809134</v>
+        <v>12371529</v>
       </c>
       <c r="G11" t="n">
-        <v>1844623</v>
+        <v>26516655</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.561355355538774</v>
+        <v>-0.5334430756820572</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PGEL</t>
+          <t>INDUSTOWER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>573.2</v>
+        <v>367.75</v>
       </c>
       <c r="C12" t="n">
-        <v>579.85</v>
+        <v>371.35</v>
       </c>
       <c r="D12" t="n">
-        <v>571.5</v>
+        <v>362.8</v>
       </c>
       <c r="E12" t="n">
-        <v>573.15</v>
+        <v>364.05</v>
       </c>
       <c r="F12" t="n">
-        <v>575389</v>
+        <v>6866183</v>
       </c>
       <c r="G12" t="n">
-        <v>1259123</v>
+        <v>15575932</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5430239936844931</v>
+        <v>-0.5591799578991485</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PGEL</t>
+          <t>INDUSTOWER</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>BLUESTARCO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9150.5</v>
+        <v>1965</v>
       </c>
       <c r="C13" t="n">
-        <v>9173.5</v>
+        <v>1988</v>
       </c>
       <c r="D13" t="n">
-        <v>9061</v>
+        <v>1932</v>
       </c>
       <c r="E13" t="n">
-        <v>9096.5</v>
+        <v>1932.5</v>
       </c>
       <c r="F13" t="n">
-        <v>194394</v>
+        <v>127593</v>
       </c>
       <c r="G13" t="n">
-        <v>419900</v>
+        <v>256389</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5370469159323649</v>
+        <v>-0.502346044487088</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>BLUESTARCO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>AMBER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.8</v>
+        <v>8142.5</v>
       </c>
       <c r="C14" t="n">
-        <v>488.35</v>
+        <v>8176.5</v>
       </c>
       <c r="D14" t="n">
-        <v>480.4</v>
+        <v>8015</v>
       </c>
       <c r="E14" t="n">
-        <v>482.75</v>
+        <v>8033.5</v>
       </c>
       <c r="F14" t="n">
-        <v>681219</v>
+        <v>164814</v>
       </c>
       <c r="G14" t="n">
-        <v>1654852</v>
+        <v>362118</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5883504990174347</v>
+        <v>-0.5448610673868739</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>AMBER</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CAMS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3965</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3975</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3914.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3926.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>266911</v>
+      </c>
+      <c r="G15" t="n">
+        <v>663840</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5979287177633165</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CAMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NBCC</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>119.81</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11263219</v>
+      </c>
+      <c r="G16" t="n">
+        <v>24956240</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5486812516629107</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NBCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1102</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1091.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1097.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>652110</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1359143</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5202050115403604</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>
@@ -921,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,297 +1078,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2140</v>
+        <v>420.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2146</v>
+        <v>426.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2101.3</v>
+        <v>418.2</v>
       </c>
       <c r="E2" t="n">
-        <v>2118</v>
+        <v>419.95</v>
       </c>
       <c r="F2" t="n">
-        <v>488305</v>
+        <v>18599864</v>
       </c>
       <c r="G2" t="n">
-        <v>343434</v>
+        <v>12938674</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4218306865365689</v>
+        <v>0.4375401992507115</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2070</v>
+        <v>4745</v>
       </c>
       <c r="C3" t="n">
-        <v>2088</v>
+        <v>4748.9</v>
       </c>
       <c r="D3" t="n">
-        <v>2058.6</v>
+        <v>4685.2</v>
       </c>
       <c r="E3" t="n">
-        <v>2069</v>
+        <v>4697.3</v>
       </c>
       <c r="F3" t="n">
-        <v>4222189</v>
+        <v>498496</v>
       </c>
       <c r="G3" t="n">
-        <v>2742750</v>
+        <v>346569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5393998723908486</v>
+        <v>0.4383744651137292</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350</v>
+        <v>2146.9</v>
       </c>
       <c r="C4" t="n">
-        <v>359.8</v>
+        <v>2146.9</v>
       </c>
       <c r="D4" t="n">
-        <v>345.3</v>
+        <v>2100</v>
       </c>
       <c r="E4" t="n">
-        <v>358.1</v>
+        <v>2105.5</v>
       </c>
       <c r="F4" t="n">
-        <v>14807100</v>
+        <v>3786254</v>
       </c>
       <c r="G4" t="n">
-        <v>9756868</v>
+        <v>2487693</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5176079045037814</v>
+        <v>0.5219940724197077</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TATAELXSI</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5555</v>
+        <v>1760</v>
       </c>
       <c r="C5" t="n">
-        <v>5587</v>
+        <v>1794.9</v>
       </c>
       <c r="D5" t="n">
-        <v>5502.5</v>
+        <v>1759</v>
       </c>
       <c r="E5" t="n">
-        <v>5540</v>
+        <v>1777.1</v>
       </c>
       <c r="F5" t="n">
-        <v>123485</v>
+        <v>1586130</v>
       </c>
       <c r="G5" t="n">
-        <v>81128</v>
+        <v>1074751</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5221008776254807</v>
+        <v>0.4758116065953881</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TATAELXSI</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235.01</v>
+        <v>1316</v>
       </c>
       <c r="C6" t="n">
-        <v>237.44</v>
+        <v>1323</v>
       </c>
       <c r="D6" t="n">
-        <v>234.4</v>
+        <v>1301.5</v>
       </c>
       <c r="E6" t="n">
-        <v>234.65</v>
+        <v>1317.6</v>
       </c>
       <c r="F6" t="n">
-        <v>11944357</v>
+        <v>269394</v>
       </c>
       <c r="G6" t="n">
-        <v>7589866</v>
+        <v>172378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5737243582429519</v>
+        <v>0.5628096392811147</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1410</v>
+        <v>2100.6</v>
       </c>
       <c r="C7" t="n">
-        <v>1425.2</v>
+        <v>2109.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1400</v>
+        <v>2087.4</v>
       </c>
       <c r="E7" t="n">
-        <v>1415.3</v>
+        <v>2100</v>
       </c>
       <c r="F7" t="n">
-        <v>941460</v>
+        <v>304566</v>
       </c>
       <c r="G7" t="n">
-        <v>613025</v>
+        <v>213064</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5357611842910158</v>
+        <v>0.4294578154920587</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>385.3</v>
+        <v>4392</v>
       </c>
       <c r="C8" t="n">
-        <v>385.85</v>
+        <v>4399.7</v>
       </c>
       <c r="D8" t="n">
-        <v>377.6</v>
+        <v>4333</v>
       </c>
       <c r="E8" t="n">
-        <v>383.2</v>
+        <v>4351</v>
       </c>
       <c r="F8" t="n">
-        <v>3586392</v>
+        <v>677463</v>
       </c>
       <c r="G8" t="n">
-        <v>2270512</v>
+        <v>444822</v>
       </c>
       <c r="H8" t="n">
-        <v>0.57955210102391</v>
+        <v>0.522997963230236</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>OFSS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.75</v>
+        <v>8633.5</v>
       </c>
       <c r="C9" t="n">
-        <v>22.75</v>
+        <v>8637</v>
       </c>
       <c r="D9" t="n">
-        <v>22.2</v>
+        <v>8500</v>
       </c>
       <c r="E9" t="n">
-        <v>22.24</v>
+        <v>8525</v>
       </c>
       <c r="F9" t="n">
-        <v>80860184</v>
+        <v>111369</v>
       </c>
       <c r="G9" t="n">
-        <v>56148847</v>
+        <v>75010</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4401040861978875</v>
+        <v>0.4847220370617251</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>OFSS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>INOXWIND</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>912</v>
+        <v>154.55</v>
       </c>
       <c r="C10" t="n">
-        <v>915</v>
+        <v>157.26</v>
       </c>
       <c r="D10" t="n">
-        <v>883.1</v>
+        <v>154.26</v>
       </c>
       <c r="E10" t="n">
-        <v>886</v>
+        <v>154.77</v>
       </c>
       <c r="F10" t="n">
-        <v>1323903</v>
+        <v>6011244</v>
       </c>
       <c r="G10" t="n">
-        <v>900250</v>
+        <v>4118297</v>
       </c>
       <c r="H10" t="n">
-        <v>0.47059483476812</v>
+        <v>0.4596431486121569</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>INOXWIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7247</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7399</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7115</v>
+      </c>
+      <c r="F11" t="n">
+        <v>142339</v>
+      </c>
+      <c r="G11" t="n">
+        <v>101601</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.400960620466334</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,165 +484,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1502.9</v>
+        <v>420</v>
       </c>
       <c r="C2" t="n">
-        <v>1514.9</v>
+        <v>422.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1490.3</v>
+        <v>414.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1509.6</v>
+        <v>415.75</v>
       </c>
       <c r="F2" t="n">
-        <v>1505905</v>
+        <v>12831686</v>
       </c>
       <c r="G2" t="n">
-        <v>3365093</v>
+        <v>27222212</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5524923085335235</v>
+        <v>-0.5286317658535611</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KOTAKBANK</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2102.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2119.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2087.9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2110.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1531453</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3786254</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.5955229099790981</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>KOTAKBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EICHERMOT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7030</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7070</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6996.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7020</v>
-      </c>
-      <c r="F4" t="n">
-        <v>334962</v>
-      </c>
-      <c r="G4" t="n">
-        <v>670785</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.5006417853708715</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>EICHERMOT</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4030</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4041</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3974.9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3980.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1154072</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2328183</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.5043035706385623</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ITC</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>419.95</v>
-      </c>
-      <c r="C6" t="n">
-        <v>421.65</v>
-      </c>
-      <c r="D6" t="n">
-        <v>413.3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>414</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7635440</v>
-      </c>
-      <c r="G6" t="n">
-        <v>18599864</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.5894894715359209</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ITC</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
@@ -657,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,66 +583,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>762.8</v>
+        <v>1040</v>
       </c>
       <c r="C2" t="n">
-        <v>799.9</v>
+        <v>1060.4</v>
       </c>
       <c r="D2" t="n">
-        <v>758.5</v>
+        <v>1035</v>
       </c>
       <c r="E2" t="n">
-        <v>795.15</v>
+        <v>1054.7</v>
       </c>
       <c r="F2" t="n">
-        <v>26222030</v>
+        <v>6202540</v>
       </c>
       <c r="G2" t="n">
-        <v>18363853</v>
+        <v>4135617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4279154815713239</v>
+        <v>0.4997858844278859</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1226</v>
+        <v>1707</v>
       </c>
       <c r="C3" t="n">
-        <v>1241</v>
+        <v>1711.2</v>
       </c>
       <c r="D3" t="n">
-        <v>1222.3</v>
+        <v>1682.2</v>
       </c>
       <c r="E3" t="n">
-        <v>1233.1</v>
+        <v>1702.7</v>
       </c>
       <c r="F3" t="n">
-        <v>6118907</v>
+        <v>1597993</v>
       </c>
       <c r="G3" t="n">
-        <v>4106607</v>
+        <v>1099955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.490015236422672</v>
+        <v>0.4527803410139506</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>SUNPHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1479.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1481.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1462.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1468</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8691330</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5470600</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5887343253025262</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EICHERMOT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7050</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7060</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6906.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6917</v>
+      </c>
+      <c r="F5" t="n">
+        <v>494329</v>
+      </c>
+      <c r="G5" t="n">
+        <v>334962</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4757763567210609</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,39 +478,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filterdata</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BEL</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>420</v>
-      </c>
-      <c r="C2" t="n">
-        <v>422.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>414.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>415.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12831686</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27222212</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.5286317658535611</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BEL</t>
         </is>
       </c>
     </row>
@@ -525,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,138 +547,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BAJFINANCE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1060.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1054.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6202540</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4135617</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4997858844278859</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BAJFINANCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SUNPHARMA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1707</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1711.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1682.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1702.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1597993</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1099955</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4527803410139506</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SUNPHARMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>INFY</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1479.7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1481.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1462.9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1468</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8691330</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5470600</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5887343253025262</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>INFY</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EICHERMOT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7050</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7060</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6906.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6917</v>
-      </c>
-      <c r="F5" t="n">
-        <v>494329</v>
-      </c>
-      <c r="G5" t="n">
-        <v>334962</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4757763567210609</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>EICHERMOT</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,237 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filterdata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SOLARINDS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13700</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13713</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13350</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13410</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75461</v>
+      </c>
+      <c r="G2" t="n">
+        <v>149622</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.4956557190787451</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SOLARINDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5352.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5408.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5305</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5322</v>
+      </c>
+      <c r="F3" t="n">
+        <v>815323</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2003141</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.5929777284774262</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1604.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1612</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1581.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1581.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>471640</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1155844</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.5919518550946321</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SUZLON</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>147235071</v>
+      </c>
+      <c r="G5" t="n">
+        <v>317089760</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.535667531490137</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SUZLON</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>142</v>
+      </c>
+      <c r="C6" t="n">
+        <v>142.46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>139.77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>140.05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8872753</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21244500</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5823505848572572</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1859.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1859.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1805</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1808.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>356061</v>
+      </c>
+      <c r="G7" t="n">
+        <v>707890</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4970108350167399</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1529.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1538.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1517</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1532</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1409286</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3060056</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5394574478375559</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CDSL</t>
         </is>
       </c>
     </row>
@@ -492,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +778,468 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1278.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1260.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1272.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1171263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>770668</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5198023013801014</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DRREDDY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1213.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1193.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1560897</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1015516</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5370481607379893</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DRREDDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HCLTECH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1529.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1531.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1514.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1527</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2474769</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1666863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4846865039298371</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HCLTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1342.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1317.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1320.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24221853</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15211183</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5923714151621212</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NAUKRI</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1325.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1350.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1317.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1327</v>
+      </c>
+      <c r="F6" t="n">
+        <v>855886</v>
+      </c>
+      <c r="G6" t="n">
+        <v>606779</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4105399165099649</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NAUKRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RECLTD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>362</v>
+      </c>
+      <c r="E7" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9880195</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6215083</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5897124784978737</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>RECLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DMART</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4182.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4191.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4071.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4089</v>
+      </c>
+      <c r="F8" t="n">
+        <v>487314</v>
+      </c>
+      <c r="G8" t="n">
+        <v>314080</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5515601120733571</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DMART</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1475.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1485.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1439.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1209100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>776103</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.557911772019951</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2763.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2786</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2743.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2772</v>
+      </c>
+      <c r="F10" t="n">
+        <v>354396</v>
+      </c>
+      <c r="G10" t="n">
+        <v>225861</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5690889529400827</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2949.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2894.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2897</v>
+      </c>
+      <c r="F11" t="n">
+        <v>232346</v>
+      </c>
+      <c r="G11" t="n">
+        <v>154862</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5003422401880384</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>283.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>283.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>274</v>
+      </c>
+      <c r="E12" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1791494</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1146375</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5627469196379893</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>715.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>717.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>702.95</v>
+      </c>
+      <c r="E13" t="n">
+        <v>703.45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>501782</v>
+      </c>
+      <c r="G13" t="n">
+        <v>333642</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5039533392078935</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>IRCTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>266.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>277.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>274</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9529258</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6000539</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5880670053140227</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>569.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>572.45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>547.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>551</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1529475</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1006850</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5190693747827383</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,231 +484,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13700</v>
+        <v>1694</v>
       </c>
       <c r="C2" t="n">
-        <v>13713</v>
+        <v>1710</v>
       </c>
       <c r="D2" t="n">
-        <v>13350</v>
+        <v>1683.1</v>
       </c>
       <c r="E2" t="n">
-        <v>13410</v>
+        <v>1692.7</v>
       </c>
       <c r="F2" t="n">
-        <v>75461</v>
+        <v>1512908</v>
       </c>
       <c r="G2" t="n">
-        <v>149622</v>
+        <v>3389867</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4956557190787451</v>
+        <v>-0.5536969444523929</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5352.5</v>
+        <v>1264</v>
       </c>
       <c r="C3" t="n">
-        <v>5408.5</v>
+        <v>1270.9</v>
       </c>
       <c r="D3" t="n">
-        <v>5305</v>
+        <v>1256.4</v>
       </c>
       <c r="E3" t="n">
-        <v>5322</v>
+        <v>1262.8</v>
       </c>
       <c r="F3" t="n">
-        <v>815323</v>
+        <v>596683</v>
       </c>
       <c r="G3" t="n">
-        <v>2003141</v>
+        <v>1171263</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5929777284774262</v>
+        <v>-0.4905644590497608</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1604.8</v>
+        <v>1494.6</v>
       </c>
       <c r="C4" t="n">
-        <v>1612</v>
+        <v>1498.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1581.2</v>
+        <v>1475.9</v>
       </c>
       <c r="E4" t="n">
-        <v>1581.2</v>
+        <v>1480</v>
       </c>
       <c r="F4" t="n">
-        <v>471640</v>
+        <v>7821765</v>
       </c>
       <c r="G4" t="n">
-        <v>1155844</v>
+        <v>16772678</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5919518550946321</v>
+        <v>-0.5336603373653271</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>RELIANCE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.5</v>
+        <v>1400.1</v>
       </c>
       <c r="C5" t="n">
-        <v>61.5</v>
+        <v>1409.8</v>
       </c>
       <c r="D5" t="n">
-        <v>59.46</v>
+        <v>1385</v>
       </c>
       <c r="E5" t="n">
-        <v>59.5</v>
+        <v>1387.2</v>
       </c>
       <c r="F5" t="n">
-        <v>147235071</v>
+        <v>1209479</v>
       </c>
       <c r="G5" t="n">
-        <v>317089760</v>
+        <v>2502412</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.535667531490137</v>
+        <v>-0.5166747122376332</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142</v>
+        <v>1416.5</v>
       </c>
       <c r="C6" t="n">
-        <v>142.46</v>
+        <v>1433.7</v>
       </c>
       <c r="D6" t="n">
-        <v>139.77</v>
+        <v>1404</v>
       </c>
       <c r="E6" t="n">
-        <v>140.05</v>
+        <v>1428.8</v>
       </c>
       <c r="F6" t="n">
-        <v>8872753</v>
+        <v>507698</v>
       </c>
       <c r="G6" t="n">
-        <v>21244500</v>
+        <v>1003182</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5823505848572572</v>
+        <v>-0.4939123708359999</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1859.9</v>
+        <v>1444</v>
       </c>
       <c r="C7" t="n">
-        <v>1859.9</v>
+        <v>1466.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1805</v>
+        <v>1431.3</v>
       </c>
       <c r="E7" t="n">
-        <v>1808.3</v>
+        <v>1450</v>
       </c>
       <c r="F7" t="n">
-        <v>356061</v>
+        <v>586545</v>
       </c>
       <c r="G7" t="n">
-        <v>707890</v>
+        <v>1209100</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4970108350167399</v>
+        <v>-0.5148912414192375</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>HAVELLS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.9</v>
+        <v>36985</v>
       </c>
       <c r="C8" t="n">
-        <v>1538.5</v>
+        <v>37100</v>
       </c>
       <c r="D8" t="n">
-        <v>1517</v>
+        <v>36610</v>
       </c>
       <c r="E8" t="n">
-        <v>1532</v>
+        <v>36800</v>
       </c>
       <c r="F8" t="n">
-        <v>1409286</v>
+        <v>13122</v>
       </c>
       <c r="G8" t="n">
-        <v>3060056</v>
+        <v>28881</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5394574478375559</v>
+        <v>-0.5456528513555625</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>BOSCHLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INDHOTEL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>697</v>
+      </c>
+      <c r="C9" t="n">
+        <v>698.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>672.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>691.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5546394</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12158028</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5438080912463765</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>INDHOTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LTIM</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5635</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5638</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5508.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5575</v>
+      </c>
+      <c r="F10" t="n">
+        <v>129338</v>
+      </c>
+      <c r="G10" t="n">
+        <v>315445</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5899824058076686</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>LTIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3759.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3792.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3722</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3768</v>
+      </c>
+      <c r="F11" t="n">
+        <v>146865</v>
+      </c>
+      <c r="G11" t="n">
+        <v>338796</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5665090496936209</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>404.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>391</v>
+      </c>
+      <c r="E12" t="n">
+        <v>400</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6409878</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14237144</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.549777820607841</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1315</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1320.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1301.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1317.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>457443</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1108499</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.58733115681656</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DALBHARAT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2057.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2057.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2029.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2042.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>88271</v>
+      </c>
+      <c r="G14" t="n">
+        <v>196404</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5505641432964705</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DALBHARAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DABUR</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>522</v>
+      </c>
+      <c r="C15" t="n">
+        <v>522</v>
+      </c>
+      <c r="D15" t="n">
+        <v>512.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>519</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1754801</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3911239</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5513439603153886</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DABUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2193.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2196.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2136.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2139</v>
+      </c>
+      <c r="F16" t="n">
+        <v>591444</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1250187</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5269155734302149</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>553</v>
+      </c>
+      <c r="C17" t="n">
+        <v>557.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>550.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>307900</v>
+      </c>
+      <c r="G17" t="n">
+        <v>696917</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5581970306363598</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7310.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7396</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7064.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7280</v>
+      </c>
+      <c r="F18" t="n">
+        <v>197526</v>
+      </c>
+      <c r="G18" t="n">
+        <v>397795</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5034477557535917</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>
@@ -723,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,462 +1111,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265</v>
+        <v>1060.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.9</v>
+        <v>1075.1</v>
       </c>
       <c r="D2" t="n">
-        <v>1260.1</v>
+        <v>1040</v>
       </c>
       <c r="E2" t="n">
-        <v>1272.9</v>
+        <v>1059</v>
       </c>
       <c r="F2" t="n">
-        <v>1171263</v>
+        <v>3615119</v>
       </c>
       <c r="G2" t="n">
-        <v>770668</v>
+        <v>2533556</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5198023013801014</v>
+        <v>0.4268952413130004</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1202</v>
+        <v>27400</v>
       </c>
       <c r="C3" t="n">
-        <v>1213.9</v>
+        <v>27760</v>
       </c>
       <c r="D3" t="n">
-        <v>1193.2</v>
+        <v>27210</v>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>27400</v>
       </c>
       <c r="F3" t="n">
-        <v>1560897</v>
+        <v>23046</v>
       </c>
       <c r="G3" t="n">
-        <v>1015516</v>
+        <v>15109</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5370481607379893</v>
+        <v>0.5253160367992588</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1529.1</v>
+        <v>9.27</v>
       </c>
       <c r="C4" t="n">
-        <v>1531.9</v>
+        <v>9.73</v>
       </c>
       <c r="D4" t="n">
-        <v>1514.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1527</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2474769</v>
+        <v>1075464880</v>
       </c>
       <c r="G4" t="n">
-        <v>1666863</v>
+        <v>731445657</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4846865039298371</v>
+        <v>0.4703277949738377</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>IDEA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330</v>
+        <v>603</v>
       </c>
       <c r="C5" t="n">
-        <v>1342.2</v>
+        <v>616.95</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.4</v>
+        <v>599.85</v>
       </c>
       <c r="E5" t="n">
-        <v>1320.3</v>
+        <v>616.95</v>
       </c>
       <c r="F5" t="n">
-        <v>24221853</v>
+        <v>815618</v>
       </c>
       <c r="G5" t="n">
-        <v>15211183</v>
+        <v>563718</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5923714151621212</v>
+        <v>0.446854632990254</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325.1</v>
+        <v>149.1</v>
       </c>
       <c r="C6" t="n">
-        <v>1350.1</v>
+        <v>153.66</v>
       </c>
       <c r="D6" t="n">
-        <v>1317.3</v>
+        <v>147.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1327</v>
+        <v>153.15</v>
       </c>
       <c r="F6" t="n">
-        <v>855886</v>
+        <v>14462530</v>
       </c>
       <c r="G6" t="n">
-        <v>606779</v>
+        <v>10296779</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4105399165099649</v>
+        <v>0.4045683606494808</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.5</v>
+        <v>94.3</v>
       </c>
       <c r="C7" t="n">
-        <v>372.7</v>
+        <v>96.3</v>
       </c>
       <c r="D7" t="n">
-        <v>362</v>
+        <v>94</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8</v>
+        <v>95.7</v>
       </c>
       <c r="F7" t="n">
-        <v>9880195</v>
+        <v>17206733</v>
       </c>
       <c r="G7" t="n">
-        <v>6215083</v>
+        <v>11103563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5897124784978737</v>
+        <v>0.5496586996444295</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4182.4</v>
+        <v>1740.2</v>
       </c>
       <c r="C8" t="n">
-        <v>4191.4</v>
+        <v>1785.6</v>
       </c>
       <c r="D8" t="n">
-        <v>4071.9</v>
+        <v>1727.5</v>
       </c>
       <c r="E8" t="n">
-        <v>4089</v>
+        <v>1761.1</v>
       </c>
       <c r="F8" t="n">
-        <v>487314</v>
+        <v>680512</v>
       </c>
       <c r="G8" t="n">
-        <v>314080</v>
+        <v>476612</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5515601120733571</v>
+        <v>0.4278113014359689</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1475.1</v>
+        <v>235</v>
       </c>
       <c r="C9" t="n">
-        <v>1485.1</v>
+        <v>238</v>
       </c>
       <c r="D9" t="n">
-        <v>1439.2</v>
+        <v>232.42</v>
       </c>
       <c r="E9" t="n">
-        <v>1444</v>
+        <v>237.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1209100</v>
+        <v>7026019</v>
       </c>
       <c r="G9" t="n">
-        <v>776103</v>
+        <v>4895857</v>
       </c>
       <c r="H9" t="n">
-        <v>0.557911772019951</v>
+        <v>0.4350948158820815</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2763.9</v>
+        <v>1801.4</v>
       </c>
       <c r="C10" t="n">
-        <v>2786</v>
+        <v>1829.4</v>
       </c>
       <c r="D10" t="n">
-        <v>2743.6</v>
+        <v>1801.4</v>
       </c>
       <c r="E10" t="n">
-        <v>2772</v>
+        <v>1822.4</v>
       </c>
       <c r="F10" t="n">
-        <v>354396</v>
+        <v>553200</v>
       </c>
       <c r="G10" t="n">
-        <v>225861</v>
+        <v>356061</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5690889529400827</v>
+        <v>0.5536663661563609</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>ALKEM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2940</v>
+        <v>5644.5</v>
       </c>
       <c r="C11" t="n">
-        <v>2949.4</v>
+        <v>5687.5</v>
       </c>
       <c r="D11" t="n">
-        <v>2894.4</v>
+        <v>5571.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2897</v>
+        <v>5670</v>
       </c>
       <c r="F11" t="n">
-        <v>232346</v>
+        <v>226721</v>
       </c>
       <c r="G11" t="n">
-        <v>154862</v>
+        <v>152300</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5003422401880384</v>
+        <v>0.4886474064346684</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>ALKEM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>283.3</v>
+        <v>246.14</v>
       </c>
       <c r="C12" t="n">
-        <v>283.3</v>
+        <v>247.74</v>
       </c>
       <c r="D12" t="n">
-        <v>274</v>
+        <v>241.85</v>
       </c>
       <c r="E12" t="n">
-        <v>275.4</v>
+        <v>246</v>
       </c>
       <c r="F12" t="n">
-        <v>1791494</v>
+        <v>5292476</v>
       </c>
       <c r="G12" t="n">
-        <v>1146375</v>
+        <v>3367756</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5627469196379893</v>
+        <v>0.5715140883128113</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>IRCTC</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>715.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>717.65</v>
-      </c>
-      <c r="D13" t="n">
-        <v>702.95</v>
-      </c>
-      <c r="E13" t="n">
-        <v>703.45</v>
-      </c>
-      <c r="F13" t="n">
-        <v>501782</v>
-      </c>
-      <c r="G13" t="n">
-        <v>333642</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5039533392078935</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>IRCTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MANAPPURAM</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>277.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>274</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9529258</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6000539</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5880670053140227</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>MANAPPURAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PGEL</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>569.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>572.45</v>
-      </c>
-      <c r="D15" t="n">
-        <v>547.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>551</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1529475</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1006850</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5190693747827383</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>PGEL</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,561 +484,693 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1694</v>
+        <v>2738</v>
       </c>
       <c r="C2" t="n">
-        <v>1710</v>
+        <v>2789</v>
       </c>
       <c r="D2" t="n">
-        <v>1683.1</v>
+        <v>2728.7</v>
       </c>
       <c r="E2" t="n">
-        <v>1692.7</v>
+        <v>2762</v>
       </c>
       <c r="F2" t="n">
-        <v>1512908</v>
+        <v>489522</v>
       </c>
       <c r="G2" t="n">
-        <v>3389867</v>
+        <v>1101889</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5536969444523929</v>
+        <v>-0.5557429105835524</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>GRASIM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1264</v>
+        <v>792</v>
       </c>
       <c r="C3" t="n">
-        <v>1270.9</v>
+        <v>799.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1256.4</v>
+        <v>783.85</v>
       </c>
       <c r="E3" t="n">
-        <v>1262.8</v>
+        <v>784.9</v>
       </c>
       <c r="F3" t="n">
-        <v>596683</v>
+        <v>5914226</v>
       </c>
       <c r="G3" t="n">
-        <v>1171263</v>
+        <v>13189011</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4905644590497608</v>
+        <v>-0.5515792654961013</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1494.6</v>
+        <v>6700</v>
       </c>
       <c r="C4" t="n">
-        <v>1498.4</v>
+        <v>6748</v>
       </c>
       <c r="D4" t="n">
-        <v>1475.9</v>
+        <v>6636.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1480</v>
+        <v>6706</v>
       </c>
       <c r="F4" t="n">
-        <v>7821765</v>
+        <v>418569</v>
       </c>
       <c r="G4" t="n">
-        <v>16772678</v>
+        <v>855609</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5336603373653271</v>
+        <v>-0.5107940659810731</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1400.1</v>
+        <v>2020.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1409.8</v>
+        <v>2045</v>
       </c>
       <c r="D5" t="n">
-        <v>1385</v>
+        <v>2001</v>
       </c>
       <c r="E5" t="n">
-        <v>1387.2</v>
+        <v>2021.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1209479</v>
+        <v>431101</v>
       </c>
       <c r="G5" t="n">
-        <v>2502412</v>
+        <v>882415</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5166747122376332</v>
+        <v>-0.5114532277896454</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1416.5</v>
+        <v>965.55</v>
       </c>
       <c r="C6" t="n">
-        <v>1433.7</v>
+        <v>972.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1404</v>
+        <v>955.1</v>
       </c>
       <c r="E6" t="n">
-        <v>1428.8</v>
+        <v>959</v>
       </c>
       <c r="F6" t="n">
-        <v>507698</v>
+        <v>674839</v>
       </c>
       <c r="G6" t="n">
-        <v>1003182</v>
+        <v>1384632</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4939123708359999</v>
+        <v>-0.512622126312262</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1444</v>
+        <v>365.25</v>
       </c>
       <c r="C7" t="n">
-        <v>1466.5</v>
+        <v>367.15</v>
       </c>
       <c r="D7" t="n">
-        <v>1431.3</v>
+        <v>362</v>
       </c>
       <c r="E7" t="n">
-        <v>1450</v>
+        <v>362.75</v>
       </c>
       <c r="F7" t="n">
-        <v>586545</v>
+        <v>2951020</v>
       </c>
       <c r="G7" t="n">
-        <v>1209100</v>
+        <v>6342222</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5148912414192375</v>
+        <v>-0.5347025064717066</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>RECLTD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36985</v>
+        <v>378</v>
       </c>
       <c r="C8" t="n">
-        <v>37100</v>
+        <v>381.65</v>
       </c>
       <c r="D8" t="n">
-        <v>36610</v>
+        <v>374.3</v>
       </c>
       <c r="E8" t="n">
-        <v>36800</v>
+        <v>377.4</v>
       </c>
       <c r="F8" t="n">
-        <v>13122</v>
+        <v>7558172</v>
       </c>
       <c r="G8" t="n">
-        <v>28881</v>
+        <v>16021457</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5456528513555625</v>
+        <v>-0.5282469003911442</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>697</v>
+        <v>926.9</v>
       </c>
       <c r="C9" t="n">
-        <v>698.75</v>
+        <v>931.9</v>
       </c>
       <c r="D9" t="n">
-        <v>672.6</v>
+        <v>898</v>
       </c>
       <c r="E9" t="n">
-        <v>691.65</v>
+        <v>899.9</v>
       </c>
       <c r="F9" t="n">
-        <v>5546394</v>
+        <v>3204796</v>
       </c>
       <c r="G9" t="n">
-        <v>12158028</v>
+        <v>7699680</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5438080912463765</v>
+        <v>-0.5837754296282442</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5635</v>
+        <v>577.95</v>
       </c>
       <c r="C10" t="n">
-        <v>5638</v>
+        <v>588.9</v>
       </c>
       <c r="D10" t="n">
-        <v>5508.5</v>
+        <v>575.5</v>
       </c>
       <c r="E10" t="n">
-        <v>5575</v>
+        <v>587</v>
       </c>
       <c r="F10" t="n">
-        <v>129338</v>
+        <v>866793</v>
       </c>
       <c r="G10" t="n">
-        <v>315445</v>
+        <v>1703407</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5899824058076686</v>
+        <v>-0.4911415768515687</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3759.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>3792.9</v>
+        <v>82.72</v>
       </c>
       <c r="D11" t="n">
-        <v>3722</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>3768</v>
+        <v>82.52</v>
       </c>
       <c r="F11" t="n">
-        <v>146865</v>
+        <v>10235432</v>
       </c>
       <c r="G11" t="n">
-        <v>338796</v>
+        <v>21856711</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5665090496936209</v>
+        <v>-0.5317030087463754</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>396.5</v>
+        <v>2140</v>
       </c>
       <c r="C12" t="n">
-        <v>404.8</v>
+        <v>2182</v>
       </c>
       <c r="D12" t="n">
-        <v>391</v>
+        <v>2131.1</v>
       </c>
       <c r="E12" t="n">
-        <v>400</v>
+        <v>2166.7</v>
       </c>
       <c r="F12" t="n">
-        <v>6409878</v>
+        <v>276221</v>
       </c>
       <c r="G12" t="n">
-        <v>14237144</v>
+        <v>591444</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.549777820607841</v>
+        <v>-0.532971845178918</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1315</v>
+        <v>5432.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1320.7</v>
+        <v>5510</v>
       </c>
       <c r="D13" t="n">
-        <v>1301.4</v>
+        <v>5416.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1317.4</v>
+        <v>5490</v>
       </c>
       <c r="F13" t="n">
-        <v>457443</v>
+        <v>184862</v>
       </c>
       <c r="G13" t="n">
-        <v>1108499</v>
+        <v>454966</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.58733115681656</v>
+        <v>-0.5936795277009711</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2057.2</v>
+        <v>1783.8</v>
       </c>
       <c r="C14" t="n">
-        <v>2057.2</v>
+        <v>1812.9</v>
       </c>
       <c r="D14" t="n">
-        <v>2029.1</v>
+        <v>1761.8</v>
       </c>
       <c r="E14" t="n">
-        <v>2042.5</v>
+        <v>1800</v>
       </c>
       <c r="F14" t="n">
-        <v>88271</v>
+        <v>800584</v>
       </c>
       <c r="G14" t="n">
-        <v>196404</v>
+        <v>1906537</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5505641432964705</v>
+        <v>-0.5800847295384249</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>522</v>
+        <v>1980.1</v>
       </c>
       <c r="C15" t="n">
-        <v>522</v>
+        <v>2028</v>
       </c>
       <c r="D15" t="n">
-        <v>512.5</v>
+        <v>1980.1</v>
       </c>
       <c r="E15" t="n">
-        <v>519</v>
+        <v>1985</v>
       </c>
       <c r="F15" t="n">
-        <v>1754801</v>
+        <v>1717376</v>
       </c>
       <c r="G15" t="n">
-        <v>3911239</v>
+        <v>3553381</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5513439603153886</v>
+        <v>-0.5166924120999127</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>LUPIN</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2193.6</v>
+        <v>479.55</v>
       </c>
       <c r="C16" t="n">
-        <v>2196.1</v>
+        <v>485.2</v>
       </c>
       <c r="D16" t="n">
-        <v>2136.4</v>
+        <v>477.75</v>
       </c>
       <c r="E16" t="n">
-        <v>2139</v>
+        <v>481.6</v>
       </c>
       <c r="F16" t="n">
-        <v>591444</v>
+        <v>2222672</v>
       </c>
       <c r="G16" t="n">
-        <v>1250187</v>
+        <v>5059893</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5269155734302149</v>
+        <v>-0.5607274699287119</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>553</v>
+        <v>750.05</v>
       </c>
       <c r="C17" t="n">
-        <v>557.7</v>
+        <v>759</v>
       </c>
       <c r="D17" t="n">
-        <v>550.1</v>
+        <v>746.7</v>
       </c>
       <c r="E17" t="n">
-        <v>554.5</v>
+        <v>750.1</v>
       </c>
       <c r="F17" t="n">
-        <v>307900</v>
+        <v>2547152</v>
       </c>
       <c r="G17" t="n">
-        <v>696917</v>
+        <v>5598140</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5581970306363598</v>
+        <v>-0.5450003036722911</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>UPL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7310.5</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>7396</v>
+        <v>9.74</v>
       </c>
       <c r="D18" t="n">
-        <v>7064.5</v>
+        <v>9.48</v>
       </c>
       <c r="E18" t="n">
-        <v>7280</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>197526</v>
+        <v>536169122</v>
       </c>
       <c r="G18" t="n">
-        <v>397795</v>
+        <v>1075464880</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.5034477557535917</v>
+        <v>-0.5014536206891294</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>IDEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1340</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1353.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1325.4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2677468</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5871932</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5440226487636437</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>139.65</v>
+      </c>
+      <c r="C20" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>138.85</v>
+      </c>
+      <c r="E20" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3498788</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8004546</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5628998821419728</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>429.95</v>
+      </c>
+      <c r="C21" t="n">
+        <v>430.75</v>
+      </c>
+      <c r="D21" t="n">
+        <v>423.05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>428.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3333571</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6553523</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4913314563785006</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>154.39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>155.27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>152.38</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7260687</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16575533</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.561963588139217</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,363 +1243,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1060.5</v>
+        <v>237.44</v>
       </c>
       <c r="C2" t="n">
-        <v>1075.1</v>
+        <v>241.55</v>
       </c>
       <c r="D2" t="n">
-        <v>1040</v>
+        <v>237.02</v>
       </c>
       <c r="E2" t="n">
-        <v>1059</v>
+        <v>239.85</v>
       </c>
       <c r="F2" t="n">
-        <v>3615119</v>
+        <v>8566758</v>
       </c>
       <c r="G2" t="n">
-        <v>2533556</v>
+        <v>5520619</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4268952413130004</v>
+        <v>0.5517749006044431</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27400</v>
+        <v>2081</v>
       </c>
       <c r="C3" t="n">
-        <v>27760</v>
+        <v>2104.8</v>
       </c>
       <c r="D3" t="n">
-        <v>27210</v>
+        <v>2081</v>
       </c>
       <c r="E3" t="n">
-        <v>27400</v>
+        <v>2090</v>
       </c>
       <c r="F3" t="n">
-        <v>23046</v>
+        <v>2173296</v>
       </c>
       <c r="G3" t="n">
-        <v>15109</v>
+        <v>1400189</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5253160367992588</v>
+        <v>0.5521447461735522</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.27</v>
+        <v>3033.4</v>
       </c>
       <c r="C4" t="n">
-        <v>9.73</v>
+        <v>3088</v>
       </c>
       <c r="D4" t="n">
-        <v>9.199999999999999</v>
+        <v>3003.1</v>
       </c>
       <c r="E4" t="n">
-        <v>9.609999999999999</v>
+        <v>3053</v>
       </c>
       <c r="F4" t="n">
-        <v>1075464880</v>
+        <v>465289</v>
       </c>
       <c r="G4" t="n">
-        <v>731445657</v>
+        <v>304289</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4703277949738377</v>
+        <v>0.5291022679097831</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>SIEMENS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIPRULI</t>
+          <t>VOLTAS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603</v>
+        <v>1320</v>
       </c>
       <c r="C5" t="n">
-        <v>616.95</v>
+        <v>1374.8</v>
       </c>
       <c r="D5" t="n">
-        <v>599.85</v>
+        <v>1308.5</v>
       </c>
       <c r="E5" t="n">
-        <v>616.95</v>
+        <v>1340.5</v>
       </c>
       <c r="F5" t="n">
-        <v>815618</v>
+        <v>1057635</v>
       </c>
       <c r="G5" t="n">
-        <v>563718</v>
+        <v>666465</v>
       </c>
       <c r="H5" t="n">
-        <v>0.446854632990254</v>
+        <v>0.5869325470954964</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIPRULI</t>
+          <t>VOLTAS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149.1</v>
+        <v>2736</v>
       </c>
       <c r="C6" t="n">
-        <v>153.66</v>
+        <v>2804</v>
       </c>
       <c r="D6" t="n">
-        <v>147.8</v>
+        <v>2726.6</v>
       </c>
       <c r="E6" t="n">
-        <v>153.15</v>
+        <v>2775</v>
       </c>
       <c r="F6" t="n">
-        <v>14462530</v>
+        <v>430038</v>
       </c>
       <c r="G6" t="n">
-        <v>10296779</v>
+        <v>268774</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4045683606494808</v>
+        <v>0.5999985117608102</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>HUDCO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.3</v>
+        <v>231</v>
       </c>
       <c r="C7" t="n">
-        <v>96.3</v>
+        <v>236.45</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>230.2</v>
       </c>
       <c r="E7" t="n">
-        <v>95.7</v>
+        <v>233.32</v>
       </c>
       <c r="F7" t="n">
-        <v>17206733</v>
+        <v>4276399</v>
       </c>
       <c r="G7" t="n">
-        <v>11103563</v>
+        <v>3027164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5496586996444295</v>
+        <v>0.4126750318119534</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>HUDCO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.2</v>
+        <v>1318.3</v>
       </c>
       <c r="C8" t="n">
-        <v>1785.6</v>
+        <v>1336</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.5</v>
+        <v>1306.8</v>
       </c>
       <c r="E8" t="n">
-        <v>1761.1</v>
+        <v>1330.2</v>
       </c>
       <c r="F8" t="n">
-        <v>680512</v>
+        <v>723187</v>
       </c>
       <c r="G8" t="n">
-        <v>476612</v>
+        <v>457443</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4278113014359689</v>
+        <v>0.5809335807958588</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235</v>
+        <v>141.8</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>143.15</v>
       </c>
       <c r="D9" t="n">
-        <v>232.42</v>
+        <v>140.69</v>
       </c>
       <c r="E9" t="n">
-        <v>237.5</v>
+        <v>142.41</v>
       </c>
       <c r="F9" t="n">
-        <v>7026019</v>
+        <v>7609145</v>
       </c>
       <c r="G9" t="n">
-        <v>4895857</v>
+        <v>4888203</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4350948158820815</v>
+        <v>0.5566344114595896</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>SJVN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1801.4</v>
+        <v>85.27</v>
       </c>
       <c r="C10" t="n">
-        <v>1829.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1801.4</v>
+        <v>83.23999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1822.4</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>553200</v>
+        <v>3617159</v>
       </c>
       <c r="G10" t="n">
-        <v>356061</v>
+        <v>2376356</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5536663661563609</v>
+        <v>0.5221452509640812</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>GLENMARK</t>
+          <t>SJVN</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5644.5</v>
+        <v>985</v>
       </c>
       <c r="C11" t="n">
-        <v>5687.5</v>
+        <v>1004</v>
       </c>
       <c r="D11" t="n">
-        <v>5571.5</v>
+        <v>983</v>
       </c>
       <c r="E11" t="n">
-        <v>5670</v>
+        <v>1000.1</v>
       </c>
       <c r="F11" t="n">
-        <v>226721</v>
+        <v>1569187</v>
       </c>
       <c r="G11" t="n">
-        <v>152300</v>
+        <v>1087182</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4886474064346684</v>
+        <v>0.4433526309302399</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ALKEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>246.14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>247.74</v>
-      </c>
-      <c r="D12" t="n">
-        <v>241.85</v>
-      </c>
-      <c r="E12" t="n">
-        <v>246</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5292476</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3367756</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5715140883128113</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,693 +484,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2738</v>
+        <v>2650.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2789</v>
+        <v>2664.9</v>
       </c>
       <c r="D2" t="n">
-        <v>2728.7</v>
+        <v>2633.4</v>
       </c>
       <c r="E2" t="n">
-        <v>2762</v>
+        <v>2660</v>
       </c>
       <c r="F2" t="n">
-        <v>489522</v>
+        <v>776404</v>
       </c>
       <c r="G2" t="n">
-        <v>1101889</v>
+        <v>1706880</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5557429105835524</v>
+        <v>-0.5451326396700412</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792</v>
+        <v>3064</v>
       </c>
       <c r="C3" t="n">
-        <v>799.9</v>
+        <v>3069.9</v>
       </c>
       <c r="D3" t="n">
-        <v>783.85</v>
+        <v>3007.1</v>
       </c>
       <c r="E3" t="n">
-        <v>784.9</v>
+        <v>3025.3</v>
       </c>
       <c r="F3" t="n">
-        <v>5914226</v>
+        <v>214908</v>
       </c>
       <c r="G3" t="n">
-        <v>13189011</v>
+        <v>465289</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5515792654961013</v>
+        <v>-0.5381193193907442</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>SIEMENS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6700</v>
+        <v>2019.1</v>
       </c>
       <c r="C4" t="n">
-        <v>6748</v>
+        <v>2026.9</v>
       </c>
       <c r="D4" t="n">
-        <v>6636.5</v>
+        <v>1985</v>
       </c>
       <c r="E4" t="n">
-        <v>6706</v>
+        <v>1995.3</v>
       </c>
       <c r="F4" t="n">
-        <v>418569</v>
+        <v>196571</v>
       </c>
       <c r="G4" t="n">
-        <v>855609</v>
+        <v>431101</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5107940659810731</v>
+        <v>-0.5440256459623151</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2020.2</v>
+        <v>258</v>
       </c>
       <c r="C5" t="n">
-        <v>2045</v>
+        <v>266.4</v>
       </c>
       <c r="D5" t="n">
-        <v>2001</v>
+        <v>256.26</v>
       </c>
       <c r="E5" t="n">
-        <v>2021.5</v>
+        <v>265.5</v>
       </c>
       <c r="F5" t="n">
-        <v>431101</v>
+        <v>36187656</v>
       </c>
       <c r="G5" t="n">
-        <v>882415</v>
+        <v>72663239</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5114532277896454</v>
+        <v>-0.501981242537234</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965.55</v>
+        <v>1184.1</v>
       </c>
       <c r="C6" t="n">
-        <v>972.5</v>
+        <v>1216.4</v>
       </c>
       <c r="D6" t="n">
-        <v>955.1</v>
+        <v>1170.7</v>
       </c>
       <c r="E6" t="n">
-        <v>959</v>
+        <v>1205.2</v>
       </c>
       <c r="F6" t="n">
-        <v>674839</v>
+        <v>976816</v>
       </c>
       <c r="G6" t="n">
-        <v>1384632</v>
+        <v>2229653</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.512622126312262</v>
+        <v>-0.5618977482146325</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.25</v>
+        <v>144.27</v>
       </c>
       <c r="C7" t="n">
-        <v>367.15</v>
+        <v>145.25</v>
       </c>
       <c r="D7" t="n">
-        <v>362</v>
+        <v>141.65</v>
       </c>
       <c r="E7" t="n">
-        <v>362.75</v>
+        <v>144.05</v>
       </c>
       <c r="F7" t="n">
-        <v>2951020</v>
+        <v>19224266</v>
       </c>
       <c r="G7" t="n">
-        <v>6342222</v>
+        <v>41386043</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5347025064717066</v>
+        <v>-0.5354891502915609</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378</v>
+        <v>1325.5</v>
       </c>
       <c r="C8" t="n">
-        <v>381.65</v>
+        <v>1341</v>
       </c>
       <c r="D8" t="n">
-        <v>374.3</v>
+        <v>1308.2</v>
       </c>
       <c r="E8" t="n">
-        <v>377.4</v>
+        <v>1313</v>
       </c>
       <c r="F8" t="n">
-        <v>7558172</v>
+        <v>1327355</v>
       </c>
       <c r="G8" t="n">
-        <v>16021457</v>
+        <v>2923214</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5282469003911442</v>
+        <v>-0.5459261620941881</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>CROMPTON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>926.9</v>
+        <v>280.4</v>
       </c>
       <c r="C9" t="n">
-        <v>931.9</v>
+        <v>280.95</v>
       </c>
       <c r="D9" t="n">
-        <v>898</v>
+        <v>273.65</v>
       </c>
       <c r="E9" t="n">
-        <v>899.9</v>
+        <v>279.8</v>
       </c>
       <c r="F9" t="n">
-        <v>3204796</v>
+        <v>2263086</v>
       </c>
       <c r="G9" t="n">
-        <v>7699680</v>
+        <v>5652838</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5837754296282442</v>
+        <v>-0.5996548990082504</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>CROMPTON</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>577.95</v>
+        <v>895</v>
       </c>
       <c r="C10" t="n">
-        <v>588.9</v>
+        <v>901.8</v>
       </c>
       <c r="D10" t="n">
-        <v>575.5</v>
+        <v>882.35</v>
       </c>
       <c r="E10" t="n">
-        <v>587</v>
+        <v>896.05</v>
       </c>
       <c r="F10" t="n">
-        <v>866793</v>
+        <v>698596</v>
       </c>
       <c r="G10" t="n">
-        <v>1703407</v>
+        <v>1404326</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4911415768515687</v>
+        <v>-0.502540008516541</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>82.72</v>
-      </c>
-      <c r="D11" t="n">
-        <v>80.68000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>82.52</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10235432</v>
-      </c>
-      <c r="G11" t="n">
-        <v>21856711</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5317030087463754</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2140</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2182</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2131.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2166.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>276221</v>
-      </c>
-      <c r="G12" t="n">
-        <v>591444</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.532971845178918</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HDFCAMC</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5432.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5510</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5416.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5490</v>
-      </c>
-      <c r="F13" t="n">
-        <v>184862</v>
-      </c>
-      <c r="G13" t="n">
-        <v>454966</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5936795277009711</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>HDFCAMC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1783.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1812.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1761.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F14" t="n">
-        <v>800584</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1906537</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5800847295384249</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1980.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2028</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1980.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1985</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1717376</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3553381</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5166924120999127</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>479.55</v>
-      </c>
-      <c r="C16" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>477.75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>481.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2222672</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5059893</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5607274699287119</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>750.05</v>
-      </c>
-      <c r="C17" t="n">
-        <v>759</v>
-      </c>
-      <c r="D17" t="n">
-        <v>746.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>750.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2547152</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5598140</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5450003036722911</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>536169122</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1075464880</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5014536206891294</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1340</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1353.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1325.4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1330</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2677468</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5871932</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5440226487636437</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>139.65</v>
-      </c>
-      <c r="C20" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>138.85</v>
-      </c>
-      <c r="E20" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3498788</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8004546</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5628998821419728</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>DELHIVERY</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>429.95</v>
-      </c>
-      <c r="C21" t="n">
-        <v>430.75</v>
-      </c>
-      <c r="D21" t="n">
-        <v>423.05</v>
-      </c>
-      <c r="E21" t="n">
-        <v>428.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3333571</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6553523</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.4913314563785006</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>DELHIVERY</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>BANDHANBNK</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>154.39</v>
-      </c>
-      <c r="C22" t="n">
-        <v>155.27</v>
-      </c>
-      <c r="D22" t="n">
-        <v>152.25</v>
-      </c>
-      <c r="E22" t="n">
-        <v>152.38</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7260687</v>
-      </c>
-      <c r="G22" t="n">
-        <v>16575533</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.561963588139217</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>BANDHANBNK</t>
+          <t>PNBHOUSING</t>
         </is>
       </c>
     </row>
@@ -1243,330 +847,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.44</v>
+        <v>1547.8</v>
       </c>
       <c r="C2" t="n">
-        <v>241.55</v>
+        <v>1572.5</v>
       </c>
       <c r="D2" t="n">
-        <v>237.02</v>
+        <v>1541.2</v>
       </c>
       <c r="E2" t="n">
-        <v>239.85</v>
+        <v>1571.5</v>
       </c>
       <c r="F2" t="n">
-        <v>8566758</v>
+        <v>2270763</v>
       </c>
       <c r="G2" t="n">
-        <v>5520619</v>
+        <v>1558896</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5517749006044431</v>
+        <v>0.4566481663946793</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>HCLTECH</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2081</v>
+        <v>365</v>
       </c>
       <c r="C3" t="n">
-        <v>2104.8</v>
+        <v>374.85</v>
       </c>
       <c r="D3" t="n">
-        <v>2081</v>
+        <v>360.05</v>
       </c>
       <c r="E3" t="n">
-        <v>2090</v>
+        <v>373.8</v>
       </c>
       <c r="F3" t="n">
-        <v>2173296</v>
+        <v>10689646</v>
       </c>
       <c r="G3" t="n">
-        <v>1400189</v>
+        <v>6934285</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5521447461735522</v>
+        <v>0.5415642708657057</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>COFORGE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3033.4</v>
+        <v>1768.8</v>
       </c>
       <c r="C4" t="n">
-        <v>3088</v>
+        <v>1800</v>
       </c>
       <c r="D4" t="n">
-        <v>3003.1</v>
+        <v>1757.8</v>
       </c>
       <c r="E4" t="n">
-        <v>3053</v>
+        <v>1797.8</v>
       </c>
       <c r="F4" t="n">
-        <v>465289</v>
+        <v>2162659</v>
       </c>
       <c r="G4" t="n">
-        <v>304289</v>
+        <v>1401690</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5291022679097831</v>
+        <v>0.5428939351782491</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>COFORGE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320</v>
+        <v>1634</v>
       </c>
       <c r="C5" t="n">
-        <v>1374.8</v>
+        <v>1642</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.5</v>
+        <v>1600.3</v>
       </c>
       <c r="E5" t="n">
-        <v>1340.5</v>
+        <v>1640</v>
       </c>
       <c r="F5" t="n">
-        <v>1057635</v>
+        <v>693696</v>
       </c>
       <c r="G5" t="n">
-        <v>666465</v>
+        <v>466129</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5869325470954964</v>
+        <v>0.4882060545471318</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VOLTAS</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2736</v>
+        <v>384</v>
       </c>
       <c r="C6" t="n">
-        <v>2804</v>
+        <v>388.5</v>
       </c>
       <c r="D6" t="n">
-        <v>2726.6</v>
+        <v>381.25</v>
       </c>
       <c r="E6" t="n">
-        <v>2775</v>
+        <v>387</v>
       </c>
       <c r="F6" t="n">
-        <v>430038</v>
+        <v>2492054</v>
       </c>
       <c r="G6" t="n">
-        <v>268774</v>
+        <v>1642994</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5999985117608102</v>
+        <v>0.5167760807404044</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>BIOCON</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HUDCO</t>
+          <t>SRF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231</v>
+        <v>2918.9</v>
       </c>
       <c r="C7" t="n">
-        <v>236.45</v>
+        <v>2938.1</v>
       </c>
       <c r="D7" t="n">
-        <v>230.2</v>
+        <v>2868.8</v>
       </c>
       <c r="E7" t="n">
-        <v>233.32</v>
+        <v>2934.7</v>
       </c>
       <c r="F7" t="n">
-        <v>4276399</v>
+        <v>510863</v>
       </c>
       <c r="G7" t="n">
-        <v>3027164</v>
+        <v>325413</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4126750318119534</v>
+        <v>0.5698911844333201</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HUDCO</t>
+          <t>SRF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>DABUR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.3</v>
+        <v>515.7</v>
       </c>
       <c r="C8" t="n">
-        <v>1336</v>
+        <v>521.65</v>
       </c>
       <c r="D8" t="n">
-        <v>1306.8</v>
+        <v>512.65</v>
       </c>
       <c r="E8" t="n">
-        <v>1330.2</v>
+        <v>519</v>
       </c>
       <c r="F8" t="n">
-        <v>723187</v>
+        <v>1478112</v>
       </c>
       <c r="G8" t="n">
-        <v>457443</v>
+        <v>1005698</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5809335807958588</v>
+        <v>0.469737436089164</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>DABUR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.8</v>
+        <v>1073.1</v>
       </c>
       <c r="C9" t="n">
-        <v>143.15</v>
+        <v>1089.1</v>
       </c>
       <c r="D9" t="n">
-        <v>140.69</v>
+        <v>1051.1</v>
       </c>
       <c r="E9" t="n">
-        <v>142.41</v>
+        <v>1081</v>
       </c>
       <c r="F9" t="n">
-        <v>7609145</v>
+        <v>466556</v>
       </c>
       <c r="G9" t="n">
-        <v>4888203</v>
+        <v>308692</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5566344114595896</v>
+        <v>0.5113964728596789</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>IREDA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.27</v>
+        <v>148.9</v>
       </c>
       <c r="C10" t="n">
-        <v>85.40000000000001</v>
+        <v>149.39</v>
       </c>
       <c r="D10" t="n">
-        <v>83.23999999999999</v>
+        <v>146.58</v>
       </c>
       <c r="E10" t="n">
-        <v>84.18000000000001</v>
+        <v>149.25</v>
       </c>
       <c r="F10" t="n">
-        <v>3617159</v>
+        <v>4634146</v>
       </c>
       <c r="G10" t="n">
-        <v>2376356</v>
+        <v>3224588</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5221452509640812</v>
+        <v>0.4371280920229189</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>IREDA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>985</v>
+        <v>9550.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1004</v>
+        <v>9764</v>
       </c>
       <c r="D11" t="n">
-        <v>983</v>
+        <v>9431</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.1</v>
+        <v>9480</v>
       </c>
       <c r="F11" t="n">
-        <v>1569187</v>
+        <v>723848</v>
       </c>
       <c r="G11" t="n">
-        <v>1087182</v>
+        <v>477313</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4433526309302399</v>
+        <v>0.5165059405463501</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>MCX</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,297 +484,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2650.4</v>
+        <v>2009.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2664.9</v>
+        <v>2039</v>
       </c>
       <c r="D2" t="n">
-        <v>2633.4</v>
+        <v>1995</v>
       </c>
       <c r="E2" t="n">
-        <v>2660</v>
+        <v>2039</v>
       </c>
       <c r="F2" t="n">
-        <v>776404</v>
+        <v>2396251</v>
       </c>
       <c r="G2" t="n">
-        <v>1706880</v>
+        <v>4943745</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5451326396700412</v>
+        <v>-0.5152963997940833</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3064</v>
+        <v>1011</v>
       </c>
       <c r="C3" t="n">
-        <v>3069.9</v>
+        <v>1018.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3007.1</v>
+        <v>1008.8</v>
       </c>
       <c r="E3" t="n">
-        <v>3025.3</v>
+        <v>1011</v>
       </c>
       <c r="F3" t="n">
-        <v>214908</v>
+        <v>11131278</v>
       </c>
       <c r="G3" t="n">
-        <v>465289</v>
+        <v>23762890</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5381193193907442</v>
+        <v>-0.5315688453719224</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2019.1</v>
+        <v>940.1</v>
       </c>
       <c r="C4" t="n">
-        <v>2026.9</v>
+        <v>957.25</v>
       </c>
       <c r="D4" t="n">
-        <v>1985</v>
+        <v>940</v>
       </c>
       <c r="E4" t="n">
-        <v>1995.3</v>
+        <v>951.1</v>
       </c>
       <c r="F4" t="n">
-        <v>196571</v>
+        <v>791415</v>
       </c>
       <c r="G4" t="n">
-        <v>431101</v>
+        <v>1819775</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5440256459623151</v>
+        <v>-0.5651028286463986</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>258</v>
+        <v>649.3</v>
       </c>
       <c r="C5" t="n">
-        <v>266.4</v>
+        <v>667.4</v>
       </c>
       <c r="D5" t="n">
-        <v>256.26</v>
+        <v>640.65</v>
       </c>
       <c r="E5" t="n">
-        <v>265.5</v>
+        <v>666</v>
       </c>
       <c r="F5" t="n">
-        <v>36187656</v>
+        <v>1155741</v>
       </c>
       <c r="G5" t="n">
-        <v>72663239</v>
+        <v>2473758</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.501981242537234</v>
+        <v>-0.5327994896833077</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>SYNGENE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1184.1</v>
+        <v>581.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1216.4</v>
+        <v>586.65</v>
       </c>
       <c r="D6" t="n">
-        <v>1170.7</v>
+        <v>578</v>
       </c>
       <c r="E6" t="n">
-        <v>1205.2</v>
+        <v>584.65</v>
       </c>
       <c r="F6" t="n">
-        <v>976816</v>
+        <v>1226844</v>
       </c>
       <c r="G6" t="n">
-        <v>2229653</v>
+        <v>2599968</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5618977482146325</v>
+        <v>-0.5281311154598826</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.27</v>
+        <v>285.5</v>
       </c>
       <c r="C7" t="n">
-        <v>145.25</v>
+        <v>290.9</v>
       </c>
       <c r="D7" t="n">
-        <v>141.65</v>
+        <v>282.75</v>
       </c>
       <c r="E7" t="n">
-        <v>144.05</v>
+        <v>286.7</v>
       </c>
       <c r="F7" t="n">
-        <v>19224266</v>
+        <v>15184051</v>
       </c>
       <c r="G7" t="n">
-        <v>41386043</v>
+        <v>37222053</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5354891502915609</v>
+        <v>-0.5920684170752215</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>BHEL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1325.5</v>
+        <v>265.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1341</v>
+        <v>269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.2</v>
+        <v>264.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1313</v>
+        <v>266.1</v>
       </c>
       <c r="F8" t="n">
-        <v>1327355</v>
+        <v>17311954</v>
       </c>
       <c r="G8" t="n">
-        <v>2923214</v>
+        <v>36187656</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5459261620941881</v>
+        <v>-0.5216060968414202</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>280.4</v>
+        <v>510.25</v>
       </c>
       <c r="C9" t="n">
-        <v>280.95</v>
+        <v>515</v>
       </c>
       <c r="D9" t="n">
-        <v>273.65</v>
+        <v>505.7</v>
       </c>
       <c r="E9" t="n">
-        <v>279.8</v>
+        <v>508.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2263086</v>
+        <v>1756494</v>
       </c>
       <c r="G9" t="n">
-        <v>5652838</v>
+        <v>4125402</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5996548990082504</v>
+        <v>-0.5742247664591232</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>895</v>
+        <v>1738</v>
       </c>
       <c r="C10" t="n">
-        <v>901.8</v>
+        <v>1744.4</v>
       </c>
       <c r="D10" t="n">
-        <v>882.35</v>
+        <v>1718.8</v>
       </c>
       <c r="E10" t="n">
-        <v>896.05</v>
+        <v>1731.9</v>
       </c>
       <c r="F10" t="n">
-        <v>698596</v>
+        <v>238006</v>
       </c>
       <c r="G10" t="n">
-        <v>1404326</v>
+        <v>511582</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.502540008516541</v>
+        <v>-0.534764710251729</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PNBHOUSING</t>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>329.35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>333.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>327.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>327.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2257142</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4844131</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5340460445846738</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IIFL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>543.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>544.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>534.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>540</v>
+      </c>
+      <c r="F12" t="n">
+        <v>566485</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1213563</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5332051158448304</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>IIFL</t>
         </is>
       </c>
     </row>
@@ -789,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,330 +913,726 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1547.8</v>
+        <v>3060</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.5</v>
+        <v>3136.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1541.2</v>
+        <v>3057.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1571.5</v>
+        <v>3125.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2270763</v>
+        <v>4460315</v>
       </c>
       <c r="G2" t="n">
-        <v>1558896</v>
+        <v>2806868</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4566481663946793</v>
+        <v>0.5890718765542234</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>365</v>
+        <v>242.75</v>
       </c>
       <c r="C3" t="n">
-        <v>374.85</v>
+        <v>246.3</v>
       </c>
       <c r="D3" t="n">
-        <v>360.05</v>
+        <v>242.1</v>
       </c>
       <c r="E3" t="n">
-        <v>373.8</v>
+        <v>245.39</v>
       </c>
       <c r="F3" t="n">
-        <v>10689646</v>
+        <v>13152546</v>
       </c>
       <c r="G3" t="n">
-        <v>6934285</v>
+        <v>8831094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5415642708657057</v>
+        <v>0.4893450347148383</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1768.8</v>
+        <v>11861</v>
       </c>
       <c r="C4" t="n">
-        <v>1800</v>
+        <v>11949</v>
       </c>
       <c r="D4" t="n">
-        <v>1757.8</v>
+        <v>11831</v>
       </c>
       <c r="E4" t="n">
-        <v>1797.8</v>
+        <v>11920</v>
       </c>
       <c r="F4" t="n">
-        <v>2162659</v>
+        <v>184542</v>
       </c>
       <c r="G4" t="n">
-        <v>1401690</v>
+        <v>125847</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5428939351782491</v>
+        <v>0.4663996757968009</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>COFORGE</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1634</v>
+        <v>798</v>
       </c>
       <c r="C5" t="n">
-        <v>1642</v>
+        <v>809</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.3</v>
+        <v>791.75</v>
       </c>
       <c r="E5" t="n">
-        <v>1640</v>
+        <v>793.95</v>
       </c>
       <c r="F5" t="n">
-        <v>693696</v>
+        <v>7589035</v>
       </c>
       <c r="G5" t="n">
-        <v>466129</v>
+        <v>5411465</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4882060545471318</v>
+        <v>0.4023993502683654</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="C6" t="n">
-        <v>388.5</v>
+        <v>270.25</v>
       </c>
       <c r="D6" t="n">
-        <v>381.25</v>
+        <v>266.5</v>
       </c>
       <c r="E6" t="n">
-        <v>387</v>
+        <v>266.85</v>
       </c>
       <c r="F6" t="n">
-        <v>2492054</v>
+        <v>16444701</v>
       </c>
       <c r="G6" t="n">
-        <v>1642994</v>
+        <v>11154806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5167760807404044</v>
+        <v>0.4742256387067601</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>POWERGRID</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2918.9</v>
+        <v>36610</v>
       </c>
       <c r="C7" t="n">
-        <v>2938.1</v>
+        <v>37345</v>
       </c>
       <c r="D7" t="n">
-        <v>2868.8</v>
+        <v>35750</v>
       </c>
       <c r="E7" t="n">
-        <v>2934.7</v>
+        <v>37160</v>
       </c>
       <c r="F7" t="n">
-        <v>510863</v>
+        <v>53670</v>
       </c>
       <c r="G7" t="n">
-        <v>325413</v>
+        <v>36836</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5698911844333201</v>
+        <v>0.4569985883374959</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SRF</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>515.7</v>
+        <v>560</v>
       </c>
       <c r="C8" t="n">
-        <v>521.65</v>
+        <v>570.05</v>
       </c>
       <c r="D8" t="n">
-        <v>512.65</v>
+        <v>557.15</v>
       </c>
       <c r="E8" t="n">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="F8" t="n">
-        <v>1478112</v>
+        <v>1748539</v>
       </c>
       <c r="G8" t="n">
-        <v>1005698</v>
+        <v>1177397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.469737436089164</v>
+        <v>0.4850887168898851</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1073.1</v>
+        <v>1477</v>
       </c>
       <c r="C9" t="n">
-        <v>1089.1</v>
+        <v>1487</v>
       </c>
       <c r="D9" t="n">
-        <v>1051.1</v>
+        <v>1469.7</v>
       </c>
       <c r="E9" t="n">
-        <v>1081</v>
+        <v>1481</v>
       </c>
       <c r="F9" t="n">
-        <v>466556</v>
+        <v>417016</v>
       </c>
       <c r="G9" t="n">
-        <v>308692</v>
+        <v>292665</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5113964728596789</v>
+        <v>0.4248919412980712</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IREDA</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.9</v>
+        <v>767.4</v>
       </c>
       <c r="C10" t="n">
-        <v>149.39</v>
+        <v>771.15</v>
       </c>
       <c r="D10" t="n">
-        <v>146.58</v>
+        <v>760</v>
       </c>
       <c r="E10" t="n">
-        <v>149.25</v>
+        <v>762</v>
       </c>
       <c r="F10" t="n">
-        <v>4634146</v>
+        <v>2364484</v>
       </c>
       <c r="G10" t="n">
-        <v>3224588</v>
+        <v>1497577</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4371280920229189</v>
+        <v>0.5788730729705384</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>IREDA</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>DMART</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9550.5</v>
+        <v>4112.6</v>
       </c>
       <c r="C11" t="n">
-        <v>9764</v>
+        <v>4112.6</v>
       </c>
       <c r="D11" t="n">
-        <v>9431</v>
+        <v>4047.3</v>
       </c>
       <c r="E11" t="n">
-        <v>9480</v>
+        <v>4054</v>
       </c>
       <c r="F11" t="n">
-        <v>723848</v>
+        <v>381769</v>
       </c>
       <c r="G11" t="n">
-        <v>477313</v>
+        <v>272277</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5165059405463501</v>
+        <v>0.4021345908762033</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MCX</t>
+          <t>DMART</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4911</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4933</v>
+      </c>
+      <c r="F12" t="n">
+        <v>322415</v>
+      </c>
+      <c r="G12" t="n">
+        <v>202095</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5953635666394518</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VBL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>470.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>470.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>459.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6996274</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4669423</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4983166014301981</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>VBL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5440</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5557</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5421.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5530</v>
+      </c>
+      <c r="F14" t="n">
+        <v>534031</v>
+      </c>
+      <c r="G14" t="n">
+        <v>348232</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5335494727652829</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1195.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1160.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1190.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2367201</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1481205</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5981589314105745</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OFSS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8430</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8271.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8393</v>
+      </c>
+      <c r="F16" t="n">
+        <v>104111</v>
+      </c>
+      <c r="G16" t="n">
+        <v>74067</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.405632737926472</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>OFSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>530</v>
+      </c>
+      <c r="C17" t="n">
+        <v>538.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>524.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>531</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4975992</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3241835</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5349306796922113</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15155</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15369</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15054</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F18" t="n">
+        <v>260843</v>
+      </c>
+      <c r="G18" t="n">
+        <v>183854</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4187507478760321</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IREDA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="C19" t="n">
+        <v>153.48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>149.55</v>
+      </c>
+      <c r="E19" t="n">
+        <v>150.96</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6667190</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4634146</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4387095270628072</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>IREDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4074.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4098.2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4062</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4073.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>133502</v>
+      </c>
+      <c r="G20" t="n">
+        <v>90590</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4736946682856827</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4423.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4370</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4385</v>
+      </c>
+      <c r="F21" t="n">
+        <v>617858</v>
+      </c>
+      <c r="G21" t="n">
+        <v>395014</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5641420304090488</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>147.47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>141.74</v>
+      </c>
+      <c r="E22" t="n">
+        <v>142.22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24925913</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17177183</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.451105981696766</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>534</v>
+      </c>
+      <c r="C23" t="n">
+        <v>536.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>519.55</v>
+      </c>
+      <c r="E23" t="n">
+        <v>527</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1917942</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1294251</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4818933885312818</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>PGEL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,363 +484,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2009.5</v>
+        <v>1219</v>
       </c>
       <c r="C2" t="n">
-        <v>2039</v>
+        <v>1234.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1995</v>
+        <v>1213.2</v>
       </c>
       <c r="E2" t="n">
-        <v>2039</v>
+        <v>1228.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2396251</v>
+        <v>3345231</v>
       </c>
       <c r="G2" t="n">
-        <v>4943745</v>
+        <v>6782513</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5152963997940833</v>
+        <v>-0.5067859066396186</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1011</v>
+        <v>2502</v>
       </c>
       <c r="C3" t="n">
-        <v>1018.4</v>
+        <v>2525</v>
       </c>
       <c r="D3" t="n">
-        <v>1008.8</v>
+        <v>2468.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1011</v>
+        <v>2488</v>
       </c>
       <c r="F3" t="n">
-        <v>11131278</v>
+        <v>2706326</v>
       </c>
       <c r="G3" t="n">
-        <v>23762890</v>
+        <v>6685426</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5315688453719224</v>
+        <v>-0.5951901943122249</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.1</v>
+        <v>246</v>
       </c>
       <c r="C4" t="n">
-        <v>957.25</v>
+        <v>246</v>
       </c>
       <c r="D4" t="n">
-        <v>940</v>
+        <v>244</v>
       </c>
       <c r="E4" t="n">
-        <v>951.1</v>
+        <v>245.34</v>
       </c>
       <c r="F4" t="n">
-        <v>791415</v>
+        <v>6211124</v>
       </c>
       <c r="G4" t="n">
-        <v>1819775</v>
+        <v>13152546</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5651028286463986</v>
+        <v>-0.5277626096118576</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>649.3</v>
+        <v>1515</v>
       </c>
       <c r="C5" t="n">
-        <v>667.4</v>
+        <v>1515</v>
       </c>
       <c r="D5" t="n">
-        <v>640.65</v>
+        <v>1487.8</v>
       </c>
       <c r="E5" t="n">
-        <v>666</v>
+        <v>1496.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1155741</v>
+        <v>2304918</v>
       </c>
       <c r="G5" t="n">
-        <v>2473758</v>
+        <v>4641466</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5327994896833077</v>
+        <v>-0.503407328632807</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581.05</v>
+        <v>1080</v>
       </c>
       <c r="C6" t="n">
-        <v>586.65</v>
+        <v>1088</v>
       </c>
       <c r="D6" t="n">
-        <v>578</v>
+        <v>1063.3</v>
       </c>
       <c r="E6" t="n">
-        <v>584.65</v>
+        <v>1076.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1226844</v>
+        <v>1991752</v>
       </c>
       <c r="G6" t="n">
-        <v>2599968</v>
+        <v>4147036</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5281311154598826</v>
+        <v>-0.5197167326254221</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285.5</v>
+        <v>3826</v>
       </c>
       <c r="C7" t="n">
-        <v>290.9</v>
+        <v>3856</v>
       </c>
       <c r="D7" t="n">
-        <v>282.75</v>
+        <v>3800</v>
       </c>
       <c r="E7" t="n">
-        <v>286.7</v>
+        <v>3832.9</v>
       </c>
       <c r="F7" t="n">
-        <v>15184051</v>
+        <v>182215</v>
       </c>
       <c r="G7" t="n">
-        <v>37222053</v>
+        <v>403999</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5920684170752215</v>
+        <v>-0.5489716558704353</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.5</v>
+        <v>4736</v>
       </c>
       <c r="C8" t="n">
-        <v>269.25</v>
+        <v>4771.2</v>
       </c>
       <c r="D8" t="n">
-        <v>264.2</v>
+        <v>4636.7</v>
       </c>
       <c r="E8" t="n">
-        <v>266.1</v>
+        <v>4745.2</v>
       </c>
       <c r="F8" t="n">
-        <v>17311954</v>
+        <v>1280728</v>
       </c>
       <c r="G8" t="n">
-        <v>36187656</v>
+        <v>2723105</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5216060968414202</v>
+        <v>-0.5296810075263348</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>510.25</v>
+        <v>37150</v>
       </c>
       <c r="C9" t="n">
-        <v>515</v>
+        <v>37650</v>
       </c>
       <c r="D9" t="n">
-        <v>505.7</v>
+        <v>36945</v>
       </c>
       <c r="E9" t="n">
-        <v>508.7</v>
+        <v>37120</v>
       </c>
       <c r="F9" t="n">
-        <v>1756494</v>
+        <v>24679</v>
       </c>
       <c r="G9" t="n">
-        <v>4125402</v>
+        <v>53670</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5742247664591232</v>
+        <v>-0.5401714179243525</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1738</v>
+        <v>622</v>
       </c>
       <c r="C10" t="n">
-        <v>1744.4</v>
+        <v>628.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1718.8</v>
+        <v>617.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1731.9</v>
+        <v>619</v>
       </c>
       <c r="F10" t="n">
-        <v>238006</v>
+        <v>539936</v>
       </c>
       <c r="G10" t="n">
-        <v>511582</v>
+        <v>1180453</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.534764710251729</v>
+        <v>-0.5426027126874174</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>ATGL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.35</v>
+        <v>3588.9</v>
       </c>
       <c r="C11" t="n">
-        <v>333.1</v>
+        <v>3590</v>
       </c>
       <c r="D11" t="n">
-        <v>327.9</v>
+        <v>3511</v>
       </c>
       <c r="E11" t="n">
-        <v>327.9</v>
+        <v>3575.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2257142</v>
+        <v>541697</v>
       </c>
       <c r="G11" t="n">
-        <v>4844131</v>
+        <v>1207676</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5340460445846738</v>
+        <v>-0.5514550260169119</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>PIIND</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>543.9</v>
+        <v>760.6</v>
       </c>
       <c r="C12" t="n">
-        <v>544.8</v>
+        <v>765.5</v>
       </c>
       <c r="D12" t="n">
-        <v>534.2</v>
+        <v>753</v>
       </c>
       <c r="E12" t="n">
-        <v>540</v>
+        <v>756.35</v>
       </c>
       <c r="F12" t="n">
-        <v>566485</v>
+        <v>1752051</v>
       </c>
       <c r="G12" t="n">
-        <v>1213563</v>
+        <v>4193619</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5332051158448304</v>
+        <v>-0.5822102580134246</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>UPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>316.05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>314</v>
+      </c>
+      <c r="E13" t="n">
+        <v>314.35</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3602435</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7164298</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.4971684594917744</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1244.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1251.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1230.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1234.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>553299</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1128899</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5098773229491744</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>238.53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>238.66</v>
+      </c>
+      <c r="D15" t="n">
+        <v>235.01</v>
+      </c>
+      <c r="E15" t="n">
+        <v>235.53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3764303</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8593960</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5619827180950342</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>971</v>
+      </c>
+      <c r="C16" t="n">
+        <v>977.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>948.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>952</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3239284</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6846735</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5268863188074315</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>156.07</v>
+      </c>
+      <c r="D17" t="n">
+        <v>154</v>
+      </c>
+      <c r="E17" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3841132</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8535481</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5499806044908306</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>282.65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>282.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>276.35</v>
+      </c>
+      <c r="E18" t="n">
+        <v>277.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2083208</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4617350</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5488303897257085</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AMBER</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7190.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7215</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7090.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7110</v>
+      </c>
+      <c r="F19" t="n">
+        <v>130365</v>
+      </c>
+      <c r="G19" t="n">
+        <v>317226</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5890469255357379</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>AMBER</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1659.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1665</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1624.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2358185</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4718903</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5002683886488025</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>POONAWALLA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>490.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>494.4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>477.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>480</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1048846</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2241542</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5320872863412776</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>
@@ -855,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,726 +1210,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3060</v>
+        <v>1191.7</v>
       </c>
       <c r="C2" t="n">
-        <v>3136.4</v>
+        <v>1200.4</v>
       </c>
       <c r="D2" t="n">
-        <v>3057.1</v>
+        <v>1178.1</v>
       </c>
       <c r="E2" t="n">
-        <v>3125.1</v>
+        <v>1182.5</v>
       </c>
       <c r="F2" t="n">
-        <v>4460315</v>
+        <v>1427189</v>
       </c>
       <c r="G2" t="n">
-        <v>2806868</v>
+        <v>976290</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5890718765542234</v>
+        <v>0.4618494504706593</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.75</v>
+        <v>826</v>
       </c>
       <c r="C3" t="n">
-        <v>246.3</v>
+        <v>826.35</v>
       </c>
       <c r="D3" t="n">
-        <v>242.1</v>
+        <v>809.75</v>
       </c>
       <c r="E3" t="n">
-        <v>245.39</v>
+        <v>813.5</v>
       </c>
       <c r="F3" t="n">
-        <v>13152546</v>
+        <v>6048569</v>
       </c>
       <c r="G3" t="n">
-        <v>8831094</v>
+        <v>4239741</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4893450347148383</v>
+        <v>0.4266364384050818</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11861</v>
+        <v>308.65</v>
       </c>
       <c r="C4" t="n">
-        <v>11949</v>
+        <v>309.35</v>
       </c>
       <c r="D4" t="n">
-        <v>11831</v>
+        <v>296.6</v>
       </c>
       <c r="E4" t="n">
-        <v>11920</v>
+        <v>297.4</v>
       </c>
       <c r="F4" t="n">
-        <v>184542</v>
+        <v>63585986</v>
       </c>
       <c r="G4" t="n">
-        <v>125847</v>
+        <v>43774443</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4663996757968009</v>
+        <v>0.4525824120708972</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ETERNAL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>798</v>
+        <v>2044.4</v>
       </c>
       <c r="C5" t="n">
-        <v>809</v>
+        <v>2064.9</v>
       </c>
       <c r="D5" t="n">
-        <v>791.75</v>
+        <v>2022.4</v>
       </c>
       <c r="E5" t="n">
-        <v>793.95</v>
+        <v>2037.1</v>
       </c>
       <c r="F5" t="n">
-        <v>7589035</v>
+        <v>652557</v>
       </c>
       <c r="G5" t="n">
-        <v>5411465</v>
+        <v>457790</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4023993502683654</v>
+        <v>0.4254505340876821</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>ICICIGI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>459.35</v>
       </c>
       <c r="C6" t="n">
-        <v>270.25</v>
+        <v>460.4</v>
       </c>
       <c r="D6" t="n">
-        <v>266.5</v>
+        <v>451.6</v>
       </c>
       <c r="E6" t="n">
-        <v>266.85</v>
+        <v>454.1</v>
       </c>
       <c r="F6" t="n">
-        <v>16444701</v>
+        <v>10531716</v>
       </c>
       <c r="G6" t="n">
-        <v>11154806</v>
+        <v>6996274</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4742256387067601</v>
+        <v>0.5053321239276792</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>VBL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36610</v>
+        <v>3325</v>
       </c>
       <c r="C7" t="n">
-        <v>37345</v>
+        <v>3406.8</v>
       </c>
       <c r="D7" t="n">
-        <v>35750</v>
+        <v>3307.2</v>
       </c>
       <c r="E7" t="n">
-        <v>37160</v>
+        <v>3400</v>
       </c>
       <c r="F7" t="n">
-        <v>53670</v>
+        <v>509408</v>
       </c>
       <c r="G7" t="n">
-        <v>36836</v>
+        <v>349779</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4569985883374959</v>
+        <v>0.4563710228458541</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560</v>
+        <v>874</v>
       </c>
       <c r="C8" t="n">
-        <v>570.05</v>
+        <v>886.85</v>
       </c>
       <c r="D8" t="n">
-        <v>557.15</v>
+        <v>866.35</v>
       </c>
       <c r="E8" t="n">
-        <v>563</v>
+        <v>879.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1748539</v>
+        <v>1877134</v>
       </c>
       <c r="G8" t="n">
-        <v>1177397</v>
+        <v>1194966</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4850887168898851</v>
+        <v>0.5708681251182042</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1477</v>
+        <v>7662.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1487</v>
+        <v>7816</v>
       </c>
       <c r="D9" t="n">
-        <v>1469.7</v>
+        <v>7637.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1481</v>
+        <v>7743</v>
       </c>
       <c r="F9" t="n">
-        <v>417016</v>
+        <v>182942</v>
       </c>
       <c r="G9" t="n">
-        <v>292665</v>
+        <v>129351</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4248919412980712</v>
+        <v>0.4143068086060409</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>POLYCAB</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>BLUESTARCO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>767.4</v>
+        <v>1797</v>
       </c>
       <c r="C10" t="n">
-        <v>771.15</v>
+        <v>1807</v>
       </c>
       <c r="D10" t="n">
-        <v>760</v>
+        <v>1780.2</v>
       </c>
       <c r="E10" t="n">
-        <v>762</v>
+        <v>1787.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2364484</v>
+        <v>317336</v>
       </c>
       <c r="G10" t="n">
-        <v>1497577</v>
+        <v>225467</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5788730729705384</v>
+        <v>0.4074609588099367</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>BLUESTARCO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4112.6</v>
+        <v>509.75</v>
       </c>
       <c r="C11" t="n">
-        <v>4112.6</v>
+        <v>511.9</v>
       </c>
       <c r="D11" t="n">
-        <v>4047.3</v>
+        <v>497</v>
       </c>
       <c r="E11" t="n">
-        <v>4054</v>
+        <v>499</v>
       </c>
       <c r="F11" t="n">
-        <v>381769</v>
+        <v>2684487</v>
       </c>
       <c r="G11" t="n">
-        <v>272277</v>
+        <v>1756494</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4021345908762033</v>
+        <v>0.5283211898247304</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4994</v>
+        <v>1592.8</v>
       </c>
       <c r="C12" t="n">
-        <v>5000</v>
+        <v>1593.5</v>
       </c>
       <c r="D12" t="n">
-        <v>4911</v>
+        <v>1545.7</v>
       </c>
       <c r="E12" t="n">
-        <v>4933</v>
+        <v>1554</v>
       </c>
       <c r="F12" t="n">
-        <v>322415</v>
+        <v>970265</v>
       </c>
       <c r="G12" t="n">
-        <v>202095</v>
+        <v>677752</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5953635666394518</v>
+        <v>0.4315929720605767</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>NUVAMA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.6</v>
+        <v>7351.5</v>
       </c>
       <c r="C13" t="n">
-        <v>470.6</v>
+        <v>7530</v>
       </c>
       <c r="D13" t="n">
-        <v>458.6</v>
+        <v>7333</v>
       </c>
       <c r="E13" t="n">
-        <v>459.2</v>
+        <v>7384.5</v>
       </c>
       <c r="F13" t="n">
-        <v>6996274</v>
+        <v>136906</v>
       </c>
       <c r="G13" t="n">
-        <v>4669423</v>
+        <v>92965</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4983166014301981</v>
+        <v>0.4726617544237078</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>CYIENT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5440</v>
+        <v>1167</v>
       </c>
       <c r="C14" t="n">
-        <v>5557</v>
+        <v>1181.6</v>
       </c>
       <c r="D14" t="n">
-        <v>5421.5</v>
+        <v>1150.9</v>
       </c>
       <c r="E14" t="n">
-        <v>5530</v>
+        <v>1152</v>
       </c>
       <c r="F14" t="n">
-        <v>534031</v>
+        <v>265566</v>
       </c>
       <c r="G14" t="n">
-        <v>348232</v>
+        <v>189671</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5335494727652829</v>
+        <v>0.400140242841552</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1195.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1160.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1190.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2367201</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1481205</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5981589314105745</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>OFSS</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8300</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8430</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8271.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8393</v>
-      </c>
-      <c r="F16" t="n">
-        <v>104111</v>
-      </c>
-      <c r="G16" t="n">
-        <v>74067</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.405632737926472</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>OFSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CONCOR</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>530</v>
-      </c>
-      <c r="C17" t="n">
-        <v>538.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>524.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>531</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4975992</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3241835</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5349306796922113</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>CONCOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>15155</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15369</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15054</v>
-      </c>
-      <c r="E18" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F18" t="n">
-        <v>260843</v>
-      </c>
-      <c r="G18" t="n">
-        <v>183854</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4187507478760321</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IREDA</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>149.76</v>
-      </c>
-      <c r="C19" t="n">
-        <v>153.48</v>
-      </c>
-      <c r="D19" t="n">
-        <v>149.55</v>
-      </c>
-      <c r="E19" t="n">
-        <v>150.96</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6667190</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4634146</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.4387095270628072</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>IREDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>KEI</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4074.9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4098.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4062</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4073.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>133502</v>
-      </c>
-      <c r="G20" t="n">
-        <v>90590</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4736946682856827</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>KEI</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4420</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4423.9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4370</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4385</v>
-      </c>
-      <c r="F21" t="n">
-        <v>617858</v>
-      </c>
-      <c r="G21" t="n">
-        <v>395014</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.5641420304090488</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>147.47</v>
-      </c>
-      <c r="C22" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>141.74</v>
-      </c>
-      <c r="E22" t="n">
-        <v>142.22</v>
-      </c>
-      <c r="F22" t="n">
-        <v>24925913</v>
-      </c>
-      <c r="G22" t="n">
-        <v>17177183</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.451105981696766</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>PGEL</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>534</v>
-      </c>
-      <c r="C23" t="n">
-        <v>536.05</v>
-      </c>
-      <c r="D23" t="n">
-        <v>519.55</v>
-      </c>
-      <c r="E23" t="n">
-        <v>527</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1917942</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1294251</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.4818933885312818</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>PGEL</t>
+          <t>CYIENT</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,660 +484,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219</v>
+        <v>2865.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1234.8</v>
+        <v>2909.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.2</v>
+        <v>2862</v>
       </c>
       <c r="E2" t="n">
-        <v>1228.3</v>
+        <v>2902</v>
       </c>
       <c r="F2" t="n">
-        <v>3345231</v>
+        <v>2494076</v>
       </c>
       <c r="G2" t="n">
-        <v>6782513</v>
+        <v>5933630</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5067859066396186</v>
+        <v>-0.5796711288031104</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2502</v>
+        <v>7440</v>
       </c>
       <c r="C3" t="n">
-        <v>2525</v>
+        <v>7467</v>
       </c>
       <c r="D3" t="n">
-        <v>2468.1</v>
+        <v>7375</v>
       </c>
       <c r="E3" t="n">
-        <v>2488</v>
+        <v>7419</v>
       </c>
       <c r="F3" t="n">
-        <v>2706326</v>
+        <v>218565</v>
       </c>
       <c r="G3" t="n">
-        <v>6685426</v>
+        <v>448567</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5951901943122249</v>
+        <v>-0.5127483742673893</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246</v>
+        <v>177.52</v>
       </c>
       <c r="C4" t="n">
-        <v>246</v>
+        <v>177.7</v>
       </c>
       <c r="D4" t="n">
-        <v>244</v>
+        <v>172.12</v>
       </c>
       <c r="E4" t="n">
-        <v>245.34</v>
+        <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>6211124</v>
+        <v>38345500</v>
       </c>
       <c r="G4" t="n">
-        <v>13152546</v>
+        <v>82083661</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5277626096118576</v>
+        <v>-0.5328485653192296</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="C5" t="n">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="D5" t="n">
-        <v>1487.8</v>
+        <v>1488.8</v>
       </c>
       <c r="E5" t="n">
-        <v>1496.7</v>
+        <v>1505.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2304918</v>
+        <v>9739549</v>
       </c>
       <c r="G5" t="n">
-        <v>4641466</v>
+        <v>19655689</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.503407328632807</v>
+        <v>-0.5044921091293213</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1080</v>
+        <v>453</v>
       </c>
       <c r="C6" t="n">
-        <v>1088</v>
+        <v>460.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1063.3</v>
+        <v>448.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1076.5</v>
+        <v>459.45</v>
       </c>
       <c r="F6" t="n">
-        <v>1991752</v>
+        <v>4449524</v>
       </c>
       <c r="G6" t="n">
-        <v>4147036</v>
+        <v>10531716</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5197167326254221</v>
+        <v>-0.5775119648118122</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>VBL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3826</v>
+        <v>528</v>
       </c>
       <c r="C7" t="n">
-        <v>3856</v>
+        <v>531.3</v>
       </c>
       <c r="D7" t="n">
-        <v>3800</v>
+        <v>521.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3832.9</v>
+        <v>526</v>
       </c>
       <c r="F7" t="n">
-        <v>182215</v>
+        <v>6780850</v>
       </c>
       <c r="G7" t="n">
-        <v>403999</v>
+        <v>14483739</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5489716558704353</v>
+        <v>-0.531830144136124</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>VEDL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4736</v>
+        <v>151.76</v>
       </c>
       <c r="C8" t="n">
-        <v>4771.2</v>
+        <v>153.74</v>
       </c>
       <c r="D8" t="n">
-        <v>4636.7</v>
+        <v>151.53</v>
       </c>
       <c r="E8" t="n">
-        <v>4745.2</v>
+        <v>152.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1280728</v>
+        <v>8855570</v>
       </c>
       <c r="G8" t="n">
-        <v>2723105</v>
+        <v>19743581</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5296810075263348</v>
+        <v>-0.551470931235828</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37150</v>
+        <v>2053.9</v>
       </c>
       <c r="C9" t="n">
-        <v>37650</v>
+        <v>2069.2</v>
       </c>
       <c r="D9" t="n">
-        <v>36945</v>
+        <v>2035.8</v>
       </c>
       <c r="E9" t="n">
-        <v>37120</v>
+        <v>2054.7</v>
       </c>
       <c r="F9" t="n">
-        <v>24679</v>
+        <v>591657</v>
       </c>
       <c r="G9" t="n">
-        <v>53670</v>
+        <v>1386426</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5401714179243525</v>
+        <v>-0.5732502131379533</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>LUPIN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>COLPAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622</v>
+        <v>2174</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5</v>
+        <v>2178.6</v>
       </c>
       <c r="D10" t="n">
-        <v>617.6</v>
+        <v>2165</v>
       </c>
       <c r="E10" t="n">
-        <v>619</v>
+        <v>2175.4</v>
       </c>
       <c r="F10" t="n">
-        <v>539936</v>
+        <v>96584</v>
       </c>
       <c r="G10" t="n">
-        <v>1180453</v>
+        <v>202651</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5426027126874174</v>
+        <v>-0.5233973678886361</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>COLPAL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3588.9</v>
+        <v>2205.8</v>
       </c>
       <c r="C11" t="n">
-        <v>3590</v>
+        <v>2218.5</v>
       </c>
       <c r="D11" t="n">
-        <v>3511</v>
+        <v>2176</v>
       </c>
       <c r="E11" t="n">
-        <v>3575.7</v>
+        <v>2202</v>
       </c>
       <c r="F11" t="n">
-        <v>541697</v>
+        <v>272597</v>
       </c>
       <c r="G11" t="n">
-        <v>1207676</v>
+        <v>556709</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5514550260169119</v>
+        <v>-0.510342027881712</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>760.6</v>
+        <v>742.6</v>
       </c>
       <c r="C12" t="n">
-        <v>765.5</v>
+        <v>748.8</v>
       </c>
       <c r="D12" t="n">
-        <v>753</v>
+        <v>736.15</v>
       </c>
       <c r="E12" t="n">
-        <v>756.35</v>
+        <v>737.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1752051</v>
+        <v>424102</v>
       </c>
       <c r="G12" t="n">
-        <v>4193619</v>
+        <v>939291</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5822102580134246</v>
+        <v>-0.5484871035706719</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>JSL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>316.05</v>
+        <v>662.1</v>
       </c>
       <c r="C13" t="n">
-        <v>320.9</v>
+        <v>666.6</v>
       </c>
       <c r="D13" t="n">
-        <v>314</v>
+        <v>650.5</v>
       </c>
       <c r="E13" t="n">
-        <v>314.35</v>
+        <v>654.55</v>
       </c>
       <c r="F13" t="n">
-        <v>3602435</v>
+        <v>491837</v>
       </c>
       <c r="G13" t="n">
-        <v>7164298</v>
+        <v>1099229</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4971684594917744</v>
+        <v>-0.5525618410722425</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>SYNGENE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1244.3</v>
+        <v>864</v>
       </c>
       <c r="C14" t="n">
-        <v>1251.7</v>
+        <v>872</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.9</v>
+        <v>845.85</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.1</v>
+        <v>848.35</v>
       </c>
       <c r="F14" t="n">
-        <v>553299</v>
+        <v>4460991</v>
       </c>
       <c r="G14" t="n">
-        <v>1128899</v>
+        <v>9325204</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5098773229491744</v>
+        <v>-0.5216200095997899</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>ANGELONE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>238.53</v>
+        <v>2713.5</v>
       </c>
       <c r="C15" t="n">
-        <v>238.66</v>
+        <v>2757</v>
       </c>
       <c r="D15" t="n">
-        <v>235.01</v>
+        <v>2710.7</v>
       </c>
       <c r="E15" t="n">
-        <v>235.53</v>
+        <v>2745</v>
       </c>
       <c r="F15" t="n">
-        <v>3764303</v>
+        <v>536041</v>
       </c>
       <c r="G15" t="n">
-        <v>8593960</v>
+        <v>1167192</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5619827180950342</v>
+        <v>-0.5407430825434033</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>NCC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>971</v>
+        <v>184.18</v>
       </c>
       <c r="C16" t="n">
-        <v>977.9</v>
+        <v>185.63</v>
       </c>
       <c r="D16" t="n">
-        <v>948.4</v>
+        <v>182.01</v>
       </c>
       <c r="E16" t="n">
-        <v>952</v>
+        <v>184.01</v>
       </c>
       <c r="F16" t="n">
-        <v>3239284</v>
+        <v>3449729</v>
       </c>
       <c r="G16" t="n">
-        <v>6846735</v>
+        <v>7226291</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5268863188074315</v>
+        <v>-0.522614159878145</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>NCC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>155.5</v>
+        <v>558</v>
       </c>
       <c r="C17" t="n">
-        <v>156.07</v>
+        <v>563.25</v>
       </c>
       <c r="D17" t="n">
-        <v>154</v>
+        <v>542.6</v>
       </c>
       <c r="E17" t="n">
-        <v>154.3</v>
+        <v>550.3</v>
       </c>
       <c r="F17" t="n">
-        <v>3841132</v>
+        <v>1196093</v>
       </c>
       <c r="G17" t="n">
-        <v>8535481</v>
+        <v>2619899</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5499806044908306</v>
+        <v>-0.5434583546922992</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>GRANULES</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>282.65</v>
+        <v>79.98</v>
       </c>
       <c r="C18" t="n">
-        <v>282.7</v>
+        <v>79.98</v>
       </c>
       <c r="D18" t="n">
-        <v>276.35</v>
+        <v>78.3</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9</v>
+        <v>78.5</v>
       </c>
       <c r="F18" t="n">
-        <v>2083208</v>
+        <v>1874527</v>
       </c>
       <c r="G18" t="n">
-        <v>4617350</v>
+        <v>3883210</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.5488303897257085</v>
+        <v>-0.5172738533326809</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AMBER</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7190.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7215</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7090.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7110</v>
-      </c>
-      <c r="F19" t="n">
-        <v>130365</v>
-      </c>
-      <c r="G19" t="n">
-        <v>317226</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5890469255357379</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>AMBER</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1659.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1665</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1621</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1624.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2358185</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4718903</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5002683886488025</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>490.05</v>
-      </c>
-      <c r="C21" t="n">
-        <v>494.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>477.6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>480</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1048846</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2241542</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.5320872863412776</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,429 +1111,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.7</v>
+        <v>1224</v>
       </c>
       <c r="C2" t="n">
-        <v>1200.4</v>
+        <v>1246</v>
       </c>
       <c r="D2" t="n">
-        <v>1178.1</v>
+        <v>1222</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.5</v>
+        <v>1244.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1427189</v>
+        <v>5197740</v>
       </c>
       <c r="G2" t="n">
-        <v>976290</v>
+        <v>3345231</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4618494504706593</v>
+        <v>0.5537761069414937</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>826</v>
+        <v>976.05</v>
       </c>
       <c r="C3" t="n">
-        <v>826.35</v>
+        <v>991.65</v>
       </c>
       <c r="D3" t="n">
-        <v>809.75</v>
+        <v>976.05</v>
       </c>
       <c r="E3" t="n">
-        <v>813.5</v>
+        <v>989</v>
       </c>
       <c r="F3" t="n">
-        <v>6048569</v>
+        <v>21386965</v>
       </c>
       <c r="G3" t="n">
-        <v>4239741</v>
+        <v>14124839</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4266364384050818</v>
+        <v>0.5141386744302006</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.65</v>
+        <v>562.5</v>
       </c>
       <c r="C4" t="n">
-        <v>309.35</v>
+        <v>564.8</v>
       </c>
       <c r="D4" t="n">
-        <v>296.6</v>
+        <v>558.7</v>
       </c>
       <c r="E4" t="n">
-        <v>297.4</v>
+        <v>563.4</v>
       </c>
       <c r="F4" t="n">
-        <v>63585986</v>
+        <v>1082167</v>
       </c>
       <c r="G4" t="n">
-        <v>43774443</v>
+        <v>685786</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4525824120708972</v>
+        <v>0.5779951763378081</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2044.4</v>
+        <v>111.31</v>
       </c>
       <c r="C5" t="n">
-        <v>2064.9</v>
+        <v>113.47</v>
       </c>
       <c r="D5" t="n">
-        <v>2022.4</v>
+        <v>108.8</v>
       </c>
       <c r="E5" t="n">
-        <v>2037.1</v>
+        <v>109.71</v>
       </c>
       <c r="F5" t="n">
-        <v>652557</v>
+        <v>68460187</v>
       </c>
       <c r="G5" t="n">
-        <v>457790</v>
+        <v>45246799</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4254505340876821</v>
+        <v>0.5130393422968993</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.35</v>
+        <v>3044.6</v>
       </c>
       <c r="C6" t="n">
-        <v>460.4</v>
+        <v>3075</v>
       </c>
       <c r="D6" t="n">
-        <v>451.6</v>
+        <v>3019</v>
       </c>
       <c r="E6" t="n">
-        <v>454.1</v>
+        <v>3053</v>
       </c>
       <c r="F6" t="n">
-        <v>10531716</v>
+        <v>214533</v>
       </c>
       <c r="G6" t="n">
-        <v>6996274</v>
+        <v>138040</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5053321239276792</v>
+        <v>0.5541364821790785</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3325</v>
+        <v>886</v>
       </c>
       <c r="C7" t="n">
-        <v>3406.8</v>
+        <v>894.55</v>
       </c>
       <c r="D7" t="n">
-        <v>3307.2</v>
+        <v>882.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3400</v>
+        <v>891.9</v>
       </c>
       <c r="F7" t="n">
-        <v>509408</v>
+        <v>1668762</v>
       </c>
       <c r="G7" t="n">
-        <v>349779</v>
+        <v>1162548</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4563710228458541</v>
+        <v>0.4354349239773325</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>874</v>
-      </c>
-      <c r="C8" t="n">
-        <v>886.85</v>
-      </c>
-      <c r="D8" t="n">
-        <v>866.35</v>
-      </c>
-      <c r="E8" t="n">
-        <v>879.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1877134</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1194966</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5708681251182042</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7662.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7816</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7637.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7743</v>
-      </c>
-      <c r="F9" t="n">
-        <v>182942</v>
-      </c>
-      <c r="G9" t="n">
-        <v>129351</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4143068086060409</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BLUESTARCO</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1797</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1807</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1780.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1787.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>317336</v>
-      </c>
-      <c r="G10" t="n">
-        <v>225467</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4074609588099367</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>BLUESTARCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>509.75</v>
-      </c>
-      <c r="C11" t="n">
-        <v>511.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>497</v>
-      </c>
-      <c r="E11" t="n">
-        <v>499</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2684487</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1756494</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5283211898247304</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1592.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1593.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1545.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1554</v>
-      </c>
-      <c r="F12" t="n">
-        <v>970265</v>
-      </c>
-      <c r="G12" t="n">
-        <v>677752</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4315929720605767</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7351.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7530</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7333</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7384.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>136906</v>
-      </c>
-      <c r="G13" t="n">
-        <v>92965</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4726617544237078</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CYIENT</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1181.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1150.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1152</v>
-      </c>
-      <c r="F14" t="n">
-        <v>265566</v>
-      </c>
-      <c r="G14" t="n">
-        <v>189671</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.400140242841552</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>CYIENT</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,25 +488,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2865.1</v>
+        <v>2906.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2909.9</v>
+        <v>2926.9</v>
       </c>
       <c r="D2" t="n">
-        <v>2862</v>
+        <v>2880</v>
       </c>
       <c r="E2" t="n">
-        <v>2902</v>
+        <v>2885.4</v>
       </c>
       <c r="F2" t="n">
+        <v>1230683</v>
+      </c>
+      <c r="G2" t="n">
         <v>2494076</v>
       </c>
-      <c r="G2" t="n">
-        <v>5933630</v>
-      </c>
       <c r="H2" t="n">
-        <v>-0.5796711288031104</v>
+        <v>-0.5065575387438074</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -517,528 +517,297 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7440</v>
+        <v>1222.5</v>
       </c>
       <c r="C3" t="n">
-        <v>7467</v>
+        <v>1241.1</v>
       </c>
       <c r="D3" t="n">
-        <v>7375</v>
+        <v>1218.3</v>
       </c>
       <c r="E3" t="n">
-        <v>7419</v>
+        <v>1240</v>
       </c>
       <c r="F3" t="n">
-        <v>218565</v>
+        <v>988088</v>
       </c>
       <c r="G3" t="n">
-        <v>448567</v>
+        <v>2055973</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5127483742673893</v>
+        <v>-0.5194061400611778</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.52</v>
+        <v>3067.6</v>
       </c>
       <c r="C4" t="n">
-        <v>177.7</v>
+        <v>3106.6</v>
       </c>
       <c r="D4" t="n">
-        <v>172.12</v>
+        <v>3053</v>
       </c>
       <c r="E4" t="n">
-        <v>174</v>
+        <v>3096</v>
       </c>
       <c r="F4" t="n">
-        <v>38345500</v>
+        <v>107644</v>
       </c>
       <c r="G4" t="n">
-        <v>82083661</v>
+        <v>214533</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5328485653192296</v>
+        <v>-0.4982403639533312</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>TIINDIA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ALKEM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1520</v>
+        <v>5750</v>
       </c>
       <c r="C5" t="n">
-        <v>1530</v>
+        <v>5750</v>
       </c>
       <c r="D5" t="n">
-        <v>1488.8</v>
+        <v>5631.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1505.8</v>
+        <v>5725</v>
       </c>
       <c r="F5" t="n">
-        <v>9739549</v>
+        <v>176721</v>
       </c>
       <c r="G5" t="n">
-        <v>19655689</v>
+        <v>383633</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5044921091293213</v>
+        <v>-0.5393488047170082</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ALKEM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>SJVN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453</v>
+        <v>83.69</v>
       </c>
       <c r="C6" t="n">
-        <v>460.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>448.6</v>
+        <v>83.25</v>
       </c>
       <c r="E6" t="n">
-        <v>459.45</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>4449524</v>
+        <v>1892839</v>
       </c>
       <c r="G6" t="n">
-        <v>10531716</v>
+        <v>3737752</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5775119648118122</v>
+        <v>-0.4935889272482498</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>SJVN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528</v>
+        <v>3576.3</v>
       </c>
       <c r="C7" t="n">
-        <v>531.3</v>
+        <v>3582</v>
       </c>
       <c r="D7" t="n">
-        <v>521.5</v>
+        <v>3528</v>
       </c>
       <c r="E7" t="n">
-        <v>526</v>
+        <v>3545</v>
       </c>
       <c r="F7" t="n">
-        <v>6780850</v>
+        <v>84301</v>
       </c>
       <c r="G7" t="n">
-        <v>14483739</v>
+        <v>167191</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.531830144136124</v>
+        <v>-0.4957802752540508</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>PIIND</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>151.76</v>
+        <v>630</v>
       </c>
       <c r="C8" t="n">
-        <v>153.74</v>
+        <v>630</v>
       </c>
       <c r="D8" t="n">
-        <v>151.53</v>
+        <v>620.6</v>
       </c>
       <c r="E8" t="n">
-        <v>152.9</v>
+        <v>621.8</v>
       </c>
       <c r="F8" t="n">
-        <v>8855570</v>
+        <v>387009</v>
       </c>
       <c r="G8" t="n">
-        <v>19743581</v>
+        <v>931132</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.551470931235828</v>
+        <v>-0.5843672003539777</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>ATGL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>MANKIND</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2053.9</v>
+        <v>2280</v>
       </c>
       <c r="C9" t="n">
-        <v>2069.2</v>
+        <v>2280</v>
       </c>
       <c r="D9" t="n">
-        <v>2035.8</v>
+        <v>2236</v>
       </c>
       <c r="E9" t="n">
-        <v>2054.7</v>
+        <v>2244</v>
       </c>
       <c r="F9" t="n">
-        <v>591657</v>
+        <v>292698</v>
       </c>
       <c r="G9" t="n">
-        <v>1386426</v>
+        <v>606234</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5732502131379533</v>
+        <v>-0.5171864329615297</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>MANKIND</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>NBCC</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2174</v>
+        <v>114.7</v>
       </c>
       <c r="C10" t="n">
-        <v>2178.6</v>
+        <v>117.5</v>
       </c>
       <c r="D10" t="n">
-        <v>2165</v>
+        <v>113.7</v>
       </c>
       <c r="E10" t="n">
-        <v>2175.4</v>
+        <v>116.95</v>
       </c>
       <c r="F10" t="n">
-        <v>96584</v>
+        <v>15262875</v>
       </c>
       <c r="G10" t="n">
-        <v>202651</v>
+        <v>37966431</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5233973678886361</v>
+        <v>-0.5979902614496474</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>NBCC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2205.8</v>
+        <v>321</v>
       </c>
       <c r="C11" t="n">
-        <v>2218.5</v>
+        <v>321</v>
       </c>
       <c r="D11" t="n">
-        <v>2176</v>
+        <v>315.95</v>
       </c>
       <c r="E11" t="n">
-        <v>2202</v>
+        <v>317.15</v>
       </c>
       <c r="F11" t="n">
-        <v>272597</v>
+        <v>2615820</v>
       </c>
       <c r="G11" t="n">
-        <v>556709</v>
+        <v>5156226</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.510342027881712</v>
+        <v>-0.4926870932344704</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>JSL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>742.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>748.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>736.15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>737.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>424102</v>
-      </c>
-      <c r="G12" t="n">
-        <v>939291</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5484871035706719</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>JSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>662.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>666.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>650.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>654.55</v>
-      </c>
-      <c r="F13" t="n">
-        <v>491837</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1099229</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5525618410722425</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>INDUSINDBK</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>864</v>
-      </c>
-      <c r="C14" t="n">
-        <v>872</v>
-      </c>
-      <c r="D14" t="n">
-        <v>845.85</v>
-      </c>
-      <c r="E14" t="n">
-        <v>848.35</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4460991</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9325204</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5216200095997899</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>INDUSINDBK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2713.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2757</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2710.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2745</v>
-      </c>
-      <c r="F15" t="n">
-        <v>536041</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1167192</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5407430825434033</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>184.18</v>
-      </c>
-      <c r="C16" t="n">
-        <v>185.63</v>
-      </c>
-      <c r="D16" t="n">
-        <v>182.01</v>
-      </c>
-      <c r="E16" t="n">
-        <v>184.01</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3449729</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7226291</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.522614159878145</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>558</v>
-      </c>
-      <c r="C17" t="n">
-        <v>563.25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>542.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>550.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1196093</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2619899</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5434583546922992</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>79.98</v>
-      </c>
-      <c r="C18" t="n">
-        <v>79.98</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1874527</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3883210</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5172738533326809</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
+          <t>RBLBANK</t>
         </is>
       </c>
     </row>
@@ -1111,198 +880,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1224</v>
+        <v>1212.4</v>
       </c>
       <c r="C2" t="n">
-        <v>1246</v>
+        <v>1223</v>
       </c>
       <c r="D2" t="n">
-        <v>1222</v>
+        <v>1210.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1244.4</v>
+        <v>1221.3</v>
       </c>
       <c r="F2" t="n">
-        <v>5197740</v>
+        <v>781591</v>
       </c>
       <c r="G2" t="n">
-        <v>3345231</v>
+        <v>541800</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5537761069414937</v>
+        <v>0.4425821336286452</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>976.05</v>
+        <v>948</v>
       </c>
       <c r="C3" t="n">
-        <v>991.65</v>
+        <v>949.95</v>
       </c>
       <c r="D3" t="n">
-        <v>976.05</v>
+        <v>932.15</v>
       </c>
       <c r="E3" t="n">
-        <v>989</v>
+        <v>935</v>
       </c>
       <c r="F3" t="n">
-        <v>21386965</v>
+        <v>873274</v>
       </c>
       <c r="G3" t="n">
-        <v>14124839</v>
+        <v>592731</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5141386744302006</v>
+        <v>0.4733057660220235</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.5</v>
+        <v>753.5</v>
       </c>
       <c r="C4" t="n">
-        <v>564.8</v>
+        <v>764.65</v>
       </c>
       <c r="D4" t="n">
-        <v>558.7</v>
+        <v>750.2</v>
       </c>
       <c r="E4" t="n">
-        <v>563.4</v>
+        <v>758.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1082167</v>
+        <v>3726013</v>
       </c>
       <c r="G4" t="n">
-        <v>685786</v>
+        <v>2572321</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5779951763378081</v>
+        <v>0.448502344769568</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>MARICO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.31</v>
+        <v>483</v>
       </c>
       <c r="C5" t="n">
-        <v>113.47</v>
+        <v>492.2</v>
       </c>
       <c r="D5" t="n">
-        <v>108.8</v>
+        <v>482.4</v>
       </c>
       <c r="E5" t="n">
-        <v>109.71</v>
+        <v>486</v>
       </c>
       <c r="F5" t="n">
-        <v>68460187</v>
+        <v>3478922</v>
       </c>
       <c r="G5" t="n">
-        <v>45246799</v>
+        <v>2456049</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5130393422968993</v>
+        <v>0.4164709254579204</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>COLPAL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3044.6</v>
+        <v>2172.9</v>
       </c>
       <c r="C6" t="n">
-        <v>3075</v>
+        <v>2194.6</v>
       </c>
       <c r="D6" t="n">
-        <v>3019</v>
+        <v>2172.9</v>
       </c>
       <c r="E6" t="n">
-        <v>3053</v>
+        <v>2185.7</v>
       </c>
       <c r="F6" t="n">
-        <v>214533</v>
+        <v>135290</v>
       </c>
       <c r="G6" t="n">
-        <v>138040</v>
+        <v>96584</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5541364821790785</v>
+        <v>0.4007496065600928</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>COLPAL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>886</v>
+        <v>154.99</v>
       </c>
       <c r="C7" t="n">
-        <v>894.55</v>
+        <v>157.75</v>
       </c>
       <c r="D7" t="n">
-        <v>882.5</v>
+        <v>154.55</v>
       </c>
       <c r="E7" t="n">
-        <v>891.9</v>
+        <v>155</v>
       </c>
       <c r="F7" t="n">
-        <v>1668762</v>
+        <v>5810479</v>
       </c>
       <c r="G7" t="n">
-        <v>1162548</v>
+        <v>4141559</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4354349239773325</v>
+        <v>0.4029690268809402</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2906.4</v>
+        <v>2090.6</v>
       </c>
       <c r="C2" t="n">
-        <v>2926.9</v>
+        <v>2107</v>
       </c>
       <c r="D2" t="n">
-        <v>2880</v>
+        <v>2080</v>
       </c>
       <c r="E2" t="n">
-        <v>2885.4</v>
+        <v>2095.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1230683</v>
+        <v>2060068</v>
       </c>
       <c r="G2" t="n">
-        <v>2494076</v>
+        <v>5030328</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5065575387438074</v>
+        <v>-0.5904704424840687</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1222.5</v>
+        <v>2462</v>
       </c>
       <c r="C3" t="n">
-        <v>1241.1</v>
+        <v>2478.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1218.3</v>
+        <v>2434.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1240</v>
+        <v>2439</v>
       </c>
       <c r="F3" t="n">
-        <v>988088</v>
+        <v>1245215</v>
       </c>
       <c r="G3" t="n">
-        <v>2055973</v>
+        <v>2672697</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5194061400611778</v>
+        <v>-0.5340979542387334</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3067.6</v>
+        <v>1092</v>
       </c>
       <c r="C4" t="n">
-        <v>3106.6</v>
+        <v>1097.2</v>
       </c>
       <c r="D4" t="n">
-        <v>3053</v>
+        <v>1075</v>
       </c>
       <c r="E4" t="n">
-        <v>3096</v>
+        <v>1077.2</v>
       </c>
       <c r="F4" t="n">
-        <v>107644</v>
+        <v>1414894</v>
       </c>
       <c r="G4" t="n">
-        <v>214533</v>
+        <v>2888868</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4982403639533312</v>
+        <v>-0.5102254585533157</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TIINDIA</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>IRFC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5750</v>
+        <v>122.5</v>
       </c>
       <c r="C5" t="n">
-        <v>5750</v>
+        <v>122.74</v>
       </c>
       <c r="D5" t="n">
-        <v>5631.5</v>
+        <v>120.7</v>
       </c>
       <c r="E5" t="n">
-        <v>5725</v>
+        <v>120.92</v>
       </c>
       <c r="F5" t="n">
-        <v>176721</v>
+        <v>4555639</v>
       </c>
       <c r="G5" t="n">
-        <v>383633</v>
+        <v>9945324</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5393488047170082</v>
+        <v>-0.5419315650249303</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>IRFC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.69</v>
+        <v>382.2</v>
       </c>
       <c r="C6" t="n">
-        <v>84.40000000000001</v>
+        <v>383.45</v>
       </c>
       <c r="D6" t="n">
-        <v>83.25</v>
+        <v>378.95</v>
       </c>
       <c r="E6" t="n">
-        <v>83.34999999999999</v>
+        <v>381.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1892839</v>
+        <v>1771009</v>
       </c>
       <c r="G6" t="n">
-        <v>3737752</v>
+        <v>3658302</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4935889272482498</v>
+        <v>-0.5158931657364537</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3576.3</v>
+        <v>147.41</v>
       </c>
       <c r="C7" t="n">
-        <v>3582</v>
+        <v>148.7</v>
       </c>
       <c r="D7" t="n">
-        <v>3528</v>
+        <v>146.21</v>
       </c>
       <c r="E7" t="n">
-        <v>3545</v>
+        <v>146.99</v>
       </c>
       <c r="F7" t="n">
-        <v>84301</v>
+        <v>5679286</v>
       </c>
       <c r="G7" t="n">
-        <v>167191</v>
+        <v>11822101</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4957802752540508</v>
+        <v>-0.5196043410557903</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630</v>
+        <v>1815</v>
       </c>
       <c r="C8" t="n">
-        <v>630</v>
+        <v>1831</v>
       </c>
       <c r="D8" t="n">
-        <v>620.6</v>
+        <v>1789</v>
       </c>
       <c r="E8" t="n">
-        <v>621.8</v>
+        <v>1803</v>
       </c>
       <c r="F8" t="n">
-        <v>387009</v>
+        <v>1391840</v>
       </c>
       <c r="G8" t="n">
-        <v>931132</v>
+        <v>3081344</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5843672003539777</v>
+        <v>-0.5483010011215885</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2280</v>
+        <v>854.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2280</v>
+        <v>858.5</v>
       </c>
       <c r="D9" t="n">
-        <v>2236</v>
+        <v>845.05</v>
       </c>
       <c r="E9" t="n">
-        <v>2244</v>
+        <v>847.8</v>
       </c>
       <c r="F9" t="n">
-        <v>292698</v>
+        <v>1958051</v>
       </c>
       <c r="G9" t="n">
-        <v>606234</v>
+        <v>4019335</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5171864329615297</v>
+        <v>-0.5128420497420593</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>YESBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.7</v>
+        <v>23.19</v>
       </c>
       <c r="C10" t="n">
-        <v>117.5</v>
+        <v>23.25</v>
       </c>
       <c r="D10" t="n">
-        <v>113.7</v>
+        <v>22.95</v>
       </c>
       <c r="E10" t="n">
-        <v>116.95</v>
+        <v>22.97</v>
       </c>
       <c r="F10" t="n">
-        <v>15262875</v>
+        <v>74216797</v>
       </c>
       <c r="G10" t="n">
-        <v>37966431</v>
+        <v>156830924</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5979902614496474</v>
+        <v>-0.5267719203133688</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>YESBANK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>321</v>
+        <v>3680.1</v>
       </c>
       <c r="C11" t="n">
-        <v>321</v>
+        <v>3748.1</v>
       </c>
       <c r="D11" t="n">
-        <v>315.95</v>
+        <v>3680.1</v>
       </c>
       <c r="E11" t="n">
-        <v>317.15</v>
+        <v>3692.1</v>
       </c>
       <c r="F11" t="n">
-        <v>2615820</v>
+        <v>525413</v>
       </c>
       <c r="G11" t="n">
-        <v>5156226</v>
+        <v>1176503</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4926870932344704</v>
+        <v>-0.5534112535199656</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CESC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>175.61</v>
+      </c>
+      <c r="C12" t="n">
+        <v>176</v>
+      </c>
+      <c r="D12" t="n">
+        <v>172.82</v>
+      </c>
+      <c r="E12" t="n">
+        <v>175.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>983855</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2442534</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5971990563897984</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2839</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2867</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2785</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2790.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>744032</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1513166</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.508294529483216</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
@@ -822,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,198 +946,495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1212.4</v>
+        <v>2886</v>
       </c>
       <c r="C2" t="n">
-        <v>1223</v>
+        <v>2916</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.5</v>
+        <v>2862.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1221.3</v>
+        <v>2902.2</v>
       </c>
       <c r="F2" t="n">
-        <v>781591</v>
+        <v>1819066</v>
       </c>
       <c r="G2" t="n">
-        <v>541800</v>
+        <v>1230683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4425821336286452</v>
+        <v>0.4780946840087983</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>948</v>
+        <v>4020</v>
       </c>
       <c r="C3" t="n">
-        <v>949.95</v>
+        <v>4026.8</v>
       </c>
       <c r="D3" t="n">
-        <v>932.15</v>
+        <v>3978.9</v>
       </c>
       <c r="E3" t="n">
-        <v>935</v>
+        <v>3998.9</v>
       </c>
       <c r="F3" t="n">
-        <v>873274</v>
+        <v>1748928</v>
       </c>
       <c r="G3" t="n">
-        <v>592731</v>
+        <v>1206133</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4733057660220235</v>
+        <v>0.4500291427230662</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>INDIGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>753.5</v>
+        <v>5876</v>
       </c>
       <c r="C4" t="n">
-        <v>764.65</v>
+        <v>5888.5</v>
       </c>
       <c r="D4" t="n">
-        <v>750.2</v>
+        <v>5733.5</v>
       </c>
       <c r="E4" t="n">
-        <v>758.8</v>
+        <v>5758.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3726013</v>
+        <v>906483</v>
       </c>
       <c r="G4" t="n">
-        <v>2572321</v>
+        <v>608336</v>
       </c>
       <c r="H4" t="n">
-        <v>0.448502344769568</v>
+        <v>0.4901025091396859</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>INDIGO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>483</v>
+        <v>1444</v>
       </c>
       <c r="C5" t="n">
-        <v>492.2</v>
+        <v>1451.1</v>
       </c>
       <c r="D5" t="n">
-        <v>482.4</v>
+        <v>1419.5</v>
       </c>
       <c r="E5" t="n">
-        <v>486</v>
+        <v>1420.7</v>
       </c>
       <c r="F5" t="n">
-        <v>3478922</v>
+        <v>1553597</v>
       </c>
       <c r="G5" t="n">
-        <v>2456049</v>
+        <v>999416</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4164709254579204</v>
+        <v>0.5545048308211996</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2172.9</v>
+        <v>1023.8</v>
       </c>
       <c r="C6" t="n">
-        <v>2194.6</v>
+        <v>1036</v>
       </c>
       <c r="D6" t="n">
-        <v>2172.9</v>
+        <v>1017.75</v>
       </c>
       <c r="E6" t="n">
-        <v>2185.7</v>
+        <v>1024.25</v>
       </c>
       <c r="F6" t="n">
-        <v>135290</v>
+        <v>1175321</v>
       </c>
       <c r="G6" t="n">
-        <v>96584</v>
+        <v>837345</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4007496065600928</v>
+        <v>0.4036281341621434</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.99</v>
+        <v>568</v>
       </c>
       <c r="C7" t="n">
-        <v>157.75</v>
+        <v>568</v>
       </c>
       <c r="D7" t="n">
-        <v>154.55</v>
+        <v>556.75</v>
       </c>
       <c r="E7" t="n">
-        <v>155</v>
+        <v>558</v>
       </c>
       <c r="F7" t="n">
-        <v>5810479</v>
+        <v>904843</v>
       </c>
       <c r="G7" t="n">
-        <v>4141559</v>
+        <v>618154</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4029690268809402</v>
+        <v>0.4637824878590125</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>AMBUJACEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LTIM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5848</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5862.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5749</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5762.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>160191</v>
+      </c>
+      <c r="G8" t="n">
+        <v>108410</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4776404390738861</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>LTIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>284.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>290.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>282.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>289.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11332882</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7910619</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4326163350807313</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2811.6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2872.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2787.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2826.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5402562</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3818270</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4149240362782098</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>594.95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>582</v>
+      </c>
+      <c r="E11" t="n">
+        <v>586.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2112668</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1391118</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5186835336757917</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1745.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1749</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1717.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1729.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>287932</v>
+      </c>
+      <c r="G12" t="n">
+        <v>191049</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5071107412234558</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COFORGE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1795</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1771.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1775</v>
+      </c>
+      <c r="F13" t="n">
+        <v>785781</v>
+      </c>
+      <c r="G13" t="n">
+        <v>518247</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5162287480680062</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>COFORGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1745</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1705.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1707</v>
+      </c>
+      <c r="F14" t="n">
+        <v>233440</v>
+      </c>
+      <c r="G14" t="n">
+        <v>150217</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5540185198745814</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>185</v>
+      </c>
+      <c r="C15" t="n">
+        <v>185.12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>182.18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3443281</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2410328</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4285528774507038</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>195.47</v>
+      </c>
+      <c r="C16" t="n">
+        <v>195.88</v>
+      </c>
+      <c r="D16" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>191.95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2356015</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1619560</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4547253575045074</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,396 +484,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.6</v>
+        <v>1268</v>
       </c>
       <c r="C2" t="n">
-        <v>2107</v>
+        <v>1273</v>
       </c>
       <c r="D2" t="n">
-        <v>2080</v>
+        <v>1257.8</v>
       </c>
       <c r="E2" t="n">
-        <v>2095.6</v>
+        <v>1270.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2060068</v>
+        <v>4101288</v>
       </c>
       <c r="G2" t="n">
-        <v>5030328</v>
+        <v>10175969</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5904704424840687</v>
+        <v>-0.596963394837386</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2462</v>
+        <v>797.15</v>
       </c>
       <c r="C3" t="n">
-        <v>2478.6</v>
+        <v>798.8</v>
       </c>
       <c r="D3" t="n">
-        <v>2434.3</v>
+        <v>790</v>
       </c>
       <c r="E3" t="n">
-        <v>2439</v>
+        <v>792</v>
       </c>
       <c r="F3" t="n">
-        <v>1245215</v>
+        <v>3005726</v>
       </c>
       <c r="G3" t="n">
-        <v>2672697</v>
+        <v>7299555</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5340979542387334</v>
+        <v>-0.5882316113790498</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1092</v>
+        <v>475</v>
       </c>
       <c r="C4" t="n">
-        <v>1097.2</v>
+        <v>478.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1075</v>
+        <v>473.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1077.2</v>
+        <v>477.9</v>
       </c>
       <c r="F4" t="n">
-        <v>1414894</v>
+        <v>2595527</v>
       </c>
       <c r="G4" t="n">
-        <v>2888868</v>
+        <v>6175474</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5102254585533157</v>
+        <v>-0.5797040032878448</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>HINDZINC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.5</v>
+        <v>509</v>
       </c>
       <c r="C5" t="n">
-        <v>122.74</v>
+        <v>514.8</v>
       </c>
       <c r="D5" t="n">
-        <v>120.7</v>
+        <v>507.55</v>
       </c>
       <c r="E5" t="n">
-        <v>120.92</v>
+        <v>511.7</v>
       </c>
       <c r="F5" t="n">
-        <v>4555639</v>
+        <v>4009545</v>
       </c>
       <c r="G5" t="n">
-        <v>9945324</v>
+        <v>7919977</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5419315650249303</v>
+        <v>-0.4937428479905939</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>VEDL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382.2</v>
+        <v>184.4</v>
       </c>
       <c r="C6" t="n">
-        <v>383.45</v>
+        <v>184.88</v>
       </c>
       <c r="D6" t="n">
-        <v>378.95</v>
+        <v>183.3</v>
       </c>
       <c r="E6" t="n">
-        <v>381.9</v>
+        <v>184.05</v>
       </c>
       <c r="F6" t="n">
-        <v>1771009</v>
+        <v>3032584</v>
       </c>
       <c r="G6" t="n">
-        <v>3658302</v>
+        <v>6258414</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5158931657364537</v>
+        <v>-0.5154388955412665</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>ALKEM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.41</v>
+        <v>5730</v>
       </c>
       <c r="C7" t="n">
-        <v>148.7</v>
+        <v>5747.5</v>
       </c>
       <c r="D7" t="n">
-        <v>146.21</v>
+        <v>5659.5</v>
       </c>
       <c r="E7" t="n">
-        <v>146.99</v>
+        <v>5743</v>
       </c>
       <c r="F7" t="n">
-        <v>5679286</v>
+        <v>104658</v>
       </c>
       <c r="G7" t="n">
-        <v>11822101</v>
+        <v>243124</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5196043410557903</v>
+        <v>-0.5695283065431631</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>ALKEM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1815</v>
+        <v>269</v>
       </c>
       <c r="C8" t="n">
-        <v>1831</v>
+        <v>270.47</v>
       </c>
       <c r="D8" t="n">
-        <v>1789</v>
+        <v>265.53</v>
       </c>
       <c r="E8" t="n">
-        <v>1803</v>
+        <v>268.99</v>
       </c>
       <c r="F8" t="n">
-        <v>1391840</v>
+        <v>3887160</v>
       </c>
       <c r="G8" t="n">
-        <v>3081344</v>
+        <v>8683313</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5483010011215885</v>
+        <v>-0.5523413701659724</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>854.05</v>
+        <v>1233.9</v>
       </c>
       <c r="C9" t="n">
-        <v>858.5</v>
+        <v>1244.3</v>
       </c>
       <c r="D9" t="n">
-        <v>845.05</v>
+        <v>1228.7</v>
       </c>
       <c r="E9" t="n">
-        <v>847.8</v>
+        <v>1232.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1958051</v>
+        <v>744634</v>
       </c>
       <c r="G9" t="n">
-        <v>4019335</v>
+        <v>1827771</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5128420497420593</v>
+        <v>-0.5925999482429691</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>CONCOR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.19</v>
+        <v>525.4</v>
       </c>
       <c r="C10" t="n">
-        <v>23.25</v>
+        <v>528.4</v>
       </c>
       <c r="D10" t="n">
-        <v>22.95</v>
+        <v>516</v>
       </c>
       <c r="E10" t="n">
-        <v>22.97</v>
+        <v>517</v>
       </c>
       <c r="F10" t="n">
-        <v>74216797</v>
+        <v>1589480</v>
       </c>
       <c r="G10" t="n">
-        <v>156830924</v>
+        <v>3630058</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5267719203133688</v>
+        <v>-0.5621337179736522</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>YESBANK</t>
+          <t>CONCOR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3680.1</v>
+        <v>2055</v>
       </c>
       <c r="C11" t="n">
-        <v>3748.1</v>
+        <v>2055</v>
       </c>
       <c r="D11" t="n">
-        <v>3680.1</v>
+        <v>2019.7</v>
       </c>
       <c r="E11" t="n">
-        <v>3692.1</v>
+        <v>2025</v>
       </c>
       <c r="F11" t="n">
-        <v>525413</v>
+        <v>684024</v>
       </c>
       <c r="G11" t="n">
-        <v>1176503</v>
+        <v>1357360</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5534112535199656</v>
+        <v>-0.4960629457181588</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>LUPIN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CESC</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175.61</v>
+        <v>424</v>
       </c>
       <c r="C12" t="n">
-        <v>176</v>
+        <v>424.45</v>
       </c>
       <c r="D12" t="n">
-        <v>172.82</v>
+        <v>408.45</v>
       </c>
       <c r="E12" t="n">
-        <v>175.25</v>
+        <v>409.8</v>
       </c>
       <c r="F12" t="n">
-        <v>983855</v>
+        <v>3249725</v>
       </c>
       <c r="G12" t="n">
-        <v>2442534</v>
+        <v>7436143</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5971990563897984</v>
+        <v>-0.5629824493692496</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CESC</t>
+          <t>BIOCON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2839</v>
+        <v>565.9</v>
       </c>
       <c r="C13" t="n">
-        <v>2867</v>
+        <v>565.9</v>
       </c>
       <c r="D13" t="n">
-        <v>2785</v>
+        <v>556.4</v>
       </c>
       <c r="E13" t="n">
-        <v>2790.9</v>
+        <v>558</v>
       </c>
       <c r="F13" t="n">
-        <v>744032</v>
+        <v>864945</v>
       </c>
       <c r="G13" t="n">
-        <v>1513166</v>
+        <v>2048417</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.508294529483216</v>
+        <v>-0.57774955001838</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>IIFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D14" t="n">
+        <v>982.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>985</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1288996</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2922214</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5588974660993342</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>
@@ -888,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,495 +979,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2886</v>
+        <v>1490.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2916</v>
+        <v>1543</v>
       </c>
       <c r="D2" t="n">
-        <v>2862.1</v>
+        <v>1490.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2902.2</v>
+        <v>1542</v>
       </c>
       <c r="F2" t="n">
-        <v>1819066</v>
+        <v>10981126</v>
       </c>
       <c r="G2" t="n">
-        <v>1230683</v>
+        <v>7525119</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4780946840087983</v>
+        <v>0.4592627704625003</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>INFY</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4020</v>
+        <v>1762</v>
       </c>
       <c r="C3" t="n">
-        <v>4026.8</v>
+        <v>1790.3</v>
       </c>
       <c r="D3" t="n">
-        <v>3978.9</v>
+        <v>1751.1</v>
       </c>
       <c r="E3" t="n">
-        <v>3998.9</v>
+        <v>1786.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1748928</v>
+        <v>2131124</v>
       </c>
       <c r="G3" t="n">
-        <v>1206133</v>
+        <v>1429522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4500291427230662</v>
+        <v>0.4907948251233629</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5876</v>
+        <v>7419</v>
       </c>
       <c r="C4" t="n">
-        <v>5888.5</v>
+        <v>7482</v>
       </c>
       <c r="D4" t="n">
-        <v>5733.5</v>
+        <v>7332</v>
       </c>
       <c r="E4" t="n">
-        <v>5758.5</v>
+        <v>7450</v>
       </c>
       <c r="F4" t="n">
-        <v>906483</v>
+        <v>454714</v>
       </c>
       <c r="G4" t="n">
-        <v>608336</v>
+        <v>285148</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4901025091396859</v>
+        <v>0.5946596153576389</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1444</v>
+        <v>1511.4</v>
       </c>
       <c r="C5" t="n">
-        <v>1451.1</v>
+        <v>1529.6</v>
       </c>
       <c r="D5" t="n">
-        <v>1419.5</v>
+        <v>1505.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1420.7</v>
+        <v>1526</v>
       </c>
       <c r="F5" t="n">
-        <v>1553597</v>
+        <v>1171078</v>
       </c>
       <c r="G5" t="n">
-        <v>999416</v>
+        <v>747913</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5545048308211996</v>
+        <v>0.5657944172651097</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1023.8</v>
+        <v>1324.9</v>
       </c>
       <c r="C6" t="n">
-        <v>1036</v>
+        <v>1364</v>
       </c>
       <c r="D6" t="n">
-        <v>1017.75</v>
+        <v>1318</v>
       </c>
       <c r="E6" t="n">
-        <v>1024.25</v>
+        <v>1363.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1175321</v>
+        <v>862715</v>
       </c>
       <c r="G6" t="n">
-        <v>837345</v>
+        <v>561417</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4036281341621434</v>
+        <v>0.5366741655489592</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>568</v>
+        <v>1080.2</v>
       </c>
       <c r="C7" t="n">
-        <v>568</v>
+        <v>1084.5</v>
       </c>
       <c r="D7" t="n">
-        <v>556.75</v>
+        <v>1052.2</v>
       </c>
       <c r="E7" t="n">
-        <v>558</v>
+        <v>1069.9</v>
       </c>
       <c r="F7" t="n">
-        <v>904843</v>
+        <v>2155114</v>
       </c>
       <c r="G7" t="n">
-        <v>618154</v>
+        <v>1414894</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4637824878590125</v>
+        <v>0.5231628659108032</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5848</v>
+        <v>1465</v>
       </c>
       <c r="C8" t="n">
-        <v>5862.5</v>
+        <v>1466.2</v>
       </c>
       <c r="D8" t="n">
-        <v>5749</v>
+        <v>1438.3</v>
       </c>
       <c r="E8" t="n">
-        <v>5762.5</v>
+        <v>1444.3</v>
       </c>
       <c r="F8" t="n">
-        <v>160191</v>
+        <v>1021976</v>
       </c>
       <c r="G8" t="n">
-        <v>108410</v>
+        <v>708532</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4776404390738861</v>
+        <v>0.4423851004612354</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>HAVELLS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.95</v>
+        <v>526.05</v>
       </c>
       <c r="C9" t="n">
-        <v>290.2</v>
+        <v>528.7</v>
       </c>
       <c r="D9" t="n">
-        <v>282.9</v>
+        <v>512.35</v>
       </c>
       <c r="E9" t="n">
-        <v>289.2</v>
+        <v>513</v>
       </c>
       <c r="F9" t="n">
-        <v>11332882</v>
+        <v>2913764</v>
       </c>
       <c r="G9" t="n">
-        <v>7910619</v>
+        <v>2011169</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4326163350807313</v>
+        <v>0.448791225401744</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2811.6</v>
+        <v>1701.9</v>
       </c>
       <c r="C10" t="n">
-        <v>2872.5</v>
+        <v>1722.7</v>
       </c>
       <c r="D10" t="n">
-        <v>2787.9</v>
+        <v>1689.1</v>
       </c>
       <c r="E10" t="n">
-        <v>2826.3</v>
+        <v>1714.8</v>
       </c>
       <c r="F10" t="n">
-        <v>5402562</v>
+        <v>334415</v>
       </c>
       <c r="G10" t="n">
-        <v>3818270</v>
+        <v>233440</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4149240362782098</v>
+        <v>0.4325522618231665</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>KFINTECH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593</v>
+        <v>1091.9</v>
       </c>
       <c r="C11" t="n">
-        <v>594.95</v>
+        <v>1093.3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>1072.2</v>
       </c>
       <c r="E11" t="n">
-        <v>586.05</v>
+        <v>1082.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2112668</v>
+        <v>461199</v>
       </c>
       <c r="G11" t="n">
-        <v>1391118</v>
+        <v>322950</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5186835336757917</v>
+        <v>0.4280817464003716</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PHOENIXLTD</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1745.9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1749</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1717.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1729.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>287932</v>
-      </c>
-      <c r="G12" t="n">
-        <v>191049</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5071107412234558</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>PHOENIXLTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>COFORGE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1790</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1795</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1771.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1775</v>
-      </c>
-      <c r="F13" t="n">
-        <v>785781</v>
-      </c>
-      <c r="G13" t="n">
-        <v>518247</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5162287480680062</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>COFORGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1745</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1753</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1705.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1707</v>
-      </c>
-      <c r="F14" t="n">
-        <v>233440</v>
-      </c>
-      <c r="G14" t="n">
-        <v>150217</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5540185198745814</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>185</v>
-      </c>
-      <c r="C15" t="n">
-        <v>185.12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>182.18</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3443281</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2410328</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4285528774507038</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>195.47</v>
-      </c>
-      <c r="C16" t="n">
-        <v>195.88</v>
-      </c>
-      <c r="D16" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>191.95</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2356015</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1619560</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4547253575045074</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -484,429 +484,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268</v>
+        <v>1445.3</v>
       </c>
       <c r="C2" t="n">
-        <v>1273</v>
+        <v>1464.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1257.8</v>
+        <v>1430.7</v>
       </c>
       <c r="E2" t="n">
-        <v>1270.1</v>
+        <v>1460</v>
       </c>
       <c r="F2" t="n">
-        <v>4101288</v>
+        <v>2818268</v>
       </c>
       <c r="G2" t="n">
-        <v>10175969</v>
+        <v>5777445</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.596963394837386</v>
+        <v>-0.512194750447646</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>797.15</v>
+        <v>1166</v>
       </c>
       <c r="C3" t="n">
-        <v>798.8</v>
+        <v>1172</v>
       </c>
       <c r="D3" t="n">
-        <v>790</v>
+        <v>1147.9</v>
       </c>
       <c r="E3" t="n">
-        <v>792</v>
+        <v>1168.8</v>
       </c>
       <c r="F3" t="n">
-        <v>3005726</v>
+        <v>2784798</v>
       </c>
       <c r="G3" t="n">
-        <v>7299555</v>
+        <v>5964536</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5882316113790498</v>
+        <v>-0.5331073531956216</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>475</v>
+        <v>247.5</v>
       </c>
       <c r="C4" t="n">
-        <v>478.5</v>
+        <v>247.8</v>
       </c>
       <c r="D4" t="n">
-        <v>473.7</v>
+        <v>245.71</v>
       </c>
       <c r="E4" t="n">
-        <v>477.9</v>
+        <v>246.38</v>
       </c>
       <c r="F4" t="n">
-        <v>2595527</v>
+        <v>6705862</v>
       </c>
       <c r="G4" t="n">
-        <v>6175474</v>
+        <v>13298452</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5797040032878448</v>
+        <v>-0.4957411584446069</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>WIPRO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509</v>
+        <v>7481</v>
       </c>
       <c r="C5" t="n">
-        <v>514.8</v>
+        <v>7491</v>
       </c>
       <c r="D5" t="n">
-        <v>507.55</v>
+        <v>7415</v>
       </c>
       <c r="E5" t="n">
-        <v>511.7</v>
+        <v>7440</v>
       </c>
       <c r="F5" t="n">
-        <v>4009545</v>
+        <v>228411</v>
       </c>
       <c r="G5" t="n">
-        <v>7919977</v>
+        <v>454714</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4937428479905939</v>
+        <v>-0.4976820594923402</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184.4</v>
+        <v>3950</v>
       </c>
       <c r="C6" t="n">
-        <v>184.88</v>
+        <v>3956</v>
       </c>
       <c r="D6" t="n">
-        <v>183.3</v>
+        <v>3895</v>
       </c>
       <c r="E6" t="n">
-        <v>184.05</v>
+        <v>3900</v>
       </c>
       <c r="F6" t="n">
-        <v>3032584</v>
+        <v>762391</v>
       </c>
       <c r="G6" t="n">
-        <v>6258414</v>
+        <v>1578123</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5154388955412665</v>
+        <v>-0.5169001402298807</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5730</v>
+        <v>1662.6</v>
       </c>
       <c r="C7" t="n">
-        <v>5747.5</v>
+        <v>1668.4</v>
       </c>
       <c r="D7" t="n">
-        <v>5659.5</v>
+        <v>1642.6</v>
       </c>
       <c r="E7" t="n">
-        <v>5743</v>
+        <v>1644.4</v>
       </c>
       <c r="F7" t="n">
-        <v>104658</v>
+        <v>2724035</v>
       </c>
       <c r="G7" t="n">
-        <v>243124</v>
+        <v>6342672</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5695283065431631</v>
+        <v>-0.5705224864221262</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>HCLTECH</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269</v>
+        <v>6000</v>
       </c>
       <c r="C8" t="n">
-        <v>270.47</v>
+        <v>6091</v>
       </c>
       <c r="D8" t="n">
-        <v>265.53</v>
+        <v>5959</v>
       </c>
       <c r="E8" t="n">
-        <v>268.99</v>
+        <v>6030</v>
       </c>
       <c r="F8" t="n">
-        <v>3887160</v>
+        <v>398886</v>
       </c>
       <c r="G8" t="n">
-        <v>8683313</v>
+        <v>868072</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5523413701659724</v>
+        <v>-0.5404920329189283</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1233.9</v>
+        <v>112.75</v>
       </c>
       <c r="C9" t="n">
-        <v>1244.3</v>
+        <v>113.39</v>
       </c>
       <c r="D9" t="n">
-        <v>1228.7</v>
+        <v>111.39</v>
       </c>
       <c r="E9" t="n">
-        <v>1232.7</v>
+        <v>112</v>
       </c>
       <c r="F9" t="n">
-        <v>744634</v>
+        <v>15140498</v>
       </c>
       <c r="G9" t="n">
-        <v>1827771</v>
+        <v>33900889</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5925999482429691</v>
+        <v>-0.55338935211994</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>525.4</v>
+        <v>863.7</v>
       </c>
       <c r="C10" t="n">
-        <v>528.4</v>
+        <v>877.35</v>
       </c>
       <c r="D10" t="n">
-        <v>516</v>
+        <v>863.7</v>
       </c>
       <c r="E10" t="n">
-        <v>517</v>
+        <v>873.75</v>
       </c>
       <c r="F10" t="n">
-        <v>1589480</v>
+        <v>390374</v>
       </c>
       <c r="G10" t="n">
-        <v>3630058</v>
+        <v>862548</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5621337179736522</v>
+        <v>-0.5474176509597147</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CONCOR</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2055</v>
+        <v>1715</v>
       </c>
       <c r="C11" t="n">
-        <v>2055</v>
+        <v>1724.9</v>
       </c>
       <c r="D11" t="n">
-        <v>2019.7</v>
+        <v>1698</v>
       </c>
       <c r="E11" t="n">
-        <v>2025</v>
+        <v>1709.9</v>
       </c>
       <c r="F11" t="n">
-        <v>684024</v>
+        <v>154835</v>
       </c>
       <c r="G11" t="n">
-        <v>1357360</v>
+        <v>334415</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4960629457181588</v>
+        <v>-0.5369974432965029</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>SONACOMS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>424</v>
+        <v>509.95</v>
       </c>
       <c r="C12" t="n">
-        <v>424.45</v>
+        <v>515.5</v>
       </c>
       <c r="D12" t="n">
-        <v>408.45</v>
+        <v>502.25</v>
       </c>
       <c r="E12" t="n">
-        <v>409.8</v>
+        <v>506.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3249725</v>
+        <v>2647276</v>
       </c>
       <c r="G12" t="n">
-        <v>7436143</v>
+        <v>5842354</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5629824493692496</v>
+        <v>-0.5468819588816426</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>SONACOMS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>565.9</v>
+        <v>190</v>
       </c>
       <c r="C13" t="n">
-        <v>565.9</v>
+        <v>192</v>
       </c>
       <c r="D13" t="n">
-        <v>556.4</v>
+        <v>189.11</v>
       </c>
       <c r="E13" t="n">
-        <v>558</v>
+        <v>190.15</v>
       </c>
       <c r="F13" t="n">
-        <v>864945</v>
+        <v>1601706</v>
       </c>
       <c r="G13" t="n">
-        <v>2048417</v>
+        <v>3241928</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.57774955001838</v>
+        <v>-0.5059402923198788</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1010</v>
+        <v>6010</v>
       </c>
       <c r="C14" t="n">
-        <v>1010</v>
+        <v>6034.5</v>
       </c>
       <c r="D14" t="n">
-        <v>982.15</v>
+        <v>5951.5</v>
       </c>
       <c r="E14" t="n">
-        <v>985</v>
+        <v>5965.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1288996</v>
+        <v>335154</v>
       </c>
       <c r="G14" t="n">
-        <v>2922214</v>
+        <v>702111</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5588974660993342</v>
+        <v>-0.5226481282874076</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LAURUSLABS</t>
+          <t>KAYNES</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,328 +979,460 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.5</v>
+        <v>4035</v>
       </c>
       <c r="C2" t="n">
-        <v>1543</v>
+        <v>4048</v>
       </c>
       <c r="D2" t="n">
-        <v>1490.5</v>
+        <v>4007.7</v>
       </c>
       <c r="E2" t="n">
-        <v>1542</v>
+        <v>4035.1</v>
       </c>
       <c r="F2" t="n">
-        <v>10981126</v>
+        <v>1463574</v>
       </c>
       <c r="G2" t="n">
-        <v>7525119</v>
+        <v>923032</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4592627704625003</v>
+        <v>0.5856156666291092</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1762</v>
+        <v>722.4</v>
       </c>
       <c r="C3" t="n">
-        <v>1790.3</v>
+        <v>741</v>
       </c>
       <c r="D3" t="n">
-        <v>1751.1</v>
+        <v>719.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1786.5</v>
+        <v>732.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2131124</v>
+        <v>4075549</v>
       </c>
       <c r="G3" t="n">
-        <v>1429522</v>
+        <v>2796978</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4907948251233629</v>
+        <v>0.457125869420496</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7419</v>
+        <v>562</v>
       </c>
       <c r="C4" t="n">
-        <v>7482</v>
+        <v>562</v>
       </c>
       <c r="D4" t="n">
-        <v>7332</v>
+        <v>555</v>
       </c>
       <c r="E4" t="n">
-        <v>7450</v>
+        <v>556.4</v>
       </c>
       <c r="F4" t="n">
-        <v>454714</v>
+        <v>1248817</v>
       </c>
       <c r="G4" t="n">
-        <v>285148</v>
+        <v>847533</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5946596153576389</v>
+        <v>0.4734730093105519</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1511.4</v>
+        <v>516</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.6</v>
+        <v>519</v>
       </c>
       <c r="D5" t="n">
-        <v>1505.4</v>
+        <v>509.15</v>
       </c>
       <c r="E5" t="n">
-        <v>1526</v>
+        <v>510</v>
       </c>
       <c r="F5" t="n">
-        <v>1171078</v>
+        <v>5736356</v>
       </c>
       <c r="G5" t="n">
-        <v>747913</v>
+        <v>4009545</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5657944172651097</v>
+        <v>0.4306750516579811</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>VEDL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1324.9</v>
+        <v>915</v>
       </c>
       <c r="C6" t="n">
-        <v>1364</v>
+        <v>919.95</v>
       </c>
       <c r="D6" t="n">
-        <v>1318</v>
+        <v>906.05</v>
       </c>
       <c r="E6" t="n">
-        <v>1363.2</v>
+        <v>907.3</v>
       </c>
       <c r="F6" t="n">
-        <v>862715</v>
+        <v>1301140</v>
       </c>
       <c r="G6" t="n">
-        <v>561417</v>
+        <v>923863</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5366741655489592</v>
+        <v>0.4083689897744579</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1080.2</v>
+        <v>2736.8</v>
       </c>
       <c r="C7" t="n">
-        <v>1084.5</v>
+        <v>2758.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1052.2</v>
+        <v>2702.9</v>
       </c>
       <c r="E7" t="n">
-        <v>1069.9</v>
+        <v>2745</v>
       </c>
       <c r="F7" t="n">
-        <v>2155114</v>
+        <v>1216126</v>
       </c>
       <c r="G7" t="n">
-        <v>1414894</v>
+        <v>814207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5231628659108032</v>
+        <v>0.4936324546460544</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1465</v>
+        <v>146.08</v>
       </c>
       <c r="C8" t="n">
-        <v>1466.2</v>
+        <v>146.85</v>
       </c>
       <c r="D8" t="n">
-        <v>1438.3</v>
+        <v>144.86</v>
       </c>
       <c r="E8" t="n">
-        <v>1444.3</v>
+        <v>146.85</v>
       </c>
       <c r="F8" t="n">
-        <v>1021976</v>
+        <v>8625173</v>
       </c>
       <c r="G8" t="n">
-        <v>708532</v>
+        <v>5986604</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4423851004612354</v>
+        <v>0.4407455378708864</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>ASHOKLEY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>PETRONET</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>526.05</v>
+        <v>274</v>
       </c>
       <c r="C9" t="n">
-        <v>528.7</v>
+        <v>275.85</v>
       </c>
       <c r="D9" t="n">
-        <v>512.35</v>
+        <v>272.95</v>
       </c>
       <c r="E9" t="n">
-        <v>513</v>
+        <v>274.5</v>
       </c>
       <c r="F9" t="n">
-        <v>2913764</v>
+        <v>2008463</v>
       </c>
       <c r="G9" t="n">
-        <v>2011169</v>
+        <v>1397603</v>
       </c>
       <c r="H9" t="n">
-        <v>0.448791225401744</v>
+        <v>0.4370769095372577</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>PETRONET</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1701.9</v>
+        <v>3460</v>
       </c>
       <c r="C10" t="n">
-        <v>1722.7</v>
+        <v>3483.8</v>
       </c>
       <c r="D10" t="n">
-        <v>1689.1</v>
+        <v>3430</v>
       </c>
       <c r="E10" t="n">
-        <v>1714.8</v>
+        <v>3440.1</v>
       </c>
       <c r="F10" t="n">
-        <v>334415</v>
+        <v>288764</v>
       </c>
       <c r="G10" t="n">
-        <v>233440</v>
+        <v>200324</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4325522618231665</v>
+        <v>0.441484794632695</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>PIIND</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>438</v>
+      </c>
+      <c r="C11" t="n">
+        <v>438.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>436.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1092339</v>
+      </c>
+      <c r="G11" t="n">
+        <v>760053</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4371879329467813</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2187.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2210</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2175.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F12" t="n">
+        <v>387157</v>
+      </c>
+      <c r="G12" t="n">
+        <v>260816</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4844066314950003</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>COLPAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>613.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>621.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>605.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>608.05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>591539</v>
+      </c>
+      <c r="G13" t="n">
+        <v>379035</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5606447953355231</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ATGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7700</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7740</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7630.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7649.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>220950</v>
+      </c>
+      <c r="G14" t="n">
+        <v>138316</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5974290754504179</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>KFINTECH</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1091.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1093.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1072.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1082.9</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="B15" t="n">
+        <v>1083.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1098.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1077.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="n">
+        <v>706819</v>
+      </c>
+      <c r="G15" t="n">
         <v>461199</v>
       </c>
-      <c r="G11" t="n">
-        <v>322950</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.4280817464003716</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H15" t="n">
+        <v>0.532568370703319</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>KFINTECH</t>
         </is>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,429 +484,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1445.3</v>
+        <v>3901</v>
       </c>
       <c r="C2" t="n">
-        <v>1464.7</v>
+        <v>3925</v>
       </c>
       <c r="D2" t="n">
-        <v>1430.7</v>
+        <v>3882.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1460</v>
+        <v>3902.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2818268</v>
+        <v>383311</v>
       </c>
       <c r="G2" t="n">
-        <v>5777445</v>
+        <v>762391</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.512194750447646</v>
+        <v>-0.4972251771072849</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1166</v>
+        <v>5816</v>
       </c>
       <c r="C3" t="n">
-        <v>1172</v>
+        <v>5855</v>
       </c>
       <c r="D3" t="n">
-        <v>1147.9</v>
+        <v>5764.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1168.8</v>
+        <v>5815</v>
       </c>
       <c r="F3" t="n">
-        <v>2784798</v>
+        <v>320317</v>
       </c>
       <c r="G3" t="n">
-        <v>5964536</v>
+        <v>641980</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5331073531956216</v>
+        <v>-0.5010483192622823</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5</v>
+        <v>5999.5</v>
       </c>
       <c r="C4" t="n">
-        <v>247.8</v>
+        <v>6014</v>
       </c>
       <c r="D4" t="n">
-        <v>245.71</v>
+        <v>5909.5</v>
       </c>
       <c r="E4" t="n">
-        <v>246.38</v>
+        <v>5926</v>
       </c>
       <c r="F4" t="n">
-        <v>6705862</v>
+        <v>198141</v>
       </c>
       <c r="G4" t="n">
-        <v>13298452</v>
+        <v>398886</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4957411584446069</v>
+        <v>-0.5032640904920203</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7481</v>
+        <v>1727</v>
       </c>
       <c r="C5" t="n">
-        <v>7491</v>
+        <v>1732.7</v>
       </c>
       <c r="D5" t="n">
-        <v>7415</v>
+        <v>1703</v>
       </c>
       <c r="E5" t="n">
-        <v>7440</v>
+        <v>1727.8</v>
       </c>
       <c r="F5" t="n">
-        <v>228411</v>
+        <v>450086</v>
       </c>
       <c r="G5" t="n">
-        <v>454714</v>
+        <v>1063781</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4976820594923402</v>
+        <v>-0.5768997566228388</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>MANKIND</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3950</v>
+        <v>2234</v>
       </c>
       <c r="C6" t="n">
-        <v>3956</v>
+        <v>2247.2</v>
       </c>
       <c r="D6" t="n">
-        <v>3895</v>
+        <v>2210</v>
       </c>
       <c r="E6" t="n">
-        <v>3900</v>
+        <v>2241.8</v>
       </c>
       <c r="F6" t="n">
-        <v>762391</v>
+        <v>563163</v>
       </c>
       <c r="G6" t="n">
-        <v>1578123</v>
+        <v>1310952</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5169001402298807</v>
+        <v>-0.5704167658312432</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>MANKIND</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1662.6</v>
+        <v>4375.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1668.4</v>
+        <v>4384.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1642.6</v>
+        <v>4315.6</v>
       </c>
       <c r="E7" t="n">
-        <v>1644.4</v>
+        <v>4340</v>
       </c>
       <c r="F7" t="n">
-        <v>2724035</v>
+        <v>408438</v>
       </c>
       <c r="G7" t="n">
-        <v>6342672</v>
+        <v>941176</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5705224864221262</v>
+        <v>-0.5660344080172041</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6000</v>
+        <v>504.1</v>
       </c>
       <c r="C8" t="n">
-        <v>6091</v>
+        <v>505.65</v>
       </c>
       <c r="D8" t="n">
-        <v>5959</v>
+        <v>495.25</v>
       </c>
       <c r="E8" t="n">
-        <v>6030</v>
+        <v>496.5</v>
       </c>
       <c r="F8" t="n">
-        <v>398886</v>
+        <v>1396093</v>
       </c>
       <c r="G8" t="n">
-        <v>868072</v>
+        <v>3199562</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5404920329189283</v>
+        <v>-0.5636612136286154</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>CAMS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.75</v>
+        <v>4014.5</v>
       </c>
       <c r="C9" t="n">
-        <v>113.39</v>
+        <v>4014.6</v>
       </c>
       <c r="D9" t="n">
-        <v>111.39</v>
+        <v>3938.2</v>
       </c>
       <c r="E9" t="n">
-        <v>112</v>
+        <v>3946</v>
       </c>
       <c r="F9" t="n">
-        <v>15140498</v>
+        <v>338051</v>
       </c>
       <c r="G9" t="n">
-        <v>33900889</v>
+        <v>711449</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.55338935211994</v>
+        <v>-0.5248415557545235</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>863.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>877.35</v>
-      </c>
-      <c r="D10" t="n">
-        <v>863.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>873.75</v>
-      </c>
-      <c r="F10" t="n">
-        <v>390374</v>
-      </c>
-      <c r="G10" t="n">
-        <v>862548</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.5474176509597147</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1715</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1724.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1698</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1709.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>154835</v>
-      </c>
-      <c r="G11" t="n">
-        <v>334415</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5369974432965029</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SONACOMS</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>509.95</v>
-      </c>
-      <c r="C12" t="n">
-        <v>515.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>502.25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>506.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2647276</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5842354</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5468819588816426</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SONACOMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>190</v>
-      </c>
-      <c r="C13" t="n">
-        <v>192</v>
-      </c>
-      <c r="D13" t="n">
-        <v>189.11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>190.15</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1601706</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3241928</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5059402923198788</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6010</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6034.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5951.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5965.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>335154</v>
-      </c>
-      <c r="G14" t="n">
-        <v>702111</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5226481282874076</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
+          <t>CAMS</t>
         </is>
       </c>
     </row>
@@ -921,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,462 +814,627 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4035</v>
+        <v>1173.9</v>
       </c>
       <c r="C2" t="n">
-        <v>4048</v>
+        <v>1187</v>
       </c>
       <c r="D2" t="n">
-        <v>4007.7</v>
+        <v>1162.5</v>
       </c>
       <c r="E2" t="n">
-        <v>4035.1</v>
+        <v>1184.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1463574</v>
+        <v>3194549</v>
       </c>
       <c r="G2" t="n">
-        <v>923032</v>
+        <v>2193836</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5856156666291092</v>
+        <v>0.4561475880603655</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.4</v>
+        <v>1778</v>
       </c>
       <c r="C3" t="n">
-        <v>741</v>
+        <v>1787.4</v>
       </c>
       <c r="D3" t="n">
-        <v>719.1</v>
+        <v>1773.7</v>
       </c>
       <c r="E3" t="n">
-        <v>732.2</v>
+        <v>1782.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4075549</v>
+        <v>2199311</v>
       </c>
       <c r="G3" t="n">
-        <v>2796978</v>
+        <v>1513894</v>
       </c>
       <c r="H3" t="n">
-        <v>0.457125869420496</v>
+        <v>0.452750985207683</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562</v>
+        <v>3144.8</v>
       </c>
       <c r="C4" t="n">
-        <v>562</v>
+        <v>3170</v>
       </c>
       <c r="D4" t="n">
-        <v>555</v>
+        <v>3135.2</v>
       </c>
       <c r="E4" t="n">
-        <v>556.4</v>
+        <v>3150</v>
       </c>
       <c r="F4" t="n">
-        <v>1248817</v>
+        <v>4177037</v>
       </c>
       <c r="G4" t="n">
-        <v>847533</v>
+        <v>2700767</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4734730093105519</v>
+        <v>0.5466113885425881</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516</v>
+        <v>1447</v>
       </c>
       <c r="C5" t="n">
-        <v>519</v>
+        <v>1448</v>
       </c>
       <c r="D5" t="n">
-        <v>509.15</v>
+        <v>1430</v>
       </c>
       <c r="E5" t="n">
-        <v>510</v>
+        <v>1440.8</v>
       </c>
       <c r="F5" t="n">
-        <v>5736356</v>
+        <v>978674</v>
       </c>
       <c r="G5" t="n">
-        <v>4009545</v>
+        <v>650084</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4306750516579811</v>
+        <v>0.5054577562284258</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>HAVELLS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915</v>
+        <v>360</v>
       </c>
       <c r="C6" t="n">
-        <v>919.95</v>
+        <v>361.2</v>
       </c>
       <c r="D6" t="n">
-        <v>906.05</v>
+        <v>357.55</v>
       </c>
       <c r="E6" t="n">
-        <v>907.3</v>
+        <v>358.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1301140</v>
+        <v>5875570</v>
       </c>
       <c r="G6" t="n">
-        <v>923863</v>
+        <v>4168805</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4083689897744579</v>
+        <v>0.4094134889974465</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>RECLTD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2736.8</v>
+        <v>555.75</v>
       </c>
       <c r="C7" t="n">
-        <v>2758.9</v>
+        <v>556.05</v>
       </c>
       <c r="D7" t="n">
-        <v>2702.9</v>
+        <v>545</v>
       </c>
       <c r="E7" t="n">
-        <v>2745</v>
+        <v>547</v>
       </c>
       <c r="F7" t="n">
-        <v>1216126</v>
+        <v>1961101</v>
       </c>
       <c r="G7" t="n">
-        <v>814207</v>
+        <v>1248817</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4936324546460544</v>
+        <v>0.570366995324375</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.08</v>
+        <v>4707</v>
       </c>
       <c r="C8" t="n">
-        <v>146.85</v>
+        <v>4708</v>
       </c>
       <c r="D8" t="n">
-        <v>144.86</v>
+        <v>4585</v>
       </c>
       <c r="E8" t="n">
-        <v>146.85</v>
+        <v>4593</v>
       </c>
       <c r="F8" t="n">
-        <v>8625173</v>
+        <v>1158530</v>
       </c>
       <c r="G8" t="n">
-        <v>5986604</v>
+        <v>798346</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4407455378708864</v>
+        <v>0.4511627790456769</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ASHOKLEY</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>274</v>
+        <v>1060</v>
       </c>
       <c r="C9" t="n">
-        <v>275.85</v>
+        <v>1063.1</v>
       </c>
       <c r="D9" t="n">
-        <v>272.95</v>
+        <v>1026</v>
       </c>
       <c r="E9" t="n">
-        <v>274.5</v>
+        <v>1031</v>
       </c>
       <c r="F9" t="n">
-        <v>2008463</v>
+        <v>2075493</v>
       </c>
       <c r="G9" t="n">
-        <v>1397603</v>
+        <v>1354779</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4370769095372577</v>
+        <v>0.5319790165037988</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3460</v>
+        <v>1065</v>
       </c>
       <c r="C10" t="n">
-        <v>3483.8</v>
+        <v>1065</v>
       </c>
       <c r="D10" t="n">
-        <v>3430</v>
+        <v>1035.5</v>
       </c>
       <c r="E10" t="n">
-        <v>3440.1</v>
+        <v>1040</v>
       </c>
       <c r="F10" t="n">
-        <v>288764</v>
+        <v>1316935</v>
       </c>
       <c r="G10" t="n">
-        <v>200324</v>
+        <v>834957</v>
       </c>
       <c r="H10" t="n">
-        <v>0.441484794632695</v>
+        <v>0.5772488882661023</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>438</v>
+        <v>832.2</v>
       </c>
       <c r="C11" t="n">
-        <v>438.9</v>
+        <v>856.8</v>
       </c>
       <c r="D11" t="n">
-        <v>434.5</v>
+        <v>830.55</v>
       </c>
       <c r="E11" t="n">
-        <v>436.2</v>
+        <v>846</v>
       </c>
       <c r="F11" t="n">
-        <v>1092339</v>
+        <v>7304707</v>
       </c>
       <c r="G11" t="n">
-        <v>760053</v>
+        <v>5136903</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4371879329467813</v>
+        <v>0.4220060219163181</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2187.9</v>
+        <v>244.19</v>
       </c>
       <c r="C12" t="n">
-        <v>2210</v>
+        <v>247.6</v>
       </c>
       <c r="D12" t="n">
-        <v>2175.3</v>
+        <v>244</v>
       </c>
       <c r="E12" t="n">
-        <v>2180</v>
+        <v>244.35</v>
       </c>
       <c r="F12" t="n">
-        <v>387157</v>
+        <v>7135057</v>
       </c>
       <c r="G12" t="n">
-        <v>260816</v>
+        <v>4639649</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4844066314950003</v>
+        <v>0.5378441343299892</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.9</v>
+        <v>582.6</v>
       </c>
       <c r="C13" t="n">
-        <v>621.4</v>
+        <v>583.7</v>
       </c>
       <c r="D13" t="n">
-        <v>605.9</v>
+        <v>575</v>
       </c>
       <c r="E13" t="n">
-        <v>608.05</v>
+        <v>579.05</v>
       </c>
       <c r="F13" t="n">
-        <v>591539</v>
+        <v>745872</v>
       </c>
       <c r="G13" t="n">
-        <v>379035</v>
+        <v>524362</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5606447953355231</v>
+        <v>0.422437171267178</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>IRB</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7700</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
-        <v>7740</v>
+        <v>44.27</v>
       </c>
       <c r="D14" t="n">
-        <v>7630.5</v>
+        <v>43.47</v>
       </c>
       <c r="E14" t="n">
-        <v>7649.5</v>
+        <v>43.55</v>
       </c>
       <c r="F14" t="n">
-        <v>220950</v>
+        <v>9346559</v>
       </c>
       <c r="G14" t="n">
-        <v>138316</v>
+        <v>6164189</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5974290754504179</v>
+        <v>0.5162674278806182</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>POLYCAB</t>
+          <t>IRB</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KFINTECH</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1083.1</v>
+        <v>554.4</v>
       </c>
       <c r="C15" t="n">
-        <v>1098.9</v>
+        <v>554.45</v>
       </c>
       <c r="D15" t="n">
-        <v>1077.8</v>
+        <v>544.2</v>
       </c>
       <c r="E15" t="n">
-        <v>1080</v>
+        <v>546.85</v>
       </c>
       <c r="F15" t="n">
-        <v>706819</v>
+        <v>1257819</v>
       </c>
       <c r="G15" t="n">
-        <v>461199</v>
+        <v>879789</v>
       </c>
       <c r="H15" t="n">
-        <v>0.532568370703319</v>
+        <v>0.4296825716166035</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>KFINTECH</t>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1717.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1646.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1660.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>817662</v>
+      </c>
+      <c r="G16" t="n">
+        <v>514684</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5886679982280389</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4181.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4181.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4048</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4074</v>
+      </c>
+      <c r="F17" t="n">
+        <v>203118</v>
+      </c>
+      <c r="G17" t="n">
+        <v>140954</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4410233125700583</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7344</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7360</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7225.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7250</v>
+      </c>
+      <c r="F18" t="n">
+        <v>71831</v>
+      </c>
+      <c r="G18" t="n">
+        <v>45178</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5899552879720218</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KAYNES</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5936</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6048.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5876</v>
+      </c>
+      <c r="F19" t="n">
+        <v>503982</v>
+      </c>
+      <c r="G19" t="n">
+        <v>335154</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5037326124706851</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>KAYNES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9266296</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6554864</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4136519079572055</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>HFCL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,264 +484,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3901</v>
+        <v>1130</v>
       </c>
       <c r="C2" t="n">
-        <v>3925</v>
+        <v>1134.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3882.1</v>
+        <v>1108.3</v>
       </c>
       <c r="E2" t="n">
-        <v>3902.1</v>
+        <v>1108.3</v>
       </c>
       <c r="F2" t="n">
-        <v>383311</v>
+        <v>1732808</v>
       </c>
       <c r="G2" t="n">
-        <v>762391</v>
+        <v>4264238</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4972251771072849</v>
+        <v>-0.5936418183037626</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TITAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BRITANNIA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5816</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5855</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5764.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5815</v>
-      </c>
-      <c r="F3" t="n">
-        <v>320317</v>
-      </c>
-      <c r="G3" t="n">
-        <v>641980</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.5010483192622823</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>BRITANNIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LTIM</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5999.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6014</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5909.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>198141</v>
-      </c>
-      <c r="G4" t="n">
-        <v>398886</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.5032640904920203</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>LTIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1732.7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1703</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1727.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>450086</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1063781</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.5768997566228388</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2234</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2247.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2210</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2241.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>563163</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1310952</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.5704167658312432</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4375.7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4384.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4315.6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4340</v>
-      </c>
-      <c r="F7" t="n">
-        <v>408438</v>
-      </c>
-      <c r="G7" t="n">
-        <v>941176</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.5660344080172041</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>504.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>505.65</v>
-      </c>
-      <c r="D8" t="n">
-        <v>495.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>496.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1396093</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3199562</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.5636612136286154</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CAMS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4014.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4014.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3938.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3946</v>
-      </c>
-      <c r="F9" t="n">
-        <v>338051</v>
-      </c>
-      <c r="G9" t="n">
-        <v>711449</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5248415557545235</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CAMS</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
@@ -756,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,33 +583,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.9</v>
+        <v>8905</v>
       </c>
       <c r="C2" t="n">
-        <v>1187</v>
+        <v>9049</v>
       </c>
       <c r="D2" t="n">
-        <v>1162.5</v>
+        <v>8857.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1184.5</v>
+        <v>9015</v>
       </c>
       <c r="F2" t="n">
-        <v>3194549</v>
+        <v>466198</v>
       </c>
       <c r="G2" t="n">
-        <v>2193836</v>
+        <v>320271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4561475880603655</v>
+        <v>0.4556360082555086</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
     </row>
@@ -851,25 +620,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1778</v>
+        <v>1785.9</v>
       </c>
       <c r="C3" t="n">
-        <v>1787.4</v>
+        <v>1785.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1773.7</v>
+        <v>1771.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1782.7</v>
+        <v>1782</v>
       </c>
       <c r="F3" t="n">
+        <v>3434492</v>
+      </c>
+      <c r="G3" t="n">
         <v>2199311</v>
       </c>
-      <c r="G3" t="n">
-        <v>1513894</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.452750985207683</v>
+        <v>0.5616217988269963</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -880,561 +649,429 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3144.8</v>
+        <v>1188.5</v>
       </c>
       <c r="C4" t="n">
-        <v>3170</v>
+        <v>1194.7</v>
       </c>
       <c r="D4" t="n">
-        <v>3135.2</v>
+        <v>1171.8</v>
       </c>
       <c r="E4" t="n">
-        <v>3150</v>
+        <v>1183</v>
       </c>
       <c r="F4" t="n">
-        <v>4177037</v>
+        <v>4765158</v>
       </c>
       <c r="G4" t="n">
-        <v>2700767</v>
+        <v>3194549</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5466113885425881</v>
+        <v>0.4916528123375162</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1447</v>
+        <v>2162.1</v>
       </c>
       <c r="C5" t="n">
-        <v>1448</v>
+        <v>2165.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1430</v>
+        <v>2140.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1440.8</v>
+        <v>2145</v>
       </c>
       <c r="F5" t="n">
-        <v>978674</v>
+        <v>9686848</v>
       </c>
       <c r="G5" t="n">
-        <v>650084</v>
+        <v>6720938</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5054577562284258</v>
+        <v>0.4412940574663834</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>1005</v>
       </c>
       <c r="C6" t="n">
-        <v>361.2</v>
+        <v>1009.3</v>
       </c>
       <c r="D6" t="n">
-        <v>357.55</v>
+        <v>990</v>
       </c>
       <c r="E6" t="n">
-        <v>358.3</v>
+        <v>994</v>
       </c>
       <c r="F6" t="n">
-        <v>5875570</v>
+        <v>9574900</v>
       </c>
       <c r="G6" t="n">
-        <v>4168805</v>
+        <v>6304584</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4094134889974465</v>
+        <v>0.5187203469729327</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.75</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n">
-        <v>556.05</v>
+        <v>148.59</v>
       </c>
       <c r="D7" t="n">
-        <v>545</v>
+        <v>145.84</v>
       </c>
       <c r="E7" t="n">
-        <v>547</v>
+        <v>146.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1961101</v>
+        <v>35398447</v>
       </c>
       <c r="G7" t="n">
-        <v>1248817</v>
+        <v>22283701</v>
       </c>
       <c r="H7" t="n">
-        <v>0.570366995324375</v>
+        <v>0.5885353604412481</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>CANBK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4707</v>
+        <v>26490</v>
       </c>
       <c r="C8" t="n">
-        <v>4708</v>
+        <v>26540</v>
       </c>
       <c r="D8" t="n">
-        <v>4585</v>
+        <v>26325</v>
       </c>
       <c r="E8" t="n">
-        <v>4593</v>
+        <v>26505</v>
       </c>
       <c r="F8" t="n">
-        <v>1158530</v>
+        <v>23404</v>
       </c>
       <c r="G8" t="n">
-        <v>798346</v>
+        <v>15422</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4511627790456769</v>
+        <v>0.5175722993126702</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1060</v>
+        <v>3174.9</v>
       </c>
       <c r="C9" t="n">
-        <v>1063.1</v>
+        <v>3184.5</v>
       </c>
       <c r="D9" t="n">
-        <v>1026</v>
+        <v>3147</v>
       </c>
       <c r="E9" t="n">
-        <v>1031</v>
+        <v>3165.6</v>
       </c>
       <c r="F9" t="n">
-        <v>2075493</v>
+        <v>597847</v>
       </c>
       <c r="G9" t="n">
-        <v>1354779</v>
+        <v>424858</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5319790165037988</v>
+        <v>0.4071689835191993</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>SIEMENS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1065</v>
+        <v>390</v>
       </c>
       <c r="C10" t="n">
-        <v>1065</v>
+        <v>391.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1035.5</v>
+        <v>381.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1040</v>
+        <v>382</v>
       </c>
       <c r="F10" t="n">
-        <v>1316935</v>
+        <v>5819567</v>
       </c>
       <c r="G10" t="n">
-        <v>834957</v>
+        <v>4036922</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5772488882661023</v>
+        <v>0.4415851978314171</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>832.2</v>
+        <v>182.11</v>
       </c>
       <c r="C11" t="n">
-        <v>856.8</v>
+        <v>183.61</v>
       </c>
       <c r="D11" t="n">
-        <v>830.55</v>
+        <v>180.01</v>
       </c>
       <c r="E11" t="n">
-        <v>846</v>
+        <v>180.52</v>
       </c>
       <c r="F11" t="n">
-        <v>7304707</v>
+        <v>13399523</v>
       </c>
       <c r="G11" t="n">
-        <v>5136903</v>
+        <v>8936258</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4220060219163181</v>
+        <v>0.499455700585189</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>244.19</v>
+        <v>3434.5</v>
       </c>
       <c r="C12" t="n">
-        <v>247.6</v>
+        <v>3442</v>
       </c>
       <c r="D12" t="n">
-        <v>244</v>
+        <v>3385.2</v>
       </c>
       <c r="E12" t="n">
-        <v>244.35</v>
+        <v>3430.3</v>
       </c>
       <c r="F12" t="n">
-        <v>7135057</v>
+        <v>545491</v>
       </c>
       <c r="G12" t="n">
-        <v>4639649</v>
+        <v>353690</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5378441343299892</v>
+        <v>0.5422856173485255</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>PIIND</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>GLENMARK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.6</v>
+        <v>1844.2</v>
       </c>
       <c r="C13" t="n">
-        <v>583.7</v>
+        <v>1861.5</v>
       </c>
       <c r="D13" t="n">
-        <v>575</v>
+        <v>1825.1</v>
       </c>
       <c r="E13" t="n">
-        <v>579.05</v>
+        <v>1836.2</v>
       </c>
       <c r="F13" t="n">
-        <v>745872</v>
+        <v>1430032</v>
       </c>
       <c r="G13" t="n">
-        <v>524362</v>
+        <v>943929</v>
       </c>
       <c r="H13" t="n">
-        <v>0.422437171267178</v>
+        <v>0.5149783511259851</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>GLENMARK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44</v>
+        <v>282.2</v>
       </c>
       <c r="C14" t="n">
-        <v>44.27</v>
+        <v>284.6</v>
       </c>
       <c r="D14" t="n">
-        <v>43.47</v>
+        <v>275.75</v>
       </c>
       <c r="E14" t="n">
-        <v>43.55</v>
+        <v>277.55</v>
       </c>
       <c r="F14" t="n">
-        <v>9346559</v>
+        <v>9586847</v>
       </c>
       <c r="G14" t="n">
-        <v>6164189</v>
+        <v>6158231</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5162674278806182</v>
+        <v>0.5567533923297129</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>BHEL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>TATACHEM</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>554.4</v>
+        <v>815.05</v>
       </c>
       <c r="C15" t="n">
-        <v>554.45</v>
+        <v>823.35</v>
       </c>
       <c r="D15" t="n">
-        <v>544.2</v>
+        <v>800.05</v>
       </c>
       <c r="E15" t="n">
-        <v>546.85</v>
+        <v>804.2</v>
       </c>
       <c r="F15" t="n">
-        <v>1257819</v>
+        <v>404649</v>
       </c>
       <c r="G15" t="n">
-        <v>879789</v>
+        <v>274808</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4296825716166035</v>
+        <v>0.4724789671334168</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>TATACHEM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1700</v>
+        <v>188.38</v>
       </c>
       <c r="C16" t="n">
-        <v>1717.2</v>
+        <v>189.91</v>
       </c>
       <c r="D16" t="n">
-        <v>1646.4</v>
+        <v>185.25</v>
       </c>
       <c r="E16" t="n">
-        <v>1660.9</v>
+        <v>186.72</v>
       </c>
       <c r="F16" t="n">
-        <v>817662</v>
+        <v>3111398</v>
       </c>
       <c r="G16" t="n">
-        <v>514684</v>
+        <v>2106643</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5886679982280389</v>
+        <v>0.4769460226531026</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>KEI</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4181.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4181.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4048</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4074</v>
-      </c>
-      <c r="F17" t="n">
-        <v>203118</v>
-      </c>
-      <c r="G17" t="n">
-        <v>140954</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4410233125700583</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>KEI</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7344</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7360</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7225.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7250</v>
-      </c>
-      <c r="F18" t="n">
-        <v>71831</v>
-      </c>
-      <c r="G18" t="n">
-        <v>45178</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5899552879720218</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5936</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6048.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5876</v>
-      </c>
-      <c r="F19" t="n">
-        <v>503982</v>
-      </c>
-      <c r="G19" t="n">
-        <v>335154</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5037326124706851</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>KAYNES</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>73.89</v>
-      </c>
-      <c r="D20" t="n">
-        <v>71.45999999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9266296</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6554864</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4136519079572055</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>HFCL</t>
+          <t>PPLPHARMA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,33 +484,1221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130</v>
+        <v>303</v>
       </c>
       <c r="C2" t="n">
-        <v>1134.8</v>
+        <v>305.95</v>
       </c>
       <c r="D2" t="n">
-        <v>1108.3</v>
+        <v>300.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1108.3</v>
+        <v>302.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1732808</v>
+        <v>19304127</v>
       </c>
       <c r="G2" t="n">
-        <v>4264238</v>
+        <v>42517973</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5936418183037626</v>
+        <v>-0.545977250608819</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>ETERNAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2051.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2026.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2032.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>688300</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1422874</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.5162607511276472</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AXISBANK</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1269.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1276.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1263.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1267.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5290156</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10491953</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.4957892014956605</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>AXISBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11647</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11538</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11555</v>
+      </c>
+      <c r="F5" t="n">
+        <v>200149</v>
+      </c>
+      <c r="G5" t="n">
+        <v>407297</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.5085920102529604</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MARUTI</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15958</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16050</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15842</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15910</v>
+      </c>
+      <c r="F6" t="n">
+        <v>214525</v>
+      </c>
+      <c r="G6" t="n">
+        <v>525788</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.591993350932315</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MARUTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1267.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1270.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1250.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1263</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1065974</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2636542</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5956923879839577</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>248</v>
+      </c>
+      <c r="C8" t="n">
+        <v>248</v>
+      </c>
+      <c r="D8" t="n">
+        <v>244</v>
+      </c>
+      <c r="E8" t="n">
+        <v>245.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8188793</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19711070</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5845586769262145</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3145.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3149.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3115</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3115.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2737920</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6703764</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5915846679566882</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EICHERMOT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7258.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7274.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7180</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F10" t="n">
+        <v>521990</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1229296</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5753748486938866</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>EICHERMOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3687</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3695.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3653</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3660.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1714176</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4059935</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5777824029202437</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1550.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1525.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1530.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8107952</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19270381</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5792531553994703</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DIVISLAB</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6355</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6443</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6341</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6410</v>
+      </c>
+      <c r="F13" t="n">
+        <v>179873</v>
+      </c>
+      <c r="G13" t="n">
+        <v>393803</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5432411637290726</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DIVISLAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BRITANNIA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5815.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5878</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5790</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5852.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>309271</v>
+      </c>
+      <c r="G14" t="n">
+        <v>696665</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5560692728929973</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>BRITANNIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DLF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>718.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>726.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>715.25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>721</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2298762</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4800336</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5211247712660114</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DLF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VBL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>447</v>
+      </c>
+      <c r="C16" t="n">
+        <v>449.95</v>
+      </c>
+      <c r="D16" t="n">
+        <v>445.65</v>
+      </c>
+      <c r="E16" t="n">
+        <v>447.95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3455709</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8615148</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.598879903165912</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>VBL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1174.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1156</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F17" t="n">
+        <v>504998</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1196025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5777696954495098</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>LODHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JINDALSTEL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1022.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1029.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1014.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1833665</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3883924</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5278833983363217</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>JINDALSTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1429.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1412</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1418.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>773716</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1766273</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5619499363914865</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>HAVELLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GAIL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>181.09</v>
+      </c>
+      <c r="C20" t="n">
+        <v>182.15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5775748</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13399523</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5689586860666608</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>GAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BOSCHLTD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>36400</v>
+      </c>
+      <c r="C21" t="n">
+        <v>36400</v>
+      </c>
+      <c r="D21" t="n">
+        <v>35680</v>
+      </c>
+      <c r="E21" t="n">
+        <v>35750</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14140</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30421</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5351895072482824</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>BOSCHLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2011.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2052.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2001.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2041</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1446889</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3126857</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5372704923826066</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ICICIPRULI</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>616</v>
+      </c>
+      <c r="D23" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>614.9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>905724</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2202503</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.5887751344720076</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ICICIPRULI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2254.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2219.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F24" t="n">
+        <v>294127</v>
+      </c>
+      <c r="G24" t="n">
+        <v>710090</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.5857891253221422</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>151</v>
+      </c>
+      <c r="C25" t="n">
+        <v>153.21</v>
+      </c>
+      <c r="D25" t="n">
+        <v>151</v>
+      </c>
+      <c r="E25" t="n">
+        <v>152.63</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5133754</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10621635</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.5166700795122409</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2782.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2809</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2794</v>
+      </c>
+      <c r="F26" t="n">
+        <v>599773</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1388293</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.5679780853177248</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>399.45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>405.65</v>
+      </c>
+      <c r="D27" t="n">
+        <v>397.55</v>
+      </c>
+      <c r="E27" t="n">
+        <v>404</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2738092</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6005510</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.5440700290233469</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>589.05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>592.85</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1338159</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3314692</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.5962946180218253</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>870</v>
+      </c>
+      <c r="C29" t="n">
+        <v>888.25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>870</v>
+      </c>
+      <c r="E29" t="n">
+        <v>874.45</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1962290</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4097096</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.5210534485889518</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NHPC</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>77.98</v>
+      </c>
+      <c r="D30" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>77.18000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13344341</v>
+      </c>
+      <c r="G30" t="n">
+        <v>26744638</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.5010461162345888</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NHPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NYKAA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>271.16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.87</v>
+      </c>
+      <c r="D31" t="n">
+        <v>266.41</v>
+      </c>
+      <c r="E31" t="n">
+        <v>271.25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6737276</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14569265</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.537569259670958</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>NYKAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7420</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7520</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7384</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7415</v>
+      </c>
+      <c r="F32" t="n">
+        <v>130117</v>
+      </c>
+      <c r="G32" t="n">
+        <v>305698</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.5743609706311458</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>POLYCAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>643</v>
+      </c>
+      <c r="C33" t="n">
+        <v>643.85</v>
+      </c>
+      <c r="D33" t="n">
+        <v>637.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>638.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>421080</v>
+      </c>
+      <c r="G33" t="n">
+        <v>826462</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.4905028906350201</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>SYNGENE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>360ONE</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1121.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1110.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1122</v>
+      </c>
+      <c r="F34" t="n">
+        <v>902708</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2106550</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.5714756355177898</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>360ONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1793</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1755.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1768.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>849412</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1782882</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.5235736296625352</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2914.9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2860</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2887.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>307363</v>
+      </c>
+      <c r="G36" t="n">
+        <v>615833</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.5008987826245103</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TIINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>404.05</v>
+      </c>
+      <c r="C37" t="n">
+        <v>414.45</v>
+      </c>
+      <c r="D37" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>414</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3134101</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6662176</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.5295679669825595</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>570.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>577.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>566.85</v>
+      </c>
+      <c r="E38" t="n">
+        <v>570</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1189469</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2468095</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.5180619060449456</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>PGEL</t>
         </is>
       </c>
     </row>
@@ -525,7 +1713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,495 +1771,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8905</v>
+        <v>26490</v>
       </c>
       <c r="C2" t="n">
-        <v>9049</v>
+        <v>26505</v>
       </c>
       <c r="D2" t="n">
-        <v>8857.5</v>
+        <v>26360</v>
       </c>
       <c r="E2" t="n">
-        <v>9015</v>
+        <v>26505</v>
       </c>
       <c r="F2" t="n">
-        <v>466198</v>
+        <v>35989</v>
       </c>
       <c r="G2" t="n">
-        <v>320271</v>
+        <v>23404</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4556360082555086</v>
+        <v>0.5377285934028371</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1785.9</v>
+        <v>568.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1785.9</v>
+        <v>571.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1771.8</v>
+        <v>565.55</v>
       </c>
       <c r="E3" t="n">
-        <v>1782</v>
+        <v>569.4</v>
       </c>
       <c r="F3" t="n">
-        <v>3434492</v>
+        <v>680112</v>
       </c>
       <c r="G3" t="n">
-        <v>2199311</v>
+        <v>439901</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5616217988269963</v>
+        <v>0.5460569537236787</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1188.5</v>
+        <v>2013</v>
       </c>
       <c r="C4" t="n">
-        <v>1194.7</v>
+        <v>2040</v>
       </c>
       <c r="D4" t="n">
-        <v>1171.8</v>
+        <v>2010</v>
       </c>
       <c r="E4" t="n">
-        <v>1183</v>
+        <v>2012</v>
       </c>
       <c r="F4" t="n">
-        <v>4765158</v>
+        <v>435358</v>
       </c>
       <c r="G4" t="n">
-        <v>3194549</v>
+        <v>309688</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4916528123375162</v>
+        <v>0.4057955103200641</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>CROMPTON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2162.1</v>
+        <v>265</v>
       </c>
       <c r="C5" t="n">
-        <v>2165.8</v>
+        <v>265.55</v>
       </c>
       <c r="D5" t="n">
-        <v>2140.4</v>
+        <v>262.15</v>
       </c>
       <c r="E5" t="n">
-        <v>2145</v>
+        <v>265.05</v>
       </c>
       <c r="F5" t="n">
-        <v>9686848</v>
+        <v>2618236</v>
       </c>
       <c r="G5" t="n">
-        <v>6720938</v>
+        <v>1795957</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4412940574663834</v>
+        <v>0.4578500487483832</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BAJFINANCE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1009.3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>990</v>
-      </c>
-      <c r="E6" t="n">
-        <v>994</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9574900</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6304584</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5187203469729327</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>BAJFINANCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CANBK</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>146</v>
-      </c>
-      <c r="C7" t="n">
-        <v>148.59</v>
-      </c>
-      <c r="D7" t="n">
-        <v>145.84</v>
-      </c>
-      <c r="E7" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>35398447</v>
-      </c>
-      <c r="G7" t="n">
-        <v>22283701</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5885353604412481</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>CANBK</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SHREECEM</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>26490</v>
-      </c>
-      <c r="C8" t="n">
-        <v>26540</v>
-      </c>
-      <c r="D8" t="n">
-        <v>26325</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26505</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23404</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15422</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5175722993126702</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SHREECEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SIEMENS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3174.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3184.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3147</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3165.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>597847</v>
-      </c>
-      <c r="G9" t="n">
-        <v>424858</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4071689835191993</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SIEMENS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TATAPOWER</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>390</v>
-      </c>
-      <c r="C10" t="n">
-        <v>391.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>381.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>382</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5819567</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4036922</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4415851978314171</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>TATAPOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GAIL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>182.11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>183.61</v>
-      </c>
-      <c r="D11" t="n">
-        <v>180.01</v>
-      </c>
-      <c r="E11" t="n">
-        <v>180.52</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13399523</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8936258</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.499455700585189</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>GAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PIIND</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3434.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3442</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3385.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3430.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>545491</v>
-      </c>
-      <c r="G12" t="n">
-        <v>353690</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5422856173485255</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>PIIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1844.2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1861.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1825.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1836.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1430032</v>
-      </c>
-      <c r="G13" t="n">
-        <v>943929</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5149783511259851</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BHEL</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>282.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>284.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>275.75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9586847</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6158231</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5567533923297129</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>BHEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>815.05</v>
-      </c>
-      <c r="C15" t="n">
-        <v>823.35</v>
-      </c>
-      <c r="D15" t="n">
-        <v>800.05</v>
-      </c>
-      <c r="E15" t="n">
-        <v>804.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>404649</v>
-      </c>
-      <c r="G15" t="n">
-        <v>274808</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4724789671334168</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>188.38</v>
-      </c>
-      <c r="C16" t="n">
-        <v>189.91</v>
-      </c>
-      <c r="D16" t="n">
-        <v>185.25</v>
-      </c>
-      <c r="E16" t="n">
-        <v>186.72</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3111398</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2106643</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4769460226531026</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>PPLPHARMA</t>
+          <t>CROMPTON</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,1221 +484,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303</v>
+        <v>1236.1</v>
       </c>
       <c r="C2" t="n">
-        <v>305.95</v>
+        <v>1251</v>
       </c>
       <c r="D2" t="n">
-        <v>300.5</v>
+        <v>1234.6</v>
       </c>
       <c r="E2" t="n">
-        <v>302.4</v>
+        <v>1247</v>
       </c>
       <c r="F2" t="n">
-        <v>19304127</v>
+        <v>809816</v>
       </c>
       <c r="G2" t="n">
-        <v>42517973</v>
+        <v>1983817</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.545977250608819</v>
+        <v>-0.591788960372857</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>DRREDDY</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2039</v>
+        <v>2321.2</v>
       </c>
       <c r="C3" t="n">
-        <v>2051.5</v>
+        <v>2357</v>
       </c>
       <c r="D3" t="n">
-        <v>2026.4</v>
+        <v>2310</v>
       </c>
       <c r="E3" t="n">
-        <v>2032.1</v>
+        <v>2313.9</v>
       </c>
       <c r="F3" t="n">
-        <v>688300</v>
+        <v>1026965</v>
       </c>
       <c r="G3" t="n">
-        <v>1422874</v>
+        <v>2223715</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5162607511276472</v>
+        <v>-0.5381759802852434</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1269.1</v>
+        <v>476.6</v>
       </c>
       <c r="C4" t="n">
-        <v>1276.7</v>
+        <v>489.6</v>
       </c>
       <c r="D4" t="n">
-        <v>1263.7</v>
+        <v>473.8</v>
       </c>
       <c r="E4" t="n">
-        <v>1267.1</v>
+        <v>487.2</v>
       </c>
       <c r="F4" t="n">
-        <v>5290156</v>
+        <v>1486994</v>
       </c>
       <c r="G4" t="n">
-        <v>10491953</v>
+        <v>2950968</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4957892014956605</v>
+        <v>-0.4960995849497521</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11600</v>
+        <v>26655</v>
       </c>
       <c r="C5" t="n">
-        <v>11647</v>
+        <v>26975</v>
       </c>
       <c r="D5" t="n">
-        <v>11538</v>
+        <v>26480</v>
       </c>
       <c r="E5" t="n">
-        <v>11555</v>
+        <v>26945</v>
       </c>
       <c r="F5" t="n">
-        <v>200149</v>
+        <v>16119</v>
       </c>
       <c r="G5" t="n">
-        <v>407297</v>
+        <v>35989</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5085920102529604</v>
+        <v>-0.5521131456834033</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15958</v>
+        <v>1147</v>
       </c>
       <c r="C6" t="n">
-        <v>16050</v>
+        <v>1167.5</v>
       </c>
       <c r="D6" t="n">
-        <v>15842</v>
+        <v>1142.1</v>
       </c>
       <c r="E6" t="n">
-        <v>15910</v>
+        <v>1155</v>
       </c>
       <c r="F6" t="n">
-        <v>214525</v>
+        <v>1448380</v>
       </c>
       <c r="G6" t="n">
-        <v>525788</v>
+        <v>3033523</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.591993350932315</v>
+        <v>-0.5225419421576827</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1267.4</v>
+        <v>5865</v>
       </c>
       <c r="C7" t="n">
-        <v>1270.9</v>
+        <v>5904.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1250.8</v>
+        <v>5843</v>
       </c>
       <c r="E7" t="n">
-        <v>1263</v>
+        <v>5868</v>
       </c>
       <c r="F7" t="n">
-        <v>1065974</v>
+        <v>157291</v>
       </c>
       <c r="G7" t="n">
-        <v>2636542</v>
+        <v>309271</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5956923879839577</v>
+        <v>-0.4914136792651105</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>IRCTC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>248</v>
+        <v>678.45</v>
       </c>
       <c r="C8" t="n">
-        <v>248</v>
+        <v>689.8</v>
       </c>
       <c r="D8" t="n">
-        <v>244</v>
+        <v>677.75</v>
       </c>
       <c r="E8" t="n">
-        <v>245.59</v>
+        <v>689.45</v>
       </c>
       <c r="F8" t="n">
-        <v>8188793</v>
+        <v>606666</v>
       </c>
       <c r="G8" t="n">
-        <v>19711070</v>
+        <v>1290958</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5845586769262145</v>
+        <v>-0.5300652693581046</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>IRCTC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3145.3</v>
+        <v>2042.3</v>
       </c>
       <c r="C9" t="n">
-        <v>3149.8</v>
+        <v>2074</v>
       </c>
       <c r="D9" t="n">
-        <v>3115</v>
+        <v>2035.3</v>
       </c>
       <c r="E9" t="n">
-        <v>3115.7</v>
+        <v>2071</v>
       </c>
       <c r="F9" t="n">
-        <v>2737920</v>
+        <v>615108</v>
       </c>
       <c r="G9" t="n">
-        <v>6703764</v>
+        <v>1446889</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5915846679566882</v>
+        <v>-0.5748754742070746</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>LUPIN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7258.5</v>
+        <v>346.95</v>
       </c>
       <c r="C10" t="n">
-        <v>7274.5</v>
+        <v>350.8</v>
       </c>
       <c r="D10" t="n">
-        <v>7180</v>
+        <v>344.4</v>
       </c>
       <c r="E10" t="n">
-        <v>7200</v>
+        <v>349.2</v>
       </c>
       <c r="F10" t="n">
-        <v>521990</v>
+        <v>5456898</v>
       </c>
       <c r="G10" t="n">
-        <v>1229296</v>
+        <v>12471895</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5753748486938866</v>
+        <v>-0.5624644049681303</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3687</v>
+        <v>641.75</v>
       </c>
       <c r="C11" t="n">
-        <v>3695.8</v>
+        <v>649</v>
       </c>
       <c r="D11" t="n">
-        <v>3653</v>
+        <v>641.2</v>
       </c>
       <c r="E11" t="n">
-        <v>3660.7</v>
+        <v>648</v>
       </c>
       <c r="F11" t="n">
-        <v>1714176</v>
+        <v>171609</v>
       </c>
       <c r="G11" t="n">
-        <v>4059935</v>
+        <v>421080</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5777824029202437</v>
+        <v>-0.5924551154174978</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>SYNGENE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>DABUR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1549</v>
+        <v>514.15</v>
       </c>
       <c r="C12" t="n">
-        <v>1550.6</v>
+        <v>520.05</v>
       </c>
       <c r="D12" t="n">
-        <v>1525.9</v>
+        <v>513.85</v>
       </c>
       <c r="E12" t="n">
-        <v>1530.2</v>
+        <v>517.9</v>
       </c>
       <c r="F12" t="n">
-        <v>8107952</v>
+        <v>914828</v>
       </c>
       <c r="G12" t="n">
-        <v>19270381</v>
+        <v>2050235</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5792531553994703</v>
+        <v>-0.5537935895153483</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>DABUR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6355</v>
+        <v>1731.7</v>
       </c>
       <c r="C13" t="n">
-        <v>6443</v>
+        <v>1762</v>
       </c>
       <c r="D13" t="n">
-        <v>6341</v>
+        <v>1729.1</v>
       </c>
       <c r="E13" t="n">
-        <v>6410</v>
+        <v>1742.5</v>
       </c>
       <c r="F13" t="n">
-        <v>179873</v>
+        <v>440793</v>
       </c>
       <c r="G13" t="n">
-        <v>393803</v>
+        <v>1043795</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5432411637290726</v>
+        <v>-0.577701560172256</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5815.5</v>
+        <v>1465</v>
       </c>
       <c r="C14" t="n">
-        <v>5878</v>
+        <v>1481.4</v>
       </c>
       <c r="D14" t="n">
-        <v>5790</v>
+        <v>1457.7</v>
       </c>
       <c r="E14" t="n">
-        <v>5852.5</v>
+        <v>1469</v>
       </c>
       <c r="F14" t="n">
-        <v>309271</v>
+        <v>650660</v>
       </c>
       <c r="G14" t="n">
-        <v>696665</v>
+        <v>1562164</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5560692728929973</v>
+        <v>-0.5834880332666736</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>RVNL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>718.2</v>
+        <v>319.75</v>
       </c>
       <c r="C15" t="n">
-        <v>726.05</v>
+        <v>324.9</v>
       </c>
       <c r="D15" t="n">
-        <v>715.25</v>
+        <v>317.9</v>
       </c>
       <c r="E15" t="n">
-        <v>721</v>
+        <v>323.05</v>
       </c>
       <c r="F15" t="n">
-        <v>2298762</v>
+        <v>5359842</v>
       </c>
       <c r="G15" t="n">
-        <v>4800336</v>
+        <v>10977583</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5211247712660114</v>
+        <v>-0.5117466203626062</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>RVNL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447</v>
+        <v>270</v>
       </c>
       <c r="C16" t="n">
-        <v>449.95</v>
+        <v>271.67</v>
       </c>
       <c r="D16" t="n">
-        <v>445.65</v>
+        <v>263.25</v>
       </c>
       <c r="E16" t="n">
-        <v>447.95</v>
+        <v>264.5</v>
       </c>
       <c r="F16" t="n">
-        <v>3455709</v>
+        <v>3154248</v>
       </c>
       <c r="G16" t="n">
-        <v>8615148</v>
+        <v>6737276</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.598879903165912</v>
+        <v>-0.5318214661236975</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>DELHIVERY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1160</v>
+        <v>411.25</v>
       </c>
       <c r="C17" t="n">
-        <v>1174.6</v>
+        <v>420.5</v>
       </c>
       <c r="D17" t="n">
-        <v>1156</v>
+        <v>410.9</v>
       </c>
       <c r="E17" t="n">
-        <v>1160</v>
+        <v>419</v>
       </c>
       <c r="F17" t="n">
-        <v>504998</v>
+        <v>1423515</v>
       </c>
       <c r="G17" t="n">
-        <v>1196025</v>
+        <v>3134101</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5777696954495098</v>
+        <v>-0.5457979816221622</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>LODHA</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>JINDALSTEL</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1022.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1029.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1014.7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1833665</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3883924</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5278833983363217</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>JINDALSTEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HAVELLS</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1425</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1429.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1412</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1418.9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>773716</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1766273</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5619499363914865</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>HAVELLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GAIL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>181.09</v>
-      </c>
-      <c r="C20" t="n">
-        <v>182.15</v>
-      </c>
-      <c r="D20" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5775748</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13399523</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5689586860666608</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>GAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>BOSCHLTD</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>36400</v>
-      </c>
-      <c r="C21" t="n">
-        <v>36400</v>
-      </c>
-      <c r="D21" t="n">
-        <v>35680</v>
-      </c>
-      <c r="E21" t="n">
-        <v>35750</v>
-      </c>
-      <c r="F21" t="n">
-        <v>14140</v>
-      </c>
-      <c r="G21" t="n">
-        <v>30421</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.5351895072482824</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>BOSCHLTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2011.7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2052.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2001.1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2041</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1446889</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3126857</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.5372704923826066</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>LUPIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ICICIPRULI</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>602.75</v>
-      </c>
-      <c r="C23" t="n">
-        <v>616</v>
-      </c>
-      <c r="D23" t="n">
-        <v>602.75</v>
-      </c>
-      <c r="E23" t="n">
-        <v>614.9</v>
-      </c>
-      <c r="F23" t="n">
-        <v>905724</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2202503</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.5887751344720076</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ICICIPRULI</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2224</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2254.7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2219.6</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2250</v>
-      </c>
-      <c r="F24" t="n">
-        <v>294127</v>
-      </c>
-      <c r="G24" t="n">
-        <v>710090</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.5857891253221422</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>151</v>
-      </c>
-      <c r="C25" t="n">
-        <v>153.21</v>
-      </c>
-      <c r="D25" t="n">
-        <v>151</v>
-      </c>
-      <c r="E25" t="n">
-        <v>152.63</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5133754</v>
-      </c>
-      <c r="G25" t="n">
-        <v>10621635</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-0.5166700795122409</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MPHASIS</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2782.9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2809</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2760</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2794</v>
-      </c>
-      <c r="F26" t="n">
-        <v>599773</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1388293</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-0.5679780853177248</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>MPHASIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>INDUSTOWER</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>399.45</v>
-      </c>
-      <c r="C27" t="n">
-        <v>405.65</v>
-      </c>
-      <c r="D27" t="n">
-        <v>397.55</v>
-      </c>
-      <c r="E27" t="n">
-        <v>404</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2738092</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6005510</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.5440700290233469</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>INDUSTOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>589.05</v>
-      </c>
-      <c r="C28" t="n">
-        <v>596.5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>586.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>592.85</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1338159</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3314692</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-0.5962946180218253</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>JUBLFOOD</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>870</v>
-      </c>
-      <c r="C29" t="n">
-        <v>888.25</v>
-      </c>
-      <c r="D29" t="n">
-        <v>870</v>
-      </c>
-      <c r="E29" t="n">
-        <v>874.45</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1962290</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4097096</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.5210534485889518</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C30" t="n">
-        <v>77.98</v>
-      </c>
-      <c r="D30" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>77.18000000000001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>13344341</v>
-      </c>
-      <c r="G30" t="n">
-        <v>26744638</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-0.5010461162345888</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>271.16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>272.87</v>
-      </c>
-      <c r="D31" t="n">
-        <v>266.41</v>
-      </c>
-      <c r="E31" t="n">
-        <v>271.25</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6737276</v>
-      </c>
-      <c r="G31" t="n">
-        <v>14569265</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-0.537569259670958</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>NYKAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>7420</v>
-      </c>
-      <c r="C32" t="n">
-        <v>7520</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7384</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7415</v>
-      </c>
-      <c r="F32" t="n">
-        <v>130117</v>
-      </c>
-      <c r="G32" t="n">
-        <v>305698</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-0.5743609706311458</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>643</v>
-      </c>
-      <c r="C33" t="n">
-        <v>643.85</v>
-      </c>
-      <c r="D33" t="n">
-        <v>637.8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>638.7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>421080</v>
-      </c>
-      <c r="G33" t="n">
-        <v>826462</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-0.4905028906350201</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>SYNGENE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>360ONE</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1121.1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1144</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1110.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1122</v>
-      </c>
-      <c r="F34" t="n">
-        <v>902708</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2106550</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-0.5714756355177898</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>360ONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1790</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1793</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1755.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1768.2</v>
-      </c>
-      <c r="F35" t="n">
-        <v>849412</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1782882</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-0.5235736296625352</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>TIINDIA</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2910</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2914.9</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2860</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2887.6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>307363</v>
-      </c>
-      <c r="G36" t="n">
-        <v>615833</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0.5008987826245103</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TIINDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
           <t>DELHIVERY</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>404.05</v>
-      </c>
-      <c r="C37" t="n">
-        <v>414.45</v>
-      </c>
-      <c r="D37" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>414</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3134101</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6662176</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0.5295679669825595</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>DELHIVERY</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PGEL</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>570.1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>577.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>566.85</v>
-      </c>
-      <c r="E38" t="n">
-        <v>570</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1189469</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2468095</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0.5180619060449456</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>PGEL</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1771,132 +1078,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26490</v>
+        <v>1112</v>
       </c>
       <c r="C2" t="n">
-        <v>26505</v>
+        <v>1157</v>
       </c>
       <c r="D2" t="n">
-        <v>26360</v>
+        <v>1112</v>
       </c>
       <c r="E2" t="n">
-        <v>26505</v>
+        <v>1153</v>
       </c>
       <c r="F2" t="n">
-        <v>35989</v>
+        <v>2167703</v>
       </c>
       <c r="G2" t="n">
-        <v>23404</v>
+        <v>1394051</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5377285934028371</v>
+        <v>0.55496678385511</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>568.05</v>
+        <v>986.2</v>
       </c>
       <c r="C3" t="n">
-        <v>571.5</v>
+        <v>1012.8</v>
       </c>
       <c r="D3" t="n">
-        <v>565.55</v>
+        <v>981.3</v>
       </c>
       <c r="E3" t="n">
-        <v>569.4</v>
+        <v>1011</v>
       </c>
       <c r="F3" t="n">
-        <v>680112</v>
+        <v>9772235</v>
       </c>
       <c r="G3" t="n">
-        <v>439901</v>
+        <v>6376983</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5460569537236787</v>
+        <v>0.5324229341680854</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013</v>
+        <v>15950</v>
       </c>
       <c r="C4" t="n">
-        <v>2040</v>
+        <v>16210</v>
       </c>
       <c r="D4" t="n">
-        <v>2010</v>
+        <v>15950</v>
       </c>
       <c r="E4" t="n">
-        <v>2012</v>
+        <v>16140</v>
       </c>
       <c r="F4" t="n">
-        <v>435358</v>
+        <v>314946</v>
       </c>
       <c r="G4" t="n">
-        <v>309688</v>
+        <v>214525</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4057955103200641</v>
+        <v>0.4681086120498776</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265</v>
+        <v>986.6</v>
       </c>
       <c r="C5" t="n">
-        <v>265.55</v>
+        <v>999</v>
       </c>
       <c r="D5" t="n">
-        <v>262.15</v>
+        <v>982.15</v>
       </c>
       <c r="E5" t="n">
-        <v>265.05</v>
+        <v>983.05</v>
       </c>
       <c r="F5" t="n">
-        <v>2618236</v>
+        <v>13943490</v>
       </c>
       <c r="G5" t="n">
-        <v>1795957</v>
+        <v>9140201</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4578500487483832</v>
+        <v>0.5255124039394757</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CROMPTON</t>
+          <t>SBIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>282.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>290.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>282.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>290</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11134915</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7350075</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5149389632078584</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1237.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1195.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1235.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126656</v>
+      </c>
+      <c r="G7" t="n">
+        <v>792811</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4210902724609018</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AUROPHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>593</v>
+      </c>
+      <c r="C8" t="n">
+        <v>609.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>592.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>605.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1896432</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1338159</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4171948176561978</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>406</v>
+      </c>
+      <c r="C9" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>403.65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>405.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3963301</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2738092</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4474681639623505</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>INDUSTOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>568</v>
+      </c>
+      <c r="C10" t="n">
+        <v>575.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>567.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>570</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1058621</v>
+      </c>
+      <c r="G10" t="n">
+        <v>680112</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5565392170701297</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>309.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>318.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>308.95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4294290</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3017233</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4232543525806592</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1625.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1577.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1619.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1900973</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1245972</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5256947989200399</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1079.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1068.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>822473</v>
+      </c>
+      <c r="G13" t="n">
+        <v>518046</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5876447265300765</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,528 +484,594 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.1</v>
+        <v>125.4</v>
       </c>
       <c r="C2" t="n">
-        <v>1251</v>
+        <v>126.24</v>
       </c>
       <c r="D2" t="n">
-        <v>1234.6</v>
+        <v>123.95</v>
       </c>
       <c r="E2" t="n">
-        <v>1247</v>
+        <v>124.9</v>
       </c>
       <c r="F2" t="n">
-        <v>809816</v>
+        <v>9718546</v>
       </c>
       <c r="G2" t="n">
-        <v>1983817</v>
+        <v>19458499</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.591788960372857</v>
+        <v>-0.5005500681219039</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>PNB</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2321.2</v>
+        <v>552.45</v>
       </c>
       <c r="C3" t="n">
-        <v>2357</v>
+        <v>553.3</v>
       </c>
       <c r="D3" t="n">
-        <v>2310</v>
+        <v>547</v>
       </c>
       <c r="E3" t="n">
-        <v>2313.9</v>
+        <v>548.85</v>
       </c>
       <c r="F3" t="n">
-        <v>1026965</v>
+        <v>481061</v>
       </c>
       <c r="G3" t="n">
-        <v>2223715</v>
+        <v>948636</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5381759802852434</v>
+        <v>-0.4928918995273213</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.6</v>
+        <v>1150</v>
       </c>
       <c r="C4" t="n">
-        <v>489.6</v>
+        <v>1173.9</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8</v>
+        <v>1141</v>
       </c>
       <c r="E4" t="n">
-        <v>487.2</v>
+        <v>1165</v>
       </c>
       <c r="F4" t="n">
-        <v>1486994</v>
+        <v>490617</v>
       </c>
       <c r="G4" t="n">
-        <v>2950968</v>
+        <v>1023674</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4960995849497521</v>
+        <v>-0.520729255602858</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26655</v>
+        <v>768</v>
       </c>
       <c r="C5" t="n">
-        <v>26975</v>
+        <v>776</v>
       </c>
       <c r="D5" t="n">
-        <v>26480</v>
+        <v>764.15</v>
       </c>
       <c r="E5" t="n">
-        <v>26945</v>
+        <v>772</v>
       </c>
       <c r="F5" t="n">
-        <v>16119</v>
+        <v>321521</v>
       </c>
       <c r="G5" t="n">
-        <v>35989</v>
+        <v>710467</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5521131456834033</v>
+        <v>-0.5474511835173203</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>JSL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>SJVN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1147</v>
+        <v>78.94</v>
       </c>
       <c r="C6" t="n">
-        <v>1167.5</v>
+        <v>79.53</v>
       </c>
       <c r="D6" t="n">
-        <v>1142.1</v>
+        <v>78.7</v>
       </c>
       <c r="E6" t="n">
-        <v>1155</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1448380</v>
+        <v>1636846</v>
       </c>
       <c r="G6" t="n">
-        <v>3033523</v>
+        <v>3365715</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5225419421576827</v>
+        <v>-0.5136706465045318</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>SJVN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5865</v>
+        <v>308.9</v>
       </c>
       <c r="C7" t="n">
-        <v>5904.5</v>
+        <v>310.05</v>
       </c>
       <c r="D7" t="n">
-        <v>5843</v>
+        <v>305.4</v>
       </c>
       <c r="E7" t="n">
-        <v>5868</v>
+        <v>308.9</v>
       </c>
       <c r="F7" t="n">
-        <v>157291</v>
+        <v>4988540</v>
       </c>
       <c r="G7" t="n">
-        <v>309271</v>
+        <v>11140520</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4914136792651105</v>
+        <v>-0.5522165931213264</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>LTF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IRCTC</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>678.45</v>
+        <v>605</v>
       </c>
       <c r="C8" t="n">
-        <v>689.8</v>
+        <v>612.9</v>
       </c>
       <c r="D8" t="n">
-        <v>677.75</v>
+        <v>602.75</v>
       </c>
       <c r="E8" t="n">
-        <v>689.45</v>
+        <v>606</v>
       </c>
       <c r="F8" t="n">
-        <v>606666</v>
+        <v>922708</v>
       </c>
       <c r="G8" t="n">
-        <v>1290958</v>
+        <v>1896432</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5300652693581046</v>
+        <v>-0.5134505218220321</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>IRCTC</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2042.3</v>
+        <v>107.2</v>
       </c>
       <c r="C9" t="n">
-        <v>2074</v>
+        <v>107.21</v>
       </c>
       <c r="D9" t="n">
-        <v>2035.3</v>
+        <v>106.23</v>
       </c>
       <c r="E9" t="n">
-        <v>2071</v>
+        <v>106.73</v>
       </c>
       <c r="F9" t="n">
-        <v>615108</v>
+        <v>13820784</v>
       </c>
       <c r="G9" t="n">
-        <v>1446889</v>
+        <v>27688034</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5748754742070746</v>
+        <v>-0.5008390989407193</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.95</v>
+        <v>137.8</v>
       </c>
       <c r="C10" t="n">
-        <v>350.8</v>
+        <v>139.65</v>
       </c>
       <c r="D10" t="n">
-        <v>344.4</v>
+        <v>135.82</v>
       </c>
       <c r="E10" t="n">
-        <v>349.2</v>
+        <v>136.46</v>
       </c>
       <c r="F10" t="n">
-        <v>5456898</v>
+        <v>15805364</v>
       </c>
       <c r="G10" t="n">
-        <v>12471895</v>
+        <v>37106654</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5624644049681303</v>
+        <v>-0.5740558014204137</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>641.75</v>
+        <v>1320</v>
       </c>
       <c r="C11" t="n">
-        <v>649</v>
+        <v>1323</v>
       </c>
       <c r="D11" t="n">
-        <v>641.2</v>
+        <v>1310.1</v>
       </c>
       <c r="E11" t="n">
-        <v>648</v>
+        <v>1311.3</v>
       </c>
       <c r="F11" t="n">
-        <v>171609</v>
+        <v>137206</v>
       </c>
       <c r="G11" t="n">
-        <v>421080</v>
+        <v>279558</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5924551154174978</v>
+        <v>-0.5092038145930361</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>514.15</v>
+        <v>256</v>
       </c>
       <c r="C12" t="n">
-        <v>520.05</v>
+        <v>256.9</v>
       </c>
       <c r="D12" t="n">
-        <v>513.85</v>
+        <v>253.3</v>
       </c>
       <c r="E12" t="n">
-        <v>517.9</v>
+        <v>255.35</v>
       </c>
       <c r="F12" t="n">
-        <v>914828</v>
+        <v>4560033</v>
       </c>
       <c r="G12" t="n">
-        <v>2050235</v>
+        <v>10148728</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5537935895153483</v>
+        <v>-0.5506793560729976</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>FEDERALBNK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1731.7</v>
+        <v>500</v>
       </c>
       <c r="C13" t="n">
-        <v>1762</v>
+        <v>500</v>
       </c>
       <c r="D13" t="n">
-        <v>1729.1</v>
+        <v>490.1</v>
       </c>
       <c r="E13" t="n">
-        <v>1742.5</v>
+        <v>494.85</v>
       </c>
       <c r="F13" t="n">
-        <v>440793</v>
+        <v>827820</v>
       </c>
       <c r="G13" t="n">
-        <v>1043795</v>
+        <v>1696869</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.577701560172256</v>
+        <v>-0.5121485512434961</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>CONCOR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465</v>
+        <v>518.65</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.4</v>
+        <v>520.45</v>
       </c>
       <c r="D14" t="n">
-        <v>1457.7</v>
+        <v>513</v>
       </c>
       <c r="E14" t="n">
-        <v>1469</v>
+        <v>514.4</v>
       </c>
       <c r="F14" t="n">
-        <v>650660</v>
+        <v>846809</v>
       </c>
       <c r="G14" t="n">
-        <v>1562164</v>
+        <v>1680398</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5834880332666736</v>
+        <v>-0.4960664080771341</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>CONCOR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>319.75</v>
+        <v>556.7</v>
       </c>
       <c r="C15" t="n">
-        <v>324.9</v>
+        <v>557.55</v>
       </c>
       <c r="D15" t="n">
-        <v>317.9</v>
+        <v>548.1</v>
       </c>
       <c r="E15" t="n">
-        <v>323.05</v>
+        <v>550.8</v>
       </c>
       <c r="F15" t="n">
-        <v>5359842</v>
+        <v>913611</v>
       </c>
       <c r="G15" t="n">
-        <v>10977583</v>
+        <v>1867914</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5117466203626062</v>
+        <v>-0.5108923644236297</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>RVNL</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>AUBANK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270</v>
+        <v>953.75</v>
       </c>
       <c r="C16" t="n">
-        <v>271.67</v>
+        <v>955</v>
       </c>
       <c r="D16" t="n">
-        <v>263.25</v>
+        <v>938.8</v>
       </c>
       <c r="E16" t="n">
-        <v>264.5</v>
+        <v>944.9</v>
       </c>
       <c r="F16" t="n">
-        <v>3154248</v>
+        <v>1254643</v>
       </c>
       <c r="G16" t="n">
-        <v>6737276</v>
+        <v>2849853</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5318214661236975</v>
+        <v>-0.5597516784199045</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>AUBANK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>411.25</v>
+        <v>547.9</v>
       </c>
       <c r="C17" t="n">
-        <v>420.5</v>
+        <v>555.75</v>
       </c>
       <c r="D17" t="n">
-        <v>410.9</v>
+        <v>543</v>
       </c>
       <c r="E17" t="n">
-        <v>419</v>
+        <v>549</v>
       </c>
       <c r="F17" t="n">
-        <v>1423515</v>
+        <v>722971</v>
       </c>
       <c r="G17" t="n">
-        <v>3134101</v>
+        <v>1500636</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5457979816221622</v>
+        <v>-0.5182236065241671</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>269.05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>269.25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>266.15</v>
+      </c>
+      <c r="E18" t="n">
+        <v>266.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1488268</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2945617</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.4947516937877531</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CROMPTON</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>918</v>
+      </c>
+      <c r="C19" t="n">
+        <v>921</v>
+      </c>
+      <c r="D19" t="n">
+        <v>906.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>910</v>
+      </c>
+      <c r="F19" t="n">
+        <v>440900</v>
+      </c>
+      <c r="G19" t="n">
+        <v>924269</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5229743721795278</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,396 +1144,627 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112</v>
+        <v>1379</v>
       </c>
       <c r="C2" t="n">
-        <v>1157</v>
+        <v>1394</v>
       </c>
       <c r="D2" t="n">
-        <v>1112</v>
+        <v>1375.7</v>
       </c>
       <c r="E2" t="n">
-        <v>1153</v>
+        <v>1393.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2167703</v>
+        <v>15158741</v>
       </c>
       <c r="G2" t="n">
-        <v>1394051</v>
+        <v>9659004</v>
       </c>
       <c r="H2" t="n">
-        <v>0.55496678385511</v>
+        <v>0.5693896596377847</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.2</v>
+        <v>2426.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1012.8</v>
+        <v>2459.7</v>
       </c>
       <c r="D3" t="n">
-        <v>981.3</v>
+        <v>2425</v>
       </c>
       <c r="E3" t="n">
-        <v>1011</v>
+        <v>2455</v>
       </c>
       <c r="F3" t="n">
-        <v>9772235</v>
+        <v>1872248</v>
       </c>
       <c r="G3" t="n">
-        <v>6376983</v>
+        <v>1242683</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5324229341680854</v>
+        <v>0.5066175364111363</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15950</v>
+        <v>3900.6</v>
       </c>
       <c r="C4" t="n">
-        <v>16210</v>
+        <v>3927</v>
       </c>
       <c r="D4" t="n">
-        <v>15950</v>
+        <v>3875.1</v>
       </c>
       <c r="E4" t="n">
-        <v>16140</v>
+        <v>3907.5</v>
       </c>
       <c r="F4" t="n">
-        <v>314946</v>
+        <v>542241</v>
       </c>
       <c r="G4" t="n">
-        <v>214525</v>
+        <v>364592</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4681086120498776</v>
+        <v>0.4872542458419274</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>TITAN</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>986.6</v>
+        <v>1187</v>
       </c>
       <c r="C5" t="n">
-        <v>999</v>
+        <v>1192.9</v>
       </c>
       <c r="D5" t="n">
-        <v>982.15</v>
+        <v>1168.3</v>
       </c>
       <c r="E5" t="n">
-        <v>983.05</v>
+        <v>1175.5</v>
       </c>
       <c r="F5" t="n">
-        <v>13943490</v>
+        <v>1118308</v>
       </c>
       <c r="G5" t="n">
-        <v>9140201</v>
+        <v>713335</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5255124039394757</v>
+        <v>0.567717832434971</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282.8</v>
+        <v>11776</v>
       </c>
       <c r="C6" t="n">
-        <v>290.25</v>
+        <v>11787</v>
       </c>
       <c r="D6" t="n">
-        <v>282.15</v>
+        <v>11599</v>
       </c>
       <c r="E6" t="n">
-        <v>290</v>
+        <v>11620</v>
       </c>
       <c r="F6" t="n">
-        <v>11134915</v>
+        <v>275290</v>
       </c>
       <c r="G6" t="n">
-        <v>7350075</v>
+        <v>187481</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5149389632078584</v>
+        <v>0.4683621273622394</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1210</v>
+        <v>308</v>
       </c>
       <c r="C7" t="n">
-        <v>1237.3</v>
+        <v>308.7</v>
       </c>
       <c r="D7" t="n">
-        <v>1195.7</v>
+        <v>300.55</v>
       </c>
       <c r="E7" t="n">
-        <v>1235.5</v>
+        <v>302.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1126656</v>
+        <v>22604916</v>
       </c>
       <c r="G7" t="n">
-        <v>792811</v>
+        <v>14488702</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4210902724609018</v>
+        <v>0.5601753697467171</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AUROPHARMA</t>
+          <t>ETERNAL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>593</v>
+        <v>7210</v>
       </c>
       <c r="C8" t="n">
-        <v>609.4</v>
+        <v>7210.5</v>
       </c>
       <c r="D8" t="n">
-        <v>592.1</v>
+        <v>6981</v>
       </c>
       <c r="E8" t="n">
-        <v>605.2</v>
+        <v>7004</v>
       </c>
       <c r="F8" t="n">
-        <v>1896432</v>
+        <v>480102</v>
       </c>
       <c r="G8" t="n">
-        <v>1338159</v>
+        <v>313545</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4171948176561978</v>
+        <v>0.5312060469789025</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406</v>
+        <v>2310</v>
       </c>
       <c r="C9" t="n">
-        <v>409.8</v>
+        <v>2320.5</v>
       </c>
       <c r="D9" t="n">
-        <v>403.65</v>
+        <v>2243</v>
       </c>
       <c r="E9" t="n">
-        <v>405.05</v>
+        <v>2249</v>
       </c>
       <c r="F9" t="n">
-        <v>3963301</v>
+        <v>1474038</v>
       </c>
       <c r="G9" t="n">
-        <v>2738092</v>
+        <v>1026965</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4474681639623505</v>
+        <v>0.435334212947861</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>568</v>
+        <v>392.4</v>
       </c>
       <c r="C10" t="n">
-        <v>575.4</v>
+        <v>399.95</v>
       </c>
       <c r="D10" t="n">
-        <v>567.55</v>
+        <v>391.5</v>
       </c>
       <c r="E10" t="n">
-        <v>570</v>
+        <v>391.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1058621</v>
+        <v>7412732</v>
       </c>
       <c r="G10" t="n">
-        <v>680112</v>
+        <v>4917525</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5565392170701297</v>
+        <v>0.5074111468675807</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.05</v>
+        <v>489</v>
       </c>
       <c r="C11" t="n">
-        <v>318.15</v>
+        <v>490.2</v>
       </c>
       <c r="D11" t="n">
-        <v>308.95</v>
+        <v>480.65</v>
       </c>
       <c r="E11" t="n">
-        <v>317.2</v>
+        <v>487.6</v>
       </c>
       <c r="F11" t="n">
-        <v>4294290</v>
+        <v>2266552</v>
       </c>
       <c r="G11" t="n">
-        <v>3017233</v>
+        <v>1486994</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4232543525806592</v>
+        <v>0.5242509384704982</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1580</v>
+        <v>26935</v>
       </c>
       <c r="C12" t="n">
-        <v>1625.8</v>
+        <v>26945</v>
       </c>
       <c r="D12" t="n">
-        <v>1577.8</v>
+        <v>26615</v>
       </c>
       <c r="E12" t="n">
-        <v>1619.5</v>
+        <v>26780</v>
       </c>
       <c r="F12" t="n">
-        <v>1900973</v>
+        <v>25657</v>
       </c>
       <c r="G12" t="n">
-        <v>1245972</v>
+        <v>16119</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5256947989200399</v>
+        <v>0.5917240523605682</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KFINTECH</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1055</v>
+        <v>1194.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1079.1</v>
+        <v>1222</v>
       </c>
       <c r="D13" t="n">
-        <v>1055</v>
+        <v>1194</v>
       </c>
       <c r="E13" t="n">
-        <v>1068.7</v>
+        <v>1219</v>
       </c>
       <c r="F13" t="n">
-        <v>822473</v>
+        <v>750796</v>
       </c>
       <c r="G13" t="n">
-        <v>518046</v>
+        <v>476916</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5876447265300765</v>
+        <v>0.5742730375999128</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>KFINTECH</t>
+          <t>KPITTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1924.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1922.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1272760</v>
+      </c>
+      <c r="G14" t="n">
+        <v>833315</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5273456016032353</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ICICIPRULI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>624.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>627.95</v>
+      </c>
+      <c r="D15" t="n">
+        <v>621</v>
+      </c>
+      <c r="E15" t="n">
+        <v>626.65</v>
+      </c>
+      <c r="F15" t="n">
+        <v>441657</v>
+      </c>
+      <c r="G15" t="n">
+        <v>284416</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5528556761926192</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ICICIPRULI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1309.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1293</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3799617</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2425988</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.566214259922143</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PAYTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>878.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>885.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>875.85</v>
+      </c>
+      <c r="E17" t="n">
+        <v>881</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1072239</v>
+      </c>
+      <c r="G17" t="n">
+        <v>676067</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5859951750344271</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SBICARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>619942440</v>
+      </c>
+      <c r="G18" t="n">
+        <v>392221239</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5805937525988999</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>IDEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F19" t="n">
+        <v>337720</v>
+      </c>
+      <c r="G19" t="n">
+        <v>219892</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5358448692994743</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>72.51000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>71.42</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7997055</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5181489</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5433893616294466</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>HFCL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,594 +484,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.4</v>
+        <v>1038</v>
       </c>
       <c r="C2" t="n">
-        <v>126.24</v>
+        <v>1043.5</v>
       </c>
       <c r="D2" t="n">
-        <v>123.95</v>
+        <v>1031</v>
       </c>
       <c r="E2" t="n">
-        <v>124.9</v>
+        <v>1038</v>
       </c>
       <c r="F2" t="n">
-        <v>9718546</v>
+        <v>4983147</v>
       </c>
       <c r="G2" t="n">
-        <v>19458499</v>
+        <v>12076038</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5005500681219039</v>
+        <v>-0.5873524909411514</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>552.45</v>
+        <v>1392</v>
       </c>
       <c r="C3" t="n">
-        <v>553.3</v>
+        <v>1398.5</v>
       </c>
       <c r="D3" t="n">
-        <v>547</v>
+        <v>1385.6</v>
       </c>
       <c r="E3" t="n">
-        <v>548.85</v>
+        <v>1388.4</v>
       </c>
       <c r="F3" t="n">
-        <v>481061</v>
+        <v>7683986</v>
       </c>
       <c r="G3" t="n">
-        <v>948636</v>
+        <v>15158741</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4928918995273213</v>
+        <v>-0.4930986682865022</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1150</v>
+        <v>392.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1173.9</v>
+        <v>393.95</v>
       </c>
       <c r="D4" t="n">
-        <v>1141</v>
+        <v>389.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1165</v>
+        <v>389.8</v>
       </c>
       <c r="F4" t="n">
-        <v>490617</v>
+        <v>3760769</v>
       </c>
       <c r="G4" t="n">
-        <v>1023674</v>
+        <v>7412732</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.520729255602858</v>
+        <v>-0.4926608705130578</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768</v>
+        <v>2805.1</v>
       </c>
       <c r="C5" t="n">
-        <v>776</v>
+        <v>2819.5</v>
       </c>
       <c r="D5" t="n">
-        <v>764.15</v>
+        <v>2787.3</v>
       </c>
       <c r="E5" t="n">
-        <v>772</v>
+        <v>2809</v>
       </c>
       <c r="F5" t="n">
-        <v>321521</v>
+        <v>295505</v>
       </c>
       <c r="G5" t="n">
-        <v>710467</v>
+        <v>683457</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5474511835173203</v>
+        <v>-0.5676319066159247</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>COLPAL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.94</v>
+        <v>2171.3</v>
       </c>
       <c r="C6" t="n">
-        <v>79.53</v>
+        <v>2175.2</v>
       </c>
       <c r="D6" t="n">
-        <v>78.7</v>
+        <v>2162.2</v>
       </c>
       <c r="E6" t="n">
-        <v>78.98999999999999</v>
+        <v>2167</v>
       </c>
       <c r="F6" t="n">
-        <v>1636846</v>
+        <v>120973</v>
       </c>
       <c r="G6" t="n">
-        <v>3365715</v>
+        <v>264052</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5136706465045318</v>
+        <v>-0.5418591792525714</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>COLPAL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308.9</v>
+        <v>80.75</v>
       </c>
       <c r="C7" t="n">
-        <v>310.05</v>
+        <v>80.77</v>
       </c>
       <c r="D7" t="n">
-        <v>305.4</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>308.9</v>
+        <v>80.2</v>
       </c>
       <c r="F7" t="n">
-        <v>4988540</v>
+        <v>14855394</v>
       </c>
       <c r="G7" t="n">
-        <v>11140520</v>
+        <v>31427073</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5522165931213264</v>
+        <v>-0.5273058359586972</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>OFSS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>605</v>
+        <v>8122.5</v>
       </c>
       <c r="C8" t="n">
-        <v>612.9</v>
+        <v>8265</v>
       </c>
       <c r="D8" t="n">
-        <v>602.75</v>
+        <v>8087.5</v>
       </c>
       <c r="E8" t="n">
-        <v>606</v>
+        <v>8102</v>
       </c>
       <c r="F8" t="n">
-        <v>922708</v>
+        <v>91091</v>
       </c>
       <c r="G8" t="n">
-        <v>1896432</v>
+        <v>197830</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5134505218220321</v>
+        <v>-0.5395491078198453</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>OFSS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.2</v>
+        <v>6440</v>
       </c>
       <c r="C9" t="n">
-        <v>107.21</v>
+        <v>6455</v>
       </c>
       <c r="D9" t="n">
-        <v>106.23</v>
+        <v>6318.5</v>
       </c>
       <c r="E9" t="n">
-        <v>106.73</v>
+        <v>6360</v>
       </c>
       <c r="F9" t="n">
-        <v>13820784</v>
+        <v>208808</v>
       </c>
       <c r="G9" t="n">
-        <v>27688034</v>
+        <v>445809</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5008390989407193</v>
+        <v>-0.531620043561256</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>137.8</v>
+        <v>1735.8</v>
       </c>
       <c r="C10" t="n">
-        <v>139.65</v>
+        <v>1750</v>
       </c>
       <c r="D10" t="n">
-        <v>135.82</v>
+        <v>1693.2</v>
       </c>
       <c r="E10" t="n">
-        <v>136.46</v>
+        <v>1702</v>
       </c>
       <c r="F10" t="n">
-        <v>15805364</v>
+        <v>275775</v>
       </c>
       <c r="G10" t="n">
-        <v>37106654</v>
+        <v>593016</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5740558014204137</v>
+        <v>-0.5349619571815938</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320</v>
+        <v>313.3</v>
       </c>
       <c r="C11" t="n">
-        <v>1323</v>
+        <v>314.2</v>
       </c>
       <c r="D11" t="n">
-        <v>1310.1</v>
+        <v>309.65</v>
       </c>
       <c r="E11" t="n">
-        <v>1311.3</v>
+        <v>312.5</v>
       </c>
       <c r="F11" t="n">
-        <v>137206</v>
+        <v>2877894</v>
       </c>
       <c r="G11" t="n">
-        <v>279558</v>
+        <v>5707931</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5092038145930361</v>
+        <v>-0.4958078505153619</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FEDERALBNK</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>256</v>
-      </c>
-      <c r="C12" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>255.35</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4560033</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10148728</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5506793560729976</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>FEDERALBNK</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>500</v>
-      </c>
-      <c r="C13" t="n">
-        <v>500</v>
-      </c>
-      <c r="D13" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>494.85</v>
-      </c>
-      <c r="F13" t="n">
-        <v>827820</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1696869</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5121485512434961</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CONCOR</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>518.65</v>
-      </c>
-      <c r="C14" t="n">
-        <v>520.45</v>
-      </c>
-      <c r="D14" t="n">
-        <v>513</v>
-      </c>
-      <c r="E14" t="n">
-        <v>514.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>846809</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1680398</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.4960664080771341</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>CONCOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>556.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>557.55</v>
-      </c>
-      <c r="D15" t="n">
-        <v>548.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>550.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>913611</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1867914</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5108923644236297</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AUBANK</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>953.75</v>
-      </c>
-      <c r="C16" t="n">
-        <v>955</v>
-      </c>
-      <c r="D16" t="n">
-        <v>938.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>944.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1254643</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2849853</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5597516784199045</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>AUBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>547.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>555.75</v>
-      </c>
-      <c r="D17" t="n">
-        <v>543</v>
-      </c>
-      <c r="E17" t="n">
-        <v>549</v>
-      </c>
-      <c r="F17" t="n">
-        <v>722971</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1500636</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5182236065241671</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>GRANULES</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>269.05</v>
-      </c>
-      <c r="C18" t="n">
-        <v>269.25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>266.15</v>
-      </c>
-      <c r="E18" t="n">
-        <v>266.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1488268</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2945617</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.4947516937877531</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>CROMPTON</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>918</v>
-      </c>
-      <c r="C19" t="n">
-        <v>921</v>
-      </c>
-      <c r="D19" t="n">
-        <v>906.7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>910</v>
-      </c>
-      <c r="F19" t="n">
-        <v>440900</v>
-      </c>
-      <c r="G19" t="n">
-        <v>924269</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5229743721795278</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
+          <t>RBLBANK</t>
         </is>
       </c>
     </row>
@@ -1086,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,627 +880,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1379</v>
+        <v>3692</v>
       </c>
       <c r="C2" t="n">
-        <v>1394</v>
+        <v>3768.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1375.7</v>
+        <v>3690.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1393.9</v>
+        <v>3761</v>
       </c>
       <c r="F2" t="n">
-        <v>15158741</v>
+        <v>2944457</v>
       </c>
       <c r="G2" t="n">
-        <v>9659004</v>
+        <v>1993274</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5693896596377847</v>
+        <v>0.4771963111945473</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>M&amp;M</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2426.1</v>
+        <v>379</v>
       </c>
       <c r="C3" t="n">
-        <v>2459.7</v>
+        <v>379.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2425</v>
+        <v>374.9</v>
       </c>
       <c r="E3" t="n">
-        <v>2455</v>
+        <v>376.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1872248</v>
+        <v>4689402</v>
       </c>
       <c r="G3" t="n">
-        <v>1242683</v>
+        <v>3330267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5066175364111363</v>
+        <v>0.4081159258401804</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>COALINDIA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3900.6</v>
+        <v>2118</v>
       </c>
       <c r="C4" t="n">
-        <v>3927</v>
+        <v>2129.5</v>
       </c>
       <c r="D4" t="n">
-        <v>3875.1</v>
+        <v>2096.4</v>
       </c>
       <c r="E4" t="n">
-        <v>3907.5</v>
+        <v>2100</v>
       </c>
       <c r="F4" t="n">
-        <v>542241</v>
+        <v>6263457</v>
       </c>
       <c r="G4" t="n">
-        <v>364592</v>
+        <v>4444877</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4872542458419274</v>
+        <v>0.4091406803832817</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187</v>
+        <v>2011</v>
       </c>
       <c r="C5" t="n">
-        <v>1192.9</v>
+        <v>2011.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1168.3</v>
+        <v>1961</v>
       </c>
       <c r="E5" t="n">
-        <v>1175.5</v>
+        <v>1970</v>
       </c>
       <c r="F5" t="n">
-        <v>1118308</v>
+        <v>1011160</v>
       </c>
       <c r="G5" t="n">
-        <v>713335</v>
+        <v>652128</v>
       </c>
       <c r="H5" t="n">
-        <v>0.567717832434971</v>
+        <v>0.5505544923695962</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>SBILIFE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11776</v>
+        <v>6031</v>
       </c>
       <c r="C6" t="n">
-        <v>11787</v>
+        <v>6124</v>
       </c>
       <c r="D6" t="n">
-        <v>11599</v>
+        <v>6010</v>
       </c>
       <c r="E6" t="n">
-        <v>11620</v>
+        <v>6116</v>
       </c>
       <c r="F6" t="n">
-        <v>275290</v>
+        <v>399436</v>
       </c>
       <c r="G6" t="n">
-        <v>187481</v>
+        <v>258165</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4683621273622394</v>
+        <v>0.5472120543063544</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C7" t="n">
-        <v>308.7</v>
+        <v>292.45</v>
       </c>
       <c r="D7" t="n">
-        <v>300.55</v>
+        <v>287</v>
       </c>
       <c r="E7" t="n">
-        <v>302.2</v>
+        <v>290</v>
       </c>
       <c r="F7" t="n">
-        <v>22604916</v>
+        <v>7906532</v>
       </c>
       <c r="G7" t="n">
-        <v>14488702</v>
+        <v>5143734</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5601753697467171</v>
+        <v>0.5371191434082712</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ETERNAL</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7210</v>
+        <v>5826.5</v>
       </c>
       <c r="C8" t="n">
-        <v>7210.5</v>
+        <v>5852</v>
       </c>
       <c r="D8" t="n">
-        <v>6981</v>
+        <v>5795</v>
       </c>
       <c r="E8" t="n">
-        <v>7004</v>
+        <v>5840.5</v>
       </c>
       <c r="F8" t="n">
-        <v>480102</v>
+        <v>220417</v>
       </c>
       <c r="G8" t="n">
-        <v>313545</v>
+        <v>156675</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5312060469789025</v>
+        <v>0.4068421892452529</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2310</v>
+        <v>6152</v>
       </c>
       <c r="C9" t="n">
-        <v>2320.5</v>
+        <v>6239</v>
       </c>
       <c r="D9" t="n">
-        <v>2243</v>
+        <v>6128</v>
       </c>
       <c r="E9" t="n">
-        <v>2249</v>
+        <v>6200</v>
       </c>
       <c r="F9" t="n">
-        <v>1474038</v>
+        <v>504441</v>
       </c>
       <c r="G9" t="n">
-        <v>1026965</v>
+        <v>352120</v>
       </c>
       <c r="H9" t="n">
-        <v>0.435334212947861</v>
+        <v>0.4325826422810405</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>392.4</v>
+        <v>1307.1</v>
       </c>
       <c r="C10" t="n">
-        <v>399.95</v>
+        <v>1325</v>
       </c>
       <c r="D10" t="n">
-        <v>391.5</v>
+        <v>1302</v>
       </c>
       <c r="E10" t="n">
-        <v>391.9</v>
+        <v>1315</v>
       </c>
       <c r="F10" t="n">
-        <v>7412732</v>
+        <v>205067</v>
       </c>
       <c r="G10" t="n">
-        <v>4917525</v>
+        <v>137206</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5074111468675807</v>
+        <v>0.494592073232949</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>489</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>490.2</v>
+        <v>75.03</v>
       </c>
       <c r="D11" t="n">
-        <v>480.65</v>
+        <v>73.5</v>
       </c>
       <c r="E11" t="n">
-        <v>487.6</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>2266552</v>
+        <v>16024318</v>
       </c>
       <c r="G11" t="n">
-        <v>1486994</v>
+        <v>10707179</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5242509384704982</v>
+        <v>0.4965956952807084</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26935</v>
+        <v>1470.1</v>
       </c>
       <c r="C12" t="n">
-        <v>26945</v>
+        <v>1470.1</v>
       </c>
       <c r="D12" t="n">
-        <v>26615</v>
+        <v>1436.6</v>
       </c>
       <c r="E12" t="n">
-        <v>26780</v>
+        <v>1440</v>
       </c>
       <c r="F12" t="n">
-        <v>25657</v>
+        <v>527824</v>
       </c>
       <c r="G12" t="n">
-        <v>16119</v>
+        <v>369425</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5917240523605682</v>
+        <v>0.428771739866008</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>CAMS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1194.5</v>
+        <v>3905.9</v>
       </c>
       <c r="C13" t="n">
-        <v>1222</v>
+        <v>3914.9</v>
       </c>
       <c r="D13" t="n">
-        <v>1194</v>
+        <v>3862.3</v>
       </c>
       <c r="E13" t="n">
-        <v>1219</v>
+        <v>3875.4</v>
       </c>
       <c r="F13" t="n">
-        <v>750796</v>
+        <v>282178</v>
       </c>
       <c r="G13" t="n">
-        <v>476916</v>
+        <v>183418</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5742730375999128</v>
+        <v>0.5384422466715372</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1924.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1958</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1922.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1942</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1272760</v>
-      </c>
-      <c r="G14" t="n">
-        <v>833315</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5273456016032353</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ICICIPRULI</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>624.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>627.95</v>
-      </c>
-      <c r="D15" t="n">
-        <v>621</v>
-      </c>
-      <c r="E15" t="n">
-        <v>626.65</v>
-      </c>
-      <c r="F15" t="n">
-        <v>441657</v>
-      </c>
-      <c r="G15" t="n">
-        <v>284416</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5528556761926192</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ICICIPRULI</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1305</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1309.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1283</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1293</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3799617</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2425988</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.566214259922143</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>PAYTM</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>878.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>885.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>875.85</v>
-      </c>
-      <c r="E17" t="n">
-        <v>881</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1072239</v>
-      </c>
-      <c r="G17" t="n">
-        <v>676067</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5859951750344271</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SBICARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>619942440</v>
-      </c>
-      <c r="G18" t="n">
-        <v>392221239</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5805937525988999</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>IDEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1739</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1743</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1710</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F19" t="n">
-        <v>337720</v>
-      </c>
-      <c r="G19" t="n">
-        <v>219892</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5358448692994743</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>72.51000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>71.11</v>
-      </c>
-      <c r="E20" t="n">
-        <v>71.42</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7997055</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5181489</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5433893616294466</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>HFCL</t>
+          <t>CAMS</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1038</v>
+        <v>1967</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.5</v>
+        <v>1977</v>
       </c>
       <c r="D2" t="n">
-        <v>1031</v>
+        <v>1951.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1038</v>
+        <v>1974</v>
       </c>
       <c r="F2" t="n">
-        <v>4983147</v>
+        <v>483716</v>
       </c>
       <c r="G2" t="n">
-        <v>12076038</v>
+        <v>1011160</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5873524909411514</v>
+        <v>-0.5216226907709957</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>SBILIFE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1392</v>
+        <v>1172.4</v>
       </c>
       <c r="C3" t="n">
-        <v>1398.5</v>
+        <v>1178</v>
       </c>
       <c r="D3" t="n">
-        <v>1385.6</v>
+        <v>1159.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1388.4</v>
+        <v>1162.5</v>
       </c>
       <c r="F3" t="n">
-        <v>7683986</v>
+        <v>487062</v>
       </c>
       <c r="G3" t="n">
-        <v>15158741</v>
+        <v>1020242</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4930986682865022</v>
+        <v>-0.5226015004283298</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392.2</v>
+        <v>2300</v>
       </c>
       <c r="C4" t="n">
-        <v>393.95</v>
+        <v>2304</v>
       </c>
       <c r="D4" t="n">
-        <v>389.4</v>
+        <v>2257</v>
       </c>
       <c r="E4" t="n">
-        <v>389.8</v>
+        <v>2259.9</v>
       </c>
       <c r="F4" t="n">
-        <v>3760769</v>
+        <v>1313265</v>
       </c>
       <c r="G4" t="n">
-        <v>7412732</v>
+        <v>3037620</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4926608705130578</v>
+        <v>-0.5676664625595038</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2805.1</v>
+        <v>6500.5</v>
       </c>
       <c r="C5" t="n">
-        <v>2819.5</v>
+        <v>6524.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2787.3</v>
+        <v>6404.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2809</v>
+        <v>6419.5</v>
       </c>
       <c r="F5" t="n">
-        <v>295505</v>
+        <v>100192</v>
       </c>
       <c r="G5" t="n">
-        <v>683457</v>
+        <v>250130</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5676319066159247</v>
+        <v>-0.5994402910486547</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2171.3</v>
+        <v>1145</v>
       </c>
       <c r="C6" t="n">
-        <v>2175.2</v>
+        <v>1145.9</v>
       </c>
       <c r="D6" t="n">
-        <v>2162.2</v>
+        <v>1122.7</v>
       </c>
       <c r="E6" t="n">
-        <v>2167</v>
+        <v>1129</v>
       </c>
       <c r="F6" t="n">
-        <v>120973</v>
+        <v>766007</v>
       </c>
       <c r="G6" t="n">
-        <v>264052</v>
+        <v>1513316</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5418591792525714</v>
+        <v>-0.4938221759368169</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>GODREJCP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.75</v>
+        <v>1156.3</v>
       </c>
       <c r="C7" t="n">
-        <v>80.77</v>
+        <v>1158</v>
       </c>
       <c r="D7" t="n">
-        <v>79.90000000000001</v>
+        <v>1125.1</v>
       </c>
       <c r="E7" t="n">
-        <v>80.2</v>
+        <v>1126.6</v>
       </c>
       <c r="F7" t="n">
-        <v>14855394</v>
+        <v>684453</v>
       </c>
       <c r="G7" t="n">
-        <v>31427073</v>
+        <v>1536998</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5273058359586972</v>
+        <v>-0.5546819189094586</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>LODHA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OFSS</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8122.5</v>
+        <v>1184.9</v>
       </c>
       <c r="C8" t="n">
-        <v>8265</v>
+        <v>1198.6</v>
       </c>
       <c r="D8" t="n">
-        <v>8087.5</v>
+        <v>1181.2</v>
       </c>
       <c r="E8" t="n">
-        <v>8102</v>
+        <v>1190</v>
       </c>
       <c r="F8" t="n">
-        <v>91091</v>
+        <v>560894</v>
       </c>
       <c r="G8" t="n">
-        <v>197830</v>
+        <v>1176162</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5395491078198453</v>
+        <v>-0.5231150130679277</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>OFSS</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6440</v>
+        <v>550.9</v>
       </c>
       <c r="C9" t="n">
-        <v>6455</v>
+        <v>554.75</v>
       </c>
       <c r="D9" t="n">
-        <v>6318.5</v>
+        <v>549.05</v>
       </c>
       <c r="E9" t="n">
-        <v>6360</v>
+        <v>550</v>
       </c>
       <c r="F9" t="n">
-        <v>208808</v>
+        <v>289709</v>
       </c>
       <c r="G9" t="n">
-        <v>445809</v>
+        <v>618499</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.531620043561256</v>
+        <v>-0.5315934221397286</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1735.8</v>
+        <v>1438</v>
       </c>
       <c r="C10" t="n">
-        <v>1750</v>
+        <v>1450</v>
       </c>
       <c r="D10" t="n">
-        <v>1693.2</v>
+        <v>1424.9</v>
       </c>
       <c r="E10" t="n">
-        <v>1702</v>
+        <v>1430.4</v>
       </c>
       <c r="F10" t="n">
-        <v>275775</v>
+        <v>495952</v>
       </c>
       <c r="G10" t="n">
-        <v>593016</v>
+        <v>1148404</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5349619571815938</v>
+        <v>-0.5681380420130895</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>BHARATFORG</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.3</v>
+        <v>10200</v>
       </c>
       <c r="C11" t="n">
-        <v>314.2</v>
+        <v>10308</v>
       </c>
       <c r="D11" t="n">
-        <v>309.65</v>
+        <v>10137</v>
       </c>
       <c r="E11" t="n">
-        <v>312.5</v>
+        <v>10214</v>
       </c>
       <c r="F11" t="n">
-        <v>2877894</v>
+        <v>427516</v>
       </c>
       <c r="G11" t="n">
-        <v>5707931</v>
+        <v>918982</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4958078505153619</v>
+        <v>-0.5347939350281072</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>MCX</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" t="n">
+        <v>597.65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>586.55</v>
+      </c>
+      <c r="E12" t="n">
+        <v>592.55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>930540</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2063578</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5490647797175585</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PGEL</t>
         </is>
       </c>
     </row>
@@ -822,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,396 +913,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3692</v>
+        <v>11620</v>
       </c>
       <c r="C2" t="n">
-        <v>3768.9</v>
+        <v>12021</v>
       </c>
       <c r="D2" t="n">
-        <v>3690.1</v>
+        <v>11556</v>
       </c>
       <c r="E2" t="n">
-        <v>3761</v>
+        <v>12013</v>
       </c>
       <c r="F2" t="n">
-        <v>2944457</v>
+        <v>228729</v>
       </c>
       <c r="G2" t="n">
-        <v>1993274</v>
+        <v>159990</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4771963111945473</v>
+        <v>0.4296456028501781</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379</v>
+        <v>415.9</v>
       </c>
       <c r="C3" t="n">
-        <v>379.2</v>
+        <v>419.2</v>
       </c>
       <c r="D3" t="n">
-        <v>374.9</v>
+        <v>413.5</v>
       </c>
       <c r="E3" t="n">
-        <v>376.25</v>
+        <v>417</v>
       </c>
       <c r="F3" t="n">
-        <v>4689402</v>
+        <v>9650320</v>
       </c>
       <c r="G3" t="n">
-        <v>3330267</v>
+        <v>6690232</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4081159258401804</v>
+        <v>0.4424492304601694</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2118</v>
+        <v>1530</v>
       </c>
       <c r="C4" t="n">
-        <v>2129.5</v>
+        <v>1549</v>
       </c>
       <c r="D4" t="n">
-        <v>2096.4</v>
+        <v>1523</v>
       </c>
       <c r="E4" t="n">
-        <v>2100</v>
+        <v>1531.5</v>
       </c>
       <c r="F4" t="n">
-        <v>6263457</v>
+        <v>4059126</v>
       </c>
       <c r="G4" t="n">
-        <v>4444877</v>
+        <v>2612938</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4091406803832817</v>
+        <v>0.5534719920641056</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2011</v>
+        <v>1326.4</v>
       </c>
       <c r="C5" t="n">
-        <v>2011.1</v>
+        <v>1369</v>
       </c>
       <c r="D5" t="n">
-        <v>1961</v>
+        <v>1326.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1970</v>
+        <v>1361</v>
       </c>
       <c r="F5" t="n">
-        <v>1011160</v>
+        <v>939714</v>
       </c>
       <c r="G5" t="n">
-        <v>652128</v>
+        <v>655737</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5505544923695962</v>
+        <v>0.4330653905452949</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6031</v>
+        <v>488.7</v>
       </c>
       <c r="C6" t="n">
-        <v>6124</v>
+        <v>493.4</v>
       </c>
       <c r="D6" t="n">
-        <v>6010</v>
+        <v>484.1</v>
       </c>
       <c r="E6" t="n">
-        <v>6116</v>
+        <v>491.45</v>
       </c>
       <c r="F6" t="n">
-        <v>399436</v>
+        <v>1933563</v>
       </c>
       <c r="G6" t="n">
-        <v>258165</v>
+        <v>1256225</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5472120543063544</v>
+        <v>0.5391852574180581</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287</v>
+        <v>74.2</v>
       </c>
       <c r="C7" t="n">
-        <v>292.45</v>
+        <v>75.75</v>
       </c>
       <c r="D7" t="n">
-        <v>287</v>
+        <v>73.87</v>
       </c>
       <c r="E7" t="n">
-        <v>290</v>
+        <v>75.45</v>
       </c>
       <c r="F7" t="n">
-        <v>7906532</v>
+        <v>24997800</v>
       </c>
       <c r="G7" t="n">
-        <v>5143734</v>
+        <v>16024318</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5371191434082712</v>
+        <v>0.55999150790692</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5826.5</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>5852</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>5795</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>5840.5</v>
+        <v>80.55</v>
       </c>
       <c r="F8" t="n">
-        <v>220417</v>
+        <v>21543164</v>
       </c>
       <c r="G8" t="n">
-        <v>156675</v>
+        <v>14855394</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4068421892452529</v>
+        <v>0.4501913581019796</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6152</v>
+        <v>147.5</v>
       </c>
       <c r="C9" t="n">
-        <v>6239</v>
+        <v>149.04</v>
       </c>
       <c r="D9" t="n">
-        <v>6128</v>
+        <v>146.35</v>
       </c>
       <c r="E9" t="n">
-        <v>6200</v>
+        <v>147.35</v>
       </c>
       <c r="F9" t="n">
-        <v>504441</v>
+        <v>6729070</v>
       </c>
       <c r="G9" t="n">
-        <v>352120</v>
+        <v>4416863</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4325826422810405</v>
+        <v>0.5234952951902742</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1307.1</v>
+        <v>1307</v>
       </c>
       <c r="C10" t="n">
-        <v>1325</v>
+        <v>1337.5</v>
       </c>
       <c r="D10" t="n">
         <v>1302</v>
       </c>
       <c r="E10" t="n">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="F10" t="n">
-        <v>205067</v>
+        <v>884017</v>
       </c>
       <c r="G10" t="n">
-        <v>137206</v>
+        <v>582383</v>
       </c>
       <c r="H10" t="n">
-        <v>0.494592073232949</v>
+        <v>0.517930640145746</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>UNOMINDA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.40000000000001</v>
+        <v>568.15</v>
       </c>
       <c r="C11" t="n">
-        <v>75.03</v>
+        <v>570.8</v>
       </c>
       <c r="D11" t="n">
-        <v>73.5</v>
+        <v>562.8</v>
       </c>
       <c r="E11" t="n">
-        <v>73.90000000000001</v>
+        <v>567.85</v>
       </c>
       <c r="F11" t="n">
-        <v>16024318</v>
+        <v>553676</v>
       </c>
       <c r="G11" t="n">
-        <v>10707179</v>
+        <v>360701</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4965956952807084</v>
+        <v>0.5349999029667232</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1470.1</v>
+        <v>108.9</v>
       </c>
       <c r="C12" t="n">
-        <v>1470.1</v>
+        <v>109.6</v>
       </c>
       <c r="D12" t="n">
-        <v>1436.6</v>
+        <v>106.83</v>
       </c>
       <c r="E12" t="n">
-        <v>1440</v>
+        <v>107.67</v>
       </c>
       <c r="F12" t="n">
-        <v>527824</v>
+        <v>40681263</v>
       </c>
       <c r="G12" t="n">
-        <v>369425</v>
+        <v>25821928</v>
       </c>
       <c r="H12" t="n">
-        <v>0.428771739866008</v>
+        <v>0.5754541256563026</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>GRANULES</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3905.9</v>
+        <v>562.5</v>
       </c>
       <c r="C13" t="n">
-        <v>3914.9</v>
+        <v>571.1</v>
       </c>
       <c r="D13" t="n">
-        <v>3862.3</v>
+        <v>559.05</v>
       </c>
       <c r="E13" t="n">
-        <v>3875.4</v>
+        <v>568.5</v>
       </c>
       <c r="F13" t="n">
-        <v>282178</v>
+        <v>1311056</v>
       </c>
       <c r="G13" t="n">
-        <v>183418</v>
+        <v>857235</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5384422466715372</v>
+        <v>0.5294009227341394</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>151.11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>149.38</v>
+      </c>
+      <c r="E14" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6906158</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4578914</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5082523934714651</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>BANDHANBNK</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,363 +484,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1967</v>
+        <v>7125</v>
       </c>
       <c r="C2" t="n">
-        <v>1977</v>
+        <v>7196</v>
       </c>
       <c r="D2" t="n">
-        <v>1951.2</v>
+        <v>7091.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1974</v>
+        <v>7105</v>
       </c>
       <c r="F2" t="n">
-        <v>483716</v>
+        <v>448174</v>
       </c>
       <c r="G2" t="n">
-        <v>1011160</v>
+        <v>974710</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5216226907709957</v>
+        <v>-0.5401975972340491</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1172.4</v>
+        <v>1528.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1178</v>
+        <v>1530</v>
       </c>
       <c r="D3" t="n">
-        <v>1159.6</v>
+        <v>1510</v>
       </c>
       <c r="E3" t="n">
-        <v>1162.5</v>
+        <v>1519</v>
       </c>
       <c r="F3" t="n">
-        <v>487062</v>
+        <v>1974536</v>
       </c>
       <c r="G3" t="n">
-        <v>1020242</v>
+        <v>4059126</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5226015004283298</v>
+        <v>-0.5135563665675813</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2300</v>
+        <v>175.21</v>
       </c>
       <c r="C4" t="n">
-        <v>2304</v>
+        <v>176.66</v>
       </c>
       <c r="D4" t="n">
-        <v>2257</v>
+        <v>174.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2259.9</v>
+        <v>175.05</v>
       </c>
       <c r="F4" t="n">
-        <v>1313265</v>
+        <v>6840703</v>
       </c>
       <c r="G4" t="n">
-        <v>3037620</v>
+        <v>14586098</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5676664625595038</v>
+        <v>-0.531012132237148</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6500.5</v>
+        <v>1253.6</v>
       </c>
       <c r="C5" t="n">
-        <v>6524.5</v>
+        <v>1262.7</v>
       </c>
       <c r="D5" t="n">
-        <v>6404.5</v>
+        <v>1243.8</v>
       </c>
       <c r="E5" t="n">
-        <v>6419.5</v>
+        <v>1255.2</v>
       </c>
       <c r="F5" t="n">
-        <v>100192</v>
+        <v>486300</v>
       </c>
       <c r="G5" t="n">
-        <v>250130</v>
+        <v>1195256</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5994402910486547</v>
+        <v>-0.5931415529392866</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>MANKIND</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1145</v>
+        <v>2240.1</v>
       </c>
       <c r="C6" t="n">
-        <v>1145.9</v>
+        <v>2243.9</v>
       </c>
       <c r="D6" t="n">
-        <v>1122.7</v>
+        <v>2211</v>
       </c>
       <c r="E6" t="n">
-        <v>1129</v>
+        <v>2216</v>
       </c>
       <c r="F6" t="n">
-        <v>766007</v>
+        <v>236853</v>
       </c>
       <c r="G6" t="n">
-        <v>1513316</v>
+        <v>498132</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4938221759368169</v>
+        <v>-0.5245175977451759</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>MANKIND</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1156.3</v>
+        <v>506.95</v>
       </c>
       <c r="C7" t="n">
-        <v>1158</v>
+        <v>506.95</v>
       </c>
       <c r="D7" t="n">
-        <v>1125.1</v>
+        <v>500.3</v>
       </c>
       <c r="E7" t="n">
-        <v>1126.6</v>
+        <v>501</v>
       </c>
       <c r="F7" t="n">
-        <v>684453</v>
+        <v>1013055</v>
       </c>
       <c r="G7" t="n">
-        <v>1536998</v>
+        <v>2105078</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5546819189094586</v>
+        <v>-0.5187565496385407</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>KALYANKJIL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>NCC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1184.9</v>
+        <v>171.02</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.6</v>
+        <v>172.9</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.2</v>
+        <v>170.11</v>
       </c>
       <c r="E8" t="n">
-        <v>1190</v>
+        <v>172.35</v>
       </c>
       <c r="F8" t="n">
-        <v>560894</v>
+        <v>2853982</v>
       </c>
       <c r="G8" t="n">
-        <v>1176162</v>
+        <v>5643683</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5231150130679277</v>
+        <v>-0.4943050486712312</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>NCC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>ABFRL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.9</v>
+        <v>76.56</v>
       </c>
       <c r="C9" t="n">
-        <v>554.75</v>
+        <v>77.25</v>
       </c>
       <c r="D9" t="n">
-        <v>549.05</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>550</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>289709</v>
+        <v>1199251</v>
       </c>
       <c r="G9" t="n">
-        <v>618499</v>
+        <v>2491848</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5315934221397286</v>
+        <v>-0.5187302756829469</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>ABFRL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
+          <t>NUVAMA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1438</v>
+        <v>7488</v>
       </c>
       <c r="C10" t="n">
-        <v>1450</v>
+        <v>7488</v>
       </c>
       <c r="D10" t="n">
-        <v>1424.9</v>
+        <v>7231.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1430.4</v>
+        <v>7260</v>
       </c>
       <c r="F10" t="n">
-        <v>495952</v>
+        <v>54399</v>
       </c>
       <c r="G10" t="n">
-        <v>1148404</v>
+        <v>115661</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5681380420130895</v>
+        <v>-0.529668600478986</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BHARATFORG</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MCX</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10200</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10308</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10137</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10214</v>
-      </c>
-      <c r="F11" t="n">
-        <v>427516</v>
-      </c>
-      <c r="G11" t="n">
-        <v>918982</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5347939350281072</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>MCX</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PGEL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>590</v>
-      </c>
-      <c r="C12" t="n">
-        <v>597.65</v>
-      </c>
-      <c r="D12" t="n">
-        <v>586.55</v>
-      </c>
-      <c r="E12" t="n">
-        <v>592.55</v>
-      </c>
-      <c r="F12" t="n">
-        <v>930540</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2063578</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5490647797175585</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>PGEL</t>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>
@@ -855,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,429 +847,1023 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11620</v>
+        <v>3131</v>
       </c>
       <c r="C2" t="n">
-        <v>12021</v>
+        <v>3144</v>
       </c>
       <c r="D2" t="n">
-        <v>11556</v>
+        <v>3120.4</v>
       </c>
       <c r="E2" t="n">
-        <v>12013</v>
+        <v>3137.5</v>
       </c>
       <c r="F2" t="n">
-        <v>228729</v>
+        <v>2512003</v>
       </c>
       <c r="G2" t="n">
-        <v>159990</v>
+        <v>1747647</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4296456028501781</v>
+        <v>0.4373629228328146</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>415.9</v>
+        <v>1804</v>
       </c>
       <c r="C3" t="n">
-        <v>419.2</v>
+        <v>1814.9</v>
       </c>
       <c r="D3" t="n">
-        <v>413.5</v>
+        <v>1788.6</v>
       </c>
       <c r="E3" t="n">
-        <v>417</v>
+        <v>1804.9</v>
       </c>
       <c r="F3" t="n">
-        <v>9650320</v>
+        <v>2948688</v>
       </c>
       <c r="G3" t="n">
-        <v>6690232</v>
+        <v>1869293</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4424492304601694</v>
+        <v>0.5774348911593848</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1530</v>
+        <v>1251</v>
       </c>
       <c r="C4" t="n">
-        <v>1549</v>
+        <v>1261.8</v>
       </c>
       <c r="D4" t="n">
-        <v>1523</v>
+        <v>1251</v>
       </c>
       <c r="E4" t="n">
-        <v>1531.5</v>
+        <v>1258.1</v>
       </c>
       <c r="F4" t="n">
-        <v>4059126</v>
+        <v>911551</v>
       </c>
       <c r="G4" t="n">
-        <v>2612938</v>
+        <v>644563</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5534719920641056</v>
+        <v>0.4142155227650361</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1326.4</v>
+        <v>1160</v>
       </c>
       <c r="C5" t="n">
-        <v>1369</v>
+        <v>1173.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1326.4</v>
+        <v>1156.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1361</v>
+        <v>1161</v>
       </c>
       <c r="F5" t="n">
-        <v>939714</v>
+        <v>708989</v>
       </c>
       <c r="G5" t="n">
-        <v>655737</v>
+        <v>487062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4330653905452949</v>
+        <v>0.4556442506292833</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>488.7</v>
+        <v>976</v>
       </c>
       <c r="C6" t="n">
-        <v>493.4</v>
+        <v>980.45</v>
       </c>
       <c r="D6" t="n">
-        <v>484.1</v>
+        <v>964.9</v>
       </c>
       <c r="E6" t="n">
-        <v>491.45</v>
+        <v>969.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1933563</v>
+        <v>13444314</v>
       </c>
       <c r="G6" t="n">
-        <v>1256225</v>
+        <v>8808306</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5391852574180581</v>
+        <v>0.5263223144155074</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>SBIN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.2</v>
+        <v>7287.5</v>
       </c>
       <c r="C7" t="n">
-        <v>75.75</v>
+        <v>7299</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87</v>
+        <v>7230</v>
       </c>
       <c r="E7" t="n">
-        <v>75.45</v>
+        <v>7245.5</v>
       </c>
       <c r="F7" t="n">
-        <v>24997800</v>
+        <v>329723</v>
       </c>
       <c r="G7" t="n">
-        <v>16024318</v>
+        <v>227568</v>
       </c>
       <c r="H7" t="n">
-        <v>0.55999150790692</v>
+        <v>0.4488987906911341</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.48999999999999</v>
+        <v>5792</v>
       </c>
       <c r="C8" t="n">
-        <v>81.04000000000001</v>
+        <v>5894</v>
       </c>
       <c r="D8" t="n">
-        <v>79.95999999999999</v>
+        <v>5792</v>
       </c>
       <c r="E8" t="n">
-        <v>80.55</v>
+        <v>5888</v>
       </c>
       <c r="F8" t="n">
-        <v>21543164</v>
+        <v>290994</v>
       </c>
       <c r="G8" t="n">
-        <v>14855394</v>
+        <v>199275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4501913581019796</v>
+        <v>0.4602634550244637</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147.5</v>
+        <v>36360</v>
       </c>
       <c r="C9" t="n">
-        <v>149.04</v>
+        <v>36900</v>
       </c>
       <c r="D9" t="n">
-        <v>146.35</v>
+        <v>36345</v>
       </c>
       <c r="E9" t="n">
-        <v>147.35</v>
+        <v>36700</v>
       </c>
       <c r="F9" t="n">
-        <v>6729070</v>
+        <v>26398</v>
       </c>
       <c r="G9" t="n">
-        <v>4416863</v>
+        <v>16521</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5234952951902742</v>
+        <v>0.5978451667574602</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1307</v>
+        <v>297</v>
       </c>
       <c r="C10" t="n">
-        <v>1337.5</v>
+        <v>303.95</v>
       </c>
       <c r="D10" t="n">
-        <v>1302</v>
+        <v>295.8</v>
       </c>
       <c r="E10" t="n">
-        <v>1307</v>
+        <v>297.05</v>
       </c>
       <c r="F10" t="n">
-        <v>884017</v>
+        <v>20755587</v>
       </c>
       <c r="G10" t="n">
-        <v>582383</v>
+        <v>13719693</v>
       </c>
       <c r="H10" t="n">
-        <v>0.517930640145746</v>
+        <v>0.5128317375614746</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>568.15</v>
+        <v>932.4</v>
       </c>
       <c r="C11" t="n">
-        <v>570.8</v>
+        <v>944.95</v>
       </c>
       <c r="D11" t="n">
-        <v>562.8</v>
+        <v>932.4</v>
       </c>
       <c r="E11" t="n">
-        <v>567.85</v>
+        <v>941.05</v>
       </c>
       <c r="F11" t="n">
-        <v>553676</v>
+        <v>823400</v>
       </c>
       <c r="G11" t="n">
-        <v>360701</v>
+        <v>534206</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5349999029667232</v>
+        <v>0.5413529612172083</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108.9</v>
+        <v>125.3</v>
       </c>
       <c r="C12" t="n">
-        <v>109.6</v>
+        <v>127.8</v>
       </c>
       <c r="D12" t="n">
-        <v>106.83</v>
+        <v>124.73</v>
       </c>
       <c r="E12" t="n">
-        <v>107.67</v>
+        <v>125</v>
       </c>
       <c r="F12" t="n">
-        <v>40681263</v>
+        <v>26941925</v>
       </c>
       <c r="G12" t="n">
-        <v>25821928</v>
+        <v>17513004</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5754541256563026</v>
+        <v>0.5383954117751586</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>PNB</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.5</v>
+        <v>3732</v>
       </c>
       <c r="C13" t="n">
-        <v>571.1</v>
+        <v>3744.8</v>
       </c>
       <c r="D13" t="n">
-        <v>559.05</v>
+        <v>3688.8</v>
       </c>
       <c r="E13" t="n">
-        <v>568.5</v>
+        <v>3728.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1311056</v>
+        <v>196142</v>
       </c>
       <c r="G13" t="n">
-        <v>857235</v>
+        <v>136982</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5294009227341394</v>
+        <v>0.4318815610810179</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.11</v>
+        <v>1454.9</v>
       </c>
       <c r="C14" t="n">
-        <v>151.2</v>
+        <v>1456.1</v>
       </c>
       <c r="D14" t="n">
-        <v>149.38</v>
+        <v>1429.1</v>
       </c>
       <c r="E14" t="n">
-        <v>150.2</v>
+        <v>1442.3</v>
       </c>
       <c r="F14" t="n">
-        <v>6906158</v>
+        <v>761536</v>
       </c>
       <c r="G14" t="n">
-        <v>4578914</v>
+        <v>512075</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5082523934714651</v>
+        <v>0.487157154713665</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>UNITDSPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DIVISLAB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6400.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6453.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6370.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6401.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>151910</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100192</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5161889172788247</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DIVISLAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>401.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>392.65</v>
+      </c>
+      <c r="E16" t="n">
+        <v>401</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2851443</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1957799</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4564533948582056</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>904.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>918.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>893.55</v>
+      </c>
+      <c r="E17" t="n">
+        <v>916</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3998767</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2757915</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4499239461694795</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FORTIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>262</v>
+      </c>
+      <c r="D18" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>259.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8694935</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5687469</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5287881129549893</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>FEDERALBNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1618.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1640</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1616</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F19" t="n">
+        <v>575858</v>
+      </c>
+      <c r="G19" t="n">
+        <v>393897</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4619507130036533</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2089.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2074.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2089.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1195482</v>
+      </c>
+      <c r="G20" t="n">
+        <v>753627</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5863046308054249</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>LUPIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>37340</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37650</v>
+      </c>
+      <c r="D21" t="n">
+        <v>37110</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37505</v>
+      </c>
+      <c r="F21" t="n">
+        <v>54634</v>
+      </c>
+      <c r="G21" t="n">
+        <v>34231</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5960386783909322</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>949.95</v>
+      </c>
+      <c r="C22" t="n">
+        <v>966.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>948.55</v>
+      </c>
+      <c r="E22" t="n">
+        <v>951.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1845042</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1215469</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5179671386106927</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>AUBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>160</v>
+      </c>
+      <c r="C23" t="n">
+        <v>164.49</v>
+      </c>
+      <c r="D23" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>37354552</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24989252</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4948247350500927</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ASHOKLEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="D24" t="n">
+        <v>270.05</v>
+      </c>
+      <c r="E24" t="n">
+        <v>271.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2475590</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1573594</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5732075745077828</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>110.36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>106.43</v>
+      </c>
+      <c r="E25" t="n">
+        <v>106.68</v>
+      </c>
+      <c r="F25" t="n">
+        <v>57495746</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40681263</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4133225411413604</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>145.28</v>
+      </c>
+      <c r="E26" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10708531</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6729070</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5913835047042162</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1439.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1413.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1422.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>636694</v>
+      </c>
+      <c r="G27" t="n">
+        <v>437147</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4564757392822094</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1778.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1792.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1741.1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1742.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>292489</v>
+      </c>
+      <c r="G28" t="n">
+        <v>207241</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4113471755106374</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>BLUESTARCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DABUR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>513.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>517.85</v>
+      </c>
+      <c r="D29" t="n">
+        <v>507</v>
+      </c>
+      <c r="E29" t="n">
+        <v>507</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2434279</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1619957</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5026812440083286</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>DABUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>908.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>916.85</v>
+      </c>
+      <c r="D30" t="n">
+        <v>895</v>
+      </c>
+      <c r="E30" t="n">
+        <v>897.95</v>
+      </c>
+      <c r="F30" t="n">
+        <v>462993</v>
+      </c>
+      <c r="G30" t="n">
+        <v>322102</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4374111306356371</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>PNBHOUSING</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>823</v>
+      </c>
+      <c r="C31" t="n">
+        <v>825.4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>805.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>809.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>952648</v>
+      </c>
+      <c r="G31" t="n">
+        <v>646598</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4733234559958429</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TITAGARH</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>416.95</v>
+      </c>
+      <c r="C32" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="D32" t="n">
+        <v>407.6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>408.65</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2601047</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1770983</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4687024099045558</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,297 +484,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7125</v>
+        <v>1255</v>
       </c>
       <c r="C2" t="n">
-        <v>7196</v>
+        <v>1272.9</v>
       </c>
       <c r="D2" t="n">
-        <v>7091.5</v>
+        <v>1255</v>
       </c>
       <c r="E2" t="n">
-        <v>7105</v>
+        <v>1269.4</v>
       </c>
       <c r="F2" t="n">
-        <v>448174</v>
+        <v>3582794</v>
       </c>
       <c r="G2" t="n">
-        <v>974710</v>
+        <v>8115347</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5401975972340491</v>
+        <v>-0.5585162285728509</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1528.1</v>
+        <v>3372.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1530</v>
+        <v>3374.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1510</v>
+        <v>3308.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1519</v>
+        <v>3330</v>
       </c>
       <c r="F3" t="n">
-        <v>1974536</v>
+        <v>368000</v>
       </c>
       <c r="G3" t="n">
-        <v>4059126</v>
+        <v>744346</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5135563665675813</v>
+        <v>-0.5056062637536844</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>SIEMENS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.21</v>
+        <v>1731.2</v>
       </c>
       <c r="C4" t="n">
-        <v>176.66</v>
+        <v>1737.9</v>
       </c>
       <c r="D4" t="n">
-        <v>174.5</v>
+        <v>1701.7</v>
       </c>
       <c r="E4" t="n">
-        <v>175.05</v>
+        <v>1720.9</v>
       </c>
       <c r="F4" t="n">
-        <v>6840703</v>
+        <v>162588</v>
       </c>
       <c r="G4" t="n">
-        <v>14586098</v>
+        <v>323944</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.531012132237148</v>
+        <v>-0.4980984367668486</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.6</v>
+        <v>614</v>
       </c>
       <c r="C5" t="n">
-        <v>1262.7</v>
+        <v>615.75</v>
       </c>
       <c r="D5" t="n">
-        <v>1243.8</v>
+        <v>607.25</v>
       </c>
       <c r="E5" t="n">
-        <v>1255.2</v>
+        <v>612</v>
       </c>
       <c r="F5" t="n">
-        <v>486300</v>
+        <v>985834</v>
       </c>
       <c r="G5" t="n">
-        <v>1195256</v>
+        <v>2230559</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5931415529392866</v>
+        <v>-0.5580327621910024</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>PETRONET</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2240.1</v>
+        <v>270.6</v>
       </c>
       <c r="C6" t="n">
-        <v>2243.9</v>
+        <v>271.4</v>
       </c>
       <c r="D6" t="n">
-        <v>2211</v>
+        <v>268</v>
       </c>
       <c r="E6" t="n">
-        <v>2216</v>
+        <v>268.5</v>
       </c>
       <c r="F6" t="n">
-        <v>236853</v>
+        <v>1078937</v>
       </c>
       <c r="G6" t="n">
-        <v>498132</v>
+        <v>2475590</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5245175977451759</v>
+        <v>-0.5641697534729095</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MANKIND</t>
+          <t>PETRONET</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.95</v>
+        <v>881.75</v>
       </c>
       <c r="C7" t="n">
-        <v>506.95</v>
+        <v>885</v>
       </c>
       <c r="D7" t="n">
-        <v>500.3</v>
+        <v>866.05</v>
       </c>
       <c r="E7" t="n">
-        <v>501</v>
+        <v>870</v>
       </c>
       <c r="F7" t="n">
-        <v>1013055</v>
+        <v>565296</v>
       </c>
       <c r="G7" t="n">
-        <v>2105078</v>
+        <v>1264882</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5187565496385407</v>
+        <v>-0.5530840030927786</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>171.02</v>
-      </c>
-      <c r="C8" t="n">
-        <v>172.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>170.11</v>
-      </c>
-      <c r="E8" t="n">
-        <v>172.35</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2853982</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5643683</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.4943050486712312</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>76.56</v>
-      </c>
-      <c r="C9" t="n">
-        <v>77.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75.98999999999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1199251</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2491848</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5187302756829469</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7488</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7488</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7231.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7260</v>
-      </c>
-      <c r="F10" t="n">
-        <v>54399</v>
-      </c>
-      <c r="G10" t="n">
-        <v>115661</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.529668600478986</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>NUVAMA</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>
@@ -789,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,25 +752,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3131</v>
+        <v>3140</v>
       </c>
       <c r="C2" t="n">
-        <v>3144</v>
+        <v>3211.9</v>
       </c>
       <c r="D2" t="n">
-        <v>3120.4</v>
+        <v>3139</v>
       </c>
       <c r="E2" t="n">
-        <v>3137.5</v>
+        <v>3180</v>
       </c>
       <c r="F2" t="n">
+        <v>3952112</v>
+      </c>
+      <c r="G2" t="n">
         <v>2512003</v>
       </c>
-      <c r="G2" t="n">
-        <v>1747647</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.4373629228328146</v>
+        <v>0.5732911147001019</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -880,990 +781,660 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1804</v>
+        <v>4226</v>
       </c>
       <c r="C3" t="n">
-        <v>1814.9</v>
+        <v>4226.3</v>
       </c>
       <c r="D3" t="n">
-        <v>1788.6</v>
+        <v>4158</v>
       </c>
       <c r="E3" t="n">
-        <v>1804.9</v>
+        <v>4191</v>
       </c>
       <c r="F3" t="n">
-        <v>2948688</v>
+        <v>709367</v>
       </c>
       <c r="G3" t="n">
-        <v>1869293</v>
+        <v>491997</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5774348911593848</v>
+        <v>0.4418116370628276</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1251</v>
+        <v>755.3</v>
       </c>
       <c r="C4" t="n">
-        <v>1261.8</v>
+        <v>758.9</v>
       </c>
       <c r="D4" t="n">
-        <v>1251</v>
+        <v>746</v>
       </c>
       <c r="E4" t="n">
-        <v>1258.1</v>
+        <v>752.25</v>
       </c>
       <c r="F4" t="n">
-        <v>911551</v>
+        <v>2877041</v>
       </c>
       <c r="G4" t="n">
-        <v>644563</v>
+        <v>2054726</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4142155227650361</v>
+        <v>0.4002066455576072</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1160</v>
+        <v>329</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.1</v>
+        <v>329</v>
       </c>
       <c r="D5" t="n">
-        <v>1156.2</v>
+        <v>321.3</v>
       </c>
       <c r="E5" t="n">
-        <v>1161</v>
+        <v>323.3</v>
       </c>
       <c r="F5" t="n">
-        <v>708989</v>
+        <v>8546132</v>
       </c>
       <c r="G5" t="n">
-        <v>487062</v>
+        <v>5806943</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4556442506292833</v>
+        <v>0.4717092969571081</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>NTPC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976</v>
+        <v>2240</v>
       </c>
       <c r="C6" t="n">
-        <v>980.45</v>
+        <v>2245</v>
       </c>
       <c r="D6" t="n">
-        <v>964.9</v>
+        <v>2172.2</v>
       </c>
       <c r="E6" t="n">
-        <v>969.9</v>
+        <v>2191.6</v>
       </c>
       <c r="F6" t="n">
-        <v>13444314</v>
+        <v>1643852</v>
       </c>
       <c r="G6" t="n">
-        <v>8808306</v>
+        <v>1035354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5263223144155074</v>
+        <v>0.5877197557550364</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>CGPOWER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7287.5</v>
+        <v>659.7</v>
       </c>
       <c r="C7" t="n">
-        <v>7299</v>
+        <v>671</v>
       </c>
       <c r="D7" t="n">
-        <v>7230</v>
+        <v>656.6</v>
       </c>
       <c r="E7" t="n">
-        <v>7245.5</v>
+        <v>665.1</v>
       </c>
       <c r="F7" t="n">
-        <v>329723</v>
+        <v>3642142</v>
       </c>
       <c r="G7" t="n">
-        <v>227568</v>
+        <v>2550266</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4488987906911341</v>
+        <v>0.4281420055790259</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>CGPOWER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5792</v>
+        <v>941</v>
       </c>
       <c r="C8" t="n">
-        <v>5894</v>
+        <v>947</v>
       </c>
       <c r="D8" t="n">
-        <v>5792</v>
+        <v>930.5</v>
       </c>
       <c r="E8" t="n">
-        <v>5888</v>
+        <v>938</v>
       </c>
       <c r="F8" t="n">
-        <v>290994</v>
+        <v>1158530</v>
       </c>
       <c r="G8" t="n">
-        <v>199275</v>
+        <v>823400</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4602634550244637</v>
+        <v>0.4070075297546757</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36360</v>
+        <v>885.05</v>
       </c>
       <c r="C9" t="n">
-        <v>36900</v>
+        <v>888.6</v>
       </c>
       <c r="D9" t="n">
-        <v>36345</v>
+        <v>866.3</v>
       </c>
       <c r="E9" t="n">
-        <v>36700</v>
+        <v>872</v>
       </c>
       <c r="F9" t="n">
-        <v>26398</v>
+        <v>1744252</v>
       </c>
       <c r="G9" t="n">
-        <v>16521</v>
+        <v>1222016</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5978451667574602</v>
+        <v>0.4273561066303551</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>297</v>
+        <v>4517</v>
       </c>
       <c r="C10" t="n">
-        <v>303.95</v>
+        <v>4525</v>
       </c>
       <c r="D10" t="n">
-        <v>295.8</v>
+        <v>4420.9</v>
       </c>
       <c r="E10" t="n">
-        <v>297.05</v>
+        <v>4435.1</v>
       </c>
       <c r="F10" t="n">
-        <v>20755587</v>
+        <v>1027500</v>
       </c>
       <c r="G10" t="n">
-        <v>13719693</v>
+        <v>652604</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5128317375614746</v>
+        <v>0.5744616949942078</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>932.4</v>
+        <v>1701</v>
       </c>
       <c r="C11" t="n">
-        <v>944.95</v>
+        <v>1710.9</v>
       </c>
       <c r="D11" t="n">
-        <v>932.4</v>
+        <v>1662.3</v>
       </c>
       <c r="E11" t="n">
-        <v>941.05</v>
+        <v>1673</v>
       </c>
       <c r="F11" t="n">
-        <v>823400</v>
+        <v>898959</v>
       </c>
       <c r="G11" t="n">
-        <v>534206</v>
+        <v>638234</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5413529612172083</v>
+        <v>0.4085100449051602</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>125.3</v>
+        <v>361</v>
       </c>
       <c r="C12" t="n">
-        <v>127.8</v>
+        <v>361.8</v>
       </c>
       <c r="D12" t="n">
-        <v>124.73</v>
+        <v>350.65</v>
       </c>
       <c r="E12" t="n">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="F12" t="n">
-        <v>26941925</v>
+        <v>7313684</v>
       </c>
       <c r="G12" t="n">
-        <v>17513004</v>
+        <v>4957405</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5383954117751586</v>
+        <v>0.4753049226359355</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3732</v>
+        <v>482.2</v>
       </c>
       <c r="C13" t="n">
-        <v>3744.8</v>
+        <v>484.85</v>
       </c>
       <c r="D13" t="n">
-        <v>3688.8</v>
+        <v>468.1</v>
       </c>
       <c r="E13" t="n">
-        <v>3728.1</v>
+        <v>471</v>
       </c>
       <c r="F13" t="n">
-        <v>196142</v>
+        <v>2984285</v>
       </c>
       <c r="G13" t="n">
-        <v>136982</v>
+        <v>2109674</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4318815610810179</v>
+        <v>0.4145716352384302</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1454.9</v>
+        <v>1734.6</v>
       </c>
       <c r="C14" t="n">
-        <v>1456.1</v>
+        <v>1757.4</v>
       </c>
       <c r="D14" t="n">
-        <v>1429.1</v>
+        <v>1715.6</v>
       </c>
       <c r="E14" t="n">
-        <v>1442.3</v>
+        <v>1757.4</v>
       </c>
       <c r="F14" t="n">
-        <v>761536</v>
+        <v>422097</v>
       </c>
       <c r="G14" t="n">
-        <v>512075</v>
+        <v>298985</v>
       </c>
       <c r="H14" t="n">
-        <v>0.487157154713665</v>
+        <v>0.4117664765790926</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6400.5</v>
+        <v>2838.1</v>
       </c>
       <c r="C15" t="n">
-        <v>6453.5</v>
+        <v>2875</v>
       </c>
       <c r="D15" t="n">
-        <v>6370.5</v>
+        <v>2829.3</v>
       </c>
       <c r="E15" t="n">
-        <v>6401.5</v>
+        <v>2862</v>
       </c>
       <c r="F15" t="n">
-        <v>151910</v>
+        <v>474601</v>
       </c>
       <c r="G15" t="n">
-        <v>100192</v>
+        <v>309489</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5161889172788247</v>
+        <v>0.5334987673229097</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5</v>
+        <v>1208.6</v>
       </c>
       <c r="C16" t="n">
-        <v>401.7</v>
+        <v>1214</v>
       </c>
       <c r="D16" t="n">
-        <v>392.65</v>
+        <v>1196.4</v>
       </c>
       <c r="E16" t="n">
-        <v>401</v>
+        <v>1209.1</v>
       </c>
       <c r="F16" t="n">
-        <v>2851443</v>
+        <v>718893</v>
       </c>
       <c r="G16" t="n">
-        <v>1957799</v>
+        <v>507178</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4564533948582056</v>
+        <v>0.4174372705440693</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>904.2</v>
+        <v>601.5</v>
       </c>
       <c r="C17" t="n">
-        <v>918.4</v>
+        <v>602.25</v>
       </c>
       <c r="D17" t="n">
-        <v>893.55</v>
+        <v>591</v>
       </c>
       <c r="E17" t="n">
-        <v>916</v>
+        <v>594.5</v>
       </c>
       <c r="F17" t="n">
-        <v>3998767</v>
+        <v>389279</v>
       </c>
       <c r="G17" t="n">
-        <v>2757915</v>
+        <v>246342</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4499239461694795</v>
+        <v>0.5802380430458468</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>ATGL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>256.6</v>
+        <v>1854.4</v>
       </c>
       <c r="C18" t="n">
-        <v>262</v>
+        <v>1854.5</v>
       </c>
       <c r="D18" t="n">
-        <v>256.6</v>
+        <v>1817.7</v>
       </c>
       <c r="E18" t="n">
-        <v>259.3</v>
+        <v>1840</v>
       </c>
       <c r="F18" t="n">
-        <v>8694935</v>
+        <v>1216134</v>
       </c>
       <c r="G18" t="n">
-        <v>5687469</v>
+        <v>834965</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5287881129549893</v>
+        <v>0.4565089554651992</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>FEDERALBNK</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>POLYCAB</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1618.9</v>
+        <v>7370</v>
       </c>
       <c r="C19" t="n">
-        <v>1640</v>
+        <v>7370</v>
       </c>
       <c r="D19" t="n">
-        <v>1616</v>
+        <v>7206.5</v>
       </c>
       <c r="E19" t="n">
-        <v>1633</v>
+        <v>7230</v>
       </c>
       <c r="F19" t="n">
-        <v>575858</v>
+        <v>278984</v>
       </c>
       <c r="G19" t="n">
-        <v>393897</v>
+        <v>185659</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4619507130036533</v>
+        <v>0.5026688714255705</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>POLYCAB</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>MCX</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2089.9</v>
+        <v>10225</v>
       </c>
       <c r="C20" t="n">
-        <v>2099.9</v>
+        <v>10348</v>
       </c>
       <c r="D20" t="n">
-        <v>2074.5</v>
+        <v>10037</v>
       </c>
       <c r="E20" t="n">
-        <v>2089.5</v>
+        <v>10154</v>
       </c>
       <c r="F20" t="n">
-        <v>1195482</v>
+        <v>494222</v>
       </c>
       <c r="G20" t="n">
-        <v>753627</v>
+        <v>325994</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5863046308054249</v>
+        <v>0.5160463076007534</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>MCX</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>CDSL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37340</v>
+        <v>1590</v>
       </c>
       <c r="C21" t="n">
-        <v>37650</v>
+        <v>1591.7</v>
       </c>
       <c r="D21" t="n">
-        <v>37110</v>
+        <v>1544.1</v>
       </c>
       <c r="E21" t="n">
-        <v>37505</v>
+        <v>1554.8</v>
       </c>
       <c r="F21" t="n">
-        <v>54634</v>
+        <v>1568685</v>
       </c>
       <c r="G21" t="n">
-        <v>34231</v>
+        <v>1046619</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5960386783909322</v>
+        <v>0.4988118885668997</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>PAGEIND</t>
+          <t>CDSL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AUBANK</t>
+          <t>HFCL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.95</v>
+        <v>70.8</v>
       </c>
       <c r="C22" t="n">
-        <v>966.9</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>948.55</v>
+        <v>68.56</v>
       </c>
       <c r="E22" t="n">
-        <v>951.4</v>
+        <v>68.98</v>
       </c>
       <c r="F22" t="n">
-        <v>1845042</v>
+        <v>8915417</v>
       </c>
       <c r="G22" t="n">
-        <v>1215469</v>
+        <v>5732665</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5179671386106927</v>
+        <v>0.555195881845529</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>AUBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>160</v>
-      </c>
-      <c r="C23" t="n">
-        <v>164.49</v>
-      </c>
-      <c r="D23" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>160.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>37354552</v>
-      </c>
-      <c r="G23" t="n">
-        <v>24989252</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.4948247350500927</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ASHOKLEY</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="D24" t="n">
-        <v>270.05</v>
-      </c>
-      <c r="E24" t="n">
-        <v>271.25</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2475590</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1573594</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.5732075745077828</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GMRAIRPORT</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>107.2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>110.36</v>
-      </c>
-      <c r="D25" t="n">
-        <v>106.43</v>
-      </c>
-      <c r="E25" t="n">
-        <v>106.68</v>
-      </c>
-      <c r="F25" t="n">
-        <v>57495746</v>
-      </c>
-      <c r="G25" t="n">
-        <v>40681263</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.4133225411413604</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>GMRAIRPORT</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BANKINDIA</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>147.24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="D26" t="n">
-        <v>145.28</v>
-      </c>
-      <c r="E26" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10708531</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6729070</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.5913835047042162</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>BANKINDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1433</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1439.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1413.4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1422.9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>636694</v>
-      </c>
-      <c r="G27" t="n">
-        <v>437147</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.4564757392822094</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ASTRAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>BLUESTARCO</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1778.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1792.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1741.1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1742.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>292489</v>
-      </c>
-      <c r="G28" t="n">
-        <v>207241</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.4113471755106374</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>BLUESTARCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>DABUR</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>513.1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>517.85</v>
-      </c>
-      <c r="D29" t="n">
-        <v>507</v>
-      </c>
-      <c r="E29" t="n">
-        <v>507</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2434279</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1619957</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.5026812440083286</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>DABUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>908.8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>916.85</v>
-      </c>
-      <c r="D30" t="n">
-        <v>895</v>
-      </c>
-      <c r="E30" t="n">
-        <v>897.95</v>
-      </c>
-      <c r="F30" t="n">
-        <v>462993</v>
-      </c>
-      <c r="G30" t="n">
-        <v>322102</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.4374111306356371</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>PNBHOUSING</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>823</v>
-      </c>
-      <c r="C31" t="n">
-        <v>825.4</v>
-      </c>
-      <c r="D31" t="n">
-        <v>805.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>809.1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>952648</v>
-      </c>
-      <c r="G31" t="n">
-        <v>646598</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.4733234559958429</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>TITAGARH</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>DELHIVERY</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>416.95</v>
-      </c>
-      <c r="C32" t="n">
-        <v>417.95</v>
-      </c>
-      <c r="D32" t="n">
-        <v>407.6</v>
-      </c>
-      <c r="E32" t="n">
-        <v>408.65</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2601047</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1770983</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.4687024099045558</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>DELHIVERY</t>
+          <t>HFCL</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1255</v>
+        <v>352.15</v>
       </c>
       <c r="C2" t="n">
-        <v>1272.9</v>
+        <v>354.65</v>
       </c>
       <c r="D2" t="n">
-        <v>1255</v>
+        <v>350.6</v>
       </c>
       <c r="E2" t="n">
-        <v>1269.4</v>
+        <v>351.95</v>
       </c>
       <c r="F2" t="n">
-        <v>3582794</v>
+        <v>3426935</v>
       </c>
       <c r="G2" t="n">
-        <v>8115347</v>
+        <v>7313684</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5585162285728509</v>
+        <v>-0.5314351836912834</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3372.1</v>
+        <v>1478</v>
       </c>
       <c r="C3" t="n">
-        <v>3374.6</v>
+        <v>1487</v>
       </c>
       <c r="D3" t="n">
-        <v>3308.8</v>
+        <v>1475.6</v>
       </c>
       <c r="E3" t="n">
-        <v>3330</v>
+        <v>1478.1</v>
       </c>
       <c r="F3" t="n">
-        <v>368000</v>
+        <v>308126</v>
       </c>
       <c r="G3" t="n">
-        <v>744346</v>
+        <v>717275</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5056062637536844</v>
+        <v>-0.570421386497508</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1731.2</v>
+        <v>119.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1737.9</v>
+        <v>120.78</v>
       </c>
       <c r="D4" t="n">
-        <v>1701.7</v>
+        <v>118.79</v>
       </c>
       <c r="E4" t="n">
-        <v>1720.9</v>
+        <v>119.64</v>
       </c>
       <c r="F4" t="n">
-        <v>162588</v>
+        <v>14258192</v>
       </c>
       <c r="G4" t="n">
-        <v>323944</v>
+        <v>31754551</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4980984367668486</v>
+        <v>-0.5509874474370619</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>PNB</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIPRULI</t>
+          <t>HINDZINC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614</v>
+        <v>504.95</v>
       </c>
       <c r="C5" t="n">
-        <v>615.75</v>
+        <v>508.2</v>
       </c>
       <c r="D5" t="n">
-        <v>607.25</v>
+        <v>493.2</v>
       </c>
       <c r="E5" t="n">
-        <v>612</v>
+        <v>495.55</v>
       </c>
       <c r="F5" t="n">
-        <v>985834</v>
+        <v>5322624</v>
       </c>
       <c r="G5" t="n">
-        <v>2230559</v>
+        <v>11256116</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5580327621910024</v>
+        <v>-0.5271349371310672</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ICICIPRULI</t>
+          <t>HINDZINC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270.6</v>
+        <v>748</v>
       </c>
       <c r="C6" t="n">
-        <v>271.4</v>
+        <v>758.95</v>
       </c>
       <c r="D6" t="n">
-        <v>268</v>
+        <v>745.25</v>
       </c>
       <c r="E6" t="n">
-        <v>268.5</v>
+        <v>755.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1078937</v>
+        <v>2855120</v>
       </c>
       <c r="G6" t="n">
-        <v>2475590</v>
+        <v>6025366</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5641697534729095</v>
+        <v>-0.5261499467418245</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PETRONET</t>
+          <t>UPL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>PAGEIND</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>881.75</v>
+        <v>37320</v>
       </c>
       <c r="C7" t="n">
-        <v>885</v>
+        <v>37750</v>
       </c>
       <c r="D7" t="n">
-        <v>866.05</v>
+        <v>37165</v>
       </c>
       <c r="E7" t="n">
-        <v>870</v>
+        <v>37500</v>
       </c>
       <c r="F7" t="n">
-        <v>565296</v>
+        <v>24162</v>
       </c>
       <c r="G7" t="n">
-        <v>1264882</v>
+        <v>51521</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5530840030927786</v>
+        <v>-0.5310261834979911</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>PAGEIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>153.27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>150.15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>152.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11671955</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25417554</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5407915726273268</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>UNIONBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1960.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1984.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1960.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1975.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>414550</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1004563</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5873329995231757</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>GLENMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2849</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2815.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2843.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>117234</v>
+      </c>
+      <c r="G10" t="n">
+        <v>273168</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5708355297838693</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SRF</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2208</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2221.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2195.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2207.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>409656</v>
+      </c>
+      <c r="G11" t="n">
+        <v>975772</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5801724173269985</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>MANKIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>350.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>347.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>349</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1540673</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3307025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5341211511857334</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1419.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1389.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1402.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>805774</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1946889</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5861222699393751</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>BHARATFORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="E14" t="n">
+        <v>79.88</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11925167</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23829154</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.499555586404788</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>302.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>304.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>299.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>300</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3259199</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6688481</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5127146208533746</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>168.95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>170.72</v>
+      </c>
+      <c r="D16" t="n">
+        <v>167.76</v>
+      </c>
+      <c r="E16" t="n">
+        <v>169.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1620535</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3266458</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5038861666061526</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>783.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>788.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>780.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>782.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>152764</v>
+      </c>
+      <c r="G17" t="n">
+        <v>323179</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.527308395656896</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TATACHEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2660.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2685</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2618</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2624.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1042860</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2600046</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5989070962590662</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ANGELONE</t>
         </is>
       </c>
     </row>
@@ -690,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,693 +1111,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3140</v>
+        <v>2188</v>
       </c>
       <c r="C2" t="n">
-        <v>3211.9</v>
+        <v>2231.7</v>
       </c>
       <c r="D2" t="n">
-        <v>3139</v>
+        <v>2183.4</v>
       </c>
       <c r="E2" t="n">
-        <v>3180</v>
+        <v>2216.8</v>
       </c>
       <c r="F2" t="n">
-        <v>3952112</v>
+        <v>2522821</v>
       </c>
       <c r="G2" t="n">
-        <v>2512003</v>
+        <v>1643852</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5732911147001019</v>
+        <v>0.5347008124819023</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>ADANIENT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4226</v>
+        <v>6185</v>
       </c>
       <c r="C3" t="n">
-        <v>4226.3</v>
+        <v>6289.5</v>
       </c>
       <c r="D3" t="n">
-        <v>4158</v>
+        <v>6159</v>
       </c>
       <c r="E3" t="n">
-        <v>4191</v>
+        <v>6250</v>
       </c>
       <c r="F3" t="n">
-        <v>709367</v>
+        <v>502306</v>
       </c>
       <c r="G3" t="n">
-        <v>491997</v>
+        <v>349340</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4418116370628276</v>
+        <v>0.437871414667659</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>LTIM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>755.3</v>
+        <v>1666</v>
       </c>
       <c r="C4" t="n">
-        <v>758.9</v>
+        <v>1678.8</v>
       </c>
       <c r="D4" t="n">
-        <v>746</v>
+        <v>1651</v>
       </c>
       <c r="E4" t="n">
-        <v>752.25</v>
+        <v>1676.9</v>
       </c>
       <c r="F4" t="n">
-        <v>2877041</v>
+        <v>1291711</v>
       </c>
       <c r="G4" t="n">
-        <v>2054726</v>
+        <v>898959</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4002066455576072</v>
+        <v>0.4368964546770209</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329</v>
+        <v>475.1</v>
       </c>
       <c r="C5" t="n">
-        <v>329</v>
+        <v>489.9</v>
       </c>
       <c r="D5" t="n">
-        <v>321.3</v>
+        <v>475.1</v>
       </c>
       <c r="E5" t="n">
-        <v>323.3</v>
+        <v>479</v>
       </c>
       <c r="F5" t="n">
-        <v>8546132</v>
+        <v>3925680</v>
       </c>
       <c r="G5" t="n">
-        <v>5806943</v>
+        <v>2668903</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4717092969571081</v>
+        <v>0.4708964694483089</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>VBL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2240</v>
+        <v>1404.6</v>
       </c>
       <c r="C6" t="n">
-        <v>2245</v>
+        <v>1446.9</v>
       </c>
       <c r="D6" t="n">
-        <v>2172.2</v>
+        <v>1404.6</v>
       </c>
       <c r="E6" t="n">
-        <v>2191.6</v>
+        <v>1443.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1643852</v>
+        <v>783804</v>
       </c>
       <c r="G6" t="n">
-        <v>1035354</v>
+        <v>552547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5877197557550364</v>
+        <v>0.4185291025016876</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659.7</v>
+        <v>1760</v>
       </c>
       <c r="C7" t="n">
-        <v>671</v>
+        <v>1776</v>
       </c>
       <c r="D7" t="n">
-        <v>656.6</v>
+        <v>1752.7</v>
       </c>
       <c r="E7" t="n">
-        <v>665.1</v>
+        <v>1772.9</v>
       </c>
       <c r="F7" t="n">
-        <v>3642142</v>
+        <v>668646</v>
       </c>
       <c r="G7" t="n">
-        <v>2550266</v>
+        <v>422097</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4281420055790259</v>
+        <v>0.5841050753736701</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CGPOWER</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>KPITTECH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>941</v>
+        <v>1258.7</v>
       </c>
       <c r="C8" t="n">
-        <v>947</v>
+        <v>1284.9</v>
       </c>
       <c r="D8" t="n">
-        <v>930.5</v>
+        <v>1256</v>
       </c>
       <c r="E8" t="n">
-        <v>938</v>
+        <v>1267.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1158530</v>
+        <v>828119</v>
       </c>
       <c r="G8" t="n">
-        <v>823400</v>
+        <v>573428</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4070075297546757</v>
+        <v>0.4441551511262094</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>KPITTECH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>885.05</v>
+        <v>1730</v>
       </c>
       <c r="C9" t="n">
-        <v>888.6</v>
+        <v>1739</v>
       </c>
       <c r="D9" t="n">
-        <v>866.3</v>
+        <v>1715.6</v>
       </c>
       <c r="E9" t="n">
-        <v>872</v>
+        <v>1732</v>
       </c>
       <c r="F9" t="n">
-        <v>1744252</v>
+        <v>228660</v>
       </c>
       <c r="G9" t="n">
-        <v>1222016</v>
+        <v>162588</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4273561066303551</v>
+        <v>0.4063768543803971</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4517</v>
+        <v>631</v>
       </c>
       <c r="C10" t="n">
-        <v>4525</v>
+        <v>644.95</v>
       </c>
       <c r="D10" t="n">
-        <v>4420.9</v>
+        <v>631</v>
       </c>
       <c r="E10" t="n">
-        <v>4435.1</v>
+        <v>639.6</v>
       </c>
       <c r="F10" t="n">
-        <v>1027500</v>
+        <v>337969</v>
       </c>
       <c r="G10" t="n">
-        <v>652604</v>
+        <v>235584</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5744616949942078</v>
+        <v>0.4346008217875577</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>SYNGENE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1701</v>
+        <v>1840</v>
       </c>
       <c r="C11" t="n">
-        <v>1710.9</v>
+        <v>1889</v>
       </c>
       <c r="D11" t="n">
-        <v>1662.3</v>
+        <v>1840</v>
       </c>
       <c r="E11" t="n">
-        <v>1673</v>
+        <v>1848.5</v>
       </c>
       <c r="F11" t="n">
-        <v>898959</v>
+        <v>1751302</v>
       </c>
       <c r="G11" t="n">
-        <v>638234</v>
+        <v>1216134</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4085100449051602</v>
+        <v>0.4400567700598783</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>POLICYBZR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>361</v>
+        <v>1302</v>
       </c>
       <c r="C12" t="n">
-        <v>361.8</v>
+        <v>1310.9</v>
       </c>
       <c r="D12" t="n">
-        <v>350.65</v>
+        <v>1285.2</v>
       </c>
       <c r="E12" t="n">
-        <v>352</v>
+        <v>1298.1</v>
       </c>
       <c r="F12" t="n">
-        <v>7313684</v>
+        <v>342447</v>
       </c>
       <c r="G12" t="n">
-        <v>4957405</v>
+        <v>238839</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4753049226359355</v>
+        <v>0.4337985002449349</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>482.2</v>
+        <v>552</v>
       </c>
       <c r="C13" t="n">
-        <v>484.85</v>
+        <v>558.35</v>
       </c>
       <c r="D13" t="n">
-        <v>468.1</v>
+        <v>521</v>
       </c>
       <c r="E13" t="n">
-        <v>471</v>
+        <v>523.9</v>
       </c>
       <c r="F13" t="n">
-        <v>2984285</v>
+        <v>1644469</v>
       </c>
       <c r="G13" t="n">
-        <v>2109674</v>
+        <v>1166556</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4145716352384302</v>
+        <v>0.4096785752248499</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1734.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1757.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1715.6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1757.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>422097</v>
-      </c>
-      <c r="G14" t="n">
-        <v>298985</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4117664765790926</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>APLAPOLLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MPHASIS</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2838.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2875</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2829.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2862</v>
-      </c>
-      <c r="F15" t="n">
-        <v>474601</v>
-      </c>
-      <c r="G15" t="n">
-        <v>309489</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5334987673229097</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>MPHASIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1208.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1214</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1196.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1209.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>718893</v>
-      </c>
-      <c r="G16" t="n">
-        <v>507178</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4174372705440693</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>601.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>602.25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>594.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>389279</v>
-      </c>
-      <c r="G17" t="n">
-        <v>246342</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5802380430458468</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1854.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1854.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1817.7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1840</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1216134</v>
-      </c>
-      <c r="G18" t="n">
-        <v>834965</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4565089554651992</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7370</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7370</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7206.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7230</v>
-      </c>
-      <c r="F19" t="n">
-        <v>278984</v>
-      </c>
-      <c r="G19" t="n">
-        <v>185659</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5026688714255705</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MCX</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10225</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10348</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10037</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10154</v>
-      </c>
-      <c r="F20" t="n">
-        <v>494222</v>
-      </c>
-      <c r="G20" t="n">
-        <v>325994</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5160463076007534</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>MCX</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1590</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1591.7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1544.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1554.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1568685</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1046619</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.4988118885668997</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>CDSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="D22" t="n">
-        <v>68.56</v>
-      </c>
-      <c r="E22" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8915417</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5732665</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.555195881845529</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>HFCL</t>
+          <t>PATANJALI</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,559 +484,163 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>352.15</v>
+        <v>536.9</v>
       </c>
       <c r="C2" t="n">
-        <v>354.65</v>
+        <v>537.5</v>
       </c>
       <c r="D2" t="n">
-        <v>350.6</v>
+        <v>531.8</v>
       </c>
       <c r="E2" t="n">
-        <v>351.95</v>
+        <v>535</v>
       </c>
       <c r="F2" t="n">
-        <v>3426935</v>
+        <v>1243514</v>
       </c>
       <c r="G2" t="n">
-        <v>7313684</v>
+        <v>2474836</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5314351836912834</v>
+        <v>-0.497536806479298</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1478</v>
+        <v>132.2</v>
       </c>
       <c r="C3" t="n">
-        <v>1487</v>
+        <v>133.2</v>
       </c>
       <c r="D3" t="n">
-        <v>1475.6</v>
+        <v>130.66</v>
       </c>
       <c r="E3" t="n">
-        <v>1478.1</v>
+        <v>132.4</v>
       </c>
       <c r="F3" t="n">
-        <v>308126</v>
+        <v>6506989</v>
       </c>
       <c r="G3" t="n">
-        <v>717275</v>
+        <v>13313343</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.570421386497508</v>
+        <v>-0.5112430439146651</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>SAIL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.8</v>
+        <v>380.3</v>
       </c>
       <c r="C4" t="n">
-        <v>120.78</v>
+        <v>380.75</v>
       </c>
       <c r="D4" t="n">
-        <v>118.79</v>
+        <v>375.9</v>
       </c>
       <c r="E4" t="n">
-        <v>119.64</v>
+        <v>380</v>
       </c>
       <c r="F4" t="n">
-        <v>14258192</v>
+        <v>921587</v>
       </c>
       <c r="G4" t="n">
-        <v>31754551</v>
+        <v>2191657</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5509874474370619</v>
+        <v>-0.5795021757510413</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>504.95</v>
+        <v>1773</v>
       </c>
       <c r="C5" t="n">
-        <v>508.2</v>
+        <v>1781.3</v>
       </c>
       <c r="D5" t="n">
-        <v>493.2</v>
+        <v>1763.8</v>
       </c>
       <c r="E5" t="n">
-        <v>495.55</v>
+        <v>1769</v>
       </c>
       <c r="F5" t="n">
-        <v>5322624</v>
+        <v>268661</v>
       </c>
       <c r="G5" t="n">
-        <v>11256116</v>
+        <v>668646</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5271349371310672</v>
+        <v>-0.5982014399248631</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HINDZINC</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>ANGELONE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748</v>
+        <v>2622.1</v>
       </c>
       <c r="C6" t="n">
-        <v>758.95</v>
+        <v>2653</v>
       </c>
       <c r="D6" t="n">
-        <v>745.25</v>
+        <v>2600.1</v>
       </c>
       <c r="E6" t="n">
-        <v>755.7</v>
+        <v>2648.8</v>
       </c>
       <c r="F6" t="n">
-        <v>2855120</v>
+        <v>511846</v>
       </c>
       <c r="G6" t="n">
-        <v>6025366</v>
+        <v>1042860</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5261499467418245</v>
+        <v>-0.5091901118079128</v>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>UPL</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PAGEIND</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>37320</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37750</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37165</v>
-      </c>
-      <c r="E7" t="n">
-        <v>37500</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24162</v>
-      </c>
-      <c r="G7" t="n">
-        <v>51521</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.5310261834979911</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>PAGEIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>153.27</v>
-      </c>
-      <c r="D8" t="n">
-        <v>150.15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>152.35</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11671955</v>
-      </c>
-      <c r="G8" t="n">
-        <v>25417554</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.5407915726273268</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>UNIONBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1960.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1984.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1960.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1975.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>414550</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1004563</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.5873329995231757</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>GLENMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2820</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2849</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2815.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2843.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>117234</v>
-      </c>
-      <c r="G10" t="n">
-        <v>273168</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.5708355297838693</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SRF</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2208</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2221.7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2195.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2207.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>409656</v>
-      </c>
-      <c r="G11" t="n">
-        <v>975772</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5801724173269985</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>MANKIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>349.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>350.95</v>
-      </c>
-      <c r="D12" t="n">
-        <v>347.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>349</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1540673</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3307025</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5341211511857334</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BHARATFORG</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1405</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1419.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1389.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1402.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>805774</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1946889</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.5861222699393751</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>BHARATFORG</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IDFCFIRSTB</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>80.27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>79.72</v>
-      </c>
-      <c r="E14" t="n">
-        <v>79.88</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11925167</v>
-      </c>
-      <c r="G14" t="n">
-        <v>23829154</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.499555586404788</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>IDFCFIRSTB</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LTF</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>302.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>304.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>299.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>300</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3259199</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6688481</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5127146208533746</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>LTF</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>168.95</v>
-      </c>
-      <c r="C16" t="n">
-        <v>170.72</v>
-      </c>
-      <c r="D16" t="n">
-        <v>167.76</v>
-      </c>
-      <c r="E16" t="n">
-        <v>169.06</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1620535</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3266458</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5038861666061526</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>783.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>788.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>780.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>782.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>152764</v>
-      </c>
-      <c r="G17" t="n">
-        <v>323179</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.527308395656896</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ANGELONE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2660.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2685</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2618</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2624.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1042860</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2600046</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5989070962590662</v>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>ANGELONE</t>
         </is>
@@ -1053,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,396 +715,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2188</v>
+        <v>11630</v>
       </c>
       <c r="C2" t="n">
-        <v>2231.7</v>
+        <v>11665</v>
       </c>
       <c r="D2" t="n">
-        <v>2183.4</v>
+        <v>11561</v>
       </c>
       <c r="E2" t="n">
-        <v>2216.8</v>
+        <v>11595</v>
       </c>
       <c r="F2" t="n">
-        <v>2522821</v>
+        <v>226572</v>
       </c>
       <c r="G2" t="n">
-        <v>1643852</v>
+        <v>159687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5347008124819023</v>
+        <v>0.4188506265381653</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6185</v>
+        <v>4215</v>
       </c>
       <c r="C3" t="n">
-        <v>6289.5</v>
+        <v>4225</v>
       </c>
       <c r="D3" t="n">
-        <v>6159</v>
+        <v>4165</v>
       </c>
       <c r="E3" t="n">
-        <v>6250</v>
+        <v>4180</v>
       </c>
       <c r="F3" t="n">
-        <v>502306</v>
+        <v>679735</v>
       </c>
       <c r="G3" t="n">
-        <v>349340</v>
+        <v>427254</v>
       </c>
       <c r="H3" t="n">
-        <v>0.437871414667659</v>
+        <v>0.5909388794487588</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1666</v>
+        <v>2422</v>
       </c>
       <c r="C4" t="n">
-        <v>1678.8</v>
+        <v>2422</v>
       </c>
       <c r="D4" t="n">
-        <v>1651</v>
+        <v>2286.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1676.9</v>
+        <v>2341</v>
       </c>
       <c r="F4" t="n">
-        <v>1291711</v>
+        <v>4008271</v>
       </c>
       <c r="G4" t="n">
-        <v>898959</v>
+        <v>2587753</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4368964546770209</v>
+        <v>0.5489387897531178</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>475.1</v>
+        <v>119.69</v>
       </c>
       <c r="C5" t="n">
-        <v>489.9</v>
+        <v>121.9</v>
       </c>
       <c r="D5" t="n">
-        <v>475.1</v>
+        <v>119.15</v>
       </c>
       <c r="E5" t="n">
-        <v>479</v>
+        <v>121.62</v>
       </c>
       <c r="F5" t="n">
-        <v>3925680</v>
+        <v>22667150</v>
       </c>
       <c r="G5" t="n">
-        <v>2668903</v>
+        <v>14258192</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4708964694483089</v>
+        <v>0.5897632743338005</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>PNB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1404.6</v>
+        <v>351.95</v>
       </c>
       <c r="C6" t="n">
-        <v>1446.9</v>
+        <v>353.95</v>
       </c>
       <c r="D6" t="n">
-        <v>1404.6</v>
+        <v>348.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1443.8</v>
+        <v>353.2</v>
       </c>
       <c r="F6" t="n">
-        <v>783804</v>
+        <v>5225025</v>
       </c>
       <c r="G6" t="n">
-        <v>552547</v>
+        <v>3426935</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4185291025016876</v>
+        <v>0.5246933484294275</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>PFC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1760</v>
+        <v>725.55</v>
       </c>
       <c r="C7" t="n">
-        <v>1776</v>
+        <v>740.75</v>
       </c>
       <c r="D7" t="n">
-        <v>1752.7</v>
+        <v>725.55</v>
       </c>
       <c r="E7" t="n">
-        <v>1772.9</v>
+        <v>731</v>
       </c>
       <c r="F7" t="n">
-        <v>668646</v>
+        <v>2253909</v>
       </c>
       <c r="G7" t="n">
-        <v>422097</v>
+        <v>1536712</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5841050753736701</v>
+        <v>0.4667087912373952</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1258.7</v>
+        <v>385</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.9</v>
+        <v>386</v>
       </c>
       <c r="D8" t="n">
-        <v>1256</v>
+        <v>380.55</v>
       </c>
       <c r="E8" t="n">
-        <v>1267.5</v>
+        <v>384</v>
       </c>
       <c r="F8" t="n">
-        <v>828119</v>
+        <v>5332479</v>
       </c>
       <c r="G8" t="n">
-        <v>573428</v>
+        <v>3786100</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4441551511262094</v>
+        <v>0.408435857478672</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>KPITTECH</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1730</v>
+        <v>4519</v>
       </c>
       <c r="C9" t="n">
-        <v>1739</v>
+        <v>4544.3</v>
       </c>
       <c r="D9" t="n">
-        <v>1715.6</v>
+        <v>4430</v>
       </c>
       <c r="E9" t="n">
-        <v>1732</v>
+        <v>4441.7</v>
       </c>
       <c r="F9" t="n">
-        <v>228660</v>
+        <v>1473356</v>
       </c>
       <c r="G9" t="n">
-        <v>162588</v>
+        <v>1020941</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4063768543803971</v>
+        <v>0.4431353036071624</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>631</v>
+        <v>1125.1</v>
       </c>
       <c r="C10" t="n">
-        <v>644.95</v>
+        <v>1156.6</v>
       </c>
       <c r="D10" t="n">
-        <v>631</v>
+        <v>1114.1</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6</v>
+        <v>1146.1</v>
       </c>
       <c r="F10" t="n">
-        <v>337969</v>
+        <v>476537</v>
       </c>
       <c r="G10" t="n">
-        <v>235584</v>
+        <v>312892</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4346008217875577</v>
+        <v>0.5230079388415172</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>360ONE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1840</v>
+        <v>75.97</v>
       </c>
       <c r="C11" t="n">
-        <v>1889</v>
+        <v>76.59</v>
       </c>
       <c r="D11" t="n">
-        <v>1840</v>
+        <v>74.8</v>
       </c>
       <c r="E11" t="n">
-        <v>1848.5</v>
+        <v>76.36</v>
       </c>
       <c r="F11" t="n">
-        <v>1751302</v>
+        <v>17203665</v>
       </c>
       <c r="G11" t="n">
-        <v>1216134</v>
+        <v>11526558</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4400567700598783</v>
+        <v>0.4925240475083715</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>POLICYBZR</t>
+          <t>NMDC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1302</v>
+        <v>1720</v>
       </c>
       <c r="C12" t="n">
-        <v>1310.9</v>
+        <v>1755.2</v>
       </c>
       <c r="D12" t="n">
-        <v>1285.2</v>
+        <v>1709.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1298.1</v>
+        <v>1725</v>
       </c>
       <c r="F12" t="n">
-        <v>342447</v>
+        <v>354160</v>
       </c>
       <c r="G12" t="n">
-        <v>238839</v>
+        <v>228660</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4337985002449349</v>
+        <v>0.5488498206944808</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552</v>
+        <v>1291.1</v>
       </c>
       <c r="C13" t="n">
-        <v>558.35</v>
+        <v>1300.8</v>
       </c>
       <c r="D13" t="n">
-        <v>521</v>
+        <v>1275.1</v>
       </c>
       <c r="E13" t="n">
-        <v>523.9</v>
+        <v>1290</v>
       </c>
       <c r="F13" t="n">
-        <v>1644469</v>
+        <v>517378</v>
       </c>
       <c r="G13" t="n">
-        <v>1166556</v>
+        <v>342447</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4096785752248499</v>
+        <v>0.5108264928587489</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>TORNTPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TATATECH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>676.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>676.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>663.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>530874</v>
+      </c>
+      <c r="G14" t="n">
+        <v>350063</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5165098853634917</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TATATECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.70999999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75.70999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3153252</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2123823</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.484705646374486</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>275</v>
+      </c>
+      <c r="C16" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>279.85</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1631977</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1057552</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.543164780549798</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>129.84</v>
+      </c>
+      <c r="C17" t="n">
+        <v>130.75</v>
+      </c>
+      <c r="D17" t="n">
+        <v>126.31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>130.17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5924238</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3933789</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5059877385391032</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>INOXWIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CYIENT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1182.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1160.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1168.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>374403</v>
+      </c>
+      <c r="G18" t="n">
+        <v>234386</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5973778297338578</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CYIENT</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,165 +484,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536.9</v>
+        <v>3243</v>
       </c>
       <c r="C2" t="n">
-        <v>537.5</v>
+        <v>3259.9</v>
       </c>
       <c r="D2" t="n">
-        <v>531.8</v>
+        <v>3208.6</v>
       </c>
       <c r="E2" t="n">
-        <v>535</v>
+        <v>3237.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1243514</v>
+        <v>2544725</v>
       </c>
       <c r="G2" t="n">
-        <v>2474836</v>
+        <v>5244013</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.497536806479298</v>
+        <v>-0.5147370916128545</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.2</v>
+        <v>2350.1</v>
       </c>
       <c r="C3" t="n">
-        <v>133.2</v>
+        <v>2355.1</v>
       </c>
       <c r="D3" t="n">
-        <v>130.66</v>
+        <v>2302</v>
       </c>
       <c r="E3" t="n">
-        <v>132.4</v>
+        <v>2318</v>
       </c>
       <c r="F3" t="n">
-        <v>6506989</v>
+        <v>1898154</v>
       </c>
       <c r="G3" t="n">
-        <v>13313343</v>
+        <v>4008271</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5112430439146651</v>
+        <v>-0.5264407022379475</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.3</v>
+        <v>167.09</v>
       </c>
       <c r="C4" t="n">
-        <v>380.75</v>
+        <v>168.2</v>
       </c>
       <c r="D4" t="n">
-        <v>375.9</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>380</v>
+        <v>163.5</v>
       </c>
       <c r="F4" t="n">
-        <v>921587</v>
+        <v>15772400</v>
       </c>
       <c r="G4" t="n">
-        <v>2191657</v>
+        <v>33500436</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5795021757510413</v>
+        <v>-0.5291882171324577</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1773</v>
+        <v>3352</v>
       </c>
       <c r="C5" t="n">
-        <v>1781.3</v>
+        <v>3355.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1763.8</v>
+        <v>3310</v>
       </c>
       <c r="E5" t="n">
-        <v>1769</v>
+        <v>3350</v>
       </c>
       <c r="F5" t="n">
-        <v>268661</v>
+        <v>279616</v>
       </c>
       <c r="G5" t="n">
-        <v>668646</v>
+        <v>571062</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5982014399248631</v>
+        <v>-0.5103578945893791</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2622.1</v>
+        <v>103.51</v>
       </c>
       <c r="C6" t="n">
-        <v>2653</v>
+        <v>103.74</v>
       </c>
       <c r="D6" t="n">
-        <v>2600.1</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2648.8</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>511846</v>
+        <v>15105989</v>
       </c>
       <c r="G6" t="n">
-        <v>1042860</v>
+        <v>30961152</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5091901118079128</v>
+        <v>-0.51209861312654</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ANGELONE</t>
+          <t>GMRAIRPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CAMS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>770</v>
+      </c>
+      <c r="C7" t="n">
+        <v>776.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>746.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>753.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1513063</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3467783</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.5636800226542433</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CAMS</t>
         </is>
       </c>
     </row>
@@ -657,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,561 +748,891 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11630</v>
+        <v>2005</v>
       </c>
       <c r="C2" t="n">
-        <v>11665</v>
+        <v>2036</v>
       </c>
       <c r="D2" t="n">
-        <v>11561</v>
+        <v>2005</v>
       </c>
       <c r="E2" t="n">
-        <v>11595</v>
+        <v>2023.2</v>
       </c>
       <c r="F2" t="n">
-        <v>226572</v>
+        <v>1050200</v>
       </c>
       <c r="G2" t="n">
-        <v>159687</v>
+        <v>749526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4188506265381653</v>
+        <v>0.4011521948538143</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>SBILIFE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4215</v>
+        <v>1387</v>
       </c>
       <c r="C3" t="n">
-        <v>4225</v>
+        <v>1394.9</v>
       </c>
       <c r="D3" t="n">
-        <v>4165</v>
+        <v>1383.3</v>
       </c>
       <c r="E3" t="n">
-        <v>4180</v>
+        <v>1387.5</v>
       </c>
       <c r="F3" t="n">
-        <v>679735</v>
+        <v>7826227</v>
       </c>
       <c r="G3" t="n">
-        <v>427254</v>
+        <v>4942638</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5909388794487588</v>
+        <v>0.5834109234785149</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2422</v>
+        <v>2114.4</v>
       </c>
       <c r="C4" t="n">
-        <v>2422</v>
+        <v>2114.4</v>
       </c>
       <c r="D4" t="n">
-        <v>2286.7</v>
+        <v>2078.9</v>
       </c>
       <c r="E4" t="n">
-        <v>2341</v>
+        <v>2087</v>
       </c>
       <c r="F4" t="n">
-        <v>4008271</v>
+        <v>4327091</v>
       </c>
       <c r="G4" t="n">
-        <v>2587753</v>
+        <v>2938290</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5489387897531178</v>
+        <v>0.4726562047993901</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.69</v>
+        <v>2158.7</v>
       </c>
       <c r="C5" t="n">
-        <v>121.9</v>
+        <v>2158.9</v>
       </c>
       <c r="D5" t="n">
-        <v>119.15</v>
+        <v>2126</v>
       </c>
       <c r="E5" t="n">
-        <v>121.62</v>
+        <v>2129.8</v>
       </c>
       <c r="F5" t="n">
-        <v>22667150</v>
+        <v>2992047</v>
       </c>
       <c r="G5" t="n">
-        <v>14258192</v>
+        <v>1931695</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5897632743338005</v>
+        <v>0.548923096037418</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351.95</v>
+        <v>1515.1</v>
       </c>
       <c r="C6" t="n">
-        <v>353.95</v>
+        <v>1520.5</v>
       </c>
       <c r="D6" t="n">
-        <v>348.8</v>
+        <v>1494.3</v>
       </c>
       <c r="E6" t="n">
-        <v>353.2</v>
+        <v>1497</v>
       </c>
       <c r="F6" t="n">
-        <v>5225025</v>
+        <v>1263559</v>
       </c>
       <c r="G6" t="n">
-        <v>3426935</v>
+        <v>813485</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5246933484294275</v>
+        <v>0.5532665015335255</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.55</v>
+        <v>4183.1</v>
       </c>
       <c r="C7" t="n">
-        <v>740.75</v>
+        <v>4202</v>
       </c>
       <c r="D7" t="n">
-        <v>725.55</v>
+        <v>4075.1</v>
       </c>
       <c r="E7" t="n">
-        <v>731</v>
+        <v>4080</v>
       </c>
       <c r="F7" t="n">
-        <v>2253909</v>
+        <v>1028704</v>
       </c>
       <c r="G7" t="n">
-        <v>1536712</v>
+        <v>679735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4667087912373952</v>
+        <v>0.5133897768983501</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>385</v>
+        <v>534.7</v>
       </c>
       <c r="C8" t="n">
-        <v>386</v>
+        <v>540.55</v>
       </c>
       <c r="D8" t="n">
-        <v>380.55</v>
+        <v>526.55</v>
       </c>
       <c r="E8" t="n">
-        <v>384</v>
+        <v>529.9</v>
       </c>
       <c r="F8" t="n">
-        <v>5332479</v>
+        <v>1893815</v>
       </c>
       <c r="G8" t="n">
-        <v>3786100</v>
+        <v>1243514</v>
       </c>
       <c r="H8" t="n">
-        <v>0.408435857478672</v>
+        <v>0.5229543052993372</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4519</v>
+        <v>163.66</v>
       </c>
       <c r="C9" t="n">
-        <v>4544.3</v>
+        <v>164.42</v>
       </c>
       <c r="D9" t="n">
-        <v>4430</v>
+        <v>161</v>
       </c>
       <c r="E9" t="n">
-        <v>4441.7</v>
+        <v>162.12</v>
       </c>
       <c r="F9" t="n">
-        <v>1473356</v>
+        <v>8744916</v>
       </c>
       <c r="G9" t="n">
-        <v>1020941</v>
+        <v>6124074</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4431353036071624</v>
+        <v>0.427957271580977</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>IOC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1125.1</v>
+        <v>1386.7</v>
       </c>
       <c r="C10" t="n">
-        <v>1156.6</v>
+        <v>1391</v>
       </c>
       <c r="D10" t="n">
-        <v>1114.1</v>
+        <v>1361.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1146.1</v>
+        <v>1374</v>
       </c>
       <c r="F10" t="n">
-        <v>476537</v>
+        <v>668131</v>
       </c>
       <c r="G10" t="n">
-        <v>312892</v>
+        <v>437945</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5230079388415172</v>
+        <v>0.5256048133898092</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.97</v>
+        <v>3670.1</v>
       </c>
       <c r="C11" t="n">
-        <v>76.59</v>
+        <v>3673.8</v>
       </c>
       <c r="D11" t="n">
-        <v>74.8</v>
+        <v>3590.2</v>
       </c>
       <c r="E11" t="n">
-        <v>76.36</v>
+        <v>3606.1</v>
       </c>
       <c r="F11" t="n">
-        <v>17203665</v>
+        <v>472896</v>
       </c>
       <c r="G11" t="n">
-        <v>11526558</v>
+        <v>331003</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4925240475083715</v>
+        <v>0.4286758730283411</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1720</v>
+        <v>1432</v>
       </c>
       <c r="C12" t="n">
-        <v>1755.2</v>
+        <v>1437</v>
       </c>
       <c r="D12" t="n">
-        <v>1709.9</v>
+        <v>1400.1</v>
       </c>
       <c r="E12" t="n">
-        <v>1725</v>
+        <v>1406</v>
       </c>
       <c r="F12" t="n">
-        <v>354160</v>
+        <v>642925</v>
       </c>
       <c r="G12" t="n">
-        <v>228660</v>
+        <v>440018</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5488498206944808</v>
+        <v>0.4611334081787563</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>HAVELLS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>DMART</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1291.1</v>
+        <v>3950</v>
       </c>
       <c r="C13" t="n">
-        <v>1300.8</v>
+        <v>3955.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1275.1</v>
+        <v>3826.6</v>
       </c>
       <c r="E13" t="n">
-        <v>1290</v>
+        <v>3866.9</v>
       </c>
       <c r="F13" t="n">
-        <v>517378</v>
+        <v>268207</v>
       </c>
       <c r="G13" t="n">
-        <v>342447</v>
+        <v>184255</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5108264928587489</v>
+        <v>0.4556294266098613</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>DMART</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>676.6</v>
+        <v>719.75</v>
       </c>
       <c r="C14" t="n">
-        <v>676.6</v>
+        <v>720.05</v>
       </c>
       <c r="D14" t="n">
-        <v>663.5</v>
+        <v>685.05</v>
       </c>
       <c r="E14" t="n">
-        <v>666</v>
+        <v>686.4</v>
       </c>
       <c r="F14" t="n">
-        <v>530874</v>
+        <v>3505750</v>
       </c>
       <c r="G14" t="n">
-        <v>350063</v>
+        <v>2301587</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5165098853634917</v>
+        <v>0.5231881306246516</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TATATECH</t>
+          <t>DLF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>SUZLON</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.70999999999999</v>
+        <v>52.01</v>
       </c>
       <c r="C15" t="n">
-        <v>75.70999999999999</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
-        <v>73.90000000000001</v>
+        <v>51.57</v>
       </c>
       <c r="E15" t="n">
-        <v>74</v>
+        <v>51.69</v>
       </c>
       <c r="F15" t="n">
-        <v>3153252</v>
+        <v>97482417</v>
       </c>
       <c r="G15" t="n">
-        <v>2123823</v>
+        <v>61141969</v>
       </c>
       <c r="H15" t="n">
-        <v>0.484705646374486</v>
+        <v>0.5943617550164274</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SJVN</t>
+          <t>SUZLON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>275</v>
+        <v>255.9</v>
       </c>
       <c r="C16" t="n">
-        <v>280.25</v>
+        <v>259.3</v>
       </c>
       <c r="D16" t="n">
-        <v>271.6</v>
+        <v>249.1</v>
       </c>
       <c r="E16" t="n">
-        <v>279.85</v>
+        <v>253.65</v>
       </c>
       <c r="F16" t="n">
-        <v>1631977</v>
+        <v>5791776</v>
       </c>
       <c r="G16" t="n">
-        <v>1057552</v>
+        <v>3699608</v>
       </c>
       <c r="H16" t="n">
-        <v>0.543164780549798</v>
+        <v>0.5655107243794477</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>NYKAA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INOXWIND</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>129.84</v>
+        <v>1725</v>
       </c>
       <c r="C17" t="n">
-        <v>130.75</v>
+        <v>1770</v>
       </c>
       <c r="D17" t="n">
-        <v>126.31</v>
+        <v>1703.6</v>
       </c>
       <c r="E17" t="n">
-        <v>130.17</v>
+        <v>1713</v>
       </c>
       <c r="F17" t="n">
-        <v>5924238</v>
+        <v>531853</v>
       </c>
       <c r="G17" t="n">
-        <v>3933789</v>
+        <v>354160</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5059877385391032</v>
+        <v>0.5017308561102327</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>INOXWIND</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CYIENT</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1182.5</v>
+        <v>451.8</v>
       </c>
       <c r="C18" t="n">
-        <v>1188</v>
+        <v>452.95</v>
       </c>
       <c r="D18" t="n">
-        <v>1160.6</v>
+        <v>442.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1168.5</v>
+        <v>447</v>
       </c>
       <c r="F18" t="n">
-        <v>374403</v>
+        <v>3238893</v>
       </c>
       <c r="G18" t="n">
-        <v>234386</v>
+        <v>2114565</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5973778297338578</v>
+        <v>0.5317065211993957</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CYIENT</t>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2578.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2605.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2542.4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2555</v>
+      </c>
+      <c r="F19" t="n">
+        <v>746623</v>
+      </c>
+      <c r="G19" t="n">
+        <v>471729</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5827371223732269</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>413</v>
+      </c>
+      <c r="C20" t="n">
+        <v>415</v>
+      </c>
+      <c r="D20" t="n">
+        <v>401.4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>404</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1200785</v>
+      </c>
+      <c r="G20" t="n">
+        <v>760930</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5780492292326496</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="E21" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6848620</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4341458</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.577493091030709</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>395.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6232858</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4217316</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4779205542103082</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>BIOCON</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>142.35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>142.89</v>
+      </c>
+      <c r="D23" t="n">
+        <v>136.77</v>
+      </c>
+      <c r="E23" t="n">
+        <v>138</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7093668</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4937787</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4366087480079639</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>BANKINDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>73.70999999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>74</v>
+      </c>
+      <c r="D24" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4689166</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3153252</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4870888847450188</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HUDCO</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>224</v>
+      </c>
+      <c r="C25" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>210.93</v>
+      </c>
+      <c r="E25" t="n">
+        <v>212.02</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6122357</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3893777</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5723440248375806</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>HUDCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D26" t="n">
+        <v>996.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1003.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1382140</v>
+      </c>
+      <c r="G26" t="n">
+        <v>936977</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4751055788989484</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>70.98</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71.33</v>
+      </c>
+      <c r="D27" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>30628278</v>
+      </c>
+      <c r="G27" t="n">
+        <v>19958374</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5346078793793523</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>POONAWALLA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>469</v>
+      </c>
+      <c r="C28" t="n">
+        <v>469.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>441.55</v>
+      </c>
+      <c r="E28" t="n">
+        <v>447.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1484364</v>
+      </c>
+      <c r="G28" t="n">
+        <v>962629</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5419896969652899</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>POONAWALLA</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,198 +484,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3243</v>
+        <v>373.5</v>
       </c>
       <c r="C2" t="n">
-        <v>3259.9</v>
+        <v>378.35</v>
       </c>
       <c r="D2" t="n">
-        <v>3208.6</v>
+        <v>369.8</v>
       </c>
       <c r="E2" t="n">
-        <v>3237.9</v>
+        <v>375.4</v>
       </c>
       <c r="F2" t="n">
-        <v>2544725</v>
+        <v>2822828</v>
       </c>
       <c r="G2" t="n">
-        <v>5244013</v>
+        <v>7008862</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5147370916128545</v>
+        <v>-0.5972487402377162</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2350.1</v>
+        <v>341</v>
       </c>
       <c r="C3" t="n">
-        <v>2355.1</v>
+        <v>344.45</v>
       </c>
       <c r="D3" t="n">
-        <v>2302</v>
+        <v>336.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2318</v>
+        <v>342.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1898154</v>
+        <v>5469753</v>
       </c>
       <c r="G3" t="n">
-        <v>4008271</v>
+        <v>11238507</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5264407022379475</v>
+        <v>-0.5133025231910253</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>RECLTD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.09</v>
+        <v>1600</v>
       </c>
       <c r="C4" t="n">
-        <v>168.2</v>
+        <v>1648.8</v>
       </c>
       <c r="D4" t="n">
-        <v>163</v>
+        <v>1588.1</v>
       </c>
       <c r="E4" t="n">
-        <v>163.5</v>
+        <v>1637.4</v>
       </c>
       <c r="F4" t="n">
-        <v>15772400</v>
+        <v>488428</v>
       </c>
       <c r="G4" t="n">
-        <v>33500436</v>
+        <v>1031872</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5291882171324577</v>
+        <v>-0.5266583452211127</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SUPREMEIND</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3352</v>
+        <v>779.1</v>
       </c>
       <c r="C5" t="n">
-        <v>3355.1</v>
+        <v>795.9</v>
       </c>
       <c r="D5" t="n">
-        <v>3310</v>
+        <v>766.05</v>
       </c>
       <c r="E5" t="n">
-        <v>3350</v>
+        <v>792.05</v>
       </c>
       <c r="F5" t="n">
-        <v>279616</v>
+        <v>2041877</v>
       </c>
       <c r="G5" t="n">
-        <v>571062</v>
+        <v>4503930</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5103578945893791</v>
+        <v>-0.546645485165178</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SUPREMEIND</t>
+          <t>INDIANB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103.51</v>
+        <v>371.55</v>
       </c>
       <c r="C6" t="n">
-        <v>103.74</v>
+        <v>374.55</v>
       </c>
       <c r="D6" t="n">
-        <v>97.93000000000001</v>
+        <v>367</v>
       </c>
       <c r="E6" t="n">
-        <v>98.34999999999999</v>
+        <v>374.55</v>
       </c>
       <c r="F6" t="n">
-        <v>15105989</v>
+        <v>1172173</v>
       </c>
       <c r="G6" t="n">
-        <v>30961152</v>
+        <v>2433202</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.51209861312654</v>
+        <v>-0.5182590676811871</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>APLAPOLLO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770</v>
+        <v>1728</v>
       </c>
       <c r="C7" t="n">
-        <v>776.1</v>
+        <v>1745.1</v>
       </c>
       <c r="D7" t="n">
-        <v>746.3</v>
+        <v>1717.2</v>
       </c>
       <c r="E7" t="n">
-        <v>753.5</v>
+        <v>1740.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1513063</v>
+        <v>375983</v>
       </c>
       <c r="G7" t="n">
-        <v>3467783</v>
+        <v>867941</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5636800226542433</v>
+        <v>-0.5668104168370891</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CAMS</t>
+          <t>APLAPOLLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>725</v>
+      </c>
+      <c r="C8" t="n">
+        <v>735</v>
+      </c>
+      <c r="D8" t="n">
+        <v>722.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>730.75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1120548</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2300562</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.5129242332960381</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>MARICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2890</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2919.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2841.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2871.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>368244</v>
+      </c>
+      <c r="G9" t="n">
+        <v>789218</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.5334064859139046</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MPHASIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15322290</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30628278</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.4997338733832832</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7102.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7122</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6972.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7080</v>
+      </c>
+      <c r="F11" t="n">
+        <v>74782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>151668</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.506936202758657</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>
@@ -690,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,891 +880,627 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005</v>
+        <v>1140.6</v>
       </c>
       <c r="C2" t="n">
-        <v>2036</v>
+        <v>1151.1</v>
       </c>
       <c r="D2" t="n">
-        <v>2005</v>
+        <v>1131.9</v>
       </c>
       <c r="E2" t="n">
-        <v>2023.2</v>
+        <v>1145.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1050200</v>
+        <v>851746</v>
       </c>
       <c r="G2" t="n">
-        <v>749526</v>
+        <v>590111</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4011521948538143</v>
+        <v>0.4433657396659272</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1387</v>
+        <v>1272</v>
       </c>
       <c r="C3" t="n">
-        <v>1394.9</v>
+        <v>1281.4</v>
       </c>
       <c r="D3" t="n">
-        <v>1383.3</v>
+        <v>1263.2</v>
       </c>
       <c r="E3" t="n">
-        <v>1387.5</v>
+        <v>1273.1</v>
       </c>
       <c r="F3" t="n">
-        <v>7826227</v>
+        <v>4239279</v>
       </c>
       <c r="G3" t="n">
-        <v>4942638</v>
+        <v>2969478</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5834109234785149</v>
+        <v>0.4276175812718599</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>AXISBANK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2114.4</v>
+        <v>3990</v>
       </c>
       <c r="C4" t="n">
-        <v>2114.4</v>
+        <v>4019.9</v>
       </c>
       <c r="D4" t="n">
-        <v>2078.9</v>
+        <v>3949.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2087</v>
+        <v>3994.5</v>
       </c>
       <c r="F4" t="n">
-        <v>4327091</v>
+        <v>1788464</v>
       </c>
       <c r="G4" t="n">
-        <v>2938290</v>
+        <v>1127841</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4726562047993901</v>
+        <v>0.5857412525347101</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2158.7</v>
+        <v>402</v>
       </c>
       <c r="C5" t="n">
-        <v>2158.9</v>
+        <v>404.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2126</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>2129.8</v>
+        <v>401.25</v>
       </c>
       <c r="F5" t="n">
-        <v>2992047</v>
+        <v>9426717</v>
       </c>
       <c r="G5" t="n">
-        <v>1931695</v>
+        <v>6056866</v>
       </c>
       <c r="H5" t="n">
-        <v>0.548923096037418</v>
+        <v>0.5563687557228442</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>ITC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515.1</v>
+        <v>7142</v>
       </c>
       <c r="C6" t="n">
-        <v>1520.5</v>
+        <v>7196</v>
       </c>
       <c r="D6" t="n">
-        <v>1494.3</v>
+        <v>7052</v>
       </c>
       <c r="E6" t="n">
-        <v>1497</v>
+        <v>7122.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1263559</v>
+        <v>436443</v>
       </c>
       <c r="G6" t="n">
-        <v>813485</v>
+        <v>273509</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5532665015335255</v>
+        <v>0.5957171427631266</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4183.1</v>
+        <v>1266.5</v>
       </c>
       <c r="C7" t="n">
-        <v>4202</v>
+        <v>1267.4</v>
       </c>
       <c r="D7" t="n">
-        <v>4075.1</v>
+        <v>1241.3</v>
       </c>
       <c r="E7" t="n">
-        <v>4080</v>
+        <v>1248.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1028704</v>
+        <v>2118272</v>
       </c>
       <c r="G7" t="n">
-        <v>679735</v>
+        <v>1435892</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5133897768983501</v>
+        <v>0.4752307276591833</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>DRREDDY</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>534.7</v>
+        <v>12315</v>
       </c>
       <c r="C8" t="n">
-        <v>540.55</v>
+        <v>12616</v>
       </c>
       <c r="D8" t="n">
-        <v>526.55</v>
+        <v>12210</v>
       </c>
       <c r="E8" t="n">
-        <v>529.9</v>
+        <v>12594</v>
       </c>
       <c r="F8" t="n">
-        <v>1893815</v>
+        <v>127407</v>
       </c>
       <c r="G8" t="n">
-        <v>1243514</v>
+        <v>82748</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5229543052993372</v>
+        <v>0.5396988446850679</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.66</v>
+        <v>3760</v>
       </c>
       <c r="C9" t="n">
-        <v>164.42</v>
+        <v>3778.6</v>
       </c>
       <c r="D9" t="n">
-        <v>161</v>
+        <v>3714.5</v>
       </c>
       <c r="E9" t="n">
-        <v>162.12</v>
+        <v>3764</v>
       </c>
       <c r="F9" t="n">
-        <v>8744916</v>
+        <v>210622</v>
       </c>
       <c r="G9" t="n">
-        <v>6124074</v>
+        <v>144529</v>
       </c>
       <c r="H9" t="n">
-        <v>0.427957271580977</v>
+        <v>0.4572992271447253</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1386.7</v>
+        <v>137.93</v>
       </c>
       <c r="C10" t="n">
-        <v>1391</v>
+        <v>141.9</v>
       </c>
       <c r="D10" t="n">
-        <v>1361.6</v>
+        <v>136.71</v>
       </c>
       <c r="E10" t="n">
-        <v>1374</v>
+        <v>141.33</v>
       </c>
       <c r="F10" t="n">
-        <v>668131</v>
+        <v>10059178</v>
       </c>
       <c r="G10" t="n">
-        <v>437945</v>
+        <v>7093668</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5256048133898092</v>
+        <v>0.4180502949954805</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3670.1</v>
+        <v>356.7</v>
       </c>
       <c r="C11" t="n">
-        <v>3673.8</v>
+        <v>366.8</v>
       </c>
       <c r="D11" t="n">
-        <v>3590.2</v>
+        <v>353.2</v>
       </c>
       <c r="E11" t="n">
-        <v>3606.1</v>
+        <v>364.85</v>
       </c>
       <c r="F11" t="n">
-        <v>472896</v>
+        <v>5835578</v>
       </c>
       <c r="G11" t="n">
-        <v>331003</v>
+        <v>3662524</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4286758730283411</v>
+        <v>0.5933214362554348</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1432</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
-        <v>1437</v>
+        <v>100.99</v>
       </c>
       <c r="D12" t="n">
-        <v>1400.1</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>1406</v>
+        <v>100.45</v>
       </c>
       <c r="F12" t="n">
-        <v>642925</v>
+        <v>22493544</v>
       </c>
       <c r="G12" t="n">
-        <v>440018</v>
+        <v>15105989</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4611334081787563</v>
+        <v>0.4890480854977453</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3950</v>
+        <v>1612.9</v>
       </c>
       <c r="C13" t="n">
-        <v>3955.2</v>
+        <v>1650</v>
       </c>
       <c r="D13" t="n">
-        <v>3826.6</v>
+        <v>1611</v>
       </c>
       <c r="E13" t="n">
-        <v>3866.9</v>
+        <v>1628</v>
       </c>
       <c r="F13" t="n">
-        <v>268207</v>
+        <v>776484</v>
       </c>
       <c r="G13" t="n">
-        <v>184255</v>
+        <v>542113</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4556294266098613</v>
+        <v>0.4323286842411084</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>DMART</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>VOLTAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>719.75</v>
+        <v>1315</v>
       </c>
       <c r="C14" t="n">
-        <v>720.05</v>
+        <v>1339.9</v>
       </c>
       <c r="D14" t="n">
-        <v>685.05</v>
+        <v>1310</v>
       </c>
       <c r="E14" t="n">
-        <v>686.4</v>
+        <v>1332.5</v>
       </c>
       <c r="F14" t="n">
-        <v>3505750</v>
+        <v>529692</v>
       </c>
       <c r="G14" t="n">
-        <v>2301587</v>
+        <v>335954</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5231881306246516</v>
+        <v>0.5766801407335528</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>VOLTAS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.01</v>
+        <v>841.45</v>
       </c>
       <c r="C15" t="n">
-        <v>53</v>
+        <v>848.7</v>
       </c>
       <c r="D15" t="n">
-        <v>51.57</v>
+        <v>832.15</v>
       </c>
       <c r="E15" t="n">
-        <v>51.69</v>
+        <v>846</v>
       </c>
       <c r="F15" t="n">
-        <v>97482417</v>
+        <v>3015385</v>
       </c>
       <c r="G15" t="n">
-        <v>61141969</v>
+        <v>2015558</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5943617550164274</v>
+        <v>0.4960546905621173</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>255.9</v>
+        <v>3753.1</v>
       </c>
       <c r="C16" t="n">
-        <v>259.3</v>
+        <v>3767.6</v>
       </c>
       <c r="D16" t="n">
-        <v>249.1</v>
+        <v>3712</v>
       </c>
       <c r="E16" t="n">
-        <v>253.65</v>
+        <v>3745</v>
       </c>
       <c r="F16" t="n">
-        <v>5791776</v>
+        <v>668721</v>
       </c>
       <c r="G16" t="n">
-        <v>3699608</v>
+        <v>452775</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5655107243794477</v>
+        <v>0.4769388769256253</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>COFORGE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1725</v>
+        <v>1938.1</v>
       </c>
       <c r="C17" t="n">
-        <v>1770</v>
+        <v>1938.1</v>
       </c>
       <c r="D17" t="n">
-        <v>1703.6</v>
+        <v>1855.2</v>
       </c>
       <c r="E17" t="n">
-        <v>1713</v>
+        <v>1870.7</v>
       </c>
       <c r="F17" t="n">
-        <v>531853</v>
+        <v>2178634</v>
       </c>
       <c r="G17" t="n">
-        <v>354160</v>
+        <v>1538773</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5017308561102327</v>
+        <v>0.4158254661343811</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>COFORGE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>AMBER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>451.8</v>
+        <v>6445.5</v>
       </c>
       <c r="C18" t="n">
-        <v>452.95</v>
+        <v>6708.5</v>
       </c>
       <c r="D18" t="n">
-        <v>442.7</v>
+        <v>6340</v>
       </c>
       <c r="E18" t="n">
-        <v>447</v>
+        <v>6663.5</v>
       </c>
       <c r="F18" t="n">
-        <v>3238893</v>
+        <v>482532</v>
       </c>
       <c r="G18" t="n">
-        <v>2114565</v>
+        <v>312025</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5317065211993957</v>
+        <v>0.546453008573031</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>AMBER</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2578.9</v>
+        <v>552.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2605.1</v>
+        <v>569.15</v>
       </c>
       <c r="D19" t="n">
-        <v>2542.4</v>
+        <v>546.35</v>
       </c>
       <c r="E19" t="n">
-        <v>2555</v>
+        <v>567.05</v>
       </c>
       <c r="F19" t="n">
-        <v>746623</v>
+        <v>962048</v>
       </c>
       <c r="G19" t="n">
-        <v>471729</v>
+        <v>664864</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5827371223732269</v>
+        <v>0.446984646484093</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>IIFL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>TATACHEM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>413</v>
+        <v>762.4</v>
       </c>
       <c r="C20" t="n">
-        <v>415</v>
+        <v>763.2</v>
       </c>
       <c r="D20" t="n">
-        <v>401.4</v>
+        <v>747</v>
       </c>
       <c r="E20" t="n">
-        <v>404</v>
+        <v>751.85</v>
       </c>
       <c r="F20" t="n">
-        <v>1200785</v>
+        <v>636614</v>
       </c>
       <c r="G20" t="n">
-        <v>760930</v>
+        <v>450436</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5780492292326496</v>
+        <v>0.4133284195757</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>OIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>42.79</v>
-      </c>
-      <c r="D21" t="n">
-        <v>41.51</v>
-      </c>
-      <c r="E21" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6848620</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4341458</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.577493091030709</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>IRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>395.2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>381.6</v>
-      </c>
-      <c r="E22" t="n">
-        <v>381.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6232858</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4217316</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4779205542103082</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>BIOCON</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>BANKINDIA</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>142.35</v>
-      </c>
-      <c r="C23" t="n">
-        <v>142.89</v>
-      </c>
-      <c r="D23" t="n">
-        <v>136.77</v>
-      </c>
-      <c r="E23" t="n">
-        <v>138</v>
-      </c>
-      <c r="F23" t="n">
-        <v>7093668</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4937787</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.4366087480079639</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>BANKINDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SJVN</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>73.70999999999999</v>
-      </c>
-      <c r="C24" t="n">
-        <v>74</v>
-      </c>
-      <c r="D24" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="E24" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4689166</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3153252</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.4870888847450188</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>SJVN</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HUDCO</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>224</v>
-      </c>
-      <c r="C25" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>210.93</v>
-      </c>
-      <c r="E25" t="n">
-        <v>212.02</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6122357</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3893777</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.5723440248375806</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>HUDCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1026</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1032</v>
-      </c>
-      <c r="D26" t="n">
-        <v>996.1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1003.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1382140</v>
-      </c>
-      <c r="G26" t="n">
-        <v>936977</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.4751055788989484</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>70.98</v>
-      </c>
-      <c r="C27" t="n">
-        <v>71.33</v>
-      </c>
-      <c r="D27" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>30628278</v>
-      </c>
-      <c r="G27" t="n">
-        <v>19958374</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.5346078793793523</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>HFCL</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>469</v>
-      </c>
-      <c r="C28" t="n">
-        <v>469.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>441.55</v>
-      </c>
-      <c r="E28" t="n">
-        <v>447.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1484364</v>
-      </c>
-      <c r="G28" t="n">
-        <v>962629</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.5419896969652899</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>POONAWALLA</t>
+          <t>TATACHEM</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,759 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373.5</v>
+        <v>2810</v>
       </c>
       <c r="C2" t="n">
-        <v>378.35</v>
+        <v>2824</v>
       </c>
       <c r="D2" t="n">
-        <v>369.8</v>
+        <v>2796.7</v>
       </c>
       <c r="E2" t="n">
-        <v>375.4</v>
+        <v>2801.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2822828</v>
+        <v>845073</v>
       </c>
       <c r="G2" t="n">
-        <v>7008862</v>
+        <v>1839391</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5972487402377162</v>
+        <v>-0.5405691340231631</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341</v>
+        <v>3660</v>
       </c>
       <c r="C3" t="n">
-        <v>344.45</v>
+        <v>3694.9</v>
       </c>
       <c r="D3" t="n">
-        <v>336.5</v>
+        <v>3626.2</v>
       </c>
       <c r="E3" t="n">
-        <v>342.7</v>
+        <v>3633.4</v>
       </c>
       <c r="F3" t="n">
-        <v>5469753</v>
+        <v>1593915</v>
       </c>
       <c r="G3" t="n">
-        <v>11238507</v>
+        <v>3901255</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5133025231910253</v>
+        <v>-0.5914353201726111</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>M&amp;M</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1600</v>
+        <v>1141.1</v>
       </c>
       <c r="C4" t="n">
-        <v>1648.8</v>
+        <v>1156.7</v>
       </c>
       <c r="D4" t="n">
-        <v>1588.1</v>
+        <v>1138.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1637.4</v>
+        <v>1140.4</v>
       </c>
       <c r="F4" t="n">
-        <v>488428</v>
+        <v>342793</v>
       </c>
       <c r="G4" t="n">
-        <v>1031872</v>
+        <v>851746</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5266583452211127</v>
+        <v>-0.5975408161588079</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>779.1</v>
+        <v>390</v>
       </c>
       <c r="C5" t="n">
-        <v>795.9</v>
+        <v>391.45</v>
       </c>
       <c r="D5" t="n">
-        <v>766.05</v>
+        <v>385.75</v>
       </c>
       <c r="E5" t="n">
-        <v>792.05</v>
+        <v>386.9</v>
       </c>
       <c r="F5" t="n">
-        <v>2041877</v>
+        <v>8372979</v>
       </c>
       <c r="G5" t="n">
-        <v>4503930</v>
+        <v>19270896</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.546645485165178</v>
+        <v>-0.5655116918279254</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>INDIANB</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371.55</v>
+        <v>3225</v>
       </c>
       <c r="C6" t="n">
-        <v>374.55</v>
+        <v>3225</v>
       </c>
       <c r="D6" t="n">
-        <v>367</v>
+        <v>3178.1</v>
       </c>
       <c r="E6" t="n">
-        <v>374.55</v>
+        <v>3185</v>
       </c>
       <c r="F6" t="n">
-        <v>1172173</v>
+        <v>1386849</v>
       </c>
       <c r="G6" t="n">
-        <v>2433202</v>
+        <v>2734893</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5182590676811871</v>
+        <v>-0.4929055725397666</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>TCS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1728</v>
+        <v>1563</v>
       </c>
       <c r="C7" t="n">
-        <v>1745.1</v>
+        <v>1572.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1717.2</v>
+        <v>1548.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1740.6</v>
+        <v>1548.2</v>
       </c>
       <c r="F7" t="n">
-        <v>375983</v>
+        <v>735586</v>
       </c>
       <c r="G7" t="n">
-        <v>867941</v>
+        <v>1533609</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5668104168370891</v>
+        <v>-0.5203562316079261</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>APLAPOLLO</t>
+          <t>TECHM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>725</v>
+        <v>7101</v>
       </c>
       <c r="C8" t="n">
-        <v>735</v>
+        <v>7116</v>
       </c>
       <c r="D8" t="n">
-        <v>722.4</v>
+        <v>7005.5</v>
       </c>
       <c r="E8" t="n">
-        <v>730.75</v>
+        <v>7028.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1120548</v>
+        <v>266098</v>
       </c>
       <c r="G8" t="n">
-        <v>2300562</v>
+        <v>560843</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5129242332960381</v>
+        <v>-0.5255392329047524</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2890</v>
+        <v>4080</v>
       </c>
       <c r="C9" t="n">
-        <v>2919.1</v>
+        <v>4138</v>
       </c>
       <c r="D9" t="n">
-        <v>2841.8</v>
+        <v>4010.1</v>
       </c>
       <c r="E9" t="n">
-        <v>2871.9</v>
+        <v>4013</v>
       </c>
       <c r="F9" t="n">
-        <v>368244</v>
+        <v>737740</v>
       </c>
       <c r="G9" t="n">
-        <v>789218</v>
+        <v>1671211</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5334064859139046</v>
+        <v>-0.5585596313092721</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MPHASIS</t>
+          <t>TRENT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HFCL</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5</v>
+        <v>167.98</v>
       </c>
       <c r="C10" t="n">
-        <v>67.48</v>
+        <v>169.9</v>
       </c>
       <c r="D10" t="n">
-        <v>64.95</v>
+        <v>167.35</v>
       </c>
       <c r="E10" t="n">
-        <v>67.2</v>
+        <v>167.99</v>
       </c>
       <c r="F10" t="n">
-        <v>15322290</v>
+        <v>6217163</v>
       </c>
       <c r="G10" t="n">
-        <v>30628278</v>
+        <v>12988637</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4997338733832832</v>
+        <v>-0.5213383051662772</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HFCL</t>
+          <t>GAIL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7102.5</v>
+        <v>474</v>
       </c>
       <c r="C11" t="n">
-        <v>7122</v>
+        <v>480.4</v>
       </c>
       <c r="D11" t="n">
-        <v>6972.5</v>
+        <v>470.95</v>
       </c>
       <c r="E11" t="n">
-        <v>7080</v>
+        <v>471.5</v>
       </c>
       <c r="F11" t="n">
-        <v>74782</v>
+        <v>2704952</v>
       </c>
       <c r="G11" t="n">
-        <v>151668</v>
+        <v>5508110</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.506936202758657</v>
+        <v>-0.5089146730911329</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>VBL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AMBUJACEM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>533.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>536.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>528.65</v>
+      </c>
+      <c r="E12" t="n">
+        <v>529</v>
+      </c>
+      <c r="F12" t="n">
+        <v>904955</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2139922</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.5771084179703746</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>AMBUJACEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IRFC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>113.63</v>
+      </c>
+      <c r="C13" t="n">
+        <v>115.13</v>
+      </c>
+      <c r="D13" t="n">
+        <v>112</v>
+      </c>
+      <c r="E13" t="n">
+        <v>112.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4960130</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9736504</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.4905635534068491</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>IRFC</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MAZDOCK</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2480.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2509.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2432</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2434</v>
+      </c>
+      <c r="F14" t="n">
+        <v>673452</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1499888</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.5509984745527666</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MAZDOCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3326.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3412</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3326.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3361</v>
+      </c>
+      <c r="F15" t="n">
+        <v>104539</v>
+      </c>
+      <c r="G15" t="n">
+        <v>223733</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5327510917030568</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PIIND</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3768.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3792</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3735.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3749.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>270109</v>
+      </c>
+      <c r="G16" t="n">
+        <v>668721</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5960811758565979</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>456.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>448.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2723651</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6794529</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5991405732465046</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>272</v>
+      </c>
+      <c r="D18" t="n">
+        <v>268.95</v>
+      </c>
+      <c r="E18" t="n">
+        <v>269</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1059519</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2495347</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5754021384601019</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PETRONET</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>74.78</v>
+      </c>
+      <c r="D19" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="E19" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2725500</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5613560</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.5144792253044413</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SJVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>505.6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>501.45</v>
+      </c>
+      <c r="E20" t="n">
+        <v>501.75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>954403</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2303371</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.5856494676715127</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CONCOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>312.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>315</v>
+      </c>
+      <c r="D21" t="n">
+        <v>307.55</v>
+      </c>
+      <c r="E21" t="n">
+        <v>308.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2160269</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4741731</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5444134220182461</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>RVNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1957.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1962.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1905.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1921</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1108563</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2321894</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5225608920992948</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>POLICYBZR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ABFRL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>76</v>
+      </c>
+      <c r="C23" t="n">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1711327</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3721714</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.540177724564542</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ABFRL</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>415.95</v>
+      </c>
+      <c r="C24" t="n">
+        <v>415.95</v>
+      </c>
+      <c r="D24" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>405.75</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2073458</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4147364</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.5000540102098586</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DELHIVERY</t>
         </is>
       </c>
     </row>
@@ -822,7 +1251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,627 +1309,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1140.6</v>
+        <v>7129.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1151.1</v>
+        <v>7294</v>
       </c>
       <c r="D2" t="n">
-        <v>1131.9</v>
+        <v>7129.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1145.6</v>
+        <v>7233</v>
       </c>
       <c r="F2" t="n">
-        <v>851746</v>
+        <v>626505</v>
       </c>
       <c r="G2" t="n">
-        <v>590111</v>
+        <v>436443</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4433657396659272</v>
+        <v>0.4354795471573608</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1272</v>
+        <v>816.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1281.4</v>
+        <v>831.75</v>
       </c>
       <c r="D3" t="n">
-        <v>1263.2</v>
+        <v>813.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1273.1</v>
+        <v>821.6</v>
       </c>
       <c r="F3" t="n">
-        <v>4239279</v>
+        <v>5280811</v>
       </c>
       <c r="G3" t="n">
-        <v>2969478</v>
+        <v>3394966</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4276175812718599</v>
+        <v>0.5554827353204715</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>HINDALCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3990</v>
+        <v>355.05</v>
       </c>
       <c r="C4" t="n">
-        <v>4019.9</v>
+        <v>359.95</v>
       </c>
       <c r="D4" t="n">
-        <v>3949.1</v>
+        <v>352.75</v>
       </c>
       <c r="E4" t="n">
-        <v>3994.5</v>
+        <v>355</v>
       </c>
       <c r="F4" t="n">
-        <v>1788464</v>
+        <v>8521964</v>
       </c>
       <c r="G4" t="n">
-        <v>1127841</v>
+        <v>5612269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5857412525347101</v>
+        <v>0.5184525189366369</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>BPCL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402</v>
+        <v>1450.7</v>
       </c>
       <c r="C5" t="n">
-        <v>404.5</v>
+        <v>1466.4</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>1450.7</v>
       </c>
       <c r="E5" t="n">
-        <v>401.25</v>
+        <v>1457.5</v>
       </c>
       <c r="F5" t="n">
-        <v>9426717</v>
+        <v>458850</v>
       </c>
       <c r="G5" t="n">
-        <v>6056866</v>
+        <v>325894</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5563687557228442</v>
+        <v>0.4079731446421229</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7142</v>
+        <v>1014.9</v>
       </c>
       <c r="C6" t="n">
-        <v>7196</v>
+        <v>1027.8</v>
       </c>
       <c r="D6" t="n">
-        <v>7052</v>
+        <v>981</v>
       </c>
       <c r="E6" t="n">
-        <v>7122.5</v>
+        <v>987.5</v>
       </c>
       <c r="F6" t="n">
-        <v>436443</v>
+        <v>3913329</v>
       </c>
       <c r="G6" t="n">
-        <v>273509</v>
+        <v>2593247</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5957171427631266</v>
+        <v>0.5090459952330033</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1266.5</v>
+        <v>76.47</v>
       </c>
       <c r="C7" t="n">
-        <v>1267.4</v>
+        <v>79.31</v>
       </c>
       <c r="D7" t="n">
-        <v>1241.3</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1248.1</v>
+        <v>76.84</v>
       </c>
       <c r="F7" t="n">
-        <v>2118272</v>
+        <v>11484756</v>
       </c>
       <c r="G7" t="n">
-        <v>1435892</v>
+        <v>8071171</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4752307276591833</v>
+        <v>0.422935531907328</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>NHPC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>MFSL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12315</v>
+        <v>1675.5</v>
       </c>
       <c r="C8" t="n">
-        <v>12616</v>
+        <v>1717.3</v>
       </c>
       <c r="D8" t="n">
-        <v>12210</v>
+        <v>1675.5</v>
       </c>
       <c r="E8" t="n">
-        <v>12594</v>
+        <v>1695.4</v>
       </c>
       <c r="F8" t="n">
-        <v>127407</v>
+        <v>662831</v>
       </c>
       <c r="G8" t="n">
-        <v>82748</v>
+        <v>471550</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5396988446850679</v>
+        <v>0.4056430919308663</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>MFSL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>FORTIS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3760</v>
+        <v>868.9</v>
       </c>
       <c r="C9" t="n">
-        <v>3778.6</v>
+        <v>868.9</v>
       </c>
       <c r="D9" t="n">
-        <v>3714.5</v>
+        <v>850.2</v>
       </c>
       <c r="E9" t="n">
-        <v>3764</v>
+        <v>855</v>
       </c>
       <c r="F9" t="n">
-        <v>210622</v>
+        <v>3041856</v>
       </c>
       <c r="G9" t="n">
-        <v>144529</v>
+        <v>2095907</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4572992271447253</v>
+        <v>0.4513315714867119</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BANKINDIA</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>137.93</v>
-      </c>
-      <c r="C10" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>136.71</v>
-      </c>
-      <c r="E10" t="n">
-        <v>141.33</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10059178</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7093668</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4180502949954805</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>BANKINDIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>356.7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>353.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>364.85</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5835578</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3662524</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5933214362554348</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GMRAIRPORT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>98</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100.99</v>
-      </c>
-      <c r="D12" t="n">
-        <v>98</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100.45</v>
-      </c>
-      <c r="F12" t="n">
-        <v>22493544</v>
-      </c>
-      <c r="G12" t="n">
-        <v>15105989</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4890480854977453</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>GMRAIRPORT</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1612.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1611</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1628</v>
-      </c>
-      <c r="F13" t="n">
-        <v>776484</v>
-      </c>
-      <c r="G13" t="n">
-        <v>542113</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4323286842411084</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>VOLTAS</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1315</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1339.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1310</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1332.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>529692</v>
-      </c>
-      <c r="G14" t="n">
-        <v>335954</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5766801407335528</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>VOLTAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>INDUSINDBK</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>841.45</v>
-      </c>
-      <c r="C15" t="n">
-        <v>848.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>832.15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>846</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3015385</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2015558</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4960546905621173</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>INDUSINDBK</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3753.1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3767.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3712</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3745</v>
-      </c>
-      <c r="F16" t="n">
-        <v>668721</v>
-      </c>
-      <c r="G16" t="n">
-        <v>452775</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4769388769256253</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>COFORGE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1938.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1938.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1855.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1870.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2178634</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1538773</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4158254661343811</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>COFORGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AMBER</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6445.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6708.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6340</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6663.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>482532</v>
-      </c>
-      <c r="G18" t="n">
-        <v>312025</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.546453008573031</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>AMBER</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IIFL</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>552.05</v>
-      </c>
-      <c r="C19" t="n">
-        <v>569.15</v>
-      </c>
-      <c r="D19" t="n">
-        <v>546.35</v>
-      </c>
-      <c r="E19" t="n">
-        <v>567.05</v>
-      </c>
-      <c r="F19" t="n">
-        <v>962048</v>
-      </c>
-      <c r="G19" t="n">
-        <v>664864</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.446984646484093</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>IIFL</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>762.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>763.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>747</v>
-      </c>
-      <c r="E20" t="n">
-        <v>751.85</v>
-      </c>
-      <c r="F20" t="n">
-        <v>636614</v>
-      </c>
-      <c r="G20" t="n">
-        <v>450436</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4133284195757</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TATACHEM</t>
+          <t>FORTIS</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,759 +484,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2810</v>
+        <v>1492</v>
       </c>
       <c r="C2" t="n">
-        <v>2824</v>
+        <v>1513.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2796.7</v>
+        <v>1492</v>
       </c>
       <c r="E2" t="n">
-        <v>2801.3</v>
+        <v>1512</v>
       </c>
       <c r="F2" t="n">
-        <v>845073</v>
+        <v>606130</v>
       </c>
       <c r="G2" t="n">
-        <v>1839391</v>
+        <v>1316274</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5405691340231631</v>
+        <v>-0.5395107705538512</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>CIPLA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3660</v>
+        <v>8991</v>
       </c>
       <c r="C3" t="n">
-        <v>3694.9</v>
+        <v>9084</v>
       </c>
       <c r="D3" t="n">
-        <v>3626.2</v>
+        <v>8961</v>
       </c>
       <c r="E3" t="n">
-        <v>3633.4</v>
+        <v>9057</v>
       </c>
       <c r="F3" t="n">
-        <v>1593915</v>
+        <v>136142</v>
       </c>
       <c r="G3" t="n">
-        <v>3901255</v>
+        <v>307300</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5914353201726111</v>
+        <v>-0.5569736413927758</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1141.1</v>
+        <v>4300</v>
       </c>
       <c r="C4" t="n">
-        <v>1156.7</v>
+        <v>4334.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1138.3</v>
+        <v>4286</v>
       </c>
       <c r="E4" t="n">
-        <v>1140.4</v>
+        <v>4314.3</v>
       </c>
       <c r="F4" t="n">
-        <v>342793</v>
+        <v>460221</v>
       </c>
       <c r="G4" t="n">
-        <v>851746</v>
+        <v>949813</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5975408161588079</v>
+        <v>-0.5154614645198581</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>HAL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BLUESTARCO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390</v>
+        <v>1723.5</v>
       </c>
       <c r="C5" t="n">
-        <v>391.45</v>
+        <v>1757.8</v>
       </c>
       <c r="D5" t="n">
-        <v>385.75</v>
+        <v>1723.5</v>
       </c>
       <c r="E5" t="n">
-        <v>386.9</v>
+        <v>1751</v>
       </c>
       <c r="F5" t="n">
-        <v>8372979</v>
+        <v>92083</v>
       </c>
       <c r="G5" t="n">
-        <v>19270896</v>
+        <v>198789</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5655116918279254</v>
+        <v>-0.5367802041360438</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BLUESTARCO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>BIOCON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225</v>
+        <v>379</v>
       </c>
       <c r="C6" t="n">
-        <v>3225</v>
+        <v>382.7</v>
       </c>
       <c r="D6" t="n">
-        <v>3178.1</v>
+        <v>376.35</v>
       </c>
       <c r="E6" t="n">
-        <v>3185</v>
+        <v>382.45</v>
       </c>
       <c r="F6" t="n">
-        <v>1386849</v>
+        <v>1102516</v>
       </c>
       <c r="G6" t="n">
-        <v>2734893</v>
+        <v>2562204</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4929055725397666</v>
+        <v>-0.5697001487781613</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>BIOCON</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>FORTIS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1563</v>
+        <v>853</v>
       </c>
       <c r="C7" t="n">
-        <v>1572.9</v>
+        <v>862.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1548.2</v>
+        <v>848.95</v>
       </c>
       <c r="E7" t="n">
-        <v>1548.2</v>
+        <v>860.1</v>
       </c>
       <c r="F7" t="n">
-        <v>735586</v>
+        <v>1367549</v>
       </c>
       <c r="G7" t="n">
-        <v>1533609</v>
+        <v>3041856</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5203562316079261</v>
+        <v>-0.550422833954007</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>FORTIS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>SBICARD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7101</v>
+        <v>865.6</v>
       </c>
       <c r="C8" t="n">
-        <v>7116</v>
+        <v>884.85</v>
       </c>
       <c r="D8" t="n">
-        <v>7005.5</v>
+        <v>860.6</v>
       </c>
       <c r="E8" t="n">
-        <v>7028.5</v>
+        <v>872</v>
       </c>
       <c r="F8" t="n">
-        <v>266098</v>
+        <v>659807</v>
       </c>
       <c r="G8" t="n">
-        <v>560843</v>
+        <v>1361622</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5255392329047524</v>
+        <v>-0.5154257202072234</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>SBICARD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4080</v>
+        <v>1717.2</v>
       </c>
       <c r="C9" t="n">
-        <v>4138</v>
+        <v>1752.1</v>
       </c>
       <c r="D9" t="n">
-        <v>4010.1</v>
+        <v>1717.2</v>
       </c>
       <c r="E9" t="n">
-        <v>4013</v>
+        <v>1741.5</v>
       </c>
       <c r="F9" t="n">
-        <v>737740</v>
+        <v>232004</v>
       </c>
       <c r="G9" t="n">
-        <v>1671211</v>
+        <v>555965</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5585596313092721</v>
+        <v>-0.5827003498421663</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TRENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GAIL</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>167.98</v>
-      </c>
-      <c r="C10" t="n">
-        <v>169.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>167.35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>167.99</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6217163</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12988637</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.5213383051662772</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>GAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>VBL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>474</v>
-      </c>
-      <c r="C11" t="n">
-        <v>480.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>470.95</v>
-      </c>
-      <c r="E11" t="n">
-        <v>471.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2704952</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5508110</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5089146730911329</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>VBL</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AMBUJACEM</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>533.05</v>
-      </c>
-      <c r="C12" t="n">
-        <v>536.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>528.65</v>
-      </c>
-      <c r="E12" t="n">
-        <v>529</v>
-      </c>
-      <c r="F12" t="n">
-        <v>904955</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2139922</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.5771084179703746</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>AMBUJACEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>IRFC</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>113.63</v>
-      </c>
-      <c r="C13" t="n">
-        <v>115.13</v>
-      </c>
-      <c r="D13" t="n">
-        <v>112</v>
-      </c>
-      <c r="E13" t="n">
-        <v>112.06</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4960130</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9736504</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.4905635534068491</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>IRFC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MAZDOCK</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2480.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2509.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2432</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2434</v>
-      </c>
-      <c r="F14" t="n">
-        <v>673452</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1499888</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.5509984745527666</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>MAZDOCK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PIIND</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3326.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3412</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3326.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3361</v>
-      </c>
-      <c r="F15" t="n">
-        <v>104539</v>
-      </c>
-      <c r="G15" t="n">
-        <v>223733</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.5327510917030568</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>PIIND</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3768.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3792</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3735.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3749.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>270109</v>
-      </c>
-      <c r="G16" t="n">
-        <v>668721</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.5960811758565979</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>MUTHOOTFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>450.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>456.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>448.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>448.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2723651</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6794529</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.5991405732465046</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>269.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>272</v>
-      </c>
-      <c r="D18" t="n">
-        <v>268.95</v>
-      </c>
-      <c r="E18" t="n">
-        <v>269</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1059519</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2495347</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.5754021384601019</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>PETRONET</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SJVN</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>73.98999999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>74.78</v>
-      </c>
-      <c r="D19" t="n">
-        <v>73.23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2725500</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5613560</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.5144792253044413</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>SJVN</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CONCOR</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>505.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>513</v>
-      </c>
-      <c r="D20" t="n">
-        <v>501.45</v>
-      </c>
-      <c r="E20" t="n">
-        <v>501.75</v>
-      </c>
-      <c r="F20" t="n">
-        <v>954403</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2303371</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.5856494676715127</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>CONCOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>RVNL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>312.05</v>
-      </c>
-      <c r="C21" t="n">
-        <v>315</v>
-      </c>
-      <c r="D21" t="n">
-        <v>307.55</v>
-      </c>
-      <c r="E21" t="n">
-        <v>308.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2160269</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4741731</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.5444134220182461</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>RVNL</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1957.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1962.9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1905.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1921</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1108563</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2321894</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.5225608920992948</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>POLICYBZR</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>76</v>
-      </c>
-      <c r="C23" t="n">
-        <v>77.65000000000001</v>
-      </c>
-      <c r="D23" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E23" t="n">
-        <v>74.95</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1711327</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3721714</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.540177724564542</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ABFRL</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>DELHIVERY</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>415.95</v>
-      </c>
-      <c r="C24" t="n">
-        <v>415.95</v>
-      </c>
-      <c r="D24" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>405.75</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2073458</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4147364</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.5000540102098586</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>DELHIVERY</t>
+          <t>PHOENIXLTD</t>
         </is>
       </c>
     </row>
@@ -1251,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,264 +814,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7129.5</v>
+        <v>163.5</v>
       </c>
       <c r="C2" t="n">
-        <v>7294</v>
+        <v>166.66</v>
       </c>
       <c r="D2" t="n">
-        <v>7129.5</v>
+        <v>163.17</v>
       </c>
       <c r="E2" t="n">
-        <v>7233</v>
+        <v>166.4</v>
       </c>
       <c r="F2" t="n">
-        <v>626505</v>
+        <v>32603566</v>
       </c>
       <c r="G2" t="n">
-        <v>436443</v>
+        <v>22537548</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4354795471573608</v>
+        <v>0.4466332362331519</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>816.05</v>
+        <v>995</v>
       </c>
       <c r="C3" t="n">
-        <v>831.75</v>
+        <v>1026.4</v>
       </c>
       <c r="D3" t="n">
-        <v>813.6</v>
+        <v>975</v>
       </c>
       <c r="E3" t="n">
-        <v>821.6</v>
+        <v>1024</v>
       </c>
       <c r="F3" t="n">
-        <v>5280811</v>
+        <v>5927384</v>
       </c>
       <c r="G3" t="n">
-        <v>3394966</v>
+        <v>3913329</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5554827353204715</v>
+        <v>0.5146653910264125</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.05</v>
+        <v>25745</v>
       </c>
       <c r="C4" t="n">
-        <v>359.95</v>
+        <v>26350</v>
       </c>
       <c r="D4" t="n">
-        <v>352.75</v>
+        <v>25740</v>
       </c>
       <c r="E4" t="n">
-        <v>355</v>
+        <v>26075</v>
       </c>
       <c r="F4" t="n">
-        <v>8521964</v>
+        <v>46366</v>
       </c>
       <c r="G4" t="n">
-        <v>5612269</v>
+        <v>32453</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5184525189366369</v>
+        <v>0.4287122916217299</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>SHREECEM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1450.7</v>
+        <v>287.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1466.4</v>
+        <v>288.65</v>
       </c>
       <c r="D5" t="n">
-        <v>1450.7</v>
+        <v>283.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.5</v>
+        <v>285</v>
       </c>
       <c r="F5" t="n">
-        <v>458850</v>
+        <v>8448904</v>
       </c>
       <c r="G5" t="n">
-        <v>325894</v>
+        <v>5900048</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4079731446421229</v>
+        <v>0.4320059769005269</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014.9</v>
+        <v>736.85</v>
       </c>
       <c r="C6" t="n">
-        <v>1027.8</v>
+        <v>748.45</v>
       </c>
       <c r="D6" t="n">
-        <v>981</v>
+        <v>732.55</v>
       </c>
       <c r="E6" t="n">
-        <v>987.5</v>
+        <v>743</v>
       </c>
       <c r="F6" t="n">
-        <v>3913329</v>
+        <v>2062566</v>
       </c>
       <c r="G6" t="n">
-        <v>2593247</v>
+        <v>1346660</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5090459952330033</v>
+        <v>0.5316159980990005</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>UPL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.47</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>79.31</v>
+        <v>81.66</v>
       </c>
       <c r="D7" t="n">
-        <v>76.26000000000001</v>
+        <v>80.16</v>
       </c>
       <c r="E7" t="n">
-        <v>76.84</v>
+        <v>80.56</v>
       </c>
       <c r="F7" t="n">
-        <v>11484756</v>
+        <v>13884073</v>
       </c>
       <c r="G7" t="n">
-        <v>8071171</v>
+        <v>8956085</v>
       </c>
       <c r="H7" t="n">
-        <v>0.422935531907328</v>
+        <v>0.5502390832601521</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NHPC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1675.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1717.3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1675.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1695.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>662831</v>
-      </c>
-      <c r="G8" t="n">
-        <v>471550</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.4056430919308663</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>MFSL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FORTIS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>868.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>868.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>850.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>855</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3041856</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2095907</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4513315714867119</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>FORTIS</t>
+          <t>IDFCFIRSTB</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,264 +484,330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1492</v>
+        <v>238.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1513.4</v>
+        <v>239.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1492</v>
+        <v>237.02</v>
       </c>
       <c r="E2" t="n">
-        <v>1512</v>
+        <v>238.1</v>
       </c>
       <c r="F2" t="n">
-        <v>606130</v>
+        <v>4252781</v>
       </c>
       <c r="G2" t="n">
-        <v>1316274</v>
+        <v>8868641</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5395107705538512</v>
+        <v>-0.5204698217009799</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ONGC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8991</v>
+        <v>1024</v>
       </c>
       <c r="C3" t="n">
-        <v>9084</v>
+        <v>1042</v>
       </c>
       <c r="D3" t="n">
-        <v>8961</v>
+        <v>1024</v>
       </c>
       <c r="E3" t="n">
-        <v>9057</v>
+        <v>1038.2</v>
       </c>
       <c r="F3" t="n">
-        <v>136142</v>
+        <v>2615096</v>
       </c>
       <c r="G3" t="n">
-        <v>307300</v>
+        <v>5927384</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5569736413927758</v>
+        <v>-0.558811104527731</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4300</v>
+        <v>120.49</v>
       </c>
       <c r="C4" t="n">
-        <v>4334.4</v>
+        <v>121.48</v>
       </c>
       <c r="D4" t="n">
-        <v>4286</v>
+        <v>119.97</v>
       </c>
       <c r="E4" t="n">
-        <v>4314.3</v>
+        <v>121.3</v>
       </c>
       <c r="F4" t="n">
-        <v>460221</v>
+        <v>14876284</v>
       </c>
       <c r="G4" t="n">
-        <v>949813</v>
+        <v>30012240</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5154614645198581</v>
+        <v>-0.5043261016172068</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLUESTARCO</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1723.5</v>
+        <v>6430</v>
       </c>
       <c r="C5" t="n">
-        <v>1757.8</v>
+        <v>6519</v>
       </c>
       <c r="D5" t="n">
-        <v>1723.5</v>
+        <v>6410</v>
       </c>
       <c r="E5" t="n">
-        <v>1751</v>
+        <v>6419</v>
       </c>
       <c r="F5" t="n">
-        <v>92083</v>
+        <v>128635</v>
       </c>
       <c r="G5" t="n">
-        <v>198789</v>
+        <v>264850</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5367802041360438</v>
+        <v>-0.5143099867849726</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BLUESTARCO</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379</v>
+        <v>1410</v>
       </c>
       <c r="C6" t="n">
-        <v>382.7</v>
+        <v>1420.6</v>
       </c>
       <c r="D6" t="n">
-        <v>376.35</v>
+        <v>1404.7</v>
       </c>
       <c r="E6" t="n">
-        <v>382.45</v>
+        <v>1415.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1102516</v>
+        <v>229029</v>
       </c>
       <c r="G6" t="n">
-        <v>2562204</v>
+        <v>510796</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5697001487781613</v>
+        <v>-0.5516233486558234</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>ASTRAL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>853</v>
+        <v>1284</v>
       </c>
       <c r="C7" t="n">
-        <v>862.5</v>
+        <v>1296.5</v>
       </c>
       <c r="D7" t="n">
-        <v>848.95</v>
+        <v>1280.6</v>
       </c>
       <c r="E7" t="n">
-        <v>860.1</v>
+        <v>1289.8</v>
       </c>
       <c r="F7" t="n">
-        <v>1367549</v>
+        <v>143211</v>
       </c>
       <c r="G7" t="n">
-        <v>3041856</v>
+        <v>318739</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.550422833954007</v>
+        <v>-0.5506950828107009</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>TORNTPOWER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>865.6</v>
+        <v>141</v>
       </c>
       <c r="C8" t="n">
-        <v>884.85</v>
+        <v>141.57</v>
       </c>
       <c r="D8" t="n">
-        <v>860.6</v>
+        <v>139.83</v>
       </c>
       <c r="E8" t="n">
-        <v>872</v>
+        <v>141.2</v>
       </c>
       <c r="F8" t="n">
-        <v>659807</v>
+        <v>3210687</v>
       </c>
       <c r="G8" t="n">
-        <v>1361622</v>
+        <v>7263380</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5154257202072234</v>
+        <v>-0.5579624086857634</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SBICARD</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>CESC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1717.2</v>
+        <v>169.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1752.1</v>
+        <v>170.48</v>
       </c>
       <c r="D9" t="n">
-        <v>1717.2</v>
+        <v>168.96</v>
       </c>
       <c r="E9" t="n">
-        <v>1741.5</v>
+        <v>170.25</v>
       </c>
       <c r="F9" t="n">
-        <v>232004</v>
+        <v>428230</v>
       </c>
       <c r="G9" t="n">
-        <v>555965</v>
+        <v>877120</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5827003498421663</v>
+        <v>-0.5117771798613645</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>CESC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1537.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1518</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1524</v>
+      </c>
+      <c r="F10" t="n">
+        <v>907070</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1810907</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.4991073533870044</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CDSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1080.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1081.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1045.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1050.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>837476</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1920257</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5638729607547323</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>KFINTECH</t>
         </is>
       </c>
     </row>
@@ -756,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,198 +880,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.5</v>
+        <v>16248</v>
       </c>
       <c r="C2" t="n">
-        <v>166.66</v>
+        <v>16536</v>
       </c>
       <c r="D2" t="n">
-        <v>163.17</v>
+        <v>16247</v>
       </c>
       <c r="E2" t="n">
-        <v>166.4</v>
+        <v>16515</v>
       </c>
       <c r="F2" t="n">
-        <v>32603566</v>
+        <v>404711</v>
       </c>
       <c r="G2" t="n">
-        <v>22537548</v>
+        <v>268701</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4466332362331519</v>
+        <v>0.5061760097655015</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>MARUTI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>995</v>
+        <v>852</v>
       </c>
       <c r="C3" t="n">
-        <v>1026.4</v>
+        <v>854.75</v>
       </c>
       <c r="D3" t="n">
-        <v>975</v>
+        <v>841.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1024</v>
+        <v>849</v>
       </c>
       <c r="F3" t="n">
-        <v>5927384</v>
+        <v>6036788</v>
       </c>
       <c r="G3" t="n">
-        <v>3913329</v>
+        <v>4213992</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5146653910264125</v>
+        <v>0.4325580115007338</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25745</v>
+        <v>1019</v>
       </c>
       <c r="C4" t="n">
-        <v>26350</v>
+        <v>1032.5</v>
       </c>
       <c r="D4" t="n">
-        <v>25740</v>
+        <v>1017.9</v>
       </c>
       <c r="E4" t="n">
-        <v>26075</v>
+        <v>1029</v>
       </c>
       <c r="F4" t="n">
-        <v>46366</v>
+        <v>846932</v>
       </c>
       <c r="G4" t="n">
-        <v>32453</v>
+        <v>576973</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4287122916217299</v>
+        <v>0.4678884453865259</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.9</v>
+        <v>162.35</v>
       </c>
       <c r="C5" t="n">
-        <v>288.65</v>
+        <v>164.9</v>
       </c>
       <c r="D5" t="n">
-        <v>283.5</v>
+        <v>162.06</v>
       </c>
       <c r="E5" t="n">
-        <v>285</v>
+        <v>163.85</v>
       </c>
       <c r="F5" t="n">
-        <v>8448904</v>
+        <v>13492656</v>
       </c>
       <c r="G5" t="n">
-        <v>5900048</v>
+        <v>8829634</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4320059769005269</v>
+        <v>0.5281104516902966</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>IOC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>736.85</v>
+        <v>1719.4</v>
       </c>
       <c r="C6" t="n">
-        <v>748.45</v>
+        <v>1740.4</v>
       </c>
       <c r="D6" t="n">
-        <v>732.55</v>
+        <v>1703.8</v>
       </c>
       <c r="E6" t="n">
-        <v>743</v>
+        <v>1734</v>
       </c>
       <c r="F6" t="n">
-        <v>2062566</v>
+        <v>2309890</v>
       </c>
       <c r="G6" t="n">
-        <v>1346660</v>
+        <v>1613630</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5316159980990005</v>
+        <v>0.4314867720605096</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.31999999999999</v>
+        <v>697</v>
       </c>
       <c r="C7" t="n">
-        <v>81.66</v>
+        <v>705</v>
       </c>
       <c r="D7" t="n">
-        <v>80.16</v>
+        <v>691.7</v>
       </c>
       <c r="E7" t="n">
-        <v>80.56</v>
+        <v>698.3</v>
       </c>
       <c r="F7" t="n">
-        <v>13884073</v>
+        <v>2447290</v>
       </c>
       <c r="G7" t="n">
-        <v>8956085</v>
+        <v>1705673</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5502390832601521</v>
+        <v>0.4347943597629792</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB</t>
+          <t>DLF</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BOSCHLTD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>36880</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36950</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36285</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36625</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11065</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7160</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5453910614525139</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>BOSCHLTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1724.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1707.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1716.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>547322</v>
+      </c>
+      <c r="G9" t="n">
+        <v>370735</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4763159669305569</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MFSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>534</v>
+      </c>
+      <c r="C10" t="n">
+        <v>539.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>530</v>
+      </c>
+      <c r="E10" t="n">
+        <v>536.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4415565</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2804718</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5743347459530691</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PATANJALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2676</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2681.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2653.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2669.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1304915</v>
+      </c>
+      <c r="G11" t="n">
+        <v>895280</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4575495934232865</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>161</v>
+      </c>
+      <c r="C12" t="n">
+        <v>161.74</v>
+      </c>
+      <c r="D12" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>160.46</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3509185</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2315642</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.515426391471566</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1016.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1010.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1244218</v>
+      </c>
+      <c r="G13" t="n">
+        <v>818322</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5204503850562493</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>LAURUSLABS</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238.5</v>
+        <v>4072.8</v>
       </c>
       <c r="C2" t="n">
-        <v>239.4</v>
+        <v>4096</v>
       </c>
       <c r="D2" t="n">
-        <v>237.02</v>
+        <v>4063.8</v>
       </c>
       <c r="E2" t="n">
-        <v>238.1</v>
+        <v>4090</v>
       </c>
       <c r="F2" t="n">
-        <v>4252781</v>
+        <v>1064975</v>
       </c>
       <c r="G2" t="n">
-        <v>8868641</v>
+        <v>2207898</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5204698217009799</v>
+        <v>-0.5176520835654546</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>LT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1024</v>
+        <v>11658</v>
       </c>
       <c r="C3" t="n">
-        <v>1042</v>
+        <v>11804</v>
       </c>
       <c r="D3" t="n">
-        <v>1024</v>
+        <v>11658</v>
       </c>
       <c r="E3" t="n">
-        <v>1038.2</v>
+        <v>11711</v>
       </c>
       <c r="F3" t="n">
-        <v>2615096</v>
+        <v>178073</v>
       </c>
       <c r="G3" t="n">
-        <v>5927384</v>
+        <v>389481</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.558811104527731</v>
+        <v>-0.5427941285967737</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.49</v>
+        <v>547.75</v>
       </c>
       <c r="C4" t="n">
-        <v>121.48</v>
+        <v>556.3</v>
       </c>
       <c r="D4" t="n">
-        <v>119.97</v>
+        <v>542.95</v>
       </c>
       <c r="E4" t="n">
-        <v>121.3</v>
+        <v>554</v>
       </c>
       <c r="F4" t="n">
-        <v>14876284</v>
+        <v>1239318</v>
       </c>
       <c r="G4" t="n">
-        <v>30012240</v>
+        <v>2488693</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5043261016172068</v>
+        <v>-0.5020205384914893</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6430</v>
+        <v>1014.4</v>
       </c>
       <c r="C5" t="n">
-        <v>6519</v>
+        <v>1020</v>
       </c>
       <c r="D5" t="n">
-        <v>6410</v>
+        <v>1007.05</v>
       </c>
       <c r="E5" t="n">
-        <v>6419</v>
+        <v>1015.2</v>
       </c>
       <c r="F5" t="n">
-        <v>128635</v>
+        <v>887627</v>
       </c>
       <c r="G5" t="n">
-        <v>264850</v>
+        <v>2110784</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5143099867849726</v>
+        <v>-0.5794799467875443</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1410</v>
+        <v>1032</v>
       </c>
       <c r="C6" t="n">
-        <v>1420.6</v>
+        <v>1036.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1404.7</v>
+        <v>1023.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1415.8</v>
+        <v>1031</v>
       </c>
       <c r="F6" t="n">
-        <v>229029</v>
+        <v>396392</v>
       </c>
       <c r="G6" t="n">
-        <v>510796</v>
+        <v>846932</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5516233486558234</v>
+        <v>-0.5319671473034435</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1284</v>
+        <v>380</v>
       </c>
       <c r="C7" t="n">
-        <v>1296.5</v>
+        <v>382.4</v>
       </c>
       <c r="D7" t="n">
-        <v>1280.6</v>
+        <v>378</v>
       </c>
       <c r="E7" t="n">
-        <v>1289.8</v>
+        <v>382</v>
       </c>
       <c r="F7" t="n">
-        <v>143211</v>
+        <v>3359948</v>
       </c>
       <c r="G7" t="n">
-        <v>318739</v>
+        <v>6778054</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5506950828107009</v>
+        <v>-0.5042901694203086</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TORNTPOWER</t>
+          <t>TATAPOWER</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141</v>
+        <v>36870</v>
       </c>
       <c r="C8" t="n">
-        <v>141.57</v>
+        <v>36870</v>
       </c>
       <c r="D8" t="n">
-        <v>139.83</v>
+        <v>36340</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2</v>
+        <v>36390</v>
       </c>
       <c r="F8" t="n">
-        <v>3210687</v>
+        <v>4956</v>
       </c>
       <c r="G8" t="n">
-        <v>7263380</v>
+        <v>11065</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5579624086857634</v>
+        <v>-0.5521012200632626</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BANKINDIA</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CESC</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169.5</v>
+        <v>751</v>
       </c>
       <c r="C9" t="n">
-        <v>170.48</v>
+        <v>769.55</v>
       </c>
       <c r="D9" t="n">
-        <v>168.96</v>
+        <v>743</v>
       </c>
       <c r="E9" t="n">
-        <v>170.25</v>
+        <v>766</v>
       </c>
       <c r="F9" t="n">
-        <v>428230</v>
+        <v>1840513</v>
       </c>
       <c r="G9" t="n">
-        <v>877120</v>
+        <v>4075773</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5117771798613645</v>
+        <v>-0.5484260286330961</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CESC</t>
+          <t>UPL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>SONACOMS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1531</v>
+        <v>490</v>
       </c>
       <c r="C10" t="n">
-        <v>1537.4</v>
+        <v>496</v>
       </c>
       <c r="D10" t="n">
-        <v>1518</v>
+        <v>483.1</v>
       </c>
       <c r="E10" t="n">
-        <v>1524</v>
+        <v>485.5</v>
       </c>
       <c r="F10" t="n">
-        <v>907070</v>
+        <v>1169034</v>
       </c>
       <c r="G10" t="n">
-        <v>1810907</v>
+        <v>2896193</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4991073533870044</v>
+        <v>-0.5963549390527496</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CDSL</t>
+          <t>SONACOMS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2669.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2669.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2597.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2608</v>
+      </c>
+      <c r="F11" t="n">
+        <v>626759</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1304915</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.5196936198909508</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>HDFCAMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>KFINTECH</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1080.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1081.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1045.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1050.8</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="B12" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1056.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1039.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1049.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>402076</v>
+      </c>
+      <c r="G12" t="n">
         <v>837476</v>
       </c>
-      <c r="G11" t="n">
-        <v>1920257</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.5638729607547323</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H12" t="n">
+        <v>-0.5198954955127072</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>KFINTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>576.95</v>
+      </c>
+      <c r="C13" t="n">
+        <v>577.75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>569.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>571.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>583309</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1274628</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.5423692245894488</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>GRANULES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>566</v>
+      </c>
+      <c r="C14" t="n">
+        <v>577</v>
+      </c>
+      <c r="D14" t="n">
+        <v>561.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>564</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1825949</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4093056</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.55389102909904</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PGEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>287.55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>290.25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>285.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1150976</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2857546</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5972152329306335</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>MANAPPURAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7349</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7349</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7242.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7275</v>
+      </c>
+      <c r="F16" t="n">
+        <v>33266</v>
+      </c>
+      <c r="G16" t="n">
+        <v>72775</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.5428924768120921</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NUVAMA</t>
         </is>
       </c>
     </row>
@@ -822,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,396 +1045,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16248</v>
+        <v>9040</v>
       </c>
       <c r="C2" t="n">
-        <v>16536</v>
+        <v>9042.5</v>
       </c>
       <c r="D2" t="n">
-        <v>16247</v>
+        <v>8884</v>
       </c>
       <c r="E2" t="n">
-        <v>16515</v>
+        <v>8921</v>
       </c>
       <c r="F2" t="n">
-        <v>404711</v>
+        <v>507849</v>
       </c>
       <c r="G2" t="n">
-        <v>268701</v>
+        <v>356060</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5061760097655015</v>
+        <v>0.4263017468965904</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>852</v>
+        <v>3632</v>
       </c>
       <c r="C3" t="n">
-        <v>854.75</v>
+        <v>3665.4</v>
       </c>
       <c r="D3" t="n">
-        <v>841.5</v>
+        <v>3603.6</v>
       </c>
       <c r="E3" t="n">
-        <v>849</v>
+        <v>3609.7</v>
       </c>
       <c r="F3" t="n">
-        <v>6036788</v>
+        <v>1704069</v>
       </c>
       <c r="G3" t="n">
-        <v>4213992</v>
+        <v>1078982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4325580115007338</v>
+        <v>0.5793303317386203</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>M&amp;M</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1019</v>
+        <v>1480</v>
       </c>
       <c r="C4" t="n">
-        <v>1032.5</v>
+        <v>1483.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1017.9</v>
+        <v>1468.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1029</v>
+        <v>1475.3</v>
       </c>
       <c r="F4" t="n">
-        <v>846932</v>
+        <v>494291</v>
       </c>
       <c r="G4" t="n">
-        <v>576973</v>
+        <v>332259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4678884453865259</v>
+        <v>0.4876677531684619</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.35</v>
+        <v>864</v>
       </c>
       <c r="C5" t="n">
-        <v>164.9</v>
+        <v>866.15</v>
       </c>
       <c r="D5" t="n">
-        <v>162.06</v>
+        <v>855.5</v>
       </c>
       <c r="E5" t="n">
-        <v>163.85</v>
+        <v>856.55</v>
       </c>
       <c r="F5" t="n">
-        <v>13492656</v>
+        <v>760013</v>
       </c>
       <c r="G5" t="n">
-        <v>8829634</v>
+        <v>513683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5281104516902966</v>
+        <v>0.4795369907121708</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>LICI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1719.4</v>
+        <v>1362.6</v>
       </c>
       <c r="C6" t="n">
-        <v>1740.4</v>
+        <v>1371.7</v>
       </c>
       <c r="D6" t="n">
-        <v>1703.8</v>
+        <v>1345.3</v>
       </c>
       <c r="E6" t="n">
-        <v>1734</v>
+        <v>1360</v>
       </c>
       <c r="F6" t="n">
-        <v>2309890</v>
+        <v>932411</v>
       </c>
       <c r="G6" t="n">
-        <v>1613630</v>
+        <v>594311</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4314867720605096</v>
+        <v>0.5688940638823781</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>COLPAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697</v>
+        <v>2161</v>
       </c>
       <c r="C7" t="n">
-        <v>705</v>
+        <v>2171.5</v>
       </c>
       <c r="D7" t="n">
-        <v>691.7</v>
+        <v>2146.1</v>
       </c>
       <c r="E7" t="n">
-        <v>698.3</v>
+        <v>2163.4</v>
       </c>
       <c r="F7" t="n">
-        <v>2447290</v>
+        <v>396185</v>
       </c>
       <c r="G7" t="n">
-        <v>1705673</v>
+        <v>248587</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4347943597629792</v>
+        <v>0.5937478629212308</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>COLPAL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>MPHASIS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36880</v>
+        <v>2895.7</v>
       </c>
       <c r="C8" t="n">
-        <v>36950</v>
+        <v>2903.5</v>
       </c>
       <c r="D8" t="n">
-        <v>36285</v>
+        <v>2860.3</v>
       </c>
       <c r="E8" t="n">
-        <v>36625</v>
+        <v>2895</v>
       </c>
       <c r="F8" t="n">
-        <v>11065</v>
+        <v>207272</v>
       </c>
       <c r="G8" t="n">
-        <v>7160</v>
+        <v>140084</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5453910614525139</v>
+        <v>0.4796265098084007</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>MPHASIS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1711</v>
+        <v>788</v>
       </c>
       <c r="C9" t="n">
-        <v>1724.9</v>
+        <v>793.25</v>
       </c>
       <c r="D9" t="n">
-        <v>1707.5</v>
+        <v>779.05</v>
       </c>
       <c r="E9" t="n">
-        <v>1716.5</v>
+        <v>783</v>
       </c>
       <c r="F9" t="n">
-        <v>547322</v>
+        <v>2416248</v>
       </c>
       <c r="G9" t="n">
-        <v>370735</v>
+        <v>1533875</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4763159669305569</v>
+        <v>0.575257436231766</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MFSL</t>
+          <t>INDIANB</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>CESC</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>534</v>
+        <v>169</v>
       </c>
       <c r="C10" t="n">
-        <v>539.4</v>
+        <v>171.5</v>
       </c>
       <c r="D10" t="n">
-        <v>530</v>
+        <v>168.64</v>
       </c>
       <c r="E10" t="n">
-        <v>536.3</v>
+        <v>171.09</v>
       </c>
       <c r="F10" t="n">
-        <v>4415565</v>
+        <v>604975</v>
       </c>
       <c r="G10" t="n">
-        <v>2804718</v>
+        <v>428230</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5743347459530691</v>
+        <v>0.4127338112696448</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HDFCAMC</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2676</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2681.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2653.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2669.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1304915</v>
-      </c>
-      <c r="G11" t="n">
-        <v>895280</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.4575495934232865</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>HDFCAMC</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>161</v>
-      </c>
-      <c r="C12" t="n">
-        <v>161.74</v>
-      </c>
-      <c r="D12" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>160.46</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3509185</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2315642</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.515426391471566</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>NCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1016.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1027.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1006.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1010.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1244218</v>
-      </c>
-      <c r="G13" t="n">
-        <v>818322</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5204503850562493</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>LAURUSLABS</t>
+          <t>CESC</t>
         </is>
       </c>
     </row>

--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sq